--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="560">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2050,6 +2050,10 @@
   <si>
     <t>販売数量
 (直近60日間)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000RT5CCF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12664,7 +12668,7 @@
         <v>212</v>
       </c>
       <c r="J16" s="112" t="s">
-        <v>104</v>
+        <v>559</v>
       </c>
       <c r="K16" s="113"/>
       <c r="L16" s="230"/>
@@ -17332,7 +17336,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -20355,7 +20359,7 @@
   <dimension ref="B1:W122"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="N106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="在庫情報R" sheetId="34" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">入荷見積W!$B$3:$L$290</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">在庫情報W!$B$3:$U$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">在庫情報W!$B$3:$V$290</definedName>
     <definedName name="List" localSheetId="3">入荷見積W!#REF!</definedName>
     <definedName name="List">在庫情報W!#REF!</definedName>
     <definedName name="List1" localSheetId="3">入荷見積W!#REF!</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="561">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2054,6 +2054,10 @@
   </si>
   <si>
     <t>X000RT5CCF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>価格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3116,7 +3120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3967,6 +3971,22 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3986,46 +4006,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4045,17 +4047,26 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4066,31 +4077,43 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4102,17 +4125,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4129,34 +4158,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4164,14 +4171,9 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF66FF"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4185,7 +4187,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFF66FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4254,6 +4256,11 @@
           <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -10498,11 +10505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CE49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="CF12" sqref="CF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -10519,9 +10526,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:83" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BH1" s="375"/>
-      <c r="BI1" s="375"/>
-      <c r="BJ1" s="375"/>
+      <c r="BH1" s="381"/>
+      <c r="BI1" s="381"/>
+      <c r="BJ1" s="381"/>
     </row>
     <row r="2" spans="2:83" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="23" t="s">
@@ -10556,46 +10563,46 @@
       <c r="AA2" s="77"/>
       <c r="AB2" s="77"/>
       <c r="AC2" s="78"/>
-      <c r="AD2" s="372" t="s">
+      <c r="AD2" s="378" t="s">
         <v>547</v>
       </c>
-      <c r="AE2" s="373"/>
-      <c r="AF2" s="373"/>
-      <c r="AG2" s="373"/>
-      <c r="AH2" s="373"/>
-      <c r="AI2" s="374"/>
-      <c r="AJ2" s="372" t="s">
+      <c r="AE2" s="379"/>
+      <c r="AF2" s="379"/>
+      <c r="AG2" s="379"/>
+      <c r="AH2" s="379"/>
+      <c r="AI2" s="380"/>
+      <c r="AJ2" s="378" t="s">
         <v>313</v>
       </c>
-      <c r="AK2" s="373"/>
-      <c r="AL2" s="373"/>
-      <c r="AM2" s="373"/>
-      <c r="AN2" s="373"/>
-      <c r="AO2" s="374"/>
-      <c r="AP2" s="372" t="s">
+      <c r="AK2" s="379"/>
+      <c r="AL2" s="379"/>
+      <c r="AM2" s="379"/>
+      <c r="AN2" s="379"/>
+      <c r="AO2" s="380"/>
+      <c r="AP2" s="378" t="s">
         <v>548</v>
       </c>
-      <c r="AQ2" s="376"/>
-      <c r="AR2" s="376"/>
-      <c r="AS2" s="376"/>
-      <c r="AT2" s="376"/>
-      <c r="AU2" s="377"/>
-      <c r="AV2" s="372" t="s">
+      <c r="AQ2" s="382"/>
+      <c r="AR2" s="382"/>
+      <c r="AS2" s="382"/>
+      <c r="AT2" s="382"/>
+      <c r="AU2" s="383"/>
+      <c r="AV2" s="378" t="s">
         <v>549</v>
       </c>
-      <c r="AW2" s="376"/>
-      <c r="AX2" s="376"/>
-      <c r="AY2" s="376"/>
-      <c r="AZ2" s="376"/>
-      <c r="BA2" s="377"/>
-      <c r="BB2" s="372" t="s">
+      <c r="AW2" s="382"/>
+      <c r="AX2" s="382"/>
+      <c r="AY2" s="382"/>
+      <c r="AZ2" s="382"/>
+      <c r="BA2" s="383"/>
+      <c r="BB2" s="378" t="s">
         <v>550</v>
       </c>
-      <c r="BC2" s="373"/>
-      <c r="BD2" s="373"/>
-      <c r="BE2" s="373"/>
-      <c r="BF2" s="373"/>
-      <c r="BG2" s="374"/>
+      <c r="BC2" s="379"/>
+      <c r="BD2" s="379"/>
+      <c r="BE2" s="379"/>
+      <c r="BF2" s="379"/>
+      <c r="BG2" s="380"/>
       <c r="BH2" s="23" t="s">
         <v>184</v>
       </c>
@@ -10620,14 +10627,14 @@
       <c r="BW2" s="24"/>
       <c r="BX2" s="24"/>
       <c r="BY2" s="25"/>
-      <c r="BZ2" s="372" t="s">
+      <c r="BZ2" s="378" t="s">
         <v>546</v>
       </c>
-      <c r="CA2" s="373"/>
-      <c r="CB2" s="373"/>
-      <c r="CC2" s="373"/>
-      <c r="CD2" s="373"/>
-      <c r="CE2" s="374"/>
+      <c r="CA2" s="379"/>
+      <c r="CB2" s="379"/>
+      <c r="CC2" s="379"/>
+      <c r="CD2" s="379"/>
+      <c r="CE2" s="380"/>
     </row>
     <row r="3" spans="2:83" s="132" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">
@@ -13643,20 +13650,20 @@
         <v>137</v>
       </c>
       <c r="K22" s="113"/>
-      <c r="L22" s="430"/>
-      <c r="M22" s="431"/>
-      <c r="N22" s="431"/>
-      <c r="O22" s="431"/>
-      <c r="P22" s="431"/>
-      <c r="Q22" s="432"/>
-      <c r="R22" s="433">
+      <c r="L22" s="372"/>
+      <c r="M22" s="373"/>
+      <c r="N22" s="373"/>
+      <c r="O22" s="373"/>
+      <c r="P22" s="373"/>
+      <c r="Q22" s="374"/>
+      <c r="R22" s="375">
         <v>4</v>
       </c>
-      <c r="S22" s="434"/>
-      <c r="T22" s="434">
+      <c r="S22" s="376"/>
+      <c r="T22" s="376">
         <v>1</v>
       </c>
-      <c r="U22" s="434">
+      <c r="U22" s="376">
         <v>3</v>
       </c>
       <c r="V22" s="301"/>
@@ -17355,7 +17362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BG48">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>L4=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17412,7 +17419,7 @@
       <c r="U2" s="56"/>
       <c r="V2" s="56"/>
       <c r="W2" s="57"/>
-      <c r="X2" s="409" t="s">
+      <c r="X2" s="390" t="s">
         <v>274</v>
       </c>
     </row>
@@ -17483,7 +17490,7 @@
       <c r="W3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X3" s="410"/>
+      <c r="X3" s="391"/>
     </row>
     <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
@@ -17511,7 +17518,7 @@
       <c r="J4" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="406"/>
+      <c r="K4" s="384"/>
       <c r="L4" s="133">
         <f>在庫情報R!BN4</f>
         <v>0</v>
@@ -17551,8 +17558,8 @@
       <c r="V4" s="395">
         <v>28</v>
       </c>
-      <c r="W4" s="390"/>
-      <c r="X4" s="411">
+      <c r="W4" s="398"/>
+      <c r="X4" s="401">
         <f>SUM(L4:L6)*R4+SUM(M4:M6)*S4+SUM(N4:N6)*T4+SUM(O4:O6)*U4+SUM(P4:P6)*V4+SUM(Q4:Q6)*W4</f>
         <v>0</v>
       </c>
@@ -17581,7 +17588,7 @@
       <c r="J5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="407"/>
+      <c r="K5" s="385"/>
       <c r="L5" s="34">
         <f>在庫情報R!BN5</f>
         <v>0</v>
@@ -17611,8 +17618,8 @@
       <c r="T5" s="396"/>
       <c r="U5" s="396"/>
       <c r="V5" s="396"/>
-      <c r="W5" s="401"/>
-      <c r="X5" s="388"/>
+      <c r="W5" s="399"/>
+      <c r="X5" s="402"/>
     </row>
     <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -17638,7 +17645,7 @@
       <c r="J6" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="408"/>
+      <c r="K6" s="386"/>
       <c r="L6" s="30">
         <f>在庫情報R!BN6</f>
         <v>0</v>
@@ -17668,8 +17675,8 @@
       <c r="T6" s="397"/>
       <c r="U6" s="397"/>
       <c r="V6" s="397"/>
-      <c r="W6" s="391"/>
-      <c r="X6" s="388"/>
+      <c r="W6" s="400"/>
+      <c r="X6" s="402"/>
     </row>
     <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -17697,7 +17704,7 @@
       <c r="J7" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="378"/>
+      <c r="K7" s="387"/>
       <c r="L7" s="26">
         <f>在庫情報R!BN7</f>
         <v>0</v>
@@ -17737,8 +17744,8 @@
       <c r="V7" s="395">
         <v>34</v>
       </c>
-      <c r="W7" s="390"/>
-      <c r="X7" s="388">
+      <c r="W7" s="398"/>
+      <c r="X7" s="402">
         <f>SUM(L7:L10)*R7+SUM(M7:M10)*S7+SUM(N7:N10)*T7+SUM(O7:O10)*U7+SUM(P7:P10)*V7+SUM(Q7:Q10)*W7</f>
         <v>0</v>
       </c>
@@ -17767,7 +17774,7 @@
       <c r="J8" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="383"/>
+      <c r="K8" s="388"/>
       <c r="L8" s="28">
         <f>在庫情報R!BN8</f>
         <v>0</v>
@@ -17797,8 +17804,8 @@
       <c r="T8" s="396"/>
       <c r="U8" s="396"/>
       <c r="V8" s="396"/>
-      <c r="W8" s="401"/>
-      <c r="X8" s="388"/>
+      <c r="W8" s="399"/>
+      <c r="X8" s="402"/>
     </row>
     <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -17824,7 +17831,7 @@
       <c r="J9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="383"/>
+      <c r="K9" s="388"/>
       <c r="L9" s="28">
         <f>在庫情報R!BN9</f>
         <v>0</v>
@@ -17854,8 +17861,8 @@
       <c r="T9" s="396"/>
       <c r="U9" s="396"/>
       <c r="V9" s="396"/>
-      <c r="W9" s="401"/>
-      <c r="X9" s="388"/>
+      <c r="W9" s="399"/>
+      <c r="X9" s="402"/>
     </row>
     <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -17881,7 +17888,7 @@
       <c r="J10" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="379"/>
+      <c r="K10" s="389"/>
       <c r="L10" s="30">
         <f>在庫情報R!BN10</f>
         <v>0</v>
@@ -17911,8 +17918,8 @@
       <c r="T10" s="397"/>
       <c r="U10" s="397"/>
       <c r="V10" s="397"/>
-      <c r="W10" s="391"/>
-      <c r="X10" s="388"/>
+      <c r="W10" s="400"/>
+      <c r="X10" s="402"/>
     </row>
     <row r="11" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -17982,10 +17989,10 @@
       <c r="V11" s="395">
         <v>36</v>
       </c>
-      <c r="W11" s="398">
+      <c r="W11" s="403">
         <v>36</v>
       </c>
-      <c r="X11" s="388">
+      <c r="X11" s="402">
         <f>SUM(L11:L12)*R11+SUM(M11:M12)*S11+SUM(N11:N12)*T11+SUM(O11:O12)*U11+SUM(P11:P12)*V11+SUM(Q11:Q12)*W11</f>
         <v>0</v>
       </c>
@@ -18046,8 +18053,8 @@
       <c r="T12" s="397"/>
       <c r="U12" s="397"/>
       <c r="V12" s="397"/>
-      <c r="W12" s="400"/>
-      <c r="X12" s="388"/>
+      <c r="W12" s="404"/>
+      <c r="X12" s="402"/>
     </row>
     <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -18069,9 +18076,9 @@
       <c r="H13" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="380"/>
-      <c r="J13" s="380"/>
-      <c r="K13" s="378"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
+      <c r="K13" s="387"/>
       <c r="L13" s="26">
         <f>在庫情報R!BN13</f>
         <v>0</v>
@@ -18105,10 +18112,10 @@
       <c r="T13" s="395">
         <v>20</v>
       </c>
-      <c r="U13" s="386"/>
-      <c r="V13" s="386"/>
-      <c r="W13" s="390"/>
-      <c r="X13" s="388">
+      <c r="U13" s="408"/>
+      <c r="V13" s="408"/>
+      <c r="W13" s="398"/>
+      <c r="X13" s="402">
         <f>SUM(L13:L15)*R13+SUM(M13:M15)*S13+SUM(N13:N15)*T13+SUM(O13:O15)*U13+SUM(P13:P15)*V13+SUM(Q13:Q15)*W13</f>
         <v>0</v>
       </c>
@@ -18131,9 +18138,9 @@
       <c r="H14" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="381"/>
-      <c r="J14" s="381"/>
-      <c r="K14" s="383"/>
+      <c r="I14" s="416"/>
+      <c r="J14" s="416"/>
+      <c r="K14" s="388"/>
       <c r="L14" s="28">
         <f>在庫情報R!BN14</f>
         <v>0</v>
@@ -18161,10 +18168,10 @@
       <c r="R14" s="393"/>
       <c r="S14" s="396"/>
       <c r="T14" s="396"/>
-      <c r="U14" s="405"/>
-      <c r="V14" s="405"/>
-      <c r="W14" s="401"/>
-      <c r="X14" s="388"/>
+      <c r="U14" s="409"/>
+      <c r="V14" s="409"/>
+      <c r="W14" s="399"/>
+      <c r="X14" s="402"/>
     </row>
     <row r="15" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -18184,9 +18191,9 @@
       <c r="H15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="382"/>
-      <c r="J15" s="382"/>
-      <c r="K15" s="379"/>
+      <c r="I15" s="417"/>
+      <c r="J15" s="417"/>
+      <c r="K15" s="389"/>
       <c r="L15" s="30">
         <f>在庫情報R!BN15</f>
         <v>0</v>
@@ -18214,10 +18221,10 @@
       <c r="R15" s="394"/>
       <c r="S15" s="397"/>
       <c r="T15" s="397"/>
-      <c r="U15" s="387"/>
-      <c r="V15" s="387"/>
-      <c r="W15" s="391"/>
-      <c r="X15" s="388"/>
+      <c r="U15" s="410"/>
+      <c r="V15" s="410"/>
+      <c r="W15" s="400"/>
+      <c r="X15" s="402"/>
     </row>
     <row r="16" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -18245,7 +18252,7 @@
       <c r="J16" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="378"/>
+      <c r="K16" s="387"/>
       <c r="L16" s="26">
         <f>在庫情報R!BN16</f>
         <v>0</v>
@@ -18279,14 +18286,14 @@
       <c r="T16" s="395">
         <v>20</v>
       </c>
-      <c r="U16" s="402">
+      <c r="U16" s="405">
         <v>26</v>
       </c>
-      <c r="V16" s="402">
+      <c r="V16" s="405">
         <v>26</v>
       </c>
-      <c r="W16" s="390"/>
-      <c r="X16" s="388">
+      <c r="W16" s="398"/>
+      <c r="X16" s="402">
         <f>SUM(L16:L18)*R16+SUM(M16:M18)*S16+SUM(N16:N18)*T16+SUM(O16:O18)*U16+SUM(P16:P18)*V16+SUM(Q16:Q18)*W16</f>
         <v>0</v>
       </c>
@@ -18315,7 +18322,7 @@
       <c r="J17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="383"/>
+      <c r="K17" s="388"/>
       <c r="L17" s="28">
         <f>在庫情報R!BN17</f>
         <v>0</v>
@@ -18343,10 +18350,10 @@
       <c r="R17" s="393"/>
       <c r="S17" s="396"/>
       <c r="T17" s="396"/>
-      <c r="U17" s="403"/>
-      <c r="V17" s="403"/>
-      <c r="W17" s="401"/>
-      <c r="X17" s="388"/>
+      <c r="U17" s="406"/>
+      <c r="V17" s="406"/>
+      <c r="W17" s="399"/>
+      <c r="X17" s="402"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -18372,7 +18379,7 @@
       <c r="J18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="379"/>
+      <c r="K18" s="389"/>
       <c r="L18" s="30">
         <f>在庫情報R!BN18</f>
         <v>0</v>
@@ -18400,10 +18407,10 @@
       <c r="R18" s="394"/>
       <c r="S18" s="397"/>
       <c r="T18" s="397"/>
-      <c r="U18" s="404"/>
-      <c r="V18" s="404"/>
-      <c r="W18" s="391"/>
-      <c r="X18" s="388"/>
+      <c r="U18" s="407"/>
+      <c r="V18" s="407"/>
+      <c r="W18" s="400"/>
+      <c r="X18" s="402"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -18431,7 +18438,7 @@
       <c r="J19" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="378"/>
+      <c r="K19" s="387"/>
       <c r="L19" s="26">
         <f>在庫情報R!BN19</f>
         <v>0</v>
@@ -18471,8 +18478,8 @@
       <c r="V19" s="395">
         <v>38</v>
       </c>
-      <c r="W19" s="390"/>
-      <c r="X19" s="388">
+      <c r="W19" s="398"/>
+      <c r="X19" s="402">
         <f>SUM(L19:L21)*R19+SUM(M19:M21)*S19+SUM(N19:N21)*T19+SUM(O19:O21)*U19+SUM(P19:P21)*V19+SUM(Q19:Q21)*W19</f>
         <v>0</v>
       </c>
@@ -18501,7 +18508,7 @@
       <c r="J20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="383"/>
+      <c r="K20" s="388"/>
       <c r="L20" s="34">
         <f>在庫情報R!BN20</f>
         <v>0</v>
@@ -18531,8 +18538,8 @@
       <c r="T20" s="396"/>
       <c r="U20" s="396"/>
       <c r="V20" s="396"/>
-      <c r="W20" s="401"/>
-      <c r="X20" s="388"/>
+      <c r="W20" s="399"/>
+      <c r="X20" s="402"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -18558,7 +18565,7 @@
       <c r="J21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="379"/>
+      <c r="K21" s="389"/>
       <c r="L21" s="36">
         <f>在庫情報R!BN21</f>
         <v>0</v>
@@ -18588,8 +18595,8 @@
       <c r="T21" s="397"/>
       <c r="U21" s="397"/>
       <c r="V21" s="397"/>
-      <c r="W21" s="391"/>
-      <c r="X21" s="388"/>
+      <c r="W21" s="400"/>
+      <c r="X21" s="402"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -18617,7 +18624,7 @@
       <c r="J22" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="378"/>
+      <c r="K22" s="387"/>
       <c r="L22" s="26">
         <f>在庫情報R!BN22</f>
         <v>0</v>
@@ -18657,8 +18664,8 @@
       <c r="V22" s="395">
         <v>25</v>
       </c>
-      <c r="W22" s="390"/>
-      <c r="X22" s="388">
+      <c r="W22" s="398"/>
+      <c r="X22" s="402">
         <f>SUM(L22:L23)*R22+SUM(M22:M23)*S22+SUM(N22:N23)*T22+SUM(O22:O23)*U22+SUM(P22:P23)*V22+SUM(Q22:Q23)*W22</f>
         <v>0</v>
       </c>
@@ -18687,7 +18694,7 @@
       <c r="J23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="379"/>
+      <c r="K23" s="389"/>
       <c r="L23" s="30">
         <f>在庫情報R!BN23</f>
         <v>0</v>
@@ -18717,8 +18724,8 @@
       <c r="T23" s="397"/>
       <c r="U23" s="397"/>
       <c r="V23" s="397"/>
-      <c r="W23" s="391"/>
-      <c r="X23" s="388"/>
+      <c r="W23" s="400"/>
+      <c r="X23" s="402"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -18788,10 +18795,10 @@
       <c r="V24" s="395">
         <v>36</v>
       </c>
-      <c r="W24" s="398">
+      <c r="W24" s="403">
         <v>36</v>
       </c>
-      <c r="X24" s="388">
+      <c r="X24" s="402">
         <f>SUM(L24:L27)*R24+SUM(M24:M27)*S24+SUM(N24:N27)*T24+SUM(O24:O27)*U24+SUM(P24:P27)*V24+SUM(Q24:Q27)*W24</f>
         <v>0</v>
       </c>
@@ -18852,8 +18859,8 @@
       <c r="T25" s="396"/>
       <c r="U25" s="396"/>
       <c r="V25" s="396"/>
-      <c r="W25" s="399"/>
-      <c r="X25" s="388"/>
+      <c r="W25" s="411"/>
+      <c r="X25" s="402"/>
     </row>
     <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
@@ -18911,8 +18918,8 @@
       <c r="T26" s="396"/>
       <c r="U26" s="396"/>
       <c r="V26" s="396"/>
-      <c r="W26" s="399"/>
-      <c r="X26" s="388"/>
+      <c r="W26" s="411"/>
+      <c r="X26" s="402"/>
     </row>
     <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
@@ -18970,8 +18977,8 @@
       <c r="T27" s="397"/>
       <c r="U27" s="397"/>
       <c r="V27" s="397"/>
-      <c r="W27" s="400"/>
-      <c r="X27" s="388"/>
+      <c r="W27" s="404"/>
+      <c r="X27" s="402"/>
     </row>
     <row r="28" spans="2:24" ht="140.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B28" s="5" t="s">
@@ -19067,7 +19074,7 @@
       <c r="J29" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="378"/>
+      <c r="K29" s="387"/>
       <c r="L29" s="26">
         <f>在庫情報R!BN29</f>
         <v>0</v>
@@ -19107,8 +19114,8 @@
       <c r="V29" s="395">
         <v>35</v>
       </c>
-      <c r="W29" s="390"/>
-      <c r="X29" s="388">
+      <c r="W29" s="398"/>
+      <c r="X29" s="402">
         <f>SUM(L29:L30)*R29+SUM(M29:M30)*S29+SUM(N29:N30)*T29+SUM(O29:O30)*U29+SUM(P29:P30)*V29+SUM(Q29:Q30)*W29</f>
         <v>0</v>
       </c>
@@ -19137,7 +19144,7 @@
       <c r="J30" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="K30" s="379"/>
+      <c r="K30" s="389"/>
       <c r="L30" s="36">
         <f>在庫情報R!BN30</f>
         <v>0</v>
@@ -19167,8 +19174,8 @@
       <c r="T30" s="397"/>
       <c r="U30" s="397"/>
       <c r="V30" s="397"/>
-      <c r="W30" s="391"/>
-      <c r="X30" s="388"/>
+      <c r="W30" s="400"/>
+      <c r="X30" s="402"/>
     </row>
     <row r="31" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
@@ -19213,15 +19220,15 @@
         <f>在庫情報R!BS31</f>
         <v>0</v>
       </c>
-      <c r="R31" s="384">
+      <c r="R31" s="412">
         <v>33</v>
       </c>
-      <c r="S31" s="386"/>
-      <c r="T31" s="386"/>
-      <c r="U31" s="386"/>
-      <c r="V31" s="386"/>
-      <c r="W31" s="390"/>
-      <c r="X31" s="388">
+      <c r="S31" s="408"/>
+      <c r="T31" s="408"/>
+      <c r="U31" s="408"/>
+      <c r="V31" s="408"/>
+      <c r="W31" s="398"/>
+      <c r="X31" s="402">
         <f>SUM(L31:L32)*R31+SUM(M31:M32)*S31+SUM(N31:N32)*T31+SUM(O31:O32)*U31+SUM(P31:P32)*V31+SUM(Q31:Q32)*W31</f>
         <v>0</v>
       </c>
@@ -19267,13 +19274,13 @@
         <f>在庫情報R!BS32</f>
         <v>0</v>
       </c>
-      <c r="R32" s="385"/>
-      <c r="S32" s="387"/>
-      <c r="T32" s="387"/>
-      <c r="U32" s="387"/>
-      <c r="V32" s="387"/>
-      <c r="W32" s="391"/>
-      <c r="X32" s="389"/>
+      <c r="R32" s="413"/>
+      <c r="S32" s="410"/>
+      <c r="T32" s="410"/>
+      <c r="U32" s="410"/>
+      <c r="V32" s="410"/>
+      <c r="W32" s="400"/>
+      <c r="X32" s="414"/>
     </row>
     <row r="33" spans="2:24" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B33" s="3" t="s">
@@ -19298,23 +19305,23 @@
         <f>在庫情報R!BN33</f>
         <v>0</v>
       </c>
-      <c r="M33" s="435">
+      <c r="M33" s="377">
         <f>在庫情報R!BO33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="435">
+      <c r="N33" s="377">
         <f>在庫情報R!BP33</f>
         <v>0</v>
       </c>
-      <c r="O33" s="435">
+      <c r="O33" s="377">
         <f>在庫情報R!BQ33</f>
         <v>0</v>
       </c>
-      <c r="P33" s="435">
+      <c r="P33" s="377">
         <f>在庫情報R!BR33</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="435">
+      <c r="Q33" s="377">
         <f>在庫情報R!BS33</f>
         <v>0</v>
       </c>
@@ -20301,30 +20308,48 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X7:X10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="U7:U10"/>
-    <mergeCell ref="V7:V10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W7:W10"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X24:X27"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="T24:T27"/>
+    <mergeCell ref="U24:U27"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="W22:W23"/>
     <mergeCell ref="R13:R15"/>
     <mergeCell ref="S13:S15"/>
     <mergeCell ref="T13:T15"/>
@@ -20339,48 +20364,30 @@
     <mergeCell ref="V13:V15"/>
     <mergeCell ref="W16:W18"/>
     <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X24:X27"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="T24:T27"/>
-    <mergeCell ref="U24:U27"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="V7:V10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W7:W10"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X7:X10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20391,13 +20398,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W122"/>
+  <dimension ref="B1:X122"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4:N116"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -20413,19 +20420,20 @@
     <col min="10" max="10" width="13" style="136" customWidth="1"/>
     <col min="11" max="11" width="20.625" style="136" customWidth="1"/>
     <col min="12" max="12" width="22" style="134" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="25.625" style="134" customWidth="1"/>
-    <col min="15" max="19" width="20.625" style="136" customWidth="1"/>
-    <col min="20" max="22" width="25.625" style="134" customWidth="1"/>
-    <col min="23" max="23" width="31.75" style="136" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="134"/>
+    <col min="13" max="13" width="22" style="134" customWidth="1"/>
+    <col min="14" max="15" width="25.625" style="134" customWidth="1"/>
+    <col min="16" max="20" width="20.625" style="136" customWidth="1"/>
+    <col min="21" max="23" width="25.625" style="134" customWidth="1"/>
+    <col min="24" max="24" width="31.75" style="136" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="M1" s="197"/>
+    <row r="1" spans="2:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="N1" s="197"/>
-      <c r="T1" s="197"/>
-    </row>
-    <row r="3" spans="2:23" s="140" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="197"/>
+      <c r="U1" s="197"/>
+    </row>
+    <row r="3" spans="2:24" s="140" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="137" t="s">
         <v>314</v>
       </c>
@@ -20459,41 +20467,44 @@
       <c r="L3" s="137" t="s">
         <v>324</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="M3" s="436" t="s">
+        <v>560</v>
+      </c>
+      <c r="N3" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="N3" s="137" t="s">
+      <c r="O3" s="137" t="s">
         <v>325</v>
       </c>
-      <c r="O3" s="199" t="s">
+      <c r="P3" s="199" t="s">
         <v>557</v>
       </c>
-      <c r="P3" s="199" t="s">
+      <c r="Q3" s="199" t="s">
         <v>313</v>
       </c>
-      <c r="Q3" s="199" t="s">
+      <c r="R3" s="199" t="s">
         <v>558</v>
       </c>
-      <c r="R3" s="199" t="s">
+      <c r="S3" s="199" t="s">
         <v>544</v>
       </c>
-      <c r="S3" s="199" t="s">
+      <c r="T3" s="199" t="s">
         <v>545</v>
       </c>
-      <c r="T3" s="137" t="s">
+      <c r="U3" s="137" t="s">
         <v>542</v>
       </c>
-      <c r="U3" s="137" t="s">
+      <c r="V3" s="137" t="s">
         <v>327</v>
       </c>
-      <c r="V3" s="137" t="s">
+      <c r="W3" s="137" t="s">
         <v>223</v>
       </c>
-      <c r="W3" s="199" t="s">
+      <c r="X3" s="199" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="320" t="s">
         <v>328</v>
       </c>
@@ -20524,28 +20535,29 @@
       <c r="L4" s="322" t="s">
         <v>334</v>
       </c>
-      <c r="M4" s="326"/>
-      <c r="N4" s="327"/>
-      <c r="O4" s="324"/>
+      <c r="M4" s="322"/>
+      <c r="N4" s="326"/>
+      <c r="O4" s="327"/>
       <c r="P4" s="324"/>
       <c r="Q4" s="324"/>
       <c r="R4" s="324"/>
       <c r="S4" s="324"/>
-      <c r="T4" s="325">
-        <f t="shared" ref="T4:T35" si="0">N4+M4</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="327"/>
-      <c r="V4" s="325">
-        <f>T4+U4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="370" t="str">
-        <f>IF(S4&gt;0,V4/S4*7,"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T4" s="324"/>
+      <c r="U4" s="325">
+        <f t="shared" ref="U4:U35" si="0">O4+N4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="327"/>
+      <c r="W4" s="325">
+        <f>U4+V4</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="370" t="str">
+        <f>IF(T4&gt;0,W4/T4*7,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="328"/>
       <c r="C5" s="328" t="s">
         <v>336</v>
@@ -20574,28 +20586,29 @@
       <c r="L5" s="322" t="s">
         <v>340</v>
       </c>
-      <c r="M5" s="326"/>
-      <c r="N5" s="327"/>
-      <c r="O5" s="324"/>
+      <c r="M5" s="322"/>
+      <c r="N5" s="326"/>
+      <c r="O5" s="327"/>
       <c r="P5" s="324"/>
       <c r="Q5" s="324"/>
       <c r="R5" s="324"/>
       <c r="S5" s="324"/>
-      <c r="T5" s="325">
+      <c r="T5" s="324"/>
+      <c r="U5" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U5" s="327"/>
-      <c r="V5" s="325">
-        <f t="shared" ref="V5:V68" si="2">T5+U5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="370" t="str">
-        <f t="shared" ref="W5:W68" si="3">IF(S5&gt;0,V5/S5*7,"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V5" s="327"/>
+      <c r="W5" s="325">
+        <f t="shared" ref="W5:W68" si="2">U5+V5</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="370" t="str">
+        <f t="shared" ref="X5:X68" si="3">IF(T5&gt;0,W5/T5*7,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="330"/>
       <c r="C6" s="330"/>
       <c r="D6" s="331"/>
@@ -20622,28 +20635,29 @@
       <c r="L6" s="322" t="s">
         <v>344</v>
       </c>
-      <c r="M6" s="326"/>
-      <c r="N6" s="327"/>
-      <c r="O6" s="324"/>
+      <c r="M6" s="322"/>
+      <c r="N6" s="326"/>
+      <c r="O6" s="327"/>
       <c r="P6" s="324"/>
       <c r="Q6" s="324"/>
       <c r="R6" s="324"/>
       <c r="S6" s="324"/>
-      <c r="T6" s="325">
+      <c r="T6" s="324"/>
+      <c r="U6" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U6" s="327"/>
-      <c r="V6" s="325">
+      <c r="V6" s="327"/>
+      <c r="W6" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W6" s="370" t="str">
+      <c r="X6" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="7" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="320" t="s">
         <v>345</v>
       </c>
@@ -20674,28 +20688,29 @@
       <c r="L7" s="322" t="s">
         <v>350</v>
       </c>
-      <c r="M7" s="326"/>
-      <c r="N7" s="327"/>
-      <c r="O7" s="324"/>
+      <c r="M7" s="322"/>
+      <c r="N7" s="326"/>
+      <c r="O7" s="327"/>
       <c r="P7" s="324"/>
       <c r="Q7" s="324"/>
       <c r="R7" s="324"/>
       <c r="S7" s="324"/>
-      <c r="T7" s="325">
+      <c r="T7" s="324"/>
+      <c r="U7" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="327"/>
-      <c r="V7" s="325">
+      <c r="V7" s="327"/>
+      <c r="W7" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W7" s="370" t="str">
+      <c r="X7" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="8" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="328"/>
       <c r="C8" s="328" t="s">
         <v>336</v>
@@ -20724,28 +20739,29 @@
       <c r="L8" s="322" t="s">
         <v>351</v>
       </c>
-      <c r="M8" s="326"/>
-      <c r="N8" s="327"/>
-      <c r="O8" s="324"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="326"/>
+      <c r="O8" s="327"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="324"/>
       <c r="R8" s="324"/>
       <c r="S8" s="324"/>
-      <c r="T8" s="325">
+      <c r="T8" s="324"/>
+      <c r="U8" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U8" s="327"/>
-      <c r="V8" s="325">
+      <c r="V8" s="327"/>
+      <c r="W8" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W8" s="370" t="str">
+      <c r="X8" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="328"/>
       <c r="C9" s="328"/>
       <c r="D9" s="329"/>
@@ -20772,28 +20788,29 @@
       <c r="L9" s="322" t="s">
         <v>353</v>
       </c>
-      <c r="M9" s="326"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="324"/>
+      <c r="M9" s="322"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="327"/>
       <c r="P9" s="324"/>
       <c r="Q9" s="324"/>
       <c r="R9" s="324"/>
       <c r="S9" s="324"/>
-      <c r="T9" s="325">
+      <c r="T9" s="324"/>
+      <c r="U9" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U9" s="327"/>
-      <c r="V9" s="325">
+      <c r="V9" s="327"/>
+      <c r="W9" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W9" s="370" t="str">
+      <c r="X9" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="330"/>
       <c r="C10" s="330"/>
       <c r="D10" s="331"/>
@@ -20820,28 +20837,29 @@
       <c r="L10" s="322" t="s">
         <v>355</v>
       </c>
-      <c r="M10" s="326"/>
-      <c r="N10" s="327"/>
-      <c r="O10" s="324"/>
+      <c r="M10" s="322"/>
+      <c r="N10" s="326"/>
+      <c r="O10" s="327"/>
       <c r="P10" s="324"/>
       <c r="Q10" s="324"/>
       <c r="R10" s="324"/>
       <c r="S10" s="324"/>
-      <c r="T10" s="325">
+      <c r="T10" s="324"/>
+      <c r="U10" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U10" s="327"/>
-      <c r="V10" s="325">
+      <c r="V10" s="327"/>
+      <c r="W10" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W10" s="370" t="str">
+      <c r="X10" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="320" t="s">
         <v>357</v>
       </c>
@@ -20872,28 +20890,29 @@
       <c r="L11" s="322" t="s">
         <v>360</v>
       </c>
-      <c r="M11" s="326"/>
-      <c r="N11" s="327"/>
-      <c r="O11" s="324"/>
+      <c r="M11" s="322"/>
+      <c r="N11" s="326"/>
+      <c r="O11" s="327"/>
       <c r="P11" s="324"/>
       <c r="Q11" s="324"/>
       <c r="R11" s="324"/>
       <c r="S11" s="324"/>
-      <c r="T11" s="325">
+      <c r="T11" s="324"/>
+      <c r="U11" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="327"/>
-      <c r="V11" s="325">
+      <c r="V11" s="327"/>
+      <c r="W11" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="370" t="str">
+      <c r="X11" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="328"/>
       <c r="C12" s="328" t="s">
         <v>336</v>
@@ -20922,28 +20941,29 @@
       <c r="L12" s="322" t="s">
         <v>362</v>
       </c>
-      <c r="M12" s="326"/>
-      <c r="N12" s="327"/>
-      <c r="O12" s="324"/>
+      <c r="M12" s="322"/>
+      <c r="N12" s="326"/>
+      <c r="O12" s="327"/>
       <c r="P12" s="324"/>
       <c r="Q12" s="324"/>
       <c r="R12" s="324"/>
       <c r="S12" s="324"/>
-      <c r="T12" s="325">
+      <c r="T12" s="324"/>
+      <c r="U12" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="327"/>
-      <c r="V12" s="325">
+      <c r="V12" s="327"/>
+      <c r="W12" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="370" t="str">
+      <c r="X12" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="330"/>
       <c r="C13" s="330"/>
       <c r="D13" s="331"/>
@@ -20970,28 +20990,29 @@
       <c r="L13" s="322" t="s">
         <v>363</v>
       </c>
-      <c r="M13" s="326"/>
-      <c r="N13" s="327"/>
-      <c r="O13" s="324"/>
+      <c r="M13" s="322"/>
+      <c r="N13" s="326"/>
+      <c r="O13" s="327"/>
       <c r="P13" s="324"/>
       <c r="Q13" s="324"/>
       <c r="R13" s="324"/>
       <c r="S13" s="324"/>
-      <c r="T13" s="325">
+      <c r="T13" s="324"/>
+      <c r="U13" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="327"/>
-      <c r="V13" s="325">
+      <c r="V13" s="327"/>
+      <c r="W13" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="370" t="str">
+      <c r="X13" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="320" t="s">
         <v>365</v>
       </c>
@@ -20999,7 +21020,7 @@
       <c r="D14" s="321" t="s">
         <v>366</v>
       </c>
-      <c r="E14" s="412"/>
+      <c r="E14" s="424"/>
       <c r="F14" s="322" t="s">
         <v>330</v>
       </c>
@@ -21022,34 +21043,35 @@
       <c r="L14" s="322" t="s">
         <v>367</v>
       </c>
-      <c r="M14" s="326"/>
-      <c r="N14" s="327"/>
-      <c r="O14" s="324"/>
+      <c r="M14" s="322"/>
+      <c r="N14" s="326"/>
+      <c r="O14" s="327"/>
       <c r="P14" s="324"/>
       <c r="Q14" s="324"/>
       <c r="R14" s="324"/>
       <c r="S14" s="324"/>
-      <c r="T14" s="325">
+      <c r="T14" s="324"/>
+      <c r="U14" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U14" s="327"/>
-      <c r="V14" s="325">
+      <c r="V14" s="327"/>
+      <c r="W14" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W14" s="370" t="str">
+      <c r="X14" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="15" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="328"/>
       <c r="C15" s="328" t="s">
         <v>336</v>
       </c>
       <c r="D15" s="329"/>
-      <c r="E15" s="412"/>
+      <c r="E15" s="424"/>
       <c r="F15" s="322" t="s">
         <v>337</v>
       </c>
@@ -21072,32 +21094,33 @@
       <c r="L15" s="322" t="s">
         <v>368</v>
       </c>
-      <c r="M15" s="326"/>
-      <c r="N15" s="327"/>
-      <c r="O15" s="324"/>
+      <c r="M15" s="322"/>
+      <c r="N15" s="326"/>
+      <c r="O15" s="327"/>
       <c r="P15" s="324"/>
       <c r="Q15" s="324"/>
       <c r="R15" s="324"/>
       <c r="S15" s="324"/>
-      <c r="T15" s="325">
+      <c r="T15" s="324"/>
+      <c r="U15" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="327"/>
-      <c r="V15" s="325">
+      <c r="V15" s="327"/>
+      <c r="W15" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W15" s="370" t="str">
+      <c r="X15" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="2:23" s="337" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" s="337" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="332"/>
       <c r="C16" s="333"/>
       <c r="D16" s="334"/>
-      <c r="E16" s="413"/>
+      <c r="E16" s="425"/>
       <c r="F16" s="335" t="s">
         <v>341</v>
       </c>
@@ -21120,28 +21143,29 @@
       <c r="L16" s="335" t="s">
         <v>369</v>
       </c>
-      <c r="M16" s="326"/>
-      <c r="N16" s="356"/>
-      <c r="O16" s="324"/>
+      <c r="M16" s="335"/>
+      <c r="N16" s="326"/>
+      <c r="O16" s="356"/>
       <c r="P16" s="324"/>
       <c r="Q16" s="324"/>
       <c r="R16" s="324"/>
       <c r="S16" s="324"/>
-      <c r="T16" s="325">
+      <c r="T16" s="324"/>
+      <c r="U16" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U16" s="336"/>
-      <c r="V16" s="325">
+      <c r="V16" s="336"/>
+      <c r="W16" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W16" s="370" t="str">
+      <c r="X16" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="17" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="338" t="s">
         <v>370</v>
       </c>
@@ -21172,28 +21196,29 @@
       <c r="L17" s="327" t="s">
         <v>372</v>
       </c>
-      <c r="M17" s="326"/>
-      <c r="N17" s="327"/>
-      <c r="O17" s="324"/>
+      <c r="M17" s="327"/>
+      <c r="N17" s="326"/>
+      <c r="O17" s="327"/>
       <c r="P17" s="324"/>
       <c r="Q17" s="324"/>
       <c r="R17" s="324"/>
       <c r="S17" s="324"/>
-      <c r="T17" s="325">
+      <c r="T17" s="324"/>
+      <c r="U17" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U17" s="327"/>
-      <c r="V17" s="325">
+      <c r="V17" s="327"/>
+      <c r="W17" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W17" s="370" t="str">
+      <c r="X17" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="341"/>
       <c r="C18" s="341" t="s">
         <v>373</v>
@@ -21222,28 +21247,29 @@
       <c r="L18" s="327" t="s">
         <v>374</v>
       </c>
-      <c r="M18" s="326"/>
-      <c r="N18" s="327"/>
-      <c r="O18" s="324"/>
+      <c r="M18" s="327"/>
+      <c r="N18" s="326"/>
+      <c r="O18" s="327"/>
       <c r="P18" s="324"/>
       <c r="Q18" s="324"/>
       <c r="R18" s="324"/>
       <c r="S18" s="324"/>
-      <c r="T18" s="325">
+      <c r="T18" s="324"/>
+      <c r="U18" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U18" s="327"/>
-      <c r="V18" s="325">
+      <c r="V18" s="327"/>
+      <c r="W18" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W18" s="370" t="str">
+      <c r="X18" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="343"/>
       <c r="C19" s="343"/>
       <c r="D19" s="344"/>
@@ -21270,28 +21296,29 @@
       <c r="L19" s="327" t="s">
         <v>375</v>
       </c>
-      <c r="M19" s="326"/>
-      <c r="N19" s="327"/>
-      <c r="O19" s="324"/>
+      <c r="M19" s="327"/>
+      <c r="N19" s="326"/>
+      <c r="O19" s="327"/>
       <c r="P19" s="324"/>
       <c r="Q19" s="324"/>
       <c r="R19" s="324"/>
       <c r="S19" s="324"/>
-      <c r="T19" s="325">
+      <c r="T19" s="324"/>
+      <c r="U19" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U19" s="327"/>
-      <c r="V19" s="325">
+      <c r="V19" s="327"/>
+      <c r="W19" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W19" s="370" t="str">
+      <c r="X19" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="187" t="s">
         <v>376</v>
       </c>
@@ -21322,28 +21349,29 @@
       <c r="L20" s="346" t="s">
         <v>378</v>
       </c>
-      <c r="M20" s="326"/>
-      <c r="N20" s="327"/>
-      <c r="O20" s="324"/>
+      <c r="M20" s="346"/>
+      <c r="N20" s="326"/>
+      <c r="O20" s="327"/>
       <c r="P20" s="324"/>
       <c r="Q20" s="324"/>
       <c r="R20" s="324"/>
       <c r="S20" s="324"/>
-      <c r="T20" s="325">
+      <c r="T20" s="324"/>
+      <c r="U20" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U20" s="327"/>
-      <c r="V20" s="325">
+      <c r="V20" s="327"/>
+      <c r="W20" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W20" s="370" t="str">
+      <c r="X20" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="190"/>
       <c r="C21" s="190" t="s">
         <v>373</v>
@@ -21372,28 +21400,29 @@
       <c r="L21" s="346" t="s">
         <v>379</v>
       </c>
-      <c r="M21" s="326"/>
-      <c r="N21" s="327"/>
-      <c r="O21" s="324"/>
+      <c r="M21" s="346"/>
+      <c r="N21" s="326"/>
+      <c r="O21" s="327"/>
       <c r="P21" s="324"/>
       <c r="Q21" s="324"/>
       <c r="R21" s="324"/>
       <c r="S21" s="324"/>
-      <c r="T21" s="325">
+      <c r="T21" s="324"/>
+      <c r="U21" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U21" s="327"/>
-      <c r="V21" s="325">
+      <c r="V21" s="327"/>
+      <c r="W21" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W21" s="370" t="str">
+      <c r="X21" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="192"/>
       <c r="C22" s="192"/>
       <c r="D22" s="348"/>
@@ -21420,28 +21449,29 @@
       <c r="L22" s="346" t="s">
         <v>380</v>
       </c>
-      <c r="M22" s="326"/>
-      <c r="N22" s="327"/>
-      <c r="O22" s="324"/>
+      <c r="M22" s="346"/>
+      <c r="N22" s="326"/>
+      <c r="O22" s="327"/>
       <c r="P22" s="324"/>
       <c r="Q22" s="324"/>
       <c r="R22" s="324"/>
       <c r="S22" s="324"/>
-      <c r="T22" s="325">
+      <c r="T22" s="324"/>
+      <c r="U22" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U22" s="327"/>
-      <c r="V22" s="325">
+      <c r="V22" s="327"/>
+      <c r="W22" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W22" s="370" t="str">
+      <c r="X22" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="320" t="s">
         <v>381</v>
       </c>
@@ -21472,28 +21502,29 @@
       <c r="L23" s="322" t="s">
         <v>383</v>
       </c>
-      <c r="M23" s="326"/>
-      <c r="N23" s="327"/>
-      <c r="O23" s="324"/>
+      <c r="M23" s="322"/>
+      <c r="N23" s="326"/>
+      <c r="O23" s="327"/>
       <c r="P23" s="324"/>
       <c r="Q23" s="324"/>
       <c r="R23" s="324"/>
       <c r="S23" s="324"/>
-      <c r="T23" s="325">
+      <c r="T23" s="324"/>
+      <c r="U23" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U23" s="327"/>
-      <c r="V23" s="325">
+      <c r="V23" s="327"/>
+      <c r="W23" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W23" s="370" t="str">
+      <c r="X23" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="328"/>
       <c r="C24" s="328" t="s">
         <v>336</v>
@@ -21522,28 +21553,29 @@
       <c r="L24" s="322" t="s">
         <v>384</v>
       </c>
-      <c r="M24" s="326"/>
-      <c r="N24" s="327"/>
-      <c r="O24" s="324"/>
+      <c r="M24" s="322"/>
+      <c r="N24" s="326"/>
+      <c r="O24" s="327"/>
       <c r="P24" s="324"/>
       <c r="Q24" s="324"/>
       <c r="R24" s="324"/>
       <c r="S24" s="324"/>
-      <c r="T24" s="325">
+      <c r="T24" s="324"/>
+      <c r="U24" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U24" s="327"/>
-      <c r="V24" s="325">
+      <c r="V24" s="327"/>
+      <c r="W24" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W24" s="370" t="str">
+      <c r="X24" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="330"/>
       <c r="C25" s="328"/>
       <c r="D25" s="329"/>
@@ -21570,28 +21602,29 @@
       <c r="L25" s="322" t="s">
         <v>385</v>
       </c>
-      <c r="M25" s="326"/>
-      <c r="N25" s="327"/>
-      <c r="O25" s="324"/>
+      <c r="M25" s="322"/>
+      <c r="N25" s="326"/>
+      <c r="O25" s="327"/>
       <c r="P25" s="324"/>
       <c r="Q25" s="324"/>
       <c r="R25" s="324"/>
       <c r="S25" s="324"/>
-      <c r="T25" s="325">
+      <c r="T25" s="324"/>
+      <c r="U25" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U25" s="327"/>
-      <c r="V25" s="325">
+      <c r="V25" s="327"/>
+      <c r="W25" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W25" s="370" t="str">
+      <c r="X25" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="320" t="s">
         <v>386</v>
       </c>
@@ -21620,28 +21653,29 @@
       <c r="L26" s="322" t="s">
         <v>387</v>
       </c>
-      <c r="M26" s="326"/>
-      <c r="N26" s="327"/>
-      <c r="O26" s="324"/>
+      <c r="M26" s="322"/>
+      <c r="N26" s="326"/>
+      <c r="O26" s="327"/>
       <c r="P26" s="324"/>
       <c r="Q26" s="324"/>
       <c r="R26" s="324"/>
       <c r="S26" s="324"/>
-      <c r="T26" s="325">
+      <c r="T26" s="324"/>
+      <c r="U26" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U26" s="327"/>
-      <c r="V26" s="325">
+      <c r="V26" s="327"/>
+      <c r="W26" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W26" s="370" t="str">
+      <c r="X26" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="328"/>
       <c r="C27" s="328" t="s">
         <v>336</v>
@@ -21670,28 +21704,29 @@
       <c r="L27" s="322" t="s">
         <v>388</v>
       </c>
-      <c r="M27" s="326"/>
-      <c r="N27" s="327"/>
-      <c r="O27" s="324"/>
+      <c r="M27" s="322"/>
+      <c r="N27" s="326"/>
+      <c r="O27" s="327"/>
       <c r="P27" s="324"/>
       <c r="Q27" s="324"/>
       <c r="R27" s="324"/>
       <c r="S27" s="324"/>
-      <c r="T27" s="325">
+      <c r="T27" s="324"/>
+      <c r="U27" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U27" s="327"/>
-      <c r="V27" s="325">
+      <c r="V27" s="327"/>
+      <c r="W27" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W27" s="370" t="str">
+      <c r="X27" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="330"/>
       <c r="C28" s="330"/>
       <c r="D28" s="331"/>
@@ -21718,28 +21753,29 @@
       <c r="L28" s="322" t="s">
         <v>389</v>
       </c>
-      <c r="M28" s="326"/>
-      <c r="N28" s="327"/>
-      <c r="O28" s="324"/>
+      <c r="M28" s="322"/>
+      <c r="N28" s="326"/>
+      <c r="O28" s="327"/>
       <c r="P28" s="324"/>
       <c r="Q28" s="324"/>
       <c r="R28" s="324"/>
       <c r="S28" s="324"/>
-      <c r="T28" s="325">
+      <c r="T28" s="324"/>
+      <c r="U28" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U28" s="327"/>
-      <c r="V28" s="325">
+      <c r="V28" s="327"/>
+      <c r="W28" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W28" s="370" t="str">
+      <c r="X28" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="320" t="s">
         <v>391</v>
       </c>
@@ -21770,28 +21806,29 @@
       <c r="L29" s="322" t="s">
         <v>393</v>
       </c>
-      <c r="M29" s="326"/>
-      <c r="N29" s="327"/>
-      <c r="O29" s="324"/>
+      <c r="M29" s="322"/>
+      <c r="N29" s="326"/>
+      <c r="O29" s="327"/>
       <c r="P29" s="324"/>
       <c r="Q29" s="324"/>
       <c r="R29" s="324"/>
       <c r="S29" s="324"/>
-      <c r="T29" s="325">
+      <c r="T29" s="324"/>
+      <c r="U29" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U29" s="327"/>
-      <c r="V29" s="325">
+      <c r="V29" s="327"/>
+      <c r="W29" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W29" s="370" t="str">
+      <c r="X29" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="328"/>
       <c r="C30" s="328" t="s">
         <v>336</v>
@@ -21820,28 +21857,29 @@
       <c r="L30" s="322" t="s">
         <v>394</v>
       </c>
-      <c r="M30" s="326"/>
-      <c r="N30" s="327"/>
-      <c r="O30" s="324"/>
+      <c r="M30" s="322"/>
+      <c r="N30" s="326"/>
+      <c r="O30" s="327"/>
       <c r="P30" s="324"/>
       <c r="Q30" s="324"/>
       <c r="R30" s="324"/>
       <c r="S30" s="324"/>
-      <c r="T30" s="325">
+      <c r="T30" s="324"/>
+      <c r="U30" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U30" s="327"/>
-      <c r="V30" s="325">
+      <c r="V30" s="327"/>
+      <c r="W30" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W30" s="370" t="str">
+      <c r="X30" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="330"/>
       <c r="C31" s="330"/>
       <c r="D31" s="331"/>
@@ -21868,28 +21906,29 @@
       <c r="L31" s="322" t="s">
         <v>395</v>
       </c>
-      <c r="M31" s="326"/>
-      <c r="N31" s="327"/>
-      <c r="O31" s="324"/>
+      <c r="M31" s="322"/>
+      <c r="N31" s="326"/>
+      <c r="O31" s="327"/>
       <c r="P31" s="324"/>
       <c r="Q31" s="324"/>
       <c r="R31" s="324"/>
       <c r="S31" s="324"/>
-      <c r="T31" s="325">
+      <c r="T31" s="324"/>
+      <c r="U31" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U31" s="327"/>
-      <c r="V31" s="325">
+      <c r="V31" s="327"/>
+      <c r="W31" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W31" s="370" t="str">
+      <c r="X31" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="320" t="s">
         <v>396</v>
       </c>
@@ -21920,28 +21959,29 @@
       <c r="L32" s="322" t="s">
         <v>398</v>
       </c>
-      <c r="M32" s="326"/>
-      <c r="N32" s="327"/>
-      <c r="O32" s="324"/>
+      <c r="M32" s="322"/>
+      <c r="N32" s="326"/>
+      <c r="O32" s="327"/>
       <c r="P32" s="324"/>
       <c r="Q32" s="324"/>
       <c r="R32" s="324"/>
       <c r="S32" s="324"/>
-      <c r="T32" s="325">
+      <c r="T32" s="324"/>
+      <c r="U32" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U32" s="327"/>
-      <c r="V32" s="325">
+      <c r="V32" s="327"/>
+      <c r="W32" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W32" s="370" t="str">
+      <c r="X32" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="328"/>
       <c r="C33" s="328" t="s">
         <v>336</v>
@@ -21970,28 +22010,29 @@
       <c r="L33" s="322" t="s">
         <v>399</v>
       </c>
-      <c r="M33" s="326"/>
-      <c r="N33" s="327"/>
-      <c r="O33" s="324"/>
+      <c r="M33" s="322"/>
+      <c r="N33" s="326"/>
+      <c r="O33" s="327"/>
       <c r="P33" s="324"/>
       <c r="Q33" s="324"/>
       <c r="R33" s="324"/>
       <c r="S33" s="324"/>
-      <c r="T33" s="325">
+      <c r="T33" s="324"/>
+      <c r="U33" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U33" s="327"/>
-      <c r="V33" s="325">
+      <c r="V33" s="327"/>
+      <c r="W33" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W33" s="370" t="str">
+      <c r="X33" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="330"/>
       <c r="C34" s="330"/>
       <c r="D34" s="331"/>
@@ -22018,28 +22059,29 @@
       <c r="L34" s="322" t="s">
         <v>401</v>
       </c>
-      <c r="M34" s="326"/>
-      <c r="N34" s="327"/>
-      <c r="O34" s="324"/>
+      <c r="M34" s="322"/>
+      <c r="N34" s="326"/>
+      <c r="O34" s="327"/>
       <c r="P34" s="324"/>
       <c r="Q34" s="324"/>
       <c r="R34" s="324"/>
       <c r="S34" s="324"/>
-      <c r="T34" s="325">
+      <c r="T34" s="324"/>
+      <c r="U34" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U34" s="327"/>
-      <c r="V34" s="325">
+      <c r="V34" s="327"/>
+      <c r="W34" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W34" s="370" t="str">
+      <c r="X34" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="320" t="s">
         <v>402</v>
       </c>
@@ -22070,28 +22112,29 @@
       <c r="L35" s="322" t="s">
         <v>335</v>
       </c>
-      <c r="M35" s="326"/>
-      <c r="N35" s="327"/>
-      <c r="O35" s="324"/>
+      <c r="M35" s="322"/>
+      <c r="N35" s="326"/>
+      <c r="O35" s="327"/>
       <c r="P35" s="324"/>
       <c r="Q35" s="324"/>
       <c r="R35" s="324"/>
       <c r="S35" s="324"/>
-      <c r="T35" s="325">
+      <c r="T35" s="324"/>
+      <c r="U35" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U35" s="327"/>
-      <c r="V35" s="325">
+      <c r="V35" s="327"/>
+      <c r="W35" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W35" s="370" t="str">
+      <c r="X35" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="328"/>
       <c r="C36" s="328" t="s">
         <v>336</v>
@@ -22120,28 +22163,29 @@
       <c r="L36" s="322" t="s">
         <v>361</v>
       </c>
-      <c r="M36" s="326"/>
-      <c r="N36" s="327"/>
-      <c r="O36" s="324"/>
+      <c r="M36" s="322"/>
+      <c r="N36" s="326"/>
+      <c r="O36" s="327"/>
       <c r="P36" s="324"/>
       <c r="Q36" s="324"/>
       <c r="R36" s="324"/>
       <c r="S36" s="324"/>
-      <c r="T36" s="325">
-        <f t="shared" ref="T36:T67" si="4">N36+M36</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="327"/>
-      <c r="V36" s="325">
+      <c r="T36" s="324"/>
+      <c r="U36" s="325">
+        <f t="shared" ref="U36:U67" si="4">O36+N36</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="327"/>
+      <c r="W36" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W36" s="370" t="str">
+      <c r="X36" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="330"/>
       <c r="C37" s="330"/>
       <c r="D37" s="331"/>
@@ -22168,28 +22212,29 @@
       <c r="L37" s="322" t="s">
         <v>405</v>
       </c>
-      <c r="M37" s="326"/>
-      <c r="N37" s="327"/>
-      <c r="O37" s="324"/>
+      <c r="M37" s="322"/>
+      <c r="N37" s="326"/>
+      <c r="O37" s="327"/>
       <c r="P37" s="324"/>
       <c r="Q37" s="324"/>
       <c r="R37" s="324"/>
       <c r="S37" s="324"/>
-      <c r="T37" s="325">
+      <c r="T37" s="324"/>
+      <c r="U37" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U37" s="327"/>
-      <c r="V37" s="325">
+      <c r="V37" s="327"/>
+      <c r="W37" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W37" s="370" t="str">
+      <c r="X37" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="320" t="s">
         <v>406</v>
       </c>
@@ -22220,28 +22265,29 @@
       <c r="L38" s="322" t="s">
         <v>408</v>
       </c>
-      <c r="M38" s="326"/>
-      <c r="N38" s="327"/>
-      <c r="O38" s="324"/>
+      <c r="M38" s="322"/>
+      <c r="N38" s="326"/>
+      <c r="O38" s="327"/>
       <c r="P38" s="324"/>
       <c r="Q38" s="324"/>
       <c r="R38" s="324"/>
       <c r="S38" s="324"/>
-      <c r="T38" s="325">
+      <c r="T38" s="324"/>
+      <c r="U38" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U38" s="327"/>
-      <c r="V38" s="325">
+      <c r="V38" s="327"/>
+      <c r="W38" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W38" s="370" t="str">
+      <c r="X38" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="328"/>
       <c r="C39" s="328" t="s">
         <v>336</v>
@@ -22270,28 +22316,29 @@
       <c r="L39" s="322" t="s">
         <v>410</v>
       </c>
-      <c r="M39" s="326"/>
-      <c r="N39" s="327"/>
-      <c r="O39" s="324"/>
+      <c r="M39" s="322"/>
+      <c r="N39" s="326"/>
+      <c r="O39" s="327"/>
       <c r="P39" s="324"/>
       <c r="Q39" s="324"/>
       <c r="R39" s="324"/>
       <c r="S39" s="324"/>
-      <c r="T39" s="325">
+      <c r="T39" s="324"/>
+      <c r="U39" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U39" s="327"/>
-      <c r="V39" s="325">
+      <c r="V39" s="327"/>
+      <c r="W39" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W39" s="370" t="str">
+      <c r="X39" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="330"/>
       <c r="C40" s="330"/>
       <c r="D40" s="331"/>
@@ -22318,28 +22365,29 @@
       <c r="L40" s="322" t="s">
         <v>412</v>
       </c>
-      <c r="M40" s="326"/>
-      <c r="N40" s="327"/>
-      <c r="O40" s="324"/>
+      <c r="M40" s="322"/>
+      <c r="N40" s="326"/>
+      <c r="O40" s="327"/>
       <c r="P40" s="324"/>
       <c r="Q40" s="324"/>
       <c r="R40" s="324"/>
       <c r="S40" s="324"/>
-      <c r="T40" s="325">
+      <c r="T40" s="324"/>
+      <c r="U40" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U40" s="327"/>
-      <c r="V40" s="325">
+      <c r="V40" s="327"/>
+      <c r="W40" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W40" s="370" t="str">
+      <c r="X40" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="320" t="s">
         <v>413</v>
       </c>
@@ -22370,28 +22418,29 @@
       <c r="L41" s="322" t="s">
         <v>415</v>
       </c>
-      <c r="M41" s="326"/>
-      <c r="N41" s="327"/>
-      <c r="O41" s="324"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="326"/>
+      <c r="O41" s="327"/>
       <c r="P41" s="324"/>
       <c r="Q41" s="324"/>
       <c r="R41" s="324"/>
       <c r="S41" s="324"/>
-      <c r="T41" s="325">
+      <c r="T41" s="324"/>
+      <c r="U41" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="327"/>
-      <c r="V41" s="325">
+      <c r="V41" s="327"/>
+      <c r="W41" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W41" s="370" t="str">
+      <c r="X41" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="328"/>
       <c r="C42" s="328" t="s">
         <v>336</v>
@@ -22420,28 +22469,29 @@
       <c r="L42" s="322" t="s">
         <v>411</v>
       </c>
-      <c r="M42" s="326"/>
-      <c r="N42" s="327"/>
-      <c r="O42" s="324"/>
+      <c r="M42" s="322"/>
+      <c r="N42" s="326"/>
+      <c r="O42" s="327"/>
       <c r="P42" s="324"/>
       <c r="Q42" s="324"/>
       <c r="R42" s="324"/>
       <c r="S42" s="324"/>
-      <c r="T42" s="325">
+      <c r="T42" s="324"/>
+      <c r="U42" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="327"/>
-      <c r="V42" s="325">
+      <c r="V42" s="327"/>
+      <c r="W42" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W42" s="370" t="str">
+      <c r="X42" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="330"/>
       <c r="C43" s="330"/>
       <c r="D43" s="331"/>
@@ -22468,28 +22518,29 @@
       <c r="L43" s="322" t="s">
         <v>417</v>
       </c>
-      <c r="M43" s="326"/>
-      <c r="N43" s="327"/>
-      <c r="O43" s="324"/>
+      <c r="M43" s="322"/>
+      <c r="N43" s="326"/>
+      <c r="O43" s="327"/>
       <c r="P43" s="324"/>
       <c r="Q43" s="324"/>
       <c r="R43" s="324"/>
       <c r="S43" s="324"/>
-      <c r="T43" s="325">
+      <c r="T43" s="324"/>
+      <c r="U43" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="327"/>
-      <c r="V43" s="325">
+      <c r="V43" s="327"/>
+      <c r="W43" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W43" s="370" t="str">
+      <c r="X43" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="44" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="320" t="s">
         <v>419</v>
       </c>
@@ -22520,28 +22571,29 @@
       <c r="L44" s="322" t="s">
         <v>421</v>
       </c>
-      <c r="M44" s="326"/>
-      <c r="N44" s="327"/>
-      <c r="O44" s="324"/>
+      <c r="M44" s="322"/>
+      <c r="N44" s="326"/>
+      <c r="O44" s="327"/>
       <c r="P44" s="324"/>
       <c r="Q44" s="324"/>
       <c r="R44" s="324"/>
       <c r="S44" s="324"/>
-      <c r="T44" s="325">
+      <c r="T44" s="324"/>
+      <c r="U44" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="327"/>
-      <c r="V44" s="325">
+      <c r="V44" s="327"/>
+      <c r="W44" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W44" s="370" t="str">
+      <c r="X44" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="328"/>
       <c r="C45" s="328" t="s">
         <v>336</v>
@@ -22570,28 +22622,29 @@
       <c r="L45" s="322" t="s">
         <v>422</v>
       </c>
-      <c r="M45" s="326"/>
-      <c r="N45" s="327"/>
-      <c r="O45" s="324"/>
+      <c r="M45" s="322"/>
+      <c r="N45" s="326"/>
+      <c r="O45" s="327"/>
       <c r="P45" s="324"/>
       <c r="Q45" s="324"/>
       <c r="R45" s="324"/>
       <c r="S45" s="324"/>
-      <c r="T45" s="325">
+      <c r="T45" s="324"/>
+      <c r="U45" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="327"/>
-      <c r="V45" s="325">
+      <c r="V45" s="327"/>
+      <c r="W45" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W45" s="370" t="str">
+      <c r="X45" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="330"/>
       <c r="C46" s="330"/>
       <c r="D46" s="331"/>
@@ -22618,28 +22671,29 @@
       <c r="L46" s="322" t="s">
         <v>423</v>
       </c>
-      <c r="M46" s="326"/>
-      <c r="N46" s="327"/>
-      <c r="O46" s="324"/>
+      <c r="M46" s="322"/>
+      <c r="N46" s="326"/>
+      <c r="O46" s="327"/>
       <c r="P46" s="324"/>
       <c r="Q46" s="324"/>
       <c r="R46" s="324"/>
       <c r="S46" s="324"/>
-      <c r="T46" s="325">
+      <c r="T46" s="324"/>
+      <c r="U46" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="327"/>
-      <c r="V46" s="325">
+      <c r="V46" s="327"/>
+      <c r="W46" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W46" s="370" t="str">
+      <c r="X46" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="320" t="s">
         <v>424</v>
       </c>
@@ -22670,28 +22724,29 @@
       <c r="L47" s="322" t="s">
         <v>426</v>
       </c>
-      <c r="M47" s="326"/>
-      <c r="N47" s="327"/>
-      <c r="O47" s="324"/>
+      <c r="M47" s="322"/>
+      <c r="N47" s="326"/>
+      <c r="O47" s="327"/>
       <c r="P47" s="324"/>
       <c r="Q47" s="324"/>
       <c r="R47" s="324"/>
       <c r="S47" s="324"/>
-      <c r="T47" s="325">
+      <c r="T47" s="324"/>
+      <c r="U47" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="327"/>
-      <c r="V47" s="325">
+      <c r="V47" s="327"/>
+      <c r="W47" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W47" s="370" t="str">
+      <c r="X47" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="328"/>
       <c r="C48" s="328" t="s">
         <v>336</v>
@@ -22720,28 +22775,29 @@
       <c r="L48" s="322" t="s">
         <v>428</v>
       </c>
-      <c r="M48" s="326"/>
-      <c r="N48" s="327"/>
-      <c r="O48" s="324"/>
+      <c r="M48" s="322"/>
+      <c r="N48" s="326"/>
+      <c r="O48" s="327"/>
       <c r="P48" s="324"/>
       <c r="Q48" s="324"/>
       <c r="R48" s="324"/>
       <c r="S48" s="324"/>
-      <c r="T48" s="325">
+      <c r="T48" s="324"/>
+      <c r="U48" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="327"/>
-      <c r="V48" s="325">
+      <c r="V48" s="327"/>
+      <c r="W48" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W48" s="370" t="str">
+      <c r="X48" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="330"/>
       <c r="C49" s="330"/>
       <c r="D49" s="331"/>
@@ -22768,28 +22824,29 @@
       <c r="L49" s="322" t="s">
         <v>429</v>
       </c>
-      <c r="M49" s="326"/>
-      <c r="N49" s="327"/>
-      <c r="O49" s="324"/>
+      <c r="M49" s="322"/>
+      <c r="N49" s="326"/>
+      <c r="O49" s="327"/>
       <c r="P49" s="324"/>
       <c r="Q49" s="324"/>
       <c r="R49" s="324"/>
       <c r="S49" s="324"/>
-      <c r="T49" s="325">
+      <c r="T49" s="324"/>
+      <c r="U49" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="327"/>
-      <c r="V49" s="325">
+      <c r="V49" s="327"/>
+      <c r="W49" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W49" s="370" t="str">
+      <c r="X49" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="320" t="s">
         <v>430</v>
       </c>
@@ -22820,28 +22877,29 @@
       <c r="L50" s="322" t="s">
         <v>390</v>
       </c>
-      <c r="M50" s="326"/>
-      <c r="N50" s="327"/>
-      <c r="O50" s="324"/>
+      <c r="M50" s="322"/>
+      <c r="N50" s="326"/>
+      <c r="O50" s="327"/>
       <c r="P50" s="324"/>
       <c r="Q50" s="324"/>
       <c r="R50" s="324"/>
       <c r="S50" s="324"/>
-      <c r="T50" s="325">
+      <c r="T50" s="324"/>
+      <c r="U50" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="327"/>
-      <c r="V50" s="325">
+      <c r="V50" s="327"/>
+      <c r="W50" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W50" s="370" t="str">
+      <c r="X50" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="328"/>
       <c r="C51" s="328" t="s">
         <v>336</v>
@@ -22870,28 +22928,29 @@
       <c r="L51" s="322" t="s">
         <v>432</v>
       </c>
-      <c r="M51" s="326"/>
-      <c r="N51" s="327"/>
-      <c r="O51" s="324"/>
+      <c r="M51" s="322"/>
+      <c r="N51" s="326"/>
+      <c r="O51" s="327"/>
       <c r="P51" s="324"/>
       <c r="Q51" s="324"/>
       <c r="R51" s="324"/>
       <c r="S51" s="324"/>
-      <c r="T51" s="325">
+      <c r="T51" s="324"/>
+      <c r="U51" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="327"/>
-      <c r="V51" s="325">
+      <c r="V51" s="327"/>
+      <c r="W51" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W51" s="370" t="str">
+      <c r="X51" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="330"/>
       <c r="C52" s="330"/>
       <c r="D52" s="331"/>
@@ -22918,28 +22977,29 @@
       <c r="L52" s="322" t="s">
         <v>433</v>
       </c>
-      <c r="M52" s="326"/>
-      <c r="N52" s="327"/>
-      <c r="O52" s="324"/>
+      <c r="M52" s="322"/>
+      <c r="N52" s="326"/>
+      <c r="O52" s="327"/>
       <c r="P52" s="324"/>
       <c r="Q52" s="324"/>
       <c r="R52" s="324"/>
       <c r="S52" s="324"/>
-      <c r="T52" s="325">
+      <c r="T52" s="324"/>
+      <c r="U52" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="327"/>
-      <c r="V52" s="325">
+      <c r="V52" s="327"/>
+      <c r="W52" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W52" s="370" t="str">
+      <c r="X52" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="320" t="s">
         <v>434</v>
       </c>
@@ -22970,28 +23030,29 @@
       <c r="L53" s="322" t="s">
         <v>436</v>
       </c>
-      <c r="M53" s="326"/>
-      <c r="N53" s="327"/>
-      <c r="O53" s="324"/>
+      <c r="M53" s="322"/>
+      <c r="N53" s="326"/>
+      <c r="O53" s="327"/>
       <c r="P53" s="324"/>
       <c r="Q53" s="324"/>
       <c r="R53" s="324"/>
       <c r="S53" s="324"/>
-      <c r="T53" s="325">
+      <c r="T53" s="324"/>
+      <c r="U53" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="327"/>
-      <c r="V53" s="325">
+      <c r="V53" s="327"/>
+      <c r="W53" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W53" s="370" t="str">
+      <c r="X53" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="328"/>
       <c r="C54" s="328" t="s">
         <v>336</v>
@@ -23020,28 +23081,29 @@
       <c r="L54" s="322" t="s">
         <v>437</v>
       </c>
-      <c r="M54" s="326"/>
-      <c r="N54" s="327"/>
-      <c r="O54" s="324"/>
+      <c r="M54" s="322"/>
+      <c r="N54" s="326"/>
+      <c r="O54" s="327"/>
       <c r="P54" s="324"/>
       <c r="Q54" s="324"/>
       <c r="R54" s="324"/>
       <c r="S54" s="324"/>
-      <c r="T54" s="325">
+      <c r="T54" s="324"/>
+      <c r="U54" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="327"/>
-      <c r="V54" s="325">
+      <c r="V54" s="327"/>
+      <c r="W54" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W54" s="370" t="str">
+      <c r="X54" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="330"/>
       <c r="C55" s="330"/>
       <c r="D55" s="331"/>
@@ -23068,28 +23130,29 @@
       <c r="L55" s="322" t="s">
         <v>439</v>
       </c>
-      <c r="M55" s="326"/>
-      <c r="N55" s="327"/>
-      <c r="O55" s="324"/>
+      <c r="M55" s="322"/>
+      <c r="N55" s="326"/>
+      <c r="O55" s="327"/>
       <c r="P55" s="324"/>
       <c r="Q55" s="324"/>
       <c r="R55" s="324"/>
       <c r="S55" s="324"/>
-      <c r="T55" s="325">
+      <c r="T55" s="324"/>
+      <c r="U55" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="327"/>
-      <c r="V55" s="325">
+      <c r="V55" s="327"/>
+      <c r="W55" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W55" s="370" t="str">
+      <c r="X55" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="320" t="s">
         <v>440</v>
       </c>
@@ -23120,28 +23183,29 @@
       <c r="L56" s="322" t="s">
         <v>444</v>
       </c>
-      <c r="M56" s="326"/>
-      <c r="N56" s="327"/>
-      <c r="O56" s="324"/>
+      <c r="M56" s="322"/>
+      <c r="N56" s="326"/>
+      <c r="O56" s="327"/>
       <c r="P56" s="324"/>
       <c r="Q56" s="324"/>
       <c r="R56" s="324"/>
       <c r="S56" s="324"/>
-      <c r="T56" s="325">
+      <c r="T56" s="324"/>
+      <c r="U56" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="327"/>
-      <c r="V56" s="325">
+      <c r="V56" s="327"/>
+      <c r="W56" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W56" s="370" t="str">
+      <c r="X56" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="349"/>
       <c r="C57" s="328" t="s">
         <v>336</v>
@@ -23170,28 +23234,29 @@
       <c r="L57" s="322" t="s">
         <v>446</v>
       </c>
-      <c r="M57" s="326"/>
-      <c r="N57" s="327"/>
-      <c r="O57" s="324"/>
+      <c r="M57" s="322"/>
+      <c r="N57" s="326"/>
+      <c r="O57" s="327"/>
       <c r="P57" s="324"/>
       <c r="Q57" s="324"/>
       <c r="R57" s="324"/>
       <c r="S57" s="324"/>
-      <c r="T57" s="325">
+      <c r="T57" s="324"/>
+      <c r="U57" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="327"/>
-      <c r="V57" s="325">
+      <c r="V57" s="327"/>
+      <c r="W57" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W57" s="370" t="str">
+      <c r="X57" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="349"/>
       <c r="C58" s="349"/>
       <c r="D58" s="329"/>
@@ -23218,28 +23283,29 @@
       <c r="L58" s="322" t="s">
         <v>447</v>
       </c>
-      <c r="M58" s="326"/>
-      <c r="N58" s="327"/>
-      <c r="O58" s="324"/>
+      <c r="M58" s="322"/>
+      <c r="N58" s="326"/>
+      <c r="O58" s="327"/>
       <c r="P58" s="324"/>
       <c r="Q58" s="324"/>
       <c r="R58" s="324"/>
       <c r="S58" s="324"/>
-      <c r="T58" s="325">
+      <c r="T58" s="324"/>
+      <c r="U58" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="327"/>
-      <c r="V58" s="325">
+      <c r="V58" s="327"/>
+      <c r="W58" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W58" s="370" t="str">
+      <c r="X58" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="349"/>
       <c r="C59" s="349"/>
       <c r="D59" s="329"/>
@@ -23266,28 +23332,29 @@
       <c r="L59" s="322" t="s">
         <v>404</v>
       </c>
-      <c r="M59" s="326"/>
-      <c r="N59" s="327"/>
-      <c r="O59" s="324"/>
+      <c r="M59" s="322"/>
+      <c r="N59" s="326"/>
+      <c r="O59" s="327"/>
       <c r="P59" s="324"/>
       <c r="Q59" s="324"/>
       <c r="R59" s="324"/>
       <c r="S59" s="324"/>
-      <c r="T59" s="325">
+      <c r="T59" s="324"/>
+      <c r="U59" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="327"/>
-      <c r="V59" s="325">
+      <c r="V59" s="327"/>
+      <c r="W59" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W59" s="370" t="str">
+      <c r="X59" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="350"/>
       <c r="C60" s="350"/>
       <c r="D60" s="331"/>
@@ -23314,28 +23381,29 @@
       <c r="L60" s="322" t="s">
         <v>451</v>
       </c>
-      <c r="M60" s="326"/>
-      <c r="N60" s="327"/>
-      <c r="O60" s="324"/>
+      <c r="M60" s="322"/>
+      <c r="N60" s="326"/>
+      <c r="O60" s="327"/>
       <c r="P60" s="324"/>
       <c r="Q60" s="324"/>
       <c r="R60" s="324"/>
       <c r="S60" s="324"/>
-      <c r="T60" s="325">
+      <c r="T60" s="324"/>
+      <c r="U60" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U60" s="327"/>
-      <c r="V60" s="325">
+      <c r="V60" s="327"/>
+      <c r="W60" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W60" s="370" t="str">
+      <c r="X60" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="2:23" s="354" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:24" s="354" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="320" t="s">
         <v>452</v>
       </c>
@@ -23366,28 +23434,29 @@
       <c r="L61" s="322" t="s">
         <v>454</v>
       </c>
-      <c r="M61" s="326"/>
-      <c r="N61" s="327"/>
-      <c r="O61" s="352"/>
+      <c r="M61" s="322"/>
+      <c r="N61" s="326"/>
+      <c r="O61" s="327"/>
       <c r="P61" s="352"/>
       <c r="Q61" s="352"/>
       <c r="R61" s="352"/>
       <c r="S61" s="352"/>
-      <c r="T61" s="325">
+      <c r="T61" s="352"/>
+      <c r="U61" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U61" s="353"/>
-      <c r="V61" s="325">
+      <c r="V61" s="353"/>
+      <c r="W61" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W61" s="370" t="str">
+      <c r="X61" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="328"/>
       <c r="C62" s="328" t="s">
         <v>336</v>
@@ -23416,28 +23485,29 @@
       <c r="L62" s="322" t="s">
         <v>455</v>
       </c>
-      <c r="M62" s="326"/>
-      <c r="N62" s="327"/>
-      <c r="O62" s="352"/>
+      <c r="M62" s="322"/>
+      <c r="N62" s="326"/>
+      <c r="O62" s="327"/>
       <c r="P62" s="352"/>
       <c r="Q62" s="352"/>
       <c r="R62" s="352"/>
       <c r="S62" s="352"/>
-      <c r="T62" s="325">
+      <c r="T62" s="352"/>
+      <c r="U62" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U62" s="327"/>
-      <c r="V62" s="325">
+      <c r="V62" s="327"/>
+      <c r="W62" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W62" s="370" t="str">
+      <c r="X62" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="330"/>
       <c r="C63" s="330"/>
       <c r="D63" s="331"/>
@@ -23464,28 +23534,29 @@
       <c r="L63" s="322" t="s">
         <v>445</v>
       </c>
-      <c r="M63" s="326"/>
-      <c r="N63" s="327"/>
-      <c r="O63" s="352"/>
+      <c r="M63" s="322"/>
+      <c r="N63" s="326"/>
+      <c r="O63" s="327"/>
       <c r="P63" s="352"/>
       <c r="Q63" s="352"/>
       <c r="R63" s="352"/>
       <c r="S63" s="352"/>
-      <c r="T63" s="325">
+      <c r="T63" s="352"/>
+      <c r="U63" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="327"/>
-      <c r="V63" s="325">
+      <c r="V63" s="327"/>
+      <c r="W63" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W63" s="370" t="str">
+      <c r="X63" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="320" t="s">
         <v>456</v>
       </c>
@@ -23516,28 +23587,29 @@
       <c r="L64" s="322" t="s">
         <v>458</v>
       </c>
-      <c r="M64" s="326"/>
-      <c r="N64" s="327"/>
-      <c r="O64" s="352"/>
+      <c r="M64" s="322"/>
+      <c r="N64" s="326"/>
+      <c r="O64" s="327"/>
       <c r="P64" s="352"/>
       <c r="Q64" s="352"/>
       <c r="R64" s="352"/>
       <c r="S64" s="352"/>
-      <c r="T64" s="325">
+      <c r="T64" s="352"/>
+      <c r="U64" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="327"/>
-      <c r="V64" s="325">
+      <c r="V64" s="327"/>
+      <c r="W64" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W64" s="370" t="str">
+      <c r="X64" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="328"/>
       <c r="C65" s="328" t="s">
         <v>336</v>
@@ -23566,28 +23638,29 @@
       <c r="L65" s="322" t="s">
         <v>459</v>
       </c>
-      <c r="M65" s="326"/>
-      <c r="N65" s="327"/>
-      <c r="O65" s="352"/>
+      <c r="M65" s="322"/>
+      <c r="N65" s="326"/>
+      <c r="O65" s="327"/>
       <c r="P65" s="352"/>
       <c r="Q65" s="352"/>
       <c r="R65" s="352"/>
       <c r="S65" s="352"/>
-      <c r="T65" s="325">
+      <c r="T65" s="352"/>
+      <c r="U65" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="327"/>
-      <c r="V65" s="325">
+      <c r="V65" s="327"/>
+      <c r="W65" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W65" s="370" t="str">
+      <c r="X65" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="330"/>
       <c r="C66" s="330"/>
       <c r="D66" s="331"/>
@@ -23614,28 +23687,29 @@
       <c r="L66" s="355" t="s">
         <v>460</v>
       </c>
-      <c r="M66" s="326"/>
-      <c r="N66" s="367"/>
-      <c r="O66" s="352"/>
+      <c r="M66" s="355"/>
+      <c r="N66" s="326"/>
+      <c r="O66" s="367"/>
       <c r="P66" s="352"/>
       <c r="Q66" s="352"/>
       <c r="R66" s="352"/>
       <c r="S66" s="352"/>
-      <c r="T66" s="325">
+      <c r="T66" s="352"/>
+      <c r="U66" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U66" s="327"/>
-      <c r="V66" s="325">
+      <c r="V66" s="327"/>
+      <c r="W66" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W66" s="370" t="str">
+      <c r="X66" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="320" t="s">
         <v>461</v>
       </c>
@@ -23666,28 +23740,29 @@
       <c r="L67" s="322" t="s">
         <v>463</v>
       </c>
-      <c r="M67" s="326"/>
-      <c r="N67" s="327"/>
-      <c r="O67" s="352"/>
+      <c r="M67" s="322"/>
+      <c r="N67" s="326"/>
+      <c r="O67" s="327"/>
       <c r="P67" s="352"/>
       <c r="Q67" s="352"/>
       <c r="R67" s="352"/>
       <c r="S67" s="352"/>
-      <c r="T67" s="325">
+      <c r="T67" s="352"/>
+      <c r="U67" s="325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U67" s="327"/>
-      <c r="V67" s="325">
+      <c r="V67" s="327"/>
+      <c r="W67" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W67" s="370" t="str">
+      <c r="X67" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="328"/>
       <c r="C68" s="328" t="s">
         <v>336</v>
@@ -23716,28 +23791,29 @@
       <c r="L68" s="355" t="s">
         <v>464</v>
       </c>
-      <c r="M68" s="326"/>
-      <c r="N68" s="367"/>
-      <c r="O68" s="352"/>
+      <c r="M68" s="355"/>
+      <c r="N68" s="326"/>
+      <c r="O68" s="367"/>
       <c r="P68" s="352"/>
       <c r="Q68" s="352"/>
       <c r="R68" s="352"/>
       <c r="S68" s="352"/>
-      <c r="T68" s="325">
-        <f t="shared" ref="T68:T99" si="5">N68+M68</f>
-        <v>0</v>
-      </c>
-      <c r="U68" s="327"/>
-      <c r="V68" s="325">
+      <c r="T68" s="352"/>
+      <c r="U68" s="325">
+        <f t="shared" ref="U68:U99" si="5">O68+N68</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="327"/>
+      <c r="W68" s="325">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W68" s="370" t="str">
+      <c r="X68" s="370" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="330"/>
       <c r="C69" s="330"/>
       <c r="D69" s="331"/>
@@ -23764,28 +23840,29 @@
       <c r="L69" s="322" t="s">
         <v>364</v>
       </c>
-      <c r="M69" s="326"/>
-      <c r="N69" s="327"/>
-      <c r="O69" s="352"/>
+      <c r="M69" s="322"/>
+      <c r="N69" s="326"/>
+      <c r="O69" s="327"/>
       <c r="P69" s="352"/>
       <c r="Q69" s="352"/>
       <c r="R69" s="352"/>
       <c r="S69" s="352"/>
-      <c r="T69" s="325">
+      <c r="T69" s="352"/>
+      <c r="U69" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U69" s="327"/>
-      <c r="V69" s="325">
-        <f t="shared" ref="V69:V116" si="6">T69+U69</f>
-        <v>0</v>
-      </c>
-      <c r="W69" s="370" t="str">
-        <f t="shared" ref="W69:W116" si="7">IF(S69&gt;0,V69/S69*7,"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V69" s="327"/>
+      <c r="W69" s="325">
+        <f t="shared" ref="W69:W116" si="6">U69+V69</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="370" t="str">
+        <f t="shared" ref="X69:X116" si="7">IF(T69&gt;0,W69/T69*7,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="187" t="s">
         <v>465</v>
       </c>
@@ -23815,28 +23892,29 @@
       <c r="L70" s="346" t="s">
         <v>467</v>
       </c>
-      <c r="M70" s="326"/>
-      <c r="N70" s="327"/>
-      <c r="O70" s="352"/>
+      <c r="M70" s="346"/>
+      <c r="N70" s="326"/>
+      <c r="O70" s="327"/>
       <c r="P70" s="352"/>
       <c r="Q70" s="352"/>
       <c r="R70" s="352"/>
       <c r="S70" s="352"/>
-      <c r="T70" s="325">
+      <c r="T70" s="352"/>
+      <c r="U70" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U70" s="327"/>
-      <c r="V70" s="325">
+      <c r="V70" s="327"/>
+      <c r="W70" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W70" s="370" t="str">
+      <c r="X70" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="71" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="190"/>
       <c r="C71" s="190" t="s">
         <v>373</v>
@@ -23864,28 +23942,29 @@
       <c r="L71" s="346" t="s">
         <v>468</v>
       </c>
-      <c r="M71" s="326"/>
-      <c r="N71" s="327"/>
-      <c r="O71" s="352"/>
+      <c r="M71" s="346"/>
+      <c r="N71" s="326"/>
+      <c r="O71" s="327"/>
       <c r="P71" s="352"/>
       <c r="Q71" s="352"/>
       <c r="R71" s="352"/>
       <c r="S71" s="352"/>
-      <c r="T71" s="325">
+      <c r="T71" s="352"/>
+      <c r="U71" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U71" s="327"/>
-      <c r="V71" s="325">
+      <c r="V71" s="327"/>
+      <c r="W71" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W71" s="370" t="str">
+      <c r="X71" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="72" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="192"/>
       <c r="C72" s="192"/>
       <c r="D72" s="348"/>
@@ -23911,28 +23990,29 @@
       <c r="L72" s="346" t="s">
         <v>469</v>
       </c>
-      <c r="M72" s="326"/>
-      <c r="N72" s="327"/>
-      <c r="O72" s="352"/>
+      <c r="M72" s="346"/>
+      <c r="N72" s="326"/>
+      <c r="O72" s="327"/>
       <c r="P72" s="352"/>
       <c r="Q72" s="352"/>
       <c r="R72" s="352"/>
       <c r="S72" s="352"/>
-      <c r="T72" s="325">
+      <c r="T72" s="352"/>
+      <c r="U72" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U72" s="327"/>
-      <c r="V72" s="325">
+      <c r="V72" s="327"/>
+      <c r="W72" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W72" s="370" t="str">
+      <c r="X72" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="73" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="187" t="s">
         <v>470</v>
       </c>
@@ -23962,28 +24042,29 @@
       <c r="L73" s="346" t="s">
         <v>472</v>
       </c>
-      <c r="M73" s="326"/>
-      <c r="N73" s="327"/>
-      <c r="O73" s="352"/>
+      <c r="M73" s="346"/>
+      <c r="N73" s="326"/>
+      <c r="O73" s="327"/>
       <c r="P73" s="352"/>
       <c r="Q73" s="352"/>
       <c r="R73" s="352"/>
       <c r="S73" s="352"/>
-      <c r="T73" s="325">
+      <c r="T73" s="352"/>
+      <c r="U73" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U73" s="327"/>
-      <c r="V73" s="325">
+      <c r="V73" s="327"/>
+      <c r="W73" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W73" s="370" t="str">
+      <c r="X73" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="74" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="190"/>
       <c r="C74" s="190" t="s">
         <v>373</v>
@@ -24011,28 +24092,29 @@
       <c r="L74" s="346" t="s">
         <v>473</v>
       </c>
-      <c r="M74" s="326"/>
-      <c r="N74" s="327"/>
-      <c r="O74" s="352"/>
+      <c r="M74" s="346"/>
+      <c r="N74" s="326"/>
+      <c r="O74" s="327"/>
       <c r="P74" s="352"/>
       <c r="Q74" s="352"/>
       <c r="R74" s="352"/>
       <c r="S74" s="352"/>
-      <c r="T74" s="325">
+      <c r="T74" s="352"/>
+      <c r="U74" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U74" s="327"/>
-      <c r="V74" s="325">
+      <c r="V74" s="327"/>
+      <c r="W74" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W74" s="370" t="str">
+      <c r="X74" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="192"/>
       <c r="C75" s="192"/>
       <c r="D75" s="348"/>
@@ -24058,33 +24140,34 @@
       <c r="L75" s="346" t="s">
         <v>474</v>
       </c>
-      <c r="M75" s="326"/>
-      <c r="N75" s="327"/>
-      <c r="O75" s="352"/>
+      <c r="M75" s="346"/>
+      <c r="N75" s="326"/>
+      <c r="O75" s="327"/>
       <c r="P75" s="352"/>
       <c r="Q75" s="352"/>
       <c r="R75" s="352"/>
       <c r="S75" s="352"/>
-      <c r="T75" s="325">
+      <c r="T75" s="352"/>
+      <c r="U75" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U75" s="327"/>
-      <c r="V75" s="325">
+      <c r="V75" s="327"/>
+      <c r="W75" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W75" s="370" t="str">
+      <c r="X75" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="2:23" s="354" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="414" t="s">
+    <row r="76" spans="2:24" s="354" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="421" t="s">
         <v>475</v>
       </c>
       <c r="C76" s="358"/>
-      <c r="D76" s="417" t="s">
+      <c r="D76" s="426" t="s">
         <v>476</v>
       </c>
       <c r="E76" s="359"/>
@@ -24109,33 +24192,34 @@
       <c r="L76" s="327" t="s">
         <v>409</v>
       </c>
-      <c r="M76" s="326"/>
-      <c r="N76" s="327"/>
-      <c r="O76" s="324"/>
+      <c r="M76" s="327"/>
+      <c r="N76" s="326"/>
+      <c r="O76" s="327"/>
       <c r="P76" s="324"/>
       <c r="Q76" s="324"/>
       <c r="R76" s="324"/>
       <c r="S76" s="324"/>
-      <c r="T76" s="325">
+      <c r="T76" s="324"/>
+      <c r="U76" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U76" s="353"/>
-      <c r="V76" s="325">
+      <c r="V76" s="353"/>
+      <c r="W76" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W76" s="370" t="str">
+      <c r="X76" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="415"/>
+    <row r="77" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="422"/>
       <c r="C77" s="190" t="s">
         <v>373</v>
       </c>
-      <c r="D77" s="417"/>
+      <c r="D77" s="426"/>
       <c r="E77" s="190"/>
       <c r="F77" s="356" t="s">
         <v>337</v>
@@ -24158,31 +24242,32 @@
       <c r="L77" s="327" t="s">
         <v>477</v>
       </c>
-      <c r="M77" s="326"/>
-      <c r="N77" s="327"/>
-      <c r="O77" s="324"/>
+      <c r="M77" s="327"/>
+      <c r="N77" s="326"/>
+      <c r="O77" s="327"/>
       <c r="P77" s="324"/>
       <c r="Q77" s="324"/>
       <c r="R77" s="324"/>
       <c r="S77" s="324"/>
-      <c r="T77" s="325">
+      <c r="T77" s="324"/>
+      <c r="U77" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U77" s="327"/>
-      <c r="V77" s="325">
+      <c r="V77" s="327"/>
+      <c r="W77" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W77" s="370" t="str">
+      <c r="X77" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="416"/>
+    <row r="78" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="423"/>
       <c r="C78" s="190"/>
-      <c r="D78" s="417"/>
+      <c r="D78" s="426"/>
       <c r="E78" s="190"/>
       <c r="F78" s="356" t="s">
         <v>341</v>
@@ -24205,29 +24290,30 @@
       <c r="L78" s="327" t="s">
         <v>478</v>
       </c>
-      <c r="M78" s="326"/>
-      <c r="N78" s="327"/>
-      <c r="O78" s="324"/>
+      <c r="M78" s="327"/>
+      <c r="N78" s="326"/>
+      <c r="O78" s="327"/>
       <c r="P78" s="324"/>
       <c r="Q78" s="324"/>
       <c r="R78" s="324"/>
       <c r="S78" s="324"/>
-      <c r="T78" s="325">
+      <c r="T78" s="324"/>
+      <c r="U78" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U78" s="327"/>
-      <c r="V78" s="325">
+      <c r="V78" s="327"/>
+      <c r="W78" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W78" s="370" t="str">
+      <c r="X78" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="79" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="414" t="s">
+    <row r="79" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="421" t="s">
         <v>479</v>
       </c>
       <c r="C79" s="360"/>
@@ -24254,29 +24340,30 @@
       <c r="L79" s="327" t="s">
         <v>480</v>
       </c>
-      <c r="M79" s="326"/>
-      <c r="N79" s="327"/>
-      <c r="O79" s="324"/>
+      <c r="M79" s="327"/>
+      <c r="N79" s="326"/>
+      <c r="O79" s="327"/>
       <c r="P79" s="324"/>
       <c r="Q79" s="324"/>
       <c r="R79" s="324"/>
       <c r="S79" s="324"/>
-      <c r="T79" s="325">
+      <c r="T79" s="324"/>
+      <c r="U79" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U79" s="327"/>
-      <c r="V79" s="325">
+      <c r="V79" s="327"/>
+      <c r="W79" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W79" s="370" t="str">
+      <c r="X79" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="415"/>
+    <row r="80" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="422"/>
       <c r="C80" s="190" t="s">
         <v>373</v>
       </c>
@@ -24305,29 +24392,30 @@
       <c r="L80" s="327" t="s">
         <v>418</v>
       </c>
-      <c r="M80" s="326"/>
-      <c r="N80" s="327"/>
-      <c r="O80" s="324"/>
+      <c r="M80" s="327"/>
+      <c r="N80" s="326"/>
+      <c r="O80" s="327"/>
       <c r="P80" s="324"/>
       <c r="Q80" s="324"/>
       <c r="R80" s="324"/>
       <c r="S80" s="324"/>
-      <c r="T80" s="325">
+      <c r="T80" s="324"/>
+      <c r="U80" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U80" s="327"/>
-      <c r="V80" s="325">
+      <c r="V80" s="327"/>
+      <c r="W80" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W80" s="370" t="str">
+      <c r="X80" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="81" spans="2:23" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="416"/>
+    <row r="81" spans="2:24" s="189" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="423"/>
       <c r="C81" s="360"/>
       <c r="D81" s="361"/>
       <c r="E81" s="195"/>
@@ -24352,29 +24440,30 @@
       <c r="L81" s="327" t="s">
         <v>482</v>
       </c>
-      <c r="M81" s="326"/>
-      <c r="N81" s="327"/>
-      <c r="O81" s="324"/>
+      <c r="M81" s="327"/>
+      <c r="N81" s="326"/>
+      <c r="O81" s="327"/>
       <c r="P81" s="324"/>
       <c r="Q81" s="324"/>
       <c r="R81" s="324"/>
       <c r="S81" s="324"/>
-      <c r="T81" s="325">
+      <c r="T81" s="324"/>
+      <c r="U81" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U81" s="327"/>
-      <c r="V81" s="325">
+      <c r="V81" s="327"/>
+      <c r="W81" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W81" s="370" t="str">
+      <c r="X81" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="82" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="414" t="s">
+    <row r="82" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="421" t="s">
         <v>483</v>
       </c>
       <c r="C82" s="362"/>
@@ -24401,29 +24490,30 @@
       <c r="L82" s="327" t="s">
         <v>484</v>
       </c>
-      <c r="M82" s="326"/>
-      <c r="N82" s="327"/>
-      <c r="O82" s="324"/>
+      <c r="M82" s="327"/>
+      <c r="N82" s="326"/>
+      <c r="O82" s="327"/>
       <c r="P82" s="324"/>
       <c r="Q82" s="324"/>
       <c r="R82" s="324"/>
       <c r="S82" s="324"/>
-      <c r="T82" s="325">
+      <c r="T82" s="324"/>
+      <c r="U82" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U82" s="327"/>
-      <c r="V82" s="325">
+      <c r="V82" s="327"/>
+      <c r="W82" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W82" s="370" t="str">
+      <c r="X82" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="83" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="415"/>
+    <row r="83" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="422"/>
       <c r="C83" s="190" t="s">
         <v>373</v>
       </c>
@@ -24452,29 +24542,30 @@
       <c r="L83" s="327" t="s">
         <v>486</v>
       </c>
-      <c r="M83" s="326"/>
-      <c r="N83" s="327"/>
-      <c r="O83" s="324"/>
+      <c r="M83" s="327"/>
+      <c r="N83" s="326"/>
+      <c r="O83" s="327"/>
       <c r="P83" s="324"/>
       <c r="Q83" s="324"/>
       <c r="R83" s="324"/>
       <c r="S83" s="324"/>
-      <c r="T83" s="325">
+      <c r="T83" s="324"/>
+      <c r="U83" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U83" s="327"/>
-      <c r="V83" s="325">
+      <c r="V83" s="327"/>
+      <c r="W83" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W83" s="370" t="str">
+      <c r="X83" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="416"/>
+    <row r="84" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="423"/>
       <c r="C84" s="360"/>
       <c r="D84" s="361"/>
       <c r="E84" s="190"/>
@@ -24499,29 +24590,30 @@
       <c r="L84" s="364" t="s">
         <v>352</v>
       </c>
-      <c r="M84" s="326"/>
-      <c r="N84" s="364"/>
-      <c r="O84" s="324"/>
+      <c r="M84" s="364"/>
+      <c r="N84" s="326"/>
+      <c r="O84" s="364"/>
       <c r="P84" s="324"/>
       <c r="Q84" s="324"/>
       <c r="R84" s="324"/>
       <c r="S84" s="324"/>
-      <c r="T84" s="325">
+      <c r="T84" s="324"/>
+      <c r="U84" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U84" s="327"/>
-      <c r="V84" s="325">
+      <c r="V84" s="327"/>
+      <c r="W84" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W84" s="370" t="str">
+      <c r="X84" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="414" t="s">
+    <row r="85" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="421" t="s">
         <v>487</v>
       </c>
       <c r="C85" s="362"/>
@@ -24548,29 +24640,30 @@
       <c r="L85" s="327" t="s">
         <v>416</v>
       </c>
-      <c r="M85" s="326"/>
-      <c r="N85" s="327"/>
-      <c r="O85" s="324"/>
+      <c r="M85" s="327"/>
+      <c r="N85" s="326"/>
+      <c r="O85" s="327"/>
       <c r="P85" s="324"/>
       <c r="Q85" s="324"/>
       <c r="R85" s="324"/>
       <c r="S85" s="324"/>
-      <c r="T85" s="325">
+      <c r="T85" s="324"/>
+      <c r="U85" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U85" s="327"/>
-      <c r="V85" s="325">
+      <c r="V85" s="327"/>
+      <c r="W85" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W85" s="370" t="str">
+      <c r="X85" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="86" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="415"/>
+    <row r="86" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="422"/>
       <c r="C86" s="190" t="s">
         <v>373</v>
       </c>
@@ -24599,29 +24692,30 @@
       <c r="L86" s="327" t="s">
         <v>491</v>
       </c>
-      <c r="M86" s="326"/>
-      <c r="N86" s="327"/>
-      <c r="O86" s="324"/>
+      <c r="M86" s="327"/>
+      <c r="N86" s="326"/>
+      <c r="O86" s="327"/>
       <c r="P86" s="324"/>
       <c r="Q86" s="324"/>
       <c r="R86" s="324"/>
       <c r="S86" s="324"/>
-      <c r="T86" s="325">
+      <c r="T86" s="324"/>
+      <c r="U86" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U86" s="327"/>
-      <c r="V86" s="325">
+      <c r="V86" s="327"/>
+      <c r="W86" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W86" s="370" t="str">
+      <c r="X86" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="416"/>
+    <row r="87" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="423"/>
       <c r="C87" s="360"/>
       <c r="D87" s="361"/>
       <c r="E87" s="190"/>
@@ -24646,29 +24740,30 @@
       <c r="L87" s="364" t="s">
         <v>493</v>
       </c>
-      <c r="M87" s="326"/>
-      <c r="N87" s="364"/>
-      <c r="O87" s="324"/>
+      <c r="M87" s="364"/>
+      <c r="N87" s="326"/>
+      <c r="O87" s="364"/>
       <c r="P87" s="324"/>
       <c r="Q87" s="324"/>
       <c r="R87" s="324"/>
       <c r="S87" s="324"/>
-      <c r="T87" s="325">
+      <c r="T87" s="324"/>
+      <c r="U87" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U87" s="327"/>
-      <c r="V87" s="325">
+      <c r="V87" s="327"/>
+      <c r="W87" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W87" s="370" t="str">
+      <c r="X87" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="414" t="s">
+    <row r="88" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="421" t="s">
         <v>494</v>
       </c>
       <c r="C88" s="362"/>
@@ -24696,29 +24791,30 @@
       <c r="L88" s="327" t="s">
         <v>400</v>
       </c>
-      <c r="M88" s="326"/>
-      <c r="N88" s="327"/>
-      <c r="O88" s="324"/>
+      <c r="M88" s="327"/>
+      <c r="N88" s="326"/>
+      <c r="O88" s="327"/>
       <c r="P88" s="324"/>
       <c r="Q88" s="324"/>
       <c r="R88" s="324"/>
       <c r="S88" s="324"/>
-      <c r="T88" s="325">
+      <c r="T88" s="324"/>
+      <c r="U88" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U88" s="327"/>
-      <c r="V88" s="325">
+      <c r="V88" s="327"/>
+      <c r="W88" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W88" s="370" t="str">
+      <c r="X88" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="415"/>
+    <row r="89" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="422"/>
       <c r="C89" s="190" t="s">
         <v>373</v>
       </c>
@@ -24748,29 +24844,30 @@
       <c r="L89" s="338" t="s">
         <v>496</v>
       </c>
-      <c r="M89" s="326"/>
-      <c r="N89" s="338"/>
-      <c r="O89" s="324"/>
+      <c r="M89" s="338"/>
+      <c r="N89" s="326"/>
+      <c r="O89" s="338"/>
       <c r="P89" s="324"/>
       <c r="Q89" s="324"/>
       <c r="R89" s="324"/>
       <c r="S89" s="324"/>
-      <c r="T89" s="325">
+      <c r="T89" s="324"/>
+      <c r="U89" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U89" s="327"/>
-      <c r="V89" s="325">
+      <c r="V89" s="327"/>
+      <c r="W89" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W89" s="370" t="str">
+      <c r="X89" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="90" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="416"/>
+    <row r="90" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="423"/>
       <c r="C90" s="365"/>
       <c r="D90" s="366"/>
       <c r="E90" s="192"/>
@@ -24796,35 +24893,36 @@
       <c r="L90" s="367" t="s">
         <v>498</v>
       </c>
-      <c r="M90" s="326"/>
-      <c r="N90" s="367"/>
-      <c r="O90" s="324"/>
+      <c r="M90" s="367"/>
+      <c r="N90" s="326"/>
+      <c r="O90" s="367"/>
       <c r="P90" s="324"/>
       <c r="Q90" s="324"/>
       <c r="R90" s="324"/>
       <c r="S90" s="324"/>
-      <c r="T90" s="325">
+      <c r="T90" s="324"/>
+      <c r="U90" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U90" s="327"/>
-      <c r="V90" s="325">
+      <c r="V90" s="327"/>
+      <c r="W90" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W90" s="370" t="str">
+      <c r="X90" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="91" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="414" t="s">
+    <row r="91" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="421" t="s">
         <v>499</v>
       </c>
       <c r="C91" s="189" t="s">
         <v>373</v>
       </c>
-      <c r="D91" s="414" t="s">
+      <c r="D91" s="421" t="s">
         <v>500</v>
       </c>
       <c r="E91" s="194"/>
@@ -24850,30 +24948,31 @@
       <c r="L91" s="346" t="s">
         <v>501</v>
       </c>
-      <c r="M91" s="326"/>
-      <c r="N91" s="327"/>
-      <c r="O91" s="324"/>
+      <c r="M91" s="346"/>
+      <c r="N91" s="326"/>
+      <c r="O91" s="327"/>
       <c r="P91" s="324"/>
       <c r="Q91" s="324"/>
       <c r="R91" s="324"/>
       <c r="S91" s="324"/>
-      <c r="T91" s="325">
+      <c r="T91" s="324"/>
+      <c r="U91" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U91" s="327"/>
-      <c r="V91" s="325">
+      <c r="V91" s="327"/>
+      <c r="W91" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W91" s="370" t="str">
+      <c r="X91" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="92" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="415"/>
-      <c r="D92" s="415"/>
+    <row r="92" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="422"/>
+      <c r="D92" s="422"/>
       <c r="E92" s="195"/>
       <c r="F92" s="356" t="s">
         <v>337</v>
@@ -24897,30 +24996,31 @@
       <c r="L92" s="346" t="s">
         <v>502</v>
       </c>
-      <c r="M92" s="326"/>
-      <c r="N92" s="327"/>
-      <c r="O92" s="324"/>
+      <c r="M92" s="346"/>
+      <c r="N92" s="326"/>
+      <c r="O92" s="327"/>
       <c r="P92" s="324"/>
       <c r="Q92" s="324"/>
       <c r="R92" s="324"/>
       <c r="S92" s="324"/>
-      <c r="T92" s="325">
+      <c r="T92" s="324"/>
+      <c r="U92" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U92" s="327"/>
-      <c r="V92" s="325">
+      <c r="V92" s="327"/>
+      <c r="W92" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W92" s="370" t="str">
+      <c r="X92" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="415"/>
-      <c r="D93" s="416"/>
+    <row r="93" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="422"/>
+      <c r="D93" s="423"/>
       <c r="E93" s="195"/>
       <c r="F93" s="356" t="s">
         <v>341</v>
@@ -24944,33 +25044,34 @@
       <c r="L93" s="346" t="s">
         <v>356</v>
       </c>
-      <c r="M93" s="326"/>
-      <c r="N93" s="327"/>
-      <c r="O93" s="324"/>
+      <c r="M93" s="346"/>
+      <c r="N93" s="326"/>
+      <c r="O93" s="327"/>
       <c r="P93" s="324"/>
       <c r="Q93" s="324"/>
       <c r="R93" s="324"/>
       <c r="S93" s="324"/>
-      <c r="T93" s="325">
+      <c r="T93" s="324"/>
+      <c r="U93" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U93" s="327"/>
-      <c r="V93" s="325">
+      <c r="V93" s="327"/>
+      <c r="W93" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W93" s="370" t="str">
+      <c r="X93" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="94" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="415"/>
+    <row r="94" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="422"/>
       <c r="C94" s="187" t="s">
         <v>373</v>
       </c>
-      <c r="D94" s="414" t="s">
+      <c r="D94" s="421" t="s">
         <v>503</v>
       </c>
       <c r="E94" s="418"/>
@@ -24996,31 +25097,32 @@
       <c r="L94" s="346" t="s">
         <v>427</v>
       </c>
-      <c r="M94" s="326"/>
-      <c r="N94" s="327"/>
-      <c r="O94" s="324"/>
+      <c r="M94" s="346"/>
+      <c r="N94" s="326"/>
+      <c r="O94" s="327"/>
       <c r="P94" s="324"/>
       <c r="Q94" s="324"/>
       <c r="R94" s="324"/>
       <c r="S94" s="324"/>
-      <c r="T94" s="325">
+      <c r="T94" s="324"/>
+      <c r="U94" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U94" s="327"/>
-      <c r="V94" s="325">
+      <c r="V94" s="327"/>
+      <c r="W94" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W94" s="370" t="str">
+      <c r="X94" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="95" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="415"/>
+    <row r="95" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="422"/>
       <c r="C95" s="190"/>
-      <c r="D95" s="415"/>
+      <c r="D95" s="422"/>
       <c r="E95" s="419"/>
       <c r="F95" s="356" t="s">
         <v>337</v>
@@ -25044,31 +25146,32 @@
       <c r="L95" s="346" t="s">
         <v>504</v>
       </c>
-      <c r="M95" s="326"/>
-      <c r="N95" s="327"/>
-      <c r="O95" s="324"/>
+      <c r="M95" s="346"/>
+      <c r="N95" s="326"/>
+      <c r="O95" s="327"/>
       <c r="P95" s="324"/>
       <c r="Q95" s="324"/>
       <c r="R95" s="324"/>
       <c r="S95" s="324"/>
-      <c r="T95" s="325">
+      <c r="T95" s="324"/>
+      <c r="U95" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U95" s="327"/>
-      <c r="V95" s="325">
+      <c r="V95" s="327"/>
+      <c r="W95" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W95" s="370" t="str">
+      <c r="X95" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="96" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="416"/>
+    <row r="96" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="423"/>
       <c r="C96" s="192"/>
-      <c r="D96" s="416"/>
+      <c r="D96" s="423"/>
       <c r="E96" s="420"/>
       <c r="F96" s="356" t="s">
         <v>341</v>
@@ -25092,35 +25195,36 @@
       <c r="L96" s="346" t="s">
         <v>505</v>
       </c>
-      <c r="M96" s="326"/>
-      <c r="N96" s="327"/>
-      <c r="O96" s="324"/>
+      <c r="M96" s="346"/>
+      <c r="N96" s="326"/>
+      <c r="O96" s="327"/>
       <c r="P96" s="324"/>
       <c r="Q96" s="324"/>
       <c r="R96" s="324"/>
       <c r="S96" s="324"/>
-      <c r="T96" s="325">
+      <c r="T96" s="324"/>
+      <c r="U96" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U96" s="327"/>
-      <c r="V96" s="325">
+      <c r="V96" s="327"/>
+      <c r="W96" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W96" s="370" t="str">
+      <c r="X96" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="97" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="414" t="s">
+    <row r="97" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="421" t="s">
         <v>506</v>
       </c>
       <c r="C97" s="189" t="s">
         <v>373</v>
       </c>
-      <c r="D97" s="414" t="s">
+      <c r="D97" s="421" t="s">
         <v>507</v>
       </c>
       <c r="E97" s="195"/>
@@ -25146,30 +25250,31 @@
       <c r="L97" s="346" t="s">
         <v>510</v>
       </c>
-      <c r="M97" s="326"/>
-      <c r="N97" s="327"/>
-      <c r="O97" s="324"/>
+      <c r="M97" s="346"/>
+      <c r="N97" s="326"/>
+      <c r="O97" s="327"/>
       <c r="P97" s="324"/>
       <c r="Q97" s="324"/>
       <c r="R97" s="324"/>
       <c r="S97" s="324"/>
-      <c r="T97" s="325">
+      <c r="T97" s="324"/>
+      <c r="U97" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U97" s="327"/>
-      <c r="V97" s="325">
+      <c r="V97" s="327"/>
+      <c r="W97" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W97" s="370" t="str">
+      <c r="X97" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="98" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="415"/>
-      <c r="D98" s="415"/>
+    <row r="98" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="422"/>
+      <c r="D98" s="422"/>
       <c r="E98" s="195"/>
       <c r="F98" s="356" t="s">
         <v>337</v>
@@ -25193,30 +25298,31 @@
       <c r="L98" s="346" t="s">
         <v>512</v>
       </c>
-      <c r="M98" s="326"/>
-      <c r="N98" s="327"/>
-      <c r="O98" s="324"/>
+      <c r="M98" s="346"/>
+      <c r="N98" s="326"/>
+      <c r="O98" s="327"/>
       <c r="P98" s="324"/>
       <c r="Q98" s="324"/>
       <c r="R98" s="324"/>
       <c r="S98" s="324"/>
-      <c r="T98" s="325">
+      <c r="T98" s="324"/>
+      <c r="U98" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U98" s="327"/>
-      <c r="V98" s="325">
+      <c r="V98" s="327"/>
+      <c r="W98" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W98" s="370" t="str">
+      <c r="X98" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="99" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="415"/>
-      <c r="D99" s="416"/>
+    <row r="99" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="422"/>
+      <c r="D99" s="423"/>
       <c r="E99" s="192"/>
       <c r="F99" s="356" t="s">
         <v>341</v>
@@ -25240,33 +25346,34 @@
       <c r="L99" s="346" t="s">
         <v>515</v>
       </c>
-      <c r="M99" s="326"/>
-      <c r="N99" s="327"/>
-      <c r="O99" s="324"/>
+      <c r="M99" s="346"/>
+      <c r="N99" s="326"/>
+      <c r="O99" s="327"/>
       <c r="P99" s="324"/>
       <c r="Q99" s="324"/>
       <c r="R99" s="324"/>
       <c r="S99" s="324"/>
-      <c r="T99" s="325">
+      <c r="T99" s="324"/>
+      <c r="U99" s="325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U99" s="327"/>
-      <c r="V99" s="325">
+      <c r="V99" s="327"/>
+      <c r="W99" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W99" s="370" t="str">
+      <c r="X99" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="100" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="415"/>
+    <row r="100" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="422"/>
       <c r="C100" s="187" t="s">
         <v>373</v>
       </c>
-      <c r="D100" s="414" t="s">
+      <c r="D100" s="421" t="s">
         <v>516</v>
       </c>
       <c r="E100" s="195"/>
@@ -25292,31 +25399,32 @@
       <c r="L100" s="346" t="s">
         <v>438</v>
       </c>
-      <c r="M100" s="326"/>
-      <c r="N100" s="327"/>
-      <c r="O100" s="324"/>
+      <c r="M100" s="346"/>
+      <c r="N100" s="326"/>
+      <c r="O100" s="327"/>
       <c r="P100" s="324"/>
       <c r="Q100" s="324"/>
       <c r="R100" s="324"/>
       <c r="S100" s="324"/>
-      <c r="T100" s="325">
-        <f t="shared" ref="T100:T116" si="9">N100+M100</f>
-        <v>0</v>
-      </c>
-      <c r="U100" s="327"/>
-      <c r="V100" s="325">
+      <c r="T100" s="324"/>
+      <c r="U100" s="325">
+        <f t="shared" ref="U100:U116" si="9">O100+N100</f>
+        <v>0</v>
+      </c>
+      <c r="V100" s="327"/>
+      <c r="W100" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W100" s="370" t="str">
+      <c r="X100" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="101" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="415"/>
+    <row r="101" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="422"/>
       <c r="C101" s="190"/>
-      <c r="D101" s="415"/>
+      <c r="D101" s="422"/>
       <c r="E101" s="195"/>
       <c r="F101" s="356" t="s">
         <v>337</v>
@@ -25340,31 +25448,32 @@
       <c r="L101" s="346" t="s">
         <v>518</v>
       </c>
-      <c r="M101" s="326"/>
-      <c r="N101" s="327"/>
-      <c r="O101" s="324"/>
+      <c r="M101" s="346"/>
+      <c r="N101" s="326"/>
+      <c r="O101" s="327"/>
       <c r="P101" s="324"/>
       <c r="Q101" s="324"/>
       <c r="R101" s="324"/>
       <c r="S101" s="324"/>
-      <c r="T101" s="325">
+      <c r="T101" s="324"/>
+      <c r="U101" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U101" s="327"/>
-      <c r="V101" s="325">
+      <c r="V101" s="327"/>
+      <c r="W101" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W101" s="370" t="str">
+      <c r="X101" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="102" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="416"/>
+    <row r="102" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="423"/>
       <c r="C102" s="192"/>
-      <c r="D102" s="416"/>
+      <c r="D102" s="423"/>
       <c r="E102" s="192"/>
       <c r="F102" s="356" t="s">
         <v>341</v>
@@ -25388,28 +25497,29 @@
       <c r="L102" s="346" t="s">
         <v>519</v>
       </c>
-      <c r="M102" s="326"/>
-      <c r="N102" s="327"/>
-      <c r="O102" s="324"/>
+      <c r="M102" s="346"/>
+      <c r="N102" s="326"/>
+      <c r="O102" s="327"/>
       <c r="P102" s="324"/>
       <c r="Q102" s="324"/>
       <c r="R102" s="324"/>
       <c r="S102" s="324"/>
-      <c r="T102" s="325">
+      <c r="T102" s="324"/>
+      <c r="U102" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U102" s="327"/>
-      <c r="V102" s="325">
+      <c r="V102" s="327"/>
+      <c r="W102" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W102" s="370" t="str">
+      <c r="X102" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="103" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="187"/>
       <c r="C103" s="188"/>
       <c r="D103" s="187"/>
@@ -25435,28 +25545,29 @@
       <c r="L103" s="346" t="s">
         <v>521</v>
       </c>
-      <c r="M103" s="326"/>
-      <c r="N103" s="327"/>
-      <c r="O103" s="324"/>
+      <c r="M103" s="346"/>
+      <c r="N103" s="326"/>
+      <c r="O103" s="327"/>
       <c r="P103" s="324"/>
       <c r="Q103" s="324"/>
       <c r="R103" s="324"/>
       <c r="S103" s="324"/>
-      <c r="T103" s="325">
+      <c r="T103" s="324"/>
+      <c r="U103" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U103" s="327"/>
-      <c r="V103" s="325">
+      <c r="V103" s="327"/>
+      <c r="W103" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W103" s="370" t="str">
+      <c r="X103" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="104" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="190" t="s">
         <v>522</v>
       </c>
@@ -25486,28 +25597,29 @@
       <c r="L104" s="346" t="s">
         <v>524</v>
       </c>
-      <c r="M104" s="326"/>
-      <c r="N104" s="327"/>
-      <c r="O104" s="324"/>
+      <c r="M104" s="346"/>
+      <c r="N104" s="326"/>
+      <c r="O104" s="327"/>
       <c r="P104" s="324"/>
       <c r="Q104" s="324"/>
       <c r="R104" s="324"/>
       <c r="S104" s="324"/>
-      <c r="T104" s="325">
+      <c r="T104" s="324"/>
+      <c r="U104" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U104" s="327"/>
-      <c r="V104" s="325">
+      <c r="V104" s="327"/>
+      <c r="W104" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W104" s="370" t="str">
+      <c r="X104" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="105" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="190"/>
       <c r="C105" s="191"/>
       <c r="D105" s="190"/>
@@ -25533,28 +25645,29 @@
       <c r="L105" s="346" t="s">
         <v>526</v>
       </c>
-      <c r="M105" s="326"/>
-      <c r="N105" s="327"/>
-      <c r="O105" s="324"/>
+      <c r="M105" s="346"/>
+      <c r="N105" s="326"/>
+      <c r="O105" s="327"/>
       <c r="P105" s="324"/>
       <c r="Q105" s="324"/>
       <c r="R105" s="324"/>
       <c r="S105" s="324"/>
-      <c r="T105" s="325">
+      <c r="T105" s="324"/>
+      <c r="U105" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U105" s="327"/>
-      <c r="V105" s="325">
+      <c r="V105" s="327"/>
+      <c r="W105" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W105" s="370" t="str">
+      <c r="X105" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="106" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="192"/>
       <c r="C106" s="193"/>
       <c r="D106" s="192"/>
@@ -25580,28 +25693,29 @@
       <c r="L106" s="346" t="s">
         <v>528</v>
       </c>
-      <c r="M106" s="326"/>
-      <c r="N106" s="327"/>
-      <c r="O106" s="324"/>
+      <c r="M106" s="346"/>
+      <c r="N106" s="326"/>
+      <c r="O106" s="327"/>
       <c r="P106" s="324"/>
       <c r="Q106" s="324"/>
       <c r="R106" s="324"/>
       <c r="S106" s="324"/>
-      <c r="T106" s="325">
+      <c r="T106" s="324"/>
+      <c r="U106" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U106" s="327"/>
-      <c r="V106" s="325">
+      <c r="V106" s="327"/>
+      <c r="W106" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W106" s="370" t="str">
+      <c r="X106" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="107" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="187"/>
       <c r="C107" s="188"/>
       <c r="D107" s="187"/>
@@ -25628,28 +25742,29 @@
       <c r="L107" s="346" t="s">
         <v>529</v>
       </c>
-      <c r="M107" s="326"/>
-      <c r="N107" s="327"/>
-      <c r="O107" s="324"/>
+      <c r="M107" s="346"/>
+      <c r="N107" s="326"/>
+      <c r="O107" s="327"/>
       <c r="P107" s="324"/>
       <c r="Q107" s="324"/>
       <c r="R107" s="324"/>
       <c r="S107" s="324"/>
-      <c r="T107" s="325">
+      <c r="T107" s="324"/>
+      <c r="U107" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U107" s="327"/>
-      <c r="V107" s="325">
+      <c r="V107" s="327"/>
+      <c r="W107" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W107" s="370" t="str">
+      <c r="X107" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="108" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="190" t="s">
         <v>522</v>
       </c>
@@ -25680,28 +25795,29 @@
       <c r="L108" s="346" t="s">
         <v>530</v>
       </c>
-      <c r="M108" s="326"/>
-      <c r="N108" s="327"/>
-      <c r="O108" s="324"/>
+      <c r="M108" s="346"/>
+      <c r="N108" s="326"/>
+      <c r="O108" s="327"/>
       <c r="P108" s="324"/>
       <c r="Q108" s="324"/>
       <c r="R108" s="324"/>
       <c r="S108" s="324"/>
-      <c r="T108" s="325">
+      <c r="T108" s="324"/>
+      <c r="U108" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U108" s="327"/>
-      <c r="V108" s="325">
+      <c r="V108" s="327"/>
+      <c r="W108" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W108" s="370" t="str">
+      <c r="X108" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="109" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="190"/>
       <c r="C109" s="191"/>
       <c r="D109" s="190"/>
@@ -25728,28 +25844,29 @@
       <c r="L109" s="346" t="s">
         <v>531</v>
       </c>
-      <c r="M109" s="326"/>
-      <c r="N109" s="327"/>
-      <c r="O109" s="324"/>
+      <c r="M109" s="346"/>
+      <c r="N109" s="326"/>
+      <c r="O109" s="327"/>
       <c r="P109" s="324"/>
       <c r="Q109" s="324"/>
       <c r="R109" s="324"/>
       <c r="S109" s="324"/>
-      <c r="T109" s="325">
+      <c r="T109" s="324"/>
+      <c r="U109" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U109" s="327"/>
-      <c r="V109" s="325">
+      <c r="V109" s="327"/>
+      <c r="W109" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W109" s="370" t="str">
+      <c r="X109" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="110" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="190"/>
       <c r="C110" s="191"/>
       <c r="D110" s="190"/>
@@ -25776,28 +25893,29 @@
       <c r="L110" s="346" t="s">
         <v>532</v>
       </c>
-      <c r="M110" s="326"/>
-      <c r="N110" s="327"/>
-      <c r="O110" s="324"/>
+      <c r="M110" s="346"/>
+      <c r="N110" s="326"/>
+      <c r="O110" s="327"/>
       <c r="P110" s="324"/>
       <c r="Q110" s="324"/>
       <c r="R110" s="324"/>
       <c r="S110" s="324"/>
-      <c r="T110" s="325">
+      <c r="T110" s="324"/>
+      <c r="U110" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U110" s="327"/>
-      <c r="V110" s="325">
+      <c r="V110" s="327"/>
+      <c r="W110" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W110" s="370" t="str">
+      <c r="X110" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="111" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="187"/>
       <c r="C111" s="187"/>
       <c r="D111" s="194"/>
@@ -25824,28 +25942,29 @@
       <c r="L111" s="346" t="s">
         <v>533</v>
       </c>
-      <c r="M111" s="326"/>
-      <c r="N111" s="327"/>
-      <c r="O111" s="324"/>
+      <c r="M111" s="346"/>
+      <c r="N111" s="326"/>
+      <c r="O111" s="327"/>
       <c r="P111" s="324"/>
       <c r="Q111" s="324"/>
       <c r="R111" s="324"/>
       <c r="S111" s="324"/>
-      <c r="T111" s="325">
+      <c r="T111" s="324"/>
+      <c r="U111" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U111" s="327"/>
-      <c r="V111" s="325">
+      <c r="V111" s="327"/>
+      <c r="W111" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W111" s="370" t="str">
+      <c r="X111" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="112" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="190"/>
       <c r="C112" s="190"/>
       <c r="D112" s="195"/>
@@ -25872,28 +25991,29 @@
       <c r="L112" s="346" t="s">
         <v>535</v>
       </c>
-      <c r="M112" s="326"/>
-      <c r="N112" s="327"/>
-      <c r="O112" s="324"/>
+      <c r="M112" s="346"/>
+      <c r="N112" s="326"/>
+      <c r="O112" s="327"/>
       <c r="P112" s="324"/>
       <c r="Q112" s="324"/>
       <c r="R112" s="324"/>
       <c r="S112" s="324"/>
-      <c r="T112" s="325">
+      <c r="T112" s="324"/>
+      <c r="U112" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U112" s="327"/>
-      <c r="V112" s="325">
+      <c r="V112" s="327"/>
+      <c r="W112" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W112" s="370" t="str">
+      <c r="X112" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="113" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="190" t="s">
         <v>536</v>
       </c>
@@ -25924,28 +26044,29 @@
       <c r="L113" s="346" t="s">
         <v>538</v>
       </c>
-      <c r="M113" s="326"/>
-      <c r="N113" s="327"/>
-      <c r="O113" s="324"/>
+      <c r="M113" s="346"/>
+      <c r="N113" s="326"/>
+      <c r="O113" s="327"/>
       <c r="P113" s="324"/>
       <c r="Q113" s="324"/>
       <c r="R113" s="324"/>
       <c r="S113" s="324"/>
-      <c r="T113" s="325">
+      <c r="T113" s="324"/>
+      <c r="U113" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U113" s="327"/>
-      <c r="V113" s="325">
+      <c r="V113" s="327"/>
+      <c r="W113" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W113" s="370" t="str">
+      <c r="X113" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="114" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="187"/>
       <c r="C114" s="187"/>
       <c r="D114" s="194"/>
@@ -25972,28 +26093,29 @@
       <c r="L114" s="346" t="s">
         <v>539</v>
       </c>
-      <c r="M114" s="326"/>
-      <c r="N114" s="327"/>
-      <c r="O114" s="324"/>
+      <c r="M114" s="346"/>
+      <c r="N114" s="326"/>
+      <c r="O114" s="327"/>
       <c r="P114" s="324"/>
       <c r="Q114" s="324"/>
       <c r="R114" s="324"/>
       <c r="S114" s="324"/>
-      <c r="T114" s="325">
+      <c r="T114" s="324"/>
+      <c r="U114" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U114" s="327"/>
-      <c r="V114" s="325">
+      <c r="V114" s="327"/>
+      <c r="W114" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W114" s="370" t="str">
+      <c r="X114" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="115" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="190"/>
       <c r="C115" s="190"/>
       <c r="D115" s="195"/>
@@ -26020,28 +26142,29 @@
       <c r="L115" s="346" t="s">
         <v>540</v>
       </c>
-      <c r="M115" s="326"/>
-      <c r="N115" s="327"/>
-      <c r="O115" s="324"/>
+      <c r="M115" s="346"/>
+      <c r="N115" s="326"/>
+      <c r="O115" s="327"/>
       <c r="P115" s="324"/>
       <c r="Q115" s="324"/>
       <c r="R115" s="324"/>
       <c r="S115" s="324"/>
-      <c r="T115" s="325">
+      <c r="T115" s="324"/>
+      <c r="U115" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U115" s="327"/>
-      <c r="V115" s="325">
+      <c r="V115" s="327"/>
+      <c r="W115" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W115" s="370" t="str">
+      <c r="X115" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="116" spans="2:23" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:24" s="189" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="192" t="s">
         <v>536</v>
       </c>
@@ -26072,94 +26195,95 @@
       <c r="L116" s="346" t="s">
         <v>541</v>
       </c>
-      <c r="M116" s="326"/>
-      <c r="N116" s="327"/>
-      <c r="O116" s="324"/>
+      <c r="M116" s="346"/>
+      <c r="N116" s="326"/>
+      <c r="O116" s="327"/>
       <c r="P116" s="324"/>
       <c r="Q116" s="324"/>
       <c r="R116" s="324"/>
       <c r="S116" s="324"/>
-      <c r="T116" s="325">
+      <c r="T116" s="324"/>
+      <c r="U116" s="325">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U116" s="327"/>
-      <c r="V116" s="325">
+      <c r="V116" s="327"/>
+      <c r="W116" s="325">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W116" s="370" t="str">
+      <c r="X116" s="370" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
-    <row r="117" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B84"/>
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="B91:B93"/>
     <mergeCell ref="D91:D93"/>
     <mergeCell ref="B94:B96"/>
     <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="D100:D102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M4:M116">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>AND(M4&lt;5,N4&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S116">
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>S4&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>S4&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>S4&gt;0</formula>
+  <conditionalFormatting sqref="N4:N116">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND(N4&lt;5,O4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T116">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>T4=0</formula>
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>T4&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND(T4&lt;&gt;"",T4/S4&lt;4)</formula>
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>T4&gt;0.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>T4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:V116">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>V4=0</formula>
+  <conditionalFormatting sqref="U4:U116">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>U4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(V4&lt;&gt;"",V4/S4&lt;4)</formula>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND(U4&lt;&gt;"",U4/T4&lt;4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W116">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>W4&lt;50</formula>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>W4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>W4&lt;20</formula>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>AND(W4&lt;&gt;"",W4/T4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>W4&lt;10</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X116">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>X4&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>X4&lt;20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>X4&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26260,7 +26384,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L4" s="157">
-        <f>在庫情報W!U4</f>
+        <f>在庫情報W!V4</f>
         <v>0</v>
       </c>
       <c r="M4" s="198">
@@ -26295,7 +26419,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L5" s="157">
-        <f>在庫情報W!U5</f>
+        <f>在庫情報W!V5</f>
         <v>0</v>
       </c>
       <c r="M5" s="198">
@@ -26328,7 +26452,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L6" s="157">
-        <f>在庫情報W!U6</f>
+        <f>在庫情報W!V6</f>
         <v>0</v>
       </c>
       <c r="M6" s="198">
@@ -26365,7 +26489,7 @@
         <v>10.7</v>
       </c>
       <c r="L7" s="157">
-        <f>在庫情報W!U7</f>
+        <f>在庫情報W!V7</f>
         <v>0</v>
       </c>
       <c r="M7" s="198">
@@ -26400,7 +26524,7 @@
         <v>10.7</v>
       </c>
       <c r="L8" s="157">
-        <f>在庫情報W!U8</f>
+        <f>在庫情報W!V8</f>
         <v>0</v>
       </c>
       <c r="M8" s="198">
@@ -26433,7 +26557,7 @@
         <v>10.7</v>
       </c>
       <c r="L9" s="157">
-        <f>在庫情報W!U9</f>
+        <f>在庫情報W!V9</f>
         <v>0</v>
       </c>
       <c r="M9" s="198">
@@ -26466,7 +26590,7 @@
         <v>10.7</v>
       </c>
       <c r="L10" s="157">
-        <f>在庫情報W!U10</f>
+        <f>在庫情報W!V10</f>
         <v>0</v>
       </c>
       <c r="M10" s="198">
@@ -26503,7 +26627,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L11" s="157">
-        <f>在庫情報W!U11</f>
+        <f>在庫情報W!V11</f>
         <v>0</v>
       </c>
       <c r="M11" s="198">
@@ -26538,7 +26662,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L12" s="157">
-        <f>在庫情報W!U12</f>
+        <f>在庫情報W!V12</f>
         <v>0</v>
       </c>
       <c r="M12" s="198">
@@ -26571,7 +26695,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L13" s="157">
-        <f>在庫情報W!U13</f>
+        <f>在庫情報W!V13</f>
         <v>0</v>
       </c>
       <c r="M13" s="198">
@@ -26587,7 +26711,7 @@
       <c r="D14" s="142" t="s">
         <v>366</v>
       </c>
-      <c r="E14" s="424"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="143" t="s">
         <v>330</v>
       </c>
@@ -26608,7 +26732,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L14" s="157">
-        <f>在庫情報W!U14</f>
+        <f>在庫情報W!V14</f>
         <v>0</v>
       </c>
       <c r="M14" s="198">
@@ -26622,7 +26746,7 @@
         <v>336</v>
       </c>
       <c r="D15" s="147"/>
-      <c r="E15" s="424"/>
+      <c r="E15" s="433"/>
       <c r="F15" s="143" t="s">
         <v>337</v>
       </c>
@@ -26643,7 +26767,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L15" s="157">
-        <f>在庫情報W!U15</f>
+        <f>在庫情報W!V15</f>
         <v>0</v>
       </c>
       <c r="M15" s="198">
@@ -26655,7 +26779,7 @@
       <c r="B16" s="150"/>
       <c r="C16" s="151"/>
       <c r="D16" s="152"/>
-      <c r="E16" s="425"/>
+      <c r="E16" s="434"/>
       <c r="F16" s="153" t="s">
         <v>341</v>
       </c>
@@ -26676,7 +26800,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L16" s="157">
-        <f>在庫情報W!U16</f>
+        <f>在庫情報W!V16</f>
         <v>0</v>
       </c>
       <c r="M16" s="198">
@@ -26713,7 +26837,7 @@
         <v>12.7</v>
       </c>
       <c r="L17" s="157">
-        <f>在庫情報W!U17</f>
+        <f>在庫情報W!V17</f>
         <v>0</v>
       </c>
       <c r="M17" s="198">
@@ -26748,7 +26872,7 @@
         <v>12.7</v>
       </c>
       <c r="L18" s="157">
-        <f>在庫情報W!U18</f>
+        <f>在庫情報W!V18</f>
         <v>0</v>
       </c>
       <c r="M18" s="198">
@@ -26781,7 +26905,7 @@
         <v>12.7</v>
       </c>
       <c r="L19" s="157">
-        <f>在庫情報W!U19</f>
+        <f>在庫情報W!V19</f>
         <v>0</v>
       </c>
       <c r="M19" s="198">
@@ -26818,7 +26942,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L20" s="157">
-        <f>在庫情報W!U20</f>
+        <f>在庫情報W!V20</f>
         <v>0</v>
       </c>
       <c r="M20" s="198">
@@ -26853,7 +26977,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L21" s="157">
-        <f>在庫情報W!U21</f>
+        <f>在庫情報W!V21</f>
         <v>0</v>
       </c>
       <c r="M21" s="198">
@@ -26886,7 +27010,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L22" s="157">
-        <f>在庫情報W!U22</f>
+        <f>在庫情報W!V22</f>
         <v>0</v>
       </c>
       <c r="M22" s="198">
@@ -26923,7 +27047,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L23" s="157">
-        <f>在庫情報W!U23</f>
+        <f>在庫情報W!V23</f>
         <v>0</v>
       </c>
       <c r="M23" s="198">
@@ -26958,7 +27082,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L24" s="157">
-        <f>在庫情報W!U24</f>
+        <f>在庫情報W!V24</f>
         <v>0</v>
       </c>
       <c r="M24" s="198">
@@ -26991,7 +27115,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L25" s="157">
-        <f>在庫情報W!U25</f>
+        <f>在庫情報W!V25</f>
         <v>0</v>
       </c>
       <c r="M25" s="198">
@@ -27026,7 +27150,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L26" s="157">
-        <f>在庫情報W!U26</f>
+        <f>在庫情報W!V26</f>
         <v>0</v>
       </c>
       <c r="M26" s="198">
@@ -27061,7 +27185,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L27" s="157">
-        <f>在庫情報W!U27</f>
+        <f>在庫情報W!V27</f>
         <v>0</v>
       </c>
       <c r="M27" s="198">
@@ -27094,7 +27218,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L28" s="157">
-        <f>在庫情報W!U28</f>
+        <f>在庫情報W!V28</f>
         <v>0</v>
       </c>
       <c r="M28" s="198">
@@ -27131,7 +27255,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L29" s="157">
-        <f>在庫情報W!U29</f>
+        <f>在庫情報W!V29</f>
         <v>0</v>
       </c>
       <c r="M29" s="198">
@@ -27166,7 +27290,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L30" s="157">
-        <f>在庫情報W!U30</f>
+        <f>在庫情報W!V30</f>
         <v>0</v>
       </c>
       <c r="M30" s="198">
@@ -27199,7 +27323,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L31" s="157">
-        <f>在庫情報W!U31</f>
+        <f>在庫情報W!V31</f>
         <v>0</v>
       </c>
       <c r="M31" s="198">
@@ -27236,7 +27360,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L32" s="157">
-        <f>在庫情報W!U32</f>
+        <f>在庫情報W!V32</f>
         <v>0</v>
       </c>
       <c r="M32" s="198">
@@ -27271,7 +27395,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L33" s="157">
-        <f>在庫情報W!U33</f>
+        <f>在庫情報W!V33</f>
         <v>0</v>
       </c>
       <c r="M33" s="198">
@@ -27304,7 +27428,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L34" s="157">
-        <f>在庫情報W!U34</f>
+        <f>在庫情報W!V34</f>
         <v>0</v>
       </c>
       <c r="M34" s="198">
@@ -27341,7 +27465,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L35" s="157">
-        <f>在庫情報W!U35</f>
+        <f>在庫情報W!V35</f>
         <v>0</v>
       </c>
       <c r="M35" s="198">
@@ -27376,7 +27500,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L36" s="157">
-        <f>在庫情報W!U36</f>
+        <f>在庫情報W!V36</f>
         <v>0</v>
       </c>
       <c r="M36" s="198">
@@ -27409,7 +27533,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L37" s="157">
-        <f>在庫情報W!U37</f>
+        <f>在庫情報W!V37</f>
         <v>0</v>
       </c>
       <c r="M37" s="198">
@@ -27446,7 +27570,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L38" s="157">
-        <f>在庫情報W!U38</f>
+        <f>在庫情報W!V38</f>
         <v>0</v>
       </c>
       <c r="M38" s="198">
@@ -27481,7 +27605,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L39" s="157">
-        <f>在庫情報W!U39</f>
+        <f>在庫情報W!V39</f>
         <v>0</v>
       </c>
       <c r="M39" s="198">
@@ -27514,7 +27638,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L40" s="157">
-        <f>在庫情報W!U40</f>
+        <f>在庫情報W!V40</f>
         <v>0</v>
       </c>
       <c r="M40" s="198">
@@ -27551,7 +27675,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L41" s="157">
-        <f>在庫情報W!U41</f>
+        <f>在庫情報W!V41</f>
         <v>0</v>
       </c>
       <c r="M41" s="198">
@@ -27586,7 +27710,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L42" s="157">
-        <f>在庫情報W!U42</f>
+        <f>在庫情報W!V42</f>
         <v>0</v>
       </c>
       <c r="M42" s="198">
@@ -27619,7 +27743,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L43" s="157">
-        <f>在庫情報W!U43</f>
+        <f>在庫情報W!V43</f>
         <v>0</v>
       </c>
       <c r="M43" s="198">
@@ -27656,7 +27780,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L44" s="157">
-        <f>在庫情報W!U44</f>
+        <f>在庫情報W!V44</f>
         <v>0</v>
       </c>
       <c r="M44" s="198">
@@ -27691,7 +27815,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L45" s="157">
-        <f>在庫情報W!U45</f>
+        <f>在庫情報W!V45</f>
         <v>0</v>
       </c>
       <c r="M45" s="198">
@@ -27724,7 +27848,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L46" s="157">
-        <f>在庫情報W!U46</f>
+        <f>在庫情報W!V46</f>
         <v>0</v>
       </c>
       <c r="M46" s="198">
@@ -27761,7 +27885,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L47" s="157">
-        <f>在庫情報W!U47</f>
+        <f>在庫情報W!V47</f>
         <v>0</v>
       </c>
       <c r="M47" s="198">
@@ -27796,7 +27920,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L48" s="157">
-        <f>在庫情報W!U48</f>
+        <f>在庫情報W!V48</f>
         <v>0</v>
       </c>
       <c r="M48" s="198">
@@ -27829,7 +27953,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L49" s="157">
-        <f>在庫情報W!U49</f>
+        <f>在庫情報W!V49</f>
         <v>0</v>
       </c>
       <c r="M49" s="198">
@@ -27866,7 +27990,7 @@
         <v>11.2</v>
       </c>
       <c r="L50" s="157">
-        <f>在庫情報W!U50</f>
+        <f>在庫情報W!V50</f>
         <v>0</v>
       </c>
       <c r="M50" s="198">
@@ -27901,7 +28025,7 @@
         <v>11.2</v>
       </c>
       <c r="L51" s="157">
-        <f>在庫情報W!U51</f>
+        <f>在庫情報W!V51</f>
         <v>0</v>
       </c>
       <c r="M51" s="198">
@@ -27934,7 +28058,7 @@
         <v>11.2</v>
       </c>
       <c r="L52" s="157">
-        <f>在庫情報W!U52</f>
+        <f>在庫情報W!V52</f>
         <v>0</v>
       </c>
       <c r="M52" s="198">
@@ -27971,7 +28095,7 @@
         <v>11.2</v>
       </c>
       <c r="L53" s="157">
-        <f>在庫情報W!U53</f>
+        <f>在庫情報W!V53</f>
         <v>0</v>
       </c>
       <c r="M53" s="198">
@@ -28006,7 +28130,7 @@
         <v>11.2</v>
       </c>
       <c r="L54" s="157">
-        <f>在庫情報W!U54</f>
+        <f>在庫情報W!V54</f>
         <v>0</v>
       </c>
       <c r="M54" s="198">
@@ -28039,7 +28163,7 @@
         <v>11.2</v>
       </c>
       <c r="L55" s="157">
-        <f>在庫情報W!U55</f>
+        <f>在庫情報W!V55</f>
         <v>0</v>
       </c>
       <c r="M55" s="198">
@@ -28076,7 +28200,7 @@
         <v>18.2</v>
       </c>
       <c r="L56" s="157">
-        <f>在庫情報W!U56</f>
+        <f>在庫情報W!V56</f>
         <v>0</v>
       </c>
       <c r="M56" s="198">
@@ -28111,7 +28235,7 @@
         <v>18.2</v>
       </c>
       <c r="L57" s="157">
-        <f>在庫情報W!U57</f>
+        <f>在庫情報W!V57</f>
         <v>0</v>
       </c>
       <c r="M57" s="198">
@@ -28144,7 +28268,7 @@
         <v>18.2</v>
       </c>
       <c r="L58" s="157">
-        <f>在庫情報W!U58</f>
+        <f>在庫情報W!V58</f>
         <v>0</v>
       </c>
       <c r="M58" s="198">
@@ -28177,7 +28301,7 @@
         <v>18.2</v>
       </c>
       <c r="L59" s="157">
-        <f>在庫情報W!U59</f>
+        <f>在庫情報W!V59</f>
         <v>0</v>
       </c>
       <c r="M59" s="198">
@@ -28210,7 +28334,7 @@
         <v>18.2</v>
       </c>
       <c r="L60" s="157">
-        <f>在庫情報W!U60</f>
+        <f>在庫情報W!V60</f>
         <v>0</v>
       </c>
       <c r="M60" s="198">
@@ -28247,7 +28371,7 @@
         <v>10.7</v>
       </c>
       <c r="L61" s="157">
-        <f>在庫情報W!U61</f>
+        <f>在庫情報W!V61</f>
         <v>0</v>
       </c>
       <c r="M61" s="198">
@@ -28282,7 +28406,7 @@
         <v>10.7</v>
       </c>
       <c r="L62" s="157">
-        <f>在庫情報W!U62</f>
+        <f>在庫情報W!V62</f>
         <v>0</v>
       </c>
       <c r="M62" s="198">
@@ -28315,7 +28439,7 @@
         <v>10.7</v>
       </c>
       <c r="L63" s="157">
-        <f>在庫情報W!U63</f>
+        <f>在庫情報W!V63</f>
         <v>0</v>
       </c>
       <c r="M63" s="198">
@@ -28352,7 +28476,7 @@
         <v>10.7</v>
       </c>
       <c r="L64" s="157">
-        <f>在庫情報W!U64</f>
+        <f>在庫情報W!V64</f>
         <v>0</v>
       </c>
       <c r="M64" s="198">
@@ -28387,7 +28511,7 @@
         <v>10.7</v>
       </c>
       <c r="L65" s="157">
-        <f>在庫情報W!U65</f>
+        <f>在庫情報W!V65</f>
         <v>0</v>
       </c>
       <c r="M65" s="198">
@@ -28420,7 +28544,7 @@
         <v>10.7</v>
       </c>
       <c r="L66" s="157">
-        <f>在庫情報W!U66</f>
+        <f>在庫情報W!V66</f>
         <v>0</v>
       </c>
       <c r="M66" s="198">
@@ -28457,7 +28581,7 @@
         <v>10.7</v>
       </c>
       <c r="L67" s="157">
-        <f>在庫情報W!U67</f>
+        <f>在庫情報W!V67</f>
         <v>0</v>
       </c>
       <c r="M67" s="198">
@@ -28492,7 +28616,7 @@
         <v>10.7</v>
       </c>
       <c r="L68" s="157">
-        <f>在庫情報W!U68</f>
+        <f>在庫情報W!V68</f>
         <v>0</v>
       </c>
       <c r="M68" s="198">
@@ -28525,7 +28649,7 @@
         <v>10.7</v>
       </c>
       <c r="L69" s="157">
-        <f>在庫情報W!U69</f>
+        <f>在庫情報W!V69</f>
         <v>0</v>
       </c>
       <c r="M69" s="198">
@@ -28561,7 +28685,7 @@
         <v>13.2</v>
       </c>
       <c r="L70" s="157">
-        <f>在庫情報W!U70</f>
+        <f>在庫情報W!V70</f>
         <v>0</v>
       </c>
       <c r="M70" s="198">
@@ -28595,7 +28719,7 @@
         <v>13.2</v>
       </c>
       <c r="L71" s="157">
-        <f>在庫情報W!U71</f>
+        <f>在庫情報W!V71</f>
         <v>0</v>
       </c>
       <c r="M71" s="198">
@@ -28627,7 +28751,7 @@
         <v>13.2</v>
       </c>
       <c r="L72" s="157">
-        <f>在庫情報W!U72</f>
+        <f>在庫情報W!V72</f>
         <v>0</v>
       </c>
       <c r="M72" s="198">
@@ -28663,7 +28787,7 @@
         <v>12.7</v>
       </c>
       <c r="L73" s="157">
-        <f>在庫情報W!U73</f>
+        <f>在庫情報W!V73</f>
         <v>0</v>
       </c>
       <c r="M73" s="198">
@@ -28697,7 +28821,7 @@
         <v>12.7</v>
       </c>
       <c r="L74" s="157">
-        <f>在庫情報W!U74</f>
+        <f>在庫情報W!V74</f>
         <v>0</v>
       </c>
       <c r="M74" s="198">
@@ -28729,7 +28853,7 @@
         <v>12.7</v>
       </c>
       <c r="L75" s="157">
-        <f>在庫情報W!U75</f>
+        <f>在庫情報W!V75</f>
         <v>0</v>
       </c>
       <c r="M75" s="198">
@@ -28738,11 +28862,11 @@
       </c>
     </row>
     <row r="76" spans="2:13" s="172" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="426" t="s">
+      <c r="B76" s="427" t="s">
         <v>475</v>
       </c>
       <c r="C76" s="175"/>
-      <c r="D76" s="429" t="s">
+      <c r="D76" s="435" t="s">
         <v>476</v>
       </c>
       <c r="E76" s="176"/>
@@ -28765,7 +28889,7 @@
         <v>12.7</v>
       </c>
       <c r="L76" s="157">
-        <f>在庫情報W!U76</f>
+        <f>在庫情報W!V76</f>
         <v>0</v>
       </c>
       <c r="M76" s="198">
@@ -28774,11 +28898,11 @@
       </c>
     </row>
     <row r="77" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="427"/>
+      <c r="B77" s="428"/>
       <c r="C77" s="165" t="s">
         <v>373</v>
       </c>
-      <c r="D77" s="429"/>
+      <c r="D77" s="435"/>
       <c r="E77" s="165"/>
       <c r="F77" s="173" t="s">
         <v>337</v>
@@ -28799,7 +28923,7 @@
         <v>12.7</v>
       </c>
       <c r="L77" s="157">
-        <f>在庫情報W!U77</f>
+        <f>在庫情報W!V77</f>
         <v>0</v>
       </c>
       <c r="M77" s="198">
@@ -28808,9 +28932,9 @@
       </c>
     </row>
     <row r="78" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="428"/>
+      <c r="B78" s="429"/>
       <c r="C78" s="165"/>
-      <c r="D78" s="429"/>
+      <c r="D78" s="435"/>
       <c r="E78" s="165"/>
       <c r="F78" s="173" t="s">
         <v>341</v>
@@ -28831,7 +28955,7 @@
         <v>12.7</v>
       </c>
       <c r="L78" s="157">
-        <f>在庫情報W!U78</f>
+        <f>在庫情報W!V78</f>
         <v>0</v>
       </c>
       <c r="M78" s="198">
@@ -28840,7 +28964,7 @@
       </c>
     </row>
     <row r="79" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="426" t="s">
+      <c r="B79" s="427" t="s">
         <v>479</v>
       </c>
       <c r="C79" s="177"/>
@@ -28865,7 +28989,7 @@
         <v>12.7</v>
       </c>
       <c r="L79" s="157">
-        <f>在庫情報W!U79</f>
+        <f>在庫情報W!V79</f>
         <v>0</v>
       </c>
       <c r="M79" s="198">
@@ -28874,7 +28998,7 @@
       </c>
     </row>
     <row r="80" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="427"/>
+      <c r="B80" s="428"/>
       <c r="C80" s="165" t="s">
         <v>373</v>
       </c>
@@ -28901,7 +29025,7 @@
         <v>12.7</v>
       </c>
       <c r="L80" s="157">
-        <f>在庫情報W!U80</f>
+        <f>在庫情報W!V80</f>
         <v>0</v>
       </c>
       <c r="M80" s="198">
@@ -28910,7 +29034,7 @@
       </c>
     </row>
     <row r="81" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="428"/>
+      <c r="B81" s="429"/>
       <c r="C81" s="177"/>
       <c r="D81" s="178"/>
       <c r="E81" s="179"/>
@@ -28933,7 +29057,7 @@
         <v>12.7</v>
       </c>
       <c r="L81" s="157">
-        <f>在庫情報W!U81</f>
+        <f>在庫情報W!V81</f>
         <v>0</v>
       </c>
       <c r="M81" s="198">
@@ -28942,7 +29066,7 @@
       </c>
     </row>
     <row r="82" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="426" t="s">
+      <c r="B82" s="427" t="s">
         <v>483</v>
       </c>
       <c r="C82" s="180"/>
@@ -28967,7 +29091,7 @@
         <v>12.7</v>
       </c>
       <c r="L82" s="157">
-        <f>在庫情報W!U82</f>
+        <f>在庫情報W!V82</f>
         <v>0</v>
       </c>
       <c r="M82" s="198">
@@ -28976,7 +29100,7 @@
       </c>
     </row>
     <row r="83" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="427"/>
+      <c r="B83" s="428"/>
       <c r="C83" s="165" t="s">
         <v>373</v>
       </c>
@@ -29003,7 +29127,7 @@
         <v>12.7</v>
       </c>
       <c r="L83" s="157">
-        <f>在庫情報W!U83</f>
+        <f>在庫情報W!V83</f>
         <v>0</v>
       </c>
       <c r="M83" s="198">
@@ -29012,7 +29136,7 @@
       </c>
     </row>
     <row r="84" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="428"/>
+      <c r="B84" s="429"/>
       <c r="C84" s="177"/>
       <c r="D84" s="178"/>
       <c r="E84" s="165"/>
@@ -29035,7 +29159,7 @@
         <v>12.7</v>
       </c>
       <c r="L84" s="157">
-        <f>在庫情報W!U84</f>
+        <f>在庫情報W!V84</f>
         <v>0</v>
       </c>
       <c r="M84" s="198">
@@ -29044,7 +29168,7 @@
       </c>
     </row>
     <row r="85" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="426" t="s">
+      <c r="B85" s="427" t="s">
         <v>487</v>
       </c>
       <c r="C85" s="180"/>
@@ -29069,7 +29193,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="L85" s="157">
-        <f>在庫情報W!U85</f>
+        <f>在庫情報W!V85</f>
         <v>0</v>
       </c>
       <c r="M85" s="198">
@@ -29078,7 +29202,7 @@
       </c>
     </row>
     <row r="86" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="427"/>
+      <c r="B86" s="428"/>
       <c r="C86" s="165" t="s">
         <v>373</v>
       </c>
@@ -29105,7 +29229,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="L86" s="157">
-        <f>在庫情報W!U86</f>
+        <f>在庫情報W!V86</f>
         <v>0</v>
       </c>
       <c r="M86" s="198">
@@ -29114,7 +29238,7 @@
       </c>
     </row>
     <row r="87" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="428"/>
+      <c r="B87" s="429"/>
       <c r="C87" s="177"/>
       <c r="D87" s="178"/>
       <c r="E87" s="165"/>
@@ -29137,7 +29261,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="L87" s="157">
-        <f>在庫情報W!U87</f>
+        <f>在庫情報W!V87</f>
         <v>0</v>
       </c>
       <c r="M87" s="198">
@@ -29146,7 +29270,7 @@
       </c>
     </row>
     <row r="88" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="426" t="s">
+      <c r="B88" s="427" t="s">
         <v>494</v>
       </c>
       <c r="C88" s="180"/>
@@ -29172,7 +29296,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="L88" s="157">
-        <f>在庫情報W!U88</f>
+        <f>在庫情報W!V88</f>
         <v>0</v>
       </c>
       <c r="M88" s="198">
@@ -29181,7 +29305,7 @@
       </c>
     </row>
     <row r="89" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="427"/>
+      <c r="B89" s="428"/>
       <c r="C89" s="165" t="s">
         <v>373</v>
       </c>
@@ -29209,7 +29333,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="L89" s="157">
-        <f>在庫情報W!U89</f>
+        <f>在庫情報W!V89</f>
         <v>0</v>
       </c>
       <c r="M89" s="198">
@@ -29218,7 +29342,7 @@
       </c>
     </row>
     <row r="90" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="428"/>
+      <c r="B90" s="429"/>
       <c r="C90" s="182"/>
       <c r="D90" s="183"/>
       <c r="E90" s="167"/>
@@ -29242,7 +29366,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="L90" s="157">
-        <f>在庫情報W!U90</f>
+        <f>在庫情報W!V90</f>
         <v>0</v>
       </c>
       <c r="M90" s="198">
@@ -29251,13 +29375,13 @@
       </c>
     </row>
     <row r="91" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="426" t="s">
+      <c r="B91" s="427" t="s">
         <v>499</v>
       </c>
       <c r="C91" s="134" t="s">
         <v>373</v>
       </c>
-      <c r="D91" s="426" t="s">
+      <c r="D91" s="427" t="s">
         <v>500</v>
       </c>
       <c r="E91" s="184"/>
@@ -29281,7 +29405,7 @@
         <v>12.7</v>
       </c>
       <c r="L91" s="157">
-        <f>在庫情報W!U91</f>
+        <f>在庫情報W!V91</f>
         <v>0</v>
       </c>
       <c r="M91" s="198">
@@ -29290,8 +29414,8 @@
       </c>
     </row>
     <row r="92" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="427"/>
-      <c r="D92" s="427"/>
+      <c r="B92" s="428"/>
+      <c r="D92" s="428"/>
       <c r="E92" s="179"/>
       <c r="F92" s="173" t="s">
         <v>337</v>
@@ -29313,7 +29437,7 @@
         <v>12.7</v>
       </c>
       <c r="L92" s="157">
-        <f>在庫情報W!U92</f>
+        <f>在庫情報W!V92</f>
         <v>0</v>
       </c>
       <c r="M92" s="198">
@@ -29322,8 +29446,8 @@
       </c>
     </row>
     <row r="93" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="427"/>
-      <c r="D93" s="428"/>
+      <c r="B93" s="428"/>
+      <c r="D93" s="429"/>
       <c r="E93" s="179"/>
       <c r="F93" s="173" t="s">
         <v>341</v>
@@ -29345,7 +29469,7 @@
         <v>12.7</v>
       </c>
       <c r="L93" s="157">
-        <f>在庫情報W!U93</f>
+        <f>在庫情報W!V93</f>
         <v>0</v>
       </c>
       <c r="M93" s="198">
@@ -29354,14 +29478,14 @@
       </c>
     </row>
     <row r="94" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="427"/>
+      <c r="B94" s="428"/>
       <c r="C94" s="163" t="s">
         <v>373</v>
       </c>
-      <c r="D94" s="426" t="s">
+      <c r="D94" s="427" t="s">
         <v>503</v>
       </c>
-      <c r="E94" s="421"/>
+      <c r="E94" s="430"/>
       <c r="F94" s="173" t="s">
         <v>330</v>
       </c>
@@ -29382,7 +29506,7 @@
         <v>12.7</v>
       </c>
       <c r="L94" s="157">
-        <f>在庫情報W!U94</f>
+        <f>在庫情報W!V94</f>
         <v>0</v>
       </c>
       <c r="M94" s="198">
@@ -29391,10 +29515,10 @@
       </c>
     </row>
     <row r="95" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="427"/>
+      <c r="B95" s="428"/>
       <c r="C95" s="165"/>
-      <c r="D95" s="427"/>
-      <c r="E95" s="422"/>
+      <c r="D95" s="428"/>
+      <c r="E95" s="431"/>
       <c r="F95" s="173" t="s">
         <v>337</v>
       </c>
@@ -29415,7 +29539,7 @@
         <v>12.7</v>
       </c>
       <c r="L95" s="157">
-        <f>在庫情報W!U95</f>
+        <f>在庫情報W!V95</f>
         <v>0</v>
       </c>
       <c r="M95" s="198">
@@ -29424,10 +29548,10 @@
       </c>
     </row>
     <row r="96" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="428"/>
+      <c r="B96" s="429"/>
       <c r="C96" s="167"/>
-      <c r="D96" s="428"/>
-      <c r="E96" s="423"/>
+      <c r="D96" s="429"/>
+      <c r="E96" s="432"/>
       <c r="F96" s="173" t="s">
         <v>341</v>
       </c>
@@ -29448,7 +29572,7 @@
         <v>12.7</v>
       </c>
       <c r="L96" s="157">
-        <f>在庫情報W!U96</f>
+        <f>在庫情報W!V96</f>
         <v>0</v>
       </c>
       <c r="M96" s="198">
@@ -29457,13 +29581,13 @@
       </c>
     </row>
     <row r="97" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="426" t="s">
+      <c r="B97" s="427" t="s">
         <v>506</v>
       </c>
       <c r="C97" s="134" t="s">
         <v>373</v>
       </c>
-      <c r="D97" s="426" t="s">
+      <c r="D97" s="427" t="s">
         <v>507</v>
       </c>
       <c r="E97" s="179"/>
@@ -29487,7 +29611,7 @@
         <v>13.2</v>
       </c>
       <c r="L97" s="157">
-        <f>在庫情報W!U97</f>
+        <f>在庫情報W!V97</f>
         <v>0</v>
       </c>
       <c r="M97" s="198">
@@ -29496,8 +29620,8 @@
       </c>
     </row>
     <row r="98" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="427"/>
-      <c r="D98" s="427"/>
+      <c r="B98" s="428"/>
+      <c r="D98" s="428"/>
       <c r="E98" s="179"/>
       <c r="F98" s="173" t="s">
         <v>337</v>
@@ -29519,7 +29643,7 @@
         <v>13.2</v>
       </c>
       <c r="L98" s="157">
-        <f>在庫情報W!U98</f>
+        <f>在庫情報W!V98</f>
         <v>0</v>
       </c>
       <c r="M98" s="198">
@@ -29528,8 +29652,8 @@
       </c>
     </row>
     <row r="99" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="427"/>
-      <c r="D99" s="428"/>
+      <c r="B99" s="428"/>
+      <c r="D99" s="429"/>
       <c r="E99" s="167"/>
       <c r="F99" s="173" t="s">
         <v>341</v>
@@ -29551,7 +29675,7 @@
         <v>13.2</v>
       </c>
       <c r="L99" s="157">
-        <f>在庫情報W!U99</f>
+        <f>在庫情報W!V99</f>
         <v>0</v>
       </c>
       <c r="M99" s="198">
@@ -29560,11 +29684,11 @@
       </c>
     </row>
     <row r="100" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="427"/>
+      <c r="B100" s="428"/>
       <c r="C100" s="163" t="s">
         <v>373</v>
       </c>
-      <c r="D100" s="426" t="s">
+      <c r="D100" s="427" t="s">
         <v>516</v>
       </c>
       <c r="E100" s="179"/>
@@ -29588,7 +29712,7 @@
         <v>12.5</v>
       </c>
       <c r="L100" s="157">
-        <f>在庫情報W!U100</f>
+        <f>在庫情報W!V100</f>
         <v>0</v>
       </c>
       <c r="M100" s="198">
@@ -29597,9 +29721,9 @@
       </c>
     </row>
     <row r="101" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="427"/>
+      <c r="B101" s="428"/>
       <c r="C101" s="165"/>
-      <c r="D101" s="427"/>
+      <c r="D101" s="428"/>
       <c r="E101" s="179"/>
       <c r="F101" s="173" t="s">
         <v>337</v>
@@ -29621,7 +29745,7 @@
         <v>12.5</v>
       </c>
       <c r="L101" s="157">
-        <f>在庫情報W!U101</f>
+        <f>在庫情報W!V101</f>
         <v>0</v>
       </c>
       <c r="M101" s="198">
@@ -29630,9 +29754,9 @@
       </c>
     </row>
     <row r="102" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="428"/>
+      <c r="B102" s="429"/>
       <c r="C102" s="167"/>
-      <c r="D102" s="428"/>
+      <c r="D102" s="429"/>
       <c r="E102" s="167"/>
       <c r="F102" s="173" t="s">
         <v>341</v>
@@ -29654,7 +29778,7 @@
         <v>12.5</v>
       </c>
       <c r="L102" s="157">
-        <f>在庫情報W!U102</f>
+        <f>在庫情報W!V102</f>
         <v>0</v>
       </c>
       <c r="M102" s="198">
@@ -29687,7 +29811,7 @@
         <v>14.7</v>
       </c>
       <c r="L103" s="157">
-        <f>在庫情報W!U103</f>
+        <f>在庫情報W!V103</f>
         <v>0</v>
       </c>
       <c r="M103" s="198">
@@ -29724,7 +29848,7 @@
         <v>14.7</v>
       </c>
       <c r="L104" s="157">
-        <f>在庫情報W!U104</f>
+        <f>在庫情報W!V104</f>
         <v>0</v>
       </c>
       <c r="M104" s="198">
@@ -29757,7 +29881,7 @@
         <v>14.7</v>
       </c>
       <c r="L105" s="157">
-        <f>在庫情報W!U105</f>
+        <f>在庫情報W!V105</f>
         <v>0</v>
       </c>
       <c r="M105" s="198">
@@ -29790,7 +29914,7 @@
         <v>14.7</v>
       </c>
       <c r="L106" s="157">
-        <f>在庫情報W!U106</f>
+        <f>在庫情報W!V106</f>
         <v>0</v>
       </c>
       <c r="M106" s="198">
@@ -29823,7 +29947,7 @@
         <v>14.7</v>
       </c>
       <c r="L107" s="157">
-        <f>在庫情報W!U107</f>
+        <f>在庫情報W!V107</f>
         <v>0</v>
       </c>
       <c r="M107" s="198">
@@ -29860,7 +29984,7 @@
         <v>14.7</v>
       </c>
       <c r="L108" s="157">
-        <f>在庫情報W!U108</f>
+        <f>在庫情報W!V108</f>
         <v>0</v>
       </c>
       <c r="M108" s="198">
@@ -29893,7 +30017,7 @@
         <v>14.7</v>
       </c>
       <c r="L109" s="157">
-        <f>在庫情報W!U109</f>
+        <f>在庫情報W!V109</f>
         <v>0</v>
       </c>
       <c r="M109" s="198">
@@ -29926,7 +30050,7 @@
         <v>14.7</v>
       </c>
       <c r="L110" s="157">
-        <f>在庫情報W!U110</f>
+        <f>在庫情報W!V110</f>
         <v>0</v>
       </c>
       <c r="M110" s="198">
@@ -29959,7 +30083,7 @@
         <v>20.2</v>
       </c>
       <c r="L111" s="157">
-        <f>在庫情報W!U111</f>
+        <f>在庫情報W!V111</f>
         <v>0</v>
       </c>
       <c r="M111" s="198">
@@ -29992,7 +30116,7 @@
         <v>20.2</v>
       </c>
       <c r="L112" s="157">
-        <f>在庫情報W!U112</f>
+        <f>在庫情報W!V112</f>
         <v>0</v>
       </c>
       <c r="M112" s="198">
@@ -30029,7 +30153,7 @@
         <v>20.2</v>
       </c>
       <c r="L113" s="157">
-        <f>在庫情報W!U113</f>
+        <f>在庫情報W!V113</f>
         <v>0</v>
       </c>
       <c r="M113" s="198">
@@ -30062,7 +30186,7 @@
         <v>20.2</v>
       </c>
       <c r="L114" s="157">
-        <f>在庫情報W!U114</f>
+        <f>在庫情報W!V114</f>
         <v>0</v>
       </c>
       <c r="M114" s="198">
@@ -30095,7 +30219,7 @@
         <v>20.2</v>
       </c>
       <c r="L115" s="157">
-        <f>在庫情報W!U115</f>
+        <f>在庫情報W!V115</f>
         <v>0</v>
       </c>
       <c r="M115" s="198">
@@ -30132,7 +30256,7 @@
         <v>20.2</v>
       </c>
       <c r="L116" s="157">
-        <f>在庫情報W!U116</f>
+        <f>在庫情報W!V116</f>
         <v>0</v>
       </c>
       <c r="M116" s="198">
@@ -30153,6 +30277,13 @@
     <row r="122" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B85:B87"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="D97:D99"/>
     <mergeCell ref="B100:B102"/>
@@ -30162,13 +30293,6 @@
     <mergeCell ref="D91:D93"/>
     <mergeCell ref="B94:B96"/>
     <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B85:B87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -7458,6 +7458,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7503,12 +7504,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7518,11 +7513,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7650,7 +7651,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -18215,13 +18215,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1460999</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1166591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18265,13 +18265,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1443681</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1166590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18315,14 +18315,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>190504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1460999</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>924</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18365,13 +18365,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>363682</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1444244</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1166591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18415,13 +18415,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>398318</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1478880</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1218546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18465,13 +18465,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1461561</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1218545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18515,13 +18515,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>346365</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1426927</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1201227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18565,13 +18565,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>329046</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>155863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1409046</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1235863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18615,13 +18615,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>80341</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>43897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1520341</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>721897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21919,7 +21919,7 @@
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -21933,13 +21933,13 @@
     <col min="60" max="65" width="6.625" customWidth="1"/>
     <col min="66" max="71" width="5.625" customWidth="1"/>
     <col min="72" max="89" width="8.625" customWidth="1"/>
-    <col min="90" max="95" width="9" style="737"/>
+    <col min="90" max="95" width="9" style="673"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:95" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BN1" s="676"/>
-      <c r="BO1" s="676"/>
-      <c r="BP1" s="676"/>
+      <c r="BN1" s="677"/>
+      <c r="BO1" s="677"/>
+      <c r="BP1" s="677"/>
     </row>
     <row r="2" spans="2:95" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="23" t="s">
@@ -21982,46 +21982,46 @@
       <c r="AG2" s="568"/>
       <c r="AH2" s="568"/>
       <c r="AI2" s="569"/>
-      <c r="AJ2" s="673" t="s">
+      <c r="AJ2" s="674" t="s">
         <v>689</v>
       </c>
-      <c r="AK2" s="674"/>
-      <c r="AL2" s="674"/>
-      <c r="AM2" s="674"/>
-      <c r="AN2" s="674"/>
-      <c r="AO2" s="675"/>
-      <c r="AP2" s="673" t="s">
+      <c r="AK2" s="675"/>
+      <c r="AL2" s="675"/>
+      <c r="AM2" s="675"/>
+      <c r="AN2" s="675"/>
+      <c r="AO2" s="676"/>
+      <c r="AP2" s="674" t="s">
         <v>690</v>
       </c>
-      <c r="AQ2" s="674"/>
-      <c r="AR2" s="674"/>
-      <c r="AS2" s="674"/>
-      <c r="AT2" s="674"/>
-      <c r="AU2" s="675"/>
-      <c r="AV2" s="673" t="s">
+      <c r="AQ2" s="675"/>
+      <c r="AR2" s="675"/>
+      <c r="AS2" s="675"/>
+      <c r="AT2" s="675"/>
+      <c r="AU2" s="676"/>
+      <c r="AV2" s="674" t="s">
         <v>542</v>
       </c>
-      <c r="AW2" s="677"/>
-      <c r="AX2" s="677"/>
-      <c r="AY2" s="677"/>
-      <c r="AZ2" s="677"/>
-      <c r="BA2" s="678"/>
-      <c r="BB2" s="673" t="s">
+      <c r="AW2" s="678"/>
+      <c r="AX2" s="678"/>
+      <c r="AY2" s="678"/>
+      <c r="AZ2" s="678"/>
+      <c r="BA2" s="679"/>
+      <c r="BB2" s="674" t="s">
         <v>538</v>
       </c>
-      <c r="BC2" s="677"/>
-      <c r="BD2" s="677"/>
-      <c r="BE2" s="677"/>
-      <c r="BF2" s="677"/>
-      <c r="BG2" s="678"/>
-      <c r="BH2" s="673" t="s">
+      <c r="BC2" s="678"/>
+      <c r="BD2" s="678"/>
+      <c r="BE2" s="678"/>
+      <c r="BF2" s="678"/>
+      <c r="BG2" s="679"/>
+      <c r="BH2" s="674" t="s">
         <v>539</v>
       </c>
-      <c r="BI2" s="674"/>
-      <c r="BJ2" s="674"/>
-      <c r="BK2" s="674"/>
-      <c r="BL2" s="674"/>
-      <c r="BM2" s="675"/>
+      <c r="BI2" s="675"/>
+      <c r="BJ2" s="675"/>
+      <c r="BK2" s="675"/>
+      <c r="BL2" s="675"/>
+      <c r="BM2" s="676"/>
       <c r="BN2" s="23" t="s">
         <v>691</v>
       </c>
@@ -22046,14 +22046,14 @@
       <c r="CC2" s="24"/>
       <c r="CD2" s="24"/>
       <c r="CE2" s="25"/>
-      <c r="CF2" s="673" t="s">
+      <c r="CF2" s="674" t="s">
         <v>694</v>
       </c>
-      <c r="CG2" s="674"/>
-      <c r="CH2" s="674"/>
-      <c r="CI2" s="674"/>
-      <c r="CJ2" s="674"/>
-      <c r="CK2" s="675"/>
+      <c r="CG2" s="675"/>
+      <c r="CH2" s="675"/>
+      <c r="CI2" s="675"/>
+      <c r="CJ2" s="675"/>
+      <c r="CK2" s="676"/>
     </row>
     <row r="3" spans="2:95" s="132" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">
@@ -22320,12 +22320,12 @@
       <c r="CK3" s="260" t="s">
         <v>709</v>
       </c>
-      <c r="CL3" s="737"/>
-      <c r="CM3" s="737"/>
-      <c r="CN3" s="737"/>
-      <c r="CO3" s="737"/>
-      <c r="CP3" s="737"/>
-      <c r="CQ3" s="737"/>
+      <c r="CL3" s="673"/>
+      <c r="CM3" s="673"/>
+      <c r="CN3" s="673"/>
+      <c r="CO3" s="673"/>
+      <c r="CP3" s="673"/>
+      <c r="CQ3" s="673"/>
     </row>
     <row r="4" spans="2:95" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
@@ -26647,7 +26647,7 @@
       <c r="U2" s="56"/>
       <c r="V2" s="56"/>
       <c r="W2" s="57"/>
-      <c r="X2" s="707" t="s">
+      <c r="X2" s="708" t="s">
         <v>274</v>
       </c>
     </row>
@@ -26718,7 +26718,7 @@
       <c r="W3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X3" s="708"/>
+      <c r="X3" s="709"/>
     </row>
     <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
@@ -26746,7 +26746,7 @@
       <c r="J4" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="704"/>
+      <c r="K4" s="705"/>
       <c r="L4" s="133">
         <f>在庫情報R!BN4</f>
         <v>0</v>
@@ -26771,23 +26771,23 @@
         <f>在庫情報R!BS4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="682">
+      <c r="R4" s="683">
         <v>28</v>
       </c>
-      <c r="S4" s="684">
+      <c r="S4" s="685">
         <v>28</v>
       </c>
-      <c r="T4" s="684">
+      <c r="T4" s="685">
         <v>28</v>
       </c>
-      <c r="U4" s="684">
+      <c r="U4" s="685">
         <v>28</v>
       </c>
-      <c r="V4" s="684">
+      <c r="V4" s="685">
         <v>28</v>
       </c>
-      <c r="W4" s="686"/>
-      <c r="X4" s="709">
+      <c r="W4" s="687"/>
+      <c r="X4" s="710">
         <f>SUM(L4:L6)*R4+SUM(M4:M6)*S4+SUM(N4:N6)*T4+SUM(O4:O6)*U4+SUM(P4:P6)*V4+SUM(Q4:Q6)*W4</f>
         <v>0</v>
       </c>
@@ -26816,7 +26816,7 @@
       <c r="J5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="705"/>
+      <c r="K5" s="706"/>
       <c r="L5" s="34">
         <f>在庫情報R!BN5</f>
         <v>0</v>
@@ -26841,13 +26841,13 @@
         <f>在庫情報R!BS5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="688"/>
-      <c r="S5" s="689"/>
-      <c r="T5" s="689"/>
-      <c r="U5" s="689"/>
-      <c r="V5" s="689"/>
+      <c r="R5" s="692"/>
+      <c r="S5" s="693"/>
+      <c r="T5" s="693"/>
+      <c r="U5" s="693"/>
+      <c r="V5" s="693"/>
       <c r="W5" s="694"/>
-      <c r="X5" s="679"/>
+      <c r="X5" s="680"/>
     </row>
     <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -26873,7 +26873,7 @@
       <c r="J6" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="706"/>
+      <c r="K6" s="707"/>
       <c r="L6" s="30">
         <f>在庫情報R!BN6</f>
         <v>0</v>
@@ -26898,13 +26898,13 @@
         <f>在庫情報R!BS6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="683"/>
-      <c r="S6" s="685"/>
-      <c r="T6" s="685"/>
-      <c r="U6" s="685"/>
-      <c r="V6" s="685"/>
-      <c r="W6" s="687"/>
-      <c r="X6" s="679"/>
+      <c r="R6" s="684"/>
+      <c r="S6" s="686"/>
+      <c r="T6" s="686"/>
+      <c r="U6" s="686"/>
+      <c r="V6" s="686"/>
+      <c r="W6" s="688"/>
+      <c r="X6" s="680"/>
     </row>
     <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -26932,7 +26932,7 @@
       <c r="J7" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="680"/>
+      <c r="K7" s="681"/>
       <c r="L7" s="26">
         <f>在庫情報R!BN7</f>
         <v>0</v>
@@ -26957,23 +26957,23 @@
         <f>在庫情報R!BS7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="682">
+      <c r="R7" s="683">
         <v>34</v>
       </c>
-      <c r="S7" s="684">
+      <c r="S7" s="685">
         <v>34</v>
       </c>
-      <c r="T7" s="684">
+      <c r="T7" s="685">
         <v>34</v>
       </c>
-      <c r="U7" s="684">
+      <c r="U7" s="685">
         <v>34</v>
       </c>
-      <c r="V7" s="684">
+      <c r="V7" s="685">
         <v>34</v>
       </c>
-      <c r="W7" s="686"/>
-      <c r="X7" s="679">
+      <c r="W7" s="687"/>
+      <c r="X7" s="680">
         <f>SUM(L7:L10)*R7+SUM(M7:M10)*S7+SUM(N7:N10)*T7+SUM(O7:O10)*U7+SUM(P7:P10)*V7+SUM(Q7:Q10)*W7</f>
         <v>0</v>
       </c>
@@ -27002,7 +27002,7 @@
       <c r="J8" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="693"/>
+      <c r="K8" s="695"/>
       <c r="L8" s="28">
         <f>在庫情報R!BN8</f>
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <f>在庫情報R!BS8</f>
         <v>0</v>
       </c>
-      <c r="R8" s="688"/>
-      <c r="S8" s="689"/>
-      <c r="T8" s="689"/>
-      <c r="U8" s="689"/>
-      <c r="V8" s="689"/>
+      <c r="R8" s="692"/>
+      <c r="S8" s="693"/>
+      <c r="T8" s="693"/>
+      <c r="U8" s="693"/>
+      <c r="V8" s="693"/>
       <c r="W8" s="694"/>
-      <c r="X8" s="679"/>
+      <c r="X8" s="680"/>
     </row>
     <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -27059,7 +27059,7 @@
       <c r="J9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="693"/>
+      <c r="K9" s="695"/>
       <c r="L9" s="28">
         <f>在庫情報R!BN9</f>
         <v>0</v>
@@ -27084,13 +27084,13 @@
         <f>在庫情報R!BS9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="688"/>
-      <c r="S9" s="689"/>
-      <c r="T9" s="689"/>
-      <c r="U9" s="689"/>
-      <c r="V9" s="689"/>
+      <c r="R9" s="692"/>
+      <c r="S9" s="693"/>
+      <c r="T9" s="693"/>
+      <c r="U9" s="693"/>
+      <c r="V9" s="693"/>
       <c r="W9" s="694"/>
-      <c r="X9" s="679"/>
+      <c r="X9" s="680"/>
     </row>
     <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -27116,7 +27116,7 @@
       <c r="J10" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="681"/>
+      <c r="K10" s="682"/>
       <c r="L10" s="30">
         <f>在庫情報R!BN10</f>
         <v>0</v>
@@ -27141,13 +27141,13 @@
         <f>在庫情報R!BS10</f>
         <v>0</v>
       </c>
-      <c r="R10" s="683"/>
-      <c r="S10" s="685"/>
-      <c r="T10" s="685"/>
-      <c r="U10" s="685"/>
-      <c r="V10" s="685"/>
-      <c r="W10" s="687"/>
-      <c r="X10" s="679"/>
+      <c r="R10" s="684"/>
+      <c r="S10" s="686"/>
+      <c r="T10" s="686"/>
+      <c r="U10" s="686"/>
+      <c r="V10" s="686"/>
+      <c r="W10" s="688"/>
+      <c r="X10" s="680"/>
     </row>
     <row r="11" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -27202,25 +27202,25 @@
         <f>在庫情報R!BS11</f>
         <v>0</v>
       </c>
-      <c r="R11" s="682">
+      <c r="R11" s="683">
         <v>36</v>
       </c>
-      <c r="S11" s="684">
+      <c r="S11" s="685">
         <v>36</v>
       </c>
-      <c r="T11" s="684">
+      <c r="T11" s="685">
         <v>36</v>
       </c>
-      <c r="U11" s="684">
+      <c r="U11" s="685">
         <v>36</v>
       </c>
-      <c r="V11" s="684">
+      <c r="V11" s="685">
         <v>36</v>
       </c>
-      <c r="W11" s="690">
+      <c r="W11" s="689">
         <v>36</v>
       </c>
-      <c r="X11" s="679">
+      <c r="X11" s="680">
         <f>SUM(L11:L12)*R11+SUM(M11:M12)*S11+SUM(N11:N12)*T11+SUM(O11:O12)*U11+SUM(P11:P12)*V11+SUM(Q11:Q12)*W11</f>
         <v>0</v>
       </c>
@@ -27276,13 +27276,13 @@
         <f>在庫情報R!BS12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="683"/>
-      <c r="S12" s="685"/>
-      <c r="T12" s="685"/>
-      <c r="U12" s="685"/>
-      <c r="V12" s="685"/>
-      <c r="W12" s="692"/>
-      <c r="X12" s="679"/>
+      <c r="R12" s="684"/>
+      <c r="S12" s="686"/>
+      <c r="T12" s="686"/>
+      <c r="U12" s="686"/>
+      <c r="V12" s="686"/>
+      <c r="W12" s="691"/>
+      <c r="X12" s="680"/>
     </row>
     <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -27304,9 +27304,9 @@
       <c r="H13" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="695"/>
-      <c r="J13" s="695"/>
-      <c r="K13" s="680"/>
+      <c r="I13" s="696"/>
+      <c r="J13" s="696"/>
+      <c r="K13" s="681"/>
       <c r="L13" s="26">
         <f>在庫情報R!BN13</f>
         <v>0</v>
@@ -27331,19 +27331,19 @@
         <f>在庫情報R!BS13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="682">
+      <c r="R13" s="683">
         <v>20</v>
       </c>
-      <c r="S13" s="684">
+      <c r="S13" s="685">
         <v>20</v>
       </c>
-      <c r="T13" s="684">
+      <c r="T13" s="685">
         <v>20</v>
       </c>
-      <c r="U13" s="701"/>
-      <c r="V13" s="701"/>
-      <c r="W13" s="686"/>
-      <c r="X13" s="679">
+      <c r="U13" s="702"/>
+      <c r="V13" s="702"/>
+      <c r="W13" s="687"/>
+      <c r="X13" s="680">
         <f>SUM(L13:L15)*R13+SUM(M13:M15)*S13+SUM(N13:N15)*T13+SUM(O13:O15)*U13+SUM(P13:P15)*V13+SUM(Q13:Q15)*W13</f>
         <v>0</v>
       </c>
@@ -27366,9 +27366,9 @@
       <c r="H14" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="696"/>
-      <c r="J14" s="696"/>
-      <c r="K14" s="693"/>
+      <c r="I14" s="697"/>
+      <c r="J14" s="697"/>
+      <c r="K14" s="695"/>
       <c r="L14" s="28">
         <f>在庫情報R!BN14</f>
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <f>在庫情報R!BS14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="688"/>
-      <c r="S14" s="689"/>
-      <c r="T14" s="689"/>
-      <c r="U14" s="702"/>
-      <c r="V14" s="702"/>
+      <c r="R14" s="692"/>
+      <c r="S14" s="693"/>
+      <c r="T14" s="693"/>
+      <c r="U14" s="703"/>
+      <c r="V14" s="703"/>
       <c r="W14" s="694"/>
-      <c r="X14" s="679"/>
+      <c r="X14" s="680"/>
     </row>
     <row r="15" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -27419,9 +27419,9 @@
       <c r="H15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="697"/>
-      <c r="J15" s="697"/>
-      <c r="K15" s="681"/>
+      <c r="I15" s="698"/>
+      <c r="J15" s="698"/>
+      <c r="K15" s="682"/>
       <c r="L15" s="30">
         <f>在庫情報R!BN15</f>
         <v>0</v>
@@ -27446,13 +27446,13 @@
         <f>在庫情報R!BS15</f>
         <v>0</v>
       </c>
-      <c r="R15" s="683"/>
-      <c r="S15" s="685"/>
-      <c r="T15" s="685"/>
-      <c r="U15" s="703"/>
-      <c r="V15" s="703"/>
-      <c r="W15" s="687"/>
-      <c r="X15" s="679"/>
+      <c r="R15" s="684"/>
+      <c r="S15" s="686"/>
+      <c r="T15" s="686"/>
+      <c r="U15" s="704"/>
+      <c r="V15" s="704"/>
+      <c r="W15" s="688"/>
+      <c r="X15" s="680"/>
     </row>
     <row r="16" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -27480,7 +27480,7 @@
       <c r="J16" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="680"/>
+      <c r="K16" s="681"/>
       <c r="L16" s="26">
         <f>在庫情報R!BN16</f>
         <v>0</v>
@@ -27505,23 +27505,23 @@
         <f>在庫情報R!BS16</f>
         <v>0</v>
       </c>
-      <c r="R16" s="682">
+      <c r="R16" s="683">
         <v>20</v>
       </c>
-      <c r="S16" s="684">
+      <c r="S16" s="685">
         <v>20</v>
       </c>
-      <c r="T16" s="684">
+      <c r="T16" s="685">
         <v>20</v>
       </c>
-      <c r="U16" s="698">
+      <c r="U16" s="699">
         <v>26</v>
       </c>
-      <c r="V16" s="698">
+      <c r="V16" s="699">
         <v>26</v>
       </c>
-      <c r="W16" s="686"/>
-      <c r="X16" s="679">
+      <c r="W16" s="687"/>
+      <c r="X16" s="680">
         <f>SUM(L16:L18)*R16+SUM(M16:M18)*S16+SUM(N16:N18)*T16+SUM(O16:O18)*U16+SUM(P16:P18)*V16+SUM(Q16:Q18)*W16</f>
         <v>0</v>
       </c>
@@ -27550,7 +27550,7 @@
       <c r="J17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="693"/>
+      <c r="K17" s="695"/>
       <c r="L17" s="28">
         <f>在庫情報R!BN17</f>
         <v>0</v>
@@ -27575,13 +27575,13 @@
         <f>在庫情報R!BS17</f>
         <v>0</v>
       </c>
-      <c r="R17" s="688"/>
-      <c r="S17" s="689"/>
-      <c r="T17" s="689"/>
-      <c r="U17" s="699"/>
-      <c r="V17" s="699"/>
+      <c r="R17" s="692"/>
+      <c r="S17" s="693"/>
+      <c r="T17" s="693"/>
+      <c r="U17" s="700"/>
+      <c r="V17" s="700"/>
       <c r="W17" s="694"/>
-      <c r="X17" s="679"/>
+      <c r="X17" s="680"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -27607,7 +27607,7 @@
       <c r="J18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="681"/>
+      <c r="K18" s="682"/>
       <c r="L18" s="30">
         <f>在庫情報R!BN18</f>
         <v>0</v>
@@ -27632,13 +27632,13 @@
         <f>在庫情報R!BS18</f>
         <v>0</v>
       </c>
-      <c r="R18" s="683"/>
-      <c r="S18" s="685"/>
-      <c r="T18" s="685"/>
-      <c r="U18" s="700"/>
-      <c r="V18" s="700"/>
-      <c r="W18" s="687"/>
-      <c r="X18" s="679"/>
+      <c r="R18" s="684"/>
+      <c r="S18" s="686"/>
+      <c r="T18" s="686"/>
+      <c r="U18" s="701"/>
+      <c r="V18" s="701"/>
+      <c r="W18" s="688"/>
+      <c r="X18" s="680"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -27666,7 +27666,7 @@
       <c r="J19" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="680"/>
+      <c r="K19" s="681"/>
       <c r="L19" s="26">
         <f>在庫情報R!BN19</f>
         <v>0</v>
@@ -27691,23 +27691,23 @@
         <f>在庫情報R!BS19</f>
         <v>0</v>
       </c>
-      <c r="R19" s="682">
+      <c r="R19" s="683">
         <v>38</v>
       </c>
-      <c r="S19" s="684">
+      <c r="S19" s="685">
         <v>38</v>
       </c>
-      <c r="T19" s="684">
+      <c r="T19" s="685">
         <v>38</v>
       </c>
-      <c r="U19" s="684">
+      <c r="U19" s="685">
         <v>38</v>
       </c>
-      <c r="V19" s="684">
+      <c r="V19" s="685">
         <v>38</v>
       </c>
-      <c r="W19" s="686"/>
-      <c r="X19" s="679">
+      <c r="W19" s="687"/>
+      <c r="X19" s="680">
         <f>SUM(L19:L21)*R19+SUM(M19:M21)*S19+SUM(N19:N21)*T19+SUM(O19:O21)*U19+SUM(P19:P21)*V19+SUM(Q19:Q21)*W19</f>
         <v>0</v>
       </c>
@@ -27736,7 +27736,7 @@
       <c r="J20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="693"/>
+      <c r="K20" s="695"/>
       <c r="L20" s="34">
         <f>在庫情報R!BN20</f>
         <v>0</v>
@@ -27761,13 +27761,13 @@
         <f>在庫情報R!BS20</f>
         <v>0</v>
       </c>
-      <c r="R20" s="688"/>
-      <c r="S20" s="689"/>
-      <c r="T20" s="689"/>
-      <c r="U20" s="689"/>
-      <c r="V20" s="689"/>
+      <c r="R20" s="692"/>
+      <c r="S20" s="693"/>
+      <c r="T20" s="693"/>
+      <c r="U20" s="693"/>
+      <c r="V20" s="693"/>
       <c r="W20" s="694"/>
-      <c r="X20" s="679"/>
+      <c r="X20" s="680"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -27793,7 +27793,7 @@
       <c r="J21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="681"/>
+      <c r="K21" s="682"/>
       <c r="L21" s="36">
         <f>在庫情報R!BN21</f>
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <f>在庫情報R!BS21</f>
         <v>0</v>
       </c>
-      <c r="R21" s="683"/>
-      <c r="S21" s="685"/>
-      <c r="T21" s="685"/>
-      <c r="U21" s="685"/>
-      <c r="V21" s="685"/>
-      <c r="W21" s="687"/>
-      <c r="X21" s="679"/>
+      <c r="R21" s="684"/>
+      <c r="S21" s="686"/>
+      <c r="T21" s="686"/>
+      <c r="U21" s="686"/>
+      <c r="V21" s="686"/>
+      <c r="W21" s="688"/>
+      <c r="X21" s="680"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -27852,7 +27852,7 @@
       <c r="J22" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="680"/>
+      <c r="K22" s="681"/>
       <c r="L22" s="26">
         <f>在庫情報R!BN22</f>
         <v>0</v>
@@ -27877,23 +27877,23 @@
         <f>在庫情報R!BS22</f>
         <v>0</v>
       </c>
-      <c r="R22" s="682">
+      <c r="R22" s="683">
         <v>25</v>
       </c>
-      <c r="S22" s="684">
+      <c r="S22" s="685">
         <v>25</v>
       </c>
-      <c r="T22" s="684">
+      <c r="T22" s="685">
         <v>25</v>
       </c>
-      <c r="U22" s="684">
+      <c r="U22" s="685">
         <v>25</v>
       </c>
-      <c r="V22" s="684">
+      <c r="V22" s="685">
         <v>25</v>
       </c>
-      <c r="W22" s="686"/>
-      <c r="X22" s="679">
+      <c r="W22" s="687"/>
+      <c r="X22" s="680">
         <f>SUM(L22:L23)*R22+SUM(M22:M23)*S22+SUM(N22:N23)*T22+SUM(O22:O23)*U22+SUM(P22:P23)*V22+SUM(Q22:Q23)*W22</f>
         <v>0</v>
       </c>
@@ -27922,7 +27922,7 @@
       <c r="J23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="681"/>
+      <c r="K23" s="682"/>
       <c r="L23" s="30">
         <f>在庫情報R!BN23</f>
         <v>0</v>
@@ -27947,13 +27947,13 @@
         <f>在庫情報R!BS23</f>
         <v>0</v>
       </c>
-      <c r="R23" s="683"/>
-      <c r="S23" s="685"/>
-      <c r="T23" s="685"/>
-      <c r="U23" s="685"/>
-      <c r="V23" s="685"/>
-      <c r="W23" s="687"/>
-      <c r="X23" s="679"/>
+      <c r="R23" s="684"/>
+      <c r="S23" s="686"/>
+      <c r="T23" s="686"/>
+      <c r="U23" s="686"/>
+      <c r="V23" s="686"/>
+      <c r="W23" s="688"/>
+      <c r="X23" s="680"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -28008,25 +28008,25 @@
         <f>在庫情報R!BS24</f>
         <v>0</v>
       </c>
-      <c r="R24" s="682">
+      <c r="R24" s="683">
         <v>36</v>
       </c>
-      <c r="S24" s="684">
+      <c r="S24" s="685">
         <v>36</v>
       </c>
-      <c r="T24" s="684">
+      <c r="T24" s="685">
         <v>36</v>
       </c>
-      <c r="U24" s="684">
+      <c r="U24" s="685">
         <v>36</v>
       </c>
-      <c r="V24" s="684">
+      <c r="V24" s="685">
         <v>36</v>
       </c>
-      <c r="W24" s="690">
+      <c r="W24" s="689">
         <v>36</v>
       </c>
-      <c r="X24" s="679">
+      <c r="X24" s="680">
         <f>SUM(L24:L27)*R24+SUM(M24:M27)*S24+SUM(N24:N27)*T24+SUM(O24:O27)*U24+SUM(P24:P27)*V24+SUM(Q24:Q27)*W24</f>
         <v>0</v>
       </c>
@@ -28082,13 +28082,13 @@
         <f>在庫情報R!BS25</f>
         <v>0</v>
       </c>
-      <c r="R25" s="688"/>
-      <c r="S25" s="689"/>
-      <c r="T25" s="689"/>
-      <c r="U25" s="689"/>
-      <c r="V25" s="689"/>
-      <c r="W25" s="691"/>
-      <c r="X25" s="679"/>
+      <c r="R25" s="692"/>
+      <c r="S25" s="693"/>
+      <c r="T25" s="693"/>
+      <c r="U25" s="693"/>
+      <c r="V25" s="693"/>
+      <c r="W25" s="690"/>
+      <c r="X25" s="680"/>
     </row>
     <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
@@ -28141,13 +28141,13 @@
         <f>在庫情報R!BS26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="688"/>
-      <c r="S26" s="689"/>
-      <c r="T26" s="689"/>
-      <c r="U26" s="689"/>
-      <c r="V26" s="689"/>
-      <c r="W26" s="691"/>
-      <c r="X26" s="679"/>
+      <c r="R26" s="692"/>
+      <c r="S26" s="693"/>
+      <c r="T26" s="693"/>
+      <c r="U26" s="693"/>
+      <c r="V26" s="693"/>
+      <c r="W26" s="690"/>
+      <c r="X26" s="680"/>
     </row>
     <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
@@ -28200,13 +28200,13 @@
         <f>在庫情報R!BS27</f>
         <v>0</v>
       </c>
-      <c r="R27" s="683"/>
-      <c r="S27" s="685"/>
-      <c r="T27" s="685"/>
-      <c r="U27" s="685"/>
-      <c r="V27" s="685"/>
-      <c r="W27" s="692"/>
-      <c r="X27" s="679"/>
+      <c r="R27" s="684"/>
+      <c r="S27" s="686"/>
+      <c r="T27" s="686"/>
+      <c r="U27" s="686"/>
+      <c r="V27" s="686"/>
+      <c r="W27" s="691"/>
+      <c r="X27" s="680"/>
     </row>
     <row r="28" spans="2:24" ht="140.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B28" s="5" t="s">
@@ -28302,7 +28302,7 @@
       <c r="J29" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="680"/>
+      <c r="K29" s="681"/>
       <c r="L29" s="26">
         <f>在庫情報R!BN29</f>
         <v>0</v>
@@ -28327,23 +28327,23 @@
         <f>在庫情報R!BS29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="682">
+      <c r="R29" s="683">
         <v>35</v>
       </c>
-      <c r="S29" s="684">
+      <c r="S29" s="685">
         <v>35</v>
       </c>
-      <c r="T29" s="684">
+      <c r="T29" s="685">
         <v>35</v>
       </c>
-      <c r="U29" s="684">
+      <c r="U29" s="685">
         <v>35</v>
       </c>
-      <c r="V29" s="684">
+      <c r="V29" s="685">
         <v>35</v>
       </c>
-      <c r="W29" s="686"/>
-      <c r="X29" s="679">
+      <c r="W29" s="687"/>
+      <c r="X29" s="680">
         <f>SUM(L29:L30)*R29+SUM(M29:M30)*S29+SUM(N29:N30)*T29+SUM(O29:O30)*U29+SUM(P29:P30)*V29+SUM(Q29:Q30)*W29</f>
         <v>0</v>
       </c>
@@ -28372,7 +28372,7 @@
       <c r="J30" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="K30" s="681"/>
+      <c r="K30" s="682"/>
       <c r="L30" s="36">
         <f>在庫情報R!BN30</f>
         <v>0</v>
@@ -28397,13 +28397,13 @@
         <f>在庫情報R!BS30</f>
         <v>0</v>
       </c>
-      <c r="R30" s="683"/>
-      <c r="S30" s="685"/>
-      <c r="T30" s="685"/>
-      <c r="U30" s="685"/>
-      <c r="V30" s="685"/>
-      <c r="W30" s="687"/>
-      <c r="X30" s="679"/>
+      <c r="R30" s="684"/>
+      <c r="S30" s="686"/>
+      <c r="T30" s="686"/>
+      <c r="U30" s="686"/>
+      <c r="V30" s="686"/>
+      <c r="W30" s="688"/>
+      <c r="X30" s="680"/>
     </row>
     <row r="31" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
@@ -28448,15 +28448,15 @@
         <f>在庫情報R!BS31</f>
         <v>0</v>
       </c>
-      <c r="R31" s="710">
+      <c r="R31" s="711">
         <v>33</v>
       </c>
-      <c r="S31" s="701"/>
-      <c r="T31" s="701"/>
-      <c r="U31" s="701"/>
-      <c r="V31" s="701"/>
-      <c r="W31" s="686"/>
-      <c r="X31" s="679">
+      <c r="S31" s="702"/>
+      <c r="T31" s="702"/>
+      <c r="U31" s="702"/>
+      <c r="V31" s="702"/>
+      <c r="W31" s="687"/>
+      <c r="X31" s="680">
         <f>SUM(L31:L32)*R31+SUM(M31:M32)*S31+SUM(N31:N32)*T31+SUM(O31:O32)*U31+SUM(P31:P32)*V31+SUM(Q31:Q32)*W31</f>
         <v>0</v>
       </c>
@@ -28502,13 +28502,13 @@
         <f>在庫情報R!BS32</f>
         <v>0</v>
       </c>
-      <c r="R32" s="711"/>
-      <c r="S32" s="703"/>
-      <c r="T32" s="703"/>
-      <c r="U32" s="703"/>
-      <c r="V32" s="703"/>
-      <c r="W32" s="687"/>
-      <c r="X32" s="712"/>
+      <c r="R32" s="712"/>
+      <c r="S32" s="704"/>
+      <c r="T32" s="704"/>
+      <c r="U32" s="704"/>
+      <c r="V32" s="704"/>
+      <c r="W32" s="688"/>
+      <c r="X32" s="713"/>
     </row>
     <row r="33" spans="2:24" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B33" s="3" t="s">
@@ -29635,7 +29635,7 @@
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -29746,46 +29746,46 @@
         <v>329</v>
       </c>
       <c r="E4" s="267"/>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="343" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="331" t="s">
+      <c r="G4" s="343" t="s">
         <v>331</v>
       </c>
-      <c r="H4" s="331" t="s">
+      <c r="H4" s="343" t="s">
         <v>332</v>
       </c>
-      <c r="I4" s="342" t="s">
+      <c r="I4" s="343" t="s">
         <v>357</v>
       </c>
-      <c r="J4" s="332">
+      <c r="J4" s="345">
         <v>10</v>
       </c>
-      <c r="K4" s="332">
+      <c r="K4" s="345">
         <f>J4+0.2</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="L4" s="331" t="s">
+      <c r="L4" s="343" t="s">
         <v>333</v>
       </c>
-      <c r="M4" s="331"/>
-      <c r="N4" s="405"/>
-      <c r="O4" s="331"/>
-      <c r="P4" s="406"/>
-      <c r="Q4" s="406"/>
-      <c r="R4" s="406"/>
-      <c r="S4" s="406"/>
-      <c r="T4" s="406"/>
-      <c r="U4" s="407">
+      <c r="M4" s="343"/>
+      <c r="N4" s="343"/>
+      <c r="O4" s="343"/>
+      <c r="P4" s="345"/>
+      <c r="Q4" s="345"/>
+      <c r="R4" s="345"/>
+      <c r="S4" s="345"/>
+      <c r="T4" s="345"/>
+      <c r="U4" s="343">
         <f t="shared" ref="U4:U39" si="0">O4+N4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="331"/>
-      <c r="W4" s="407">
+      <c r="V4" s="343"/>
+      <c r="W4" s="343">
         <f>U4+V4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="408" t="str">
+      <c r="X4" s="418" t="str">
         <f>IF(T4&gt;0,W4/T4*7,"-")</f>
         <v>-</v>
       </c>
@@ -29795,46 +29795,46 @@
       <c r="C5" s="283"/>
       <c r="D5" s="291"/>
       <c r="E5" s="268"/>
-      <c r="F5" s="333" t="s">
+      <c r="F5" s="346" t="s">
         <v>336</v>
       </c>
-      <c r="G5" s="333" t="s">
+      <c r="G5" s="346" t="s">
         <v>337</v>
       </c>
-      <c r="H5" s="333" t="s">
+      <c r="H5" s="346" t="s">
         <v>338</v>
       </c>
-      <c r="I5" s="335" t="s">
+      <c r="I5" s="346" t="s">
         <v>357</v>
       </c>
-      <c r="J5" s="334">
+      <c r="J5" s="347">
         <v>10</v>
       </c>
-      <c r="K5" s="334">
+      <c r="K5" s="347">
         <f t="shared" ref="K5:K73" si="1">J5+0.2</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="L5" s="333" t="s">
+      <c r="L5" s="346" t="s">
         <v>339</v>
       </c>
-      <c r="M5" s="333"/>
-      <c r="N5" s="409"/>
-      <c r="O5" s="333"/>
-      <c r="P5" s="410"/>
-      <c r="Q5" s="410"/>
-      <c r="R5" s="410"/>
-      <c r="S5" s="410"/>
-      <c r="T5" s="410"/>
-      <c r="U5" s="411">
+      <c r="M5" s="346"/>
+      <c r="N5" s="346"/>
+      <c r="O5" s="346"/>
+      <c r="P5" s="347"/>
+      <c r="Q5" s="347"/>
+      <c r="R5" s="347"/>
+      <c r="S5" s="347"/>
+      <c r="T5" s="347"/>
+      <c r="U5" s="346">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V5" s="333"/>
-      <c r="W5" s="411">
+      <c r="V5" s="346"/>
+      <c r="W5" s="346">
         <f t="shared" ref="W5:W72" si="2">U5+V5</f>
         <v>0</v>
       </c>
-      <c r="X5" s="412" t="str">
+      <c r="X5" s="420" t="str">
         <f t="shared" ref="X5:X72" si="3">IF(T5&gt;0,W5/T5*7,"-")</f>
         <v>-</v>
       </c>
@@ -29844,46 +29844,46 @@
       <c r="C6" s="283"/>
       <c r="D6" s="291"/>
       <c r="E6" s="268"/>
-      <c r="F6" s="333" t="s">
+      <c r="F6" s="346" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="333" t="s">
+      <c r="G6" s="346" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="333" t="s">
+      <c r="H6" s="346" t="s">
         <v>342</v>
       </c>
-      <c r="I6" s="335" t="s">
+      <c r="I6" s="346" t="s">
         <v>357</v>
       </c>
-      <c r="J6" s="334">
+      <c r="J6" s="347">
         <v>10</v>
       </c>
-      <c r="K6" s="334">
+      <c r="K6" s="347">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="L6" s="333" t="s">
+      <c r="L6" s="346" t="s">
         <v>343</v>
       </c>
-      <c r="M6" s="333"/>
-      <c r="N6" s="409"/>
-      <c r="O6" s="333"/>
-      <c r="P6" s="410"/>
-      <c r="Q6" s="410"/>
-      <c r="R6" s="410"/>
-      <c r="S6" s="410"/>
-      <c r="T6" s="410"/>
-      <c r="U6" s="411">
+      <c r="M6" s="346"/>
+      <c r="N6" s="346"/>
+      <c r="O6" s="346"/>
+      <c r="P6" s="347"/>
+      <c r="Q6" s="347"/>
+      <c r="R6" s="347"/>
+      <c r="S6" s="347"/>
+      <c r="T6" s="347"/>
+      <c r="U6" s="346">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="333"/>
-      <c r="W6" s="411">
+      <c r="V6" s="346"/>
+      <c r="W6" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X6" s="412" t="str">
+      <c r="X6" s="420" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
@@ -30445,7 +30445,7 @@
       <c r="D18" s="293" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="713"/>
+      <c r="E18" s="714"/>
       <c r="F18" s="343" t="s">
         <v>330</v>
       </c>
@@ -30494,7 +30494,7 @@
       <c r="B19" s="419"/>
       <c r="C19" s="419"/>
       <c r="D19" s="294"/>
-      <c r="E19" s="713"/>
+      <c r="E19" s="714"/>
       <c r="F19" s="346" t="s">
         <v>336</v>
       </c>
@@ -30543,7 +30543,7 @@
       <c r="B20" s="422"/>
       <c r="C20" s="423"/>
       <c r="D20" s="295"/>
-      <c r="E20" s="714"/>
+      <c r="E20" s="715"/>
       <c r="F20" s="348" t="s">
         <v>340</v>
       </c>
@@ -34492,14 +34492,14 @@
       </c>
     </row>
     <row r="98" spans="2:24" s="404" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="724"/>
+      <c r="B98" s="725"/>
       <c r="C98" s="282" t="s">
         <v>371</v>
       </c>
       <c r="D98" s="287" t="s">
         <v>497</v>
       </c>
-      <c r="E98" s="721"/>
+      <c r="E98" s="722"/>
       <c r="F98" s="355" t="s">
         <v>330</v>
       </c>
@@ -34545,10 +34545,10 @@
       </c>
     </row>
     <row r="99" spans="2:24" s="404" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="724"/>
+      <c r="B99" s="725"/>
       <c r="C99" s="283"/>
       <c r="D99" s="288"/>
-      <c r="E99" s="722"/>
+      <c r="E99" s="723"/>
       <c r="F99" s="357" t="s">
         <v>336</v>
       </c>
@@ -34594,10 +34594,10 @@
       </c>
     </row>
     <row r="100" spans="2:24" s="404" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="725"/>
+      <c r="B100" s="726"/>
       <c r="C100" s="284"/>
       <c r="D100" s="289"/>
-      <c r="E100" s="723"/>
+      <c r="E100" s="724"/>
       <c r="F100" s="359" t="s">
         <v>340</v>
       </c>
@@ -34796,7 +34796,7 @@
       </c>
     </row>
     <row r="104" spans="2:24" s="404" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="724"/>
+      <c r="B104" s="725"/>
       <c r="C104" s="282" t="s">
         <v>371</v>
       </c>
@@ -34849,7 +34849,7 @@
       </c>
     </row>
     <row r="105" spans="2:24" s="404" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="724"/>
+      <c r="B105" s="725"/>
       <c r="C105" s="283"/>
       <c r="D105" s="288"/>
       <c r="E105" s="436"/>
@@ -34898,7 +34898,7 @@
       </c>
     </row>
     <row r="106" spans="2:24" s="404" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="725"/>
+      <c r="B106" s="726"/>
       <c r="C106" s="284"/>
       <c r="D106" s="289"/>
       <c r="E106" s="269"/>
@@ -36250,7 +36250,7 @@
       <c r="D133" s="287" t="s">
         <v>591</v>
       </c>
-      <c r="E133" s="715"/>
+      <c r="E133" s="716"/>
       <c r="F133" s="331" t="s">
         <v>330</v>
       </c>
@@ -36298,7 +36298,7 @@
       <c r="B134" s="283"/>
       <c r="C134" s="283"/>
       <c r="D134" s="288"/>
-      <c r="E134" s="716"/>
+      <c r="E134" s="717"/>
       <c r="F134" s="333" t="s">
         <v>336</v>
       </c>
@@ -36346,7 +36346,7 @@
       <c r="B135" s="283"/>
       <c r="C135" s="443"/>
       <c r="D135" s="288"/>
-      <c r="E135" s="716"/>
+      <c r="E135" s="717"/>
       <c r="F135" s="333" t="s">
         <v>340</v>
       </c>
@@ -36394,7 +36394,7 @@
       <c r="B136" s="283"/>
       <c r="C136" s="283"/>
       <c r="D136" s="289"/>
-      <c r="E136" s="717"/>
+      <c r="E136" s="718"/>
       <c r="F136" s="336" t="s">
         <v>352</v>
       </c>
@@ -36838,7 +36838,7 @@
       <c r="D145" s="290" t="s">
         <v>597</v>
       </c>
-      <c r="E145" s="718"/>
+      <c r="E145" s="719"/>
       <c r="F145" s="331" t="s">
         <v>330</v>
       </c>
@@ -36886,7 +36886,7 @@
       <c r="B146" s="283"/>
       <c r="C146" s="283"/>
       <c r="D146" s="291"/>
-      <c r="E146" s="719"/>
+      <c r="E146" s="720"/>
       <c r="F146" s="333" t="s">
         <v>336</v>
       </c>
@@ -36934,7 +36934,7 @@
       <c r="B147" s="283"/>
       <c r="C147" s="283"/>
       <c r="D147" s="291"/>
-      <c r="E147" s="719"/>
+      <c r="E147" s="720"/>
       <c r="F147" s="333" t="s">
         <v>340</v>
       </c>
@@ -36982,7 +36982,7 @@
       <c r="B148" s="445"/>
       <c r="C148" s="445"/>
       <c r="D148" s="312"/>
-      <c r="E148" s="720"/>
+      <c r="E148" s="721"/>
       <c r="F148" s="359" t="s">
         <v>352</v>
       </c>
@@ -39152,9 +39152,7 @@
   </sheetPr>
   <dimension ref="B1:M187"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -39697,7 +39695,7 @@
       <c r="D18" s="469" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="726"/>
+      <c r="E18" s="727"/>
       <c r="F18" s="470" t="s">
         <v>330</v>
       </c>
@@ -39730,7 +39728,7 @@
       <c r="B19" s="473"/>
       <c r="C19" s="473"/>
       <c r="D19" s="474"/>
-      <c r="E19" s="726"/>
+      <c r="E19" s="727"/>
       <c r="F19" s="475" t="s">
         <v>336</v>
       </c>
@@ -39763,7 +39761,7 @@
       <c r="B20" s="477"/>
       <c r="C20" s="478"/>
       <c r="D20" s="479"/>
-      <c r="E20" s="727"/>
+      <c r="E20" s="728"/>
       <c r="F20" s="480" t="s">
         <v>340</v>
       </c>
@@ -42464,14 +42462,14 @@
       </c>
     </row>
     <row r="98" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="734"/>
+      <c r="B98" s="735"/>
       <c r="C98" s="451" t="s">
         <v>371</v>
       </c>
       <c r="D98" s="511" t="s">
         <v>497</v>
       </c>
-      <c r="E98" s="736"/>
+      <c r="E98" s="737"/>
       <c r="F98" s="489" t="s">
         <v>330</v>
       </c>
@@ -42501,10 +42499,10 @@
       </c>
     </row>
     <row r="99" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="734"/>
+      <c r="B99" s="735"/>
       <c r="C99" s="280"/>
       <c r="D99" s="513"/>
-      <c r="E99" s="734"/>
+      <c r="E99" s="735"/>
       <c r="F99" s="491" t="s">
         <v>336</v>
       </c>
@@ -42534,10 +42532,10 @@
       </c>
     </row>
     <row r="100" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="735"/>
+      <c r="B100" s="736"/>
       <c r="C100" s="281"/>
       <c r="D100" s="514"/>
-      <c r="E100" s="735"/>
+      <c r="E100" s="736"/>
       <c r="F100" s="493" t="s">
         <v>340</v>
       </c>
@@ -42672,7 +42670,7 @@
       </c>
     </row>
     <row r="104" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="734"/>
+      <c r="B104" s="735"/>
       <c r="C104" s="451" t="s">
         <v>371</v>
       </c>
@@ -42709,7 +42707,7 @@
       </c>
     </row>
     <row r="105" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="734"/>
+      <c r="B105" s="735"/>
       <c r="C105" s="280"/>
       <c r="D105" s="513"/>
       <c r="E105" s="516"/>
@@ -42742,7 +42740,7 @@
       </c>
     </row>
     <row r="106" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="735"/>
+      <c r="B106" s="736"/>
       <c r="C106" s="281"/>
       <c r="D106" s="514"/>
       <c r="E106" s="281"/>
@@ -43662,7 +43660,7 @@
       <c r="D133" s="511" t="s">
         <v>591</v>
       </c>
-      <c r="E133" s="728"/>
+      <c r="E133" s="729"/>
       <c r="F133" s="453" t="s">
         <v>330</v>
       </c>
@@ -43694,7 +43692,7 @@
       <c r="B134" s="316"/>
       <c r="C134" s="316"/>
       <c r="D134" s="513"/>
-      <c r="E134" s="729"/>
+      <c r="E134" s="730"/>
       <c r="F134" s="458" t="s">
         <v>336</v>
       </c>
@@ -43726,7 +43724,7 @@
       <c r="B135" s="316"/>
       <c r="C135" s="321"/>
       <c r="D135" s="513"/>
-      <c r="E135" s="729"/>
+      <c r="E135" s="730"/>
       <c r="F135" s="458" t="s">
         <v>340</v>
       </c>
@@ -43758,7 +43756,7 @@
       <c r="B136" s="316"/>
       <c r="C136" s="316"/>
       <c r="D136" s="514"/>
-      <c r="E136" s="730"/>
+      <c r="E136" s="731"/>
       <c r="F136" s="461" t="s">
         <v>352</v>
       </c>
@@ -44058,7 +44056,7 @@
       <c r="D145" s="452" t="s">
         <v>597</v>
       </c>
-      <c r="E145" s="731"/>
+      <c r="E145" s="732"/>
       <c r="F145" s="453" t="s">
         <v>330</v>
       </c>
@@ -44090,7 +44088,7 @@
       <c r="B146" s="316"/>
       <c r="C146" s="316"/>
       <c r="D146" s="457"/>
-      <c r="E146" s="732"/>
+      <c r="E146" s="733"/>
       <c r="F146" s="458" t="s">
         <v>336</v>
       </c>
@@ -44122,7 +44120,7 @@
       <c r="B147" s="316"/>
       <c r="C147" s="316"/>
       <c r="D147" s="457"/>
-      <c r="E147" s="732"/>
+      <c r="E147" s="733"/>
       <c r="F147" s="458" t="s">
         <v>340</v>
       </c>
@@ -44154,7 +44152,7 @@
       <c r="B148" s="323"/>
       <c r="C148" s="323"/>
       <c r="D148" s="553"/>
-      <c r="E148" s="733"/>
+      <c r="E148" s="734"/>
       <c r="F148" s="493" t="s">
         <v>352</v>
       </c>
@@ -45466,9 +45464,9 @@
   <dimension ref="B1:AD31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -45502,7 +45500,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="707" t="s">
+      <c r="R2" s="708" t="s">
         <v>274</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -45563,7 +45561,7 @@
       <c r="Q3" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="R3" s="708"/>
+      <c r="R3" s="709"/>
       <c r="S3" s="7" t="s">
         <v>275</v>
       </c>
@@ -45624,23 +45622,23 @@
         <f>'在庫情報（雨衣）'!BY4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="682">
+      <c r="L4" s="683">
         <v>28</v>
       </c>
-      <c r="M4" s="684">
+      <c r="M4" s="685">
         <v>28</v>
       </c>
-      <c r="N4" s="684">
+      <c r="N4" s="685">
         <v>28</v>
       </c>
-      <c r="O4" s="684">
+      <c r="O4" s="685">
         <v>28</v>
       </c>
-      <c r="P4" s="684">
+      <c r="P4" s="685">
         <v>28</v>
       </c>
-      <c r="Q4" s="686"/>
-      <c r="R4" s="709">
+      <c r="Q4" s="687"/>
+      <c r="R4" s="710">
         <f>SUM(F4:F6)*L4+SUM(G4:G6)*M4+SUM(H4:H6)*N4+SUM(I4:I6)*O4+SUM(J4:J6)*P4+SUM(K4:K6)*Q4</f>
         <v>0</v>
       </c>
@@ -45659,7 +45657,7 @@
       <c r="W4" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="704"/>
+      <c r="X4" s="705"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
@@ -45694,13 +45692,13 @@
         <f>'在庫情報（雨衣）'!BY5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="688"/>
-      <c r="M5" s="689"/>
-      <c r="N5" s="689"/>
-      <c r="O5" s="689"/>
-      <c r="P5" s="689"/>
+      <c r="L5" s="692"/>
+      <c r="M5" s="693"/>
+      <c r="N5" s="693"/>
+      <c r="O5" s="693"/>
+      <c r="P5" s="693"/>
       <c r="Q5" s="694"/>
-      <c r="R5" s="679"/>
+      <c r="R5" s="680"/>
       <c r="S5" s="572" t="s">
         <v>874</v>
       </c>
@@ -45716,7 +45714,7 @@
       <c r="W5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="705"/>
+      <c r="X5" s="706"/>
     </row>
     <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -45751,13 +45749,13 @@
         <f>'在庫情報（雨衣）'!BY6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="683"/>
-      <c r="M6" s="685"/>
-      <c r="N6" s="685"/>
-      <c r="O6" s="685"/>
-      <c r="P6" s="685"/>
-      <c r="Q6" s="687"/>
-      <c r="R6" s="679"/>
+      <c r="L6" s="684"/>
+      <c r="M6" s="686"/>
+      <c r="N6" s="686"/>
+      <c r="O6" s="686"/>
+      <c r="P6" s="686"/>
+      <c r="Q6" s="688"/>
+      <c r="R6" s="680"/>
       <c r="S6" s="573" t="s">
         <v>879</v>
       </c>
@@ -45773,7 +45771,7 @@
       <c r="W6" s="81" t="s">
         <v>883</v>
       </c>
-      <c r="X6" s="706"/>
+      <c r="X6" s="707"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -45810,23 +45808,23 @@
         <f>'在庫情報（雨衣）'!BY7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="682">
+      <c r="L7" s="683">
         <v>34</v>
       </c>
-      <c r="M7" s="684">
+      <c r="M7" s="685">
         <v>34</v>
       </c>
-      <c r="N7" s="684">
+      <c r="N7" s="685">
         <v>34</v>
       </c>
-      <c r="O7" s="684">
+      <c r="O7" s="685">
         <v>34</v>
       </c>
-      <c r="P7" s="684">
+      <c r="P7" s="685">
         <v>34</v>
       </c>
-      <c r="Q7" s="686"/>
-      <c r="R7" s="679">
+      <c r="Q7" s="687"/>
+      <c r="R7" s="680">
         <f>SUM(F7:F10)*L7+SUM(G7:G10)*M7+SUM(H7:H10)*N7+SUM(I7:I10)*O7+SUM(J7:J10)*P7+SUM(K7:K10)*Q7</f>
         <v>0</v>
       </c>
@@ -45845,7 +45843,7 @@
       <c r="W7" s="81" t="s">
         <v>891</v>
       </c>
-      <c r="X7" s="680"/>
+      <c r="X7" s="681"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -45880,13 +45878,13 @@
         <f>'在庫情報（雨衣）'!BY8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="688"/>
-      <c r="M8" s="689"/>
-      <c r="N8" s="689"/>
-      <c r="O8" s="689"/>
-      <c r="P8" s="689"/>
+      <c r="L8" s="692"/>
+      <c r="M8" s="693"/>
+      <c r="N8" s="693"/>
+      <c r="O8" s="693"/>
+      <c r="P8" s="693"/>
       <c r="Q8" s="694"/>
-      <c r="R8" s="679"/>
+      <c r="R8" s="680"/>
       <c r="S8" s="573" t="s">
         <v>894</v>
       </c>
@@ -45902,7 +45900,7 @@
       <c r="W8" s="81" t="s">
         <v>896</v>
       </c>
-      <c r="X8" s="693"/>
+      <c r="X8" s="695"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -45937,13 +45935,13 @@
         <f>'在庫情報（雨衣）'!BY9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="688"/>
-      <c r="M9" s="689"/>
-      <c r="N9" s="689"/>
-      <c r="O9" s="689"/>
-      <c r="P9" s="689"/>
+      <c r="L9" s="692"/>
+      <c r="M9" s="693"/>
+      <c r="N9" s="693"/>
+      <c r="O9" s="693"/>
+      <c r="P9" s="693"/>
       <c r="Q9" s="694"/>
-      <c r="R9" s="679"/>
+      <c r="R9" s="680"/>
       <c r="S9" s="573" t="s">
         <v>74</v>
       </c>
@@ -45959,7 +45957,7 @@
       <c r="W9" s="81" t="s">
         <v>899</v>
       </c>
-      <c r="X9" s="693"/>
+      <c r="X9" s="695"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -45994,13 +45992,13 @@
         <f>'在庫情報（雨衣）'!BY10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="683"/>
-      <c r="M10" s="685"/>
-      <c r="N10" s="685"/>
-      <c r="O10" s="685"/>
-      <c r="P10" s="685"/>
-      <c r="Q10" s="687"/>
-      <c r="R10" s="679"/>
+      <c r="L10" s="684"/>
+      <c r="M10" s="686"/>
+      <c r="N10" s="686"/>
+      <c r="O10" s="686"/>
+      <c r="P10" s="686"/>
+      <c r="Q10" s="688"/>
+      <c r="R10" s="680"/>
       <c r="S10" s="573" t="s">
         <v>902</v>
       </c>
@@ -46016,7 +46014,7 @@
       <c r="W10" s="81" t="s">
         <v>906</v>
       </c>
-      <c r="X10" s="681"/>
+      <c r="X10" s="682"/>
     </row>
     <row r="11" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -46053,25 +46051,25 @@
         <f>'在庫情報（雨衣）'!BY11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="682">
+      <c r="L11" s="683">
         <v>36</v>
       </c>
-      <c r="M11" s="684">
+      <c r="M11" s="685">
         <v>36</v>
       </c>
-      <c r="N11" s="684">
+      <c r="N11" s="685">
         <v>36</v>
       </c>
-      <c r="O11" s="684">
+      <c r="O11" s="685">
         <v>36</v>
       </c>
-      <c r="P11" s="684">
+      <c r="P11" s="685">
         <v>36</v>
       </c>
-      <c r="Q11" s="690">
+      <c r="Q11" s="689">
         <v>36</v>
       </c>
-      <c r="R11" s="679">
+      <c r="R11" s="680">
         <f>SUM(F11:F12)*L11+SUM(G11:G12)*M11+SUM(H11:H12)*N11+SUM(I11:I12)*O11+SUM(J11:J12)*P11+SUM(K11:K12)*Q11</f>
         <v>0</v>
       </c>
@@ -46127,13 +46125,13 @@
         <f>'在庫情報（雨衣）'!BY12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="683"/>
-      <c r="M12" s="685"/>
-      <c r="N12" s="685"/>
-      <c r="O12" s="685"/>
-      <c r="P12" s="685"/>
-      <c r="Q12" s="692"/>
-      <c r="R12" s="679"/>
+      <c r="L12" s="684"/>
+      <c r="M12" s="686"/>
+      <c r="N12" s="686"/>
+      <c r="O12" s="686"/>
+      <c r="P12" s="686"/>
+      <c r="Q12" s="691"/>
+      <c r="R12" s="680"/>
       <c r="S12" s="573" t="s">
         <v>913</v>
       </c>
@@ -46188,19 +46186,19 @@
         <f>'在庫情報（雨衣）'!BY13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="682">
+      <c r="L13" s="683">
         <v>20</v>
       </c>
-      <c r="M13" s="684">
+      <c r="M13" s="685">
         <v>20</v>
       </c>
-      <c r="N13" s="684">
+      <c r="N13" s="685">
         <v>20</v>
       </c>
-      <c r="O13" s="701"/>
-      <c r="P13" s="701"/>
-      <c r="Q13" s="686"/>
-      <c r="R13" s="679">
+      <c r="O13" s="702"/>
+      <c r="P13" s="702"/>
+      <c r="Q13" s="687"/>
+      <c r="R13" s="680">
         <f>SUM(F13:F15)*L13+SUM(G13:G15)*M13+SUM(H13:H15)*N13+SUM(I13:I15)*O13+SUM(J13:J15)*P13+SUM(K13:K15)*Q13</f>
         <v>0</v>
       </c>
@@ -46213,9 +46211,9 @@
       <c r="U13" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="V13" s="695"/>
-      <c r="W13" s="695"/>
-      <c r="X13" s="680"/>
+      <c r="V13" s="696"/>
+      <c r="W13" s="696"/>
+      <c r="X13" s="681"/>
     </row>
     <row r="14" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
@@ -46250,13 +46248,13 @@
         <f>'在庫情報（雨衣）'!BY14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="688"/>
-      <c r="M14" s="689"/>
-      <c r="N14" s="689"/>
-      <c r="O14" s="702"/>
-      <c r="P14" s="702"/>
+      <c r="L14" s="692"/>
+      <c r="M14" s="693"/>
+      <c r="N14" s="693"/>
+      <c r="O14" s="703"/>
+      <c r="P14" s="703"/>
       <c r="Q14" s="694"/>
-      <c r="R14" s="679"/>
+      <c r="R14" s="680"/>
       <c r="S14" s="573" t="s">
         <v>918</v>
       </c>
@@ -46266,9 +46264,9 @@
       <c r="U14" s="93" t="s">
         <v>920</v>
       </c>
-      <c r="V14" s="696"/>
-      <c r="W14" s="696"/>
-      <c r="X14" s="693"/>
+      <c r="V14" s="697"/>
+      <c r="W14" s="697"/>
+      <c r="X14" s="695"/>
     </row>
     <row r="15" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -46303,13 +46301,13 @@
         <f>'在庫情報（雨衣）'!BY15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="683"/>
-      <c r="M15" s="685"/>
-      <c r="N15" s="685"/>
-      <c r="O15" s="703"/>
-      <c r="P15" s="703"/>
-      <c r="Q15" s="687"/>
-      <c r="R15" s="679"/>
+      <c r="L15" s="684"/>
+      <c r="M15" s="686"/>
+      <c r="N15" s="686"/>
+      <c r="O15" s="704"/>
+      <c r="P15" s="704"/>
+      <c r="Q15" s="688"/>
+      <c r="R15" s="680"/>
       <c r="S15" s="573" t="s">
         <v>98</v>
       </c>
@@ -46319,9 +46317,9 @@
       <c r="U15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="V15" s="697"/>
-      <c r="W15" s="697"/>
-      <c r="X15" s="681"/>
+      <c r="V15" s="698"/>
+      <c r="W15" s="698"/>
+      <c r="X15" s="682"/>
     </row>
     <row r="16" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -46358,23 +46356,23 @@
         <f>'在庫情報（雨衣）'!BY16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="682">
+      <c r="L16" s="683">
         <v>20</v>
       </c>
-      <c r="M16" s="684">
+      <c r="M16" s="685">
         <v>20</v>
       </c>
-      <c r="N16" s="684">
+      <c r="N16" s="685">
         <v>20</v>
       </c>
-      <c r="O16" s="698">
+      <c r="O16" s="699">
         <v>26</v>
       </c>
-      <c r="P16" s="698">
+      <c r="P16" s="699">
         <v>26</v>
       </c>
-      <c r="Q16" s="686"/>
-      <c r="R16" s="679">
+      <c r="Q16" s="687"/>
+      <c r="R16" s="680">
         <f>SUM(F16:F18)*L16+SUM(G16:G18)*M16+SUM(H16:H18)*N16+SUM(I16:I18)*O16+SUM(J16:J18)*P16+SUM(K16:K18)*Q16</f>
         <v>0</v>
       </c>
@@ -46393,7 +46391,7 @@
       <c r="W16" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="X16" s="680"/>
+      <c r="X16" s="681"/>
     </row>
     <row r="17" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
@@ -46428,13 +46426,13 @@
         <f>'在庫情報（雨衣）'!BY17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="688"/>
-      <c r="M17" s="689"/>
-      <c r="N17" s="689"/>
-      <c r="O17" s="699"/>
-      <c r="P17" s="699"/>
+      <c r="L17" s="692"/>
+      <c r="M17" s="693"/>
+      <c r="N17" s="693"/>
+      <c r="O17" s="700"/>
+      <c r="P17" s="700"/>
       <c r="Q17" s="694"/>
-      <c r="R17" s="679"/>
+      <c r="R17" s="680"/>
       <c r="S17" s="573" t="s">
         <v>109</v>
       </c>
@@ -46450,7 +46448,7 @@
       <c r="W17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="X17" s="693"/>
+      <c r="X17" s="695"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -46485,13 +46483,13 @@
         <f>'在庫情報（雨衣）'!BY18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="683"/>
-      <c r="M18" s="685"/>
-      <c r="N18" s="685"/>
-      <c r="O18" s="700"/>
-      <c r="P18" s="700"/>
-      <c r="Q18" s="687"/>
-      <c r="R18" s="679"/>
+      <c r="L18" s="684"/>
+      <c r="M18" s="686"/>
+      <c r="N18" s="686"/>
+      <c r="O18" s="701"/>
+      <c r="P18" s="701"/>
+      <c r="Q18" s="688"/>
+      <c r="R18" s="680"/>
       <c r="S18" s="573" t="s">
         <v>106</v>
       </c>
@@ -46507,7 +46505,7 @@
       <c r="W18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="X18" s="681"/>
+      <c r="X18" s="682"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -46544,23 +46542,23 @@
         <f>'在庫情報（雨衣）'!BY19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="682">
+      <c r="L19" s="683">
         <v>38</v>
       </c>
-      <c r="M19" s="684">
+      <c r="M19" s="685">
         <v>38</v>
       </c>
-      <c r="N19" s="684">
+      <c r="N19" s="685">
         <v>38</v>
       </c>
-      <c r="O19" s="684">
+      <c r="O19" s="685">
         <v>38</v>
       </c>
-      <c r="P19" s="684">
+      <c r="P19" s="685">
         <v>38</v>
       </c>
-      <c r="Q19" s="686"/>
-      <c r="R19" s="679">
+      <c r="Q19" s="687"/>
+      <c r="R19" s="680">
         <f>SUM(F19:F21)*L19+SUM(G19:G21)*M19+SUM(H19:H21)*N19+SUM(I19:I21)*O19+SUM(J19:J21)*P19+SUM(K19:K21)*Q19</f>
         <v>0</v>
       </c>
@@ -46579,7 +46577,7 @@
       <c r="W19" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="X19" s="680"/>
+      <c r="X19" s="681"/>
     </row>
     <row r="20" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
@@ -46614,13 +46612,13 @@
         <f>'在庫情報（雨衣）'!BY20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="688"/>
-      <c r="M20" s="689"/>
-      <c r="N20" s="689"/>
-      <c r="O20" s="689"/>
-      <c r="P20" s="689"/>
+      <c r="L20" s="692"/>
+      <c r="M20" s="693"/>
+      <c r="N20" s="693"/>
+      <c r="O20" s="693"/>
+      <c r="P20" s="693"/>
       <c r="Q20" s="694"/>
-      <c r="R20" s="679"/>
+      <c r="R20" s="680"/>
       <c r="S20" s="573" t="s">
         <v>126</v>
       </c>
@@ -46636,7 +46634,7 @@
       <c r="W20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="X20" s="693"/>
+      <c r="X20" s="695"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -46671,13 +46669,13 @@
         <f>'在庫情報（雨衣）'!BY21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="683"/>
-      <c r="M21" s="685"/>
-      <c r="N21" s="685"/>
-      <c r="O21" s="685"/>
-      <c r="P21" s="685"/>
-      <c r="Q21" s="687"/>
-      <c r="R21" s="679"/>
+      <c r="L21" s="684"/>
+      <c r="M21" s="686"/>
+      <c r="N21" s="686"/>
+      <c r="O21" s="686"/>
+      <c r="P21" s="686"/>
+      <c r="Q21" s="688"/>
+      <c r="R21" s="680"/>
       <c r="S21" s="573" t="s">
         <v>131</v>
       </c>
@@ -46693,7 +46691,7 @@
       <c r="W21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="X21" s="681"/>
+      <c r="X21" s="682"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -46730,23 +46728,23 @@
         <f>'在庫情報（雨衣）'!BY22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="682">
+      <c r="L22" s="683">
         <v>25</v>
       </c>
-      <c r="M22" s="684">
+      <c r="M22" s="685">
         <v>25</v>
       </c>
-      <c r="N22" s="684">
+      <c r="N22" s="685">
         <v>25</v>
       </c>
-      <c r="O22" s="684">
+      <c r="O22" s="685">
         <v>25</v>
       </c>
-      <c r="P22" s="684">
+      <c r="P22" s="685">
         <v>25</v>
       </c>
-      <c r="Q22" s="686"/>
-      <c r="R22" s="679">
+      <c r="Q22" s="687"/>
+      <c r="R22" s="680">
         <f>SUM(F22:F23)*L22+SUM(G22:G23)*M22+SUM(H22:H23)*N22+SUM(I22:I23)*O22+SUM(J22:J23)*P22+SUM(K22:K23)*Q22</f>
         <v>0</v>
       </c>
@@ -46765,7 +46763,7 @@
       <c r="W22" s="93" t="s">
         <v>928</v>
       </c>
-      <c r="X22" s="680"/>
+      <c r="X22" s="681"/>
     </row>
     <row r="23" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
@@ -46800,13 +46798,13 @@
         <f>'在庫情報（雨衣）'!BY23</f>
         <v>0</v>
       </c>
-      <c r="L23" s="683"/>
-      <c r="M23" s="685"/>
-      <c r="N23" s="685"/>
-      <c r="O23" s="685"/>
-      <c r="P23" s="685"/>
-      <c r="Q23" s="687"/>
-      <c r="R23" s="679"/>
+      <c r="L23" s="684"/>
+      <c r="M23" s="686"/>
+      <c r="N23" s="686"/>
+      <c r="O23" s="686"/>
+      <c r="P23" s="686"/>
+      <c r="Q23" s="688"/>
+      <c r="R23" s="680"/>
       <c r="S23" s="573" t="s">
         <v>822</v>
       </c>
@@ -46822,7 +46820,7 @@
       <c r="W23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="X23" s="681"/>
+      <c r="X23" s="682"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -46859,25 +46857,25 @@
         <f>'在庫情報（雨衣）'!BY24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="682">
+      <c r="L24" s="683">
         <v>36</v>
       </c>
-      <c r="M24" s="684">
+      <c r="M24" s="685">
         <v>36</v>
       </c>
-      <c r="N24" s="684">
+      <c r="N24" s="685">
         <v>36</v>
       </c>
-      <c r="O24" s="684">
+      <c r="O24" s="685">
         <v>36</v>
       </c>
-      <c r="P24" s="684">
+      <c r="P24" s="685">
         <v>36</v>
       </c>
-      <c r="Q24" s="690">
+      <c r="Q24" s="689">
         <v>36</v>
       </c>
-      <c r="R24" s="679">
+      <c r="R24" s="680">
         <f>SUM(F24:F27)*L24+SUM(G24:G27)*M24+SUM(H24:H27)*N24+SUM(I24:I27)*O24+SUM(J24:J27)*P24+SUM(K24:K27)*Q24</f>
         <v>0</v>
       </c>
@@ -46933,13 +46931,13 @@
         <f>'在庫情報（雨衣）'!BY25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="688"/>
-      <c r="M25" s="689"/>
-      <c r="N25" s="689"/>
-      <c r="O25" s="689"/>
-      <c r="P25" s="689"/>
-      <c r="Q25" s="691"/>
-      <c r="R25" s="679"/>
+      <c r="L25" s="692"/>
+      <c r="M25" s="693"/>
+      <c r="N25" s="693"/>
+      <c r="O25" s="693"/>
+      <c r="P25" s="693"/>
+      <c r="Q25" s="690"/>
+      <c r="R25" s="680"/>
       <c r="S25" s="573" t="s">
         <v>144</v>
       </c>
@@ -46992,13 +46990,13 @@
         <f>'在庫情報（雨衣）'!BY26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="688"/>
-      <c r="M26" s="689"/>
-      <c r="N26" s="689"/>
-      <c r="O26" s="689"/>
-      <c r="P26" s="689"/>
-      <c r="Q26" s="691"/>
-      <c r="R26" s="679"/>
+      <c r="L26" s="692"/>
+      <c r="M26" s="693"/>
+      <c r="N26" s="693"/>
+      <c r="O26" s="693"/>
+      <c r="P26" s="693"/>
+      <c r="Q26" s="690"/>
+      <c r="R26" s="680"/>
       <c r="S26" s="573" t="s">
         <v>159</v>
       </c>
@@ -47051,13 +47049,13 @@
         <f>'在庫情報（雨衣）'!BY27</f>
         <v>0</v>
       </c>
-      <c r="L27" s="683"/>
-      <c r="M27" s="685"/>
-      <c r="N27" s="685"/>
-      <c r="O27" s="685"/>
-      <c r="P27" s="685"/>
-      <c r="Q27" s="692"/>
-      <c r="R27" s="679"/>
+      <c r="L27" s="684"/>
+      <c r="M27" s="686"/>
+      <c r="N27" s="686"/>
+      <c r="O27" s="686"/>
+      <c r="P27" s="686"/>
+      <c r="Q27" s="691"/>
+      <c r="R27" s="680"/>
       <c r="S27" s="573" t="s">
         <v>165</v>
       </c>
@@ -47180,23 +47178,23 @@
         <f>'在庫情報（雨衣）'!BY29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="682">
+      <c r="L29" s="683">
         <v>35</v>
       </c>
-      <c r="M29" s="684">
+      <c r="M29" s="685">
         <v>35</v>
       </c>
-      <c r="N29" s="684">
+      <c r="N29" s="685">
         <v>35</v>
       </c>
-      <c r="O29" s="684">
+      <c r="O29" s="685">
         <v>35</v>
       </c>
-      <c r="P29" s="684">
+      <c r="P29" s="685">
         <v>35</v>
       </c>
-      <c r="Q29" s="686"/>
-      <c r="R29" s="679">
+      <c r="Q29" s="687"/>
+      <c r="R29" s="680">
         <f>SUM(F29:F30)*L29+SUM(G29:G30)*M29+SUM(H29:H30)*N29+SUM(I29:I30)*O29+SUM(J29:J30)*P29+SUM(K29:K30)*Q29</f>
         <v>0</v>
       </c>
@@ -47215,7 +47213,7 @@
       <c r="W29" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="X29" s="680"/>
+      <c r="X29" s="681"/>
     </row>
     <row r="30" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
@@ -47250,13 +47248,13 @@
         <f>'在庫情報（雨衣）'!BY30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="683"/>
-      <c r="M30" s="685"/>
-      <c r="N30" s="685"/>
-      <c r="O30" s="685"/>
-      <c r="P30" s="685"/>
-      <c r="Q30" s="687"/>
-      <c r="R30" s="679"/>
+      <c r="L30" s="684"/>
+      <c r="M30" s="686"/>
+      <c r="N30" s="686"/>
+      <c r="O30" s="686"/>
+      <c r="P30" s="686"/>
+      <c r="Q30" s="688"/>
+      <c r="R30" s="680"/>
       <c r="S30" s="573" t="s">
         <v>179</v>
       </c>
@@ -47272,7 +47270,7 @@
       <c r="W30" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="X30" s="681"/>
+      <c r="X30" s="682"/>
     </row>
     <row r="31" spans="2:24" s="570" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B31"/>
@@ -47356,11 +47354,6 @@
     <mergeCell ref="X19:X21"/>
     <mergeCell ref="R22:R23"/>
     <mergeCell ref="X22:X23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
     <mergeCell ref="Q24:Q27"/>
     <mergeCell ref="R24:R27"/>
     <mergeCell ref="L22:L23"/>
@@ -47369,6 +47362,11 @@
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="P22:P23"/>
     <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
     <mergeCell ref="R29:R30"/>
     <mergeCell ref="X29:X30"/>
     <mergeCell ref="L29:L30"/>
@@ -47393,11 +47391,11 @@
   <dimension ref="B1:CE25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomRight" activeCell="BN4" sqref="BN4:BS11"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -47414,9 +47412,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:83" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BH1" s="676"/>
-      <c r="BI1" s="676"/>
-      <c r="BJ1" s="676"/>
+      <c r="BH1" s="677"/>
+      <c r="BI1" s="677"/>
+      <c r="BJ1" s="677"/>
     </row>
     <row r="2" spans="2:83" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="23" t="s">
@@ -47451,46 +47449,46 @@
       <c r="AA2" s="568"/>
       <c r="AB2" s="568"/>
       <c r="AC2" s="569"/>
-      <c r="AD2" s="673" t="s">
+      <c r="AD2" s="674" t="s">
         <v>689</v>
       </c>
-      <c r="AE2" s="674"/>
-      <c r="AF2" s="674"/>
-      <c r="AG2" s="674"/>
-      <c r="AH2" s="674"/>
-      <c r="AI2" s="675"/>
-      <c r="AJ2" s="673" t="s">
+      <c r="AE2" s="675"/>
+      <c r="AF2" s="675"/>
+      <c r="AG2" s="675"/>
+      <c r="AH2" s="675"/>
+      <c r="AI2" s="676"/>
+      <c r="AJ2" s="674" t="s">
         <v>938</v>
       </c>
-      <c r="AK2" s="674"/>
-      <c r="AL2" s="674"/>
-      <c r="AM2" s="674"/>
-      <c r="AN2" s="674"/>
-      <c r="AO2" s="675"/>
-      <c r="AP2" s="673" t="s">
+      <c r="AK2" s="675"/>
+      <c r="AL2" s="675"/>
+      <c r="AM2" s="675"/>
+      <c r="AN2" s="675"/>
+      <c r="AO2" s="676"/>
+      <c r="AP2" s="674" t="s">
         <v>542</v>
       </c>
-      <c r="AQ2" s="677"/>
-      <c r="AR2" s="677"/>
-      <c r="AS2" s="677"/>
-      <c r="AT2" s="677"/>
-      <c r="AU2" s="678"/>
-      <c r="AV2" s="673" t="s">
+      <c r="AQ2" s="678"/>
+      <c r="AR2" s="678"/>
+      <c r="AS2" s="678"/>
+      <c r="AT2" s="678"/>
+      <c r="AU2" s="679"/>
+      <c r="AV2" s="674" t="s">
         <v>939</v>
       </c>
-      <c r="AW2" s="677"/>
-      <c r="AX2" s="677"/>
-      <c r="AY2" s="677"/>
-      <c r="AZ2" s="677"/>
-      <c r="BA2" s="678"/>
-      <c r="BB2" s="673" t="s">
+      <c r="AW2" s="678"/>
+      <c r="AX2" s="678"/>
+      <c r="AY2" s="678"/>
+      <c r="AZ2" s="678"/>
+      <c r="BA2" s="679"/>
+      <c r="BB2" s="674" t="s">
         <v>940</v>
       </c>
-      <c r="BC2" s="674"/>
-      <c r="BD2" s="674"/>
-      <c r="BE2" s="674"/>
-      <c r="BF2" s="674"/>
-      <c r="BG2" s="675"/>
+      <c r="BC2" s="675"/>
+      <c r="BD2" s="675"/>
+      <c r="BE2" s="675"/>
+      <c r="BF2" s="675"/>
+      <c r="BG2" s="676"/>
       <c r="BH2" s="23" t="s">
         <v>941</v>
       </c>
@@ -47515,14 +47513,14 @@
       <c r="BW2" s="24"/>
       <c r="BX2" s="24"/>
       <c r="BY2" s="25"/>
-      <c r="BZ2" s="673" t="s">
+      <c r="BZ2" s="674" t="s">
         <v>540</v>
       </c>
-      <c r="CA2" s="674"/>
-      <c r="CB2" s="674"/>
-      <c r="CC2" s="674"/>
-      <c r="CD2" s="674"/>
-      <c r="CE2" s="675"/>
+      <c r="CA2" s="675"/>
+      <c r="CB2" s="675"/>
+      <c r="CC2" s="675"/>
+      <c r="CD2" s="675"/>
+      <c r="CE2" s="676"/>
     </row>
     <row r="3" spans="2:83" s="132" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">
@@ -49073,7 +49071,7 @@
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -49112,7 +49110,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="707" t="s">
+      <c r="R2" s="708" t="s">
         <v>274</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -49173,7 +49171,7 @@
       <c r="Q3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="R3" s="708"/>
+      <c r="R3" s="709"/>
       <c r="S3" s="7" t="s">
         <v>1000</v>
       </c>
@@ -49802,14 +49800,14 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:S12"/>
+  <dimension ref="B2:S13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -49832,232 +49830,198 @@
     <col min="20" max="20" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q1" s="278"/>
-    </row>
-    <row r="2" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="23" t="s">
+    <row r="2" spans="2:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q2" s="278"/>
+    </row>
+    <row r="3" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>1043</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>1044</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>1045</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H3" s="76" t="s">
         <v>1046</v>
       </c>
-      <c r="I2" s="567" t="s">
+      <c r="I3" s="567" t="s">
         <v>1047</v>
       </c>
-      <c r="J2" s="277" t="s">
+      <c r="J3" s="277" t="s">
         <v>1048</v>
       </c>
-      <c r="K2" s="277" t="s">
+      <c r="K3" s="277" t="s">
         <v>1049</v>
       </c>
-      <c r="L2" s="277" t="s">
+      <c r="L3" s="277" t="s">
         <v>542</v>
       </c>
-      <c r="M2" s="277" t="s">
+      <c r="M3" s="277" t="s">
         <v>538</v>
       </c>
-      <c r="N2" s="277" t="s">
+      <c r="N3" s="277" t="s">
         <v>539</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>1050</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P3" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q3" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="592" t="s">
+      <c r="R3" s="592" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="2:19" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="593" t="s">
+    <row r="4" spans="2:19" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="593" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595" t="s">
+      <c r="C4" s="594"/>
+      <c r="D4" s="595" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="595" t="s">
+      <c r="E4" s="595" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="596" t="s">
+      <c r="F4" s="596" t="s">
         <v>305</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="217">
-        <f>G3+H3+I3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="217">
-        <f t="shared" ref="Q3:Q12" si="0">O3+P3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="597" t="str">
-        <f t="shared" ref="R3:R12" si="1">IF( N3&lt;&gt;0,Q3/N3*7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="S3"/>
-    </row>
-    <row r="4" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600" t="s">
+      <c r="G4" s="215"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="217">
+        <f>G4+H4+I4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="217">
+        <f t="shared" ref="Q4:Q13" si="0">O4+P4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="597" t="str">
+        <f t="shared" ref="R4:R13" si="1">IF( N4&lt;&gt;0,Q4/N4*7,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="598"/>
+      <c r="C5" s="599"/>
+      <c r="D5" s="600" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="600" t="s">
+      <c r="E5" s="600" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F5" s="124" t="s">
         <v>1051</v>
       </c>
-      <c r="G4" s="601"/>
-      <c r="H4" s="602"/>
-      <c r="I4" s="602"/>
-      <c r="J4" s="601"/>
-      <c r="K4" s="601"/>
-      <c r="L4" s="603"/>
-      <c r="M4" s="603"/>
-      <c r="N4" s="603"/>
-      <c r="O4" s="604">
-        <f t="shared" ref="O4:O12" si="2">G4+H4+I4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="602"/>
-      <c r="Q4" s="604">
+      <c r="G5" s="601"/>
+      <c r="H5" s="602"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="601"/>
+      <c r="K5" s="601"/>
+      <c r="L5" s="603"/>
+      <c r="M5" s="603"/>
+      <c r="N5" s="603"/>
+      <c r="O5" s="604">
+        <f t="shared" ref="O5:O13" si="2">G5+H5+I5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="602"/>
+      <c r="Q5" s="604">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="605" t="str">
+      <c r="R5" s="605" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="49" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E6" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F6" s="101" t="s">
         <v>1052</v>
       </c>
-      <c r="G5" s="606"/>
-      <c r="H5" s="607"/>
-      <c r="I5" s="607"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="608"/>
-      <c r="M5" s="608"/>
-      <c r="N5" s="608"/>
-      <c r="O5" s="609">
+      <c r="G6" s="606"/>
+      <c r="H6" s="607"/>
+      <c r="I6" s="607"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="608"/>
+      <c r="M6" s="608"/>
+      <c r="N6" s="608"/>
+      <c r="O6" s="609">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P5" s="607"/>
-      <c r="Q5" s="609">
+      <c r="P6" s="607"/>
+      <c r="Q6" s="609">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="610" t="str">
+      <c r="R6" s="610" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="611" t="s">
+    <row r="7" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="611" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="612"/>
-      <c r="D6" s="613" t="s">
+      <c r="C7" s="612"/>
+      <c r="D7" s="613" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="613" t="s">
+      <c r="E7" s="613" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F7" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="G6" s="614"/>
-      <c r="H6" s="615"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="614"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="616"/>
-      <c r="M6" s="616"/>
-      <c r="N6" s="616"/>
-      <c r="O6" s="617">
+      <c r="G7" s="614"/>
+      <c r="H7" s="615"/>
+      <c r="I7" s="615"/>
+      <c r="J7" s="614"/>
+      <c r="K7" s="614"/>
+      <c r="L7" s="616"/>
+      <c r="M7" s="616"/>
+      <c r="N7" s="616"/>
+      <c r="O7" s="617">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="615"/>
-      <c r="Q6" s="617">
+      <c r="P7" s="615"/>
+      <c r="Q7" s="617">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="618" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="598"/>
-      <c r="C7" s="619"/>
-      <c r="D7" s="620" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="620" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="621" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="148"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="188">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="622" t="str">
+      <c r="R7" s="618" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -50066,13 +50030,13 @@
       <c r="B8" s="598"/>
       <c r="C8" s="619"/>
       <c r="D8" s="620" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E8" s="620" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="F8" s="621" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G8" s="148"/>
       <c r="H8" s="189"/>
@@ -50098,192 +50062,226 @@
     </row>
     <row r="9" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="598"/>
-      <c r="C9" s="599"/>
-      <c r="D9" s="600" t="s">
+      <c r="C9" s="619"/>
+      <c r="D9" s="620" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="620" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="621" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="148"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="622" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="598"/>
+      <c r="C10" s="599"/>
+      <c r="D10" s="600" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="600" t="s">
+      <c r="E10" s="600" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F10" s="124" t="s">
         <v>311</v>
       </c>
-      <c r="G9" s="601"/>
-      <c r="H9" s="602"/>
-      <c r="I9" s="602"/>
-      <c r="J9" s="601"/>
-      <c r="K9" s="601"/>
-      <c r="L9" s="603"/>
-      <c r="M9" s="603"/>
-      <c r="N9" s="603"/>
-      <c r="O9" s="604">
+      <c r="G10" s="601"/>
+      <c r="H10" s="602"/>
+      <c r="I10" s="602"/>
+      <c r="J10" s="601"/>
+      <c r="K10" s="601"/>
+      <c r="L10" s="603"/>
+      <c r="M10" s="603"/>
+      <c r="N10" s="603"/>
+      <c r="O10" s="604">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" s="602"/>
-      <c r="Q9" s="604">
+      <c r="P10" s="602"/>
+      <c r="Q10" s="604">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="605" t="str">
+      <c r="R10" s="605" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="611" t="s">
+    <row r="11" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="611" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="49" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E11" s="49" t="s">
         <v>726</v>
       </c>
-      <c r="F10" s="623" t="s">
+      <c r="F11" s="623" t="s">
         <v>1053</v>
       </c>
-      <c r="G10" s="624"/>
-      <c r="H10" s="625"/>
-      <c r="I10" s="625"/>
-      <c r="J10" s="624"/>
-      <c r="K10" s="624"/>
-      <c r="L10" s="626"/>
-      <c r="M10" s="626"/>
-      <c r="N10" s="626"/>
-      <c r="O10" s="627">
+      <c r="G11" s="624"/>
+      <c r="H11" s="625"/>
+      <c r="I11" s="625"/>
+      <c r="J11" s="624"/>
+      <c r="K11" s="624"/>
+      <c r="L11" s="626"/>
+      <c r="M11" s="626"/>
+      <c r="N11" s="626"/>
+      <c r="O11" s="627">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" s="625"/>
-      <c r="Q10" s="627">
+      <c r="P11" s="625"/>
+      <c r="Q11" s="627">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="628" t="str">
+      <c r="R11" s="628" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="611" t="s">
+    <row r="12" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="611" t="s">
         <v>1054</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="613" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="613" t="s">
         <v>1055</v>
       </c>
-      <c r="E11" s="629" t="s">
+      <c r="E12" s="629" t="s">
         <v>1056</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F12" s="123" t="s">
         <v>1057</v>
       </c>
-      <c r="G11" s="614"/>
-      <c r="H11" s="615"/>
-      <c r="I11" s="615"/>
-      <c r="J11" s="614"/>
-      <c r="K11" s="614"/>
-      <c r="L11" s="616"/>
-      <c r="M11" s="616"/>
-      <c r="N11" s="616"/>
-      <c r="O11" s="617">
+      <c r="G12" s="614"/>
+      <c r="H12" s="615"/>
+      <c r="I12" s="615"/>
+      <c r="J12" s="614"/>
+      <c r="K12" s="614"/>
+      <c r="L12" s="616"/>
+      <c r="M12" s="616"/>
+      <c r="N12" s="616"/>
+      <c r="O12" s="617">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="615"/>
-      <c r="Q11" s="617">
+      <c r="P12" s="615"/>
+      <c r="Q12" s="617">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="618" t="str">
+      <c r="R12" s="618" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="630"/>
-      <c r="C12" s="631"/>
-      <c r="D12" s="632" t="s">
+    <row r="13" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="630"/>
+      <c r="C13" s="631"/>
+      <c r="D13" s="632" t="s">
         <v>1058</v>
       </c>
-      <c r="E12" s="633" t="s">
+      <c r="E13" s="633" t="s">
         <v>1059</v>
       </c>
-      <c r="F12" s="634" t="s">
+      <c r="F13" s="634" t="s">
         <v>195</v>
       </c>
-      <c r="G12" s="160"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="197">
+      <c r="G13" s="160"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="197">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="197">
+      <c r="P13" s="196"/>
+      <c r="Q13" s="197">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="635" t="str">
+      <c r="R13" s="635" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N3:N12">
+  <conditionalFormatting sqref="N4:N13">
     <cfRule type="expression" dxfId="239" priority="10">
-      <formula>N3&gt;1</formula>
+      <formula>N4&gt;1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="238" priority="11">
-      <formula>N3&gt;0.5</formula>
+      <formula>N4&gt;0.5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="237" priority="12">
-      <formula>N3&gt;0</formula>
+      <formula>N4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O12">
+  <conditionalFormatting sqref="O4:O13">
     <cfRule type="expression" dxfId="236" priority="8">
-      <formula>AND(O3&lt;&gt;"",O3/N3&lt;4)</formula>
+      <formula>AND(O4&lt;&gt;"",O4/N4&lt;4)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="235" priority="9">
-      <formula>AND(O3&lt;&gt;"",O3=0)</formula>
+      <formula>AND(O4&lt;&gt;"",O4=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q12">
+  <conditionalFormatting sqref="Q4:Q13">
     <cfRule type="expression" dxfId="234" priority="6">
-      <formula>AND(Q3&lt;&gt;"",Q3/N3&lt;4)</formula>
+      <formula>AND(Q4&lt;&gt;"",Q4/N4&lt;4)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="233" priority="7">
-      <formula>AND(Q3&lt;&gt;"",Q3=0)</formula>
+      <formula>AND(Q4&lt;&gt;"",Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R12">
+  <conditionalFormatting sqref="R4:R13">
     <cfRule type="expression" dxfId="232" priority="3">
-      <formula>R3&lt;10</formula>
+      <formula>R4&lt;10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="231" priority="4">
-      <formula>R3&lt;20</formula>
+      <formula>R4&lt;20</formula>
     </cfRule>
     <cfRule type="expression" dxfId="230" priority="5">
-      <formula>R3&lt;50</formula>
+      <formula>R4&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G12">
+  <conditionalFormatting sqref="G4:G13">
     <cfRule type="expression" dxfId="229" priority="2">
-      <formula>AND(G3&lt;5,H3&gt;0)</formula>
+      <formula>AND(G4&lt;5,H4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I12">
+  <conditionalFormatting sqref="H4:I13">
     <cfRule type="expression" dxfId="228" priority="1">
-      <formula>OR(H3=0,H3="0")</formula>
+      <formula>OR(H4=0,H4="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50302,7 +50300,7 @@
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -50328,7 +50326,7 @@
       <c r="H2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="707" t="s">
+      <c r="I2" s="708" t="s">
         <v>274</v>
       </c>
     </row>
@@ -50348,7 +50346,7 @@
       <c r="F3" s="637"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="708"/>
+      <c r="I3" s="709"/>
     </row>
     <row r="4" spans="2:10" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B4" s="3" t="s">
@@ -50365,7 +50363,7 @@
         <v>189</v>
       </c>
       <c r="G4" s="54">
-        <f>'在庫情報（雨伞等）'!P3</f>
+        <f>'在庫情報（雨伞等）'!P4</f>
         <v>0</v>
       </c>
       <c r="H4" s="61">
@@ -50390,7 +50388,7 @@
         <v>187</v>
       </c>
       <c r="G5" s="54">
-        <f>'在庫情報（雨伞等）'!P4</f>
+        <f>'在庫情報（雨伞等）'!P5</f>
         <v>0</v>
       </c>
       <c r="H5" s="61">
@@ -50417,7 +50415,7 @@
         <v>191</v>
       </c>
       <c r="G6" s="54">
-        <f>'在庫情報（雨伞等）'!P5</f>
+        <f>'在庫情報（雨伞等）'!P6</f>
         <v>0</v>
       </c>
       <c r="H6" s="61">
@@ -50444,7 +50442,7 @@
         <v>188</v>
       </c>
       <c r="G7" s="54">
-        <f>'在庫情報（雨伞等）'!P6</f>
+        <f>'在庫情報（雨伞等）'!P7</f>
         <v>0</v>
       </c>
       <c r="H7" s="61">
@@ -50469,7 +50467,7 @@
         <v>192</v>
       </c>
       <c r="G8" s="54">
-        <f>'在庫情報（雨伞等）'!P7</f>
+        <f>'在庫情報（雨伞等）'!P8</f>
         <v>0</v>
       </c>
       <c r="H8" s="61">
@@ -50494,7 +50492,7 @@
         <v>190</v>
       </c>
       <c r="G9" s="54">
-        <f>'在庫情報（雨伞等）'!P8</f>
+        <f>'在庫情報（雨伞等）'!P9</f>
         <v>0</v>
       </c>
       <c r="H9" s="61">
@@ -50519,7 +50517,7 @@
         <v>186</v>
       </c>
       <c r="G10" s="54">
-        <f>'在庫情報（雨伞等）'!P9</f>
+        <f>'在庫情報（雨伞等）'!P10</f>
         <v>0</v>
       </c>
       <c r="H10" s="61">
@@ -50546,7 +50544,7 @@
         <v>193</v>
       </c>
       <c r="G11" s="68">
-        <f>'在庫情報（雨伞等）'!P10</f>
+        <f>'在庫情報（雨伞等）'!P11</f>
         <v>0</v>
       </c>
       <c r="H11" s="66">
@@ -50573,7 +50571,7 @@
         <v>1066</v>
       </c>
       <c r="G12" s="68">
-        <f>'在庫情報（雨伞等）'!P11</f>
+        <f>'在庫情報（雨伞等）'!P12</f>
         <v>0</v>
       </c>
       <c r="H12" s="66">
@@ -50598,7 +50596,7 @@
         <v>1069</v>
       </c>
       <c r="G13" s="54">
-        <f>'在庫情報（雨伞等）'!P12</f>
+        <f>'在庫情報（雨伞等）'!P13</f>
         <v>0</v>
       </c>
       <c r="H13" s="61">
@@ -50622,7 +50620,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="203" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -50639,7 +50637,7 @@
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomRight" activeCell="K128" sqref="K128"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -55826,9 +55824,7 @@
   </sheetPr>
   <dimension ref="B1:K133"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AI2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -58779,9 +58775,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:83" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BH1" s="676"/>
-      <c r="BI1" s="676"/>
-      <c r="BJ1" s="676"/>
+      <c r="BH1" s="677"/>
+      <c r="BI1" s="677"/>
+      <c r="BJ1" s="677"/>
     </row>
     <row r="2" spans="2:83" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="23" t="s">
@@ -58816,46 +58812,46 @@
       <c r="AA2" s="77"/>
       <c r="AB2" s="77"/>
       <c r="AC2" s="78"/>
-      <c r="AD2" s="673" t="s">
+      <c r="AD2" s="674" t="s">
         <v>541</v>
       </c>
-      <c r="AE2" s="674"/>
-      <c r="AF2" s="674"/>
-      <c r="AG2" s="674"/>
-      <c r="AH2" s="674"/>
-      <c r="AI2" s="675"/>
-      <c r="AJ2" s="673" t="s">
+      <c r="AE2" s="675"/>
+      <c r="AF2" s="675"/>
+      <c r="AG2" s="675"/>
+      <c r="AH2" s="675"/>
+      <c r="AI2" s="676"/>
+      <c r="AJ2" s="674" t="s">
         <v>313</v>
       </c>
-      <c r="AK2" s="674"/>
-      <c r="AL2" s="674"/>
-      <c r="AM2" s="674"/>
-      <c r="AN2" s="674"/>
-      <c r="AO2" s="675"/>
-      <c r="AP2" s="673" t="s">
+      <c r="AK2" s="675"/>
+      <c r="AL2" s="675"/>
+      <c r="AM2" s="675"/>
+      <c r="AN2" s="675"/>
+      <c r="AO2" s="676"/>
+      <c r="AP2" s="674" t="s">
         <v>542</v>
       </c>
-      <c r="AQ2" s="677"/>
-      <c r="AR2" s="677"/>
-      <c r="AS2" s="677"/>
-      <c r="AT2" s="677"/>
-      <c r="AU2" s="678"/>
-      <c r="AV2" s="673" t="s">
+      <c r="AQ2" s="678"/>
+      <c r="AR2" s="678"/>
+      <c r="AS2" s="678"/>
+      <c r="AT2" s="678"/>
+      <c r="AU2" s="679"/>
+      <c r="AV2" s="674" t="s">
         <v>543</v>
       </c>
-      <c r="AW2" s="677"/>
-      <c r="AX2" s="677"/>
-      <c r="AY2" s="677"/>
-      <c r="AZ2" s="677"/>
-      <c r="BA2" s="678"/>
-      <c r="BB2" s="673" t="s">
+      <c r="AW2" s="678"/>
+      <c r="AX2" s="678"/>
+      <c r="AY2" s="678"/>
+      <c r="AZ2" s="678"/>
+      <c r="BA2" s="679"/>
+      <c r="BB2" s="674" t="s">
         <v>544</v>
       </c>
-      <c r="BC2" s="674"/>
-      <c r="BD2" s="674"/>
-      <c r="BE2" s="674"/>
-      <c r="BF2" s="674"/>
-      <c r="BG2" s="675"/>
+      <c r="BC2" s="675"/>
+      <c r="BD2" s="675"/>
+      <c r="BE2" s="675"/>
+      <c r="BF2" s="675"/>
+      <c r="BG2" s="676"/>
       <c r="BH2" s="23" t="s">
         <v>184</v>
       </c>
@@ -58880,14 +58876,14 @@
       <c r="BW2" s="24"/>
       <c r="BX2" s="24"/>
       <c r="BY2" s="25"/>
-      <c r="BZ2" s="673" t="s">
+      <c r="BZ2" s="674" t="s">
         <v>540</v>
       </c>
-      <c r="CA2" s="674"/>
-      <c r="CB2" s="674"/>
-      <c r="CC2" s="674"/>
-      <c r="CD2" s="674"/>
-      <c r="CE2" s="675"/>
+      <c r="CA2" s="675"/>
+      <c r="CB2" s="675"/>
+      <c r="CC2" s="675"/>
+      <c r="CD2" s="675"/>
+      <c r="CE2" s="676"/>
     </row>
     <row r="3" spans="2:83" s="132" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" tabRatio="835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" tabRatio="835" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="在庫情報（雨衣）" sheetId="41" r:id="rId1"/>
@@ -7437,6 +7437,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7455,16 +7456,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7473,59 +7474,35 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7545,8 +7522,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7629,7 +7630,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -21893,7 +21893,7 @@
   </sheetPr>
   <dimension ref="B1:CQ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
@@ -21916,9 +21916,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:95" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BN1" s="667"/>
-      <c r="BO1" s="667"/>
-      <c r="BP1" s="667"/>
+      <c r="BN1" s="668"/>
+      <c r="BO1" s="668"/>
+      <c r="BP1" s="668"/>
     </row>
     <row r="2" spans="2:95" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="23" t="s">
@@ -21961,46 +21961,46 @@
       <c r="AG2" s="558"/>
       <c r="AH2" s="558"/>
       <c r="AI2" s="559"/>
-      <c r="AJ2" s="664" t="s">
+      <c r="AJ2" s="665" t="s">
         <v>689</v>
       </c>
-      <c r="AK2" s="665"/>
-      <c r="AL2" s="665"/>
-      <c r="AM2" s="665"/>
-      <c r="AN2" s="665"/>
-      <c r="AO2" s="666"/>
-      <c r="AP2" s="664" t="s">
+      <c r="AK2" s="666"/>
+      <c r="AL2" s="666"/>
+      <c r="AM2" s="666"/>
+      <c r="AN2" s="666"/>
+      <c r="AO2" s="667"/>
+      <c r="AP2" s="665" t="s">
         <v>690</v>
       </c>
-      <c r="AQ2" s="665"/>
-      <c r="AR2" s="665"/>
-      <c r="AS2" s="665"/>
-      <c r="AT2" s="665"/>
-      <c r="AU2" s="666"/>
-      <c r="AV2" s="664" t="s">
+      <c r="AQ2" s="666"/>
+      <c r="AR2" s="666"/>
+      <c r="AS2" s="666"/>
+      <c r="AT2" s="666"/>
+      <c r="AU2" s="667"/>
+      <c r="AV2" s="665" t="s">
         <v>542</v>
       </c>
-      <c r="AW2" s="668"/>
-      <c r="AX2" s="668"/>
-      <c r="AY2" s="668"/>
-      <c r="AZ2" s="668"/>
-      <c r="BA2" s="669"/>
-      <c r="BB2" s="664" t="s">
+      <c r="AW2" s="669"/>
+      <c r="AX2" s="669"/>
+      <c r="AY2" s="669"/>
+      <c r="AZ2" s="669"/>
+      <c r="BA2" s="670"/>
+      <c r="BB2" s="665" t="s">
         <v>538</v>
       </c>
-      <c r="BC2" s="668"/>
-      <c r="BD2" s="668"/>
-      <c r="BE2" s="668"/>
-      <c r="BF2" s="668"/>
-      <c r="BG2" s="669"/>
-      <c r="BH2" s="664" t="s">
+      <c r="BC2" s="669"/>
+      <c r="BD2" s="669"/>
+      <c r="BE2" s="669"/>
+      <c r="BF2" s="669"/>
+      <c r="BG2" s="670"/>
+      <c r="BH2" s="665" t="s">
         <v>539</v>
       </c>
-      <c r="BI2" s="665"/>
-      <c r="BJ2" s="665"/>
-      <c r="BK2" s="665"/>
-      <c r="BL2" s="665"/>
-      <c r="BM2" s="666"/>
+      <c r="BI2" s="666"/>
+      <c r="BJ2" s="666"/>
+      <c r="BK2" s="666"/>
+      <c r="BL2" s="666"/>
+      <c r="BM2" s="667"/>
       <c r="BN2" s="23" t="s">
         <v>691</v>
       </c>
@@ -22025,14 +22025,14 @@
       <c r="CC2" s="24"/>
       <c r="CD2" s="24"/>
       <c r="CE2" s="25"/>
-      <c r="CF2" s="664" t="s">
+      <c r="CF2" s="665" t="s">
         <v>694</v>
       </c>
-      <c r="CG2" s="665"/>
-      <c r="CH2" s="665"/>
-      <c r="CI2" s="665"/>
-      <c r="CJ2" s="665"/>
-      <c r="CK2" s="666"/>
+      <c r="CG2" s="666"/>
+      <c r="CH2" s="666"/>
+      <c r="CI2" s="666"/>
+      <c r="CJ2" s="666"/>
+      <c r="CK2" s="667"/>
     </row>
     <row r="3" spans="2:95" s="132" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">
@@ -26626,7 +26626,7 @@
       <c r="U2" s="56"/>
       <c r="V2" s="56"/>
       <c r="W2" s="57"/>
-      <c r="X2" s="670" t="s">
+      <c r="X2" s="699" t="s">
         <v>274</v>
       </c>
     </row>
@@ -26697,7 +26697,7 @@
       <c r="W3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X3" s="671"/>
+      <c r="X3" s="700"/>
     </row>
     <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
@@ -26725,7 +26725,7 @@
       <c r="J4" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="683"/>
+      <c r="K4" s="696"/>
       <c r="L4" s="133">
         <f>在庫情報R!BN4</f>
         <v>0</v>
@@ -26750,23 +26750,23 @@
         <f>在庫情報R!BS4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="672">
+      <c r="R4" s="674">
         <v>28</v>
       </c>
-      <c r="S4" s="675">
+      <c r="S4" s="676">
         <v>28</v>
       </c>
-      <c r="T4" s="675">
+      <c r="T4" s="676">
         <v>28</v>
       </c>
-      <c r="U4" s="675">
+      <c r="U4" s="676">
         <v>28</v>
       </c>
-      <c r="V4" s="675">
+      <c r="V4" s="676">
         <v>28</v>
       </c>
       <c r="W4" s="678"/>
-      <c r="X4" s="681">
+      <c r="X4" s="701">
         <f>SUM(L4:L6)*R4+SUM(M4:M6)*S4+SUM(N4:N6)*T4+SUM(O4:O6)*U4+SUM(P4:P6)*V4+SUM(Q4:Q6)*W4</f>
         <v>0</v>
       </c>
@@ -26795,7 +26795,7 @@
       <c r="J5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="684"/>
+      <c r="K5" s="697"/>
       <c r="L5" s="34">
         <f>在庫情報R!BN5</f>
         <v>0</v>
@@ -26820,13 +26820,13 @@
         <f>在庫情報R!BS5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="673"/>
-      <c r="S5" s="676"/>
-      <c r="T5" s="676"/>
-      <c r="U5" s="676"/>
-      <c r="V5" s="676"/>
-      <c r="W5" s="679"/>
-      <c r="X5" s="682"/>
+      <c r="R5" s="683"/>
+      <c r="S5" s="684"/>
+      <c r="T5" s="684"/>
+      <c r="U5" s="684"/>
+      <c r="V5" s="684"/>
+      <c r="W5" s="685"/>
+      <c r="X5" s="671"/>
     </row>
     <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -26852,7 +26852,7 @@
       <c r="J6" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="685"/>
+      <c r="K6" s="698"/>
       <c r="L6" s="30">
         <f>在庫情報R!BN6</f>
         <v>0</v>
@@ -26877,13 +26877,13 @@
         <f>在庫情報R!BS6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="674"/>
+      <c r="R6" s="675"/>
       <c r="S6" s="677"/>
       <c r="T6" s="677"/>
       <c r="U6" s="677"/>
       <c r="V6" s="677"/>
-      <c r="W6" s="680"/>
-      <c r="X6" s="682"/>
+      <c r="W6" s="679"/>
+      <c r="X6" s="671"/>
     </row>
     <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -26911,7 +26911,7 @@
       <c r="J7" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="686"/>
+      <c r="K7" s="672"/>
       <c r="L7" s="26">
         <f>在庫情報R!BN7</f>
         <v>0</v>
@@ -26936,23 +26936,23 @@
         <f>在庫情報R!BS7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="672">
+      <c r="R7" s="674">
         <v>34</v>
       </c>
-      <c r="S7" s="675">
+      <c r="S7" s="676">
         <v>34</v>
       </c>
-      <c r="T7" s="675">
+      <c r="T7" s="676">
         <v>34</v>
       </c>
-      <c r="U7" s="675">
+      <c r="U7" s="676">
         <v>34</v>
       </c>
-      <c r="V7" s="675">
+      <c r="V7" s="676">
         <v>34</v>
       </c>
       <c r="W7" s="678"/>
-      <c r="X7" s="682">
+      <c r="X7" s="671">
         <f>SUM(L7:L10)*R7+SUM(M7:M10)*S7+SUM(N7:N10)*T7+SUM(O7:O10)*U7+SUM(P7:P10)*V7+SUM(Q7:Q10)*W7</f>
         <v>0</v>
       </c>
@@ -26981,7 +26981,7 @@
       <c r="J8" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="687"/>
+      <c r="K8" s="686"/>
       <c r="L8" s="28">
         <f>在庫情報R!BN8</f>
         <v>0</v>
@@ -27006,13 +27006,13 @@
         <f>在庫情報R!BS8</f>
         <v>0</v>
       </c>
-      <c r="R8" s="673"/>
-      <c r="S8" s="676"/>
-      <c r="T8" s="676"/>
-      <c r="U8" s="676"/>
-      <c r="V8" s="676"/>
-      <c r="W8" s="679"/>
-      <c r="X8" s="682"/>
+      <c r="R8" s="683"/>
+      <c r="S8" s="684"/>
+      <c r="T8" s="684"/>
+      <c r="U8" s="684"/>
+      <c r="V8" s="684"/>
+      <c r="W8" s="685"/>
+      <c r="X8" s="671"/>
     </row>
     <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -27038,7 +27038,7 @@
       <c r="J9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="687"/>
+      <c r="K9" s="686"/>
       <c r="L9" s="28">
         <f>在庫情報R!BN9</f>
         <v>0</v>
@@ -27063,13 +27063,13 @@
         <f>在庫情報R!BS9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="673"/>
-      <c r="S9" s="676"/>
-      <c r="T9" s="676"/>
-      <c r="U9" s="676"/>
-      <c r="V9" s="676"/>
-      <c r="W9" s="679"/>
-      <c r="X9" s="682"/>
+      <c r="R9" s="683"/>
+      <c r="S9" s="684"/>
+      <c r="T9" s="684"/>
+      <c r="U9" s="684"/>
+      <c r="V9" s="684"/>
+      <c r="W9" s="685"/>
+      <c r="X9" s="671"/>
     </row>
     <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -27095,7 +27095,7 @@
       <c r="J10" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="688"/>
+      <c r="K10" s="673"/>
       <c r="L10" s="30">
         <f>在庫情報R!BN10</f>
         <v>0</v>
@@ -27120,13 +27120,13 @@
         <f>在庫情報R!BS10</f>
         <v>0</v>
       </c>
-      <c r="R10" s="674"/>
+      <c r="R10" s="675"/>
       <c r="S10" s="677"/>
       <c r="T10" s="677"/>
       <c r="U10" s="677"/>
       <c r="V10" s="677"/>
-      <c r="W10" s="680"/>
-      <c r="X10" s="682"/>
+      <c r="W10" s="679"/>
+      <c r="X10" s="671"/>
     </row>
     <row r="11" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -27181,25 +27181,25 @@
         <f>在庫情報R!BS11</f>
         <v>0</v>
       </c>
-      <c r="R11" s="672">
+      <c r="R11" s="674">
         <v>36</v>
       </c>
-      <c r="S11" s="675">
+      <c r="S11" s="676">
         <v>36</v>
       </c>
-      <c r="T11" s="675">
+      <c r="T11" s="676">
         <v>36</v>
       </c>
-      <c r="U11" s="675">
+      <c r="U11" s="676">
         <v>36</v>
       </c>
-      <c r="V11" s="675">
+      <c r="V11" s="676">
         <v>36</v>
       </c>
-      <c r="W11" s="692">
+      <c r="W11" s="680">
         <v>36</v>
       </c>
-      <c r="X11" s="682">
+      <c r="X11" s="671">
         <f>SUM(L11:L12)*R11+SUM(M11:M12)*S11+SUM(N11:N12)*T11+SUM(O11:O12)*U11+SUM(P11:P12)*V11+SUM(Q11:Q12)*W11</f>
         <v>0</v>
       </c>
@@ -27255,13 +27255,13 @@
         <f>在庫情報R!BS12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="674"/>
+      <c r="R12" s="675"/>
       <c r="S12" s="677"/>
       <c r="T12" s="677"/>
       <c r="U12" s="677"/>
       <c r="V12" s="677"/>
-      <c r="W12" s="693"/>
-      <c r="X12" s="682"/>
+      <c r="W12" s="682"/>
+      <c r="X12" s="671"/>
     </row>
     <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -27283,9 +27283,9 @@
       <c r="H13" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="694"/>
-      <c r="J13" s="694"/>
-      <c r="K13" s="686"/>
+      <c r="I13" s="687"/>
+      <c r="J13" s="687"/>
+      <c r="K13" s="672"/>
       <c r="L13" s="26">
         <f>在庫情報R!BN13</f>
         <v>0</v>
@@ -27310,19 +27310,19 @@
         <f>在庫情報R!BS13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="672">
+      <c r="R13" s="674">
         <v>20</v>
       </c>
-      <c r="S13" s="675">
+      <c r="S13" s="676">
         <v>20</v>
       </c>
-      <c r="T13" s="675">
+      <c r="T13" s="676">
         <v>20</v>
       </c>
-      <c r="U13" s="689"/>
-      <c r="V13" s="689"/>
+      <c r="U13" s="693"/>
+      <c r="V13" s="693"/>
       <c r="W13" s="678"/>
-      <c r="X13" s="682">
+      <c r="X13" s="671">
         <f>SUM(L13:L15)*R13+SUM(M13:M15)*S13+SUM(N13:N15)*T13+SUM(O13:O15)*U13+SUM(P13:P15)*V13+SUM(Q13:Q15)*W13</f>
         <v>0</v>
       </c>
@@ -27345,9 +27345,9 @@
       <c r="H14" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="695"/>
-      <c r="J14" s="695"/>
-      <c r="K14" s="687"/>
+      <c r="I14" s="688"/>
+      <c r="J14" s="688"/>
+      <c r="K14" s="686"/>
       <c r="L14" s="28">
         <f>在庫情報R!BN14</f>
         <v>0</v>
@@ -27372,13 +27372,13 @@
         <f>在庫情報R!BS14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="673"/>
-      <c r="S14" s="676"/>
-      <c r="T14" s="676"/>
-      <c r="U14" s="690"/>
-      <c r="V14" s="690"/>
-      <c r="W14" s="679"/>
-      <c r="X14" s="682"/>
+      <c r="R14" s="683"/>
+      <c r="S14" s="684"/>
+      <c r="T14" s="684"/>
+      <c r="U14" s="694"/>
+      <c r="V14" s="694"/>
+      <c r="W14" s="685"/>
+      <c r="X14" s="671"/>
     </row>
     <row r="15" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -27398,9 +27398,9 @@
       <c r="H15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="696"/>
-      <c r="J15" s="696"/>
-      <c r="K15" s="688"/>
+      <c r="I15" s="689"/>
+      <c r="J15" s="689"/>
+      <c r="K15" s="673"/>
       <c r="L15" s="30">
         <f>在庫情報R!BN15</f>
         <v>0</v>
@@ -27425,13 +27425,13 @@
         <f>在庫情報R!BS15</f>
         <v>0</v>
       </c>
-      <c r="R15" s="674"/>
+      <c r="R15" s="675"/>
       <c r="S15" s="677"/>
       <c r="T15" s="677"/>
-      <c r="U15" s="691"/>
-      <c r="V15" s="691"/>
-      <c r="W15" s="680"/>
-      <c r="X15" s="682"/>
+      <c r="U15" s="695"/>
+      <c r="V15" s="695"/>
+      <c r="W15" s="679"/>
+      <c r="X15" s="671"/>
     </row>
     <row r="16" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -27459,7 +27459,7 @@
       <c r="J16" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="686"/>
+      <c r="K16" s="672"/>
       <c r="L16" s="26">
         <f>在庫情報R!BN16</f>
         <v>0</v>
@@ -27484,23 +27484,23 @@
         <f>在庫情報R!BS16</f>
         <v>0</v>
       </c>
-      <c r="R16" s="672">
+      <c r="R16" s="674">
         <v>20</v>
       </c>
-      <c r="S16" s="675">
+      <c r="S16" s="676">
         <v>20</v>
       </c>
-      <c r="T16" s="675">
+      <c r="T16" s="676">
         <v>20</v>
       </c>
-      <c r="U16" s="697">
+      <c r="U16" s="690">
         <v>26</v>
       </c>
-      <c r="V16" s="697">
+      <c r="V16" s="690">
         <v>26</v>
       </c>
       <c r="W16" s="678"/>
-      <c r="X16" s="682">
+      <c r="X16" s="671">
         <f>SUM(L16:L18)*R16+SUM(M16:M18)*S16+SUM(N16:N18)*T16+SUM(O16:O18)*U16+SUM(P16:P18)*V16+SUM(Q16:Q18)*W16</f>
         <v>0</v>
       </c>
@@ -27529,7 +27529,7 @@
       <c r="J17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="687"/>
+      <c r="K17" s="686"/>
       <c r="L17" s="28">
         <f>在庫情報R!BN17</f>
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <f>在庫情報R!BS17</f>
         <v>0</v>
       </c>
-      <c r="R17" s="673"/>
-      <c r="S17" s="676"/>
-      <c r="T17" s="676"/>
-      <c r="U17" s="698"/>
-      <c r="V17" s="698"/>
-      <c r="W17" s="679"/>
-      <c r="X17" s="682"/>
+      <c r="R17" s="683"/>
+      <c r="S17" s="684"/>
+      <c r="T17" s="684"/>
+      <c r="U17" s="691"/>
+      <c r="V17" s="691"/>
+      <c r="W17" s="685"/>
+      <c r="X17" s="671"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -27586,7 +27586,7 @@
       <c r="J18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="688"/>
+      <c r="K18" s="673"/>
       <c r="L18" s="30">
         <f>在庫情報R!BN18</f>
         <v>0</v>
@@ -27611,13 +27611,13 @@
         <f>在庫情報R!BS18</f>
         <v>0</v>
       </c>
-      <c r="R18" s="674"/>
+      <c r="R18" s="675"/>
       <c r="S18" s="677"/>
       <c r="T18" s="677"/>
-      <c r="U18" s="699"/>
-      <c r="V18" s="699"/>
-      <c r="W18" s="680"/>
-      <c r="X18" s="682"/>
+      <c r="U18" s="692"/>
+      <c r="V18" s="692"/>
+      <c r="W18" s="679"/>
+      <c r="X18" s="671"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -27645,7 +27645,7 @@
       <c r="J19" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="686"/>
+      <c r="K19" s="672"/>
       <c r="L19" s="26">
         <f>在庫情報R!BN19</f>
         <v>0</v>
@@ -27670,23 +27670,23 @@
         <f>在庫情報R!BS19</f>
         <v>0</v>
       </c>
-      <c r="R19" s="672">
+      <c r="R19" s="674">
         <v>38</v>
       </c>
-      <c r="S19" s="675">
+      <c r="S19" s="676">
         <v>38</v>
       </c>
-      <c r="T19" s="675">
+      <c r="T19" s="676">
         <v>38</v>
       </c>
-      <c r="U19" s="675">
+      <c r="U19" s="676">
         <v>38</v>
       </c>
-      <c r="V19" s="675">
+      <c r="V19" s="676">
         <v>38</v>
       </c>
       <c r="W19" s="678"/>
-      <c r="X19" s="682">
+      <c r="X19" s="671">
         <f>SUM(L19:L21)*R19+SUM(M19:M21)*S19+SUM(N19:N21)*T19+SUM(O19:O21)*U19+SUM(P19:P21)*V19+SUM(Q19:Q21)*W19</f>
         <v>0</v>
       </c>
@@ -27715,7 +27715,7 @@
       <c r="J20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="687"/>
+      <c r="K20" s="686"/>
       <c r="L20" s="34">
         <f>在庫情報R!BN20</f>
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <f>在庫情報R!BS20</f>
         <v>0</v>
       </c>
-      <c r="R20" s="673"/>
-      <c r="S20" s="676"/>
-      <c r="T20" s="676"/>
-      <c r="U20" s="676"/>
-      <c r="V20" s="676"/>
-      <c r="W20" s="679"/>
-      <c r="X20" s="682"/>
+      <c r="R20" s="683"/>
+      <c r="S20" s="684"/>
+      <c r="T20" s="684"/>
+      <c r="U20" s="684"/>
+      <c r="V20" s="684"/>
+      <c r="W20" s="685"/>
+      <c r="X20" s="671"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -27772,7 +27772,7 @@
       <c r="J21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="688"/>
+      <c r="K21" s="673"/>
       <c r="L21" s="36">
         <f>在庫情報R!BN21</f>
         <v>0</v>
@@ -27797,13 +27797,13 @@
         <f>在庫情報R!BS21</f>
         <v>0</v>
       </c>
-      <c r="R21" s="674"/>
+      <c r="R21" s="675"/>
       <c r="S21" s="677"/>
       <c r="T21" s="677"/>
       <c r="U21" s="677"/>
       <c r="V21" s="677"/>
-      <c r="W21" s="680"/>
-      <c r="X21" s="682"/>
+      <c r="W21" s="679"/>
+      <c r="X21" s="671"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -27831,7 +27831,7 @@
       <c r="J22" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="686"/>
+      <c r="K22" s="672"/>
       <c r="L22" s="26">
         <f>在庫情報R!BN22</f>
         <v>0</v>
@@ -27856,23 +27856,23 @@
         <f>在庫情報R!BS22</f>
         <v>0</v>
       </c>
-      <c r="R22" s="672">
+      <c r="R22" s="674">
         <v>25</v>
       </c>
-      <c r="S22" s="675">
+      <c r="S22" s="676">
         <v>25</v>
       </c>
-      <c r="T22" s="675">
+      <c r="T22" s="676">
         <v>25</v>
       </c>
-      <c r="U22" s="675">
+      <c r="U22" s="676">
         <v>25</v>
       </c>
-      <c r="V22" s="675">
+      <c r="V22" s="676">
         <v>25</v>
       </c>
       <c r="W22" s="678"/>
-      <c r="X22" s="682">
+      <c r="X22" s="671">
         <f>SUM(L22:L23)*R22+SUM(M22:M23)*S22+SUM(N22:N23)*T22+SUM(O22:O23)*U22+SUM(P22:P23)*V22+SUM(Q22:Q23)*W22</f>
         <v>0</v>
       </c>
@@ -27901,7 +27901,7 @@
       <c r="J23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="688"/>
+      <c r="K23" s="673"/>
       <c r="L23" s="30">
         <f>在庫情報R!BN23</f>
         <v>0</v>
@@ -27926,13 +27926,13 @@
         <f>在庫情報R!BS23</f>
         <v>0</v>
       </c>
-      <c r="R23" s="674"/>
+      <c r="R23" s="675"/>
       <c r="S23" s="677"/>
       <c r="T23" s="677"/>
       <c r="U23" s="677"/>
       <c r="V23" s="677"/>
-      <c r="W23" s="680"/>
-      <c r="X23" s="682"/>
+      <c r="W23" s="679"/>
+      <c r="X23" s="671"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -27987,25 +27987,25 @@
         <f>在庫情報R!BS24</f>
         <v>0</v>
       </c>
-      <c r="R24" s="672">
+      <c r="R24" s="674">
         <v>36</v>
       </c>
-      <c r="S24" s="675">
+      <c r="S24" s="676">
         <v>36</v>
       </c>
-      <c r="T24" s="675">
+      <c r="T24" s="676">
         <v>36</v>
       </c>
-      <c r="U24" s="675">
+      <c r="U24" s="676">
         <v>36</v>
       </c>
-      <c r="V24" s="675">
+      <c r="V24" s="676">
         <v>36</v>
       </c>
-      <c r="W24" s="692">
+      <c r="W24" s="680">
         <v>36</v>
       </c>
-      <c r="X24" s="682">
+      <c r="X24" s="671">
         <f>SUM(L24:L27)*R24+SUM(M24:M27)*S24+SUM(N24:N27)*T24+SUM(O24:O27)*U24+SUM(P24:P27)*V24+SUM(Q24:Q27)*W24</f>
         <v>0</v>
       </c>
@@ -28061,13 +28061,13 @@
         <f>在庫情報R!BS25</f>
         <v>0</v>
       </c>
-      <c r="R25" s="673"/>
-      <c r="S25" s="676"/>
-      <c r="T25" s="676"/>
-      <c r="U25" s="676"/>
-      <c r="V25" s="676"/>
-      <c r="W25" s="700"/>
-      <c r="X25" s="682"/>
+      <c r="R25" s="683"/>
+      <c r="S25" s="684"/>
+      <c r="T25" s="684"/>
+      <c r="U25" s="684"/>
+      <c r="V25" s="684"/>
+      <c r="W25" s="681"/>
+      <c r="X25" s="671"/>
     </row>
     <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
@@ -28120,13 +28120,13 @@
         <f>在庫情報R!BS26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="673"/>
-      <c r="S26" s="676"/>
-      <c r="T26" s="676"/>
-      <c r="U26" s="676"/>
-      <c r="V26" s="676"/>
-      <c r="W26" s="700"/>
-      <c r="X26" s="682"/>
+      <c r="R26" s="683"/>
+      <c r="S26" s="684"/>
+      <c r="T26" s="684"/>
+      <c r="U26" s="684"/>
+      <c r="V26" s="684"/>
+      <c r="W26" s="681"/>
+      <c r="X26" s="671"/>
     </row>
     <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
@@ -28179,13 +28179,13 @@
         <f>在庫情報R!BS27</f>
         <v>0</v>
       </c>
-      <c r="R27" s="674"/>
+      <c r="R27" s="675"/>
       <c r="S27" s="677"/>
       <c r="T27" s="677"/>
       <c r="U27" s="677"/>
       <c r="V27" s="677"/>
-      <c r="W27" s="693"/>
-      <c r="X27" s="682"/>
+      <c r="W27" s="682"/>
+      <c r="X27" s="671"/>
     </row>
     <row r="28" spans="2:24" ht="140.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B28" s="5" t="s">
@@ -28281,7 +28281,7 @@
       <c r="J29" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="686"/>
+      <c r="K29" s="672"/>
       <c r="L29" s="26">
         <f>在庫情報R!BN29</f>
         <v>0</v>
@@ -28306,23 +28306,23 @@
         <f>在庫情報R!BS29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="672">
+      <c r="R29" s="674">
         <v>35</v>
       </c>
-      <c r="S29" s="675">
+      <c r="S29" s="676">
         <v>35</v>
       </c>
-      <c r="T29" s="675">
+      <c r="T29" s="676">
         <v>35</v>
       </c>
-      <c r="U29" s="675">
+      <c r="U29" s="676">
         <v>35</v>
       </c>
-      <c r="V29" s="675">
+      <c r="V29" s="676">
         <v>35</v>
       </c>
       <c r="W29" s="678"/>
-      <c r="X29" s="682">
+      <c r="X29" s="671">
         <f>SUM(L29:L30)*R29+SUM(M29:M30)*S29+SUM(N29:N30)*T29+SUM(O29:O30)*U29+SUM(P29:P30)*V29+SUM(Q29:Q30)*W29</f>
         <v>0</v>
       </c>
@@ -28351,7 +28351,7 @@
       <c r="J30" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="K30" s="688"/>
+      <c r="K30" s="673"/>
       <c r="L30" s="36">
         <f>在庫情報R!BN30</f>
         <v>0</v>
@@ -28376,13 +28376,13 @@
         <f>在庫情報R!BS30</f>
         <v>0</v>
       </c>
-      <c r="R30" s="674"/>
+      <c r="R30" s="675"/>
       <c r="S30" s="677"/>
       <c r="T30" s="677"/>
       <c r="U30" s="677"/>
       <c r="V30" s="677"/>
-      <c r="W30" s="680"/>
-      <c r="X30" s="682"/>
+      <c r="W30" s="679"/>
+      <c r="X30" s="671"/>
     </row>
     <row r="31" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
@@ -28427,15 +28427,15 @@
         <f>在庫情報R!BS31</f>
         <v>0</v>
       </c>
-      <c r="R31" s="701">
+      <c r="R31" s="702">
         <v>33</v>
       </c>
-      <c r="S31" s="689"/>
-      <c r="T31" s="689"/>
-      <c r="U31" s="689"/>
-      <c r="V31" s="689"/>
+      <c r="S31" s="693"/>
+      <c r="T31" s="693"/>
+      <c r="U31" s="693"/>
+      <c r="V31" s="693"/>
       <c r="W31" s="678"/>
-      <c r="X31" s="682">
+      <c r="X31" s="671">
         <f>SUM(L31:L32)*R31+SUM(M31:M32)*S31+SUM(N31:N32)*T31+SUM(O31:O32)*U31+SUM(P31:P32)*V31+SUM(Q31:Q32)*W31</f>
         <v>0</v>
       </c>
@@ -28481,13 +28481,13 @@
         <f>在庫情報R!BS32</f>
         <v>0</v>
       </c>
-      <c r="R32" s="702"/>
-      <c r="S32" s="691"/>
-      <c r="T32" s="691"/>
-      <c r="U32" s="691"/>
-      <c r="V32" s="691"/>
-      <c r="W32" s="680"/>
-      <c r="X32" s="703"/>
+      <c r="R32" s="703"/>
+      <c r="S32" s="695"/>
+      <c r="T32" s="695"/>
+      <c r="U32" s="695"/>
+      <c r="V32" s="695"/>
+      <c r="W32" s="679"/>
+      <c r="X32" s="704"/>
     </row>
     <row r="33" spans="2:24" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B33" s="3" t="s">
@@ -29515,20 +29515,58 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X7:X10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="V7:V10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W7:W10"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="X13:X15"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="T16:T18"/>
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W16:W18"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="W22:W23"/>
     <mergeCell ref="X24:X27"/>
     <mergeCell ref="X29:X30"/>
     <mergeCell ref="R24:R27"/>
@@ -29543,58 +29581,20 @@
     <mergeCell ref="T29:T30"/>
     <mergeCell ref="S29:S30"/>
     <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="X13:X15"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="T16:T18"/>
-    <mergeCell ref="U16:U18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="X16:X18"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W16:W18"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="U7:U10"/>
-    <mergeCell ref="V7:V10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W7:W10"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X7:X10"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29610,11 +29610,11 @@
   </sheetPr>
   <dimension ref="B1:W186"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -29678,7 +29678,7 @@
       <c r="M3" s="137" t="s">
         <v>325</v>
       </c>
-      <c r="N3" s="728" t="s">
+      <c r="N3" s="664" t="s">
         <v>1159</v>
       </c>
       <c r="O3" s="146" t="s">
@@ -29745,7 +29745,7 @@
       <c r="R4" s="341"/>
       <c r="S4" s="341"/>
       <c r="T4" s="339">
-        <f t="shared" ref="T4:T39" si="0">M4+L4</f>
+        <f>M4+L4+N4</f>
         <v>0</v>
       </c>
       <c r="U4" s="339"/>
@@ -29788,7 +29788,7 @@
       <c r="R5" s="343"/>
       <c r="S5" s="343"/>
       <c r="T5" s="342">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T5:T68" si="0">M5+L5+N5</f>
         <v>0</v>
       </c>
       <c r="U5" s="342"/>
@@ -29874,16 +29874,16 @@
       <c r="R7" s="400"/>
       <c r="S7" s="400"/>
       <c r="T7" s="401">
-        <f t="shared" ref="T7:T10" si="3">M7+L7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7" s="331"/>
       <c r="V7" s="401">
-        <f t="shared" ref="V7:V10" si="4">T7+U7</f>
+        <f t="shared" ref="V7:V10" si="3">T7+U7</f>
         <v>0</v>
       </c>
       <c r="W7" s="402" t="str">
-        <f t="shared" ref="W7:W10" si="5">IF(S7&gt;0,V7/S7*7,"-")</f>
+        <f t="shared" ref="W7:W10" si="4">IF(S7&gt;0,V7/S7*7,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -29917,16 +29917,16 @@
       <c r="R8" s="400"/>
       <c r="S8" s="400"/>
       <c r="T8" s="401">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U8" s="331"/>
       <c r="V8" s="401">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="402" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="402" t="str">
-        <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
@@ -29960,16 +29960,16 @@
       <c r="R9" s="400"/>
       <c r="S9" s="400"/>
       <c r="T9" s="401">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U9" s="331"/>
       <c r="V9" s="401">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="402" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="402" t="str">
-        <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
@@ -30003,16 +30003,16 @@
       <c r="R10" s="404"/>
       <c r="S10" s="404"/>
       <c r="T10" s="405">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10" s="333"/>
       <c r="V10" s="405">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="406" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="406" t="str">
-        <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
@@ -30339,7 +30339,7 @@
       <c r="D18" s="292" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="704"/>
+      <c r="E18" s="705"/>
       <c r="F18" s="339" t="s">
         <v>330</v>
       </c>
@@ -30382,7 +30382,7 @@
       <c r="B19" s="409"/>
       <c r="C19" s="409"/>
       <c r="D19" s="293"/>
-      <c r="E19" s="704"/>
+      <c r="E19" s="705"/>
       <c r="F19" s="342" t="s">
         <v>336</v>
       </c>
@@ -30425,7 +30425,7 @@
       <c r="B20" s="412"/>
       <c r="C20" s="413"/>
       <c r="D20" s="294"/>
-      <c r="E20" s="705"/>
+      <c r="E20" s="706"/>
       <c r="F20" s="344" t="s">
         <v>340</v>
       </c>
@@ -31351,7 +31351,7 @@
       <c r="R40" s="343"/>
       <c r="S40" s="343"/>
       <c r="T40" s="342">
-        <f t="shared" ref="T40:T71" si="6">M40+L40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U40" s="342"/>
@@ -31394,7 +31394,7 @@
       <c r="R41" s="347"/>
       <c r="S41" s="347"/>
       <c r="T41" s="345">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U41" s="345"/>
@@ -31443,7 +31443,7 @@
       <c r="R42" s="341"/>
       <c r="S42" s="341"/>
       <c r="T42" s="339">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U42" s="339"/>
@@ -31486,7 +31486,7 @@
       <c r="R43" s="343"/>
       <c r="S43" s="343"/>
       <c r="T43" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U43" s="342"/>
@@ -31529,7 +31529,7 @@
       <c r="R44" s="347"/>
       <c r="S44" s="347"/>
       <c r="T44" s="345">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U44" s="345"/>
@@ -31578,7 +31578,7 @@
       <c r="R45" s="341"/>
       <c r="S45" s="341"/>
       <c r="T45" s="339">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U45" s="339"/>
@@ -31621,7 +31621,7 @@
       <c r="R46" s="343"/>
       <c r="S46" s="343"/>
       <c r="T46" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U46" s="342"/>
@@ -31664,7 +31664,7 @@
       <c r="R47" s="347"/>
       <c r="S47" s="347"/>
       <c r="T47" s="345">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U47" s="345"/>
@@ -31713,7 +31713,7 @@
       <c r="R48" s="341"/>
       <c r="S48" s="341"/>
       <c r="T48" s="339">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U48" s="339"/>
@@ -31756,7 +31756,7 @@
       <c r="R49" s="343"/>
       <c r="S49" s="343"/>
       <c r="T49" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U49" s="342"/>
@@ -31799,7 +31799,7 @@
       <c r="R50" s="347"/>
       <c r="S50" s="347"/>
       <c r="T50" s="345">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U50" s="345"/>
@@ -31848,7 +31848,7 @@
       <c r="R51" s="396"/>
       <c r="S51" s="396"/>
       <c r="T51" s="397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U51" s="330"/>
@@ -31891,7 +31891,7 @@
       <c r="R52" s="400"/>
       <c r="S52" s="400"/>
       <c r="T52" s="401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U52" s="331"/>
@@ -31934,7 +31934,7 @@
       <c r="R53" s="404"/>
       <c r="S53" s="404"/>
       <c r="T53" s="405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U53" s="333"/>
@@ -31983,7 +31983,7 @@
       <c r="R54" s="396"/>
       <c r="S54" s="396"/>
       <c r="T54" s="397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U54" s="330"/>
@@ -32026,7 +32026,7 @@
       <c r="R55" s="400"/>
       <c r="S55" s="400"/>
       <c r="T55" s="401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U55" s="331"/>
@@ -32069,7 +32069,7 @@
       <c r="R56" s="404"/>
       <c r="S56" s="404"/>
       <c r="T56" s="405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U56" s="333"/>
@@ -32118,7 +32118,7 @@
       <c r="R57" s="396"/>
       <c r="S57" s="396"/>
       <c r="T57" s="397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U57" s="330"/>
@@ -32161,7 +32161,7 @@
       <c r="R58" s="400"/>
       <c r="S58" s="400"/>
       <c r="T58" s="401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U58" s="331"/>
@@ -32204,7 +32204,7 @@
       <c r="R59" s="404"/>
       <c r="S59" s="404"/>
       <c r="T59" s="405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U59" s="333"/>
@@ -32253,7 +32253,7 @@
       <c r="R60" s="396"/>
       <c r="S60" s="396"/>
       <c r="T60" s="397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U60" s="330"/>
@@ -32296,7 +32296,7 @@
       <c r="R61" s="400"/>
       <c r="S61" s="400"/>
       <c r="T61" s="401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U61" s="331"/>
@@ -32339,7 +32339,7 @@
       <c r="R62" s="400"/>
       <c r="S62" s="400"/>
       <c r="T62" s="401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U62" s="331"/>
@@ -32382,7 +32382,7 @@
       <c r="R63" s="400"/>
       <c r="S63" s="400"/>
       <c r="T63" s="401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U63" s="331"/>
@@ -32425,7 +32425,7 @@
       <c r="R64" s="404"/>
       <c r="S64" s="404"/>
       <c r="T64" s="405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U64" s="333"/>
@@ -32474,7 +32474,7 @@
       <c r="R65" s="421"/>
       <c r="S65" s="421"/>
       <c r="T65" s="397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U65" s="422"/>
@@ -32517,7 +32517,7 @@
       <c r="R66" s="423"/>
       <c r="S66" s="423"/>
       <c r="T66" s="401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U66" s="331"/>
@@ -32560,7 +32560,7 @@
       <c r="R67" s="424"/>
       <c r="S67" s="424"/>
       <c r="T67" s="405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U67" s="333"/>
@@ -32609,7 +32609,7 @@
       <c r="R68" s="363"/>
       <c r="S68" s="363"/>
       <c r="T68" s="339">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U68" s="339"/>
@@ -32652,7 +32652,7 @@
       <c r="R69" s="365"/>
       <c r="S69" s="365"/>
       <c r="T69" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T69:T132" si="5">M69+L69+N69</f>
         <v>0</v>
       </c>
       <c r="U69" s="342"/>
@@ -32695,7 +32695,7 @@
       <c r="R70" s="366"/>
       <c r="S70" s="366"/>
       <c r="T70" s="345">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U70" s="345"/>
@@ -32744,7 +32744,7 @@
       <c r="R71" s="421"/>
       <c r="S71" s="421"/>
       <c r="T71" s="397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U71" s="330"/>
@@ -32787,7 +32787,7 @@
       <c r="R72" s="423"/>
       <c r="S72" s="423"/>
       <c r="T72" s="401">
-        <f t="shared" ref="T72:T103" si="7">M72+L72</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U72" s="331"/>
@@ -32830,16 +32830,16 @@
       <c r="R73" s="424"/>
       <c r="S73" s="424"/>
       <c r="T73" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U73" s="333"/>
       <c r="V73" s="405">
-        <f t="shared" ref="V73:V120" si="8">T73+U73</f>
+        <f t="shared" ref="V73:V120" si="6">T73+U73</f>
         <v>0</v>
       </c>
       <c r="W73" s="406" t="str">
-        <f t="shared" ref="W73:W120" si="9">IF(S73&gt;0,V73/S73*7,"-")</f>
+        <f t="shared" ref="W73:W120" si="7">IF(S73&gt;0,V73/S73*7,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -32879,16 +32879,16 @@
       <c r="R74" s="421"/>
       <c r="S74" s="421"/>
       <c r="T74" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U74" s="330"/>
       <c r="V74" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W74" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -32922,16 +32922,16 @@
       <c r="R75" s="423"/>
       <c r="S75" s="423"/>
       <c r="T75" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U75" s="331"/>
       <c r="V75" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W75" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -32965,16 +32965,16 @@
       <c r="R76" s="424"/>
       <c r="S76" s="424"/>
       <c r="T76" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U76" s="333"/>
       <c r="V76" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W76" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33014,16 +33014,16 @@
       <c r="R77" s="421"/>
       <c r="S77" s="421"/>
       <c r="T77" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U77" s="330"/>
       <c r="V77" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W77" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33057,16 +33057,16 @@
       <c r="R78" s="423"/>
       <c r="S78" s="423"/>
       <c r="T78" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U78" s="331"/>
       <c r="V78" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W78" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33100,16 +33100,16 @@
       <c r="R79" s="424"/>
       <c r="S79" s="424"/>
       <c r="T79" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U79" s="333"/>
       <c r="V79" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W79" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33149,16 +33149,16 @@
       <c r="R80" s="396"/>
       <c r="S80" s="396"/>
       <c r="T80" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U80" s="422"/>
       <c r="V80" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W80" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33192,16 +33192,16 @@
       <c r="R81" s="400"/>
       <c r="S81" s="400"/>
       <c r="T81" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U81" s="331"/>
       <c r="V81" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W81" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33235,16 +33235,16 @@
       <c r="R82" s="404"/>
       <c r="S82" s="404"/>
       <c r="T82" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U82" s="333"/>
       <c r="V82" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W82" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33284,16 +33284,16 @@
       <c r="R83" s="396"/>
       <c r="S83" s="396"/>
       <c r="T83" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U83" s="330"/>
       <c r="V83" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W83" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33327,16 +33327,16 @@
       <c r="R84" s="400"/>
       <c r="S84" s="400"/>
       <c r="T84" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U84" s="331"/>
       <c r="V84" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W84" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33370,16 +33370,16 @@
       <c r="R85" s="404"/>
       <c r="S85" s="404"/>
       <c r="T85" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U85" s="333"/>
       <c r="V85" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W85" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33419,16 +33419,16 @@
       <c r="R86" s="396"/>
       <c r="S86" s="396"/>
       <c r="T86" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U86" s="330"/>
       <c r="V86" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W86" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33462,16 +33462,16 @@
       <c r="R87" s="400"/>
       <c r="S87" s="400"/>
       <c r="T87" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U87" s="331"/>
       <c r="V87" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W87" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33505,16 +33505,16 @@
       <c r="R88" s="404"/>
       <c r="S88" s="404"/>
       <c r="T88" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U88" s="333"/>
       <c r="V88" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W88" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33554,16 +33554,16 @@
       <c r="R89" s="396"/>
       <c r="S89" s="396"/>
       <c r="T89" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U89" s="330"/>
       <c r="V89" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W89" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33597,16 +33597,16 @@
       <c r="R90" s="400"/>
       <c r="S90" s="400"/>
       <c r="T90" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U90" s="331"/>
       <c r="V90" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W90" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33640,16 +33640,16 @@
       <c r="R91" s="404"/>
       <c r="S91" s="404"/>
       <c r="T91" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U91" s="333"/>
       <c r="V91" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W91" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33689,16 +33689,16 @@
       <c r="R92" s="396"/>
       <c r="S92" s="396"/>
       <c r="T92" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U92" s="330"/>
       <c r="V92" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W92" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33732,16 +33732,16 @@
       <c r="R93" s="400"/>
       <c r="S93" s="400"/>
       <c r="T93" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U93" s="331"/>
       <c r="V93" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W93" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33775,16 +33775,16 @@
       <c r="R94" s="404"/>
       <c r="S94" s="404"/>
       <c r="T94" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U94" s="333"/>
       <c r="V94" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W94" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33824,16 +33824,16 @@
       <c r="R95" s="396"/>
       <c r="S95" s="396"/>
       <c r="T95" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U95" s="330"/>
       <c r="V95" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W95" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33867,16 +33867,16 @@
       <c r="R96" s="400"/>
       <c r="S96" s="400"/>
       <c r="T96" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U96" s="331"/>
       <c r="V96" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W96" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -33910,28 +33910,28 @@
       <c r="R97" s="404"/>
       <c r="S97" s="404"/>
       <c r="T97" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U97" s="333"/>
       <c r="V97" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W97" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="98" spans="2:23" s="394" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="715"/>
+      <c r="B98" s="716"/>
       <c r="C98" s="281" t="s">
         <v>371</v>
       </c>
       <c r="D98" s="286" t="s">
         <v>497</v>
       </c>
-      <c r="E98" s="712"/>
+      <c r="E98" s="713"/>
       <c r="F98" s="351" t="s">
         <v>330</v>
       </c>
@@ -33957,24 +33957,24 @@
       <c r="R98" s="396"/>
       <c r="S98" s="396"/>
       <c r="T98" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U98" s="330"/>
       <c r="V98" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W98" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="99" spans="2:23" s="394" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="715"/>
+      <c r="B99" s="716"/>
       <c r="C99" s="282"/>
       <c r="D99" s="287"/>
-      <c r="E99" s="713"/>
+      <c r="E99" s="714"/>
       <c r="F99" s="353" t="s">
         <v>336</v>
       </c>
@@ -34000,24 +34000,24 @@
       <c r="R99" s="400"/>
       <c r="S99" s="400"/>
       <c r="T99" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U99" s="331"/>
       <c r="V99" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W99" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="100" spans="2:23" s="394" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="716"/>
+      <c r="B100" s="717"/>
       <c r="C100" s="283"/>
       <c r="D100" s="288"/>
-      <c r="E100" s="714"/>
+      <c r="E100" s="715"/>
       <c r="F100" s="355" t="s">
         <v>340</v>
       </c>
@@ -34043,16 +34043,16 @@
       <c r="R100" s="404"/>
       <c r="S100" s="404"/>
       <c r="T100" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U100" s="333"/>
       <c r="V100" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W100" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34092,16 +34092,16 @@
       <c r="R101" s="396"/>
       <c r="S101" s="396"/>
       <c r="T101" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U101" s="330"/>
       <c r="V101" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W101" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34135,16 +34135,16 @@
       <c r="R102" s="400"/>
       <c r="S102" s="400"/>
       <c r="T102" s="401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U102" s="331"/>
       <c r="V102" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W102" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34178,21 +34178,21 @@
       <c r="R103" s="404"/>
       <c r="S103" s="404"/>
       <c r="T103" s="405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U103" s="333"/>
       <c r="V103" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W103" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="104" spans="2:23" s="394" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="715"/>
+      <c r="B104" s="716"/>
       <c r="C104" s="281" t="s">
         <v>371</v>
       </c>
@@ -34225,21 +34225,21 @@
       <c r="R104" s="396"/>
       <c r="S104" s="396"/>
       <c r="T104" s="397">
-        <f t="shared" ref="T104:T120" si="10">M104+L104</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U104" s="330"/>
       <c r="V104" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W104" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="105" spans="2:23" s="394" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="715"/>
+      <c r="B105" s="716"/>
       <c r="C105" s="282"/>
       <c r="D105" s="287"/>
       <c r="E105" s="426"/>
@@ -34268,21 +34268,21 @@
       <c r="R105" s="400"/>
       <c r="S105" s="400"/>
       <c r="T105" s="401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U105" s="331"/>
       <c r="V105" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W105" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="106" spans="2:23" s="394" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="716"/>
+      <c r="B106" s="717"/>
       <c r="C106" s="283"/>
       <c r="D106" s="288"/>
       <c r="E106" s="268"/>
@@ -34311,16 +34311,16 @@
       <c r="R106" s="404"/>
       <c r="S106" s="404"/>
       <c r="T106" s="405">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U106" s="333"/>
       <c r="V106" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W106" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34360,16 +34360,16 @@
       <c r="R107" s="396"/>
       <c r="S107" s="396"/>
       <c r="T107" s="397">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U107" s="330"/>
       <c r="V107" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W107" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34403,16 +34403,16 @@
       <c r="R108" s="400"/>
       <c r="S108" s="400"/>
       <c r="T108" s="401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U108" s="331"/>
       <c r="V108" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W108" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34446,16 +34446,16 @@
       <c r="R109" s="400"/>
       <c r="S109" s="400"/>
       <c r="T109" s="401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U109" s="331"/>
       <c r="V109" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W109" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34489,16 +34489,16 @@
       <c r="R110" s="404"/>
       <c r="S110" s="404"/>
       <c r="T110" s="405">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U110" s="333"/>
       <c r="V110" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W110" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34536,16 +34536,16 @@
       <c r="R111" s="396"/>
       <c r="S111" s="396"/>
       <c r="T111" s="397">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U111" s="330"/>
       <c r="V111" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W111" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34579,16 +34579,16 @@
       <c r="R112" s="400"/>
       <c r="S112" s="400"/>
       <c r="T112" s="401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U112" s="331"/>
       <c r="V112" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W112" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34622,16 +34622,16 @@
       <c r="R113" s="400"/>
       <c r="S113" s="400"/>
       <c r="T113" s="401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U113" s="331"/>
       <c r="V113" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W113" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34665,16 +34665,16 @@
       <c r="R114" s="404"/>
       <c r="S114" s="404"/>
       <c r="T114" s="405">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U114" s="333"/>
       <c r="V114" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W114" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34714,16 +34714,16 @@
       <c r="R115" s="396"/>
       <c r="S115" s="396"/>
       <c r="T115" s="397">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U115" s="330"/>
       <c r="V115" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W115" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34757,16 +34757,16 @@
       <c r="R116" s="400"/>
       <c r="S116" s="400"/>
       <c r="T116" s="401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U116" s="331"/>
       <c r="V116" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W116" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34800,16 +34800,16 @@
       <c r="R117" s="404"/>
       <c r="S117" s="404"/>
       <c r="T117" s="405">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U117" s="333"/>
       <c r="V117" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W117" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34847,16 +34847,16 @@
       <c r="R118" s="396"/>
       <c r="S118" s="396"/>
       <c r="T118" s="397">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U118" s="330"/>
       <c r="V118" s="397">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W118" s="398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34890,16 +34890,16 @@
       <c r="R119" s="400"/>
       <c r="S119" s="400"/>
       <c r="T119" s="401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U119" s="331"/>
       <c r="V119" s="401">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W119" s="402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34933,16 +34933,16 @@
       <c r="R120" s="404"/>
       <c r="S120" s="404"/>
       <c r="T120" s="405">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U120" s="333"/>
       <c r="V120" s="405">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W120" s="406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -34982,16 +34982,16 @@
       <c r="R121" s="396"/>
       <c r="S121" s="396"/>
       <c r="T121" s="397">
-        <f t="shared" ref="T121:T140" si="11">M121+L121</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U121" s="330"/>
       <c r="V121" s="397">
-        <f t="shared" ref="V121:V140" si="12">T121+U121</f>
+        <f t="shared" ref="V121:V140" si="8">T121+U121</f>
         <v>0</v>
       </c>
       <c r="W121" s="398" t="str">
-        <f t="shared" ref="W121:W140" si="13">IF(S121&gt;0,V121/S121*7,"-")</f>
+        <f t="shared" ref="W121:W140" si="9">IF(S121&gt;0,V121/S121*7,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -35025,16 +35025,16 @@
       <c r="R122" s="400"/>
       <c r="S122" s="400"/>
       <c r="T122" s="401">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U122" s="331"/>
       <c r="V122" s="401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W122" s="402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35068,16 +35068,16 @@
       <c r="R123" s="404"/>
       <c r="S123" s="404"/>
       <c r="T123" s="405">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U123" s="333"/>
       <c r="V123" s="405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W123" s="406" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35113,16 +35113,16 @@
       <c r="R124" s="396"/>
       <c r="S124" s="396"/>
       <c r="T124" s="397">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U124" s="330"/>
       <c r="V124" s="397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W124" s="398" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35156,16 +35156,16 @@
       <c r="R125" s="400"/>
       <c r="S125" s="400"/>
       <c r="T125" s="401">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U125" s="331"/>
       <c r="V125" s="401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W125" s="402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35199,16 +35199,16 @@
       <c r="R126" s="404"/>
       <c r="S126" s="404"/>
       <c r="T126" s="405">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U126" s="333"/>
       <c r="V126" s="405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W126" s="406" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35244,16 +35244,16 @@
       <c r="R127" s="396"/>
       <c r="S127" s="396"/>
       <c r="T127" s="397">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U127" s="330"/>
       <c r="V127" s="397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W127" s="398" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35287,16 +35287,16 @@
       <c r="R128" s="400"/>
       <c r="S128" s="400"/>
       <c r="T128" s="401">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U128" s="331"/>
       <c r="V128" s="401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W128" s="402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35330,16 +35330,16 @@
       <c r="R129" s="404"/>
       <c r="S129" s="404"/>
       <c r="T129" s="405">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U129" s="333"/>
       <c r="V129" s="405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W129" s="406" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35375,16 +35375,16 @@
       <c r="R130" s="396"/>
       <c r="S130" s="396"/>
       <c r="T130" s="397">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U130" s="330"/>
       <c r="V130" s="397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W130" s="398" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35418,16 +35418,16 @@
       <c r="R131" s="400"/>
       <c r="S131" s="400"/>
       <c r="T131" s="401">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U131" s="331"/>
       <c r="V131" s="401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W131" s="402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35461,16 +35461,16 @@
       <c r="R132" s="404"/>
       <c r="S132" s="404"/>
       <c r="T132" s="405">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U132" s="333"/>
       <c r="V132" s="405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W132" s="406" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35484,7 +35484,7 @@
       <c r="D133" s="286" t="s">
         <v>591</v>
       </c>
-      <c r="E133" s="706"/>
+      <c r="E133" s="707"/>
       <c r="F133" s="330" t="s">
         <v>330</v>
       </c>
@@ -35510,16 +35510,16 @@
       <c r="R133" s="396"/>
       <c r="S133" s="396"/>
       <c r="T133" s="397">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="T133:T186" si="10">M133+L133+N133</f>
         <v>0</v>
       </c>
       <c r="U133" s="330"/>
       <c r="V133" s="397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W133" s="398" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35527,7 +35527,7 @@
       <c r="B134" s="282"/>
       <c r="C134" s="282"/>
       <c r="D134" s="287"/>
-      <c r="E134" s="707"/>
+      <c r="E134" s="708"/>
       <c r="F134" s="331" t="s">
         <v>336</v>
       </c>
@@ -35553,16 +35553,16 @@
       <c r="R134" s="400"/>
       <c r="S134" s="400"/>
       <c r="T134" s="401">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U134" s="331"/>
       <c r="V134" s="401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W134" s="402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35570,7 +35570,7 @@
       <c r="B135" s="282"/>
       <c r="C135" s="433"/>
       <c r="D135" s="287"/>
-      <c r="E135" s="707"/>
+      <c r="E135" s="708"/>
       <c r="F135" s="331" t="s">
         <v>340</v>
       </c>
@@ -35596,16 +35596,16 @@
       <c r="R135" s="400"/>
       <c r="S135" s="400"/>
       <c r="T135" s="401">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U135" s="331"/>
       <c r="V135" s="401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W135" s="402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35613,7 +35613,7 @@
       <c r="B136" s="282"/>
       <c r="C136" s="282"/>
       <c r="D136" s="288"/>
-      <c r="E136" s="708"/>
+      <c r="E136" s="709"/>
       <c r="F136" s="333" t="s">
         <v>352</v>
       </c>
@@ -35639,16 +35639,16 @@
       <c r="R136" s="404"/>
       <c r="S136" s="404"/>
       <c r="T136" s="405">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U136" s="333"/>
       <c r="V136" s="405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W136" s="406" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35684,16 +35684,16 @@
       <c r="R137" s="396"/>
       <c r="S137" s="396"/>
       <c r="T137" s="397">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U137" s="330"/>
       <c r="V137" s="397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W137" s="398" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35727,16 +35727,16 @@
       <c r="R138" s="400"/>
       <c r="S138" s="400"/>
       <c r="T138" s="401">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U138" s="331"/>
       <c r="V138" s="401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W138" s="402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35770,16 +35770,16 @@
       <c r="R139" s="400"/>
       <c r="S139" s="400"/>
       <c r="T139" s="401">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U139" s="331"/>
       <c r="V139" s="401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W139" s="402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35813,16 +35813,16 @@
       <c r="R140" s="404"/>
       <c r="S140" s="404"/>
       <c r="T140" s="405">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U140" s="333"/>
       <c r="V140" s="405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W140" s="406" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
     </row>
@@ -35862,16 +35862,16 @@
       <c r="R141" s="396"/>
       <c r="S141" s="396"/>
       <c r="T141" s="397">
-        <f t="shared" ref="T141:T186" si="14">M141+L141</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U141" s="330"/>
       <c r="V141" s="397">
-        <f t="shared" ref="V141:V186" si="15">T141+U141</f>
+        <f t="shared" ref="V141:V186" si="11">T141+U141</f>
         <v>0</v>
       </c>
       <c r="W141" s="398" t="str">
-        <f t="shared" ref="W141:W186" si="16">IF(S141&gt;0,V141/S141*7,"-")</f>
+        <f t="shared" ref="W141:W186" si="12">IF(S141&gt;0,V141/S141*7,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -35907,16 +35907,16 @@
       <c r="R142" s="400"/>
       <c r="S142" s="400"/>
       <c r="T142" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U142" s="331"/>
       <c r="V142" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W142" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -35950,16 +35950,16 @@
       <c r="R143" s="400"/>
       <c r="S143" s="400"/>
       <c r="T143" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U143" s="331"/>
       <c r="V143" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W143" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -35993,16 +35993,16 @@
       <c r="R144" s="404"/>
       <c r="S144" s="404"/>
       <c r="T144" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U144" s="333"/>
       <c r="V144" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W144" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36012,7 +36012,7 @@
       <c r="D145" s="289" t="s">
         <v>597</v>
       </c>
-      <c r="E145" s="709"/>
+      <c r="E145" s="710"/>
       <c r="F145" s="330" t="s">
         <v>330</v>
       </c>
@@ -36038,16 +36038,16 @@
       <c r="R145" s="396"/>
       <c r="S145" s="396"/>
       <c r="T145" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U145" s="330"/>
       <c r="V145" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W145" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36055,7 +36055,7 @@
       <c r="B146" s="282"/>
       <c r="C146" s="282"/>
       <c r="D146" s="290"/>
-      <c r="E146" s="710"/>
+      <c r="E146" s="711"/>
       <c r="F146" s="331" t="s">
         <v>336</v>
       </c>
@@ -36081,16 +36081,16 @@
       <c r="R146" s="400"/>
       <c r="S146" s="400"/>
       <c r="T146" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U146" s="331"/>
       <c r="V146" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W146" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36098,7 +36098,7 @@
       <c r="B147" s="282"/>
       <c r="C147" s="282"/>
       <c r="D147" s="290"/>
-      <c r="E147" s="710"/>
+      <c r="E147" s="711"/>
       <c r="F147" s="331" t="s">
         <v>340</v>
       </c>
@@ -36124,16 +36124,16 @@
       <c r="R147" s="400"/>
       <c r="S147" s="400"/>
       <c r="T147" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U147" s="331"/>
       <c r="V147" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W147" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36141,7 +36141,7 @@
       <c r="B148" s="435"/>
       <c r="C148" s="435"/>
       <c r="D148" s="311"/>
-      <c r="E148" s="711"/>
+      <c r="E148" s="712"/>
       <c r="F148" s="355" t="s">
         <v>352</v>
       </c>
@@ -36167,16 +36167,16 @@
       <c r="R148" s="404"/>
       <c r="S148" s="404"/>
       <c r="T148" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U148" s="333"/>
       <c r="V148" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W148" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36212,16 +36212,16 @@
       <c r="R149" s="396"/>
       <c r="S149" s="396"/>
       <c r="T149" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U149" s="330"/>
       <c r="V149" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W149" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36255,16 +36255,16 @@
       <c r="R150" s="400"/>
       <c r="S150" s="400"/>
       <c r="T150" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U150" s="331"/>
       <c r="V150" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W150" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36298,16 +36298,16 @@
       <c r="R151" s="400"/>
       <c r="S151" s="400"/>
       <c r="T151" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U151" s="331"/>
       <c r="V151" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W151" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36341,16 +36341,16 @@
       <c r="R152" s="404"/>
       <c r="S152" s="404"/>
       <c r="T152" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U152" s="333"/>
       <c r="V152" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W152" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36386,16 +36386,16 @@
       <c r="R153" s="396"/>
       <c r="S153" s="396"/>
       <c r="T153" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U153" s="330"/>
       <c r="V153" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W153" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36429,16 +36429,16 @@
       <c r="R154" s="400"/>
       <c r="S154" s="400"/>
       <c r="T154" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U154" s="331"/>
       <c r="V154" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W154" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36472,16 +36472,16 @@
       <c r="R155" s="400"/>
       <c r="S155" s="400"/>
       <c r="T155" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U155" s="331"/>
       <c r="V155" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W155" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36515,16 +36515,16 @@
       <c r="R156" s="404"/>
       <c r="S156" s="404"/>
       <c r="T156" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U156" s="333"/>
       <c r="V156" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W156" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36560,16 +36560,16 @@
       <c r="R157" s="396"/>
       <c r="S157" s="396"/>
       <c r="T157" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U157" s="330"/>
       <c r="V157" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W157" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36603,16 +36603,16 @@
       <c r="R158" s="400"/>
       <c r="S158" s="400"/>
       <c r="T158" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U158" s="331"/>
       <c r="V158" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W158" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36646,16 +36646,16 @@
       <c r="R159" s="400"/>
       <c r="S159" s="400"/>
       <c r="T159" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U159" s="331"/>
       <c r="V159" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W159" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36689,16 +36689,16 @@
       <c r="R160" s="404"/>
       <c r="S160" s="404"/>
       <c r="T160" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U160" s="333"/>
       <c r="V160" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W160" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36734,16 +36734,16 @@
       <c r="R161" s="396"/>
       <c r="S161" s="396"/>
       <c r="T161" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U161" s="330"/>
       <c r="V161" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W161" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36777,16 +36777,16 @@
       <c r="R162" s="400"/>
       <c r="S162" s="400"/>
       <c r="T162" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U162" s="331"/>
       <c r="V162" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W162" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36820,16 +36820,16 @@
       <c r="R163" s="400"/>
       <c r="S163" s="400"/>
       <c r="T163" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U163" s="331"/>
       <c r="V163" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W163" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36863,16 +36863,16 @@
       <c r="R164" s="404"/>
       <c r="S164" s="404"/>
       <c r="T164" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U164" s="333"/>
       <c r="V164" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W164" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36908,16 +36908,16 @@
       <c r="R165" s="396"/>
       <c r="S165" s="396"/>
       <c r="T165" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U165" s="330"/>
       <c r="V165" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W165" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36951,16 +36951,16 @@
       <c r="R166" s="400"/>
       <c r="S166" s="400"/>
       <c r="T166" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U166" s="331"/>
       <c r="V166" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W166" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -36994,16 +36994,16 @@
       <c r="R167" s="400"/>
       <c r="S167" s="400"/>
       <c r="T167" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U167" s="331"/>
       <c r="V167" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W167" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37037,16 +37037,16 @@
       <c r="R168" s="404"/>
       <c r="S168" s="404"/>
       <c r="T168" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U168" s="333"/>
       <c r="V168" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W168" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37086,16 +37086,16 @@
       <c r="R169" s="396"/>
       <c r="S169" s="396"/>
       <c r="T169" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U169" s="330"/>
       <c r="V169" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W169" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37131,16 +37131,16 @@
       <c r="R170" s="400"/>
       <c r="S170" s="400"/>
       <c r="T170" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U170" s="331"/>
       <c r="V170" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W170" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37174,16 +37174,16 @@
       <c r="R171" s="404"/>
       <c r="S171" s="404"/>
       <c r="T171" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U171" s="333"/>
       <c r="V171" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W171" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37219,16 +37219,16 @@
       <c r="R172" s="396"/>
       <c r="S172" s="396"/>
       <c r="T172" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U172" s="330"/>
       <c r="V172" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W172" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37264,16 +37264,16 @@
       <c r="R173" s="400"/>
       <c r="S173" s="400"/>
       <c r="T173" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U173" s="331"/>
       <c r="V173" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W173" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37307,16 +37307,16 @@
       <c r="R174" s="404"/>
       <c r="S174" s="404"/>
       <c r="T174" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U174" s="333"/>
       <c r="V174" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W174" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37352,16 +37352,16 @@
       <c r="R175" s="396"/>
       <c r="S175" s="396"/>
       <c r="T175" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U175" s="330"/>
       <c r="V175" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W175" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37397,16 +37397,16 @@
       <c r="R176" s="400"/>
       <c r="S176" s="400"/>
       <c r="T176" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U176" s="331"/>
       <c r="V176" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W176" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37440,16 +37440,16 @@
       <c r="R177" s="404"/>
       <c r="S177" s="404"/>
       <c r="T177" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U177" s="333"/>
       <c r="V177" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W177" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37485,16 +37485,16 @@
       <c r="R178" s="396"/>
       <c r="S178" s="396"/>
       <c r="T178" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U178" s="330"/>
       <c r="V178" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W178" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37530,16 +37530,16 @@
       <c r="R179" s="400"/>
       <c r="S179" s="400"/>
       <c r="T179" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U179" s="331"/>
       <c r="V179" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W179" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37573,16 +37573,16 @@
       <c r="R180" s="404"/>
       <c r="S180" s="404"/>
       <c r="T180" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U180" s="333"/>
       <c r="V180" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W180" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37618,16 +37618,16 @@
       <c r="R181" s="396"/>
       <c r="S181" s="396"/>
       <c r="T181" s="397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U181" s="330"/>
       <c r="V181" s="397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W181" s="398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37663,16 +37663,16 @@
       <c r="R182" s="400"/>
       <c r="S182" s="400"/>
       <c r="T182" s="401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U182" s="331"/>
       <c r="V182" s="401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W182" s="402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37706,16 +37706,16 @@
       <c r="R183" s="404"/>
       <c r="S183" s="404"/>
       <c r="T183" s="405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U183" s="333"/>
       <c r="V183" s="405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W183" s="406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37753,16 +37753,16 @@
       <c r="R184" s="438"/>
       <c r="S184" s="438"/>
       <c r="T184" s="439">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U184" s="392"/>
       <c r="V184" s="439">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W184" s="440" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37796,16 +37796,16 @@
       <c r="R185" s="438"/>
       <c r="S185" s="438"/>
       <c r="T185" s="439">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U185" s="392"/>
       <c r="V185" s="439">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W185" s="440" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -37839,16 +37839,16 @@
       <c r="R186" s="438"/>
       <c r="S186" s="438"/>
       <c r="T186" s="439">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U186" s="392"/>
       <c r="V186" s="439">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W186" s="440" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
     </row>
@@ -38659,7 +38659,7 @@
       <c r="D18" s="459" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="717"/>
+      <c r="E18" s="718"/>
       <c r="F18" s="460" t="s">
         <v>330</v>
       </c>
@@ -38692,7 +38692,7 @@
       <c r="B19" s="463"/>
       <c r="C19" s="463"/>
       <c r="D19" s="464"/>
-      <c r="E19" s="717"/>
+      <c r="E19" s="718"/>
       <c r="F19" s="465" t="s">
         <v>336</v>
       </c>
@@ -38725,7 +38725,7 @@
       <c r="B20" s="467"/>
       <c r="C20" s="468"/>
       <c r="D20" s="469"/>
-      <c r="E20" s="718"/>
+      <c r="E20" s="719"/>
       <c r="F20" s="470" t="s">
         <v>340</v>
       </c>
@@ -41426,14 +41426,14 @@
       </c>
     </row>
     <row r="98" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="725"/>
+      <c r="B98" s="726"/>
       <c r="C98" s="441" t="s">
         <v>371</v>
       </c>
       <c r="D98" s="501" t="s">
         <v>497</v>
       </c>
-      <c r="E98" s="727"/>
+      <c r="E98" s="728"/>
       <c r="F98" s="479" t="s">
         <v>330</v>
       </c>
@@ -41463,10 +41463,10 @@
       </c>
     </row>
     <row r="99" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="725"/>
+      <c r="B99" s="726"/>
       <c r="C99" s="279"/>
       <c r="D99" s="503"/>
-      <c r="E99" s="725"/>
+      <c r="E99" s="726"/>
       <c r="F99" s="481" t="s">
         <v>336</v>
       </c>
@@ -41496,10 +41496,10 @@
       </c>
     </row>
     <row r="100" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="726"/>
+      <c r="B100" s="727"/>
       <c r="C100" s="280"/>
       <c r="D100" s="504"/>
-      <c r="E100" s="726"/>
+      <c r="E100" s="727"/>
       <c r="F100" s="483" t="s">
         <v>340</v>
       </c>
@@ -41634,7 +41634,7 @@
       </c>
     </row>
     <row r="104" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="725"/>
+      <c r="B104" s="726"/>
       <c r="C104" s="441" t="s">
         <v>371</v>
       </c>
@@ -41671,7 +41671,7 @@
       </c>
     </row>
     <row r="105" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="725"/>
+      <c r="B105" s="726"/>
       <c r="C105" s="279"/>
       <c r="D105" s="503"/>
       <c r="E105" s="506"/>
@@ -41704,7 +41704,7 @@
       </c>
     </row>
     <row r="106" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="726"/>
+      <c r="B106" s="727"/>
       <c r="C106" s="280"/>
       <c r="D106" s="504"/>
       <c r="E106" s="280"/>
@@ -42624,7 +42624,7 @@
       <c r="D133" s="501" t="s">
         <v>591</v>
       </c>
-      <c r="E133" s="719"/>
+      <c r="E133" s="720"/>
       <c r="F133" s="443" t="s">
         <v>330</v>
       </c>
@@ -42656,7 +42656,7 @@
       <c r="B134" s="315"/>
       <c r="C134" s="315"/>
       <c r="D134" s="503"/>
-      <c r="E134" s="720"/>
+      <c r="E134" s="721"/>
       <c r="F134" s="448" t="s">
         <v>336</v>
       </c>
@@ -42688,7 +42688,7 @@
       <c r="B135" s="315"/>
       <c r="C135" s="320"/>
       <c r="D135" s="503"/>
-      <c r="E135" s="720"/>
+      <c r="E135" s="721"/>
       <c r="F135" s="448" t="s">
         <v>340</v>
       </c>
@@ -42720,7 +42720,7 @@
       <c r="B136" s="315"/>
       <c r="C136" s="315"/>
       <c r="D136" s="504"/>
-      <c r="E136" s="721"/>
+      <c r="E136" s="722"/>
       <c r="F136" s="451" t="s">
         <v>352</v>
       </c>
@@ -43020,7 +43020,7 @@
       <c r="D145" s="442" t="s">
         <v>597</v>
       </c>
-      <c r="E145" s="722"/>
+      <c r="E145" s="723"/>
       <c r="F145" s="443" t="s">
         <v>330</v>
       </c>
@@ -43052,7 +43052,7 @@
       <c r="B146" s="315"/>
       <c r="C146" s="315"/>
       <c r="D146" s="447"/>
-      <c r="E146" s="723"/>
+      <c r="E146" s="724"/>
       <c r="F146" s="448" t="s">
         <v>336</v>
       </c>
@@ -43084,7 +43084,7 @@
       <c r="B147" s="315"/>
       <c r="C147" s="315"/>
       <c r="D147" s="447"/>
-      <c r="E147" s="723"/>
+      <c r="E147" s="724"/>
       <c r="F147" s="448" t="s">
         <v>340</v>
       </c>
@@ -43116,7 +43116,7 @@
       <c r="B148" s="322"/>
       <c r="C148" s="322"/>
       <c r="D148" s="543"/>
-      <c r="E148" s="724"/>
+      <c r="E148" s="725"/>
       <c r="F148" s="483" t="s">
         <v>352</v>
       </c>
@@ -44464,7 +44464,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="670" t="s">
+      <c r="R2" s="699" t="s">
         <v>274</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -44525,7 +44525,7 @@
       <c r="Q3" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="R3" s="671"/>
+      <c r="R3" s="700"/>
       <c r="S3" s="7" t="s">
         <v>275</v>
       </c>
@@ -44586,23 +44586,23 @@
         <f>'在庫情報（雨衣）'!BY4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="672">
+      <c r="L4" s="674">
         <v>28</v>
       </c>
-      <c r="M4" s="675">
+      <c r="M4" s="676">
         <v>28</v>
       </c>
-      <c r="N4" s="675">
+      <c r="N4" s="676">
         <v>28</v>
       </c>
-      <c r="O4" s="675">
+      <c r="O4" s="676">
         <v>28</v>
       </c>
-      <c r="P4" s="675">
+      <c r="P4" s="676">
         <v>28</v>
       </c>
       <c r="Q4" s="678"/>
-      <c r="R4" s="681">
+      <c r="R4" s="701">
         <f>SUM(F4:F6)*L4+SUM(G4:G6)*M4+SUM(H4:H6)*N4+SUM(I4:I6)*O4+SUM(J4:J6)*P4+SUM(K4:K6)*Q4</f>
         <v>0</v>
       </c>
@@ -44621,7 +44621,7 @@
       <c r="W4" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="683"/>
+      <c r="X4" s="696"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
@@ -44656,13 +44656,13 @@
         <f>'在庫情報（雨衣）'!BY5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="673"/>
-      <c r="M5" s="676"/>
-      <c r="N5" s="676"/>
-      <c r="O5" s="676"/>
-      <c r="P5" s="676"/>
-      <c r="Q5" s="679"/>
-      <c r="R5" s="682"/>
+      <c r="L5" s="683"/>
+      <c r="M5" s="684"/>
+      <c r="N5" s="684"/>
+      <c r="O5" s="684"/>
+      <c r="P5" s="684"/>
+      <c r="Q5" s="685"/>
+      <c r="R5" s="671"/>
       <c r="S5" s="562" t="s">
         <v>874</v>
       </c>
@@ -44678,7 +44678,7 @@
       <c r="W5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="684"/>
+      <c r="X5" s="697"/>
     </row>
     <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -44713,13 +44713,13 @@
         <f>'在庫情報（雨衣）'!BY6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="674"/>
+      <c r="L6" s="675"/>
       <c r="M6" s="677"/>
       <c r="N6" s="677"/>
       <c r="O6" s="677"/>
       <c r="P6" s="677"/>
-      <c r="Q6" s="680"/>
-      <c r="R6" s="682"/>
+      <c r="Q6" s="679"/>
+      <c r="R6" s="671"/>
       <c r="S6" s="563" t="s">
         <v>879</v>
       </c>
@@ -44735,7 +44735,7 @@
       <c r="W6" s="81" t="s">
         <v>883</v>
       </c>
-      <c r="X6" s="685"/>
+      <c r="X6" s="698"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -44772,23 +44772,23 @@
         <f>'在庫情報（雨衣）'!BY7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="672">
+      <c r="L7" s="674">
         <v>34</v>
       </c>
-      <c r="M7" s="675">
+      <c r="M7" s="676">
         <v>34</v>
       </c>
-      <c r="N7" s="675">
+      <c r="N7" s="676">
         <v>34</v>
       </c>
-      <c r="O7" s="675">
+      <c r="O7" s="676">
         <v>34</v>
       </c>
-      <c r="P7" s="675">
+      <c r="P7" s="676">
         <v>34</v>
       </c>
       <c r="Q7" s="678"/>
-      <c r="R7" s="682">
+      <c r="R7" s="671">
         <f>SUM(F7:F10)*L7+SUM(G7:G10)*M7+SUM(H7:H10)*N7+SUM(I7:I10)*O7+SUM(J7:J10)*P7+SUM(K7:K10)*Q7</f>
         <v>0</v>
       </c>
@@ -44807,7 +44807,7 @@
       <c r="W7" s="81" t="s">
         <v>891</v>
       </c>
-      <c r="X7" s="686"/>
+      <c r="X7" s="672"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -44842,13 +44842,13 @@
         <f>'在庫情報（雨衣）'!BY8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="673"/>
-      <c r="M8" s="676"/>
-      <c r="N8" s="676"/>
-      <c r="O8" s="676"/>
-      <c r="P8" s="676"/>
-      <c r="Q8" s="679"/>
-      <c r="R8" s="682"/>
+      <c r="L8" s="683"/>
+      <c r="M8" s="684"/>
+      <c r="N8" s="684"/>
+      <c r="O8" s="684"/>
+      <c r="P8" s="684"/>
+      <c r="Q8" s="685"/>
+      <c r="R8" s="671"/>
       <c r="S8" s="563" t="s">
         <v>894</v>
       </c>
@@ -44864,7 +44864,7 @@
       <c r="W8" s="81" t="s">
         <v>896</v>
       </c>
-      <c r="X8" s="687"/>
+      <c r="X8" s="686"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -44899,13 +44899,13 @@
         <f>'在庫情報（雨衣）'!BY9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="673"/>
-      <c r="M9" s="676"/>
-      <c r="N9" s="676"/>
-      <c r="O9" s="676"/>
-      <c r="P9" s="676"/>
-      <c r="Q9" s="679"/>
-      <c r="R9" s="682"/>
+      <c r="L9" s="683"/>
+      <c r="M9" s="684"/>
+      <c r="N9" s="684"/>
+      <c r="O9" s="684"/>
+      <c r="P9" s="684"/>
+      <c r="Q9" s="685"/>
+      <c r="R9" s="671"/>
       <c r="S9" s="563" t="s">
         <v>74</v>
       </c>
@@ -44921,7 +44921,7 @@
       <c r="W9" s="81" t="s">
         <v>899</v>
       </c>
-      <c r="X9" s="687"/>
+      <c r="X9" s="686"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -44956,13 +44956,13 @@
         <f>'在庫情報（雨衣）'!BY10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="674"/>
+      <c r="L10" s="675"/>
       <c r="M10" s="677"/>
       <c r="N10" s="677"/>
       <c r="O10" s="677"/>
       <c r="P10" s="677"/>
-      <c r="Q10" s="680"/>
-      <c r="R10" s="682"/>
+      <c r="Q10" s="679"/>
+      <c r="R10" s="671"/>
       <c r="S10" s="563" t="s">
         <v>902</v>
       </c>
@@ -44978,7 +44978,7 @@
       <c r="W10" s="81" t="s">
         <v>906</v>
       </c>
-      <c r="X10" s="688"/>
+      <c r="X10" s="673"/>
     </row>
     <row r="11" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -45015,25 +45015,25 @@
         <f>'在庫情報（雨衣）'!BY11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="672">
+      <c r="L11" s="674">
         <v>36</v>
       </c>
-      <c r="M11" s="675">
+      <c r="M11" s="676">
         <v>36</v>
       </c>
-      <c r="N11" s="675">
+      <c r="N11" s="676">
         <v>36</v>
       </c>
-      <c r="O11" s="675">
+      <c r="O11" s="676">
         <v>36</v>
       </c>
-      <c r="P11" s="675">
+      <c r="P11" s="676">
         <v>36</v>
       </c>
-      <c r="Q11" s="692">
+      <c r="Q11" s="680">
         <v>36</v>
       </c>
-      <c r="R11" s="682">
+      <c r="R11" s="671">
         <f>SUM(F11:F12)*L11+SUM(G11:G12)*M11+SUM(H11:H12)*N11+SUM(I11:I12)*O11+SUM(J11:J12)*P11+SUM(K11:K12)*Q11</f>
         <v>0</v>
       </c>
@@ -45089,13 +45089,13 @@
         <f>'在庫情報（雨衣）'!BY12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="674"/>
+      <c r="L12" s="675"/>
       <c r="M12" s="677"/>
       <c r="N12" s="677"/>
       <c r="O12" s="677"/>
       <c r="P12" s="677"/>
-      <c r="Q12" s="693"/>
-      <c r="R12" s="682"/>
+      <c r="Q12" s="682"/>
+      <c r="R12" s="671"/>
       <c r="S12" s="563" t="s">
         <v>913</v>
       </c>
@@ -45150,19 +45150,19 @@
         <f>'在庫情報（雨衣）'!BY13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="672">
+      <c r="L13" s="674">
         <v>20</v>
       </c>
-      <c r="M13" s="675">
+      <c r="M13" s="676">
         <v>20</v>
       </c>
-      <c r="N13" s="675">
+      <c r="N13" s="676">
         <v>20</v>
       </c>
-      <c r="O13" s="689"/>
-      <c r="P13" s="689"/>
+      <c r="O13" s="693"/>
+      <c r="P13" s="693"/>
       <c r="Q13" s="678"/>
-      <c r="R13" s="682">
+      <c r="R13" s="671">
         <f>SUM(F13:F15)*L13+SUM(G13:G15)*M13+SUM(H13:H15)*N13+SUM(I13:I15)*O13+SUM(J13:J15)*P13+SUM(K13:K15)*Q13</f>
         <v>0</v>
       </c>
@@ -45175,9 +45175,9 @@
       <c r="U13" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="V13" s="694"/>
-      <c r="W13" s="694"/>
-      <c r="X13" s="686"/>
+      <c r="V13" s="687"/>
+      <c r="W13" s="687"/>
+      <c r="X13" s="672"/>
     </row>
     <row r="14" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
@@ -45212,13 +45212,13 @@
         <f>'在庫情報（雨衣）'!BY14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="673"/>
-      <c r="M14" s="676"/>
-      <c r="N14" s="676"/>
-      <c r="O14" s="690"/>
-      <c r="P14" s="690"/>
-      <c r="Q14" s="679"/>
-      <c r="R14" s="682"/>
+      <c r="L14" s="683"/>
+      <c r="M14" s="684"/>
+      <c r="N14" s="684"/>
+      <c r="O14" s="694"/>
+      <c r="P14" s="694"/>
+      <c r="Q14" s="685"/>
+      <c r="R14" s="671"/>
       <c r="S14" s="563" t="s">
         <v>918</v>
       </c>
@@ -45228,9 +45228,9 @@
       <c r="U14" s="93" t="s">
         <v>920</v>
       </c>
-      <c r="V14" s="695"/>
-      <c r="W14" s="695"/>
-      <c r="X14" s="687"/>
+      <c r="V14" s="688"/>
+      <c r="W14" s="688"/>
+      <c r="X14" s="686"/>
     </row>
     <row r="15" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -45265,13 +45265,13 @@
         <f>'在庫情報（雨衣）'!BY15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="674"/>
+      <c r="L15" s="675"/>
       <c r="M15" s="677"/>
       <c r="N15" s="677"/>
-      <c r="O15" s="691"/>
-      <c r="P15" s="691"/>
-      <c r="Q15" s="680"/>
-      <c r="R15" s="682"/>
+      <c r="O15" s="695"/>
+      <c r="P15" s="695"/>
+      <c r="Q15" s="679"/>
+      <c r="R15" s="671"/>
       <c r="S15" s="563" t="s">
         <v>98</v>
       </c>
@@ -45281,9 +45281,9 @@
       <c r="U15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="V15" s="696"/>
-      <c r="W15" s="696"/>
-      <c r="X15" s="688"/>
+      <c r="V15" s="689"/>
+      <c r="W15" s="689"/>
+      <c r="X15" s="673"/>
     </row>
     <row r="16" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -45320,23 +45320,23 @@
         <f>'在庫情報（雨衣）'!BY16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="672">
+      <c r="L16" s="674">
         <v>20</v>
       </c>
-      <c r="M16" s="675">
+      <c r="M16" s="676">
         <v>20</v>
       </c>
-      <c r="N16" s="675">
+      <c r="N16" s="676">
         <v>20</v>
       </c>
-      <c r="O16" s="697">
+      <c r="O16" s="690">
         <v>26</v>
       </c>
-      <c r="P16" s="697">
+      <c r="P16" s="690">
         <v>26</v>
       </c>
       <c r="Q16" s="678"/>
-      <c r="R16" s="682">
+      <c r="R16" s="671">
         <f>SUM(F16:F18)*L16+SUM(G16:G18)*M16+SUM(H16:H18)*N16+SUM(I16:I18)*O16+SUM(J16:J18)*P16+SUM(K16:K18)*Q16</f>
         <v>0</v>
       </c>
@@ -45355,7 +45355,7 @@
       <c r="W16" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="X16" s="686"/>
+      <c r="X16" s="672"/>
     </row>
     <row r="17" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
@@ -45390,13 +45390,13 @@
         <f>'在庫情報（雨衣）'!BY17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="673"/>
-      <c r="M17" s="676"/>
-      <c r="N17" s="676"/>
-      <c r="O17" s="698"/>
-      <c r="P17" s="698"/>
-      <c r="Q17" s="679"/>
-      <c r="R17" s="682"/>
+      <c r="L17" s="683"/>
+      <c r="M17" s="684"/>
+      <c r="N17" s="684"/>
+      <c r="O17" s="691"/>
+      <c r="P17" s="691"/>
+      <c r="Q17" s="685"/>
+      <c r="R17" s="671"/>
       <c r="S17" s="563" t="s">
         <v>109</v>
       </c>
@@ -45412,7 +45412,7 @@
       <c r="W17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="X17" s="687"/>
+      <c r="X17" s="686"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -45447,13 +45447,13 @@
         <f>'在庫情報（雨衣）'!BY18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="674"/>
+      <c r="L18" s="675"/>
       <c r="M18" s="677"/>
       <c r="N18" s="677"/>
-      <c r="O18" s="699"/>
-      <c r="P18" s="699"/>
-      <c r="Q18" s="680"/>
-      <c r="R18" s="682"/>
+      <c r="O18" s="692"/>
+      <c r="P18" s="692"/>
+      <c r="Q18" s="679"/>
+      <c r="R18" s="671"/>
       <c r="S18" s="563" t="s">
         <v>106</v>
       </c>
@@ -45469,7 +45469,7 @@
       <c r="W18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="X18" s="688"/>
+      <c r="X18" s="673"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -45506,23 +45506,23 @@
         <f>'在庫情報（雨衣）'!BY19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="672">
+      <c r="L19" s="674">
         <v>38</v>
       </c>
-      <c r="M19" s="675">
+      <c r="M19" s="676">
         <v>38</v>
       </c>
-      <c r="N19" s="675">
+      <c r="N19" s="676">
         <v>38</v>
       </c>
-      <c r="O19" s="675">
+      <c r="O19" s="676">
         <v>38</v>
       </c>
-      <c r="P19" s="675">
+      <c r="P19" s="676">
         <v>38</v>
       </c>
       <c r="Q19" s="678"/>
-      <c r="R19" s="682">
+      <c r="R19" s="671">
         <f>SUM(F19:F21)*L19+SUM(G19:G21)*M19+SUM(H19:H21)*N19+SUM(I19:I21)*O19+SUM(J19:J21)*P19+SUM(K19:K21)*Q19</f>
         <v>0</v>
       </c>
@@ -45541,7 +45541,7 @@
       <c r="W19" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="X19" s="686"/>
+      <c r="X19" s="672"/>
     </row>
     <row r="20" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
@@ -45576,13 +45576,13 @@
         <f>'在庫情報（雨衣）'!BY20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="673"/>
-      <c r="M20" s="676"/>
-      <c r="N20" s="676"/>
-      <c r="O20" s="676"/>
-      <c r="P20" s="676"/>
-      <c r="Q20" s="679"/>
-      <c r="R20" s="682"/>
+      <c r="L20" s="683"/>
+      <c r="M20" s="684"/>
+      <c r="N20" s="684"/>
+      <c r="O20" s="684"/>
+      <c r="P20" s="684"/>
+      <c r="Q20" s="685"/>
+      <c r="R20" s="671"/>
       <c r="S20" s="563" t="s">
         <v>126</v>
       </c>
@@ -45598,7 +45598,7 @@
       <c r="W20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="X20" s="687"/>
+      <c r="X20" s="686"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -45633,13 +45633,13 @@
         <f>'在庫情報（雨衣）'!BY21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="674"/>
+      <c r="L21" s="675"/>
       <c r="M21" s="677"/>
       <c r="N21" s="677"/>
       <c r="O21" s="677"/>
       <c r="P21" s="677"/>
-      <c r="Q21" s="680"/>
-      <c r="R21" s="682"/>
+      <c r="Q21" s="679"/>
+      <c r="R21" s="671"/>
       <c r="S21" s="563" t="s">
         <v>131</v>
       </c>
@@ -45655,7 +45655,7 @@
       <c r="W21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="X21" s="688"/>
+      <c r="X21" s="673"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -45692,23 +45692,23 @@
         <f>'在庫情報（雨衣）'!BY22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="672">
+      <c r="L22" s="674">
         <v>25</v>
       </c>
-      <c r="M22" s="675">
+      <c r="M22" s="676">
         <v>25</v>
       </c>
-      <c r="N22" s="675">
+      <c r="N22" s="676">
         <v>25</v>
       </c>
-      <c r="O22" s="675">
+      <c r="O22" s="676">
         <v>25</v>
       </c>
-      <c r="P22" s="675">
+      <c r="P22" s="676">
         <v>25</v>
       </c>
       <c r="Q22" s="678"/>
-      <c r="R22" s="682">
+      <c r="R22" s="671">
         <f>SUM(F22:F23)*L22+SUM(G22:G23)*M22+SUM(H22:H23)*N22+SUM(I22:I23)*O22+SUM(J22:J23)*P22+SUM(K22:K23)*Q22</f>
         <v>0</v>
       </c>
@@ -45727,7 +45727,7 @@
       <c r="W22" s="93" t="s">
         <v>928</v>
       </c>
-      <c r="X22" s="686"/>
+      <c r="X22" s="672"/>
     </row>
     <row r="23" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
@@ -45762,13 +45762,13 @@
         <f>'在庫情報（雨衣）'!BY23</f>
         <v>0</v>
       </c>
-      <c r="L23" s="674"/>
+      <c r="L23" s="675"/>
       <c r="M23" s="677"/>
       <c r="N23" s="677"/>
       <c r="O23" s="677"/>
       <c r="P23" s="677"/>
-      <c r="Q23" s="680"/>
-      <c r="R23" s="682"/>
+      <c r="Q23" s="679"/>
+      <c r="R23" s="671"/>
       <c r="S23" s="563" t="s">
         <v>822</v>
       </c>
@@ -45784,7 +45784,7 @@
       <c r="W23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="X23" s="688"/>
+      <c r="X23" s="673"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -45821,25 +45821,25 @@
         <f>'在庫情報（雨衣）'!BY24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="672">
+      <c r="L24" s="674">
         <v>36</v>
       </c>
-      <c r="M24" s="675">
+      <c r="M24" s="676">
         <v>36</v>
       </c>
-      <c r="N24" s="675">
+      <c r="N24" s="676">
         <v>36</v>
       </c>
-      <c r="O24" s="675">
+      <c r="O24" s="676">
         <v>36</v>
       </c>
-      <c r="P24" s="675">
+      <c r="P24" s="676">
         <v>36</v>
       </c>
-      <c r="Q24" s="692">
+      <c r="Q24" s="680">
         <v>36</v>
       </c>
-      <c r="R24" s="682">
+      <c r="R24" s="671">
         <f>SUM(F24:F27)*L24+SUM(G24:G27)*M24+SUM(H24:H27)*N24+SUM(I24:I27)*O24+SUM(J24:J27)*P24+SUM(K24:K27)*Q24</f>
         <v>0</v>
       </c>
@@ -45895,13 +45895,13 @@
         <f>'在庫情報（雨衣）'!BY25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="673"/>
-      <c r="M25" s="676"/>
-      <c r="N25" s="676"/>
-      <c r="O25" s="676"/>
-      <c r="P25" s="676"/>
-      <c r="Q25" s="700"/>
-      <c r="R25" s="682"/>
+      <c r="L25" s="683"/>
+      <c r="M25" s="684"/>
+      <c r="N25" s="684"/>
+      <c r="O25" s="684"/>
+      <c r="P25" s="684"/>
+      <c r="Q25" s="681"/>
+      <c r="R25" s="671"/>
       <c r="S25" s="563" t="s">
         <v>144</v>
       </c>
@@ -45954,13 +45954,13 @@
         <f>'在庫情報（雨衣）'!BY26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="673"/>
-      <c r="M26" s="676"/>
-      <c r="N26" s="676"/>
-      <c r="O26" s="676"/>
-      <c r="P26" s="676"/>
-      <c r="Q26" s="700"/>
-      <c r="R26" s="682"/>
+      <c r="L26" s="683"/>
+      <c r="M26" s="684"/>
+      <c r="N26" s="684"/>
+      <c r="O26" s="684"/>
+      <c r="P26" s="684"/>
+      <c r="Q26" s="681"/>
+      <c r="R26" s="671"/>
       <c r="S26" s="563" t="s">
         <v>159</v>
       </c>
@@ -46013,13 +46013,13 @@
         <f>'在庫情報（雨衣）'!BY27</f>
         <v>0</v>
       </c>
-      <c r="L27" s="674"/>
+      <c r="L27" s="675"/>
       <c r="M27" s="677"/>
       <c r="N27" s="677"/>
       <c r="O27" s="677"/>
       <c r="P27" s="677"/>
-      <c r="Q27" s="693"/>
-      <c r="R27" s="682"/>
+      <c r="Q27" s="682"/>
+      <c r="R27" s="671"/>
       <c r="S27" s="563" t="s">
         <v>165</v>
       </c>
@@ -46142,23 +46142,23 @@
         <f>'在庫情報（雨衣）'!BY29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="672">
+      <c r="L29" s="674">
         <v>35</v>
       </c>
-      <c r="M29" s="675">
+      <c r="M29" s="676">
         <v>35</v>
       </c>
-      <c r="N29" s="675">
+      <c r="N29" s="676">
         <v>35</v>
       </c>
-      <c r="O29" s="675">
+      <c r="O29" s="676">
         <v>35</v>
       </c>
-      <c r="P29" s="675">
+      <c r="P29" s="676">
         <v>35</v>
       </c>
       <c r="Q29" s="678"/>
-      <c r="R29" s="682">
+      <c r="R29" s="671">
         <f>SUM(F29:F30)*L29+SUM(G29:G30)*M29+SUM(H29:H30)*N29+SUM(I29:I30)*O29+SUM(J29:J30)*P29+SUM(K29:K30)*Q29</f>
         <v>0</v>
       </c>
@@ -46177,7 +46177,7 @@
       <c r="W29" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="X29" s="686"/>
+      <c r="X29" s="672"/>
     </row>
     <row r="30" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
@@ -46212,13 +46212,13 @@
         <f>'在庫情報（雨衣）'!BY30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="674"/>
+      <c r="L30" s="675"/>
       <c r="M30" s="677"/>
       <c r="N30" s="677"/>
       <c r="O30" s="677"/>
       <c r="P30" s="677"/>
-      <c r="Q30" s="680"/>
-      <c r="R30" s="682"/>
+      <c r="Q30" s="679"/>
+      <c r="R30" s="671"/>
       <c r="S30" s="563" t="s">
         <v>179</v>
       </c>
@@ -46234,7 +46234,7 @@
       <c r="W30" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="X30" s="688"/>
+      <c r="X30" s="673"/>
     </row>
     <row r="31" spans="2:24" s="560" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B31"/>
@@ -46266,48 +46266,23 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X13:X15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="X7:X10"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="M13:M15"/>
@@ -46322,23 +46297,48 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="X7:X10"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="X13:X15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46376,9 +46376,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:83" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BH1" s="667"/>
-      <c r="BI1" s="667"/>
-      <c r="BJ1" s="667"/>
+      <c r="BH1" s="668"/>
+      <c r="BI1" s="668"/>
+      <c r="BJ1" s="668"/>
     </row>
     <row r="2" spans="2:83" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="23" t="s">
@@ -46413,46 +46413,46 @@
       <c r="AA2" s="558"/>
       <c r="AB2" s="558"/>
       <c r="AC2" s="559"/>
-      <c r="AD2" s="664" t="s">
+      <c r="AD2" s="665" t="s">
         <v>689</v>
       </c>
-      <c r="AE2" s="665"/>
-      <c r="AF2" s="665"/>
-      <c r="AG2" s="665"/>
-      <c r="AH2" s="665"/>
-      <c r="AI2" s="666"/>
-      <c r="AJ2" s="664" t="s">
+      <c r="AE2" s="666"/>
+      <c r="AF2" s="666"/>
+      <c r="AG2" s="666"/>
+      <c r="AH2" s="666"/>
+      <c r="AI2" s="667"/>
+      <c r="AJ2" s="665" t="s">
         <v>938</v>
       </c>
-      <c r="AK2" s="665"/>
-      <c r="AL2" s="665"/>
-      <c r="AM2" s="665"/>
-      <c r="AN2" s="665"/>
-      <c r="AO2" s="666"/>
-      <c r="AP2" s="664" t="s">
+      <c r="AK2" s="666"/>
+      <c r="AL2" s="666"/>
+      <c r="AM2" s="666"/>
+      <c r="AN2" s="666"/>
+      <c r="AO2" s="667"/>
+      <c r="AP2" s="665" t="s">
         <v>542</v>
       </c>
-      <c r="AQ2" s="668"/>
-      <c r="AR2" s="668"/>
-      <c r="AS2" s="668"/>
-      <c r="AT2" s="668"/>
-      <c r="AU2" s="669"/>
-      <c r="AV2" s="664" t="s">
+      <c r="AQ2" s="669"/>
+      <c r="AR2" s="669"/>
+      <c r="AS2" s="669"/>
+      <c r="AT2" s="669"/>
+      <c r="AU2" s="670"/>
+      <c r="AV2" s="665" t="s">
         <v>939</v>
       </c>
-      <c r="AW2" s="668"/>
-      <c r="AX2" s="668"/>
-      <c r="AY2" s="668"/>
-      <c r="AZ2" s="668"/>
-      <c r="BA2" s="669"/>
-      <c r="BB2" s="664" t="s">
+      <c r="AW2" s="669"/>
+      <c r="AX2" s="669"/>
+      <c r="AY2" s="669"/>
+      <c r="AZ2" s="669"/>
+      <c r="BA2" s="670"/>
+      <c r="BB2" s="665" t="s">
         <v>940</v>
       </c>
-      <c r="BC2" s="665"/>
-      <c r="BD2" s="665"/>
-      <c r="BE2" s="665"/>
-      <c r="BF2" s="665"/>
-      <c r="BG2" s="666"/>
+      <c r="BC2" s="666"/>
+      <c r="BD2" s="666"/>
+      <c r="BE2" s="666"/>
+      <c r="BF2" s="666"/>
+      <c r="BG2" s="667"/>
       <c r="BH2" s="23" t="s">
         <v>941</v>
       </c>
@@ -46477,14 +46477,14 @@
       <c r="BW2" s="24"/>
       <c r="BX2" s="24"/>
       <c r="BY2" s="25"/>
-      <c r="BZ2" s="664" t="s">
+      <c r="BZ2" s="665" t="s">
         <v>540</v>
       </c>
-      <c r="CA2" s="665"/>
-      <c r="CB2" s="665"/>
-      <c r="CC2" s="665"/>
-      <c r="CD2" s="665"/>
-      <c r="CE2" s="666"/>
+      <c r="CA2" s="666"/>
+      <c r="CB2" s="666"/>
+      <c r="CC2" s="666"/>
+      <c r="CD2" s="666"/>
+      <c r="CE2" s="667"/>
     </row>
     <row r="3" spans="2:83" s="132" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">
@@ -48074,7 +48074,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="670" t="s">
+      <c r="R2" s="699" t="s">
         <v>274</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -48135,7 +48135,7 @@
       <c r="Q3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="R3" s="671"/>
+      <c r="R3" s="700"/>
       <c r="S3" s="7" t="s">
         <v>1000</v>
       </c>
@@ -49290,7 +49290,7 @@
       <c r="H2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="670" t="s">
+      <c r="I2" s="699" t="s">
         <v>274</v>
       </c>
     </row>
@@ -49310,7 +49310,7 @@
       <c r="F3" s="627"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="671"/>
+      <c r="I3" s="700"/>
     </row>
     <row r="4" spans="2:10" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B4" s="3" t="s">
@@ -57739,9 +57739,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:83" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="BH1" s="667"/>
-      <c r="BI1" s="667"/>
-      <c r="BJ1" s="667"/>
+      <c r="BH1" s="668"/>
+      <c r="BI1" s="668"/>
+      <c r="BJ1" s="668"/>
     </row>
     <row r="2" spans="2:83" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="23" t="s">
@@ -57776,46 +57776,46 @@
       <c r="AA2" s="77"/>
       <c r="AB2" s="77"/>
       <c r="AC2" s="78"/>
-      <c r="AD2" s="664" t="s">
+      <c r="AD2" s="665" t="s">
         <v>541</v>
       </c>
-      <c r="AE2" s="665"/>
-      <c r="AF2" s="665"/>
-      <c r="AG2" s="665"/>
-      <c r="AH2" s="665"/>
-      <c r="AI2" s="666"/>
-      <c r="AJ2" s="664" t="s">
+      <c r="AE2" s="666"/>
+      <c r="AF2" s="666"/>
+      <c r="AG2" s="666"/>
+      <c r="AH2" s="666"/>
+      <c r="AI2" s="667"/>
+      <c r="AJ2" s="665" t="s">
         <v>313</v>
       </c>
-      <c r="AK2" s="665"/>
-      <c r="AL2" s="665"/>
-      <c r="AM2" s="665"/>
-      <c r="AN2" s="665"/>
-      <c r="AO2" s="666"/>
-      <c r="AP2" s="664" t="s">
+      <c r="AK2" s="666"/>
+      <c r="AL2" s="666"/>
+      <c r="AM2" s="666"/>
+      <c r="AN2" s="666"/>
+      <c r="AO2" s="667"/>
+      <c r="AP2" s="665" t="s">
         <v>542</v>
       </c>
-      <c r="AQ2" s="668"/>
-      <c r="AR2" s="668"/>
-      <c r="AS2" s="668"/>
-      <c r="AT2" s="668"/>
-      <c r="AU2" s="669"/>
-      <c r="AV2" s="664" t="s">
+      <c r="AQ2" s="669"/>
+      <c r="AR2" s="669"/>
+      <c r="AS2" s="669"/>
+      <c r="AT2" s="669"/>
+      <c r="AU2" s="670"/>
+      <c r="AV2" s="665" t="s">
         <v>543</v>
       </c>
-      <c r="AW2" s="668"/>
-      <c r="AX2" s="668"/>
-      <c r="AY2" s="668"/>
-      <c r="AZ2" s="668"/>
-      <c r="BA2" s="669"/>
-      <c r="BB2" s="664" t="s">
+      <c r="AW2" s="669"/>
+      <c r="AX2" s="669"/>
+      <c r="AY2" s="669"/>
+      <c r="AZ2" s="669"/>
+      <c r="BA2" s="670"/>
+      <c r="BB2" s="665" t="s">
         <v>544</v>
       </c>
-      <c r="BC2" s="665"/>
-      <c r="BD2" s="665"/>
-      <c r="BE2" s="665"/>
-      <c r="BF2" s="665"/>
-      <c r="BG2" s="666"/>
+      <c r="BC2" s="666"/>
+      <c r="BD2" s="666"/>
+      <c r="BE2" s="666"/>
+      <c r="BF2" s="666"/>
+      <c r="BG2" s="667"/>
       <c r="BH2" s="23" t="s">
         <v>184</v>
       </c>
@@ -57840,14 +57840,14 @@
       <c r="BW2" s="24"/>
       <c r="BX2" s="24"/>
       <c r="BY2" s="25"/>
-      <c r="BZ2" s="664" t="s">
+      <c r="BZ2" s="665" t="s">
         <v>540</v>
       </c>
-      <c r="CA2" s="665"/>
-      <c r="CB2" s="665"/>
-      <c r="CC2" s="665"/>
-      <c r="CD2" s="665"/>
-      <c r="CE2" s="666"/>
+      <c r="CA2" s="666"/>
+      <c r="CB2" s="666"/>
+      <c r="CC2" s="666"/>
+      <c r="CD2" s="666"/>
+      <c r="CE2" s="667"/>
     </row>
     <row r="3" spans="2:83" s="132" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -7456,16 +7456,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7474,35 +7474,59 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7522,32 +7546,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -26626,7 +26626,7 @@
       <c r="U2" s="56"/>
       <c r="V2" s="56"/>
       <c r="W2" s="57"/>
-      <c r="X2" s="699" t="s">
+      <c r="X2" s="671" t="s">
         <v>274</v>
       </c>
     </row>
@@ -26697,7 +26697,7 @@
       <c r="W3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X3" s="700"/>
+      <c r="X3" s="672"/>
     </row>
     <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
@@ -26725,7 +26725,7 @@
       <c r="J4" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="696"/>
+      <c r="K4" s="684"/>
       <c r="L4" s="133">
         <f>在庫情報R!BN4</f>
         <v>0</v>
@@ -26750,7 +26750,7 @@
         <f>在庫情報R!BS4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="674">
+      <c r="R4" s="673">
         <v>28</v>
       </c>
       <c r="S4" s="676">
@@ -26765,8 +26765,8 @@
       <c r="V4" s="676">
         <v>28</v>
       </c>
-      <c r="W4" s="678"/>
-      <c r="X4" s="701">
+      <c r="W4" s="679"/>
+      <c r="X4" s="682">
         <f>SUM(L4:L6)*R4+SUM(M4:M6)*S4+SUM(N4:N6)*T4+SUM(O4:O6)*U4+SUM(P4:P6)*V4+SUM(Q4:Q6)*W4</f>
         <v>0</v>
       </c>
@@ -26795,7 +26795,7 @@
       <c r="J5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="697"/>
+      <c r="K5" s="685"/>
       <c r="L5" s="34">
         <f>在庫情報R!BN5</f>
         <v>0</v>
@@ -26820,13 +26820,13 @@
         <f>在庫情報R!BS5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="683"/>
-      <c r="S5" s="684"/>
-      <c r="T5" s="684"/>
-      <c r="U5" s="684"/>
-      <c r="V5" s="684"/>
-      <c r="W5" s="685"/>
-      <c r="X5" s="671"/>
+      <c r="R5" s="674"/>
+      <c r="S5" s="677"/>
+      <c r="T5" s="677"/>
+      <c r="U5" s="677"/>
+      <c r="V5" s="677"/>
+      <c r="W5" s="680"/>
+      <c r="X5" s="683"/>
     </row>
     <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -26852,7 +26852,7 @@
       <c r="J6" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="698"/>
+      <c r="K6" s="686"/>
       <c r="L6" s="30">
         <f>在庫情報R!BN6</f>
         <v>0</v>
@@ -26878,12 +26878,12 @@
         <v>0</v>
       </c>
       <c r="R6" s="675"/>
-      <c r="S6" s="677"/>
-      <c r="T6" s="677"/>
-      <c r="U6" s="677"/>
-      <c r="V6" s="677"/>
-      <c r="W6" s="679"/>
-      <c r="X6" s="671"/>
+      <c r="S6" s="678"/>
+      <c r="T6" s="678"/>
+      <c r="U6" s="678"/>
+      <c r="V6" s="678"/>
+      <c r="W6" s="681"/>
+      <c r="X6" s="683"/>
     </row>
     <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -26911,7 +26911,7 @@
       <c r="J7" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="672"/>
+      <c r="K7" s="687"/>
       <c r="L7" s="26">
         <f>在庫情報R!BN7</f>
         <v>0</v>
@@ -26936,7 +26936,7 @@
         <f>在庫情報R!BS7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="674">
+      <c r="R7" s="673">
         <v>34</v>
       </c>
       <c r="S7" s="676">
@@ -26951,8 +26951,8 @@
       <c r="V7" s="676">
         <v>34</v>
       </c>
-      <c r="W7" s="678"/>
-      <c r="X7" s="671">
+      <c r="W7" s="679"/>
+      <c r="X7" s="683">
         <f>SUM(L7:L10)*R7+SUM(M7:M10)*S7+SUM(N7:N10)*T7+SUM(O7:O10)*U7+SUM(P7:P10)*V7+SUM(Q7:Q10)*W7</f>
         <v>0</v>
       </c>
@@ -26981,7 +26981,7 @@
       <c r="J8" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="686"/>
+      <c r="K8" s="688"/>
       <c r="L8" s="28">
         <f>在庫情報R!BN8</f>
         <v>0</v>
@@ -27006,13 +27006,13 @@
         <f>在庫情報R!BS8</f>
         <v>0</v>
       </c>
-      <c r="R8" s="683"/>
-      <c r="S8" s="684"/>
-      <c r="T8" s="684"/>
-      <c r="U8" s="684"/>
-      <c r="V8" s="684"/>
-      <c r="W8" s="685"/>
-      <c r="X8" s="671"/>
+      <c r="R8" s="674"/>
+      <c r="S8" s="677"/>
+      <c r="T8" s="677"/>
+      <c r="U8" s="677"/>
+      <c r="V8" s="677"/>
+      <c r="W8" s="680"/>
+      <c r="X8" s="683"/>
     </row>
     <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -27038,7 +27038,7 @@
       <c r="J9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="686"/>
+      <c r="K9" s="688"/>
       <c r="L9" s="28">
         <f>在庫情報R!BN9</f>
         <v>0</v>
@@ -27063,13 +27063,13 @@
         <f>在庫情報R!BS9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="683"/>
-      <c r="S9" s="684"/>
-      <c r="T9" s="684"/>
-      <c r="U9" s="684"/>
-      <c r="V9" s="684"/>
-      <c r="W9" s="685"/>
-      <c r="X9" s="671"/>
+      <c r="R9" s="674"/>
+      <c r="S9" s="677"/>
+      <c r="T9" s="677"/>
+      <c r="U9" s="677"/>
+      <c r="V9" s="677"/>
+      <c r="W9" s="680"/>
+      <c r="X9" s="683"/>
     </row>
     <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -27095,7 +27095,7 @@
       <c r="J10" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="673"/>
+      <c r="K10" s="689"/>
       <c r="L10" s="30">
         <f>在庫情報R!BN10</f>
         <v>0</v>
@@ -27121,12 +27121,12 @@
         <v>0</v>
       </c>
       <c r="R10" s="675"/>
-      <c r="S10" s="677"/>
-      <c r="T10" s="677"/>
-      <c r="U10" s="677"/>
-      <c r="V10" s="677"/>
-      <c r="W10" s="679"/>
-      <c r="X10" s="671"/>
+      <c r="S10" s="678"/>
+      <c r="T10" s="678"/>
+      <c r="U10" s="678"/>
+      <c r="V10" s="678"/>
+      <c r="W10" s="681"/>
+      <c r="X10" s="683"/>
     </row>
     <row r="11" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -27181,7 +27181,7 @@
         <f>在庫情報R!BS11</f>
         <v>0</v>
       </c>
-      <c r="R11" s="674">
+      <c r="R11" s="673">
         <v>36</v>
       </c>
       <c r="S11" s="676">
@@ -27196,10 +27196,10 @@
       <c r="V11" s="676">
         <v>36</v>
       </c>
-      <c r="W11" s="680">
+      <c r="W11" s="693">
         <v>36</v>
       </c>
-      <c r="X11" s="671">
+      <c r="X11" s="683">
         <f>SUM(L11:L12)*R11+SUM(M11:M12)*S11+SUM(N11:N12)*T11+SUM(O11:O12)*U11+SUM(P11:P12)*V11+SUM(Q11:Q12)*W11</f>
         <v>0</v>
       </c>
@@ -27256,12 +27256,12 @@
         <v>0</v>
       </c>
       <c r="R12" s="675"/>
-      <c r="S12" s="677"/>
-      <c r="T12" s="677"/>
-      <c r="U12" s="677"/>
-      <c r="V12" s="677"/>
-      <c r="W12" s="682"/>
-      <c r="X12" s="671"/>
+      <c r="S12" s="678"/>
+      <c r="T12" s="678"/>
+      <c r="U12" s="678"/>
+      <c r="V12" s="678"/>
+      <c r="W12" s="694"/>
+      <c r="X12" s="683"/>
     </row>
     <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -27283,9 +27283,9 @@
       <c r="H13" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="687"/>
-      <c r="J13" s="687"/>
-      <c r="K13" s="672"/>
+      <c r="I13" s="695"/>
+      <c r="J13" s="695"/>
+      <c r="K13" s="687"/>
       <c r="L13" s="26">
         <f>在庫情報R!BN13</f>
         <v>0</v>
@@ -27310,7 +27310,7 @@
         <f>在庫情報R!BS13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="674">
+      <c r="R13" s="673">
         <v>20</v>
       </c>
       <c r="S13" s="676">
@@ -27319,10 +27319,10 @@
       <c r="T13" s="676">
         <v>20</v>
       </c>
-      <c r="U13" s="693"/>
-      <c r="V13" s="693"/>
-      <c r="W13" s="678"/>
-      <c r="X13" s="671">
+      <c r="U13" s="690"/>
+      <c r="V13" s="690"/>
+      <c r="W13" s="679"/>
+      <c r="X13" s="683">
         <f>SUM(L13:L15)*R13+SUM(M13:M15)*S13+SUM(N13:N15)*T13+SUM(O13:O15)*U13+SUM(P13:P15)*V13+SUM(Q13:Q15)*W13</f>
         <v>0</v>
       </c>
@@ -27345,9 +27345,9 @@
       <c r="H14" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="688"/>
-      <c r="J14" s="688"/>
-      <c r="K14" s="686"/>
+      <c r="I14" s="696"/>
+      <c r="J14" s="696"/>
+      <c r="K14" s="688"/>
       <c r="L14" s="28">
         <f>在庫情報R!BN14</f>
         <v>0</v>
@@ -27372,13 +27372,13 @@
         <f>在庫情報R!BS14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="683"/>
-      <c r="S14" s="684"/>
-      <c r="T14" s="684"/>
-      <c r="U14" s="694"/>
-      <c r="V14" s="694"/>
-      <c r="W14" s="685"/>
-      <c r="X14" s="671"/>
+      <c r="R14" s="674"/>
+      <c r="S14" s="677"/>
+      <c r="T14" s="677"/>
+      <c r="U14" s="691"/>
+      <c r="V14" s="691"/>
+      <c r="W14" s="680"/>
+      <c r="X14" s="683"/>
     </row>
     <row r="15" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -27398,9 +27398,9 @@
       <c r="H15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="689"/>
-      <c r="J15" s="689"/>
-      <c r="K15" s="673"/>
+      <c r="I15" s="697"/>
+      <c r="J15" s="697"/>
+      <c r="K15" s="689"/>
       <c r="L15" s="30">
         <f>在庫情報R!BN15</f>
         <v>0</v>
@@ -27426,12 +27426,12 @@
         <v>0</v>
       </c>
       <c r="R15" s="675"/>
-      <c r="S15" s="677"/>
-      <c r="T15" s="677"/>
-      <c r="U15" s="695"/>
-      <c r="V15" s="695"/>
-      <c r="W15" s="679"/>
-      <c r="X15" s="671"/>
+      <c r="S15" s="678"/>
+      <c r="T15" s="678"/>
+      <c r="U15" s="692"/>
+      <c r="V15" s="692"/>
+      <c r="W15" s="681"/>
+      <c r="X15" s="683"/>
     </row>
     <row r="16" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -27459,7 +27459,7 @@
       <c r="J16" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="672"/>
+      <c r="K16" s="687"/>
       <c r="L16" s="26">
         <f>在庫情報R!BN16</f>
         <v>0</v>
@@ -27484,7 +27484,7 @@
         <f>在庫情報R!BS16</f>
         <v>0</v>
       </c>
-      <c r="R16" s="674">
+      <c r="R16" s="673">
         <v>20</v>
       </c>
       <c r="S16" s="676">
@@ -27493,14 +27493,14 @@
       <c r="T16" s="676">
         <v>20</v>
       </c>
-      <c r="U16" s="690">
+      <c r="U16" s="698">
         <v>26</v>
       </c>
-      <c r="V16" s="690">
+      <c r="V16" s="698">
         <v>26</v>
       </c>
-      <c r="W16" s="678"/>
-      <c r="X16" s="671">
+      <c r="W16" s="679"/>
+      <c r="X16" s="683">
         <f>SUM(L16:L18)*R16+SUM(M16:M18)*S16+SUM(N16:N18)*T16+SUM(O16:O18)*U16+SUM(P16:P18)*V16+SUM(Q16:Q18)*W16</f>
         <v>0</v>
       </c>
@@ -27529,7 +27529,7 @@
       <c r="J17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="686"/>
+      <c r="K17" s="688"/>
       <c r="L17" s="28">
         <f>在庫情報R!BN17</f>
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <f>在庫情報R!BS17</f>
         <v>0</v>
       </c>
-      <c r="R17" s="683"/>
-      <c r="S17" s="684"/>
-      <c r="T17" s="684"/>
-      <c r="U17" s="691"/>
-      <c r="V17" s="691"/>
-      <c r="W17" s="685"/>
-      <c r="X17" s="671"/>
+      <c r="R17" s="674"/>
+      <c r="S17" s="677"/>
+      <c r="T17" s="677"/>
+      <c r="U17" s="699"/>
+      <c r="V17" s="699"/>
+      <c r="W17" s="680"/>
+      <c r="X17" s="683"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -27586,7 +27586,7 @@
       <c r="J18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="673"/>
+      <c r="K18" s="689"/>
       <c r="L18" s="30">
         <f>在庫情報R!BN18</f>
         <v>0</v>
@@ -27612,12 +27612,12 @@
         <v>0</v>
       </c>
       <c r="R18" s="675"/>
-      <c r="S18" s="677"/>
-      <c r="T18" s="677"/>
-      <c r="U18" s="692"/>
-      <c r="V18" s="692"/>
-      <c r="W18" s="679"/>
-      <c r="X18" s="671"/>
+      <c r="S18" s="678"/>
+      <c r="T18" s="678"/>
+      <c r="U18" s="700"/>
+      <c r="V18" s="700"/>
+      <c r="W18" s="681"/>
+      <c r="X18" s="683"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -27645,7 +27645,7 @@
       <c r="J19" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="672"/>
+      <c r="K19" s="687"/>
       <c r="L19" s="26">
         <f>在庫情報R!BN19</f>
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <f>在庫情報R!BS19</f>
         <v>0</v>
       </c>
-      <c r="R19" s="674">
+      <c r="R19" s="673">
         <v>38</v>
       </c>
       <c r="S19" s="676">
@@ -27685,8 +27685,8 @@
       <c r="V19" s="676">
         <v>38</v>
       </c>
-      <c r="W19" s="678"/>
-      <c r="X19" s="671">
+      <c r="W19" s="679"/>
+      <c r="X19" s="683">
         <f>SUM(L19:L21)*R19+SUM(M19:M21)*S19+SUM(N19:N21)*T19+SUM(O19:O21)*U19+SUM(P19:P21)*V19+SUM(Q19:Q21)*W19</f>
         <v>0</v>
       </c>
@@ -27715,7 +27715,7 @@
       <c r="J20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="686"/>
+      <c r="K20" s="688"/>
       <c r="L20" s="34">
         <f>在庫情報R!BN20</f>
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <f>在庫情報R!BS20</f>
         <v>0</v>
       </c>
-      <c r="R20" s="683"/>
-      <c r="S20" s="684"/>
-      <c r="T20" s="684"/>
-      <c r="U20" s="684"/>
-      <c r="V20" s="684"/>
-      <c r="W20" s="685"/>
-      <c r="X20" s="671"/>
+      <c r="R20" s="674"/>
+      <c r="S20" s="677"/>
+      <c r="T20" s="677"/>
+      <c r="U20" s="677"/>
+      <c r="V20" s="677"/>
+      <c r="W20" s="680"/>
+      <c r="X20" s="683"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -27772,7 +27772,7 @@
       <c r="J21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="673"/>
+      <c r="K21" s="689"/>
       <c r="L21" s="36">
         <f>在庫情報R!BN21</f>
         <v>0</v>
@@ -27798,12 +27798,12 @@
         <v>0</v>
       </c>
       <c r="R21" s="675"/>
-      <c r="S21" s="677"/>
-      <c r="T21" s="677"/>
-      <c r="U21" s="677"/>
-      <c r="V21" s="677"/>
-      <c r="W21" s="679"/>
-      <c r="X21" s="671"/>
+      <c r="S21" s="678"/>
+      <c r="T21" s="678"/>
+      <c r="U21" s="678"/>
+      <c r="V21" s="678"/>
+      <c r="W21" s="681"/>
+      <c r="X21" s="683"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -27831,7 +27831,7 @@
       <c r="J22" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="672"/>
+      <c r="K22" s="687"/>
       <c r="L22" s="26">
         <f>在庫情報R!BN22</f>
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <f>在庫情報R!BS22</f>
         <v>0</v>
       </c>
-      <c r="R22" s="674">
+      <c r="R22" s="673">
         <v>25</v>
       </c>
       <c r="S22" s="676">
@@ -27871,8 +27871,8 @@
       <c r="V22" s="676">
         <v>25</v>
       </c>
-      <c r="W22" s="678"/>
-      <c r="X22" s="671">
+      <c r="W22" s="679"/>
+      <c r="X22" s="683">
         <f>SUM(L22:L23)*R22+SUM(M22:M23)*S22+SUM(N22:N23)*T22+SUM(O22:O23)*U22+SUM(P22:P23)*V22+SUM(Q22:Q23)*W22</f>
         <v>0</v>
       </c>
@@ -27901,7 +27901,7 @@
       <c r="J23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="673"/>
+      <c r="K23" s="689"/>
       <c r="L23" s="30">
         <f>在庫情報R!BN23</f>
         <v>0</v>
@@ -27927,12 +27927,12 @@
         <v>0</v>
       </c>
       <c r="R23" s="675"/>
-      <c r="S23" s="677"/>
-      <c r="T23" s="677"/>
-      <c r="U23" s="677"/>
-      <c r="V23" s="677"/>
-      <c r="W23" s="679"/>
-      <c r="X23" s="671"/>
+      <c r="S23" s="678"/>
+      <c r="T23" s="678"/>
+      <c r="U23" s="678"/>
+      <c r="V23" s="678"/>
+      <c r="W23" s="681"/>
+      <c r="X23" s="683"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -27987,7 +27987,7 @@
         <f>在庫情報R!BS24</f>
         <v>0</v>
       </c>
-      <c r="R24" s="674">
+      <c r="R24" s="673">
         <v>36</v>
       </c>
       <c r="S24" s="676">
@@ -28002,10 +28002,10 @@
       <c r="V24" s="676">
         <v>36</v>
       </c>
-      <c r="W24" s="680">
+      <c r="W24" s="693">
         <v>36</v>
       </c>
-      <c r="X24" s="671">
+      <c r="X24" s="683">
         <f>SUM(L24:L27)*R24+SUM(M24:M27)*S24+SUM(N24:N27)*T24+SUM(O24:O27)*U24+SUM(P24:P27)*V24+SUM(Q24:Q27)*W24</f>
         <v>0</v>
       </c>
@@ -28061,13 +28061,13 @@
         <f>在庫情報R!BS25</f>
         <v>0</v>
       </c>
-      <c r="R25" s="683"/>
-      <c r="S25" s="684"/>
-      <c r="T25" s="684"/>
-      <c r="U25" s="684"/>
-      <c r="V25" s="684"/>
-      <c r="W25" s="681"/>
-      <c r="X25" s="671"/>
+      <c r="R25" s="674"/>
+      <c r="S25" s="677"/>
+      <c r="T25" s="677"/>
+      <c r="U25" s="677"/>
+      <c r="V25" s="677"/>
+      <c r="W25" s="701"/>
+      <c r="X25" s="683"/>
     </row>
     <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
@@ -28120,13 +28120,13 @@
         <f>在庫情報R!BS26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="683"/>
-      <c r="S26" s="684"/>
-      <c r="T26" s="684"/>
-      <c r="U26" s="684"/>
-      <c r="V26" s="684"/>
-      <c r="W26" s="681"/>
-      <c r="X26" s="671"/>
+      <c r="R26" s="674"/>
+      <c r="S26" s="677"/>
+      <c r="T26" s="677"/>
+      <c r="U26" s="677"/>
+      <c r="V26" s="677"/>
+      <c r="W26" s="701"/>
+      <c r="X26" s="683"/>
     </row>
     <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
@@ -28180,12 +28180,12 @@
         <v>0</v>
       </c>
       <c r="R27" s="675"/>
-      <c r="S27" s="677"/>
-      <c r="T27" s="677"/>
-      <c r="U27" s="677"/>
-      <c r="V27" s="677"/>
-      <c r="W27" s="682"/>
-      <c r="X27" s="671"/>
+      <c r="S27" s="678"/>
+      <c r="T27" s="678"/>
+      <c r="U27" s="678"/>
+      <c r="V27" s="678"/>
+      <c r="W27" s="694"/>
+      <c r="X27" s="683"/>
     </row>
     <row r="28" spans="2:24" ht="140.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B28" s="5" t="s">
@@ -28281,7 +28281,7 @@
       <c r="J29" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="672"/>
+      <c r="K29" s="687"/>
       <c r="L29" s="26">
         <f>在庫情報R!BN29</f>
         <v>0</v>
@@ -28306,7 +28306,7 @@
         <f>在庫情報R!BS29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="674">
+      <c r="R29" s="673">
         <v>35</v>
       </c>
       <c r="S29" s="676">
@@ -28321,8 +28321,8 @@
       <c r="V29" s="676">
         <v>35</v>
       </c>
-      <c r="W29" s="678"/>
-      <c r="X29" s="671">
+      <c r="W29" s="679"/>
+      <c r="X29" s="683">
         <f>SUM(L29:L30)*R29+SUM(M29:M30)*S29+SUM(N29:N30)*T29+SUM(O29:O30)*U29+SUM(P29:P30)*V29+SUM(Q29:Q30)*W29</f>
         <v>0</v>
       </c>
@@ -28351,7 +28351,7 @@
       <c r="J30" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="K30" s="673"/>
+      <c r="K30" s="689"/>
       <c r="L30" s="36">
         <f>在庫情報R!BN30</f>
         <v>0</v>
@@ -28377,12 +28377,12 @@
         <v>0</v>
       </c>
       <c r="R30" s="675"/>
-      <c r="S30" s="677"/>
-      <c r="T30" s="677"/>
-      <c r="U30" s="677"/>
-      <c r="V30" s="677"/>
-      <c r="W30" s="679"/>
-      <c r="X30" s="671"/>
+      <c r="S30" s="678"/>
+      <c r="T30" s="678"/>
+      <c r="U30" s="678"/>
+      <c r="V30" s="678"/>
+      <c r="W30" s="681"/>
+      <c r="X30" s="683"/>
     </row>
     <row r="31" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
@@ -28430,12 +28430,12 @@
       <c r="R31" s="702">
         <v>33</v>
       </c>
-      <c r="S31" s="693"/>
-      <c r="T31" s="693"/>
-      <c r="U31" s="693"/>
-      <c r="V31" s="693"/>
-      <c r="W31" s="678"/>
-      <c r="X31" s="671">
+      <c r="S31" s="690"/>
+      <c r="T31" s="690"/>
+      <c r="U31" s="690"/>
+      <c r="V31" s="690"/>
+      <c r="W31" s="679"/>
+      <c r="X31" s="683">
         <f>SUM(L31:L32)*R31+SUM(M31:M32)*S31+SUM(N31:N32)*T31+SUM(O31:O32)*U31+SUM(P31:P32)*V31+SUM(Q31:Q32)*W31</f>
         <v>0</v>
       </c>
@@ -28482,11 +28482,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="703"/>
-      <c r="S32" s="695"/>
-      <c r="T32" s="695"/>
-      <c r="U32" s="695"/>
-      <c r="V32" s="695"/>
-      <c r="W32" s="679"/>
+      <c r="S32" s="692"/>
+      <c r="T32" s="692"/>
+      <c r="U32" s="692"/>
+      <c r="V32" s="692"/>
+      <c r="W32" s="681"/>
       <c r="X32" s="704"/>
     </row>
     <row r="33" spans="2:24" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
@@ -29515,30 +29515,48 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X7:X10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="U7:U10"/>
-    <mergeCell ref="V7:V10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W7:W10"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X24:X27"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="T24:T27"/>
+    <mergeCell ref="U24:U27"/>
+    <mergeCell ref="V24:V27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="W22:W23"/>
     <mergeCell ref="R13:R15"/>
     <mergeCell ref="S13:S15"/>
     <mergeCell ref="T13:T15"/>
@@ -29553,48 +29571,30 @@
     <mergeCell ref="V13:V15"/>
     <mergeCell ref="W16:W18"/>
     <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X24:X27"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="T24:T27"/>
-    <mergeCell ref="U24:U27"/>
-    <mergeCell ref="V24:V27"/>
-    <mergeCell ref="W24:W27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="V7:V10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W7:W10"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X7:X10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29614,7 +29614,7 @@
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -32477,7 +32477,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U65" s="422"/>
+      <c r="U65" s="351"/>
       <c r="V65" s="397">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -44464,7 +44464,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="699" t="s">
+      <c r="R2" s="671" t="s">
         <v>274</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -44525,7 +44525,7 @@
       <c r="Q3" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="R3" s="700"/>
+      <c r="R3" s="672"/>
       <c r="S3" s="7" t="s">
         <v>275</v>
       </c>
@@ -44586,7 +44586,7 @@
         <f>'在庫情報（雨衣）'!BY4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="674">
+      <c r="L4" s="673">
         <v>28</v>
       </c>
       <c r="M4" s="676">
@@ -44601,8 +44601,8 @@
       <c r="P4" s="676">
         <v>28</v>
       </c>
-      <c r="Q4" s="678"/>
-      <c r="R4" s="701">
+      <c r="Q4" s="679"/>
+      <c r="R4" s="682">
         <f>SUM(F4:F6)*L4+SUM(G4:G6)*M4+SUM(H4:H6)*N4+SUM(I4:I6)*O4+SUM(J4:J6)*P4+SUM(K4:K6)*Q4</f>
         <v>0</v>
       </c>
@@ -44621,7 +44621,7 @@
       <c r="W4" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="696"/>
+      <c r="X4" s="684"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
@@ -44656,13 +44656,13 @@
         <f>'在庫情報（雨衣）'!BY5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="683"/>
-      <c r="M5" s="684"/>
-      <c r="N5" s="684"/>
-      <c r="O5" s="684"/>
-      <c r="P5" s="684"/>
-      <c r="Q5" s="685"/>
-      <c r="R5" s="671"/>
+      <c r="L5" s="674"/>
+      <c r="M5" s="677"/>
+      <c r="N5" s="677"/>
+      <c r="O5" s="677"/>
+      <c r="P5" s="677"/>
+      <c r="Q5" s="680"/>
+      <c r="R5" s="683"/>
       <c r="S5" s="562" t="s">
         <v>874</v>
       </c>
@@ -44678,7 +44678,7 @@
       <c r="W5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="697"/>
+      <c r="X5" s="685"/>
     </row>
     <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -44714,12 +44714,12 @@
         <v>0</v>
       </c>
       <c r="L6" s="675"/>
-      <c r="M6" s="677"/>
-      <c r="N6" s="677"/>
-      <c r="O6" s="677"/>
-      <c r="P6" s="677"/>
-      <c r="Q6" s="679"/>
-      <c r="R6" s="671"/>
+      <c r="M6" s="678"/>
+      <c r="N6" s="678"/>
+      <c r="O6" s="678"/>
+      <c r="P6" s="678"/>
+      <c r="Q6" s="681"/>
+      <c r="R6" s="683"/>
       <c r="S6" s="563" t="s">
         <v>879</v>
       </c>
@@ -44735,7 +44735,7 @@
       <c r="W6" s="81" t="s">
         <v>883</v>
       </c>
-      <c r="X6" s="698"/>
+      <c r="X6" s="686"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -44772,7 +44772,7 @@
         <f>'在庫情報（雨衣）'!BY7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="674">
+      <c r="L7" s="673">
         <v>34</v>
       </c>
       <c r="M7" s="676">
@@ -44787,8 +44787,8 @@
       <c r="P7" s="676">
         <v>34</v>
       </c>
-      <c r="Q7" s="678"/>
-      <c r="R7" s="671">
+      <c r="Q7" s="679"/>
+      <c r="R7" s="683">
         <f>SUM(F7:F10)*L7+SUM(G7:G10)*M7+SUM(H7:H10)*N7+SUM(I7:I10)*O7+SUM(J7:J10)*P7+SUM(K7:K10)*Q7</f>
         <v>0</v>
       </c>
@@ -44807,7 +44807,7 @@
       <c r="W7" s="81" t="s">
         <v>891</v>
       </c>
-      <c r="X7" s="672"/>
+      <c r="X7" s="687"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -44842,13 +44842,13 @@
         <f>'在庫情報（雨衣）'!BY8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="683"/>
-      <c r="M8" s="684"/>
-      <c r="N8" s="684"/>
-      <c r="O8" s="684"/>
-      <c r="P8" s="684"/>
-      <c r="Q8" s="685"/>
-      <c r="R8" s="671"/>
+      <c r="L8" s="674"/>
+      <c r="M8" s="677"/>
+      <c r="N8" s="677"/>
+      <c r="O8" s="677"/>
+      <c r="P8" s="677"/>
+      <c r="Q8" s="680"/>
+      <c r="R8" s="683"/>
       <c r="S8" s="563" t="s">
         <v>894</v>
       </c>
@@ -44864,7 +44864,7 @@
       <c r="W8" s="81" t="s">
         <v>896</v>
       </c>
-      <c r="X8" s="686"/>
+      <c r="X8" s="688"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -44899,13 +44899,13 @@
         <f>'在庫情報（雨衣）'!BY9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="683"/>
-      <c r="M9" s="684"/>
-      <c r="N9" s="684"/>
-      <c r="O9" s="684"/>
-      <c r="P9" s="684"/>
-      <c r="Q9" s="685"/>
-      <c r="R9" s="671"/>
+      <c r="L9" s="674"/>
+      <c r="M9" s="677"/>
+      <c r="N9" s="677"/>
+      <c r="O9" s="677"/>
+      <c r="P9" s="677"/>
+      <c r="Q9" s="680"/>
+      <c r="R9" s="683"/>
       <c r="S9" s="563" t="s">
         <v>74</v>
       </c>
@@ -44921,7 +44921,7 @@
       <c r="W9" s="81" t="s">
         <v>899</v>
       </c>
-      <c r="X9" s="686"/>
+      <c r="X9" s="688"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -44957,12 +44957,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="675"/>
-      <c r="M10" s="677"/>
-      <c r="N10" s="677"/>
-      <c r="O10" s="677"/>
-      <c r="P10" s="677"/>
-      <c r="Q10" s="679"/>
-      <c r="R10" s="671"/>
+      <c r="M10" s="678"/>
+      <c r="N10" s="678"/>
+      <c r="O10" s="678"/>
+      <c r="P10" s="678"/>
+      <c r="Q10" s="681"/>
+      <c r="R10" s="683"/>
       <c r="S10" s="563" t="s">
         <v>902</v>
       </c>
@@ -44978,7 +44978,7 @@
       <c r="W10" s="81" t="s">
         <v>906</v>
       </c>
-      <c r="X10" s="673"/>
+      <c r="X10" s="689"/>
     </row>
     <row r="11" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -45015,7 +45015,7 @@
         <f>'在庫情報（雨衣）'!BY11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="674">
+      <c r="L11" s="673">
         <v>36</v>
       </c>
       <c r="M11" s="676">
@@ -45030,10 +45030,10 @@
       <c r="P11" s="676">
         <v>36</v>
       </c>
-      <c r="Q11" s="680">
+      <c r="Q11" s="693">
         <v>36</v>
       </c>
-      <c r="R11" s="671">
+      <c r="R11" s="683">
         <f>SUM(F11:F12)*L11+SUM(G11:G12)*M11+SUM(H11:H12)*N11+SUM(I11:I12)*O11+SUM(J11:J12)*P11+SUM(K11:K12)*Q11</f>
         <v>0</v>
       </c>
@@ -45090,12 +45090,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="675"/>
-      <c r="M12" s="677"/>
-      <c r="N12" s="677"/>
-      <c r="O12" s="677"/>
-      <c r="P12" s="677"/>
-      <c r="Q12" s="682"/>
-      <c r="R12" s="671"/>
+      <c r="M12" s="678"/>
+      <c r="N12" s="678"/>
+      <c r="O12" s="678"/>
+      <c r="P12" s="678"/>
+      <c r="Q12" s="694"/>
+      <c r="R12" s="683"/>
       <c r="S12" s="563" t="s">
         <v>913</v>
       </c>
@@ -45150,7 +45150,7 @@
         <f>'在庫情報（雨衣）'!BY13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="674">
+      <c r="L13" s="673">
         <v>20</v>
       </c>
       <c r="M13" s="676">
@@ -45159,10 +45159,10 @@
       <c r="N13" s="676">
         <v>20</v>
       </c>
-      <c r="O13" s="693"/>
-      <c r="P13" s="693"/>
-      <c r="Q13" s="678"/>
-      <c r="R13" s="671">
+      <c r="O13" s="690"/>
+      <c r="P13" s="690"/>
+      <c r="Q13" s="679"/>
+      <c r="R13" s="683">
         <f>SUM(F13:F15)*L13+SUM(G13:G15)*M13+SUM(H13:H15)*N13+SUM(I13:I15)*O13+SUM(J13:J15)*P13+SUM(K13:K15)*Q13</f>
         <v>0</v>
       </c>
@@ -45175,9 +45175,9 @@
       <c r="U13" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="V13" s="687"/>
-      <c r="W13" s="687"/>
-      <c r="X13" s="672"/>
+      <c r="V13" s="695"/>
+      <c r="W13" s="695"/>
+      <c r="X13" s="687"/>
     </row>
     <row r="14" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
@@ -45212,13 +45212,13 @@
         <f>'在庫情報（雨衣）'!BY14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="683"/>
-      <c r="M14" s="684"/>
-      <c r="N14" s="684"/>
-      <c r="O14" s="694"/>
-      <c r="P14" s="694"/>
-      <c r="Q14" s="685"/>
-      <c r="R14" s="671"/>
+      <c r="L14" s="674"/>
+      <c r="M14" s="677"/>
+      <c r="N14" s="677"/>
+      <c r="O14" s="691"/>
+      <c r="P14" s="691"/>
+      <c r="Q14" s="680"/>
+      <c r="R14" s="683"/>
       <c r="S14" s="563" t="s">
         <v>918</v>
       </c>
@@ -45228,9 +45228,9 @@
       <c r="U14" s="93" t="s">
         <v>920</v>
       </c>
-      <c r="V14" s="688"/>
-      <c r="W14" s="688"/>
-      <c r="X14" s="686"/>
+      <c r="V14" s="696"/>
+      <c r="W14" s="696"/>
+      <c r="X14" s="688"/>
     </row>
     <row r="15" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -45266,12 +45266,12 @@
         <v>0</v>
       </c>
       <c r="L15" s="675"/>
-      <c r="M15" s="677"/>
-      <c r="N15" s="677"/>
-      <c r="O15" s="695"/>
-      <c r="P15" s="695"/>
-      <c r="Q15" s="679"/>
-      <c r="R15" s="671"/>
+      <c r="M15" s="678"/>
+      <c r="N15" s="678"/>
+      <c r="O15" s="692"/>
+      <c r="P15" s="692"/>
+      <c r="Q15" s="681"/>
+      <c r="R15" s="683"/>
       <c r="S15" s="563" t="s">
         <v>98</v>
       </c>
@@ -45281,9 +45281,9 @@
       <c r="U15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="V15" s="689"/>
-      <c r="W15" s="689"/>
-      <c r="X15" s="673"/>
+      <c r="V15" s="697"/>
+      <c r="W15" s="697"/>
+      <c r="X15" s="689"/>
     </row>
     <row r="16" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -45320,7 +45320,7 @@
         <f>'在庫情報（雨衣）'!BY16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="674">
+      <c r="L16" s="673">
         <v>20</v>
       </c>
       <c r="M16" s="676">
@@ -45329,14 +45329,14 @@
       <c r="N16" s="676">
         <v>20</v>
       </c>
-      <c r="O16" s="690">
+      <c r="O16" s="698">
         <v>26</v>
       </c>
-      <c r="P16" s="690">
+      <c r="P16" s="698">
         <v>26</v>
       </c>
-      <c r="Q16" s="678"/>
-      <c r="R16" s="671">
+      <c r="Q16" s="679"/>
+      <c r="R16" s="683">
         <f>SUM(F16:F18)*L16+SUM(G16:G18)*M16+SUM(H16:H18)*N16+SUM(I16:I18)*O16+SUM(J16:J18)*P16+SUM(K16:K18)*Q16</f>
         <v>0</v>
       </c>
@@ -45355,7 +45355,7 @@
       <c r="W16" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="X16" s="672"/>
+      <c r="X16" s="687"/>
     </row>
     <row r="17" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
@@ -45390,13 +45390,13 @@
         <f>'在庫情報（雨衣）'!BY17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="683"/>
-      <c r="M17" s="684"/>
-      <c r="N17" s="684"/>
-      <c r="O17" s="691"/>
-      <c r="P17" s="691"/>
-      <c r="Q17" s="685"/>
-      <c r="R17" s="671"/>
+      <c r="L17" s="674"/>
+      <c r="M17" s="677"/>
+      <c r="N17" s="677"/>
+      <c r="O17" s="699"/>
+      <c r="P17" s="699"/>
+      <c r="Q17" s="680"/>
+      <c r="R17" s="683"/>
       <c r="S17" s="563" t="s">
         <v>109</v>
       </c>
@@ -45412,7 +45412,7 @@
       <c r="W17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="X17" s="686"/>
+      <c r="X17" s="688"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -45448,12 +45448,12 @@
         <v>0</v>
       </c>
       <c r="L18" s="675"/>
-      <c r="M18" s="677"/>
-      <c r="N18" s="677"/>
-      <c r="O18" s="692"/>
-      <c r="P18" s="692"/>
-      <c r="Q18" s="679"/>
-      <c r="R18" s="671"/>
+      <c r="M18" s="678"/>
+      <c r="N18" s="678"/>
+      <c r="O18" s="700"/>
+      <c r="P18" s="700"/>
+      <c r="Q18" s="681"/>
+      <c r="R18" s="683"/>
       <c r="S18" s="563" t="s">
         <v>106</v>
       </c>
@@ -45469,7 +45469,7 @@
       <c r="W18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="X18" s="673"/>
+      <c r="X18" s="689"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -45506,7 +45506,7 @@
         <f>'在庫情報（雨衣）'!BY19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="674">
+      <c r="L19" s="673">
         <v>38</v>
       </c>
       <c r="M19" s="676">
@@ -45521,8 +45521,8 @@
       <c r="P19" s="676">
         <v>38</v>
       </c>
-      <c r="Q19" s="678"/>
-      <c r="R19" s="671">
+      <c r="Q19" s="679"/>
+      <c r="R19" s="683">
         <f>SUM(F19:F21)*L19+SUM(G19:G21)*M19+SUM(H19:H21)*N19+SUM(I19:I21)*O19+SUM(J19:J21)*P19+SUM(K19:K21)*Q19</f>
         <v>0</v>
       </c>
@@ -45541,7 +45541,7 @@
       <c r="W19" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="X19" s="672"/>
+      <c r="X19" s="687"/>
     </row>
     <row r="20" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
@@ -45576,13 +45576,13 @@
         <f>'在庫情報（雨衣）'!BY20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="683"/>
-      <c r="M20" s="684"/>
-      <c r="N20" s="684"/>
-      <c r="O20" s="684"/>
-      <c r="P20" s="684"/>
-      <c r="Q20" s="685"/>
-      <c r="R20" s="671"/>
+      <c r="L20" s="674"/>
+      <c r="M20" s="677"/>
+      <c r="N20" s="677"/>
+      <c r="O20" s="677"/>
+      <c r="P20" s="677"/>
+      <c r="Q20" s="680"/>
+      <c r="R20" s="683"/>
       <c r="S20" s="563" t="s">
         <v>126</v>
       </c>
@@ -45598,7 +45598,7 @@
       <c r="W20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="X20" s="686"/>
+      <c r="X20" s="688"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -45634,12 +45634,12 @@
         <v>0</v>
       </c>
       <c r="L21" s="675"/>
-      <c r="M21" s="677"/>
-      <c r="N21" s="677"/>
-      <c r="O21" s="677"/>
-      <c r="P21" s="677"/>
-      <c r="Q21" s="679"/>
-      <c r="R21" s="671"/>
+      <c r="M21" s="678"/>
+      <c r="N21" s="678"/>
+      <c r="O21" s="678"/>
+      <c r="P21" s="678"/>
+      <c r="Q21" s="681"/>
+      <c r="R21" s="683"/>
       <c r="S21" s="563" t="s">
         <v>131</v>
       </c>
@@ -45655,7 +45655,7 @@
       <c r="W21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="X21" s="673"/>
+      <c r="X21" s="689"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -45692,7 +45692,7 @@
         <f>'在庫情報（雨衣）'!BY22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="674">
+      <c r="L22" s="673">
         <v>25</v>
       </c>
       <c r="M22" s="676">
@@ -45707,8 +45707,8 @@
       <c r="P22" s="676">
         <v>25</v>
       </c>
-      <c r="Q22" s="678"/>
-      <c r="R22" s="671">
+      <c r="Q22" s="679"/>
+      <c r="R22" s="683">
         <f>SUM(F22:F23)*L22+SUM(G22:G23)*M22+SUM(H22:H23)*N22+SUM(I22:I23)*O22+SUM(J22:J23)*P22+SUM(K22:K23)*Q22</f>
         <v>0</v>
       </c>
@@ -45727,7 +45727,7 @@
       <c r="W22" s="93" t="s">
         <v>928</v>
       </c>
-      <c r="X22" s="672"/>
+      <c r="X22" s="687"/>
     </row>
     <row r="23" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
@@ -45763,12 +45763,12 @@
         <v>0</v>
       </c>
       <c r="L23" s="675"/>
-      <c r="M23" s="677"/>
-      <c r="N23" s="677"/>
-      <c r="O23" s="677"/>
-      <c r="P23" s="677"/>
-      <c r="Q23" s="679"/>
-      <c r="R23" s="671"/>
+      <c r="M23" s="678"/>
+      <c r="N23" s="678"/>
+      <c r="O23" s="678"/>
+      <c r="P23" s="678"/>
+      <c r="Q23" s="681"/>
+      <c r="R23" s="683"/>
       <c r="S23" s="563" t="s">
         <v>822</v>
       </c>
@@ -45784,7 +45784,7 @@
       <c r="W23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="X23" s="673"/>
+      <c r="X23" s="689"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -45821,7 +45821,7 @@
         <f>'在庫情報（雨衣）'!BY24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="674">
+      <c r="L24" s="673">
         <v>36</v>
       </c>
       <c r="M24" s="676">
@@ -45836,10 +45836,10 @@
       <c r="P24" s="676">
         <v>36</v>
       </c>
-      <c r="Q24" s="680">
+      <c r="Q24" s="693">
         <v>36</v>
       </c>
-      <c r="R24" s="671">
+      <c r="R24" s="683">
         <f>SUM(F24:F27)*L24+SUM(G24:G27)*M24+SUM(H24:H27)*N24+SUM(I24:I27)*O24+SUM(J24:J27)*P24+SUM(K24:K27)*Q24</f>
         <v>0</v>
       </c>
@@ -45895,13 +45895,13 @@
         <f>'在庫情報（雨衣）'!BY25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="683"/>
-      <c r="M25" s="684"/>
-      <c r="N25" s="684"/>
-      <c r="O25" s="684"/>
-      <c r="P25" s="684"/>
-      <c r="Q25" s="681"/>
-      <c r="R25" s="671"/>
+      <c r="L25" s="674"/>
+      <c r="M25" s="677"/>
+      <c r="N25" s="677"/>
+      <c r="O25" s="677"/>
+      <c r="P25" s="677"/>
+      <c r="Q25" s="701"/>
+      <c r="R25" s="683"/>
       <c r="S25" s="563" t="s">
         <v>144</v>
       </c>
@@ -45954,13 +45954,13 @@
         <f>'在庫情報（雨衣）'!BY26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="683"/>
-      <c r="M26" s="684"/>
-      <c r="N26" s="684"/>
-      <c r="O26" s="684"/>
-      <c r="P26" s="684"/>
-      <c r="Q26" s="681"/>
-      <c r="R26" s="671"/>
+      <c r="L26" s="674"/>
+      <c r="M26" s="677"/>
+      <c r="N26" s="677"/>
+      <c r="O26" s="677"/>
+      <c r="P26" s="677"/>
+      <c r="Q26" s="701"/>
+      <c r="R26" s="683"/>
       <c r="S26" s="563" t="s">
         <v>159</v>
       </c>
@@ -46014,12 +46014,12 @@
         <v>0</v>
       </c>
       <c r="L27" s="675"/>
-      <c r="M27" s="677"/>
-      <c r="N27" s="677"/>
-      <c r="O27" s="677"/>
-      <c r="P27" s="677"/>
-      <c r="Q27" s="682"/>
-      <c r="R27" s="671"/>
+      <c r="M27" s="678"/>
+      <c r="N27" s="678"/>
+      <c r="O27" s="678"/>
+      <c r="P27" s="678"/>
+      <c r="Q27" s="694"/>
+      <c r="R27" s="683"/>
       <c r="S27" s="563" t="s">
         <v>165</v>
       </c>
@@ -46142,7 +46142,7 @@
         <f>'在庫情報（雨衣）'!BY29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="674">
+      <c r="L29" s="673">
         <v>35</v>
       </c>
       <c r="M29" s="676">
@@ -46157,8 +46157,8 @@
       <c r="P29" s="676">
         <v>35</v>
       </c>
-      <c r="Q29" s="678"/>
-      <c r="R29" s="671">
+      <c r="Q29" s="679"/>
+      <c r="R29" s="683">
         <f>SUM(F29:F30)*L29+SUM(G29:G30)*M29+SUM(H29:H30)*N29+SUM(I29:I30)*O29+SUM(J29:J30)*P29+SUM(K29:K30)*Q29</f>
         <v>0</v>
       </c>
@@ -46177,7 +46177,7 @@
       <c r="W29" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="X29" s="672"/>
+      <c r="X29" s="687"/>
     </row>
     <row r="30" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
@@ -46213,12 +46213,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="675"/>
-      <c r="M30" s="677"/>
-      <c r="N30" s="677"/>
-      <c r="O30" s="677"/>
-      <c r="P30" s="677"/>
-      <c r="Q30" s="679"/>
-      <c r="R30" s="671"/>
+      <c r="M30" s="678"/>
+      <c r="N30" s="678"/>
+      <c r="O30" s="678"/>
+      <c r="P30" s="678"/>
+      <c r="Q30" s="681"/>
+      <c r="R30" s="683"/>
       <c r="S30" s="563" t="s">
         <v>179</v>
       </c>
@@ -46234,7 +46234,7 @@
       <c r="W30" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="X30" s="673"/>
+      <c r="X30" s="689"/>
     </row>
     <row r="31" spans="2:24" s="560" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B31"/>
@@ -46266,23 +46266,48 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="X7:X10"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="X13:X15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="X16:X18"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="M13:M15"/>
@@ -46297,48 +46322,23 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X13:X15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="X16:X18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="X7:X10"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48074,7 +48074,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="699" t="s">
+      <c r="R2" s="671" t="s">
         <v>274</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -48135,7 +48135,7 @@
       <c r="Q3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="R3" s="700"/>
+      <c r="R3" s="672"/>
       <c r="S3" s="7" t="s">
         <v>1000</v>
       </c>
@@ -49290,7 +49290,7 @@
       <c r="H2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="699" t="s">
+      <c r="I2" s="671" t="s">
         <v>274</v>
       </c>
     </row>
@@ -49310,7 +49310,7 @@
       <c r="F3" s="627"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="700"/>
+      <c r="I3" s="672"/>
     </row>
     <row r="4" spans="2:10" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B4" s="3" t="s">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" tabRatio="835" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="在庫情報（雨衣）" sheetId="41" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="1209">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4420,6 +4420,153 @@
   <si>
     <t>途中</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UXVQ23</t>
+  </si>
+  <si>
+    <t>X000UXVO61</t>
+  </si>
+  <si>
+    <t>X000UXVO5H</t>
+  </si>
+  <si>
+    <t>X000UXVQ1J</t>
+  </si>
+  <si>
+    <t>X000UXVQ19</t>
+  </si>
+  <si>
+    <t>X000UXRHRV</t>
+  </si>
+  <si>
+    <t>X000UXVQ0F</t>
+  </si>
+  <si>
+    <t>X000UXVO4N</t>
+  </si>
+  <si>
+    <t>X000UXVO57</t>
+  </si>
+  <si>
+    <t>X000UXVO4D</t>
+  </si>
+  <si>
+    <t>X000UXRHRL</t>
+  </si>
+  <si>
+    <t>X000UXVQ0Z</t>
+  </si>
+  <si>
+    <t>X000UXVO4X</t>
+  </si>
+  <si>
+    <t>X000UXRHS5</t>
+  </si>
+  <si>
+    <t>X000UXQ6MN</t>
+  </si>
+  <si>
+    <t>X000UXQ6N7</t>
+  </si>
+  <si>
+    <t>X000UXRIBL</t>
+  </si>
+  <si>
+    <t>X000UXVU8X</t>
+  </si>
+  <si>
+    <t>X000UXQ6NH</t>
+  </si>
+  <si>
+    <t>X000UXVU83</t>
+  </si>
+  <si>
+    <t>X000UXRIBB</t>
+  </si>
+  <si>
+    <t>X000UXXD4H</t>
+  </si>
+  <si>
+    <t>X000UXZMY1</t>
+  </si>
+  <si>
+    <t>X000UXZMXH</t>
+  </si>
+  <si>
+    <t>X000UXXD3X</t>
+  </si>
+  <si>
+    <t>X000UXZN09</t>
+  </si>
+  <si>
+    <t>X000UXXD6P</t>
+  </si>
+  <si>
+    <t>X000UXXD15</t>
+  </si>
+  <si>
+    <t>X000UXXDJR</t>
+  </si>
+  <si>
+    <t>X000UXZN0T</t>
+  </si>
+  <si>
+    <t>X000UXXD83</t>
+  </si>
+  <si>
+    <t>X000UXXD51</t>
+  </si>
+  <si>
+    <t>X000UXXDJH</t>
+  </si>
+  <si>
+    <t>X000UXZN1X</t>
+  </si>
+  <si>
+    <t>X000UXXDIN</t>
+  </si>
+  <si>
+    <t>X000UXXDIX</t>
+  </si>
+  <si>
+    <t>X000UXXD65</t>
+  </si>
+  <si>
+    <t>X000UXZN0J</t>
+  </si>
+  <si>
+    <t>X000UXZN1D</t>
+  </si>
+  <si>
+    <t>X000UXXD1Z</t>
+  </si>
+  <si>
+    <t>X000UXXDLF</t>
+  </si>
+  <si>
+    <t>X000UXXD29</t>
+  </si>
+  <si>
+    <t>X000UXZDE5</t>
+  </si>
+  <si>
+    <t>X000UXXDKB</t>
+  </si>
+  <si>
+    <t>X000UXZN3B</t>
+  </si>
+  <si>
+    <t>X000UXZMZ5</t>
+  </si>
+  <si>
+    <t>X000UXXDI3</t>
+  </si>
+  <si>
+    <t>X000UXXDKL</t>
+  </si>
+  <si>
+    <t>X000UXZMYV</t>
   </si>
 </sst>
 </file>
@@ -21891,9 +22038,9 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:CQ44"/>
+  <dimension ref="B1:CQ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
@@ -22644,9 +22791,7 @@
       <c r="P6" s="243"/>
       <c r="Q6" s="161"/>
       <c r="R6" s="255"/>
-      <c r="S6" s="256">
-        <v>2</v>
-      </c>
+      <c r="S6" s="256"/>
       <c r="T6" s="256"/>
       <c r="U6" s="256">
         <v>3</v>
@@ -22701,7 +22846,7 @@
       </c>
       <c r="BO6" s="250">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="250">
         <f t="shared" si="0"/>
@@ -22728,7 +22873,7 @@
       </c>
       <c r="CA6" s="250">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB6" s="250">
         <f t="shared" si="1"/>
@@ -23111,13 +23256,13 @@
       <c r="Q9" s="149"/>
       <c r="R9" s="186"/>
       <c r="S9" s="178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9" s="178">
         <v>2</v>
       </c>
       <c r="U9" s="178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9" s="178">
         <v>4</v>
@@ -23171,7 +23316,7 @@
       </c>
       <c r="BO9" s="181">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BP9" s="181">
         <f t="shared" si="0"/>
@@ -23179,7 +23324,7 @@
       </c>
       <c r="BQ9" s="181">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR9" s="181">
         <f t="shared" si="0"/>
@@ -23198,7 +23343,7 @@
       </c>
       <c r="CA9" s="181">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB9" s="181">
         <f t="shared" si="1"/>
@@ -23206,7 +23351,7 @@
       </c>
       <c r="CC9" s="181">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD9" s="181">
         <f t="shared" si="1"/>
@@ -23271,7 +23416,7 @@
       <c r="Q10" s="161"/>
       <c r="R10" s="255"/>
       <c r="S10" s="256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10" s="256">
         <v>5</v>
@@ -23331,7 +23476,7 @@
       </c>
       <c r="BO10" s="250">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP10" s="250">
         <f t="shared" si="0"/>
@@ -23358,7 +23503,7 @@
       </c>
       <c r="CA10" s="250">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CB10" s="250">
         <f t="shared" si="1"/>
@@ -23887,9 +24032,7 @@
       <c r="Q14" s="149"/>
       <c r="R14" s="186"/>
       <c r="S14" s="178"/>
-      <c r="T14" s="178">
-        <v>4</v>
-      </c>
+      <c r="T14" s="178"/>
       <c r="U14" s="189"/>
       <c r="V14" s="189"/>
       <c r="W14" s="153"/>
@@ -23945,7 +24088,7 @@
       </c>
       <c r="BP14" s="181">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="189"/>
       <c r="BR14" s="189"/>
@@ -23966,7 +24109,7 @@
       </c>
       <c r="CB14" s="181">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="189"/>
       <c r="CD14" s="189"/>
@@ -24470,9 +24613,7 @@
       <c r="P18" s="225"/>
       <c r="Q18" s="167"/>
       <c r="R18" s="252"/>
-      <c r="S18" s="251">
-        <v>3</v>
-      </c>
+      <c r="S18" s="251"/>
       <c r="T18" s="251"/>
       <c r="U18" s="251"/>
       <c r="V18" s="251"/>
@@ -24525,7 +24666,7 @@
       </c>
       <c r="BO18" s="238">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="238">
         <f t="shared" si="0"/>
@@ -24552,7 +24693,7 @@
       </c>
       <c r="CA18" s="238">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CB18" s="238">
         <f t="shared" si="1"/>
@@ -25084,14 +25225,14 @@
       <c r="P22" s="270"/>
       <c r="Q22" s="271"/>
       <c r="R22" s="272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S22" s="273"/>
       <c r="T22" s="273">
         <v>1</v>
       </c>
       <c r="U22" s="273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22" s="248"/>
       <c r="W22" s="201"/>
@@ -25139,7 +25280,7 @@
       <c r="BM22" s="201"/>
       <c r="BN22" s="199">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO22" s="200">
         <f t="shared" si="3"/>
@@ -25151,7 +25292,7 @@
       </c>
       <c r="BQ22" s="200">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR22" s="200">
         <f t="shared" si="3"/>
@@ -25166,7 +25307,7 @@
       <c r="BY22" s="201"/>
       <c r="BZ22" s="199">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CA22" s="200">
         <f t="shared" si="4"/>
@@ -25178,7 +25319,7 @@
       </c>
       <c r="CC22" s="200">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CD22" s="200">
         <f t="shared" si="4"/>
@@ -26465,45 +26606,6 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-    </row>
-    <row r="37" spans="72:76" x14ac:dyDescent="0.35">
-      <c r="BV37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="72:76" x14ac:dyDescent="0.35">
-      <c r="BT39">
-        <v>2</v>
-      </c>
-      <c r="BW39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="72:76" x14ac:dyDescent="0.35">
-      <c r="BT40">
-        <v>2</v>
-      </c>
-      <c r="BX40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="72:76" x14ac:dyDescent="0.35">
-      <c r="BV42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="72:76" x14ac:dyDescent="0.35">
-      <c r="BT43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="72:76" x14ac:dyDescent="0.35">
-      <c r="BV44">
-        <v>5</v>
-      </c>
-      <c r="BX44">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -29610,11 +29712,11 @@
   </sheetPr>
   <dimension ref="B1:W186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -38116,7 +38218,9 @@
   </sheetPr>
   <dimension ref="B1:M187"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -49610,7 +49714,7 @@
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="39" customWidth="1"/>
     <col min="5" max="7" width="20.625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="39" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="39" customWidth="1"/>
     <col min="9" max="9" width="25.875" customWidth="1"/>
     <col min="10" max="11" width="27.25" customWidth="1"/>
     <col min="12" max="12" width="22.25" customWidth="1"/>
@@ -51416,7 +51520,9 @@
       <c r="G53" s="585" t="s">
         <v>1102</v>
       </c>
-      <c r="H53" s="586"/>
+      <c r="H53" s="586" t="s">
+        <v>1160</v>
+      </c>
       <c r="I53" s="214"/>
       <c r="J53" s="207"/>
       <c r="K53" s="207"/>
@@ -51450,7 +51556,9 @@
       <c r="G54" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H54" s="611"/>
+      <c r="H54" s="611" t="s">
+        <v>1161</v>
+      </c>
       <c r="I54" s="147"/>
       <c r="J54" s="188"/>
       <c r="K54" s="188"/>
@@ -51518,7 +51626,9 @@
       <c r="G56" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H56" s="611"/>
+      <c r="H56" s="611" t="s">
+        <v>1162</v>
+      </c>
       <c r="I56" s="147"/>
       <c r="J56" s="188"/>
       <c r="K56" s="188"/>
@@ -51586,7 +51696,9 @@
       <c r="G58" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H58" s="611"/>
+      <c r="H58" s="611" t="s">
+        <v>1163</v>
+      </c>
       <c r="I58" s="147"/>
       <c r="J58" s="188"/>
       <c r="K58" s="188"/>
@@ -51620,7 +51732,9 @@
       <c r="G59" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H59" s="611"/>
+      <c r="H59" s="611" t="s">
+        <v>1164</v>
+      </c>
       <c r="I59" s="147"/>
       <c r="J59" s="188"/>
       <c r="K59" s="188"/>
@@ -51688,7 +51802,9 @@
       <c r="G61" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H61" s="611"/>
+      <c r="H61" s="611" t="s">
+        <v>1165</v>
+      </c>
       <c r="I61" s="147"/>
       <c r="J61" s="188"/>
       <c r="K61" s="188"/>
@@ -51722,7 +51838,9 @@
       <c r="G62" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H62" s="642"/>
+      <c r="H62" s="642" t="s">
+        <v>1166</v>
+      </c>
       <c r="I62" s="165"/>
       <c r="J62" s="197"/>
       <c r="K62" s="197"/>
@@ -51760,7 +51878,9 @@
       <c r="G63" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H63" s="123"/>
+      <c r="H63" s="123" t="s">
+        <v>1167</v>
+      </c>
       <c r="I63" s="604"/>
       <c r="J63" s="605"/>
       <c r="K63" s="605"/>
@@ -51794,7 +51914,9 @@
       <c r="G64" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H64" s="611"/>
+      <c r="H64" s="611" t="s">
+        <v>1168</v>
+      </c>
       <c r="I64" s="147"/>
       <c r="J64" s="188"/>
       <c r="K64" s="188"/>
@@ -51862,7 +51984,9 @@
       <c r="G66" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H66" s="611"/>
+      <c r="H66" s="611" t="s">
+        <v>1169</v>
+      </c>
       <c r="I66" s="147"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
@@ -51930,7 +52054,9 @@
       <c r="G68" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H68" s="611"/>
+      <c r="H68" s="611" t="s">
+        <v>1170</v>
+      </c>
       <c r="I68" s="147"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
@@ -51964,7 +52090,9 @@
       <c r="G69" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H69" s="611"/>
+      <c r="H69" s="611" t="s">
+        <v>1171</v>
+      </c>
       <c r="I69" s="147"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
@@ -52032,7 +52160,9 @@
       <c r="G71" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H71" s="611"/>
+      <c r="H71" s="611" t="s">
+        <v>1172</v>
+      </c>
       <c r="I71" s="147"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
@@ -52066,7 +52196,9 @@
       <c r="G72" s="622" t="s">
         <v>1111</v>
       </c>
-      <c r="H72" s="624"/>
+      <c r="H72" s="624" t="s">
+        <v>1173</v>
+      </c>
       <c r="I72" s="159"/>
       <c r="J72" s="195"/>
       <c r="K72" s="195"/>
@@ -52106,7 +52238,9 @@
       <c r="G73" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H73" s="123"/>
+      <c r="H73" s="123" t="s">
+        <v>1174</v>
+      </c>
       <c r="I73" s="604"/>
       <c r="J73" s="605"/>
       <c r="K73" s="605"/>
@@ -52140,7 +52274,9 @@
       <c r="G74" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H74" s="611"/>
+      <c r="H74" s="611" t="s">
+        <v>1175</v>
+      </c>
       <c r="I74" s="147"/>
       <c r="J74" s="188"/>
       <c r="K74" s="188"/>
@@ -52208,7 +52344,9 @@
       <c r="G76" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H76" s="611"/>
+      <c r="H76" s="611" t="s">
+        <v>1176</v>
+      </c>
       <c r="I76" s="147"/>
       <c r="J76" s="188"/>
       <c r="K76" s="188"/>
@@ -52276,7 +52414,9 @@
       <c r="G78" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H78" s="611"/>
+      <c r="H78" s="611" t="s">
+        <v>1177</v>
+      </c>
       <c r="I78" s="147"/>
       <c r="J78" s="188"/>
       <c r="K78" s="188"/>
@@ -52310,7 +52450,9 @@
       <c r="G79" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H79" s="611"/>
+      <c r="H79" s="611" t="s">
+        <v>1178</v>
+      </c>
       <c r="I79" s="147"/>
       <c r="J79" s="188"/>
       <c r="K79" s="188"/>
@@ -52378,7 +52520,9 @@
       <c r="G81" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H81" s="611"/>
+      <c r="H81" s="611" t="s">
+        <v>1179</v>
+      </c>
       <c r="I81" s="147"/>
       <c r="J81" s="188"/>
       <c r="K81" s="188"/>
@@ -52412,7 +52556,9 @@
       <c r="G82" s="622" t="s">
         <v>1111</v>
       </c>
-      <c r="H82" s="624"/>
+      <c r="H82" s="624" t="s">
+        <v>1180</v>
+      </c>
       <c r="I82" s="159"/>
       <c r="J82" s="195"/>
       <c r="K82" s="195"/>
@@ -52450,7 +52596,9 @@
       <c r="G83" s="585" t="s">
         <v>1102</v>
       </c>
-      <c r="H83" s="586"/>
+      <c r="H83" s="586" t="s">
+        <v>1181</v>
+      </c>
       <c r="I83" s="214"/>
       <c r="J83" s="207"/>
       <c r="K83" s="207"/>
@@ -52484,7 +52632,9 @@
       <c r="G84" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H84" s="611"/>
+      <c r="H84" s="611" t="s">
+        <v>1182</v>
+      </c>
       <c r="I84" s="147"/>
       <c r="J84" s="188"/>
       <c r="K84" s="188"/>
@@ -52552,7 +52702,9 @@
       <c r="G86" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H86" s="611"/>
+      <c r="H86" s="611" t="s">
+        <v>1183</v>
+      </c>
       <c r="I86" s="147"/>
       <c r="J86" s="188"/>
       <c r="K86" s="188"/>
@@ -52620,7 +52772,9 @@
       <c r="G88" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H88" s="611"/>
+      <c r="H88" s="611" t="s">
+        <v>1184</v>
+      </c>
       <c r="I88" s="147"/>
       <c r="J88" s="188"/>
       <c r="K88" s="188"/>
@@ -52654,7 +52808,9 @@
       <c r="G89" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H89" s="611"/>
+      <c r="H89" s="611" t="s">
+        <v>1185</v>
+      </c>
       <c r="I89" s="147"/>
       <c r="J89" s="188"/>
       <c r="K89" s="188"/>
@@ -52722,7 +52878,9 @@
       <c r="G91" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H91" s="611"/>
+      <c r="H91" s="611" t="s">
+        <v>1186</v>
+      </c>
       <c r="I91" s="147"/>
       <c r="J91" s="188"/>
       <c r="K91" s="188"/>
@@ -52756,7 +52914,9 @@
       <c r="G92" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H92" s="642"/>
+      <c r="H92" s="642" t="s">
+        <v>1187</v>
+      </c>
       <c r="I92" s="165"/>
       <c r="J92" s="197"/>
       <c r="K92" s="197"/>
@@ -52792,7 +52952,9 @@
       <c r="G93" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H93" s="123"/>
+      <c r="H93" s="123" t="s">
+        <v>1188</v>
+      </c>
       <c r="I93" s="604"/>
       <c r="J93" s="605"/>
       <c r="K93" s="605"/>
@@ -52826,7 +52988,9 @@
       <c r="G94" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H94" s="611"/>
+      <c r="H94" s="611" t="s">
+        <v>1189</v>
+      </c>
       <c r="I94" s="147"/>
       <c r="J94" s="188"/>
       <c r="K94" s="188"/>
@@ -52894,7 +53058,9 @@
       <c r="G96" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H96" s="611"/>
+      <c r="H96" s="611" t="s">
+        <v>1190</v>
+      </c>
       <c r="I96" s="147"/>
       <c r="J96" s="188"/>
       <c r="K96" s="188"/>
@@ -52962,7 +53128,9 @@
       <c r="G98" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H98" s="611"/>
+      <c r="H98" s="611" t="s">
+        <v>1191</v>
+      </c>
       <c r="I98" s="147"/>
       <c r="J98" s="188"/>
       <c r="K98" s="188"/>
@@ -52996,7 +53164,9 @@
       <c r="G99" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H99" s="611"/>
+      <c r="H99" s="611" t="s">
+        <v>1192</v>
+      </c>
       <c r="I99" s="147"/>
       <c r="J99" s="188"/>
       <c r="K99" s="188"/>
@@ -53064,7 +53234,9 @@
       <c r="G101" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H101" s="611"/>
+      <c r="H101" s="611" t="s">
+        <v>1193</v>
+      </c>
       <c r="I101" s="147"/>
       <c r="J101" s="188"/>
       <c r="K101" s="188"/>
@@ -53098,7 +53270,9 @@
       <c r="G102" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H102" s="642"/>
+      <c r="H102" s="642" t="s">
+        <v>1194</v>
+      </c>
       <c r="I102" s="165"/>
       <c r="J102" s="197"/>
       <c r="K102" s="197"/>
@@ -53134,7 +53308,9 @@
       <c r="G103" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H103" s="123"/>
+      <c r="H103" s="123" t="s">
+        <v>1195</v>
+      </c>
       <c r="I103" s="604"/>
       <c r="J103" s="605"/>
       <c r="K103" s="605"/>
@@ -53168,7 +53344,9 @@
       <c r="G104" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H104" s="611"/>
+      <c r="H104" s="611" t="s">
+        <v>1196</v>
+      </c>
       <c r="I104" s="147"/>
       <c r="J104" s="188"/>
       <c r="K104" s="188"/>
@@ -53236,7 +53414,9 @@
       <c r="G106" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H106" s="611"/>
+      <c r="H106" s="611" t="s">
+        <v>1197</v>
+      </c>
       <c r="I106" s="147"/>
       <c r="J106" s="188"/>
       <c r="K106" s="188"/>
@@ -53304,7 +53484,9 @@
       <c r="G108" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H108" s="611"/>
+      <c r="H108" s="611" t="s">
+        <v>1198</v>
+      </c>
       <c r="I108" s="147"/>
       <c r="J108" s="188"/>
       <c r="K108" s="188"/>
@@ -53338,7 +53520,9 @@
       <c r="G109" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H109" s="611"/>
+      <c r="H109" s="611" t="s">
+        <v>1199</v>
+      </c>
       <c r="I109" s="147"/>
       <c r="J109" s="188"/>
       <c r="K109" s="188"/>
@@ -53406,7 +53590,9 @@
       <c r="G111" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H111" s="611"/>
+      <c r="H111" s="611" t="s">
+        <v>1200</v>
+      </c>
       <c r="I111" s="147"/>
       <c r="J111" s="188"/>
       <c r="K111" s="188"/>
@@ -53440,7 +53626,9 @@
       <c r="G112" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H112" s="642"/>
+      <c r="H112" s="642" t="s">
+        <v>1201</v>
+      </c>
       <c r="I112" s="165"/>
       <c r="J112" s="197"/>
       <c r="K112" s="197"/>
@@ -53476,7 +53664,9 @@
       <c r="G113" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H113" s="123"/>
+      <c r="H113" s="123" t="s">
+        <v>1202</v>
+      </c>
       <c r="I113" s="604"/>
       <c r="J113" s="605"/>
       <c r="K113" s="605"/>
@@ -53510,7 +53700,9 @@
       <c r="G114" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H114" s="611"/>
+      <c r="H114" s="611" t="s">
+        <v>1203</v>
+      </c>
       <c r="I114" s="147"/>
       <c r="J114" s="188"/>
       <c r="K114" s="188"/>
@@ -53578,7 +53770,9 @@
       <c r="G116" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H116" s="611"/>
+      <c r="H116" s="611" t="s">
+        <v>1204</v>
+      </c>
       <c r="I116" s="147"/>
       <c r="J116" s="188"/>
       <c r="K116" s="188"/>
@@ -53646,7 +53840,9 @@
       <c r="G118" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H118" s="611"/>
+      <c r="H118" s="611" t="s">
+        <v>1205</v>
+      </c>
       <c r="I118" s="147"/>
       <c r="J118" s="188"/>
       <c r="K118" s="188"/>
@@ -53680,7 +53876,9 @@
       <c r="G119" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H119" s="611"/>
+      <c r="H119" s="611" t="s">
+        <v>1206</v>
+      </c>
       <c r="I119" s="147"/>
       <c r="J119" s="188"/>
       <c r="K119" s="188"/>
@@ -53748,7 +53946,9 @@
       <c r="G121" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H121" s="611"/>
+      <c r="H121" s="611" t="s">
+        <v>1207</v>
+      </c>
       <c r="I121" s="147"/>
       <c r="J121" s="188"/>
       <c r="K121" s="188"/>
@@ -53782,7 +53982,9 @@
       <c r="G122" s="622" t="s">
         <v>1111</v>
       </c>
-      <c r="H122" s="624"/>
+      <c r="H122" s="624" t="s">
+        <v>1208</v>
+      </c>
       <c r="I122" s="159"/>
       <c r="J122" s="195"/>
       <c r="K122" s="195"/>
@@ -54788,7 +54990,9 @@
   </sheetPr>
   <dimension ref="B1:K133"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -54849,7 +55053,10 @@
         <v>1136</v>
       </c>
       <c r="H3" s="586"/>
-      <c r="I3" s="649"/>
+      <c r="I3" s="649">
+        <f>'在庫情報（雨靴）'!R3</f>
+        <v>0</v>
+      </c>
       <c r="J3" s="211">
         <v>25</v>
       </c>
@@ -54870,7 +55077,10 @@
         <v>1137</v>
       </c>
       <c r="H4" s="611"/>
-      <c r="I4" s="651"/>
+      <c r="I4" s="651">
+        <f>'在庫情報（雨靴）'!R4</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="184">
         <v>25</v>
       </c>
@@ -54891,7 +55101,10 @@
         <v>1092</v>
       </c>
       <c r="H5" s="120"/>
-      <c r="I5" s="653"/>
+      <c r="I5" s="653">
+        <f>'在庫情報（雨靴）'!R5</f>
+        <v>0</v>
+      </c>
       <c r="J5" s="189">
         <v>25</v>
       </c>
@@ -54912,7 +55125,10 @@
         <v>1138</v>
       </c>
       <c r="H6" s="611"/>
-      <c r="I6" s="651"/>
+      <c r="I6" s="651">
+        <f>'在庫情報（雨靴）'!R6</f>
+        <v>0</v>
+      </c>
       <c r="J6" s="184">
         <v>25</v>
       </c>
@@ -54933,7 +55149,10 @@
         <v>1139</v>
       </c>
       <c r="H7" s="120"/>
-      <c r="I7" s="653"/>
+      <c r="I7" s="653">
+        <f>'在庫情報（雨靴）'!R7</f>
+        <v>0</v>
+      </c>
       <c r="J7" s="189">
         <v>25</v>
       </c>
@@ -54954,7 +55173,10 @@
         <v>1140</v>
       </c>
       <c r="H8" s="611"/>
-      <c r="I8" s="651"/>
+      <c r="I8" s="651">
+        <f>'在庫情報（雨靴）'!R8</f>
+        <v>0</v>
+      </c>
       <c r="J8" s="184">
         <v>25</v>
       </c>
@@ -54975,7 +55197,10 @@
         <v>1141</v>
       </c>
       <c r="H9" s="611"/>
-      <c r="I9" s="651"/>
+      <c r="I9" s="651">
+        <f>'在庫情報（雨靴）'!R9</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="184">
         <v>25</v>
       </c>
@@ -54996,7 +55221,10 @@
         <v>1142</v>
       </c>
       <c r="H10" s="120"/>
-      <c r="I10" s="653"/>
+      <c r="I10" s="653">
+        <f>'在庫情報（雨靴）'!R10</f>
+        <v>0</v>
+      </c>
       <c r="J10" s="189">
         <v>25</v>
       </c>
@@ -55017,7 +55245,10 @@
         <v>1143</v>
       </c>
       <c r="H11" s="611"/>
-      <c r="I11" s="651"/>
+      <c r="I11" s="651">
+        <f>'在庫情報（雨靴）'!R11</f>
+        <v>0</v>
+      </c>
       <c r="J11" s="184">
         <v>25</v>
       </c>
@@ -55038,7 +55269,10 @@
         <v>1144</v>
       </c>
       <c r="H12" s="642"/>
-      <c r="I12" s="655"/>
+      <c r="I12" s="655">
+        <f>'在庫情報（雨靴）'!R12</f>
+        <v>0</v>
+      </c>
       <c r="J12" s="202">
         <v>25</v>
       </c>
@@ -55063,7 +55297,10 @@
         <v>1102</v>
       </c>
       <c r="H13" s="123"/>
-      <c r="I13" s="657"/>
+      <c r="I13" s="657">
+        <f>'在庫情報（雨靴）'!R13</f>
+        <v>0</v>
+      </c>
       <c r="J13" s="658">
         <v>25</v>
       </c>
@@ -55084,7 +55321,10 @@
         <v>1103</v>
       </c>
       <c r="H14" s="611"/>
-      <c r="I14" s="651"/>
+      <c r="I14" s="651">
+        <f>'在庫情報（雨靴）'!R14</f>
+        <v>0</v>
+      </c>
       <c r="J14" s="184">
         <v>25</v>
       </c>
@@ -55105,7 +55345,10 @@
         <v>1104</v>
       </c>
       <c r="H15" s="120"/>
-      <c r="I15" s="653"/>
+      <c r="I15" s="653">
+        <f>'在庫情報（雨靴）'!R15</f>
+        <v>0</v>
+      </c>
       <c r="J15" s="189">
         <v>25</v>
       </c>
@@ -55126,7 +55369,10 @@
         <v>1105</v>
       </c>
       <c r="H16" s="611"/>
-      <c r="I16" s="651"/>
+      <c r="I16" s="651">
+        <f>'在庫情報（雨靴）'!R16</f>
+        <v>0</v>
+      </c>
       <c r="J16" s="184">
         <v>25</v>
       </c>
@@ -55147,7 +55393,10 @@
         <v>1106</v>
       </c>
       <c r="H17" s="120"/>
-      <c r="I17" s="653"/>
+      <c r="I17" s="653">
+        <f>'在庫情報（雨靴）'!R17</f>
+        <v>0</v>
+      </c>
       <c r="J17" s="189">
         <v>25</v>
       </c>
@@ -55168,7 +55417,10 @@
         <v>1107</v>
       </c>
       <c r="H18" s="611"/>
-      <c r="I18" s="651"/>
+      <c r="I18" s="651">
+        <f>'在庫情報（雨靴）'!R18</f>
+        <v>0</v>
+      </c>
       <c r="J18" s="184">
         <v>25</v>
       </c>
@@ -55189,7 +55441,10 @@
         <v>1108</v>
       </c>
       <c r="H19" s="611"/>
-      <c r="I19" s="651"/>
+      <c r="I19" s="651">
+        <f>'在庫情報（雨靴）'!R19</f>
+        <v>0</v>
+      </c>
       <c r="J19" s="184">
         <v>25</v>
       </c>
@@ -55210,7 +55465,10 @@
         <v>1109</v>
       </c>
       <c r="H20" s="120"/>
-      <c r="I20" s="653"/>
+      <c r="I20" s="653">
+        <f>'在庫情報（雨靴）'!R20</f>
+        <v>0</v>
+      </c>
       <c r="J20" s="189">
         <v>25</v>
       </c>
@@ -55231,7 +55489,10 @@
         <v>1110</v>
       </c>
       <c r="H21" s="611"/>
-      <c r="I21" s="651"/>
+      <c r="I21" s="651">
+        <f>'在庫情報（雨靴）'!R21</f>
+        <v>0</v>
+      </c>
       <c r="J21" s="184">
         <v>25</v>
       </c>
@@ -55252,7 +55513,10 @@
         <v>1111</v>
       </c>
       <c r="H22" s="624"/>
-      <c r="I22" s="660"/>
+      <c r="I22" s="660">
+        <f>'在庫情報（雨靴）'!R22</f>
+        <v>0</v>
+      </c>
       <c r="J22" s="206">
         <v>25</v>
       </c>
@@ -55277,7 +55541,10 @@
         <v>1102</v>
       </c>
       <c r="H23" s="586"/>
-      <c r="I23" s="649"/>
+      <c r="I23" s="649">
+        <f>'在庫情報（雨靴）'!R23</f>
+        <v>0</v>
+      </c>
       <c r="J23" s="211">
         <v>34</v>
       </c>
@@ -55298,7 +55565,10 @@
         <v>1103</v>
       </c>
       <c r="H24" s="611"/>
-      <c r="I24" s="651"/>
+      <c r="I24" s="651">
+        <f>'在庫情報（雨靴）'!R24</f>
+        <v>0</v>
+      </c>
       <c r="J24" s="184">
         <v>34</v>
       </c>
@@ -55319,7 +55589,10 @@
         <v>1104</v>
       </c>
       <c r="H25" s="120"/>
-      <c r="I25" s="653"/>
+      <c r="I25" s="653">
+        <f>'在庫情報（雨靴）'!R25</f>
+        <v>0</v>
+      </c>
       <c r="J25" s="189">
         <v>34</v>
       </c>
@@ -55340,7 +55613,10 @@
         <v>1105</v>
       </c>
       <c r="H26" s="611"/>
-      <c r="I26" s="651"/>
+      <c r="I26" s="651">
+        <f>'在庫情報（雨靴）'!R26</f>
+        <v>0</v>
+      </c>
       <c r="J26" s="184">
         <v>34</v>
       </c>
@@ -55361,7 +55637,10 @@
         <v>1106</v>
       </c>
       <c r="H27" s="120"/>
-      <c r="I27" s="653"/>
+      <c r="I27" s="653">
+        <f>'在庫情報（雨靴）'!R27</f>
+        <v>0</v>
+      </c>
       <c r="J27" s="189">
         <v>34</v>
       </c>
@@ -55382,7 +55661,10 @@
         <v>1107</v>
       </c>
       <c r="H28" s="611"/>
-      <c r="I28" s="651"/>
+      <c r="I28" s="651">
+        <f>'在庫情報（雨靴）'!R28</f>
+        <v>0</v>
+      </c>
       <c r="J28" s="184">
         <v>34</v>
       </c>
@@ -55403,7 +55685,10 @@
         <v>1108</v>
       </c>
       <c r="H29" s="611"/>
-      <c r="I29" s="651"/>
+      <c r="I29" s="651">
+        <f>'在庫情報（雨靴）'!R29</f>
+        <v>0</v>
+      </c>
       <c r="J29" s="184">
         <v>34</v>
       </c>
@@ -55424,7 +55709,10 @@
         <v>1109</v>
       </c>
       <c r="H30" s="120"/>
-      <c r="I30" s="653"/>
+      <c r="I30" s="653">
+        <f>'在庫情報（雨靴）'!R30</f>
+        <v>0</v>
+      </c>
       <c r="J30" s="189">
         <v>34</v>
       </c>
@@ -55445,7 +55733,10 @@
         <v>1110</v>
       </c>
       <c r="H31" s="611"/>
-      <c r="I31" s="651"/>
+      <c r="I31" s="651">
+        <f>'在庫情報（雨靴）'!R31</f>
+        <v>0</v>
+      </c>
       <c r="J31" s="184">
         <v>34</v>
       </c>
@@ -55466,7 +55757,10 @@
         <v>1111</v>
       </c>
       <c r="H32" s="642"/>
-      <c r="I32" s="655"/>
+      <c r="I32" s="655">
+        <f>'在庫情報（雨靴）'!R32</f>
+        <v>0</v>
+      </c>
       <c r="J32" s="202">
         <v>34</v>
       </c>
@@ -55489,7 +55783,10 @@
         <v>1102</v>
       </c>
       <c r="H33" s="123"/>
-      <c r="I33" s="657"/>
+      <c r="I33" s="657">
+        <f>'在庫情報（雨靴）'!R33</f>
+        <v>0</v>
+      </c>
       <c r="J33" s="658">
         <v>34</v>
       </c>
@@ -55510,7 +55807,10 @@
         <v>1103</v>
       </c>
       <c r="H34" s="611"/>
-      <c r="I34" s="651"/>
+      <c r="I34" s="651">
+        <f>'在庫情報（雨靴）'!R34</f>
+        <v>0</v>
+      </c>
       <c r="J34" s="184">
         <v>34</v>
       </c>
@@ -55531,7 +55831,10 @@
         <v>1104</v>
       </c>
       <c r="H35" s="120"/>
-      <c r="I35" s="653"/>
+      <c r="I35" s="653">
+        <f>'在庫情報（雨靴）'!R35</f>
+        <v>0</v>
+      </c>
       <c r="J35" s="189">
         <v>34</v>
       </c>
@@ -55552,7 +55855,10 @@
         <v>1105</v>
       </c>
       <c r="H36" s="611"/>
-      <c r="I36" s="651"/>
+      <c r="I36" s="651">
+        <f>'在庫情報（雨靴）'!R36</f>
+        <v>0</v>
+      </c>
       <c r="J36" s="184">
         <v>34</v>
       </c>
@@ -55573,7 +55879,10 @@
         <v>1106</v>
       </c>
       <c r="H37" s="120"/>
-      <c r="I37" s="653"/>
+      <c r="I37" s="653">
+        <f>'在庫情報（雨靴）'!R37</f>
+        <v>0</v>
+      </c>
       <c r="J37" s="189">
         <v>34</v>
       </c>
@@ -55594,7 +55903,10 @@
         <v>1107</v>
       </c>
       <c r="H38" s="611"/>
-      <c r="I38" s="651"/>
+      <c r="I38" s="651">
+        <f>'在庫情報（雨靴）'!R38</f>
+        <v>0</v>
+      </c>
       <c r="J38" s="184">
         <v>34</v>
       </c>
@@ -55615,7 +55927,10 @@
         <v>1108</v>
       </c>
       <c r="H39" s="611"/>
-      <c r="I39" s="651"/>
+      <c r="I39" s="651">
+        <f>'在庫情報（雨靴）'!R39</f>
+        <v>0</v>
+      </c>
       <c r="J39" s="184">
         <v>34</v>
       </c>
@@ -55636,7 +55951,10 @@
         <v>1109</v>
       </c>
       <c r="H40" s="120"/>
-      <c r="I40" s="653"/>
+      <c r="I40" s="653">
+        <f>'在庫情報（雨靴）'!R40</f>
+        <v>0</v>
+      </c>
       <c r="J40" s="189">
         <v>34</v>
       </c>
@@ -55657,7 +55975,10 @@
         <v>1110</v>
       </c>
       <c r="H41" s="611"/>
-      <c r="I41" s="651"/>
+      <c r="I41" s="651">
+        <f>'在庫情報（雨靴）'!R41</f>
+        <v>0</v>
+      </c>
       <c r="J41" s="184">
         <v>34</v>
       </c>
@@ -55678,7 +55999,10 @@
         <v>1111</v>
       </c>
       <c r="H42" s="642"/>
-      <c r="I42" s="655"/>
+      <c r="I42" s="655">
+        <f>'在庫情報（雨靴）'!R42</f>
+        <v>0</v>
+      </c>
       <c r="J42" s="202">
         <v>34</v>
       </c>
@@ -55701,7 +56025,10 @@
         <v>1102</v>
       </c>
       <c r="H43" s="123"/>
-      <c r="I43" s="657"/>
+      <c r="I43" s="657">
+        <f>'在庫情報（雨靴）'!R43</f>
+        <v>0</v>
+      </c>
       <c r="J43" s="658">
         <v>34</v>
       </c>
@@ -55722,7 +56049,10 @@
         <v>1103</v>
       </c>
       <c r="H44" s="611"/>
-      <c r="I44" s="651"/>
+      <c r="I44" s="651">
+        <f>'在庫情報（雨靴）'!R44</f>
+        <v>0</v>
+      </c>
       <c r="J44" s="184">
         <v>34</v>
       </c>
@@ -55743,7 +56073,10 @@
         <v>1104</v>
       </c>
       <c r="H45" s="120"/>
-      <c r="I45" s="653"/>
+      <c r="I45" s="653">
+        <f>'在庫情報（雨靴）'!R45</f>
+        <v>0</v>
+      </c>
       <c r="J45" s="189">
         <v>34</v>
       </c>
@@ -55764,7 +56097,10 @@
         <v>1105</v>
       </c>
       <c r="H46" s="611"/>
-      <c r="I46" s="651"/>
+      <c r="I46" s="651">
+        <f>'在庫情報（雨靴）'!R46</f>
+        <v>0</v>
+      </c>
       <c r="J46" s="184">
         <v>34</v>
       </c>
@@ -55785,7 +56121,10 @@
         <v>1106</v>
       </c>
       <c r="H47" s="120"/>
-      <c r="I47" s="653"/>
+      <c r="I47" s="653">
+        <f>'在庫情報（雨靴）'!R47</f>
+        <v>0</v>
+      </c>
       <c r="J47" s="189">
         <v>34</v>
       </c>
@@ -55806,7 +56145,10 @@
         <v>1107</v>
       </c>
       <c r="H48" s="611"/>
-      <c r="I48" s="651"/>
+      <c r="I48" s="651">
+        <f>'在庫情報（雨靴）'!R48</f>
+        <v>0</v>
+      </c>
       <c r="J48" s="184">
         <v>34</v>
       </c>
@@ -55827,7 +56169,10 @@
         <v>1108</v>
       </c>
       <c r="H49" s="611"/>
-      <c r="I49" s="651"/>
+      <c r="I49" s="651">
+        <f>'在庫情報（雨靴）'!R49</f>
+        <v>0</v>
+      </c>
       <c r="J49" s="184">
         <v>34</v>
       </c>
@@ -55848,7 +56193,10 @@
         <v>1109</v>
       </c>
       <c r="H50" s="120"/>
-      <c r="I50" s="653"/>
+      <c r="I50" s="653">
+        <f>'在庫情報（雨靴）'!R50</f>
+        <v>0</v>
+      </c>
       <c r="J50" s="189">
         <v>34</v>
       </c>
@@ -55869,7 +56217,10 @@
         <v>1110</v>
       </c>
       <c r="H51" s="611"/>
-      <c r="I51" s="651"/>
+      <c r="I51" s="651">
+        <f>'在庫情報（雨靴）'!R51</f>
+        <v>0</v>
+      </c>
       <c r="J51" s="184">
         <v>34</v>
       </c>
@@ -55890,7 +56241,10 @@
         <v>1111</v>
       </c>
       <c r="H52" s="624"/>
-      <c r="I52" s="660"/>
+      <c r="I52" s="660">
+        <f>'在庫情報（雨靴）'!R52</f>
+        <v>0</v>
+      </c>
       <c r="J52" s="206">
         <v>34</v>
       </c>
@@ -55916,16 +56270,19 @@
       <c r="G53" s="585" t="s">
         <v>1102</v>
       </c>
-      <c r="H53" s="586"/>
+      <c r="H53" s="586" t="s">
+        <v>1160</v>
+      </c>
       <c r="I53" s="649">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R53</f>
+        <v>0</v>
       </c>
       <c r="J53" s="211">
         <v>36</v>
       </c>
       <c r="K53" s="650">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -55939,16 +56296,19 @@
       <c r="G54" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H54" s="611"/>
+      <c r="H54" s="611" t="s">
+        <v>1161</v>
+      </c>
       <c r="I54" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R54</f>
+        <v>0</v>
       </c>
       <c r="J54" s="184">
         <v>36</v>
       </c>
       <c r="K54" s="652">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -55963,7 +56323,10 @@
         <v>1104</v>
       </c>
       <c r="H55" s="120"/>
-      <c r="I55" s="653"/>
+      <c r="I55" s="653">
+        <f>'在庫情報（雨靴）'!R55</f>
+        <v>0</v>
+      </c>
       <c r="J55" s="189">
         <v>36</v>
       </c>
@@ -55983,8 +56346,13 @@
       <c r="G56" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H56" s="611"/>
-      <c r="I56" s="651"/>
+      <c r="H56" s="611" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I56" s="651">
+        <f>'在庫情報（雨靴）'!R56</f>
+        <v>0</v>
+      </c>
       <c r="J56" s="184">
         <v>36</v>
       </c>
@@ -56005,7 +56373,10 @@
         <v>1106</v>
       </c>
       <c r="H57" s="120"/>
-      <c r="I57" s="653"/>
+      <c r="I57" s="653">
+        <f>'在庫情報（雨靴）'!R57</f>
+        <v>0</v>
+      </c>
       <c r="J57" s="189">
         <v>36</v>
       </c>
@@ -56025,16 +56396,19 @@
       <c r="G58" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H58" s="611"/>
+      <c r="H58" s="611" t="s">
+        <v>1163</v>
+      </c>
       <c r="I58" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R58</f>
+        <v>0</v>
       </c>
       <c r="J58" s="184">
         <v>36</v>
       </c>
       <c r="K58" s="652">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56048,16 +56422,19 @@
       <c r="G59" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H59" s="611"/>
+      <c r="H59" s="611" t="s">
+        <v>1164</v>
+      </c>
       <c r="I59" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R59</f>
+        <v>0</v>
       </c>
       <c r="J59" s="184">
         <v>36</v>
       </c>
       <c r="K59" s="652">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56072,7 +56449,10 @@
         <v>1109</v>
       </c>
       <c r="H60" s="120"/>
-      <c r="I60" s="653"/>
+      <c r="I60" s="653">
+        <f>'在庫情報（雨靴）'!R60</f>
+        <v>0</v>
+      </c>
       <c r="J60" s="189">
         <v>36</v>
       </c>
@@ -56092,16 +56472,19 @@
       <c r="G61" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H61" s="611"/>
+      <c r="H61" s="611" t="s">
+        <v>1165</v>
+      </c>
       <c r="I61" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R61</f>
+        <v>0</v>
       </c>
       <c r="J61" s="184">
         <v>36</v>
       </c>
       <c r="K61" s="652">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="36" thickBot="1" x14ac:dyDescent="0.4">
@@ -56115,16 +56498,19 @@
       <c r="G62" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H62" s="642"/>
+      <c r="H62" s="642" t="s">
+        <v>1166</v>
+      </c>
       <c r="I62" s="660">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R62</f>
+        <v>0</v>
       </c>
       <c r="J62" s="206">
         <v>36</v>
       </c>
       <c r="K62" s="661">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56142,16 +56528,19 @@
       <c r="G63" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H63" s="123"/>
+      <c r="H63" s="123" t="s">
+        <v>1167</v>
+      </c>
       <c r="I63" s="649">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R63</f>
+        <v>0</v>
       </c>
       <c r="J63" s="211">
         <v>36</v>
       </c>
       <c r="K63" s="650">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56165,16 +56554,19 @@
       <c r="G64" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H64" s="611"/>
+      <c r="H64" s="611" t="s">
+        <v>1168</v>
+      </c>
       <c r="I64" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R64</f>
+        <v>0</v>
       </c>
       <c r="J64" s="184">
         <v>36</v>
       </c>
       <c r="K64" s="652">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56189,7 +56581,10 @@
         <v>1104</v>
       </c>
       <c r="H65" s="120"/>
-      <c r="I65" s="653"/>
+      <c r="I65" s="653">
+        <f>'在庫情報（雨靴）'!R65</f>
+        <v>0</v>
+      </c>
       <c r="J65" s="189">
         <v>36</v>
       </c>
@@ -56209,8 +56604,13 @@
       <c r="G66" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H66" s="611"/>
-      <c r="I66" s="651"/>
+      <c r="H66" s="611" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I66" s="651">
+        <f>'在庫情報（雨靴）'!R66</f>
+        <v>0</v>
+      </c>
       <c r="J66" s="184">
         <v>36</v>
       </c>
@@ -56231,7 +56631,10 @@
         <v>1106</v>
       </c>
       <c r="H67" s="120"/>
-      <c r="I67" s="653"/>
+      <c r="I67" s="653">
+        <f>'在庫情報（雨靴）'!R67</f>
+        <v>0</v>
+      </c>
       <c r="J67" s="189">
         <v>36</v>
       </c>
@@ -56251,8 +56654,13 @@
       <c r="G68" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H68" s="611"/>
-      <c r="I68" s="651"/>
+      <c r="H68" s="611" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I68" s="651">
+        <f>'在庫情報（雨靴）'!R68</f>
+        <v>0</v>
+      </c>
       <c r="J68" s="184">
         <v>36</v>
       </c>
@@ -56272,16 +56680,19 @@
       <c r="G69" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H69" s="611"/>
+      <c r="H69" s="611" t="s">
+        <v>1171</v>
+      </c>
       <c r="I69" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R69</f>
+        <v>0</v>
       </c>
       <c r="J69" s="184">
         <v>36</v>
       </c>
       <c r="K69" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56296,7 +56707,10 @@
         <v>1109</v>
       </c>
       <c r="H70" s="120"/>
-      <c r="I70" s="653"/>
+      <c r="I70" s="653">
+        <f>'在庫情報（雨靴）'!R70</f>
+        <v>0</v>
+      </c>
       <c r="J70" s="189">
         <v>36</v>
       </c>
@@ -56316,8 +56730,13 @@
       <c r="G71" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H71" s="611"/>
-      <c r="I71" s="651"/>
+      <c r="H71" s="611" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I71" s="651">
+        <f>'在庫情報（雨靴）'!R71</f>
+        <v>0</v>
+      </c>
       <c r="J71" s="184">
         <v>36</v>
       </c>
@@ -56337,8 +56756,13 @@
       <c r="G72" s="622" t="s">
         <v>1111</v>
       </c>
-      <c r="H72" s="624"/>
-      <c r="I72" s="660"/>
+      <c r="H72" s="624" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I72" s="660">
+        <f>'在庫情報（雨靴）'!R72</f>
+        <v>0</v>
+      </c>
       <c r="J72" s="206">
         <v>36</v>
       </c>
@@ -56364,16 +56788,19 @@
       <c r="G73" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H73" s="123"/>
+      <c r="H73" s="123" t="s">
+        <v>1174</v>
+      </c>
       <c r="I73" s="649">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R73</f>
+        <v>0</v>
       </c>
       <c r="J73" s="211">
         <v>38</v>
       </c>
       <c r="K73" s="650">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56387,16 +56814,19 @@
       <c r="G74" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H74" s="611"/>
+      <c r="H74" s="611" t="s">
+        <v>1175</v>
+      </c>
       <c r="I74" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R74</f>
+        <v>0</v>
       </c>
       <c r="J74" s="184">
         <v>38</v>
       </c>
       <c r="K74" s="652">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56411,7 +56841,10 @@
         <v>1104</v>
       </c>
       <c r="H75" s="120"/>
-      <c r="I75" s="653"/>
+      <c r="I75" s="653">
+        <f>'在庫情報（雨靴）'!R75</f>
+        <v>0</v>
+      </c>
       <c r="J75" s="189">
         <v>38</v>
       </c>
@@ -56431,16 +56864,19 @@
       <c r="G76" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H76" s="611"/>
+      <c r="H76" s="611" t="s">
+        <v>1176</v>
+      </c>
       <c r="I76" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R76</f>
+        <v>0</v>
       </c>
       <c r="J76" s="184">
         <v>38</v>
       </c>
       <c r="K76" s="652">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56455,7 +56891,10 @@
         <v>1106</v>
       </c>
       <c r="H77" s="120"/>
-      <c r="I77" s="653"/>
+      <c r="I77" s="653">
+        <f>'在庫情報（雨靴）'!R77</f>
+        <v>0</v>
+      </c>
       <c r="J77" s="189">
         <v>38</v>
       </c>
@@ -56475,16 +56914,19 @@
       <c r="G78" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H78" s="611"/>
+      <c r="H78" s="611" t="s">
+        <v>1177</v>
+      </c>
       <c r="I78" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R78</f>
+        <v>0</v>
       </c>
       <c r="J78" s="184">
         <v>38</v>
       </c>
       <c r="K78" s="652">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56498,16 +56940,19 @@
       <c r="G79" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H79" s="611"/>
+      <c r="H79" s="611" t="s">
+        <v>1178</v>
+      </c>
       <c r="I79" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R79</f>
+        <v>0</v>
       </c>
       <c r="J79" s="184">
         <v>38</v>
       </c>
       <c r="K79" s="652">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56522,7 +56967,10 @@
         <v>1109</v>
       </c>
       <c r="H80" s="120"/>
-      <c r="I80" s="653"/>
+      <c r="I80" s="653">
+        <f>'在庫情報（雨靴）'!R80</f>
+        <v>0</v>
+      </c>
       <c r="J80" s="189">
         <v>38</v>
       </c>
@@ -56542,16 +56990,19 @@
       <c r="G81" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H81" s="611"/>
+      <c r="H81" s="611" t="s">
+        <v>1179</v>
+      </c>
       <c r="I81" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R81</f>
+        <v>0</v>
       </c>
       <c r="J81" s="184">
         <v>38</v>
       </c>
       <c r="K81" s="652">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="36" thickBot="1" x14ac:dyDescent="0.4">
@@ -56565,16 +57016,19 @@
       <c r="G82" s="622" t="s">
         <v>1111</v>
       </c>
-      <c r="H82" s="624"/>
+      <c r="H82" s="624" t="s">
+        <v>1180</v>
+      </c>
       <c r="I82" s="660">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R82</f>
+        <v>0</v>
       </c>
       <c r="J82" s="206">
         <v>38</v>
       </c>
       <c r="K82" s="661">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56592,16 +57046,19 @@
       <c r="G83" s="585" t="s">
         <v>1102</v>
       </c>
-      <c r="H83" s="586"/>
+      <c r="H83" s="586" t="s">
+        <v>1181</v>
+      </c>
       <c r="I83" s="649">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R83</f>
+        <v>0</v>
       </c>
       <c r="J83" s="211">
         <v>36</v>
       </c>
       <c r="K83" s="650">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56615,16 +57072,19 @@
       <c r="G84" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H84" s="611"/>
+      <c r="H84" s="611" t="s">
+        <v>1182</v>
+      </c>
       <c r="I84" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R84</f>
+        <v>0</v>
       </c>
       <c r="J84" s="184">
         <v>36</v>
       </c>
       <c r="K84" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56639,7 +57099,10 @@
         <v>1104</v>
       </c>
       <c r="H85" s="120"/>
-      <c r="I85" s="653"/>
+      <c r="I85" s="653">
+        <f>'在庫情報（雨靴）'!R85</f>
+        <v>0</v>
+      </c>
       <c r="J85" s="189">
         <v>36</v>
       </c>
@@ -56659,16 +57122,19 @@
       <c r="G86" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H86" s="611"/>
+      <c r="H86" s="611" t="s">
+        <v>1183</v>
+      </c>
       <c r="I86" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R86</f>
+        <v>0</v>
       </c>
       <c r="J86" s="184">
         <v>36</v>
       </c>
       <c r="K86" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56683,7 +57149,10 @@
         <v>1106</v>
       </c>
       <c r="H87" s="120"/>
-      <c r="I87" s="653"/>
+      <c r="I87" s="653">
+        <f>'在庫情報（雨靴）'!R87</f>
+        <v>0</v>
+      </c>
       <c r="J87" s="189">
         <v>36</v>
       </c>
@@ -56703,16 +57172,19 @@
       <c r="G88" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H88" s="611"/>
+      <c r="H88" s="611" t="s">
+        <v>1184</v>
+      </c>
       <c r="I88" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R88</f>
+        <v>0</v>
       </c>
       <c r="J88" s="184">
         <v>36</v>
       </c>
       <c r="K88" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56726,16 +57198,19 @@
       <c r="G89" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H89" s="611"/>
+      <c r="H89" s="611" t="s">
+        <v>1185</v>
+      </c>
       <c r="I89" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R89</f>
+        <v>0</v>
       </c>
       <c r="J89" s="184">
         <v>36</v>
       </c>
       <c r="K89" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56750,7 +57225,10 @@
         <v>1109</v>
       </c>
       <c r="H90" s="120"/>
-      <c r="I90" s="653"/>
+      <c r="I90" s="653">
+        <f>'在庫情報（雨靴）'!R90</f>
+        <v>0</v>
+      </c>
       <c r="J90" s="189">
         <v>36</v>
       </c>
@@ -56770,16 +57248,19 @@
       <c r="G91" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H91" s="611"/>
+      <c r="H91" s="611" t="s">
+        <v>1186</v>
+      </c>
       <c r="I91" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R91</f>
+        <v>0</v>
       </c>
       <c r="J91" s="184">
         <v>36</v>
       </c>
       <c r="K91" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56793,16 +57274,19 @@
       <c r="G92" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H92" s="642"/>
+      <c r="H92" s="642" t="s">
+        <v>1187</v>
+      </c>
       <c r="I92" s="655">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R92</f>
+        <v>0</v>
       </c>
       <c r="J92" s="202">
         <v>36</v>
       </c>
       <c r="K92" s="656">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56818,16 +57302,19 @@
       <c r="G93" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H93" s="123"/>
+      <c r="H93" s="123" t="s">
+        <v>1188</v>
+      </c>
       <c r="I93" s="657">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R93</f>
+        <v>0</v>
       </c>
       <c r="J93" s="658">
         <v>36</v>
       </c>
       <c r="K93" s="659">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56841,16 +57328,19 @@
       <c r="G94" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H94" s="611"/>
+      <c r="H94" s="611" t="s">
+        <v>1189</v>
+      </c>
       <c r="I94" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R94</f>
+        <v>0</v>
       </c>
       <c r="J94" s="184">
         <v>36</v>
       </c>
       <c r="K94" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56865,7 +57355,10 @@
         <v>1104</v>
       </c>
       <c r="H95" s="120"/>
-      <c r="I95" s="653"/>
+      <c r="I95" s="653">
+        <f>'在庫情報（雨靴）'!R95</f>
+        <v>0</v>
+      </c>
       <c r="J95" s="189">
         <v>36</v>
       </c>
@@ -56885,16 +57378,19 @@
       <c r="G96" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H96" s="611"/>
+      <c r="H96" s="611" t="s">
+        <v>1190</v>
+      </c>
       <c r="I96" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R96</f>
+        <v>0</v>
       </c>
       <c r="J96" s="184">
         <v>36</v>
       </c>
       <c r="K96" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56909,7 +57405,10 @@
         <v>1106</v>
       </c>
       <c r="H97" s="120"/>
-      <c r="I97" s="653"/>
+      <c r="I97" s="653">
+        <f>'在庫情報（雨靴）'!R97</f>
+        <v>0</v>
+      </c>
       <c r="J97" s="189">
         <v>36</v>
       </c>
@@ -56929,16 +57428,19 @@
       <c r="G98" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H98" s="611"/>
+      <c r="H98" s="611" t="s">
+        <v>1191</v>
+      </c>
       <c r="I98" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R98</f>
+        <v>0</v>
       </c>
       <c r="J98" s="184">
         <v>36</v>
       </c>
       <c r="K98" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56952,16 +57454,19 @@
       <c r="G99" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H99" s="611"/>
+      <c r="H99" s="611" t="s">
+        <v>1192</v>
+      </c>
       <c r="I99" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R99</f>
+        <v>0</v>
       </c>
       <c r="J99" s="184">
         <v>36</v>
       </c>
       <c r="K99" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -56976,7 +57481,10 @@
         <v>1109</v>
       </c>
       <c r="H100" s="120"/>
-      <c r="I100" s="653"/>
+      <c r="I100" s="653">
+        <f>'在庫情報（雨靴）'!R100</f>
+        <v>0</v>
+      </c>
       <c r="J100" s="189">
         <v>36</v>
       </c>
@@ -56996,16 +57504,19 @@
       <c r="G101" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H101" s="611"/>
+      <c r="H101" s="611" t="s">
+        <v>1193</v>
+      </c>
       <c r="I101" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R101</f>
+        <v>0</v>
       </c>
       <c r="J101" s="184">
         <v>36</v>
       </c>
       <c r="K101" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57019,16 +57530,19 @@
       <c r="G102" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H102" s="642"/>
+      <c r="H102" s="642" t="s">
+        <v>1194</v>
+      </c>
       <c r="I102" s="655">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R102</f>
+        <v>0</v>
       </c>
       <c r="J102" s="202">
         <v>36</v>
       </c>
       <c r="K102" s="656">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57044,16 +57558,19 @@
       <c r="G103" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H103" s="123"/>
+      <c r="H103" s="123" t="s">
+        <v>1195</v>
+      </c>
       <c r="I103" s="657">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R103</f>
+        <v>0</v>
       </c>
       <c r="J103" s="658">
         <v>36</v>
       </c>
       <c r="K103" s="659">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57067,16 +57584,19 @@
       <c r="G104" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H104" s="611"/>
+      <c r="H104" s="611" t="s">
+        <v>1196</v>
+      </c>
       <c r="I104" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R104</f>
+        <v>0</v>
       </c>
       <c r="J104" s="184">
         <v>36</v>
       </c>
       <c r="K104" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57091,7 +57611,10 @@
         <v>1104</v>
       </c>
       <c r="H105" s="120"/>
-      <c r="I105" s="653"/>
+      <c r="I105" s="653">
+        <f>'在庫情報（雨靴）'!R105</f>
+        <v>0</v>
+      </c>
       <c r="J105" s="189">
         <v>36</v>
       </c>
@@ -57111,16 +57634,19 @@
       <c r="G106" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H106" s="611"/>
+      <c r="H106" s="611" t="s">
+        <v>1197</v>
+      </c>
       <c r="I106" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R106</f>
+        <v>0</v>
       </c>
       <c r="J106" s="184">
         <v>36</v>
       </c>
       <c r="K106" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57135,7 +57661,10 @@
         <v>1106</v>
       </c>
       <c r="H107" s="120"/>
-      <c r="I107" s="653"/>
+      <c r="I107" s="653">
+        <f>'在庫情報（雨靴）'!R107</f>
+        <v>0</v>
+      </c>
       <c r="J107" s="189">
         <v>36</v>
       </c>
@@ -57155,16 +57684,19 @@
       <c r="G108" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H108" s="611"/>
+      <c r="H108" s="611" t="s">
+        <v>1198</v>
+      </c>
       <c r="I108" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R108</f>
+        <v>0</v>
       </c>
       <c r="J108" s="184">
         <v>36</v>
       </c>
       <c r="K108" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57178,16 +57710,19 @@
       <c r="G109" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H109" s="611"/>
+      <c r="H109" s="611" t="s">
+        <v>1199</v>
+      </c>
       <c r="I109" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R109</f>
+        <v>0</v>
       </c>
       <c r="J109" s="184">
         <v>36</v>
       </c>
       <c r="K109" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57202,7 +57737,10 @@
         <v>1109</v>
       </c>
       <c r="H110" s="120"/>
-      <c r="I110" s="653"/>
+      <c r="I110" s="653">
+        <f>'在庫情報（雨靴）'!R110</f>
+        <v>0</v>
+      </c>
       <c r="J110" s="189">
         <v>36</v>
       </c>
@@ -57222,16 +57760,19 @@
       <c r="G111" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H111" s="611"/>
+      <c r="H111" s="611" t="s">
+        <v>1200</v>
+      </c>
       <c r="I111" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R111</f>
+        <v>0</v>
       </c>
       <c r="J111" s="184">
         <v>36</v>
       </c>
       <c r="K111" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57245,16 +57786,19 @@
       <c r="G112" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H112" s="642"/>
+      <c r="H112" s="642" t="s">
+        <v>1201</v>
+      </c>
       <c r="I112" s="655">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R112</f>
+        <v>0</v>
       </c>
       <c r="J112" s="202">
         <v>36</v>
       </c>
       <c r="K112" s="656">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57270,16 +57814,19 @@
       <c r="G113" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H113" s="123"/>
+      <c r="H113" s="123" t="s">
+        <v>1202</v>
+      </c>
       <c r="I113" s="657">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R113</f>
+        <v>0</v>
       </c>
       <c r="J113" s="658">
         <v>36</v>
       </c>
       <c r="K113" s="659">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57293,16 +57840,19 @@
       <c r="G114" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H114" s="611"/>
+      <c r="H114" s="611" t="s">
+        <v>1203</v>
+      </c>
       <c r="I114" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R114</f>
+        <v>0</v>
       </c>
       <c r="J114" s="184">
         <v>36</v>
       </c>
       <c r="K114" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57317,7 +57867,10 @@
         <v>1104</v>
       </c>
       <c r="H115" s="120"/>
-      <c r="I115" s="653"/>
+      <c r="I115" s="653">
+        <f>'在庫情報（雨靴）'!R115</f>
+        <v>0</v>
+      </c>
       <c r="J115" s="189">
         <v>36</v>
       </c>
@@ -57337,16 +57890,19 @@
       <c r="G116" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H116" s="611"/>
+      <c r="H116" s="611" t="s">
+        <v>1204</v>
+      </c>
       <c r="I116" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R116</f>
+        <v>0</v>
       </c>
       <c r="J116" s="184">
         <v>36</v>
       </c>
       <c r="K116" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57361,7 +57917,10 @@
         <v>1106</v>
       </c>
       <c r="H117" s="120"/>
-      <c r="I117" s="653"/>
+      <c r="I117" s="653">
+        <f>'在庫情報（雨靴）'!R117</f>
+        <v>0</v>
+      </c>
       <c r="J117" s="189">
         <v>36</v>
       </c>
@@ -57381,16 +57940,19 @@
       <c r="G118" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H118" s="611"/>
+      <c r="H118" s="611" t="s">
+        <v>1205</v>
+      </c>
       <c r="I118" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R118</f>
+        <v>0</v>
       </c>
       <c r="J118" s="184">
         <v>36</v>
       </c>
       <c r="K118" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57404,16 +57966,19 @@
       <c r="G119" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H119" s="611"/>
+      <c r="H119" s="611" t="s">
+        <v>1206</v>
+      </c>
       <c r="I119" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R119</f>
+        <v>0</v>
       </c>
       <c r="J119" s="184">
         <v>36</v>
       </c>
       <c r="K119" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
@@ -57428,7 +57993,10 @@
         <v>1109</v>
       </c>
       <c r="H120" s="120"/>
-      <c r="I120" s="653"/>
+      <c r="I120" s="653">
+        <f>'在庫情報（雨靴）'!R120</f>
+        <v>0</v>
+      </c>
       <c r="J120" s="189">
         <v>36</v>
       </c>
@@ -57448,16 +58016,19 @@
       <c r="G121" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H121" s="611"/>
+      <c r="H121" s="611" t="s">
+        <v>1207</v>
+      </c>
       <c r="I121" s="651">
-        <v>5</v>
+        <f>'在庫情報（雨靴）'!R121</f>
+        <v>0</v>
       </c>
       <c r="J121" s="184">
         <v>36</v>
       </c>
       <c r="K121" s="652">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:11" ht="36" thickBot="1" x14ac:dyDescent="0.4">
@@ -57471,8 +58042,13 @@
       <c r="G122" s="622" t="s">
         <v>1111</v>
       </c>
-      <c r="H122" s="624"/>
-      <c r="I122" s="660"/>
+      <c r="H122" s="624" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I122" s="660">
+        <f>'在庫情報（雨靴）'!R122</f>
+        <v>0</v>
+      </c>
       <c r="J122" s="206">
         <v>36</v>
       </c>
@@ -57497,7 +58073,10 @@
         <v>1102</v>
       </c>
       <c r="H123" s="123"/>
-      <c r="I123" s="649"/>
+      <c r="I123" s="649">
+        <f>'在庫情報（雨靴）'!R123</f>
+        <v>0</v>
+      </c>
       <c r="J123" s="211">
         <v>36</v>
       </c>
@@ -57518,7 +58097,10 @@
         <v>1103</v>
       </c>
       <c r="H124" s="611"/>
-      <c r="I124" s="651"/>
+      <c r="I124" s="651">
+        <f>'在庫情報（雨靴）'!R124</f>
+        <v>0</v>
+      </c>
       <c r="J124" s="184">
         <v>36</v>
       </c>
@@ -57539,7 +58121,10 @@
         <v>1104</v>
       </c>
       <c r="H125" s="120"/>
-      <c r="I125" s="653"/>
+      <c r="I125" s="653">
+        <f>'在庫情報（雨靴）'!R125</f>
+        <v>0</v>
+      </c>
       <c r="J125" s="189">
         <v>36</v>
       </c>
@@ -57560,7 +58145,10 @@
         <v>1105</v>
       </c>
       <c r="H126" s="611"/>
-      <c r="I126" s="651"/>
+      <c r="I126" s="651">
+        <f>'在庫情報（雨靴）'!R126</f>
+        <v>0</v>
+      </c>
       <c r="J126" s="184">
         <v>36</v>
       </c>
@@ -57581,7 +58169,10 @@
         <v>1106</v>
       </c>
       <c r="H127" s="120"/>
-      <c r="I127" s="653"/>
+      <c r="I127" s="653">
+        <f>'在庫情報（雨靴）'!R127</f>
+        <v>0</v>
+      </c>
       <c r="J127" s="189">
         <v>36</v>
       </c>
@@ -57602,7 +58193,10 @@
         <v>1107</v>
       </c>
       <c r="H128" s="611"/>
-      <c r="I128" s="651"/>
+      <c r="I128" s="651">
+        <f>'在庫情報（雨靴）'!R128</f>
+        <v>0</v>
+      </c>
       <c r="J128" s="184">
         <v>36</v>
       </c>
@@ -57623,7 +58217,10 @@
         <v>1108</v>
       </c>
       <c r="H129" s="611"/>
-      <c r="I129" s="651"/>
+      <c r="I129" s="651">
+        <f>'在庫情報（雨靴）'!R129</f>
+        <v>0</v>
+      </c>
       <c r="J129" s="184">
         <v>36</v>
       </c>
@@ -57644,7 +58241,10 @@
         <v>1109</v>
       </c>
       <c r="H130" s="120"/>
-      <c r="I130" s="653"/>
+      <c r="I130" s="653">
+        <f>'在庫情報（雨靴）'!R130</f>
+        <v>0</v>
+      </c>
       <c r="J130" s="189">
         <v>36</v>
       </c>
@@ -57665,7 +58265,10 @@
         <v>1110</v>
       </c>
       <c r="H131" s="611"/>
-      <c r="I131" s="651"/>
+      <c r="I131" s="651">
+        <f>'在庫情報（雨靴）'!R131</f>
+        <v>0</v>
+      </c>
       <c r="J131" s="184">
         <v>36</v>
       </c>
@@ -57686,7 +58289,10 @@
         <v>1111</v>
       </c>
       <c r="H132" s="624"/>
-      <c r="I132" s="660"/>
+      <c r="I132" s="660">
+        <f>'在庫情報（雨靴）'!R132</f>
+        <v>0</v>
+      </c>
       <c r="J132" s="206">
         <v>36</v>
       </c>
@@ -57698,7 +58304,7 @@
     <row r="133" spans="2:11" ht="60" x14ac:dyDescent="0.35">
       <c r="K133" s="662">
         <f>SUM(K3:K132)</f>
-        <v>7810</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -7603,16 +7603,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7621,59 +7621,35 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7693,8 +7669,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -25231,9 +25231,7 @@
       <c r="T22" s="273">
         <v>1</v>
       </c>
-      <c r="U22" s="273">
-        <v>1</v>
-      </c>
+      <c r="U22" s="273"/>
       <c r="V22" s="248"/>
       <c r="W22" s="201"/>
       <c r="X22" s="249"/>
@@ -25292,7 +25290,7 @@
       </c>
       <c r="BQ22" s="200">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR22" s="200">
         <f t="shared" si="3"/>
@@ -25319,7 +25317,7 @@
       </c>
       <c r="CC22" s="200">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD22" s="200">
         <f t="shared" si="4"/>
@@ -26728,7 +26726,7 @@
       <c r="U2" s="56"/>
       <c r="V2" s="56"/>
       <c r="W2" s="57"/>
-      <c r="X2" s="671" t="s">
+      <c r="X2" s="699" t="s">
         <v>274</v>
       </c>
     </row>
@@ -26799,7 +26797,7 @@
       <c r="W3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X3" s="672"/>
+      <c r="X3" s="700"/>
     </row>
     <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
@@ -26827,7 +26825,7 @@
       <c r="J4" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="684"/>
+      <c r="K4" s="696"/>
       <c r="L4" s="133">
         <f>在庫情報R!BN4</f>
         <v>0</v>
@@ -26852,7 +26850,7 @@
         <f>在庫情報R!BS4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="673">
+      <c r="R4" s="674">
         <v>28</v>
       </c>
       <c r="S4" s="676">
@@ -26867,8 +26865,8 @@
       <c r="V4" s="676">
         <v>28</v>
       </c>
-      <c r="W4" s="679"/>
-      <c r="X4" s="682">
+      <c r="W4" s="678"/>
+      <c r="X4" s="701">
         <f>SUM(L4:L6)*R4+SUM(M4:M6)*S4+SUM(N4:N6)*T4+SUM(O4:O6)*U4+SUM(P4:P6)*V4+SUM(Q4:Q6)*W4</f>
         <v>0</v>
       </c>
@@ -26897,7 +26895,7 @@
       <c r="J5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="685"/>
+      <c r="K5" s="697"/>
       <c r="L5" s="34">
         <f>在庫情報R!BN5</f>
         <v>0</v>
@@ -26922,13 +26920,13 @@
         <f>在庫情報R!BS5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="674"/>
-      <c r="S5" s="677"/>
-      <c r="T5" s="677"/>
-      <c r="U5" s="677"/>
-      <c r="V5" s="677"/>
-      <c r="W5" s="680"/>
-      <c r="X5" s="683"/>
+      <c r="R5" s="683"/>
+      <c r="S5" s="684"/>
+      <c r="T5" s="684"/>
+      <c r="U5" s="684"/>
+      <c r="V5" s="684"/>
+      <c r="W5" s="685"/>
+      <c r="X5" s="671"/>
     </row>
     <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -26954,7 +26952,7 @@
       <c r="J6" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="686"/>
+      <c r="K6" s="698"/>
       <c r="L6" s="30">
         <f>在庫情報R!BN6</f>
         <v>0</v>
@@ -26980,12 +26978,12 @@
         <v>0</v>
       </c>
       <c r="R6" s="675"/>
-      <c r="S6" s="678"/>
-      <c r="T6" s="678"/>
-      <c r="U6" s="678"/>
-      <c r="V6" s="678"/>
-      <c r="W6" s="681"/>
-      <c r="X6" s="683"/>
+      <c r="S6" s="677"/>
+      <c r="T6" s="677"/>
+      <c r="U6" s="677"/>
+      <c r="V6" s="677"/>
+      <c r="W6" s="679"/>
+      <c r="X6" s="671"/>
     </row>
     <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -27013,7 +27011,7 @@
       <c r="J7" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="687"/>
+      <c r="K7" s="672"/>
       <c r="L7" s="26">
         <f>在庫情報R!BN7</f>
         <v>0</v>
@@ -27038,7 +27036,7 @@
         <f>在庫情報R!BS7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="673">
+      <c r="R7" s="674">
         <v>34</v>
       </c>
       <c r="S7" s="676">
@@ -27053,8 +27051,8 @@
       <c r="V7" s="676">
         <v>34</v>
       </c>
-      <c r="W7" s="679"/>
-      <c r="X7" s="683">
+      <c r="W7" s="678"/>
+      <c r="X7" s="671">
         <f>SUM(L7:L10)*R7+SUM(M7:M10)*S7+SUM(N7:N10)*T7+SUM(O7:O10)*U7+SUM(P7:P10)*V7+SUM(Q7:Q10)*W7</f>
         <v>0</v>
       </c>
@@ -27083,7 +27081,7 @@
       <c r="J8" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="688"/>
+      <c r="K8" s="686"/>
       <c r="L8" s="28">
         <f>在庫情報R!BN8</f>
         <v>0</v>
@@ -27108,13 +27106,13 @@
         <f>在庫情報R!BS8</f>
         <v>0</v>
       </c>
-      <c r="R8" s="674"/>
-      <c r="S8" s="677"/>
-      <c r="T8" s="677"/>
-      <c r="U8" s="677"/>
-      <c r="V8" s="677"/>
-      <c r="W8" s="680"/>
-      <c r="X8" s="683"/>
+      <c r="R8" s="683"/>
+      <c r="S8" s="684"/>
+      <c r="T8" s="684"/>
+      <c r="U8" s="684"/>
+      <c r="V8" s="684"/>
+      <c r="W8" s="685"/>
+      <c r="X8" s="671"/>
     </row>
     <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -27140,7 +27138,7 @@
       <c r="J9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="688"/>
+      <c r="K9" s="686"/>
       <c r="L9" s="28">
         <f>在庫情報R!BN9</f>
         <v>0</v>
@@ -27165,13 +27163,13 @@
         <f>在庫情報R!BS9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="674"/>
-      <c r="S9" s="677"/>
-      <c r="T9" s="677"/>
-      <c r="U9" s="677"/>
-      <c r="V9" s="677"/>
-      <c r="W9" s="680"/>
-      <c r="X9" s="683"/>
+      <c r="R9" s="683"/>
+      <c r="S9" s="684"/>
+      <c r="T9" s="684"/>
+      <c r="U9" s="684"/>
+      <c r="V9" s="684"/>
+      <c r="W9" s="685"/>
+      <c r="X9" s="671"/>
     </row>
     <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -27197,7 +27195,7 @@
       <c r="J10" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="689"/>
+      <c r="K10" s="673"/>
       <c r="L10" s="30">
         <f>在庫情報R!BN10</f>
         <v>0</v>
@@ -27223,12 +27221,12 @@
         <v>0</v>
       </c>
       <c r="R10" s="675"/>
-      <c r="S10" s="678"/>
-      <c r="T10" s="678"/>
-      <c r="U10" s="678"/>
-      <c r="V10" s="678"/>
-      <c r="W10" s="681"/>
-      <c r="X10" s="683"/>
+      <c r="S10" s="677"/>
+      <c r="T10" s="677"/>
+      <c r="U10" s="677"/>
+      <c r="V10" s="677"/>
+      <c r="W10" s="679"/>
+      <c r="X10" s="671"/>
     </row>
     <row r="11" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -27283,7 +27281,7 @@
         <f>在庫情報R!BS11</f>
         <v>0</v>
       </c>
-      <c r="R11" s="673">
+      <c r="R11" s="674">
         <v>36</v>
       </c>
       <c r="S11" s="676">
@@ -27298,10 +27296,10 @@
       <c r="V11" s="676">
         <v>36</v>
       </c>
-      <c r="W11" s="693">
+      <c r="W11" s="680">
         <v>36</v>
       </c>
-      <c r="X11" s="683">
+      <c r="X11" s="671">
         <f>SUM(L11:L12)*R11+SUM(M11:M12)*S11+SUM(N11:N12)*T11+SUM(O11:O12)*U11+SUM(P11:P12)*V11+SUM(Q11:Q12)*W11</f>
         <v>0</v>
       </c>
@@ -27358,12 +27356,12 @@
         <v>0</v>
       </c>
       <c r="R12" s="675"/>
-      <c r="S12" s="678"/>
-      <c r="T12" s="678"/>
-      <c r="U12" s="678"/>
-      <c r="V12" s="678"/>
-      <c r="W12" s="694"/>
-      <c r="X12" s="683"/>
+      <c r="S12" s="677"/>
+      <c r="T12" s="677"/>
+      <c r="U12" s="677"/>
+      <c r="V12" s="677"/>
+      <c r="W12" s="682"/>
+      <c r="X12" s="671"/>
     </row>
     <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -27385,9 +27383,9 @@
       <c r="H13" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="695"/>
-      <c r="J13" s="695"/>
-      <c r="K13" s="687"/>
+      <c r="I13" s="687"/>
+      <c r="J13" s="687"/>
+      <c r="K13" s="672"/>
       <c r="L13" s="26">
         <f>在庫情報R!BN13</f>
         <v>0</v>
@@ -27412,7 +27410,7 @@
         <f>在庫情報R!BS13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="673">
+      <c r="R13" s="674">
         <v>20</v>
       </c>
       <c r="S13" s="676">
@@ -27421,10 +27419,10 @@
       <c r="T13" s="676">
         <v>20</v>
       </c>
-      <c r="U13" s="690"/>
-      <c r="V13" s="690"/>
-      <c r="W13" s="679"/>
-      <c r="X13" s="683">
+      <c r="U13" s="693"/>
+      <c r="V13" s="693"/>
+      <c r="W13" s="678"/>
+      <c r="X13" s="671">
         <f>SUM(L13:L15)*R13+SUM(M13:M15)*S13+SUM(N13:N15)*T13+SUM(O13:O15)*U13+SUM(P13:P15)*V13+SUM(Q13:Q15)*W13</f>
         <v>0</v>
       </c>
@@ -27447,9 +27445,9 @@
       <c r="H14" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="696"/>
-      <c r="J14" s="696"/>
-      <c r="K14" s="688"/>
+      <c r="I14" s="688"/>
+      <c r="J14" s="688"/>
+      <c r="K14" s="686"/>
       <c r="L14" s="28">
         <f>在庫情報R!BN14</f>
         <v>0</v>
@@ -27474,13 +27472,13 @@
         <f>在庫情報R!BS14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="674"/>
-      <c r="S14" s="677"/>
-      <c r="T14" s="677"/>
-      <c r="U14" s="691"/>
-      <c r="V14" s="691"/>
-      <c r="W14" s="680"/>
-      <c r="X14" s="683"/>
+      <c r="R14" s="683"/>
+      <c r="S14" s="684"/>
+      <c r="T14" s="684"/>
+      <c r="U14" s="694"/>
+      <c r="V14" s="694"/>
+      <c r="W14" s="685"/>
+      <c r="X14" s="671"/>
     </row>
     <row r="15" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -27500,9 +27498,9 @@
       <c r="H15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="697"/>
-      <c r="J15" s="697"/>
-      <c r="K15" s="689"/>
+      <c r="I15" s="689"/>
+      <c r="J15" s="689"/>
+      <c r="K15" s="673"/>
       <c r="L15" s="30">
         <f>在庫情報R!BN15</f>
         <v>0</v>
@@ -27528,12 +27526,12 @@
         <v>0</v>
       </c>
       <c r="R15" s="675"/>
-      <c r="S15" s="678"/>
-      <c r="T15" s="678"/>
-      <c r="U15" s="692"/>
-      <c r="V15" s="692"/>
-      <c r="W15" s="681"/>
-      <c r="X15" s="683"/>
+      <c r="S15" s="677"/>
+      <c r="T15" s="677"/>
+      <c r="U15" s="695"/>
+      <c r="V15" s="695"/>
+      <c r="W15" s="679"/>
+      <c r="X15" s="671"/>
     </row>
     <row r="16" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -27561,7 +27559,7 @@
       <c r="J16" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="687"/>
+      <c r="K16" s="672"/>
       <c r="L16" s="26">
         <f>在庫情報R!BN16</f>
         <v>0</v>
@@ -27586,7 +27584,7 @@
         <f>在庫情報R!BS16</f>
         <v>0</v>
       </c>
-      <c r="R16" s="673">
+      <c r="R16" s="674">
         <v>20</v>
       </c>
       <c r="S16" s="676">
@@ -27595,14 +27593,14 @@
       <c r="T16" s="676">
         <v>20</v>
       </c>
-      <c r="U16" s="698">
+      <c r="U16" s="690">
         <v>26</v>
       </c>
-      <c r="V16" s="698">
+      <c r="V16" s="690">
         <v>26</v>
       </c>
-      <c r="W16" s="679"/>
-      <c r="X16" s="683">
+      <c r="W16" s="678"/>
+      <c r="X16" s="671">
         <f>SUM(L16:L18)*R16+SUM(M16:M18)*S16+SUM(N16:N18)*T16+SUM(O16:O18)*U16+SUM(P16:P18)*V16+SUM(Q16:Q18)*W16</f>
         <v>0</v>
       </c>
@@ -27631,7 +27629,7 @@
       <c r="J17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="688"/>
+      <c r="K17" s="686"/>
       <c r="L17" s="28">
         <f>在庫情報R!BN17</f>
         <v>0</v>
@@ -27656,13 +27654,13 @@
         <f>在庫情報R!BS17</f>
         <v>0</v>
       </c>
-      <c r="R17" s="674"/>
-      <c r="S17" s="677"/>
-      <c r="T17" s="677"/>
-      <c r="U17" s="699"/>
-      <c r="V17" s="699"/>
-      <c r="W17" s="680"/>
-      <c r="X17" s="683"/>
+      <c r="R17" s="683"/>
+      <c r="S17" s="684"/>
+      <c r="T17" s="684"/>
+      <c r="U17" s="691"/>
+      <c r="V17" s="691"/>
+      <c r="W17" s="685"/>
+      <c r="X17" s="671"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -27688,7 +27686,7 @@
       <c r="J18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="689"/>
+      <c r="K18" s="673"/>
       <c r="L18" s="30">
         <f>在庫情報R!BN18</f>
         <v>0</v>
@@ -27714,12 +27712,12 @@
         <v>0</v>
       </c>
       <c r="R18" s="675"/>
-      <c r="S18" s="678"/>
-      <c r="T18" s="678"/>
-      <c r="U18" s="700"/>
-      <c r="V18" s="700"/>
-      <c r="W18" s="681"/>
-      <c r="X18" s="683"/>
+      <c r="S18" s="677"/>
+      <c r="T18" s="677"/>
+      <c r="U18" s="692"/>
+      <c r="V18" s="692"/>
+      <c r="W18" s="679"/>
+      <c r="X18" s="671"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -27747,7 +27745,7 @@
       <c r="J19" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="687"/>
+      <c r="K19" s="672"/>
       <c r="L19" s="26">
         <f>在庫情報R!BN19</f>
         <v>0</v>
@@ -27772,7 +27770,7 @@
         <f>在庫情報R!BS19</f>
         <v>0</v>
       </c>
-      <c r="R19" s="673">
+      <c r="R19" s="674">
         <v>38</v>
       </c>
       <c r="S19" s="676">
@@ -27787,8 +27785,8 @@
       <c r="V19" s="676">
         <v>38</v>
       </c>
-      <c r="W19" s="679"/>
-      <c r="X19" s="683">
+      <c r="W19" s="678"/>
+      <c r="X19" s="671">
         <f>SUM(L19:L21)*R19+SUM(M19:M21)*S19+SUM(N19:N21)*T19+SUM(O19:O21)*U19+SUM(P19:P21)*V19+SUM(Q19:Q21)*W19</f>
         <v>0</v>
       </c>
@@ -27817,7 +27815,7 @@
       <c r="J20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="688"/>
+      <c r="K20" s="686"/>
       <c r="L20" s="34">
         <f>在庫情報R!BN20</f>
         <v>0</v>
@@ -27842,13 +27840,13 @@
         <f>在庫情報R!BS20</f>
         <v>0</v>
       </c>
-      <c r="R20" s="674"/>
-      <c r="S20" s="677"/>
-      <c r="T20" s="677"/>
-      <c r="U20" s="677"/>
-      <c r="V20" s="677"/>
-      <c r="W20" s="680"/>
-      <c r="X20" s="683"/>
+      <c r="R20" s="683"/>
+      <c r="S20" s="684"/>
+      <c r="T20" s="684"/>
+      <c r="U20" s="684"/>
+      <c r="V20" s="684"/>
+      <c r="W20" s="685"/>
+      <c r="X20" s="671"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -27874,7 +27872,7 @@
       <c r="J21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="689"/>
+      <c r="K21" s="673"/>
       <c r="L21" s="36">
         <f>在庫情報R!BN21</f>
         <v>0</v>
@@ -27900,12 +27898,12 @@
         <v>0</v>
       </c>
       <c r="R21" s="675"/>
-      <c r="S21" s="678"/>
-      <c r="T21" s="678"/>
-      <c r="U21" s="678"/>
-      <c r="V21" s="678"/>
-      <c r="W21" s="681"/>
-      <c r="X21" s="683"/>
+      <c r="S21" s="677"/>
+      <c r="T21" s="677"/>
+      <c r="U21" s="677"/>
+      <c r="V21" s="677"/>
+      <c r="W21" s="679"/>
+      <c r="X21" s="671"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -27933,7 +27931,7 @@
       <c r="J22" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="687"/>
+      <c r="K22" s="672"/>
       <c r="L22" s="26">
         <f>在庫情報R!BN22</f>
         <v>0</v>
@@ -27958,7 +27956,7 @@
         <f>在庫情報R!BS22</f>
         <v>0</v>
       </c>
-      <c r="R22" s="673">
+      <c r="R22" s="674">
         <v>25</v>
       </c>
       <c r="S22" s="676">
@@ -27973,8 +27971,8 @@
       <c r="V22" s="676">
         <v>25</v>
       </c>
-      <c r="W22" s="679"/>
-      <c r="X22" s="683">
+      <c r="W22" s="678"/>
+      <c r="X22" s="671">
         <f>SUM(L22:L23)*R22+SUM(M22:M23)*S22+SUM(N22:N23)*T22+SUM(O22:O23)*U22+SUM(P22:P23)*V22+SUM(Q22:Q23)*W22</f>
         <v>0</v>
       </c>
@@ -28003,7 +28001,7 @@
       <c r="J23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="689"/>
+      <c r="K23" s="673"/>
       <c r="L23" s="30">
         <f>在庫情報R!BN23</f>
         <v>0</v>
@@ -28029,12 +28027,12 @@
         <v>0</v>
       </c>
       <c r="R23" s="675"/>
-      <c r="S23" s="678"/>
-      <c r="T23" s="678"/>
-      <c r="U23" s="678"/>
-      <c r="V23" s="678"/>
-      <c r="W23" s="681"/>
-      <c r="X23" s="683"/>
+      <c r="S23" s="677"/>
+      <c r="T23" s="677"/>
+      <c r="U23" s="677"/>
+      <c r="V23" s="677"/>
+      <c r="W23" s="679"/>
+      <c r="X23" s="671"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -28089,7 +28087,7 @@
         <f>在庫情報R!BS24</f>
         <v>0</v>
       </c>
-      <c r="R24" s="673">
+      <c r="R24" s="674">
         <v>36</v>
       </c>
       <c r="S24" s="676">
@@ -28104,10 +28102,10 @@
       <c r="V24" s="676">
         <v>36</v>
       </c>
-      <c r="W24" s="693">
+      <c r="W24" s="680">
         <v>36</v>
       </c>
-      <c r="X24" s="683">
+      <c r="X24" s="671">
         <f>SUM(L24:L27)*R24+SUM(M24:M27)*S24+SUM(N24:N27)*T24+SUM(O24:O27)*U24+SUM(P24:P27)*V24+SUM(Q24:Q27)*W24</f>
         <v>0</v>
       </c>
@@ -28163,13 +28161,13 @@
         <f>在庫情報R!BS25</f>
         <v>0</v>
       </c>
-      <c r="R25" s="674"/>
-      <c r="S25" s="677"/>
-      <c r="T25" s="677"/>
-      <c r="U25" s="677"/>
-      <c r="V25" s="677"/>
-      <c r="W25" s="701"/>
-      <c r="X25" s="683"/>
+      <c r="R25" s="683"/>
+      <c r="S25" s="684"/>
+      <c r="T25" s="684"/>
+      <c r="U25" s="684"/>
+      <c r="V25" s="684"/>
+      <c r="W25" s="681"/>
+      <c r="X25" s="671"/>
     </row>
     <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
@@ -28222,13 +28220,13 @@
         <f>在庫情報R!BS26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="674"/>
-      <c r="S26" s="677"/>
-      <c r="T26" s="677"/>
-      <c r="U26" s="677"/>
-      <c r="V26" s="677"/>
-      <c r="W26" s="701"/>
-      <c r="X26" s="683"/>
+      <c r="R26" s="683"/>
+      <c r="S26" s="684"/>
+      <c r="T26" s="684"/>
+      <c r="U26" s="684"/>
+      <c r="V26" s="684"/>
+      <c r="W26" s="681"/>
+      <c r="X26" s="671"/>
     </row>
     <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
@@ -28282,12 +28280,12 @@
         <v>0</v>
       </c>
       <c r="R27" s="675"/>
-      <c r="S27" s="678"/>
-      <c r="T27" s="678"/>
-      <c r="U27" s="678"/>
-      <c r="V27" s="678"/>
-      <c r="W27" s="694"/>
-      <c r="X27" s="683"/>
+      <c r="S27" s="677"/>
+      <c r="T27" s="677"/>
+      <c r="U27" s="677"/>
+      <c r="V27" s="677"/>
+      <c r="W27" s="682"/>
+      <c r="X27" s="671"/>
     </row>
     <row r="28" spans="2:24" ht="140.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B28" s="5" t="s">
@@ -28383,7 +28381,7 @@
       <c r="J29" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="687"/>
+      <c r="K29" s="672"/>
       <c r="L29" s="26">
         <f>在庫情報R!BN29</f>
         <v>0</v>
@@ -28408,7 +28406,7 @@
         <f>在庫情報R!BS29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="673">
+      <c r="R29" s="674">
         <v>35</v>
       </c>
       <c r="S29" s="676">
@@ -28423,8 +28421,8 @@
       <c r="V29" s="676">
         <v>35</v>
       </c>
-      <c r="W29" s="679"/>
-      <c r="X29" s="683">
+      <c r="W29" s="678"/>
+      <c r="X29" s="671">
         <f>SUM(L29:L30)*R29+SUM(M29:M30)*S29+SUM(N29:N30)*T29+SUM(O29:O30)*U29+SUM(P29:P30)*V29+SUM(Q29:Q30)*W29</f>
         <v>0</v>
       </c>
@@ -28453,7 +28451,7 @@
       <c r="J30" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="K30" s="689"/>
+      <c r="K30" s="673"/>
       <c r="L30" s="36">
         <f>在庫情報R!BN30</f>
         <v>0</v>
@@ -28479,12 +28477,12 @@
         <v>0</v>
       </c>
       <c r="R30" s="675"/>
-      <c r="S30" s="678"/>
-      <c r="T30" s="678"/>
-      <c r="U30" s="678"/>
-      <c r="V30" s="678"/>
-      <c r="W30" s="681"/>
-      <c r="X30" s="683"/>
+      <c r="S30" s="677"/>
+      <c r="T30" s="677"/>
+      <c r="U30" s="677"/>
+      <c r="V30" s="677"/>
+      <c r="W30" s="679"/>
+      <c r="X30" s="671"/>
     </row>
     <row r="31" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
@@ -28532,12 +28530,12 @@
       <c r="R31" s="702">
         <v>33</v>
       </c>
-      <c r="S31" s="690"/>
-      <c r="T31" s="690"/>
-      <c r="U31" s="690"/>
-      <c r="V31" s="690"/>
-      <c r="W31" s="679"/>
-      <c r="X31" s="683">
+      <c r="S31" s="693"/>
+      <c r="T31" s="693"/>
+      <c r="U31" s="693"/>
+      <c r="V31" s="693"/>
+      <c r="W31" s="678"/>
+      <c r="X31" s="671">
         <f>SUM(L31:L32)*R31+SUM(M31:M32)*S31+SUM(N31:N32)*T31+SUM(O31:O32)*U31+SUM(P31:P32)*V31+SUM(Q31:Q32)*W31</f>
         <v>0</v>
       </c>
@@ -28584,11 +28582,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="703"/>
-      <c r="S32" s="692"/>
-      <c r="T32" s="692"/>
-      <c r="U32" s="692"/>
-      <c r="V32" s="692"/>
-      <c r="W32" s="681"/>
+      <c r="S32" s="695"/>
+      <c r="T32" s="695"/>
+      <c r="U32" s="695"/>
+      <c r="V32" s="695"/>
+      <c r="W32" s="679"/>
       <c r="X32" s="704"/>
     </row>
     <row r="33" spans="2:24" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
@@ -29617,20 +29615,58 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X7:X10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="V7:V10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W7:W10"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="X13:X15"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="T16:T18"/>
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W16:W18"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="W22:W23"/>
     <mergeCell ref="X24:X27"/>
     <mergeCell ref="X29:X30"/>
     <mergeCell ref="R24:R27"/>
@@ -29645,58 +29681,20 @@
     <mergeCell ref="T29:T30"/>
     <mergeCell ref="S29:S30"/>
     <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="X13:X15"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="T16:T18"/>
-    <mergeCell ref="U16:U18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="X16:X18"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W16:W18"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="U7:U10"/>
-    <mergeCell ref="V7:V10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W7:W10"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X7:X10"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44568,7 +44566,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="671" t="s">
+      <c r="R2" s="699" t="s">
         <v>274</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -44629,7 +44627,7 @@
       <c r="Q3" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="R3" s="672"/>
+      <c r="R3" s="700"/>
       <c r="S3" s="7" t="s">
         <v>275</v>
       </c>
@@ -44690,7 +44688,7 @@
         <f>'在庫情報（雨衣）'!BY4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="673">
+      <c r="L4" s="674">
         <v>28</v>
       </c>
       <c r="M4" s="676">
@@ -44705,8 +44703,8 @@
       <c r="P4" s="676">
         <v>28</v>
       </c>
-      <c r="Q4" s="679"/>
-      <c r="R4" s="682">
+      <c r="Q4" s="678"/>
+      <c r="R4" s="701">
         <f>SUM(F4:F6)*L4+SUM(G4:G6)*M4+SUM(H4:H6)*N4+SUM(I4:I6)*O4+SUM(J4:J6)*P4+SUM(K4:K6)*Q4</f>
         <v>0</v>
       </c>
@@ -44725,7 +44723,7 @@
       <c r="W4" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="684"/>
+      <c r="X4" s="696"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
@@ -44760,13 +44758,13 @@
         <f>'在庫情報（雨衣）'!BY5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="674"/>
-      <c r="M5" s="677"/>
-      <c r="N5" s="677"/>
-      <c r="O5" s="677"/>
-      <c r="P5" s="677"/>
-      <c r="Q5" s="680"/>
-      <c r="R5" s="683"/>
+      <c r="L5" s="683"/>
+      <c r="M5" s="684"/>
+      <c r="N5" s="684"/>
+      <c r="O5" s="684"/>
+      <c r="P5" s="684"/>
+      <c r="Q5" s="685"/>
+      <c r="R5" s="671"/>
       <c r="S5" s="562" t="s">
         <v>874</v>
       </c>
@@ -44782,7 +44780,7 @@
       <c r="W5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="685"/>
+      <c r="X5" s="697"/>
     </row>
     <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -44818,12 +44816,12 @@
         <v>0</v>
       </c>
       <c r="L6" s="675"/>
-      <c r="M6" s="678"/>
-      <c r="N6" s="678"/>
-      <c r="O6" s="678"/>
-      <c r="P6" s="678"/>
-      <c r="Q6" s="681"/>
-      <c r="R6" s="683"/>
+      <c r="M6" s="677"/>
+      <c r="N6" s="677"/>
+      <c r="O6" s="677"/>
+      <c r="P6" s="677"/>
+      <c r="Q6" s="679"/>
+      <c r="R6" s="671"/>
       <c r="S6" s="563" t="s">
         <v>879</v>
       </c>
@@ -44839,7 +44837,7 @@
       <c r="W6" s="81" t="s">
         <v>883</v>
       </c>
-      <c r="X6" s="686"/>
+      <c r="X6" s="698"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -44876,7 +44874,7 @@
         <f>'在庫情報（雨衣）'!BY7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="673">
+      <c r="L7" s="674">
         <v>34</v>
       </c>
       <c r="M7" s="676">
@@ -44891,8 +44889,8 @@
       <c r="P7" s="676">
         <v>34</v>
       </c>
-      <c r="Q7" s="679"/>
-      <c r="R7" s="683">
+      <c r="Q7" s="678"/>
+      <c r="R7" s="671">
         <f>SUM(F7:F10)*L7+SUM(G7:G10)*M7+SUM(H7:H10)*N7+SUM(I7:I10)*O7+SUM(J7:J10)*P7+SUM(K7:K10)*Q7</f>
         <v>0</v>
       </c>
@@ -44911,7 +44909,7 @@
       <c r="W7" s="81" t="s">
         <v>891</v>
       </c>
-      <c r="X7" s="687"/>
+      <c r="X7" s="672"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -44946,13 +44944,13 @@
         <f>'在庫情報（雨衣）'!BY8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="674"/>
-      <c r="M8" s="677"/>
-      <c r="N8" s="677"/>
-      <c r="O8" s="677"/>
-      <c r="P8" s="677"/>
-      <c r="Q8" s="680"/>
-      <c r="R8" s="683"/>
+      <c r="L8" s="683"/>
+      <c r="M8" s="684"/>
+      <c r="N8" s="684"/>
+      <c r="O8" s="684"/>
+      <c r="P8" s="684"/>
+      <c r="Q8" s="685"/>
+      <c r="R8" s="671"/>
       <c r="S8" s="563" t="s">
         <v>894</v>
       </c>
@@ -44968,7 +44966,7 @@
       <c r="W8" s="81" t="s">
         <v>896</v>
       </c>
-      <c r="X8" s="688"/>
+      <c r="X8" s="686"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -45003,13 +45001,13 @@
         <f>'在庫情報（雨衣）'!BY9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="674"/>
-      <c r="M9" s="677"/>
-      <c r="N9" s="677"/>
-      <c r="O9" s="677"/>
-      <c r="P9" s="677"/>
-      <c r="Q9" s="680"/>
-      <c r="R9" s="683"/>
+      <c r="L9" s="683"/>
+      <c r="M9" s="684"/>
+      <c r="N9" s="684"/>
+      <c r="O9" s="684"/>
+      <c r="P9" s="684"/>
+      <c r="Q9" s="685"/>
+      <c r="R9" s="671"/>
       <c r="S9" s="563" t="s">
         <v>74</v>
       </c>
@@ -45025,7 +45023,7 @@
       <c r="W9" s="81" t="s">
         <v>899</v>
       </c>
-      <c r="X9" s="688"/>
+      <c r="X9" s="686"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -45061,12 +45059,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="675"/>
-      <c r="M10" s="678"/>
-      <c r="N10" s="678"/>
-      <c r="O10" s="678"/>
-      <c r="P10" s="678"/>
-      <c r="Q10" s="681"/>
-      <c r="R10" s="683"/>
+      <c r="M10" s="677"/>
+      <c r="N10" s="677"/>
+      <c r="O10" s="677"/>
+      <c r="P10" s="677"/>
+      <c r="Q10" s="679"/>
+      <c r="R10" s="671"/>
       <c r="S10" s="563" t="s">
         <v>902</v>
       </c>
@@ -45082,7 +45080,7 @@
       <c r="W10" s="81" t="s">
         <v>906</v>
       </c>
-      <c r="X10" s="689"/>
+      <c r="X10" s="673"/>
     </row>
     <row r="11" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -45119,7 +45117,7 @@
         <f>'在庫情報（雨衣）'!BY11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="673">
+      <c r="L11" s="674">
         <v>36</v>
       </c>
       <c r="M11" s="676">
@@ -45134,10 +45132,10 @@
       <c r="P11" s="676">
         <v>36</v>
       </c>
-      <c r="Q11" s="693">
+      <c r="Q11" s="680">
         <v>36</v>
       </c>
-      <c r="R11" s="683">
+      <c r="R11" s="671">
         <f>SUM(F11:F12)*L11+SUM(G11:G12)*M11+SUM(H11:H12)*N11+SUM(I11:I12)*O11+SUM(J11:J12)*P11+SUM(K11:K12)*Q11</f>
         <v>0</v>
       </c>
@@ -45194,12 +45192,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="675"/>
-      <c r="M12" s="678"/>
-      <c r="N12" s="678"/>
-      <c r="O12" s="678"/>
-      <c r="P12" s="678"/>
-      <c r="Q12" s="694"/>
-      <c r="R12" s="683"/>
+      <c r="M12" s="677"/>
+      <c r="N12" s="677"/>
+      <c r="O12" s="677"/>
+      <c r="P12" s="677"/>
+      <c r="Q12" s="682"/>
+      <c r="R12" s="671"/>
       <c r="S12" s="563" t="s">
         <v>913</v>
       </c>
@@ -45254,7 +45252,7 @@
         <f>'在庫情報（雨衣）'!BY13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="673">
+      <c r="L13" s="674">
         <v>20</v>
       </c>
       <c r="M13" s="676">
@@ -45263,10 +45261,10 @@
       <c r="N13" s="676">
         <v>20</v>
       </c>
-      <c r="O13" s="690"/>
-      <c r="P13" s="690"/>
-      <c r="Q13" s="679"/>
-      <c r="R13" s="683">
+      <c r="O13" s="693"/>
+      <c r="P13" s="693"/>
+      <c r="Q13" s="678"/>
+      <c r="R13" s="671">
         <f>SUM(F13:F15)*L13+SUM(G13:G15)*M13+SUM(H13:H15)*N13+SUM(I13:I15)*O13+SUM(J13:J15)*P13+SUM(K13:K15)*Q13</f>
         <v>0</v>
       </c>
@@ -45279,9 +45277,9 @@
       <c r="U13" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="V13" s="695"/>
-      <c r="W13" s="695"/>
-      <c r="X13" s="687"/>
+      <c r="V13" s="687"/>
+      <c r="W13" s="687"/>
+      <c r="X13" s="672"/>
     </row>
     <row r="14" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
@@ -45316,13 +45314,13 @@
         <f>'在庫情報（雨衣）'!BY14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="674"/>
-      <c r="M14" s="677"/>
-      <c r="N14" s="677"/>
-      <c r="O14" s="691"/>
-      <c r="P14" s="691"/>
-      <c r="Q14" s="680"/>
-      <c r="R14" s="683"/>
+      <c r="L14" s="683"/>
+      <c r="M14" s="684"/>
+      <c r="N14" s="684"/>
+      <c r="O14" s="694"/>
+      <c r="P14" s="694"/>
+      <c r="Q14" s="685"/>
+      <c r="R14" s="671"/>
       <c r="S14" s="563" t="s">
         <v>918</v>
       </c>
@@ -45332,9 +45330,9 @@
       <c r="U14" s="93" t="s">
         <v>920</v>
       </c>
-      <c r="V14" s="696"/>
-      <c r="W14" s="696"/>
-      <c r="X14" s="688"/>
+      <c r="V14" s="688"/>
+      <c r="W14" s="688"/>
+      <c r="X14" s="686"/>
     </row>
     <row r="15" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -45370,12 +45368,12 @@
         <v>0</v>
       </c>
       <c r="L15" s="675"/>
-      <c r="M15" s="678"/>
-      <c r="N15" s="678"/>
-      <c r="O15" s="692"/>
-      <c r="P15" s="692"/>
-      <c r="Q15" s="681"/>
-      <c r="R15" s="683"/>
+      <c r="M15" s="677"/>
+      <c r="N15" s="677"/>
+      <c r="O15" s="695"/>
+      <c r="P15" s="695"/>
+      <c r="Q15" s="679"/>
+      <c r="R15" s="671"/>
       <c r="S15" s="563" t="s">
         <v>98</v>
       </c>
@@ -45385,9 +45383,9 @@
       <c r="U15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="V15" s="697"/>
-      <c r="W15" s="697"/>
-      <c r="X15" s="689"/>
+      <c r="V15" s="689"/>
+      <c r="W15" s="689"/>
+      <c r="X15" s="673"/>
     </row>
     <row r="16" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -45424,7 +45422,7 @@
         <f>'在庫情報（雨衣）'!BY16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="673">
+      <c r="L16" s="674">
         <v>20</v>
       </c>
       <c r="M16" s="676">
@@ -45433,14 +45431,14 @@
       <c r="N16" s="676">
         <v>20</v>
       </c>
-      <c r="O16" s="698">
+      <c r="O16" s="690">
         <v>26</v>
       </c>
-      <c r="P16" s="698">
+      <c r="P16" s="690">
         <v>26</v>
       </c>
-      <c r="Q16" s="679"/>
-      <c r="R16" s="683">
+      <c r="Q16" s="678"/>
+      <c r="R16" s="671">
         <f>SUM(F16:F18)*L16+SUM(G16:G18)*M16+SUM(H16:H18)*N16+SUM(I16:I18)*O16+SUM(J16:J18)*P16+SUM(K16:K18)*Q16</f>
         <v>0</v>
       </c>
@@ -45459,7 +45457,7 @@
       <c r="W16" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="X16" s="687"/>
+      <c r="X16" s="672"/>
     </row>
     <row r="17" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
@@ -45494,13 +45492,13 @@
         <f>'在庫情報（雨衣）'!BY17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="674"/>
-      <c r="M17" s="677"/>
-      <c r="N17" s="677"/>
-      <c r="O17" s="699"/>
-      <c r="P17" s="699"/>
-      <c r="Q17" s="680"/>
-      <c r="R17" s="683"/>
+      <c r="L17" s="683"/>
+      <c r="M17" s="684"/>
+      <c r="N17" s="684"/>
+      <c r="O17" s="691"/>
+      <c r="P17" s="691"/>
+      <c r="Q17" s="685"/>
+      <c r="R17" s="671"/>
       <c r="S17" s="563" t="s">
         <v>109</v>
       </c>
@@ -45516,7 +45514,7 @@
       <c r="W17" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="X17" s="688"/>
+      <c r="X17" s="686"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -45552,12 +45550,12 @@
         <v>0</v>
       </c>
       <c r="L18" s="675"/>
-      <c r="M18" s="678"/>
-      <c r="N18" s="678"/>
-      <c r="O18" s="700"/>
-      <c r="P18" s="700"/>
-      <c r="Q18" s="681"/>
-      <c r="R18" s="683"/>
+      <c r="M18" s="677"/>
+      <c r="N18" s="677"/>
+      <c r="O18" s="692"/>
+      <c r="P18" s="692"/>
+      <c r="Q18" s="679"/>
+      <c r="R18" s="671"/>
       <c r="S18" s="563" t="s">
         <v>106</v>
       </c>
@@ -45573,7 +45571,7 @@
       <c r="W18" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="X18" s="689"/>
+      <c r="X18" s="673"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -45610,7 +45608,7 @@
         <f>'在庫情報（雨衣）'!BY19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="673">
+      <c r="L19" s="674">
         <v>38</v>
       </c>
       <c r="M19" s="676">
@@ -45625,8 +45623,8 @@
       <c r="P19" s="676">
         <v>38</v>
       </c>
-      <c r="Q19" s="679"/>
-      <c r="R19" s="683">
+      <c r="Q19" s="678"/>
+      <c r="R19" s="671">
         <f>SUM(F19:F21)*L19+SUM(G19:G21)*M19+SUM(H19:H21)*N19+SUM(I19:I21)*O19+SUM(J19:J21)*P19+SUM(K19:K21)*Q19</f>
         <v>0</v>
       </c>
@@ -45645,7 +45643,7 @@
       <c r="W19" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="X19" s="687"/>
+      <c r="X19" s="672"/>
     </row>
     <row r="20" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
@@ -45680,13 +45678,13 @@
         <f>'在庫情報（雨衣）'!BY20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="674"/>
-      <c r="M20" s="677"/>
-      <c r="N20" s="677"/>
-      <c r="O20" s="677"/>
-      <c r="P20" s="677"/>
-      <c r="Q20" s="680"/>
-      <c r="R20" s="683"/>
+      <c r="L20" s="683"/>
+      <c r="M20" s="684"/>
+      <c r="N20" s="684"/>
+      <c r="O20" s="684"/>
+      <c r="P20" s="684"/>
+      <c r="Q20" s="685"/>
+      <c r="R20" s="671"/>
       <c r="S20" s="563" t="s">
         <v>126</v>
       </c>
@@ -45702,7 +45700,7 @@
       <c r="W20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="X20" s="688"/>
+      <c r="X20" s="686"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -45738,12 +45736,12 @@
         <v>0</v>
       </c>
       <c r="L21" s="675"/>
-      <c r="M21" s="678"/>
-      <c r="N21" s="678"/>
-      <c r="O21" s="678"/>
-      <c r="P21" s="678"/>
-      <c r="Q21" s="681"/>
-      <c r="R21" s="683"/>
+      <c r="M21" s="677"/>
+      <c r="N21" s="677"/>
+      <c r="O21" s="677"/>
+      <c r="P21" s="677"/>
+      <c r="Q21" s="679"/>
+      <c r="R21" s="671"/>
       <c r="S21" s="563" t="s">
         <v>131</v>
       </c>
@@ -45759,7 +45757,7 @@
       <c r="W21" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="X21" s="689"/>
+      <c r="X21" s="673"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -45796,7 +45794,7 @@
         <f>'在庫情報（雨衣）'!BY22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="673">
+      <c r="L22" s="674">
         <v>25</v>
       </c>
       <c r="M22" s="676">
@@ -45811,8 +45809,8 @@
       <c r="P22" s="676">
         <v>25</v>
       </c>
-      <c r="Q22" s="679"/>
-      <c r="R22" s="683">
+      <c r="Q22" s="678"/>
+      <c r="R22" s="671">
         <f>SUM(F22:F23)*L22+SUM(G22:G23)*M22+SUM(H22:H23)*N22+SUM(I22:I23)*O22+SUM(J22:J23)*P22+SUM(K22:K23)*Q22</f>
         <v>0</v>
       </c>
@@ -45831,7 +45829,7 @@
       <c r="W22" s="93" t="s">
         <v>928</v>
       </c>
-      <c r="X22" s="687"/>
+      <c r="X22" s="672"/>
     </row>
     <row r="23" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
@@ -45867,12 +45865,12 @@
         <v>0</v>
       </c>
       <c r="L23" s="675"/>
-      <c r="M23" s="678"/>
-      <c r="N23" s="678"/>
-      <c r="O23" s="678"/>
-      <c r="P23" s="678"/>
-      <c r="Q23" s="681"/>
-      <c r="R23" s="683"/>
+      <c r="M23" s="677"/>
+      <c r="N23" s="677"/>
+      <c r="O23" s="677"/>
+      <c r="P23" s="677"/>
+      <c r="Q23" s="679"/>
+      <c r="R23" s="671"/>
       <c r="S23" s="563" t="s">
         <v>822</v>
       </c>
@@ -45888,7 +45886,7 @@
       <c r="W23" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="X23" s="689"/>
+      <c r="X23" s="673"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -45925,7 +45923,7 @@
         <f>'在庫情報（雨衣）'!BY24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="673">
+      <c r="L24" s="674">
         <v>36</v>
       </c>
       <c r="M24" s="676">
@@ -45940,10 +45938,10 @@
       <c r="P24" s="676">
         <v>36</v>
       </c>
-      <c r="Q24" s="693">
+      <c r="Q24" s="680">
         <v>36</v>
       </c>
-      <c r="R24" s="683">
+      <c r="R24" s="671">
         <f>SUM(F24:F27)*L24+SUM(G24:G27)*M24+SUM(H24:H27)*N24+SUM(I24:I27)*O24+SUM(J24:J27)*P24+SUM(K24:K27)*Q24</f>
         <v>0</v>
       </c>
@@ -45999,13 +45997,13 @@
         <f>'在庫情報（雨衣）'!BY25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="674"/>
-      <c r="M25" s="677"/>
-      <c r="N25" s="677"/>
-      <c r="O25" s="677"/>
-      <c r="P25" s="677"/>
-      <c r="Q25" s="701"/>
-      <c r="R25" s="683"/>
+      <c r="L25" s="683"/>
+      <c r="M25" s="684"/>
+      <c r="N25" s="684"/>
+      <c r="O25" s="684"/>
+      <c r="P25" s="684"/>
+      <c r="Q25" s="681"/>
+      <c r="R25" s="671"/>
       <c r="S25" s="563" t="s">
         <v>144</v>
       </c>
@@ -46058,13 +46056,13 @@
         <f>'在庫情報（雨衣）'!BY26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="674"/>
-      <c r="M26" s="677"/>
-      <c r="N26" s="677"/>
-      <c r="O26" s="677"/>
-      <c r="P26" s="677"/>
-      <c r="Q26" s="701"/>
-      <c r="R26" s="683"/>
+      <c r="L26" s="683"/>
+      <c r="M26" s="684"/>
+      <c r="N26" s="684"/>
+      <c r="O26" s="684"/>
+      <c r="P26" s="684"/>
+      <c r="Q26" s="681"/>
+      <c r="R26" s="671"/>
       <c r="S26" s="563" t="s">
         <v>159</v>
       </c>
@@ -46118,12 +46116,12 @@
         <v>0</v>
       </c>
       <c r="L27" s="675"/>
-      <c r="M27" s="678"/>
-      <c r="N27" s="678"/>
-      <c r="O27" s="678"/>
-      <c r="P27" s="678"/>
-      <c r="Q27" s="694"/>
-      <c r="R27" s="683"/>
+      <c r="M27" s="677"/>
+      <c r="N27" s="677"/>
+      <c r="O27" s="677"/>
+      <c r="P27" s="677"/>
+      <c r="Q27" s="682"/>
+      <c r="R27" s="671"/>
       <c r="S27" s="563" t="s">
         <v>165</v>
       </c>
@@ -46246,7 +46244,7 @@
         <f>'在庫情報（雨衣）'!BY29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="673">
+      <c r="L29" s="674">
         <v>35</v>
       </c>
       <c r="M29" s="676">
@@ -46261,8 +46259,8 @@
       <c r="P29" s="676">
         <v>35</v>
       </c>
-      <c r="Q29" s="679"/>
-      <c r="R29" s="683">
+      <c r="Q29" s="678"/>
+      <c r="R29" s="671">
         <f>SUM(F29:F30)*L29+SUM(G29:G30)*M29+SUM(H29:H30)*N29+SUM(I29:I30)*O29+SUM(J29:J30)*P29+SUM(K29:K30)*Q29</f>
         <v>0</v>
       </c>
@@ -46281,7 +46279,7 @@
       <c r="W29" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="X29" s="687"/>
+      <c r="X29" s="672"/>
     </row>
     <row r="30" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
@@ -46317,12 +46315,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="675"/>
-      <c r="M30" s="678"/>
-      <c r="N30" s="678"/>
-      <c r="O30" s="678"/>
-      <c r="P30" s="678"/>
-      <c r="Q30" s="681"/>
-      <c r="R30" s="683"/>
+      <c r="M30" s="677"/>
+      <c r="N30" s="677"/>
+      <c r="O30" s="677"/>
+      <c r="P30" s="677"/>
+      <c r="Q30" s="679"/>
+      <c r="R30" s="671"/>
       <c r="S30" s="563" t="s">
         <v>179</v>
       </c>
@@ -46338,7 +46336,7 @@
       <c r="W30" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="X30" s="689"/>
+      <c r="X30" s="673"/>
     </row>
     <row r="31" spans="2:24" s="560" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B31"/>
@@ -46370,48 +46368,23 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X13:X15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="X7:X10"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="M13:M15"/>
@@ -46426,23 +46399,48 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="X7:X10"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="X13:X15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48178,7 +48176,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="671" t="s">
+      <c r="R2" s="699" t="s">
         <v>274</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -48239,7 +48237,7 @@
       <c r="Q3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="R3" s="672"/>
+      <c r="R3" s="700"/>
       <c r="S3" s="7" t="s">
         <v>1000</v>
       </c>
@@ -49394,7 +49392,7 @@
       <c r="H2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="671" t="s">
+      <c r="I2" s="699" t="s">
         <v>274</v>
       </c>
     </row>
@@ -49414,7 +49412,7 @@
       <c r="F3" s="627"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="672"/>
+      <c r="I3" s="700"/>
     </row>
     <row r="4" spans="2:10" s="22" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B4" s="3" t="s">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -22,8 +22,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'入荷見積（袜子）'!$B$3:$L$294</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'入荷見積（雨靴）'!$B$2:$U$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'在庫情報（袜子）'!$A$3:$W$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'入荷見積（雨靴）'!$B$2:$U$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'在庫情報（袜子）'!$A$3:$W$3</definedName>
     <definedName name="List" localSheetId="11">'入荷見積（袜子）'!#REF!</definedName>
     <definedName name="List">'在庫情報（袜子）'!#REF!</definedName>
     <definedName name="List1" localSheetId="11">'入荷見積（袜子）'!#REF!</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="1215">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4567,6 +4567,28 @@
   </si>
   <si>
     <t>X000UXZMYV</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+  </si>
+  <si>
+    <t>人魚柄</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人魚柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYJ7QJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYJ7QJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4863,7 +4885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -6024,12 +6046,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="729">
+  <cellXfs count="731">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7777,12 +7812,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="266">
+  <dxfs count="285">
     <dxf>
       <font>
         <color theme="0"/>
@@ -8332,6 +8369,157 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -18741,13 +18929,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>80341</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>43897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1520341</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>721897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18779,6 +18967,50 @@
         <a:xfrm>
           <a:off x="1575766" y="11302447"/>
           <a:ext cx="1440000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1443682</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1166591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1870364" y="11655136"/>
+          <a:ext cx="1080000" cy="1080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19196,14 +19428,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165948</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>275219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1605948</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>448394</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>448393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19234,6 +19466,50 @@
         <a:xfrm>
           <a:off x="1661373" y="11409944"/>
           <a:ext cx="1440000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1433786</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1188857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1850572" y="11253107"/>
+          <a:ext cx="1080000" cy="1080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19603,13 +19879,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1903909</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>206727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19647,14 +19923,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>294408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1851955</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>120136</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>120135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19691,14 +19967,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1869272</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>172092</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>172091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19735,14 +20011,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1886591</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>293318</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>293319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19779,14 +20055,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1938545</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>241364</xdr:rowOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>241363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19811,6 +20087,50 @@
         <a:xfrm>
           <a:off x="1633970" y="40463066"/>
           <a:ext cx="1800000" cy="1774023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1903910</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>224046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610592" y="27518591"/>
+          <a:ext cx="1800000" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20180,13 +20500,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1903909</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>50864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20224,13 +20544,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>294408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1851955</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>293318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20268,13 +20588,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1869272</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20312,13 +20632,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1886591</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>137454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20356,13 +20676,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1938545</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>85501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20388,6 +20708,50 @@
         <a:xfrm>
           <a:off x="1633970" y="55407791"/>
           <a:ext cx="1800000" cy="1789610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1903909</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>102818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1599334" y="37051384"/>
+          <a:ext cx="1800000" cy="1789609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26617,55 +26981,55 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="BZ4:CE30">
-    <cfRule type="expression" dxfId="265" priority="12">
+    <cfRule type="expression" dxfId="284" priority="12">
       <formula>AND(BZ4&lt;&gt;"",BZ4/BH4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="13">
+    <cfRule type="expression" dxfId="283" priority="13">
       <formula>AND(BZ4&lt;&gt;"",BZ4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF4:CK30">
-    <cfRule type="expression" dxfId="263" priority="9">
+    <cfRule type="expression" dxfId="282" priority="9">
       <formula>CF4&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="10">
+    <cfRule type="expression" dxfId="281" priority="10">
       <formula>CF4&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="11">
+    <cfRule type="expression" dxfId="280" priority="11">
       <formula>CF4&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:AC30">
-    <cfRule type="expression" dxfId="260" priority="2">
+    <cfRule type="expression" dxfId="279" priority="2">
       <formula>OR(X4=0,X4="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH4:BM30">
-    <cfRule type="expression" dxfId="259" priority="6">
+    <cfRule type="expression" dxfId="278" priority="6">
       <formula>BH4&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="7">
+    <cfRule type="expression" dxfId="277" priority="7">
       <formula>BH4&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="8">
+    <cfRule type="expression" dxfId="276" priority="8">
       <formula>BH4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN4:BS30">
-    <cfRule type="expression" dxfId="256" priority="4">
+    <cfRule type="expression" dxfId="275" priority="4">
       <formula>AND(BN4&lt;&gt;"",BN4/BH4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="5">
+    <cfRule type="expression" dxfId="274" priority="5">
       <formula>AND(BN4&lt;&gt;"",BN4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:Q30">
-    <cfRule type="expression" dxfId="254" priority="3">
+    <cfRule type="expression" dxfId="273" priority="3">
       <formula>AND(L4&lt;5,X4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AI30">
-    <cfRule type="expression" dxfId="253" priority="1">
+    <cfRule type="expression" dxfId="272" priority="1">
       <formula>OR(AD4=0,AD4="0")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29714,7 +30078,7 @@
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -37953,7 +38317,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:W120"/>
+  <autoFilter ref="A3:W3"/>
   <mergeCells count="6">
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E133:E136"/>
@@ -38216,9 +38580,7 @@
   </sheetPr>
   <dimension ref="B1:M187"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -48069,55 +48431,55 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="BT4:BY11">
-    <cfRule type="expression" dxfId="252" priority="12">
+    <cfRule type="expression" dxfId="271" priority="12">
       <formula>AND(BT4&lt;&gt;"",BT4/BB4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="13">
+    <cfRule type="expression" dxfId="270" priority="13">
       <formula>AND(BT4&lt;&gt;"",BT4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ4:CE11">
-    <cfRule type="expression" dxfId="250" priority="9">
+    <cfRule type="expression" dxfId="269" priority="9">
       <formula>BZ4&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="10">
+    <cfRule type="expression" dxfId="268" priority="10">
       <formula>BZ4&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="11">
+    <cfRule type="expression" dxfId="267" priority="11">
       <formula>BZ4&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BG11">
-    <cfRule type="expression" dxfId="247" priority="6">
+    <cfRule type="expression" dxfId="266" priority="6">
       <formula>BB4&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="7">
+    <cfRule type="expression" dxfId="265" priority="7">
       <formula>BB4&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="8">
+    <cfRule type="expression" dxfId="264" priority="8">
       <formula>BB4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH4:BM11">
-    <cfRule type="expression" dxfId="244" priority="4">
+    <cfRule type="expression" dxfId="263" priority="4">
       <formula>AND(BH4&lt;&gt;"",BH4/BB4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="5">
+    <cfRule type="expression" dxfId="262" priority="5">
       <formula>AND(BH4&lt;&gt;"",BH4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:Q11">
-    <cfRule type="expression" dxfId="242" priority="3">
+    <cfRule type="expression" dxfId="261" priority="3">
       <formula>AND(L4&lt;5,R4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:W11">
-    <cfRule type="expression" dxfId="241" priority="2">
+    <cfRule type="expression" dxfId="260" priority="2">
       <formula>OR(R4=0,R4="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:AC11">
-    <cfRule type="expression" dxfId="240" priority="1">
+    <cfRule type="expression" dxfId="259" priority="1">
       <formula>OR(X4=0,X4="0")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48866,14 +49228,14 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B2:S13"/>
+  <dimension ref="B2:S14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -48881,8 +49243,7 @@
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="39" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="20.625" style="39" customWidth="1"/>
     <col min="7" max="8" width="25" style="39" customWidth="1"/>
     <col min="9" max="9" width="22.875" style="39" customWidth="1"/>
     <col min="10" max="10" width="25.875" customWidth="1"/>
@@ -48977,11 +49338,11 @@
       </c>
       <c r="P4" s="207"/>
       <c r="Q4" s="216">
-        <f t="shared" ref="Q4:Q13" si="0">O4+P4</f>
+        <f t="shared" ref="Q4:Q14" si="0">O4+P4</f>
         <v>0</v>
       </c>
       <c r="R4" s="587" t="str">
-        <f t="shared" ref="R4:R13" si="1">IF( N4&lt;&gt;0,Q4/N4*7,"-")</f>
+        <f t="shared" ref="R4:R14" si="1">IF( N4&lt;&gt;0,Q4/N4*7,"-")</f>
         <v>-</v>
       </c>
       <c r="S4"/>
@@ -49007,7 +49368,7 @@
       <c r="M5" s="593"/>
       <c r="N5" s="593"/>
       <c r="O5" s="594">
-        <f t="shared" ref="O5:O13" si="2">G5+H5+I5</f>
+        <f t="shared" ref="O5:O14" si="2">G5+H5+I5</f>
         <v>0</v>
       </c>
       <c r="P5" s="592"/>
@@ -49230,123 +49591,157 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="601" t="s">
+    <row r="12" spans="2:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="729"/>
+      <c r="C12" s="589"/>
+      <c r="D12" s="590" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E12" s="730" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G12" s="591"/>
+      <c r="H12" s="592"/>
+      <c r="I12" s="592"/>
+      <c r="J12" s="591"/>
+      <c r="K12" s="591"/>
+      <c r="L12" s="593"/>
+      <c r="M12" s="593"/>
+      <c r="N12" s="593"/>
+      <c r="O12" s="594">
+        <f t="shared" ref="O12" si="3">G12+H12+I12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="592"/>
+      <c r="Q12" s="594">
+        <f t="shared" ref="Q12" si="4">O12+P12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="595" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="601" t="s">
         <v>1054</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="603" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="603" t="s">
         <v>1055</v>
       </c>
-      <c r="E12" s="619" t="s">
+      <c r="E13" s="619" t="s">
         <v>1056</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F13" s="123" t="s">
         <v>1057</v>
       </c>
-      <c r="G12" s="604"/>
-      <c r="H12" s="605"/>
-      <c r="I12" s="605"/>
-      <c r="J12" s="604"/>
-      <c r="K12" s="604"/>
-      <c r="L12" s="606"/>
-      <c r="M12" s="606"/>
-      <c r="N12" s="606"/>
-      <c r="O12" s="607">
+      <c r="G13" s="604"/>
+      <c r="H13" s="605"/>
+      <c r="I13" s="605"/>
+      <c r="J13" s="604"/>
+      <c r="K13" s="604"/>
+      <c r="L13" s="606"/>
+      <c r="M13" s="606"/>
+      <c r="N13" s="606"/>
+      <c r="O13" s="607">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P12" s="605"/>
-      <c r="Q12" s="607">
+      <c r="P13" s="605"/>
+      <c r="Q13" s="607">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="608" t="str">
+      <c r="R13" s="608" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="620"/>
-      <c r="C13" s="621"/>
-      <c r="D13" s="622" t="s">
+    <row r="14" spans="2:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="620"/>
+      <c r="C14" s="621"/>
+      <c r="D14" s="622" t="s">
         <v>1058</v>
       </c>
-      <c r="E13" s="623" t="s">
+      <c r="E14" s="623" t="s">
         <v>1059</v>
       </c>
-      <c r="F13" s="624" t="s">
+      <c r="F14" s="624" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="159"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="196">
+      <c r="G14" s="159"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="196">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="196">
+      <c r="P14" s="195"/>
+      <c r="Q14" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R13" s="625" t="str">
+      <c r="R14" s="625" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N4:N13">
-    <cfRule type="expression" dxfId="239" priority="10">
+  <conditionalFormatting sqref="N4:N14">
+    <cfRule type="expression" dxfId="258" priority="10">
       <formula>N4&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="11">
+    <cfRule type="expression" dxfId="257" priority="11">
       <formula>N4&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="12">
+    <cfRule type="expression" dxfId="256" priority="12">
       <formula>N4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O13">
-    <cfRule type="expression" dxfId="236" priority="8">
+  <conditionalFormatting sqref="O4:O14">
+    <cfRule type="expression" dxfId="255" priority="8">
       <formula>AND(O4&lt;&gt;"",O4/N4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="9">
+    <cfRule type="expression" dxfId="254" priority="9">
       <formula>AND(O4&lt;&gt;"",O4=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q13">
-    <cfRule type="expression" dxfId="234" priority="6">
+  <conditionalFormatting sqref="Q4:Q14">
+    <cfRule type="expression" dxfId="253" priority="6">
       <formula>AND(Q4&lt;&gt;"",Q4/N4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="7">
+    <cfRule type="expression" dxfId="252" priority="7">
       <formula>AND(Q4&lt;&gt;"",Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R13">
-    <cfRule type="expression" dxfId="232" priority="3">
+  <conditionalFormatting sqref="R4:R14">
+    <cfRule type="expression" dxfId="251" priority="3">
       <formula>R4&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="4">
+    <cfRule type="expression" dxfId="250" priority="4">
       <formula>R4&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="5">
+    <cfRule type="expression" dxfId="249" priority="5">
       <formula>R4&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13">
-    <cfRule type="expression" dxfId="229" priority="2">
+  <conditionalFormatting sqref="G4:G14">
+    <cfRule type="expression" dxfId="248" priority="2">
       <formula>AND(G4&lt;5,H4&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I13">
-    <cfRule type="expression" dxfId="228" priority="1">
+  <conditionalFormatting sqref="H4:I14">
+    <cfRule type="expression" dxfId="247" priority="1">
       <formula>OR(H4=0,H4="0")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49361,7 +49756,7 @@
   <sheetPr>
     <tabColor rgb="FF66FF66"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -49436,7 +49831,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="70">
-        <f t="shared" ref="I4:I13" si="0">H4*G4</f>
+        <f t="shared" ref="I4:I14" si="0">H4*G4</f>
         <v>0</v>
       </c>
       <c r="J4" s="629"/>
@@ -49623,59 +50018,84 @@
       <c r="J11" s="629"/>
     </row>
     <row r="12" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B12" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="40" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>1065</v>
+      <c r="B12" s="4"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="49" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E12" s="631" t="s">
+        <v>1210</v>
       </c>
       <c r="F12" s="628" t="s">
-        <v>1066</v>
+        <v>1213</v>
       </c>
       <c r="G12" s="68">
         <f>'在庫情報（雨伞等）'!P12</f>
         <v>0</v>
       </c>
       <c r="H12" s="66">
+        <v>25</v>
+      </c>
+      <c r="I12" s="71">
+        <f t="shared" ref="I12" si="1">H12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="629"/>
+    </row>
+    <row r="13" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="B13" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="40" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F13" s="628" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G13" s="68">
+        <f>'在庫情報（雨伞等）'!P13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="66">
         <v>33</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I13" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="629"/>
-    </row>
-    <row r="13" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="40" t="s">
+      <c r="J13" s="629"/>
+    </row>
+    <row r="14" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="40" t="s">
         <v>1067</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E14" s="41" t="s">
         <v>1068</v>
       </c>
-      <c r="F13" s="630" t="s">
+      <c r="F14" s="630" t="s">
         <v>1069</v>
       </c>
-      <c r="G13" s="54">
-        <f>'在庫情報（雨伞等）'!P13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="61">
+      <c r="G14" s="54">
+        <f>'在庫情報（雨伞等）'!P14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="61">
         <v>33</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I14" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="629"/>
-    </row>
-    <row r="14" spans="2:10" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="I14" s="632">
+      <c r="J14" s="629"/>
+    </row>
+    <row r="15" spans="2:10" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="I15" s="632">
         <f>SUM(I4:I11)</f>
         <v>0</v>
       </c>
@@ -49696,14 +50116,14 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:T132"/>
+  <dimension ref="B1:T142"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -49712,7 +50132,7 @@
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="39" customWidth="1"/>
     <col min="5" max="7" width="20.625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="39" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="25.875" customWidth="1"/>
     <col min="10" max="11" width="27.25" customWidth="1"/>
     <col min="12" max="12" width="22.25" customWidth="1"/>
@@ -52028,16 +52448,16 @@
       <c r="O67" s="639"/>
       <c r="P67" s="639"/>
       <c r="Q67" s="639">
-        <f t="shared" ref="Q67:Q130" si="3">I67+J67</f>
+        <f t="shared" ref="Q67:Q140" si="3">I67+J67</f>
         <v>0</v>
       </c>
       <c r="R67" s="639"/>
       <c r="S67" s="639">
-        <f t="shared" ref="S67:S130" si="4">Q67+R67</f>
+        <f t="shared" ref="S67:S140" si="4">Q67+R67</f>
         <v>0</v>
       </c>
       <c r="T67" s="640" t="str">
-        <f t="shared" ref="T67:T130" si="5">IF( P67&lt;&gt;0,S67/P67*7,"-")</f>
+        <f t="shared" ref="T67:T140" si="5">IF( P67&lt;&gt;0,S67/P67*7,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -52543,79 +52963,79 @@
         <v>-</v>
       </c>
     </row>
-    <row r="82" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="620"/>
-      <c r="C82" s="643"/>
-      <c r="D82" s="644"/>
-      <c r="E82" s="644"/>
-      <c r="F82" s="622">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B82" s="635"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="636"/>
+      <c r="E82" s="636"/>
+      <c r="F82" s="641">
         <v>32</v>
       </c>
-      <c r="G82" s="622" t="s">
+      <c r="G82" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H82" s="624" t="s">
+      <c r="H82" s="642" t="s">
         <v>1180</v>
       </c>
-      <c r="I82" s="159"/>
-      <c r="J82" s="195"/>
-      <c r="K82" s="195"/>
-      <c r="L82" s="159"/>
-      <c r="M82" s="159"/>
-      <c r="N82" s="162"/>
-      <c r="O82" s="162"/>
-      <c r="P82" s="162"/>
-      <c r="Q82" s="196">
+      <c r="I82" s="165"/>
+      <c r="J82" s="197"/>
+      <c r="K82" s="197"/>
+      <c r="L82" s="165"/>
+      <c r="M82" s="165"/>
+      <c r="N82" s="168"/>
+      <c r="O82" s="168"/>
+      <c r="P82" s="168"/>
+      <c r="Q82" s="198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R82" s="195"/>
-      <c r="S82" s="196">
+      <c r="R82" s="197"/>
+      <c r="S82" s="198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T82" s="625" t="str">
+      <c r="T82" s="645" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B83" s="583" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C83" s="633"/>
-      <c r="D83" s="634" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E83" s="634"/>
-      <c r="F83" s="585">
+      <c r="B83" s="635"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="49" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E83" s="49" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F83" s="603">
         <v>23</v>
       </c>
-      <c r="G83" s="585" t="s">
+      <c r="G83" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H83" s="586" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I83" s="214"/>
-      <c r="J83" s="207"/>
-      <c r="K83" s="207"/>
-      <c r="L83" s="214"/>
-      <c r="M83" s="214"/>
-      <c r="N83" s="209"/>
-      <c r="O83" s="209"/>
-      <c r="P83" s="209"/>
-      <c r="Q83" s="216">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="207"/>
-      <c r="S83" s="216">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="587" t="str">
-        <f t="shared" si="5"/>
+      <c r="H83" s="123" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I83" s="604"/>
+      <c r="J83" s="605"/>
+      <c r="K83" s="605"/>
+      <c r="L83" s="604"/>
+      <c r="M83" s="604"/>
+      <c r="N83" s="606"/>
+      <c r="O83" s="606"/>
+      <c r="P83" s="606"/>
+      <c r="Q83" s="607">
+        <f t="shared" ref="Q83:Q92" si="6">I83+J83</f>
+        <v>0</v>
+      </c>
+      <c r="R83" s="605"/>
+      <c r="S83" s="607">
+        <f t="shared" ref="S83:S92" si="7">Q83+R83</f>
+        <v>0</v>
+      </c>
+      <c r="T83" s="608" t="str">
+        <f t="shared" ref="T83:T92" si="8">IF( P83&lt;&gt;0,S83/P83*7,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -52631,7 +53051,7 @@
         <v>1103</v>
       </c>
       <c r="H84" s="611" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="I84" s="147"/>
       <c r="J84" s="188"/>
@@ -52642,16 +53062,16 @@
       <c r="O84" s="154"/>
       <c r="P84" s="154"/>
       <c r="Q84" s="187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R84" s="188"/>
       <c r="S84" s="187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T84" s="612" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
     </row>
@@ -52676,16 +53096,16 @@
       <c r="O85" s="639"/>
       <c r="P85" s="639"/>
       <c r="Q85" s="639">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R85" s="639"/>
       <c r="S85" s="639">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T85" s="640" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
     </row>
@@ -52701,7 +53121,7 @@
         <v>1105</v>
       </c>
       <c r="H86" s="611" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="I86" s="147"/>
       <c r="J86" s="188"/>
@@ -52712,16 +53132,16 @@
       <c r="O86" s="154"/>
       <c r="P86" s="154"/>
       <c r="Q86" s="187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R86" s="188"/>
       <c r="S86" s="187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T86" s="612" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
     </row>
@@ -52746,16 +53166,16 @@
       <c r="O87" s="639"/>
       <c r="P87" s="639"/>
       <c r="Q87" s="639">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R87" s="639"/>
       <c r="S87" s="639">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T87" s="640" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
     </row>
@@ -52771,7 +53191,7 @@
         <v>1107</v>
       </c>
       <c r="H88" s="611" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="I88" s="147"/>
       <c r="J88" s="188"/>
@@ -52782,16 +53202,16 @@
       <c r="O88" s="154"/>
       <c r="P88" s="154"/>
       <c r="Q88" s="187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R88" s="188"/>
       <c r="S88" s="187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T88" s="612" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
     </row>
@@ -52807,7 +53227,7 @@
         <v>1108</v>
       </c>
       <c r="H89" s="611" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="I89" s="147"/>
       <c r="J89" s="188"/>
@@ -52818,16 +53238,16 @@
       <c r="O89" s="154"/>
       <c r="P89" s="154"/>
       <c r="Q89" s="187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R89" s="188"/>
       <c r="S89" s="187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T89" s="612" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
     </row>
@@ -52852,16 +53272,16 @@
       <c r="O90" s="639"/>
       <c r="P90" s="639"/>
       <c r="Q90" s="639">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R90" s="639"/>
       <c r="S90" s="639">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T90" s="640" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
     </row>
@@ -52877,7 +53297,7 @@
         <v>1110</v>
       </c>
       <c r="H91" s="611" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="I91" s="147"/>
       <c r="J91" s="188"/>
@@ -52888,20 +53308,20 @@
       <c r="O91" s="154"/>
       <c r="P91" s="154"/>
       <c r="Q91" s="187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R91" s="188"/>
       <c r="S91" s="187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T91" s="612" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B92" s="635"/>
       <c r="C92" s="46"/>
       <c r="D92" s="636"/>
@@ -52913,7 +53333,7 @@
         <v>1111</v>
       </c>
       <c r="H92" s="642" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="I92" s="165"/>
       <c r="J92" s="197"/>
@@ -52924,53 +53344,55 @@
       <c r="O92" s="168"/>
       <c r="P92" s="168"/>
       <c r="Q92" s="198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R92" s="197"/>
       <c r="S92" s="198">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="645" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B93" s="583" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C93" s="633"/>
+      <c r="D93" s="634" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E93" s="634"/>
+      <c r="F93" s="585">
+        <v>23</v>
+      </c>
+      <c r="G93" s="585" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H93" s="586" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I93" s="214"/>
+      <c r="J93" s="207"/>
+      <c r="K93" s="207"/>
+      <c r="L93" s="214"/>
+      <c r="M93" s="214"/>
+      <c r="N93" s="209"/>
+      <c r="O93" s="209"/>
+      <c r="P93" s="209"/>
+      <c r="Q93" s="216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="207"/>
+      <c r="S93" s="216">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T92" s="645" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B93" s="635"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="49" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E93" s="49"/>
-      <c r="F93" s="603">
-        <v>23</v>
-      </c>
-      <c r="G93" s="603" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H93" s="123" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I93" s="604"/>
-      <c r="J93" s="605"/>
-      <c r="K93" s="605"/>
-      <c r="L93" s="604"/>
-      <c r="M93" s="604"/>
-      <c r="N93" s="606"/>
-      <c r="O93" s="606"/>
-      <c r="P93" s="606"/>
-      <c r="Q93" s="607">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="605"/>
-      <c r="S93" s="607">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T93" s="608" t="str">
+      <c r="T93" s="587" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -52987,7 +53409,7 @@
         <v>1103</v>
       </c>
       <c r="H94" s="611" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="I94" s="147"/>
       <c r="J94" s="188"/>
@@ -53057,7 +53479,7 @@
         <v>1105</v>
       </c>
       <c r="H96" s="611" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="I96" s="147"/>
       <c r="J96" s="188"/>
@@ -53127,7 +53549,7 @@
         <v>1107</v>
       </c>
       <c r="H98" s="611" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="I98" s="147"/>
       <c r="J98" s="188"/>
@@ -53163,7 +53585,7 @@
         <v>1108</v>
       </c>
       <c r="H99" s="611" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="I99" s="147"/>
       <c r="J99" s="188"/>
@@ -53233,7 +53655,7 @@
         <v>1110</v>
       </c>
       <c r="H101" s="611" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="I101" s="147"/>
       <c r="J101" s="188"/>
@@ -53269,7 +53691,7 @@
         <v>1111</v>
       </c>
       <c r="H102" s="642" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="I102" s="165"/>
       <c r="J102" s="197"/>
@@ -53297,7 +53719,7 @@
       <c r="B103" s="635"/>
       <c r="C103" s="45"/>
       <c r="D103" s="49" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="E103" s="49"/>
       <c r="F103" s="603">
@@ -53307,7 +53729,7 @@
         <v>1102</v>
       </c>
       <c r="H103" s="123" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="I103" s="604"/>
       <c r="J103" s="605"/>
@@ -53343,7 +53765,7 @@
         <v>1103</v>
       </c>
       <c r="H104" s="611" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="I104" s="147"/>
       <c r="J104" s="188"/>
@@ -53413,7 +53835,7 @@
         <v>1105</v>
       </c>
       <c r="H106" s="611" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="I106" s="147"/>
       <c r="J106" s="188"/>
@@ -53483,7 +53905,7 @@
         <v>1107</v>
       </c>
       <c r="H108" s="611" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="I108" s="147"/>
       <c r="J108" s="188"/>
@@ -53519,7 +53941,7 @@
         <v>1108</v>
       </c>
       <c r="H109" s="611" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="I109" s="147"/>
       <c r="J109" s="188"/>
@@ -53589,7 +54011,7 @@
         <v>1110</v>
       </c>
       <c r="H111" s="611" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="I111" s="147"/>
       <c r="J111" s="188"/>
@@ -53625,7 +54047,7 @@
         <v>1111</v>
       </c>
       <c r="H112" s="642" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="I112" s="165"/>
       <c r="J112" s="197"/>
@@ -53653,7 +54075,7 @@
       <c r="B113" s="635"/>
       <c r="C113" s="45"/>
       <c r="D113" s="49" t="s">
-        <v>1100</v>
+        <v>1125</v>
       </c>
       <c r="E113" s="49"/>
       <c r="F113" s="603">
@@ -53663,7 +54085,7 @@
         <v>1102</v>
       </c>
       <c r="H113" s="123" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="I113" s="604"/>
       <c r="J113" s="605"/>
@@ -53699,7 +54121,7 @@
         <v>1103</v>
       </c>
       <c r="H114" s="611" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="I114" s="147"/>
       <c r="J114" s="188"/>
@@ -53769,7 +54191,7 @@
         <v>1105</v>
       </c>
       <c r="H116" s="611" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I116" s="147"/>
       <c r="J116" s="188"/>
@@ -53839,7 +54261,7 @@
         <v>1107</v>
       </c>
       <c r="H118" s="611" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="I118" s="147"/>
       <c r="J118" s="188"/>
@@ -53875,7 +54297,7 @@
         <v>1108</v>
       </c>
       <c r="H119" s="611" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="I119" s="147"/>
       <c r="J119" s="188"/>
@@ -53945,7 +54367,7 @@
         <v>1110</v>
       </c>
       <c r="H121" s="611" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="I121" s="147"/>
       <c r="J121" s="188"/>
@@ -53969,49 +54391,47 @@
         <v>-</v>
       </c>
     </row>
-    <row r="122" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B122" s="620"/>
-      <c r="C122" s="643"/>
-      <c r="D122" s="644"/>
-      <c r="E122" s="644"/>
-      <c r="F122" s="622">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B122" s="635"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="636"/>
+      <c r="E122" s="636"/>
+      <c r="F122" s="641">
         <v>32</v>
       </c>
-      <c r="G122" s="622" t="s">
+      <c r="G122" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H122" s="624" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I122" s="159"/>
-      <c r="J122" s="195"/>
-      <c r="K122" s="195"/>
-      <c r="L122" s="159"/>
-      <c r="M122" s="159"/>
-      <c r="N122" s="162"/>
-      <c r="O122" s="162"/>
-      <c r="P122" s="162"/>
-      <c r="Q122" s="196">
+      <c r="H122" s="642" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I122" s="165"/>
+      <c r="J122" s="197"/>
+      <c r="K122" s="197"/>
+      <c r="L122" s="165"/>
+      <c r="M122" s="165"/>
+      <c r="N122" s="168"/>
+      <c r="O122" s="168"/>
+      <c r="P122" s="168"/>
+      <c r="Q122" s="198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R122" s="195"/>
-      <c r="S122" s="196">
+      <c r="R122" s="197"/>
+      <c r="S122" s="198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T122" s="625" t="str">
+      <c r="T122" s="645" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
     <row r="123" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B123" s="635" t="s">
-        <v>1126</v>
-      </c>
+      <c r="B123" s="635"/>
       <c r="C123" s="45"/>
       <c r="D123" s="49" t="s">
-        <v>1127</v>
+        <v>1100</v>
       </c>
       <c r="E123" s="49"/>
       <c r="F123" s="603">
@@ -54020,7 +54440,9 @@
       <c r="G123" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H123" s="123"/>
+      <c r="H123" s="123" t="s">
+        <v>1202</v>
+      </c>
       <c r="I123" s="604"/>
       <c r="J123" s="605"/>
       <c r="K123" s="605"/>
@@ -54029,16 +54451,16 @@
       <c r="N123" s="606"/>
       <c r="O123" s="606"/>
       <c r="P123" s="606"/>
-      <c r="Q123" s="216">
+      <c r="Q123" s="607">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R123" s="207"/>
-      <c r="S123" s="216">
+      <c r="R123" s="605"/>
+      <c r="S123" s="607">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T123" s="587" t="str">
+      <c r="T123" s="608" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -54054,7 +54476,9 @@
       <c r="G124" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H124" s="611"/>
+      <c r="H124" s="611" t="s">
+        <v>1203</v>
+      </c>
       <c r="I124" s="147"/>
       <c r="J124" s="188"/>
       <c r="K124" s="188"/>
@@ -54122,7 +54546,9 @@
       <c r="G126" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H126" s="611"/>
+      <c r="H126" s="611" t="s">
+        <v>1204</v>
+      </c>
       <c r="I126" s="147"/>
       <c r="J126" s="188"/>
       <c r="K126" s="188"/>
@@ -54190,7 +54616,9 @@
       <c r="G128" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H128" s="611"/>
+      <c r="H128" s="611" t="s">
+        <v>1205</v>
+      </c>
       <c r="I128" s="147"/>
       <c r="J128" s="188"/>
       <c r="K128" s="188"/>
@@ -54224,7 +54652,9 @@
       <c r="G129" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H129" s="611"/>
+      <c r="H129" s="611" t="s">
+        <v>1206</v>
+      </c>
       <c r="I129" s="147"/>
       <c r="J129" s="188"/>
       <c r="K129" s="188"/>
@@ -54292,7 +54722,9 @@
       <c r="G131" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H131" s="611"/>
+      <c r="H131" s="611" t="s">
+        <v>1207</v>
+      </c>
       <c r="I131" s="147"/>
       <c r="J131" s="188"/>
       <c r="K131" s="188"/>
@@ -54302,16 +54734,16 @@
       <c r="O131" s="154"/>
       <c r="P131" s="154"/>
       <c r="Q131" s="187">
-        <f t="shared" ref="Q131:Q132" si="6">I131+J131</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R131" s="188"/>
       <c r="S131" s="187">
-        <f t="shared" ref="S131:S132" si="7">Q131+R131</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T131" s="612" t="str">
-        <f t="shared" ref="T131:T132" si="8">IF( P131&lt;&gt;0,S131/P131*7,"-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
@@ -54326,7 +54758,9 @@
       <c r="G132" s="622" t="s">
         <v>1111</v>
       </c>
-      <c r="H132" s="624"/>
+      <c r="H132" s="624" t="s">
+        <v>1208</v>
+      </c>
       <c r="I132" s="159"/>
       <c r="J132" s="195"/>
       <c r="K132" s="195"/>
@@ -54336,643 +54770,1062 @@
       <c r="O132" s="162"/>
       <c r="P132" s="162"/>
       <c r="Q132" s="196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R132" s="195"/>
       <c r="S132" s="196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T132" s="625" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B133" s="635" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C133" s="45"/>
+      <c r="D133" s="49" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E133" s="49"/>
+      <c r="F133" s="603">
+        <v>23</v>
+      </c>
+      <c r="G133" s="603" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H133" s="123"/>
+      <c r="I133" s="604"/>
+      <c r="J133" s="605"/>
+      <c r="K133" s="605"/>
+      <c r="L133" s="604"/>
+      <c r="M133" s="604"/>
+      <c r="N133" s="606"/>
+      <c r="O133" s="606"/>
+      <c r="P133" s="606"/>
+      <c r="Q133" s="216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R133" s="207"/>
+      <c r="S133" s="216">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="587" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B134" s="635"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="636"/>
+      <c r="E134" s="636"/>
+      <c r="F134" s="610">
+        <v>24</v>
+      </c>
+      <c r="G134" s="610" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H134" s="611"/>
+      <c r="I134" s="147"/>
+      <c r="J134" s="188"/>
+      <c r="K134" s="188"/>
+      <c r="L134" s="147"/>
+      <c r="M134" s="147"/>
+      <c r="N134" s="154"/>
+      <c r="O134" s="154"/>
+      <c r="P134" s="154"/>
+      <c r="Q134" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R134" s="188"/>
+      <c r="S134" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T134" s="612" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B135" s="635"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="636"/>
+      <c r="E135" s="636"/>
+      <c r="F135" s="637">
+        <v>25</v>
+      </c>
+      <c r="G135" s="637" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H135" s="120"/>
+      <c r="I135" s="638"/>
+      <c r="J135" s="639"/>
+      <c r="K135" s="639"/>
+      <c r="L135" s="638"/>
+      <c r="M135" s="638"/>
+      <c r="N135" s="639"/>
+      <c r="O135" s="639"/>
+      <c r="P135" s="639"/>
+      <c r="Q135" s="639">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R135" s="639"/>
+      <c r="S135" s="639">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T135" s="640" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B136" s="635"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="636"/>
+      <c r="E136" s="636"/>
+      <c r="F136" s="610">
+        <v>26</v>
+      </c>
+      <c r="G136" s="610" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H136" s="611"/>
+      <c r="I136" s="147"/>
+      <c r="J136" s="188"/>
+      <c r="K136" s="188"/>
+      <c r="L136" s="147"/>
+      <c r="M136" s="147"/>
+      <c r="N136" s="154"/>
+      <c r="O136" s="154"/>
+      <c r="P136" s="154"/>
+      <c r="Q136" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R136" s="188"/>
+      <c r="S136" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T136" s="612" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B137" s="635"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="636"/>
+      <c r="E137" s="636"/>
+      <c r="F137" s="637">
+        <v>27</v>
+      </c>
+      <c r="G137" s="637" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H137" s="120"/>
+      <c r="I137" s="638"/>
+      <c r="J137" s="639"/>
+      <c r="K137" s="639"/>
+      <c r="L137" s="638"/>
+      <c r="M137" s="638"/>
+      <c r="N137" s="639"/>
+      <c r="O137" s="639"/>
+      <c r="P137" s="639"/>
+      <c r="Q137" s="639">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R137" s="639"/>
+      <c r="S137" s="639">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T137" s="640" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B138" s="635"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="636"/>
+      <c r="E138" s="636"/>
+      <c r="F138" s="610">
+        <v>28</v>
+      </c>
+      <c r="G138" s="610" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H138" s="611"/>
+      <c r="I138" s="147"/>
+      <c r="J138" s="188"/>
+      <c r="K138" s="188"/>
+      <c r="L138" s="147"/>
+      <c r="M138" s="147"/>
+      <c r="N138" s="154"/>
+      <c r="O138" s="154"/>
+      <c r="P138" s="154"/>
+      <c r="Q138" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R138" s="188"/>
+      <c r="S138" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T138" s="612" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B139" s="635"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="636"/>
+      <c r="E139" s="636"/>
+      <c r="F139" s="610">
+        <v>29</v>
+      </c>
+      <c r="G139" s="610" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H139" s="611"/>
+      <c r="I139" s="147"/>
+      <c r="J139" s="188"/>
+      <c r="K139" s="188"/>
+      <c r="L139" s="147"/>
+      <c r="M139" s="147"/>
+      <c r="N139" s="154"/>
+      <c r="O139" s="154"/>
+      <c r="P139" s="154"/>
+      <c r="Q139" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R139" s="188"/>
+      <c r="S139" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T139" s="612" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B140" s="635"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="636"/>
+      <c r="E140" s="636"/>
+      <c r="F140" s="637">
+        <v>30</v>
+      </c>
+      <c r="G140" s="637" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H140" s="120"/>
+      <c r="I140" s="638"/>
+      <c r="J140" s="639"/>
+      <c r="K140" s="639"/>
+      <c r="L140" s="638"/>
+      <c r="M140" s="638"/>
+      <c r="N140" s="639"/>
+      <c r="O140" s="639"/>
+      <c r="P140" s="639"/>
+      <c r="Q140" s="639">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="639"/>
+      <c r="S140" s="639">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T140" s="640" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B141" s="635"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="636"/>
+      <c r="E141" s="636"/>
+      <c r="F141" s="610">
+        <v>31</v>
+      </c>
+      <c r="G141" s="610" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H141" s="611"/>
+      <c r="I141" s="147"/>
+      <c r="J141" s="188"/>
+      <c r="K141" s="188"/>
+      <c r="L141" s="147"/>
+      <c r="M141" s="147"/>
+      <c r="N141" s="154"/>
+      <c r="O141" s="154"/>
+      <c r="P141" s="154"/>
+      <c r="Q141" s="187">
+        <f t="shared" ref="Q141:Q142" si="9">I141+J141</f>
+        <v>0</v>
+      </c>
+      <c r="R141" s="188"/>
+      <c r="S141" s="187">
+        <f t="shared" ref="S141:S142" si="10">Q141+R141</f>
+        <v>0</v>
+      </c>
+      <c r="T141" s="612" t="str">
+        <f t="shared" ref="T141:T142" si="11">IF( P141&lt;&gt;0,S141/P141*7,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="620"/>
+      <c r="C142" s="643"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="622">
+        <v>32</v>
+      </c>
+      <c r="G142" s="622" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H142" s="624"/>
+      <c r="I142" s="159"/>
+      <c r="J142" s="195"/>
+      <c r="K142" s="195"/>
+      <c r="L142" s="159"/>
+      <c r="M142" s="159"/>
+      <c r="N142" s="162"/>
+      <c r="O142" s="162"/>
+      <c r="P142" s="162"/>
+      <c r="Q142" s="196">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R142" s="195"/>
+      <c r="S142" s="196">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T142" s="625" t="str">
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P3:P12">
-    <cfRule type="expression" dxfId="227" priority="154">
+    <cfRule type="expression" dxfId="246" priority="173">
       <formula>P3&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="155">
+    <cfRule type="expression" dxfId="245" priority="174">
       <formula>P3&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="156">
+    <cfRule type="expression" dxfId="244" priority="175">
       <formula>P3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="224" priority="152">
+    <cfRule type="expression" dxfId="243" priority="171">
       <formula>AND(Q3&lt;&gt;"",Q3/P3&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="153">
+    <cfRule type="expression" dxfId="242" priority="172">
       <formula>AND(Q3&lt;&gt;"",Q3=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="expression" dxfId="222" priority="150">
+    <cfRule type="expression" dxfId="241" priority="169">
       <formula>AND(S3&lt;&gt;"",S3/P3&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="151">
+    <cfRule type="expression" dxfId="240" priority="170">
       <formula>AND(S3&lt;&gt;"",S3=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="expression" dxfId="220" priority="147">
+    <cfRule type="expression" dxfId="239" priority="166">
       <formula>T3&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="148">
+    <cfRule type="expression" dxfId="238" priority="167">
       <formula>T3&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="149">
+    <cfRule type="expression" dxfId="237" priority="168">
       <formula>T3&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="expression" dxfId="217" priority="146">
+    <cfRule type="expression" dxfId="236" priority="165">
       <formula>AND(I3&lt;5,J3&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K12">
-    <cfRule type="expression" dxfId="216" priority="145">
+    <cfRule type="expression" dxfId="235" priority="164">
       <formula>OR(J3=0,J3="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P22">
-    <cfRule type="expression" dxfId="215" priority="142">
+    <cfRule type="expression" dxfId="234" priority="161">
       <formula>P13&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="143">
+    <cfRule type="expression" dxfId="233" priority="162">
       <formula>P13&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="144">
+    <cfRule type="expression" dxfId="232" priority="163">
       <formula>P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22">
-    <cfRule type="expression" dxfId="212" priority="141">
+    <cfRule type="expression" dxfId="231" priority="160">
       <formula>AND(I13&lt;5,J13&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:K22">
-    <cfRule type="expression" dxfId="211" priority="140">
+    <cfRule type="expression" dxfId="230" priority="159">
       <formula>OR(J13=0,J13="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q22">
-    <cfRule type="expression" dxfId="210" priority="138">
+    <cfRule type="expression" dxfId="229" priority="157">
       <formula>AND(Q4&lt;&gt;"",Q4/P4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="139">
+    <cfRule type="expression" dxfId="228" priority="158">
       <formula>AND(Q4&lt;&gt;"",Q4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S22">
-    <cfRule type="expression" dxfId="208" priority="136">
+    <cfRule type="expression" dxfId="227" priority="155">
       <formula>AND(S4&lt;&gt;"",S4/P4&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="137">
+    <cfRule type="expression" dxfId="226" priority="156">
       <formula>AND(S4&lt;&gt;"",S4=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T22">
-    <cfRule type="expression" dxfId="206" priority="133">
+    <cfRule type="expression" dxfId="225" priority="152">
       <formula>T4&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="134">
+    <cfRule type="expression" dxfId="224" priority="153">
       <formula>T4&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="135">
+    <cfRule type="expression" dxfId="223" priority="154">
       <formula>T4&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:Q32 Q43:Q52">
-    <cfRule type="expression" dxfId="203" priority="114">
+    <cfRule type="expression" dxfId="222" priority="133">
       <formula>AND(Q24&lt;&gt;"",Q24/P24&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="115">
+    <cfRule type="expression" dxfId="221" priority="134">
       <formula>AND(Q24&lt;&gt;"",Q24=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24:S32 S43:S52">
-    <cfRule type="expression" dxfId="201" priority="112">
+    <cfRule type="expression" dxfId="220" priority="131">
       <formula>AND(S24&lt;&gt;"",S24/P24&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="113">
+    <cfRule type="expression" dxfId="219" priority="132">
       <formula>AND(S24&lt;&gt;"",S24=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:T32 T43:T52">
-    <cfRule type="expression" dxfId="199" priority="109">
+    <cfRule type="expression" dxfId="218" priority="128">
       <formula>T24&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="110">
+    <cfRule type="expression" dxfId="217" priority="129">
       <formula>T24&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="111">
+    <cfRule type="expression" dxfId="216" priority="130">
       <formula>T24&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:P32">
-    <cfRule type="expression" dxfId="196" priority="130">
+    <cfRule type="expression" dxfId="215" priority="149">
       <formula>P23&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="131">
+    <cfRule type="expression" dxfId="214" priority="150">
       <formula>P23&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="132">
+    <cfRule type="expression" dxfId="213" priority="151">
       <formula>P23&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="193" priority="128">
+    <cfRule type="expression" dxfId="212" priority="147">
       <formula>AND(Q23&lt;&gt;"",Q23/P23&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="129">
+    <cfRule type="expression" dxfId="211" priority="148">
       <formula>AND(Q23&lt;&gt;"",Q23=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="191" priority="126">
+    <cfRule type="expression" dxfId="210" priority="145">
       <formula>AND(S23&lt;&gt;"",S23/P23&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="127">
+    <cfRule type="expression" dxfId="209" priority="146">
       <formula>AND(S23&lt;&gt;"",S23=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="expression" dxfId="189" priority="123">
+    <cfRule type="expression" dxfId="208" priority="142">
       <formula>T23&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="124">
+    <cfRule type="expression" dxfId="207" priority="143">
       <formula>T23&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="125">
+    <cfRule type="expression" dxfId="206" priority="144">
       <formula>T23&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I32">
-    <cfRule type="expression" dxfId="186" priority="122">
+    <cfRule type="expression" dxfId="205" priority="141">
       <formula>AND(I23&lt;5,J23&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K32">
-    <cfRule type="expression" dxfId="185" priority="121">
+    <cfRule type="expression" dxfId="204" priority="140">
       <formula>OR(J23=0,J23="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:P52">
-    <cfRule type="expression" dxfId="184" priority="118">
+    <cfRule type="expression" dxfId="203" priority="137">
       <formula>P43&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="119">
+    <cfRule type="expression" dxfId="202" priority="138">
       <formula>P43&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="120">
+    <cfRule type="expression" dxfId="201" priority="139">
       <formula>P43&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:I52">
-    <cfRule type="expression" dxfId="181" priority="117">
+    <cfRule type="expression" dxfId="200" priority="136">
       <formula>AND(I43&lt;5,J43&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:K52">
-    <cfRule type="expression" dxfId="180" priority="116">
+    <cfRule type="expression" dxfId="199" priority="135">
       <formula>OR(J43=0,J43="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33:Q42">
-    <cfRule type="expression" dxfId="179" priority="102">
+    <cfRule type="expression" dxfId="198" priority="121">
       <formula>AND(Q33&lt;&gt;"",Q33/P33&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="103">
+    <cfRule type="expression" dxfId="197" priority="122">
       <formula>AND(Q33&lt;&gt;"",Q33=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:S42">
-    <cfRule type="expression" dxfId="177" priority="100">
+    <cfRule type="expression" dxfId="196" priority="119">
       <formula>AND(S33&lt;&gt;"",S33/P33&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="101">
+    <cfRule type="expression" dxfId="195" priority="120">
       <formula>AND(S33&lt;&gt;"",S33=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:T42">
-    <cfRule type="expression" dxfId="175" priority="97">
+    <cfRule type="expression" dxfId="194" priority="116">
       <formula>T33&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="98">
+    <cfRule type="expression" dxfId="193" priority="117">
       <formula>T33&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="99">
+    <cfRule type="expression" dxfId="192" priority="118">
       <formula>T33&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:P42">
-    <cfRule type="expression" dxfId="172" priority="106">
+    <cfRule type="expression" dxfId="191" priority="125">
       <formula>P33&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="107">
+    <cfRule type="expression" dxfId="190" priority="126">
       <formula>P33&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="108">
+    <cfRule type="expression" dxfId="189" priority="127">
       <formula>P33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I42">
-    <cfRule type="expression" dxfId="169" priority="105">
+    <cfRule type="expression" dxfId="188" priority="124">
       <formula>AND(I33&lt;5,J33&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K42">
-    <cfRule type="expression" dxfId="168" priority="104">
+    <cfRule type="expression" dxfId="187" priority="123">
       <formula>OR(J33=0,J33="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P62">
-    <cfRule type="expression" dxfId="167" priority="94">
+    <cfRule type="expression" dxfId="186" priority="113">
       <formula>P53&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="95">
+    <cfRule type="expression" dxfId="185" priority="114">
       <formula>P53&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="96">
+    <cfRule type="expression" dxfId="184" priority="115">
       <formula>P53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53">
-    <cfRule type="expression" dxfId="164" priority="92">
+    <cfRule type="expression" dxfId="183" priority="111">
       <formula>AND(Q53&lt;&gt;"",Q53/P53&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="93">
+    <cfRule type="expression" dxfId="182" priority="112">
       <formula>AND(Q53&lt;&gt;"",Q53=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53">
-    <cfRule type="expression" dxfId="162" priority="90">
+    <cfRule type="expression" dxfId="181" priority="109">
       <formula>AND(S53&lt;&gt;"",S53/P53&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="91">
+    <cfRule type="expression" dxfId="180" priority="110">
       <formula>AND(S53&lt;&gt;"",S53=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53">
-    <cfRule type="expression" dxfId="160" priority="87">
+    <cfRule type="expression" dxfId="179" priority="106">
       <formula>T53&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="88">
+    <cfRule type="expression" dxfId="178" priority="107">
       <formula>T53&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="89">
+    <cfRule type="expression" dxfId="177" priority="108">
       <formula>T53&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:I62">
-    <cfRule type="expression" dxfId="157" priority="86">
+    <cfRule type="expression" dxfId="176" priority="105">
       <formula>AND(I53&lt;5,J53&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:K62">
-    <cfRule type="expression" dxfId="156" priority="85">
+    <cfRule type="expression" dxfId="175" priority="104">
       <formula>OR(J53=0,J53="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63:P72">
-    <cfRule type="expression" dxfId="155" priority="82">
+    <cfRule type="expression" dxfId="174" priority="101">
       <formula>P63&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="83">
+    <cfRule type="expression" dxfId="173" priority="102">
       <formula>P63&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="84">
+    <cfRule type="expression" dxfId="172" priority="103">
       <formula>P63&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I72">
-    <cfRule type="expression" dxfId="152" priority="81">
+    <cfRule type="expression" dxfId="171" priority="100">
       <formula>AND(I63&lt;5,J63&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:K72">
-    <cfRule type="expression" dxfId="151" priority="80">
+    <cfRule type="expression" dxfId="170" priority="99">
       <formula>OR(J63=0,J63="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q72">
-    <cfRule type="expression" dxfId="150" priority="78">
+    <cfRule type="expression" dxfId="169" priority="97">
       <formula>AND(Q54&lt;&gt;"",Q54/P54&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="79">
+    <cfRule type="expression" dxfId="168" priority="98">
       <formula>AND(Q54&lt;&gt;"",Q54=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S72">
-    <cfRule type="expression" dxfId="148" priority="76">
+    <cfRule type="expression" dxfId="167" priority="95">
       <formula>AND(S54&lt;&gt;"",S54/P54&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="77">
+    <cfRule type="expression" dxfId="166" priority="96">
       <formula>AND(S54&lt;&gt;"",S54=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T54:T72">
-    <cfRule type="expression" dxfId="146" priority="73">
+    <cfRule type="expression" dxfId="165" priority="92">
       <formula>T54&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="74">
+    <cfRule type="expression" dxfId="164" priority="93">
       <formula>T54&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="75">
+    <cfRule type="expression" dxfId="163" priority="94">
       <formula>T54&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P73:P82">
-    <cfRule type="expression" dxfId="143" priority="70">
+    <cfRule type="expression" dxfId="162" priority="89">
       <formula>P73&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="71">
+    <cfRule type="expression" dxfId="161" priority="90">
       <formula>P73&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="72">
+    <cfRule type="expression" dxfId="160" priority="91">
       <formula>P73&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:I82">
-    <cfRule type="expression" dxfId="140" priority="69">
+    <cfRule type="expression" dxfId="159" priority="88">
       <formula>AND(I73&lt;5,J73&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:K82">
-    <cfRule type="expression" dxfId="139" priority="68">
+    <cfRule type="expression" dxfId="158" priority="87">
       <formula>OR(J73=0,J73="0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q73:Q82">
-    <cfRule type="expression" dxfId="138" priority="66">
+    <cfRule type="expression" dxfId="157" priority="85">
       <formula>AND(Q73&lt;&gt;"",Q73/P73&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="67">
+    <cfRule type="expression" dxfId="156" priority="86">
       <formula>AND(Q73&lt;&gt;"",Q73=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S73:S82">
-    <cfRule type="expression" dxfId="136" priority="64">
+    <cfRule type="expression" dxfId="155" priority="83">
       <formula>AND(S73&lt;&gt;"",S73/P73&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="65">
+    <cfRule type="expression" dxfId="154" priority="84">
       <formula>AND(S73&lt;&gt;"",S73=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T73:T82">
-    <cfRule type="expression" dxfId="134" priority="61">
+    <cfRule type="expression" dxfId="153" priority="80">
       <formula>T73&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="62">
+    <cfRule type="expression" dxfId="152" priority="81">
       <formula>T73&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="63">
+    <cfRule type="expression" dxfId="151" priority="82">
       <formula>T73&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q84:Q92 Q113:Q122">
-    <cfRule type="expression" dxfId="131" priority="42">
+  <conditionalFormatting sqref="Q94:Q102 Q123:Q132">
+    <cfRule type="expression" dxfId="150" priority="61">
+      <formula>AND(Q94&lt;&gt;"",Q94/P94&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="62">
+      <formula>AND(Q94&lt;&gt;"",Q94=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S94:S102 S123:S132">
+    <cfRule type="expression" dxfId="148" priority="59">
+      <formula>AND(S94&lt;&gt;"",S94/P94&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="60">
+      <formula>AND(S94&lt;&gt;"",S94=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T94:T102 T123:T132">
+    <cfRule type="expression" dxfId="146" priority="56">
+      <formula>T94&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="57">
+      <formula>T94&lt;20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="58">
+      <formula>T94&lt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P93:P102">
+    <cfRule type="expression" dxfId="143" priority="77">
+      <formula>P93&gt;1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="78">
+      <formula>P93&gt;0.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="79">
+      <formula>P93&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q93">
+    <cfRule type="expression" dxfId="140" priority="75">
+      <formula>AND(Q93&lt;&gt;"",Q93/P93&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="76">
+      <formula>AND(Q93&lt;&gt;"",Q93=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S93">
+    <cfRule type="expression" dxfId="138" priority="73">
+      <formula>AND(S93&lt;&gt;"",S93/P93&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="74">
+      <formula>AND(S93&lt;&gt;"",S93=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T93">
+    <cfRule type="expression" dxfId="136" priority="70">
+      <formula>T93&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="71">
+      <formula>T93&lt;20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="72">
+      <formula>T93&lt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I93:I102">
+    <cfRule type="expression" dxfId="133" priority="69">
+      <formula>AND(I93&lt;5,J93&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93:K102">
+    <cfRule type="expression" dxfId="132" priority="68">
+      <formula>OR(J93=0,J93="0")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P123:P132">
+    <cfRule type="expression" dxfId="131" priority="65">
+      <formula>P123&gt;1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="66">
+      <formula>P123&gt;0.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="67">
+      <formula>P123&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123:I132">
+    <cfRule type="expression" dxfId="128" priority="64">
+      <formula>AND(I123&lt;5,J123&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J123:K132">
+    <cfRule type="expression" dxfId="127" priority="63">
+      <formula>OR(J123=0,J123="0")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q113:Q122">
+    <cfRule type="expression" dxfId="126" priority="49">
+      <formula>AND(Q113&lt;&gt;"",Q113/P113&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="50">
+      <formula>AND(Q113&lt;&gt;"",Q113=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S113:S122">
+    <cfRule type="expression" dxfId="124" priority="47">
+      <formula>AND(S113&lt;&gt;"",S113/P113&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="48">
+      <formula>AND(S113&lt;&gt;"",S113=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T113:T122">
+    <cfRule type="expression" dxfId="122" priority="44">
+      <formula>T113&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="45">
+      <formula>T113&lt;20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="46">
+      <formula>T113&lt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P113:P122">
+    <cfRule type="expression" dxfId="119" priority="53">
+      <formula>P113&gt;1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="54">
+      <formula>P113&gt;0.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="55">
+      <formula>P113&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113:I122">
+    <cfRule type="expression" dxfId="116" priority="52">
+      <formula>AND(I113&lt;5,J113&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J113:K122">
+    <cfRule type="expression" dxfId="115" priority="51">
+      <formula>OR(J113=0,J113="0")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q103:Q112">
+    <cfRule type="expression" dxfId="114" priority="37">
+      <formula>AND(Q103&lt;&gt;"",Q103/P103&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="38">
+      <formula>AND(Q103&lt;&gt;"",Q103=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S103:S112">
+    <cfRule type="expression" dxfId="112" priority="35">
+      <formula>AND(S103&lt;&gt;"",S103/P103&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="36">
+      <formula>AND(S103&lt;&gt;"",S103=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T103:T112">
+    <cfRule type="expression" dxfId="110" priority="32">
+      <formula>T103&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="33">
+      <formula>T103&lt;20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="34">
+      <formula>T103&lt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P103:P112">
+    <cfRule type="expression" dxfId="107" priority="41">
+      <formula>P103&gt;1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="42">
+      <formula>P103&gt;0.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="43">
+      <formula>P103&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:I112">
+    <cfRule type="expression" dxfId="104" priority="40">
+      <formula>AND(I103&lt;5,J103&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103:K112">
+    <cfRule type="expression" dxfId="103" priority="39">
+      <formula>OR(J103=0,J103="0")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P133:P142">
+    <cfRule type="expression" dxfId="102" priority="29">
+      <formula>P133&gt;1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="30">
+      <formula>P133&gt;0.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="31">
+      <formula>P133&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133:I142">
+    <cfRule type="expression" dxfId="99" priority="28">
+      <formula>AND(I133&lt;5,J133&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J133:K142">
+    <cfRule type="expression" dxfId="98" priority="27">
+      <formula>OR(J133=0,J133="0")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q133:Q142">
+    <cfRule type="expression" dxfId="97" priority="25">
+      <formula>AND(Q133&lt;&gt;"",Q133/P133&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="26">
+      <formula>AND(Q133&lt;&gt;"",Q133=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S133:S142">
+    <cfRule type="expression" dxfId="95" priority="23">
+      <formula>AND(S133&lt;&gt;"",S133/P133&lt;4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="24">
+      <formula>AND(S133&lt;&gt;"",S133=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T133:T142">
+    <cfRule type="expression" dxfId="93" priority="20">
+      <formula>T133&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="21">
+      <formula>T133&lt;20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="22">
+      <formula>T133&lt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q84:Q92">
+    <cfRule type="expression" dxfId="90" priority="6">
       <formula>AND(Q84&lt;&gt;"",Q84/P84&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="43">
+    <cfRule type="expression" dxfId="89" priority="7">
       <formula>AND(Q84&lt;&gt;"",Q84=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S84:S92 S113:S122">
-    <cfRule type="expression" dxfId="129" priority="40">
+  <conditionalFormatting sqref="S84:S92">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>AND(S84&lt;&gt;"",S84/P84&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="41">
+    <cfRule type="expression" dxfId="87" priority="5">
       <formula>AND(S84&lt;&gt;"",S84=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T84:T92 T113:T122">
-    <cfRule type="expression" dxfId="127" priority="37">
+  <conditionalFormatting sqref="T84:T92">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>T84&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="38">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>T84&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="39">
+    <cfRule type="expression" dxfId="84" priority="3">
       <formula>T84&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P83:P92">
-    <cfRule type="expression" dxfId="124" priority="58">
+    <cfRule type="expression" dxfId="83" priority="17">
       <formula>P83&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="59">
+    <cfRule type="expression" dxfId="82" priority="18">
       <formula>P83&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="60">
+    <cfRule type="expression" dxfId="81" priority="19">
       <formula>P83&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q83">
-    <cfRule type="expression" dxfId="121" priority="56">
+    <cfRule type="expression" dxfId="80" priority="15">
       <formula>AND(Q83&lt;&gt;"",Q83/P83&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="57">
+    <cfRule type="expression" dxfId="79" priority="16">
       <formula>AND(Q83&lt;&gt;"",Q83=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83">
-    <cfRule type="expression" dxfId="119" priority="54">
+    <cfRule type="expression" dxfId="78" priority="13">
       <formula>AND(S83&lt;&gt;"",S83/P83&lt;4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="55">
+    <cfRule type="expression" dxfId="77" priority="14">
       <formula>AND(S83&lt;&gt;"",S83=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T83">
-    <cfRule type="expression" dxfId="117" priority="51">
+    <cfRule type="expression" dxfId="76" priority="10">
       <formula>T83&lt;10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="52">
+    <cfRule type="expression" dxfId="75" priority="11">
       <formula>T83&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="53">
+    <cfRule type="expression" dxfId="74" priority="12">
       <formula>T83&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:I92">
-    <cfRule type="expression" dxfId="114" priority="50">
+    <cfRule type="expression" dxfId="73" priority="9">
       <formula>AND(I83&lt;5,J83&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:K92">
-    <cfRule type="expression" dxfId="113" priority="49">
+    <cfRule type="expression" dxfId="72" priority="8">
       <formula>OR(J83=0,J83="0")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P113:P122">
-    <cfRule type="expression" dxfId="112" priority="46">
-      <formula>P113&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="47">
-      <formula>P113&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="48">
-      <formula>P113&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I113:I122">
-    <cfRule type="expression" dxfId="109" priority="45">
-      <formula>AND(I113&lt;5,J113&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113:K122">
-    <cfRule type="expression" dxfId="108" priority="44">
-      <formula>OR(J113=0,J113="0")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q103:Q112">
-    <cfRule type="expression" dxfId="107" priority="30">
-      <formula>AND(Q103&lt;&gt;"",Q103/P103&lt;4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="31">
-      <formula>AND(Q103&lt;&gt;"",Q103=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S103:S112">
-    <cfRule type="expression" dxfId="105" priority="28">
-      <formula>AND(S103&lt;&gt;"",S103/P103&lt;4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="29">
-      <formula>AND(S103&lt;&gt;"",S103=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T103:T112">
-    <cfRule type="expression" dxfId="103" priority="25">
-      <formula>T103&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="26">
-      <formula>T103&lt;20</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="27">
-      <formula>T103&lt;50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P103:P112">
-    <cfRule type="expression" dxfId="100" priority="34">
-      <formula>P103&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="35">
-      <formula>P103&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="36">
-      <formula>P103&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I112">
-    <cfRule type="expression" dxfId="97" priority="33">
-      <formula>AND(I103&lt;5,J103&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103:K112">
-    <cfRule type="expression" dxfId="96" priority="32">
-      <formula>OR(J103=0,J103="0")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q93:Q102">
-    <cfRule type="expression" dxfId="95" priority="18">
-      <formula>AND(Q93&lt;&gt;"",Q93/P93&lt;4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="19">
-      <formula>AND(Q93&lt;&gt;"",Q93=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S93:S102">
-    <cfRule type="expression" dxfId="93" priority="16">
-      <formula>AND(S93&lt;&gt;"",S93/P93&lt;4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="17">
-      <formula>AND(S93&lt;&gt;"",S93=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T93:T102">
-    <cfRule type="expression" dxfId="91" priority="13">
-      <formula>T93&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="14">
-      <formula>T93&lt;20</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="15">
-      <formula>T93&lt;50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P93:P102">
-    <cfRule type="expression" dxfId="88" priority="22">
-      <formula>P93&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="23">
-      <formula>P93&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="24">
-      <formula>P93&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I93:I102">
-    <cfRule type="expression" dxfId="85" priority="21">
-      <formula>AND(I93&lt;5,J93&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J93:K102">
-    <cfRule type="expression" dxfId="84" priority="20">
-      <formula>OR(J93=0,J93="0")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P123:P132">
-    <cfRule type="expression" dxfId="83" priority="10">
-      <formula>P123&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="11">
-      <formula>P123&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="12">
-      <formula>P123&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I123:I132">
-    <cfRule type="expression" dxfId="80" priority="9">
-      <formula>AND(I123&lt;5,J123&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J123:K132">
-    <cfRule type="expression" dxfId="79" priority="8">
-      <formula>OR(J123=0,J123="0")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q123:Q132">
-    <cfRule type="expression" dxfId="78" priority="6">
-      <formula>AND(Q123&lt;&gt;"",Q123/P123&lt;4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="7">
-      <formula>AND(Q123&lt;&gt;"",Q123=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S123:S132">
-    <cfRule type="expression" dxfId="76" priority="4">
-      <formula>AND(S123&lt;&gt;"",S123/P123&lt;4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="5">
-      <formula>AND(S123&lt;&gt;"",S123=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T123:T132">
-    <cfRule type="expression" dxfId="74" priority="1">
-      <formula>T123&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="2">
-      <formula>T123&lt;20</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="3">
-      <formula>T123&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54986,11 +55839,9 @@
   <sheetPr>
     <tabColor rgb="FF66FF66"/>
   </sheetPr>
-  <dimension ref="B1:K133"/>
+  <dimension ref="B1:K143"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -56663,7 +57514,7 @@
         <v>36</v>
       </c>
       <c r="K68" s="652">
-        <f t="shared" ref="K68:K131" si="1">I68*J68</f>
+        <f t="shared" ref="K68:K141" si="1">I68*J68</f>
         <v>0</v>
       </c>
     </row>
@@ -57003,58 +57854,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="36" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="620"/>
-      <c r="C82" s="643"/>
-      <c r="D82" s="644"/>
-      <c r="E82" s="644"/>
-      <c r="F82" s="622">
+    <row r="82" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B82" s="635"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="636"/>
+      <c r="E82" s="636"/>
+      <c r="F82" s="641">
         <v>32</v>
       </c>
-      <c r="G82" s="622" t="s">
+      <c r="G82" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H82" s="624" t="s">
+      <c r="H82" s="642" t="s">
         <v>1180</v>
       </c>
-      <c r="I82" s="660">
+      <c r="I82" s="655">
         <f>'在庫情報（雨靴）'!R82</f>
         <v>0</v>
       </c>
-      <c r="J82" s="206">
+      <c r="J82" s="202">
         <v>38</v>
       </c>
-      <c r="K82" s="661">
+      <c r="K82" s="656">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
-      <c r="B83" s="583" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C83" s="633"/>
-      <c r="D83" s="634" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E83" s="634"/>
-      <c r="F83" s="585">
+      <c r="B83" s="635"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="49" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E83" s="49" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F83" s="603">
         <v>23</v>
       </c>
-      <c r="G83" s="585" t="s">
+      <c r="G83" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H83" s="586" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I83" s="649">
+      <c r="H83" s="123" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I83" s="657">
         <f>'在庫情報（雨靴）'!R83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="211">
-        <v>36</v>
-      </c>
-      <c r="K83" s="650">
+      <c r="J83" s="658">
+        <v>38</v>
+      </c>
+      <c r="K83" s="659">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -57071,14 +57922,14 @@
         <v>1103</v>
       </c>
       <c r="H84" s="611" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="I84" s="651">
         <f>'在庫情報（雨靴）'!R84</f>
         <v>0</v>
       </c>
       <c r="J84" s="184">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K84" s="652">
         <f t="shared" si="1"/>
@@ -57102,7 +57953,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="189">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K85" s="654">
         <f t="shared" si="1"/>
@@ -57121,14 +57972,14 @@
         <v>1105</v>
       </c>
       <c r="H86" s="611" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="I86" s="651">
         <f>'在庫情報（雨靴）'!R86</f>
         <v>0</v>
       </c>
       <c r="J86" s="184">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K86" s="652">
         <f t="shared" si="1"/>
@@ -57152,7 +58003,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="189">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K87" s="654">
         <f t="shared" si="1"/>
@@ -57171,14 +58022,14 @@
         <v>1107</v>
       </c>
       <c r="H88" s="611" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="I88" s="651">
         <f>'在庫情報（雨靴）'!R88</f>
         <v>0</v>
       </c>
       <c r="J88" s="184">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K88" s="652">
         <f t="shared" si="1"/>
@@ -57197,14 +58048,14 @@
         <v>1108</v>
       </c>
       <c r="H89" s="611" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="I89" s="651">
         <f>'在庫情報（雨靴）'!R89</f>
         <v>0</v>
       </c>
       <c r="J89" s="184">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K89" s="652">
         <f t="shared" si="1"/>
@@ -57228,7 +58079,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="189">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K90" s="654">
         <f t="shared" si="1"/>
@@ -57247,21 +58098,21 @@
         <v>1110</v>
       </c>
       <c r="H91" s="611" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="I91" s="651">
         <f>'在庫情報（雨靴）'!R91</f>
         <v>0</v>
       </c>
       <c r="J91" s="184">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K91" s="652">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:11" ht="36" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B92" s="635"/>
       <c r="C92" s="46"/>
       <c r="D92" s="636"/>
@@ -57273,14 +58124,14 @@
         <v>1111</v>
       </c>
       <c r="H92" s="642" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="I92" s="655">
         <f>'在庫情報（雨靴）'!R92</f>
         <v>0</v>
       </c>
       <c r="J92" s="202">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K92" s="656">
         <f t="shared" si="1"/>
@@ -57288,29 +58139,31 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
-      <c r="B93" s="635"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="49" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E93" s="49"/>
-      <c r="F93" s="603">
+      <c r="B93" s="583" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C93" s="633"/>
+      <c r="D93" s="634" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E93" s="634"/>
+      <c r="F93" s="585">
         <v>23</v>
       </c>
-      <c r="G93" s="603" t="s">
+      <c r="G93" s="585" t="s">
         <v>1102</v>
       </c>
-      <c r="H93" s="123" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I93" s="657">
+      <c r="H93" s="586" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I93" s="649">
         <f>'在庫情報（雨靴）'!R93</f>
         <v>0</v>
       </c>
-      <c r="J93" s="658">
+      <c r="J93" s="211">
         <v>36</v>
       </c>
-      <c r="K93" s="659">
+      <c r="K93" s="650">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -57327,7 +58180,7 @@
         <v>1103</v>
       </c>
       <c r="H94" s="611" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="I94" s="651">
         <f>'在庫情報（雨靴）'!R94</f>
@@ -57377,7 +58230,7 @@
         <v>1105</v>
       </c>
       <c r="H96" s="611" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="I96" s="651">
         <f>'在庫情報（雨靴）'!R96</f>
@@ -57427,7 +58280,7 @@
         <v>1107</v>
       </c>
       <c r="H98" s="611" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="I98" s="651">
         <f>'在庫情報（雨靴）'!R98</f>
@@ -57453,7 +58306,7 @@
         <v>1108</v>
       </c>
       <c r="H99" s="611" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="I99" s="651">
         <f>'在庫情報（雨靴）'!R99</f>
@@ -57503,7 +58356,7 @@
         <v>1110</v>
       </c>
       <c r="H101" s="611" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="I101" s="651">
         <f>'在庫情報（雨靴）'!R101</f>
@@ -57529,7 +58382,7 @@
         <v>1111</v>
       </c>
       <c r="H102" s="642" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="I102" s="655">
         <f>'在庫情報（雨靴）'!R102</f>
@@ -57547,7 +58400,7 @@
       <c r="B103" s="635"/>
       <c r="C103" s="45"/>
       <c r="D103" s="49" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="E103" s="49"/>
       <c r="F103" s="603">
@@ -57557,7 +58410,7 @@
         <v>1102</v>
       </c>
       <c r="H103" s="123" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="I103" s="657">
         <f>'在庫情報（雨靴）'!R103</f>
@@ -57583,7 +58436,7 @@
         <v>1103</v>
       </c>
       <c r="H104" s="611" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="I104" s="651">
         <f>'在庫情報（雨靴）'!R104</f>
@@ -57633,7 +58486,7 @@
         <v>1105</v>
       </c>
       <c r="H106" s="611" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="I106" s="651">
         <f>'在庫情報（雨靴）'!R106</f>
@@ -57683,7 +58536,7 @@
         <v>1107</v>
       </c>
       <c r="H108" s="611" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="I108" s="651">
         <f>'在庫情報（雨靴）'!R108</f>
@@ -57709,7 +58562,7 @@
         <v>1108</v>
       </c>
       <c r="H109" s="611" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="I109" s="651">
         <f>'在庫情報（雨靴）'!R109</f>
@@ -57759,7 +58612,7 @@
         <v>1110</v>
       </c>
       <c r="H111" s="611" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="I111" s="651">
         <f>'在庫情報（雨靴）'!R111</f>
@@ -57785,7 +58638,7 @@
         <v>1111</v>
       </c>
       <c r="H112" s="642" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="I112" s="655">
         <f>'在庫情報（雨靴）'!R112</f>
@@ -57803,7 +58656,7 @@
       <c r="B113" s="635"/>
       <c r="C113" s="45"/>
       <c r="D113" s="49" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E113" s="49"/>
       <c r="F113" s="603">
@@ -57813,7 +58666,7 @@
         <v>1102</v>
       </c>
       <c r="H113" s="123" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="I113" s="657">
         <f>'在庫情報（雨靴）'!R113</f>
@@ -57839,7 +58692,7 @@
         <v>1103</v>
       </c>
       <c r="H114" s="611" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="I114" s="651">
         <f>'在庫情報（雨靴）'!R114</f>
@@ -57889,7 +58742,7 @@
         <v>1105</v>
       </c>
       <c r="H116" s="611" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I116" s="651">
         <f>'在庫情報（雨靴）'!R116</f>
@@ -57939,7 +58792,7 @@
         <v>1107</v>
       </c>
       <c r="H118" s="611" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="I118" s="651">
         <f>'在庫情報（雨靴）'!R118</f>
@@ -57965,7 +58818,7 @@
         <v>1108</v>
       </c>
       <c r="H119" s="611" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="I119" s="651">
         <f>'在庫情報（雨靴）'!R119</f>
@@ -58015,7 +58868,7 @@
         <v>1110</v>
       </c>
       <c r="H121" s="611" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="I121" s="651">
         <f>'在庫情報（雨靴）'!R121</f>
@@ -58029,39 +58882,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:11" ht="36" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B122" s="620"/>
-      <c r="C122" s="643"/>
-      <c r="D122" s="644"/>
-      <c r="E122" s="644"/>
-      <c r="F122" s="622">
+    <row r="122" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B122" s="635"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="636"/>
+      <c r="E122" s="636"/>
+      <c r="F122" s="641">
         <v>32</v>
       </c>
-      <c r="G122" s="622" t="s">
+      <c r="G122" s="641" t="s">
         <v>1111</v>
       </c>
-      <c r="H122" s="624" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I122" s="660">
+      <c r="H122" s="642" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I122" s="655">
         <f>'在庫情報（雨靴）'!R122</f>
         <v>0</v>
       </c>
-      <c r="J122" s="206">
+      <c r="J122" s="202">
         <v>36</v>
       </c>
-      <c r="K122" s="661">
+      <c r="K122" s="656">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
-      <c r="B123" s="635" t="s">
-        <v>1157</v>
-      </c>
+      <c r="B123" s="635"/>
       <c r="C123" s="45"/>
       <c r="D123" s="49" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E123" s="49"/>
       <c r="F123" s="603">
@@ -58070,15 +58921,17 @@
       <c r="G123" s="603" t="s">
         <v>1102</v>
       </c>
-      <c r="H123" s="123"/>
-      <c r="I123" s="649">
+      <c r="H123" s="123" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I123" s="657">
         <f>'在庫情報（雨靴）'!R123</f>
         <v>0</v>
       </c>
-      <c r="J123" s="211">
+      <c r="J123" s="658">
         <v>36</v>
       </c>
-      <c r="K123" s="650">
+      <c r="K123" s="659">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -58094,7 +58947,9 @@
       <c r="G124" s="610" t="s">
         <v>1103</v>
       </c>
-      <c r="H124" s="611"/>
+      <c r="H124" s="611" t="s">
+        <v>1203</v>
+      </c>
       <c r="I124" s="651">
         <f>'在庫情報（雨靴）'!R124</f>
         <v>0</v>
@@ -58142,7 +58997,9 @@
       <c r="G126" s="610" t="s">
         <v>1105</v>
       </c>
-      <c r="H126" s="611"/>
+      <c r="H126" s="611" t="s">
+        <v>1204</v>
+      </c>
       <c r="I126" s="651">
         <f>'在庫情報（雨靴）'!R126</f>
         <v>0</v>
@@ -58190,7 +59047,9 @@
       <c r="G128" s="610" t="s">
         <v>1107</v>
       </c>
-      <c r="H128" s="611"/>
+      <c r="H128" s="611" t="s">
+        <v>1205</v>
+      </c>
       <c r="I128" s="651">
         <f>'在庫情報（雨靴）'!R128</f>
         <v>0</v>
@@ -58214,7 +59073,9 @@
       <c r="G129" s="610" t="s">
         <v>1108</v>
       </c>
-      <c r="H129" s="611"/>
+      <c r="H129" s="611" t="s">
+        <v>1206</v>
+      </c>
       <c r="I129" s="651">
         <f>'在庫情報（雨靴）'!R129</f>
         <v>0</v>
@@ -58262,7 +59123,9 @@
       <c r="G131" s="610" t="s">
         <v>1110</v>
       </c>
-      <c r="H131" s="611"/>
+      <c r="H131" s="611" t="s">
+        <v>1207</v>
+      </c>
       <c r="I131" s="651">
         <f>'在庫情報（雨靴）'!R131</f>
         <v>0</v>
@@ -58286,7 +59149,9 @@
       <c r="G132" s="622" t="s">
         <v>1111</v>
       </c>
-      <c r="H132" s="624"/>
+      <c r="H132" s="624" t="s">
+        <v>1208</v>
+      </c>
       <c r="I132" s="660">
         <f>'在庫情報（雨靴）'!R132</f>
         <v>0</v>
@@ -58295,18 +59160,262 @@
         <v>36</v>
       </c>
       <c r="K132" s="661">
-        <f t="shared" ref="K132" si="2">I132*J132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" ht="60" x14ac:dyDescent="0.35">
-      <c r="K133" s="662">
-        <f>SUM(K3:K132)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B133" s="635" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C133" s="45"/>
+      <c r="D133" s="49" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E133" s="49"/>
+      <c r="F133" s="603">
+        <v>23</v>
+      </c>
+      <c r="G133" s="603" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H133" s="123"/>
+      <c r="I133" s="649">
+        <f>'在庫情報（雨靴）'!R133</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="211">
+        <v>36</v>
+      </c>
+      <c r="K133" s="650">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B134" s="635"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="636"/>
+      <c r="E134" s="636"/>
+      <c r="F134" s="610">
+        <v>24</v>
+      </c>
+      <c r="G134" s="610" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H134" s="611"/>
+      <c r="I134" s="651">
+        <f>'在庫情報（雨靴）'!R134</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="184">
+        <v>36</v>
+      </c>
+      <c r="K134" s="652">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B135" s="635"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="636"/>
+      <c r="E135" s="636"/>
+      <c r="F135" s="637">
+        <v>25</v>
+      </c>
+      <c r="G135" s="637" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H135" s="120"/>
+      <c r="I135" s="653">
+        <f>'在庫情報（雨靴）'!R135</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="189">
+        <v>36</v>
+      </c>
+      <c r="K135" s="654">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B136" s="635"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="636"/>
+      <c r="E136" s="636"/>
+      <c r="F136" s="610">
+        <v>26</v>
+      </c>
+      <c r="G136" s="610" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H136" s="611"/>
+      <c r="I136" s="651">
+        <f>'在庫情報（雨靴）'!R136</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="184">
+        <v>36</v>
+      </c>
+      <c r="K136" s="652">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B137" s="635"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="636"/>
+      <c r="E137" s="636"/>
+      <c r="F137" s="637">
+        <v>27</v>
+      </c>
+      <c r="G137" s="637" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H137" s="120"/>
+      <c r="I137" s="653">
+        <f>'在庫情報（雨靴）'!R137</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="189">
+        <v>36</v>
+      </c>
+      <c r="K137" s="654">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B138" s="635"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="636"/>
+      <c r="E138" s="636"/>
+      <c r="F138" s="610">
+        <v>28</v>
+      </c>
+      <c r="G138" s="610" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H138" s="611"/>
+      <c r="I138" s="651">
+        <f>'在庫情報（雨靴）'!R138</f>
+        <v>0</v>
+      </c>
+      <c r="J138" s="184">
+        <v>36</v>
+      </c>
+      <c r="K138" s="652">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B139" s="635"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="636"/>
+      <c r="E139" s="636"/>
+      <c r="F139" s="610">
+        <v>29</v>
+      </c>
+      <c r="G139" s="610" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H139" s="611"/>
+      <c r="I139" s="651">
+        <f>'在庫情報（雨靴）'!R139</f>
+        <v>0</v>
+      </c>
+      <c r="J139" s="184">
+        <v>36</v>
+      </c>
+      <c r="K139" s="652">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B140" s="635"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="636"/>
+      <c r="E140" s="636"/>
+      <c r="F140" s="637">
+        <v>30</v>
+      </c>
+      <c r="G140" s="637" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H140" s="120"/>
+      <c r="I140" s="653">
+        <f>'在庫情報（雨靴）'!R140</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="189">
+        <v>36</v>
+      </c>
+      <c r="K140" s="654">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="B141" s="635"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="636"/>
+      <c r="E141" s="636"/>
+      <c r="F141" s="610">
+        <v>31</v>
+      </c>
+      <c r="G141" s="610" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H141" s="611"/>
+      <c r="I141" s="651">
+        <f>'在庫情報（雨靴）'!R141</f>
+        <v>0</v>
+      </c>
+      <c r="J141" s="184">
+        <v>36</v>
+      </c>
+      <c r="K141" s="652">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" ht="36" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="620"/>
+      <c r="C142" s="643"/>
+      <c r="D142" s="644"/>
+      <c r="E142" s="644"/>
+      <c r="F142" s="622">
+        <v>32</v>
+      </c>
+      <c r="G142" s="622" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H142" s="624"/>
+      <c r="I142" s="660">
+        <f>'在庫情報（雨靴）'!R142</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="206">
+        <v>36</v>
+      </c>
+      <c r="K142" s="661">
+        <f t="shared" ref="K142" si="2">I142*J142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" ht="60" x14ac:dyDescent="0.35">
+      <c r="K143" s="662">
+        <f>SUM(K3:K142)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:U133"/>
+  <autoFilter ref="B2:U143"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" tabRatio="835" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="在庫情報（雨衣）" sheetId="41" r:id="rId1"/>
@@ -6879,16 +6879,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6897,59 +6897,35 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6969,8 +6945,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18796,12 +18796,12 @@
   </sheetPr>
   <dimension ref="B1:CQ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -19550,7 +19550,7 @@
       <c r="S6" s="224"/>
       <c r="T6" s="224"/>
       <c r="U6" s="224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" s="224"/>
       <c r="W6" s="134"/>
@@ -19610,7 +19610,7 @@
       </c>
       <c r="BQ6" s="218">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR6" s="218">
         <f t="shared" si="0"/>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="CC6" s="218">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD6" s="218">
         <f t="shared" si="1"/>
@@ -20011,11 +20011,9 @@
       <c r="P9" s="118"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="154"/>
-      <c r="S9" s="146">
+      <c r="S9" s="146"/>
+      <c r="T9" s="146">
         <v>1</v>
-      </c>
-      <c r="T9" s="146">
-        <v>2</v>
       </c>
       <c r="U9" s="146">
         <v>2</v>
@@ -20072,11 +20070,11 @@
       </c>
       <c r="BO9" s="149">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="149">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ9" s="149">
         <f t="shared" si="0"/>
@@ -20099,11 +20097,11 @@
       </c>
       <c r="CA9" s="149">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB9" s="149">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC9" s="149">
         <f t="shared" si="1"/>
@@ -21984,9 +21982,7 @@
         <v>3</v>
       </c>
       <c r="S22" s="241"/>
-      <c r="T22" s="241">
-        <v>1</v>
-      </c>
+      <c r="T22" s="241"/>
       <c r="U22" s="241"/>
       <c r="V22" s="216"/>
       <c r="W22" s="169"/>
@@ -22042,7 +22038,7 @@
       </c>
       <c r="BP22" s="168">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ22" s="168">
         <f t="shared" si="3"/>
@@ -22069,7 +22065,7 @@
       </c>
       <c r="CB22" s="168">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="168">
         <f t="shared" si="4"/>
@@ -29689,7 +29685,7 @@
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="642" t="s">
+      <c r="R2" s="670" t="s">
         <v>154</v>
       </c>
       <c r="S2" s="21" t="s">
@@ -29750,7 +29746,7 @@
       <c r="Q3" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="R3" s="643"/>
+      <c r="R3" s="671"/>
       <c r="S3" s="7" t="s">
         <v>155</v>
       </c>
@@ -29811,7 +29807,7 @@
         <f>'在庫情報（雨衣）'!BY4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="644">
+      <c r="L4" s="645">
         <v>28</v>
       </c>
       <c r="M4" s="647">
@@ -29826,8 +29822,8 @@
       <c r="P4" s="647">
         <v>28</v>
       </c>
-      <c r="Q4" s="650"/>
-      <c r="R4" s="653">
+      <c r="Q4" s="649"/>
+      <c r="R4" s="672">
         <f>SUM(F4:F6)*L4+SUM(G4:G6)*M4+SUM(H4:H6)*N4+SUM(I4:I6)*O4+SUM(J4:J6)*P4+SUM(K4:K6)*Q4</f>
         <v>0</v>
       </c>
@@ -29846,7 +29842,7 @@
       <c r="W4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="655"/>
+      <c r="X4" s="667"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
@@ -29881,13 +29877,13 @@
         <f>'在庫情報（雨衣）'!BY5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="645"/>
-      <c r="M5" s="648"/>
-      <c r="N5" s="648"/>
-      <c r="O5" s="648"/>
-      <c r="P5" s="648"/>
-      <c r="Q5" s="651"/>
-      <c r="R5" s="654"/>
+      <c r="L5" s="654"/>
+      <c r="M5" s="655"/>
+      <c r="N5" s="655"/>
+      <c r="O5" s="655"/>
+      <c r="P5" s="655"/>
+      <c r="Q5" s="656"/>
+      <c r="R5" s="642"/>
       <c r="S5" s="528" t="s">
         <v>714</v>
       </c>
@@ -29903,7 +29899,7 @@
       <c r="W5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="656"/>
+      <c r="X5" s="668"/>
     </row>
     <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -29939,12 +29935,12 @@
         <v>0</v>
       </c>
       <c r="L6" s="646"/>
-      <c r="M6" s="649"/>
-      <c r="N6" s="649"/>
-      <c r="O6" s="649"/>
-      <c r="P6" s="649"/>
-      <c r="Q6" s="652"/>
-      <c r="R6" s="654"/>
+      <c r="M6" s="648"/>
+      <c r="N6" s="648"/>
+      <c r="O6" s="648"/>
+      <c r="P6" s="648"/>
+      <c r="Q6" s="650"/>
+      <c r="R6" s="642"/>
       <c r="S6" s="529" t="s">
         <v>719</v>
       </c>
@@ -29960,7 +29956,7 @@
       <c r="W6" s="67" t="s">
         <v>723</v>
       </c>
-      <c r="X6" s="657"/>
+      <c r="X6" s="669"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -29997,7 +29993,7 @@
         <f>'在庫情報（雨衣）'!BY7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="644">
+      <c r="L7" s="645">
         <v>34</v>
       </c>
       <c r="M7" s="647">
@@ -30012,8 +30008,8 @@
       <c r="P7" s="647">
         <v>34</v>
       </c>
-      <c r="Q7" s="650"/>
-      <c r="R7" s="654">
+      <c r="Q7" s="649"/>
+      <c r="R7" s="642">
         <f>SUM(F7:F10)*L7+SUM(G7:G10)*M7+SUM(H7:H10)*N7+SUM(I7:I10)*O7+SUM(J7:J10)*P7+SUM(K7:K10)*Q7</f>
         <v>0</v>
       </c>
@@ -30032,7 +30028,7 @@
       <c r="W7" s="67" t="s">
         <v>731</v>
       </c>
-      <c r="X7" s="658"/>
+      <c r="X7" s="643"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -30067,13 +30063,13 @@
         <f>'在庫情報（雨衣）'!BY8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="645"/>
-      <c r="M8" s="648"/>
-      <c r="N8" s="648"/>
-      <c r="O8" s="648"/>
-      <c r="P8" s="648"/>
-      <c r="Q8" s="651"/>
-      <c r="R8" s="654"/>
+      <c r="L8" s="654"/>
+      <c r="M8" s="655"/>
+      <c r="N8" s="655"/>
+      <c r="O8" s="655"/>
+      <c r="P8" s="655"/>
+      <c r="Q8" s="656"/>
+      <c r="R8" s="642"/>
       <c r="S8" s="529" t="s">
         <v>734</v>
       </c>
@@ -30089,7 +30085,7 @@
       <c r="W8" s="67" t="s">
         <v>736</v>
       </c>
-      <c r="X8" s="659"/>
+      <c r="X8" s="657"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -30124,13 +30120,13 @@
         <f>'在庫情報（雨衣）'!BY9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="645"/>
-      <c r="M9" s="648"/>
-      <c r="N9" s="648"/>
-      <c r="O9" s="648"/>
-      <c r="P9" s="648"/>
-      <c r="Q9" s="651"/>
-      <c r="R9" s="654"/>
+      <c r="L9" s="654"/>
+      <c r="M9" s="655"/>
+      <c r="N9" s="655"/>
+      <c r="O9" s="655"/>
+      <c r="P9" s="655"/>
+      <c r="Q9" s="656"/>
+      <c r="R9" s="642"/>
       <c r="S9" s="529" t="s">
         <v>14</v>
       </c>
@@ -30146,7 +30142,7 @@
       <c r="W9" s="67" t="s">
         <v>739</v>
       </c>
-      <c r="X9" s="659"/>
+      <c r="X9" s="657"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -30182,12 +30178,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="646"/>
-      <c r="M10" s="649"/>
-      <c r="N10" s="649"/>
-      <c r="O10" s="649"/>
-      <c r="P10" s="649"/>
-      <c r="Q10" s="652"/>
-      <c r="R10" s="654"/>
+      <c r="M10" s="648"/>
+      <c r="N10" s="648"/>
+      <c r="O10" s="648"/>
+      <c r="P10" s="648"/>
+      <c r="Q10" s="650"/>
+      <c r="R10" s="642"/>
       <c r="S10" s="529" t="s">
         <v>742</v>
       </c>
@@ -30203,7 +30199,7 @@
       <c r="W10" s="67" t="s">
         <v>746</v>
       </c>
-      <c r="X10" s="660"/>
+      <c r="X10" s="644"/>
     </row>
     <row r="11" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -30240,7 +30236,7 @@
         <f>'在庫情報（雨衣）'!BY11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="644">
+      <c r="L11" s="645">
         <v>36</v>
       </c>
       <c r="M11" s="647">
@@ -30255,10 +30251,10 @@
       <c r="P11" s="647">
         <v>36</v>
       </c>
-      <c r="Q11" s="664">
+      <c r="Q11" s="651">
         <v>36</v>
       </c>
-      <c r="R11" s="654">
+      <c r="R11" s="642">
         <f>SUM(F11:F12)*L11+SUM(G11:G12)*M11+SUM(H11:H12)*N11+SUM(I11:I12)*O11+SUM(J11:J12)*P11+SUM(K11:K12)*Q11</f>
         <v>0</v>
       </c>
@@ -30315,12 +30311,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="646"/>
-      <c r="M12" s="649"/>
-      <c r="N12" s="649"/>
-      <c r="O12" s="649"/>
-      <c r="P12" s="649"/>
-      <c r="Q12" s="665"/>
-      <c r="R12" s="654"/>
+      <c r="M12" s="648"/>
+      <c r="N12" s="648"/>
+      <c r="O12" s="648"/>
+      <c r="P12" s="648"/>
+      <c r="Q12" s="653"/>
+      <c r="R12" s="642"/>
       <c r="S12" s="529" t="s">
         <v>753</v>
       </c>
@@ -30375,7 +30371,7 @@
         <f>'在庫情報（雨衣）'!BY13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="644">
+      <c r="L13" s="645">
         <v>20</v>
       </c>
       <c r="M13" s="647">
@@ -30384,10 +30380,10 @@
       <c r="N13" s="647">
         <v>20</v>
       </c>
-      <c r="O13" s="661"/>
-      <c r="P13" s="661"/>
-      <c r="Q13" s="650"/>
-      <c r="R13" s="654">
+      <c r="O13" s="664"/>
+      <c r="P13" s="664"/>
+      <c r="Q13" s="649"/>
+      <c r="R13" s="642">
         <f>SUM(F13:F15)*L13+SUM(G13:G15)*M13+SUM(H13:H15)*N13+SUM(I13:I15)*O13+SUM(J13:J15)*P13+SUM(K13:K15)*Q13</f>
         <v>0</v>
       </c>
@@ -30400,9 +30396,9 @@
       <c r="U13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="666"/>
-      <c r="W13" s="666"/>
-      <c r="X13" s="658"/>
+      <c r="V13" s="658"/>
+      <c r="W13" s="658"/>
+      <c r="X13" s="643"/>
     </row>
     <row r="14" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
@@ -30437,13 +30433,13 @@
         <f>'在庫情報（雨衣）'!BY14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="645"/>
-      <c r="M14" s="648"/>
-      <c r="N14" s="648"/>
-      <c r="O14" s="662"/>
-      <c r="P14" s="662"/>
-      <c r="Q14" s="651"/>
-      <c r="R14" s="654"/>
+      <c r="L14" s="654"/>
+      <c r="M14" s="655"/>
+      <c r="N14" s="655"/>
+      <c r="O14" s="665"/>
+      <c r="P14" s="665"/>
+      <c r="Q14" s="656"/>
+      <c r="R14" s="642"/>
       <c r="S14" s="529" t="s">
         <v>758</v>
       </c>
@@ -30453,9 +30449,9 @@
       <c r="U14" s="68" t="s">
         <v>760</v>
       </c>
-      <c r="V14" s="667"/>
-      <c r="W14" s="667"/>
-      <c r="X14" s="659"/>
+      <c r="V14" s="659"/>
+      <c r="W14" s="659"/>
+      <c r="X14" s="657"/>
     </row>
     <row r="15" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -30491,12 +30487,12 @@
         <v>0</v>
       </c>
       <c r="L15" s="646"/>
-      <c r="M15" s="649"/>
-      <c r="N15" s="649"/>
-      <c r="O15" s="663"/>
-      <c r="P15" s="663"/>
-      <c r="Q15" s="652"/>
-      <c r="R15" s="654"/>
+      <c r="M15" s="648"/>
+      <c r="N15" s="648"/>
+      <c r="O15" s="666"/>
+      <c r="P15" s="666"/>
+      <c r="Q15" s="650"/>
+      <c r="R15" s="642"/>
       <c r="S15" s="529" t="s">
         <v>27</v>
       </c>
@@ -30506,9 +30502,9 @@
       <c r="U15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="668"/>
-      <c r="W15" s="668"/>
-      <c r="X15" s="660"/>
+      <c r="V15" s="660"/>
+      <c r="W15" s="660"/>
+      <c r="X15" s="644"/>
     </row>
     <row r="16" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -30545,7 +30541,7 @@
         <f>'在庫情報（雨衣）'!BY16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="644">
+      <c r="L16" s="645">
         <v>20</v>
       </c>
       <c r="M16" s="647">
@@ -30554,14 +30550,14 @@
       <c r="N16" s="647">
         <v>20</v>
       </c>
-      <c r="O16" s="669">
+      <c r="O16" s="661">
         <v>26</v>
       </c>
-      <c r="P16" s="669">
+      <c r="P16" s="661">
         <v>26</v>
       </c>
-      <c r="Q16" s="650"/>
-      <c r="R16" s="654">
+      <c r="Q16" s="649"/>
+      <c r="R16" s="642">
         <f>SUM(F16:F18)*L16+SUM(G16:G18)*M16+SUM(H16:H18)*N16+SUM(I16:I18)*O16+SUM(J16:J18)*P16+SUM(K16:K18)*Q16</f>
         <v>0</v>
       </c>
@@ -30580,7 +30576,7 @@
       <c r="W16" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="658"/>
+      <c r="X16" s="643"/>
     </row>
     <row r="17" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
@@ -30615,13 +30611,13 @@
         <f>'在庫情報（雨衣）'!BY17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="645"/>
-      <c r="M17" s="648"/>
-      <c r="N17" s="648"/>
-      <c r="O17" s="670"/>
-      <c r="P17" s="670"/>
-      <c r="Q17" s="651"/>
-      <c r="R17" s="654"/>
+      <c r="L17" s="654"/>
+      <c r="M17" s="655"/>
+      <c r="N17" s="655"/>
+      <c r="O17" s="662"/>
+      <c r="P17" s="662"/>
+      <c r="Q17" s="656"/>
+      <c r="R17" s="642"/>
       <c r="S17" s="529" t="s">
         <v>36</v>
       </c>
@@ -30637,7 +30633,7 @@
       <c r="W17" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="X17" s="659"/>
+      <c r="X17" s="657"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -30673,12 +30669,12 @@
         <v>0</v>
       </c>
       <c r="L18" s="646"/>
-      <c r="M18" s="649"/>
-      <c r="N18" s="649"/>
-      <c r="O18" s="671"/>
-      <c r="P18" s="671"/>
-      <c r="Q18" s="652"/>
-      <c r="R18" s="654"/>
+      <c r="M18" s="648"/>
+      <c r="N18" s="648"/>
+      <c r="O18" s="663"/>
+      <c r="P18" s="663"/>
+      <c r="Q18" s="650"/>
+      <c r="R18" s="642"/>
       <c r="S18" s="529" t="s">
         <v>33</v>
       </c>
@@ -30694,7 +30690,7 @@
       <c r="W18" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="X18" s="660"/>
+      <c r="X18" s="644"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -30731,7 +30727,7 @@
         <f>'在庫情報（雨衣）'!BY19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="644">
+      <c r="L19" s="645">
         <v>38</v>
       </c>
       <c r="M19" s="647">
@@ -30746,8 +30742,8 @@
       <c r="P19" s="647">
         <v>38</v>
       </c>
-      <c r="Q19" s="650"/>
-      <c r="R19" s="654">
+      <c r="Q19" s="649"/>
+      <c r="R19" s="642">
         <f>SUM(F19:F21)*L19+SUM(G19:G21)*M19+SUM(H19:H21)*N19+SUM(I19:I21)*O19+SUM(J19:J21)*P19+SUM(K19:K21)*Q19</f>
         <v>0</v>
       </c>
@@ -30766,7 +30762,7 @@
       <c r="W19" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="X19" s="658"/>
+      <c r="X19" s="643"/>
     </row>
     <row r="20" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
@@ -30801,13 +30797,13 @@
         <f>'在庫情報（雨衣）'!BY20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="645"/>
-      <c r="M20" s="648"/>
-      <c r="N20" s="648"/>
-      <c r="O20" s="648"/>
-      <c r="P20" s="648"/>
-      <c r="Q20" s="651"/>
-      <c r="R20" s="654"/>
+      <c r="L20" s="654"/>
+      <c r="M20" s="655"/>
+      <c r="N20" s="655"/>
+      <c r="O20" s="655"/>
+      <c r="P20" s="655"/>
+      <c r="Q20" s="656"/>
+      <c r="R20" s="642"/>
       <c r="S20" s="529" t="s">
         <v>53</v>
       </c>
@@ -30823,7 +30819,7 @@
       <c r="W20" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="X20" s="659"/>
+      <c r="X20" s="657"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -30859,12 +30855,12 @@
         <v>0</v>
       </c>
       <c r="L21" s="646"/>
-      <c r="M21" s="649"/>
-      <c r="N21" s="649"/>
-      <c r="O21" s="649"/>
-      <c r="P21" s="649"/>
-      <c r="Q21" s="652"/>
-      <c r="R21" s="654"/>
+      <c r="M21" s="648"/>
+      <c r="N21" s="648"/>
+      <c r="O21" s="648"/>
+      <c r="P21" s="648"/>
+      <c r="Q21" s="650"/>
+      <c r="R21" s="642"/>
       <c r="S21" s="529" t="s">
         <v>56</v>
       </c>
@@ -30880,7 +30876,7 @@
       <c r="W21" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="660"/>
+      <c r="X21" s="644"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -30917,7 +30913,7 @@
         <f>'在庫情報（雨衣）'!BY22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="644">
+      <c r="L22" s="645">
         <v>25</v>
       </c>
       <c r="M22" s="647">
@@ -30932,8 +30928,8 @@
       <c r="P22" s="647">
         <v>25</v>
       </c>
-      <c r="Q22" s="650"/>
-      <c r="R22" s="654">
+      <c r="Q22" s="649"/>
+      <c r="R22" s="642">
         <f>SUM(F22:F23)*L22+SUM(G22:G23)*M22+SUM(H22:H23)*N22+SUM(I22:I23)*O22+SUM(J22:J23)*P22+SUM(K22:K23)*Q22</f>
         <v>0</v>
       </c>
@@ -30952,7 +30948,7 @@
       <c r="W22" s="68" t="s">
         <v>768</v>
       </c>
-      <c r="X22" s="658"/>
+      <c r="X22" s="643"/>
     </row>
     <row r="23" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
@@ -30988,12 +30984,12 @@
         <v>0</v>
       </c>
       <c r="L23" s="646"/>
-      <c r="M23" s="649"/>
-      <c r="N23" s="649"/>
-      <c r="O23" s="649"/>
-      <c r="P23" s="649"/>
-      <c r="Q23" s="652"/>
-      <c r="R23" s="654"/>
+      <c r="M23" s="648"/>
+      <c r="N23" s="648"/>
+      <c r="O23" s="648"/>
+      <c r="P23" s="648"/>
+      <c r="Q23" s="650"/>
+      <c r="R23" s="642"/>
       <c r="S23" s="529" t="s">
         <v>662</v>
       </c>
@@ -31009,7 +31005,7 @@
       <c r="W23" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="X23" s="660"/>
+      <c r="X23" s="644"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -31046,7 +31042,7 @@
         <f>'在庫情報（雨衣）'!BY24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="644">
+      <c r="L24" s="645">
         <v>36</v>
       </c>
       <c r="M24" s="647">
@@ -31061,10 +31057,10 @@
       <c r="P24" s="647">
         <v>36</v>
       </c>
-      <c r="Q24" s="664">
+      <c r="Q24" s="651">
         <v>36</v>
       </c>
-      <c r="R24" s="654">
+      <c r="R24" s="642">
         <f>SUM(F24:F27)*L24+SUM(G24:G27)*M24+SUM(H24:H27)*N24+SUM(I24:I27)*O24+SUM(J24:J27)*P24+SUM(K24:K27)*Q24</f>
         <v>0</v>
       </c>
@@ -31120,13 +31116,13 @@
         <f>'在庫情報（雨衣）'!BY25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="645"/>
-      <c r="M25" s="648"/>
-      <c r="N25" s="648"/>
-      <c r="O25" s="648"/>
-      <c r="P25" s="648"/>
-      <c r="Q25" s="672"/>
-      <c r="R25" s="654"/>
+      <c r="L25" s="654"/>
+      <c r="M25" s="655"/>
+      <c r="N25" s="655"/>
+      <c r="O25" s="655"/>
+      <c r="P25" s="655"/>
+      <c r="Q25" s="652"/>
+      <c r="R25" s="642"/>
       <c r="S25" s="529" t="s">
         <v>65</v>
       </c>
@@ -31179,13 +31175,13 @@
         <f>'在庫情報（雨衣）'!BY26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="645"/>
-      <c r="M26" s="648"/>
-      <c r="N26" s="648"/>
-      <c r="O26" s="648"/>
-      <c r="P26" s="648"/>
-      <c r="Q26" s="672"/>
-      <c r="R26" s="654"/>
+      <c r="L26" s="654"/>
+      <c r="M26" s="655"/>
+      <c r="N26" s="655"/>
+      <c r="O26" s="655"/>
+      <c r="P26" s="655"/>
+      <c r="Q26" s="652"/>
+      <c r="R26" s="642"/>
       <c r="S26" s="529" t="s">
         <v>80</v>
       </c>
@@ -31239,12 +31235,12 @@
         <v>0</v>
       </c>
       <c r="L27" s="646"/>
-      <c r="M27" s="649"/>
-      <c r="N27" s="649"/>
-      <c r="O27" s="649"/>
-      <c r="P27" s="649"/>
-      <c r="Q27" s="665"/>
-      <c r="R27" s="654"/>
+      <c r="M27" s="648"/>
+      <c r="N27" s="648"/>
+      <c r="O27" s="648"/>
+      <c r="P27" s="648"/>
+      <c r="Q27" s="653"/>
+      <c r="R27" s="642"/>
       <c r="S27" s="529" t="s">
         <v>86</v>
       </c>
@@ -31367,7 +31363,7 @@
         <f>'在庫情報（雨衣）'!BY29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="644">
+      <c r="L29" s="645">
         <v>35</v>
       </c>
       <c r="M29" s="647">
@@ -31382,8 +31378,8 @@
       <c r="P29" s="647">
         <v>35</v>
       </c>
-      <c r="Q29" s="650"/>
-      <c r="R29" s="654">
+      <c r="Q29" s="649"/>
+      <c r="R29" s="642">
         <f>SUM(F29:F30)*L29+SUM(G29:G30)*M29+SUM(H29:H30)*N29+SUM(I29:I30)*O29+SUM(J29:J30)*P29+SUM(K29:K30)*Q29</f>
         <v>0</v>
       </c>
@@ -31402,7 +31398,7 @@
       <c r="W29" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="X29" s="658"/>
+      <c r="X29" s="643"/>
     </row>
     <row r="30" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
@@ -31438,12 +31434,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="646"/>
-      <c r="M30" s="649"/>
-      <c r="N30" s="649"/>
-      <c r="O30" s="649"/>
-      <c r="P30" s="649"/>
-      <c r="Q30" s="652"/>
-      <c r="R30" s="654"/>
+      <c r="M30" s="648"/>
+      <c r="N30" s="648"/>
+      <c r="O30" s="648"/>
+      <c r="P30" s="648"/>
+      <c r="Q30" s="650"/>
+      <c r="R30" s="642"/>
       <c r="S30" s="529" t="s">
         <v>98</v>
       </c>
@@ -31459,7 +31455,7 @@
       <c r="W30" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="X30" s="660"/>
+      <c r="X30" s="644"/>
     </row>
     <row r="31" spans="2:24" s="526" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B31"/>
@@ -31491,48 +31487,23 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X13:X15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="X7:X10"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="M13:M15"/>
@@ -31547,23 +31518,48 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="X7:X10"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="X13:X15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33299,7 +33295,7 @@
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="642" t="s">
+      <c r="R2" s="670" t="s">
         <v>154</v>
       </c>
       <c r="S2" s="21" t="s">
@@ -33360,7 +33356,7 @@
       <c r="Q3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="R3" s="643"/>
+      <c r="R3" s="671"/>
       <c r="S3" s="7" t="s">
         <v>840</v>
       </c>
@@ -34548,7 +34544,7 @@
       <c r="H2" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="642" t="s">
+      <c r="I2" s="670" t="s">
         <v>154</v>
       </c>
     </row>
@@ -34568,7 +34564,7 @@
       <c r="F3" s="593"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="643"/>
+      <c r="I3" s="671"/>
     </row>
     <row r="4" spans="2:10" s="20" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B4" s="3" t="s">
@@ -44191,7 +44187,7 @@
   </sheetPr>
   <dimension ref="B1:W183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1062">
   <si>
     <t>ピンク</t>
   </si>
@@ -3943,6 +3943,34 @@
   </si>
   <si>
     <t>X000UYJ7QJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYL38T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYL393</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYHHMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYL38J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYHHMZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYJ7Q9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X000UYJ7QT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6879,16 +6907,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6897,35 +6925,59 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6945,32 +6997,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -29685,7 +29713,7 @@
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="670" t="s">
+      <c r="R2" s="642" t="s">
         <v>154</v>
       </c>
       <c r="S2" s="21" t="s">
@@ -29746,7 +29774,7 @@
       <c r="Q3" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="R3" s="671"/>
+      <c r="R3" s="643"/>
       <c r="S3" s="7" t="s">
         <v>155</v>
       </c>
@@ -29807,7 +29835,7 @@
         <f>'在庫情報（雨衣）'!BY4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="645">
+      <c r="L4" s="644">
         <v>28</v>
       </c>
       <c r="M4" s="647">
@@ -29822,8 +29850,8 @@
       <c r="P4" s="647">
         <v>28</v>
       </c>
-      <c r="Q4" s="649"/>
-      <c r="R4" s="672">
+      <c r="Q4" s="650"/>
+      <c r="R4" s="653">
         <f>SUM(F4:F6)*L4+SUM(G4:G6)*M4+SUM(H4:H6)*N4+SUM(I4:I6)*O4+SUM(J4:J6)*P4+SUM(K4:K6)*Q4</f>
         <v>0</v>
       </c>
@@ -29842,7 +29870,7 @@
       <c r="W4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="667"/>
+      <c r="X4" s="655"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
@@ -29877,13 +29905,13 @@
         <f>'在庫情報（雨衣）'!BY5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="654"/>
-      <c r="M5" s="655"/>
-      <c r="N5" s="655"/>
-      <c r="O5" s="655"/>
-      <c r="P5" s="655"/>
-      <c r="Q5" s="656"/>
-      <c r="R5" s="642"/>
+      <c r="L5" s="645"/>
+      <c r="M5" s="648"/>
+      <c r="N5" s="648"/>
+      <c r="O5" s="648"/>
+      <c r="P5" s="648"/>
+      <c r="Q5" s="651"/>
+      <c r="R5" s="654"/>
       <c r="S5" s="528" t="s">
         <v>714</v>
       </c>
@@ -29899,7 +29927,7 @@
       <c r="W5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="668"/>
+      <c r="X5" s="656"/>
     </row>
     <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -29935,12 +29963,12 @@
         <v>0</v>
       </c>
       <c r="L6" s="646"/>
-      <c r="M6" s="648"/>
-      <c r="N6" s="648"/>
-      <c r="O6" s="648"/>
-      <c r="P6" s="648"/>
-      <c r="Q6" s="650"/>
-      <c r="R6" s="642"/>
+      <c r="M6" s="649"/>
+      <c r="N6" s="649"/>
+      <c r="O6" s="649"/>
+      <c r="P6" s="649"/>
+      <c r="Q6" s="652"/>
+      <c r="R6" s="654"/>
       <c r="S6" s="529" t="s">
         <v>719</v>
       </c>
@@ -29956,7 +29984,7 @@
       <c r="W6" s="67" t="s">
         <v>723</v>
       </c>
-      <c r="X6" s="669"/>
+      <c r="X6" s="657"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -29993,7 +30021,7 @@
         <f>'在庫情報（雨衣）'!BY7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="645">
+      <c r="L7" s="644">
         <v>34</v>
       </c>
       <c r="M7" s="647">
@@ -30008,8 +30036,8 @@
       <c r="P7" s="647">
         <v>34</v>
       </c>
-      <c r="Q7" s="649"/>
-      <c r="R7" s="642">
+      <c r="Q7" s="650"/>
+      <c r="R7" s="654">
         <f>SUM(F7:F10)*L7+SUM(G7:G10)*M7+SUM(H7:H10)*N7+SUM(I7:I10)*O7+SUM(J7:J10)*P7+SUM(K7:K10)*Q7</f>
         <v>0</v>
       </c>
@@ -30028,7 +30056,7 @@
       <c r="W7" s="67" t="s">
         <v>731</v>
       </c>
-      <c r="X7" s="643"/>
+      <c r="X7" s="658"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -30063,13 +30091,13 @@
         <f>'在庫情報（雨衣）'!BY8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="654"/>
-      <c r="M8" s="655"/>
-      <c r="N8" s="655"/>
-      <c r="O8" s="655"/>
-      <c r="P8" s="655"/>
-      <c r="Q8" s="656"/>
-      <c r="R8" s="642"/>
+      <c r="L8" s="645"/>
+      <c r="M8" s="648"/>
+      <c r="N8" s="648"/>
+      <c r="O8" s="648"/>
+      <c r="P8" s="648"/>
+      <c r="Q8" s="651"/>
+      <c r="R8" s="654"/>
       <c r="S8" s="529" t="s">
         <v>734</v>
       </c>
@@ -30085,7 +30113,7 @@
       <c r="W8" s="67" t="s">
         <v>736</v>
       </c>
-      <c r="X8" s="657"/>
+      <c r="X8" s="659"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
@@ -30120,13 +30148,13 @@
         <f>'在庫情報（雨衣）'!BY9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="654"/>
-      <c r="M9" s="655"/>
-      <c r="N9" s="655"/>
-      <c r="O9" s="655"/>
-      <c r="P9" s="655"/>
-      <c r="Q9" s="656"/>
-      <c r="R9" s="642"/>
+      <c r="L9" s="645"/>
+      <c r="M9" s="648"/>
+      <c r="N9" s="648"/>
+      <c r="O9" s="648"/>
+      <c r="P9" s="648"/>
+      <c r="Q9" s="651"/>
+      <c r="R9" s="654"/>
       <c r="S9" s="529" t="s">
         <v>14</v>
       </c>
@@ -30142,7 +30170,7 @@
       <c r="W9" s="67" t="s">
         <v>739</v>
       </c>
-      <c r="X9" s="657"/>
+      <c r="X9" s="659"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -30178,12 +30206,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="646"/>
-      <c r="M10" s="648"/>
-      <c r="N10" s="648"/>
-      <c r="O10" s="648"/>
-      <c r="P10" s="648"/>
-      <c r="Q10" s="650"/>
-      <c r="R10" s="642"/>
+      <c r="M10" s="649"/>
+      <c r="N10" s="649"/>
+      <c r="O10" s="649"/>
+      <c r="P10" s="649"/>
+      <c r="Q10" s="652"/>
+      <c r="R10" s="654"/>
       <c r="S10" s="529" t="s">
         <v>742</v>
       </c>
@@ -30199,7 +30227,7 @@
       <c r="W10" s="67" t="s">
         <v>746</v>
       </c>
-      <c r="X10" s="644"/>
+      <c r="X10" s="660"/>
     </row>
     <row r="11" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -30236,7 +30264,7 @@
         <f>'在庫情報（雨衣）'!BY11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="645">
+      <c r="L11" s="644">
         <v>36</v>
       </c>
       <c r="M11" s="647">
@@ -30251,10 +30279,10 @@
       <c r="P11" s="647">
         <v>36</v>
       </c>
-      <c r="Q11" s="651">
+      <c r="Q11" s="664">
         <v>36</v>
       </c>
-      <c r="R11" s="642">
+      <c r="R11" s="654">
         <f>SUM(F11:F12)*L11+SUM(G11:G12)*M11+SUM(H11:H12)*N11+SUM(I11:I12)*O11+SUM(J11:J12)*P11+SUM(K11:K12)*Q11</f>
         <v>0</v>
       </c>
@@ -30311,12 +30339,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="646"/>
-      <c r="M12" s="648"/>
-      <c r="N12" s="648"/>
-      <c r="O12" s="648"/>
-      <c r="P12" s="648"/>
-      <c r="Q12" s="653"/>
-      <c r="R12" s="642"/>
+      <c r="M12" s="649"/>
+      <c r="N12" s="649"/>
+      <c r="O12" s="649"/>
+      <c r="P12" s="649"/>
+      <c r="Q12" s="665"/>
+      <c r="R12" s="654"/>
       <c r="S12" s="529" t="s">
         <v>753</v>
       </c>
@@ -30371,7 +30399,7 @@
         <f>'在庫情報（雨衣）'!BY13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="645">
+      <c r="L13" s="644">
         <v>20</v>
       </c>
       <c r="M13" s="647">
@@ -30380,10 +30408,10 @@
       <c r="N13" s="647">
         <v>20</v>
       </c>
-      <c r="O13" s="664"/>
-      <c r="P13" s="664"/>
-      <c r="Q13" s="649"/>
-      <c r="R13" s="642">
+      <c r="O13" s="661"/>
+      <c r="P13" s="661"/>
+      <c r="Q13" s="650"/>
+      <c r="R13" s="654">
         <f>SUM(F13:F15)*L13+SUM(G13:G15)*M13+SUM(H13:H15)*N13+SUM(I13:I15)*O13+SUM(J13:J15)*P13+SUM(K13:K15)*Q13</f>
         <v>0</v>
       </c>
@@ -30396,9 +30424,9 @@
       <c r="U13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="658"/>
-      <c r="W13" s="658"/>
-      <c r="X13" s="643"/>
+      <c r="V13" s="666"/>
+      <c r="W13" s="666"/>
+      <c r="X13" s="658"/>
     </row>
     <row r="14" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
@@ -30433,13 +30461,13 @@
         <f>'在庫情報（雨衣）'!BY14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="654"/>
-      <c r="M14" s="655"/>
-      <c r="N14" s="655"/>
-      <c r="O14" s="665"/>
-      <c r="P14" s="665"/>
-      <c r="Q14" s="656"/>
-      <c r="R14" s="642"/>
+      <c r="L14" s="645"/>
+      <c r="M14" s="648"/>
+      <c r="N14" s="648"/>
+      <c r="O14" s="662"/>
+      <c r="P14" s="662"/>
+      <c r="Q14" s="651"/>
+      <c r="R14" s="654"/>
       <c r="S14" s="529" t="s">
         <v>758</v>
       </c>
@@ -30449,9 +30477,9 @@
       <c r="U14" s="68" t="s">
         <v>760</v>
       </c>
-      <c r="V14" s="659"/>
-      <c r="W14" s="659"/>
-      <c r="X14" s="657"/>
+      <c r="V14" s="667"/>
+      <c r="W14" s="667"/>
+      <c r="X14" s="659"/>
     </row>
     <row r="15" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -30487,12 +30515,12 @@
         <v>0</v>
       </c>
       <c r="L15" s="646"/>
-      <c r="M15" s="648"/>
-      <c r="N15" s="648"/>
-      <c r="O15" s="666"/>
-      <c r="P15" s="666"/>
-      <c r="Q15" s="650"/>
-      <c r="R15" s="642"/>
+      <c r="M15" s="649"/>
+      <c r="N15" s="649"/>
+      <c r="O15" s="663"/>
+      <c r="P15" s="663"/>
+      <c r="Q15" s="652"/>
+      <c r="R15" s="654"/>
       <c r="S15" s="529" t="s">
         <v>27</v>
       </c>
@@ -30502,9 +30530,9 @@
       <c r="U15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="660"/>
-      <c r="W15" s="660"/>
-      <c r="X15" s="644"/>
+      <c r="V15" s="668"/>
+      <c r="W15" s="668"/>
+      <c r="X15" s="660"/>
     </row>
     <row r="16" spans="2:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -30541,7 +30569,7 @@
         <f>'在庫情報（雨衣）'!BY16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="645">
+      <c r="L16" s="644">
         <v>20</v>
       </c>
       <c r="M16" s="647">
@@ -30550,14 +30578,14 @@
       <c r="N16" s="647">
         <v>20</v>
       </c>
-      <c r="O16" s="661">
+      <c r="O16" s="669">
         <v>26</v>
       </c>
-      <c r="P16" s="661">
+      <c r="P16" s="669">
         <v>26</v>
       </c>
-      <c r="Q16" s="649"/>
-      <c r="R16" s="642">
+      <c r="Q16" s="650"/>
+      <c r="R16" s="654">
         <f>SUM(F16:F18)*L16+SUM(G16:G18)*M16+SUM(H16:H18)*N16+SUM(I16:I18)*O16+SUM(J16:J18)*P16+SUM(K16:K18)*Q16</f>
         <v>0</v>
       </c>
@@ -30576,7 +30604,7 @@
       <c r="W16" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="643"/>
+      <c r="X16" s="658"/>
     </row>
     <row r="17" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
@@ -30611,13 +30639,13 @@
         <f>'在庫情報（雨衣）'!BY17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="654"/>
-      <c r="M17" s="655"/>
-      <c r="N17" s="655"/>
-      <c r="O17" s="662"/>
-      <c r="P17" s="662"/>
-      <c r="Q17" s="656"/>
-      <c r="R17" s="642"/>
+      <c r="L17" s="645"/>
+      <c r="M17" s="648"/>
+      <c r="N17" s="648"/>
+      <c r="O17" s="670"/>
+      <c r="P17" s="670"/>
+      <c r="Q17" s="651"/>
+      <c r="R17" s="654"/>
       <c r="S17" s="529" t="s">
         <v>36</v>
       </c>
@@ -30633,7 +30661,7 @@
       <c r="W17" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="X17" s="657"/>
+      <c r="X17" s="659"/>
     </row>
     <row r="18" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
@@ -30669,12 +30697,12 @@
         <v>0</v>
       </c>
       <c r="L18" s="646"/>
-      <c r="M18" s="648"/>
-      <c r="N18" s="648"/>
-      <c r="O18" s="663"/>
-      <c r="P18" s="663"/>
-      <c r="Q18" s="650"/>
-      <c r="R18" s="642"/>
+      <c r="M18" s="649"/>
+      <c r="N18" s="649"/>
+      <c r="O18" s="671"/>
+      <c r="P18" s="671"/>
+      <c r="Q18" s="652"/>
+      <c r="R18" s="654"/>
       <c r="S18" s="529" t="s">
         <v>33</v>
       </c>
@@ -30690,7 +30718,7 @@
       <c r="W18" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="X18" s="644"/>
+      <c r="X18" s="660"/>
     </row>
     <row r="19" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -30727,7 +30755,7 @@
         <f>'在庫情報（雨衣）'!BY19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="645">
+      <c r="L19" s="644">
         <v>38</v>
       </c>
       <c r="M19" s="647">
@@ -30742,8 +30770,8 @@
       <c r="P19" s="647">
         <v>38</v>
       </c>
-      <c r="Q19" s="649"/>
-      <c r="R19" s="642">
+      <c r="Q19" s="650"/>
+      <c r="R19" s="654">
         <f>SUM(F19:F21)*L19+SUM(G19:G21)*M19+SUM(H19:H21)*N19+SUM(I19:I21)*O19+SUM(J19:J21)*P19+SUM(K19:K21)*Q19</f>
         <v>0</v>
       </c>
@@ -30762,7 +30790,7 @@
       <c r="W19" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="X19" s="643"/>
+      <c r="X19" s="658"/>
     </row>
     <row r="20" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
@@ -30797,13 +30825,13 @@
         <f>'在庫情報（雨衣）'!BY20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="654"/>
-      <c r="M20" s="655"/>
-      <c r="N20" s="655"/>
-      <c r="O20" s="655"/>
-      <c r="P20" s="655"/>
-      <c r="Q20" s="656"/>
-      <c r="R20" s="642"/>
+      <c r="L20" s="645"/>
+      <c r="M20" s="648"/>
+      <c r="N20" s="648"/>
+      <c r="O20" s="648"/>
+      <c r="P20" s="648"/>
+      <c r="Q20" s="651"/>
+      <c r="R20" s="654"/>
       <c r="S20" s="529" t="s">
         <v>53</v>
       </c>
@@ -30819,7 +30847,7 @@
       <c r="W20" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="X20" s="657"/>
+      <c r="X20" s="659"/>
     </row>
     <row r="21" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
@@ -30855,12 +30883,12 @@
         <v>0</v>
       </c>
       <c r="L21" s="646"/>
-      <c r="M21" s="648"/>
-      <c r="N21" s="648"/>
-      <c r="O21" s="648"/>
-      <c r="P21" s="648"/>
-      <c r="Q21" s="650"/>
-      <c r="R21" s="642"/>
+      <c r="M21" s="649"/>
+      <c r="N21" s="649"/>
+      <c r="O21" s="649"/>
+      <c r="P21" s="649"/>
+      <c r="Q21" s="652"/>
+      <c r="R21" s="654"/>
       <c r="S21" s="529" t="s">
         <v>56</v>
       </c>
@@ -30876,7 +30904,7 @@
       <c r="W21" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="644"/>
+      <c r="X21" s="660"/>
     </row>
     <row r="22" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -30913,7 +30941,7 @@
         <f>'在庫情報（雨衣）'!BY22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="645">
+      <c r="L22" s="644">
         <v>25</v>
       </c>
       <c r="M22" s="647">
@@ -30928,8 +30956,8 @@
       <c r="P22" s="647">
         <v>25</v>
       </c>
-      <c r="Q22" s="649"/>
-      <c r="R22" s="642">
+      <c r="Q22" s="650"/>
+      <c r="R22" s="654">
         <f>SUM(F22:F23)*L22+SUM(G22:G23)*M22+SUM(H22:H23)*N22+SUM(I22:I23)*O22+SUM(J22:J23)*P22+SUM(K22:K23)*Q22</f>
         <v>0</v>
       </c>
@@ -30948,7 +30976,7 @@
       <c r="W22" s="68" t="s">
         <v>768</v>
       </c>
-      <c r="X22" s="643"/>
+      <c r="X22" s="658"/>
     </row>
     <row r="23" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
@@ -30984,12 +31012,12 @@
         <v>0</v>
       </c>
       <c r="L23" s="646"/>
-      <c r="M23" s="648"/>
-      <c r="N23" s="648"/>
-      <c r="O23" s="648"/>
-      <c r="P23" s="648"/>
-      <c r="Q23" s="650"/>
-      <c r="R23" s="642"/>
+      <c r="M23" s="649"/>
+      <c r="N23" s="649"/>
+      <c r="O23" s="649"/>
+      <c r="P23" s="649"/>
+      <c r="Q23" s="652"/>
+      <c r="R23" s="654"/>
       <c r="S23" s="529" t="s">
         <v>662</v>
       </c>
@@ -31005,7 +31033,7 @@
       <c r="W23" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="X23" s="644"/>
+      <c r="X23" s="660"/>
     </row>
     <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
@@ -31042,7 +31070,7 @@
         <f>'在庫情報（雨衣）'!BY24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="645">
+      <c r="L24" s="644">
         <v>36</v>
       </c>
       <c r="M24" s="647">
@@ -31057,10 +31085,10 @@
       <c r="P24" s="647">
         <v>36</v>
       </c>
-      <c r="Q24" s="651">
+      <c r="Q24" s="664">
         <v>36</v>
       </c>
-      <c r="R24" s="642">
+      <c r="R24" s="654">
         <f>SUM(F24:F27)*L24+SUM(G24:G27)*M24+SUM(H24:H27)*N24+SUM(I24:I27)*O24+SUM(J24:J27)*P24+SUM(K24:K27)*Q24</f>
         <v>0</v>
       </c>
@@ -31116,13 +31144,13 @@
         <f>'在庫情報（雨衣）'!BY25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="654"/>
-      <c r="M25" s="655"/>
-      <c r="N25" s="655"/>
-      <c r="O25" s="655"/>
-      <c r="P25" s="655"/>
-      <c r="Q25" s="652"/>
-      <c r="R25" s="642"/>
+      <c r="L25" s="645"/>
+      <c r="M25" s="648"/>
+      <c r="N25" s="648"/>
+      <c r="O25" s="648"/>
+      <c r="P25" s="648"/>
+      <c r="Q25" s="672"/>
+      <c r="R25" s="654"/>
       <c r="S25" s="529" t="s">
         <v>65</v>
       </c>
@@ -31175,13 +31203,13 @@
         <f>'在庫情報（雨衣）'!BY26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="654"/>
-      <c r="M26" s="655"/>
-      <c r="N26" s="655"/>
-      <c r="O26" s="655"/>
-      <c r="P26" s="655"/>
-      <c r="Q26" s="652"/>
-      <c r="R26" s="642"/>
+      <c r="L26" s="645"/>
+      <c r="M26" s="648"/>
+      <c r="N26" s="648"/>
+      <c r="O26" s="648"/>
+      <c r="P26" s="648"/>
+      <c r="Q26" s="672"/>
+      <c r="R26" s="654"/>
       <c r="S26" s="529" t="s">
         <v>80</v>
       </c>
@@ -31235,12 +31263,12 @@
         <v>0</v>
       </c>
       <c r="L27" s="646"/>
-      <c r="M27" s="648"/>
-      <c r="N27" s="648"/>
-      <c r="O27" s="648"/>
-      <c r="P27" s="648"/>
-      <c r="Q27" s="653"/>
-      <c r="R27" s="642"/>
+      <c r="M27" s="649"/>
+      <c r="N27" s="649"/>
+      <c r="O27" s="649"/>
+      <c r="P27" s="649"/>
+      <c r="Q27" s="665"/>
+      <c r="R27" s="654"/>
       <c r="S27" s="529" t="s">
         <v>86</v>
       </c>
@@ -31363,7 +31391,7 @@
         <f>'在庫情報（雨衣）'!BY29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="645">
+      <c r="L29" s="644">
         <v>35</v>
       </c>
       <c r="M29" s="647">
@@ -31378,8 +31406,8 @@
       <c r="P29" s="647">
         <v>35</v>
       </c>
-      <c r="Q29" s="649"/>
-      <c r="R29" s="642">
+      <c r="Q29" s="650"/>
+      <c r="R29" s="654">
         <f>SUM(F29:F30)*L29+SUM(G29:G30)*M29+SUM(H29:H30)*N29+SUM(I29:I30)*O29+SUM(J29:J30)*P29+SUM(K29:K30)*Q29</f>
         <v>0</v>
       </c>
@@ -31398,7 +31426,7 @@
       <c r="W29" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="X29" s="643"/>
+      <c r="X29" s="658"/>
     </row>
     <row r="30" spans="2:24" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
@@ -31434,12 +31462,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="646"/>
-      <c r="M30" s="648"/>
-      <c r="N30" s="648"/>
-      <c r="O30" s="648"/>
-      <c r="P30" s="648"/>
-      <c r="Q30" s="650"/>
-      <c r="R30" s="642"/>
+      <c r="M30" s="649"/>
+      <c r="N30" s="649"/>
+      <c r="O30" s="649"/>
+      <c r="P30" s="649"/>
+      <c r="Q30" s="652"/>
+      <c r="R30" s="654"/>
       <c r="S30" s="529" t="s">
         <v>98</v>
       </c>
@@ -31455,7 +31483,7 @@
       <c r="W30" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="X30" s="644"/>
+      <c r="X30" s="660"/>
     </row>
     <row r="31" spans="2:24" s="526" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B31"/>
@@ -31487,23 +31515,48 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="X7:X10"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="X13:X15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="X16:X18"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="M13:M15"/>
@@ -31518,48 +31571,23 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="X13:X15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="X16:X18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="X7:X10"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33295,7 +33323,7 @@
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="670" t="s">
+      <c r="R2" s="642" t="s">
         <v>154</v>
       </c>
       <c r="S2" s="21" t="s">
@@ -33356,7 +33384,7 @@
       <c r="Q3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="R3" s="671"/>
+      <c r="R3" s="643"/>
       <c r="S3" s="7" t="s">
         <v>840</v>
       </c>
@@ -34516,9 +34544,9 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -34544,7 +34572,7 @@
       <c r="H2" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="670" t="s">
+      <c r="I2" s="642" t="s">
         <v>154</v>
       </c>
     </row>
@@ -34564,7 +34592,7 @@
       <c r="F3" s="593"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="671"/>
+      <c r="I3" s="643"/>
     </row>
     <row r="4" spans="2:10" s="20" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B4" s="3" t="s">
@@ -34880,7 +34908,7 @@
       <selection activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="topRight" activeCell="AD2" sqref="AD2:AI2"/>
       <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AI2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -34889,7 +34917,7 @@
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="37" customWidth="1"/>
     <col min="5" max="7" width="20.625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="37" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="37" customWidth="1"/>
     <col min="9" max="9" width="25.875" customWidth="1"/>
     <col min="10" max="11" width="27.25" customWidth="1"/>
     <col min="12" max="12" width="22.25" customWidth="1"/>
@@ -37772,7 +37800,7 @@
         <v>942</v>
       </c>
       <c r="H83" s="93" t="s">
-        <v>1014</v>
+        <v>1055</v>
       </c>
       <c r="I83" s="570"/>
       <c r="J83" s="571"/>
@@ -37808,7 +37836,7 @@
         <v>943</v>
       </c>
       <c r="H84" s="577" t="s">
-        <v>1015</v>
+        <v>1056</v>
       </c>
       <c r="I84" s="117"/>
       <c r="J84" s="156"/>
@@ -37878,7 +37906,7 @@
         <v>945</v>
       </c>
       <c r="H86" s="577" t="s">
-        <v>1016</v>
+        <v>1057</v>
       </c>
       <c r="I86" s="117"/>
       <c r="J86" s="156"/>
@@ -37948,7 +37976,7 @@
         <v>947</v>
       </c>
       <c r="H88" s="577" t="s">
-        <v>1017</v>
+        <v>1058</v>
       </c>
       <c r="I88" s="117"/>
       <c r="J88" s="156"/>
@@ -37984,7 +38012,7 @@
         <v>948</v>
       </c>
       <c r="H89" s="577" t="s">
-        <v>1018</v>
+        <v>1059</v>
       </c>
       <c r="I89" s="117"/>
       <c r="J89" s="156"/>
@@ -38054,7 +38082,7 @@
         <v>950</v>
       </c>
       <c r="H91" s="577" t="s">
-        <v>1019</v>
+        <v>1060</v>
       </c>
       <c r="I91" s="117"/>
       <c r="J91" s="156"/>
@@ -38090,7 +38118,7 @@
         <v>951</v>
       </c>
       <c r="H92" s="608" t="s">
-        <v>1020</v>
+        <v>1061</v>
       </c>
       <c r="I92" s="135"/>
       <c r="J92" s="165"/>
@@ -40598,7 +40626,7 @@
   </sheetPr>
   <dimension ref="B1:K143"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A112" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12390" tabRatio="835"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="835" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="在庫情報（雨衣）" sheetId="41" r:id="rId1"/>
@@ -2187,10 +2187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -2348,7 +2348,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2356,7 +2370,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2372,22 +2409,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2401,38 +2423,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2454,28 +2452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2484,8 +2460,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2596,7 +2596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2608,13 +2620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2626,13 +2638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2645,6 +2657,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,43 +2698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2716,31 +2710,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3871,6 +3871,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3886,35 +3910,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3934,30 +3934,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3968,16 +3944,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3986,133 +3986,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="89" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -14766,7 +14766,7 @@
   </sheetPr>
   <dimension ref="B1:CK31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -40298,12 +40298,12 @@
   </sheetPr>
   <dimension ref="B1:W192"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -43426,9 +43426,15 @@
       <c r="Q71" s="400"/>
       <c r="R71" s="400"/>
       <c r="S71" s="400"/>
-      <c r="T71" s="331"/>
+      <c r="T71" s="331">
+        <f>M71+L71+N71</f>
+        <v>0</v>
+      </c>
       <c r="U71" s="233"/>
-      <c r="V71" s="331"/>
+      <c r="V71" s="331">
+        <f>T71+U71</f>
+        <v>0</v>
+      </c>
       <c r="W71" s="333" t="str">
         <f t="shared" si="4"/>
         <v>-</v>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -2184,11 +2184,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="40">
@@ -2344,6 +2344,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2358,9 +2382,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2368,7 +2414,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2390,30 +2458,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2427,62 +2481,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2593,55 +2593,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,7 +2629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2671,37 +2659,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,19 +2689,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2743,13 +2737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3886,8 +3886,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3909,47 +3948,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -3959,9 +3957,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3971,10 +3971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3983,16 +3983,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4001,115 +4001,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="89" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="88" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="87" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="88" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="89" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6256,7 +6256,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6334,6 +6334,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14839,7 +14846,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -19192,7 +19199,7 @@
       <formula>L4/BB4*7&lt;20</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>G1048554/AW1048554*7&lt;50</formula>
+      <formula>L4/BB4*7&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:W30">
@@ -29243,7 +29250,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="4:11">
+    <row r="12" ht="14.25" spans="4:11">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -29303,10 +29310,10 @@
     <mergeCell ref="BZ2:CE2"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:Q11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>L4/BB4*7&lt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>L4/BB4*7&lt;20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30573,10 +30580,10 @@
   </sheetData>
   <conditionalFormatting sqref="G4:G14">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>L4/N4*7&lt;20</formula>
+      <formula>G4/N4*7&lt;20</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L4/N4*7&lt;50</formula>
+      <formula>G4/N4*7&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N14">
@@ -36101,10 +36108,10 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I142">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>I4/P4*7&lt;20</formula>
+      <formula>I3/P3*7&lt;20</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>I4/P4*7&lt;50</formula>
+      <formula>I3/P3*7&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P12">
@@ -48643,12 +48650,12 @@
     <mergeCell ref="E147:E150"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L122">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>L4/S4*7&lt;20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L192">
-    <cfRule type="expression" dxfId="1" priority="85">
+    <cfRule type="expression" dxfId="11" priority="85">
       <formula>L4/S4*7&lt;50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="835"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="835" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="在庫情報（雨衣）" sheetId="41" r:id="rId1"/>
@@ -2172,12 +2172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2332,8 +2332,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2353,15 +2376,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2369,6 +2394,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2383,41 +2446,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2431,46 +2470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2581,7 +2581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,25 +2605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,7 +2617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,7 +2635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2653,13 +2659,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2671,31 +2707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2707,37 +2719,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3857,6 +3857,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3867,6 +3882,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3894,75 +3953,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3971,133 +3971,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="87" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4111,7 +4111,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4181,17 +4181,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4201,35 +4201,35 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4330,18 +4330,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4428,7 +4428,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -4603,7 +4603,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4612,7 +4612,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="13" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4621,7 +4621,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="13" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4630,7 +4630,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="13" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4651,31 +4651,31 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="13" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4696,7 +4696,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="13" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4723,7 +4723,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4732,7 +4732,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4741,7 +4741,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4750,7 +4750,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4759,7 +4759,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4771,7 +4771,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4783,43 +4783,43 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4828,7 +4828,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4969,25 +4969,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="13" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="13" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="13" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="13" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4996,7 +4996,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="13" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="13" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5005,13 +5005,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="13" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="13" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5023,16 +5023,16 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5080,7 +5080,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5155,13 +5155,13 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5307,7 +5307,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5316,7 +5316,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5325,7 +5325,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5334,7 +5334,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5343,7 +5343,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5451,19 +5451,19 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5650,37 +5650,37 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6140,10 +6140,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6152,10 +6152,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6167,22 +6167,22 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6191,46 +6191,46 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14712,12 +14712,12 @@
   </sheetPr>
   <dimension ref="A1:CE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -19151,8 +19151,8 @@
   </sheetPr>
   <dimension ref="B1:M193"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -19368,11 +19368,11 @@
         <v>393</v>
       </c>
       <c r="J8" s="58">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="K8" s="58">
         <f t="shared" ref="K8:K74" si="1">J8+0.2</f>
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="L8" s="59">
         <f>'在庫情報（袜子）'!U8</f>
@@ -19401,11 +19401,11 @@
         <v>393</v>
       </c>
       <c r="J9" s="50">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="K9" s="50">
         <f t="shared" si="1"/>
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="L9" s="51">
         <f>'在庫情報（袜子）'!U9</f>
@@ -19434,11 +19434,11 @@
         <v>393</v>
       </c>
       <c r="J10" s="50">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="K10" s="50">
         <f t="shared" si="1"/>
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="L10" s="51">
         <f>'在庫情報（袜子）'!U10</f>
@@ -19467,11 +19467,11 @@
         <v>393</v>
       </c>
       <c r="J11" s="54">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="K11" s="54">
         <f t="shared" si="1"/>
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="L11" s="55">
         <f>'在庫情報（袜子）'!U11</f>
@@ -19506,11 +19506,11 @@
         <v>380</v>
       </c>
       <c r="J12" s="58">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K12" s="58">
         <f t="shared" si="1"/>
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="L12" s="59">
         <f>'在庫情報（袜子）'!U12</f>
@@ -19539,11 +19539,11 @@
         <v>380</v>
       </c>
       <c r="J13" s="50">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K13" s="50">
         <f t="shared" si="1"/>
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="L13" s="51">
         <f>'在庫情報（袜子）'!U13</f>
@@ -19572,11 +19572,11 @@
         <v>380</v>
       </c>
       <c r="J14" s="54">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K14" s="54">
         <f t="shared" si="1"/>
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="L14" s="55">
         <f>'在庫情報（袜子）'!U14</f>
@@ -19749,11 +19749,11 @@
         <v>380</v>
       </c>
       <c r="J19" s="58">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K19" s="58">
         <f t="shared" si="1"/>
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="L19" s="59">
         <f>'在庫情報（袜子）'!U19</f>
@@ -19782,11 +19782,11 @@
         <v>380</v>
       </c>
       <c r="J20" s="50">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K20" s="50">
         <f t="shared" si="1"/>
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="L20" s="51">
         <f>'在庫情報（袜子）'!U20</f>
@@ -19815,11 +19815,11 @@
         <v>393</v>
       </c>
       <c r="J21" s="54">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K21" s="54">
         <f t="shared" si="1"/>
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="L21" s="55">
         <f>'在庫情報（袜子）'!U21</f>
@@ -21178,11 +21178,11 @@
         <v>380</v>
       </c>
       <c r="J60" s="58">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="K60" s="58">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="L60" s="59">
         <f>'在庫情報（袜子）'!U60</f>
@@ -21211,11 +21211,11 @@
         <v>380</v>
       </c>
       <c r="J61" s="50">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="K61" s="50">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="L61" s="51">
         <f>'在庫情報（袜子）'!U61</f>
@@ -21244,11 +21244,11 @@
         <v>380</v>
       </c>
       <c r="J62" s="50">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="K62" s="50">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="L62" s="51">
         <f>'在庫情報（袜子）'!U62</f>
@@ -21277,11 +21277,11 @@
         <v>393</v>
       </c>
       <c r="J63" s="50">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="K63" s="50">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="L63" s="51">
         <f>'在庫情報（袜子）'!U63</f>
@@ -21310,11 +21310,11 @@
         <v>393</v>
       </c>
       <c r="J64" s="54">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="K64" s="54">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="L64" s="55">
         <f>'在庫情報（袜子）'!U64</f>
@@ -21697,7 +21697,7 @@
         <v>393</v>
       </c>
       <c r="J75" s="160">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="K75" s="160">
         <v>13.2</v>
@@ -21729,7 +21729,7 @@
         <v>393</v>
       </c>
       <c r="J76" s="161">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="K76" s="161">
         <v>13.2</v>
@@ -21761,7 +21761,7 @@
         <v>393</v>
       </c>
       <c r="J77" s="165">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="K77" s="165">
         <v>13.2</v>
@@ -31039,11 +31039,11 @@
       </c>
       <c r="R3" s="513"/>
       <c r="S3" s="529">
-        <f>Q3+R3</f>
+        <f t="shared" ref="S3:S56" si="0">Q3+R3</f>
         <v>0</v>
       </c>
       <c r="T3" s="530" t="str">
-        <f>IF(P3&lt;&gt;0,S3/P3*7,"-")</f>
+        <f t="shared" ref="T3:T56" si="1">IF(P3&lt;&gt;0,S3/P3*7,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -31073,11 +31073,11 @@
       </c>
       <c r="R4" s="516"/>
       <c r="S4" s="532">
-        <f>Q4+R4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4" s="533" t="str">
-        <f>IF(P4&lt;&gt;0,S4/P4*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31107,11 +31107,11 @@
       </c>
       <c r="R5" s="516"/>
       <c r="S5" s="532">
-        <f>Q5+R5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T5" s="533" t="str">
-        <f>IF(P5&lt;&gt;0,S5/P5*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31141,11 +31141,11 @@
       </c>
       <c r="R6" s="516"/>
       <c r="S6" s="532">
-        <f>Q6+R6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T6" s="533" t="str">
-        <f>IF(P6&lt;&gt;0,S6/P6*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31175,11 +31175,11 @@
       </c>
       <c r="R7" s="516"/>
       <c r="S7" s="532">
-        <f>Q7+R7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T7" s="533" t="str">
-        <f>IF(P7&lt;&gt;0,S7/P7*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31209,11 +31209,11 @@
       </c>
       <c r="R8" s="516"/>
       <c r="S8" s="532">
-        <f>Q8+R8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T8" s="533" t="str">
-        <f>IF(P8&lt;&gt;0,S8/P8*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31243,11 +31243,11 @@
       </c>
       <c r="R9" s="519"/>
       <c r="S9" s="535">
-        <f>Q9+R9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T9" s="536" t="str">
-        <f>IF(P9&lt;&gt;0,S9/P9*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31279,11 +31279,11 @@
       </c>
       <c r="R10" s="522"/>
       <c r="S10" s="538">
-        <f>Q10+R10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T10" s="539" t="str">
-        <f>IF(P10&lt;&gt;0,S10/P10*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31313,11 +31313,11 @@
       </c>
       <c r="R11" s="516"/>
       <c r="S11" s="532">
-        <f>Q11+R11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T11" s="533" t="str">
-        <f>IF(P11&lt;&gt;0,S11/P11*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31347,11 +31347,11 @@
       </c>
       <c r="R12" s="516"/>
       <c r="S12" s="532">
-        <f>Q12+R12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T12" s="533" t="str">
-        <f>IF(P12&lt;&gt;0,S12/P12*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31381,11 +31381,11 @@
       </c>
       <c r="R13" s="516"/>
       <c r="S13" s="532">
-        <f>Q13+R13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T13" s="533" t="str">
-        <f>IF(P13&lt;&gt;0,S13/P13*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31415,11 +31415,11 @@
       </c>
       <c r="R14" s="516"/>
       <c r="S14" s="532">
-        <f>Q14+R14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T14" s="533" t="str">
-        <f>IF(P14&lt;&gt;0,S14/P14*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31449,11 +31449,11 @@
       </c>
       <c r="R15" s="516"/>
       <c r="S15" s="532">
-        <f>Q15+R15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T15" s="533" t="str">
-        <f>IF(P15&lt;&gt;0,S15/P15*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31483,11 +31483,11 @@
       </c>
       <c r="R16" s="519"/>
       <c r="S16" s="535">
-        <f>Q16+R16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T16" s="536" t="str">
-        <f>IF(P16&lt;&gt;0,S16/P16*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31519,11 +31519,11 @@
       </c>
       <c r="R17" s="522"/>
       <c r="S17" s="538">
-        <f>Q17+R17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T17" s="539" t="str">
-        <f>IF(P17&lt;&gt;0,S17/P17*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31553,11 +31553,11 @@
       </c>
       <c r="R18" s="516"/>
       <c r="S18" s="532">
-        <f>Q18+R18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T18" s="533" t="str">
-        <f>IF(P18&lt;&gt;0,S18/P18*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31587,11 +31587,11 @@
       </c>
       <c r="R19" s="516"/>
       <c r="S19" s="532">
-        <f>Q19+R19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T19" s="533" t="str">
-        <f>IF(P19&lt;&gt;0,S19/P19*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31621,11 +31621,11 @@
       </c>
       <c r="R20" s="516"/>
       <c r="S20" s="532">
-        <f>Q20+R20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T20" s="533" t="str">
-        <f>IF(P20&lt;&gt;0,S20/P20*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31655,11 +31655,11 @@
       </c>
       <c r="R21" s="516"/>
       <c r="S21" s="532">
-        <f>Q21+R21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T21" s="533" t="str">
-        <f>IF(P21&lt;&gt;0,S21/P21*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31689,11 +31689,11 @@
       </c>
       <c r="R22" s="516"/>
       <c r="S22" s="532">
-        <f>Q22+R22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T22" s="533" t="str">
-        <f>IF(P22&lt;&gt;0,S22/P22*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31723,11 +31723,11 @@
       </c>
       <c r="R23" s="525"/>
       <c r="S23" s="541">
-        <f>Q23+R23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T23" s="542" t="str">
-        <f>IF(P23&lt;&gt;0,S23/P23*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31765,11 +31765,11 @@
       </c>
       <c r="R24" s="513"/>
       <c r="S24" s="529">
-        <f>Q24+R24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T24" s="530" t="str">
-        <f>IF(P24&lt;&gt;0,S24/P24*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31801,11 +31801,11 @@
       </c>
       <c r="R25" s="516"/>
       <c r="S25" s="532">
-        <f>Q25+R25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T25" s="533" t="str">
-        <f>IF(P25&lt;&gt;0,S25/P25*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31837,11 +31837,11 @@
       </c>
       <c r="R26" s="516"/>
       <c r="S26" s="532">
-        <f>Q26+R26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T26" s="533" t="str">
-        <f>IF(P26&lt;&gt;0,S26/P26*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31873,11 +31873,11 @@
       </c>
       <c r="R27" s="516"/>
       <c r="S27" s="532">
-        <f>Q27+R27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T27" s="533" t="str">
-        <f>IF(P27&lt;&gt;0,S27/P27*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31909,11 +31909,11 @@
       </c>
       <c r="R28" s="516"/>
       <c r="S28" s="532">
-        <f>Q28+R28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T28" s="533" t="str">
-        <f>IF(P28&lt;&gt;0,S28/P28*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31945,11 +31945,11 @@
       </c>
       <c r="R29" s="516"/>
       <c r="S29" s="532">
-        <f>Q29+R29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T29" s="533" t="str">
-        <f>IF(P29&lt;&gt;0,S29/P29*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -31981,11 +31981,11 @@
       </c>
       <c r="R30" s="525"/>
       <c r="S30" s="541">
-        <f>Q30+R30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T30" s="542" t="str">
-        <f>IF(P30&lt;&gt;0,S30/P30*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32021,11 +32021,11 @@
       </c>
       <c r="R31" s="513"/>
       <c r="S31" s="529">
-        <f>Q31+R31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T31" s="530" t="str">
-        <f>IF(P31&lt;&gt;0,S31/P31*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32057,11 +32057,11 @@
       </c>
       <c r="R32" s="516"/>
       <c r="S32" s="532">
-        <f>Q32+R32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T32" s="533" t="str">
-        <f>IF(P32&lt;&gt;0,S32/P32*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32093,11 +32093,11 @@
       </c>
       <c r="R33" s="516"/>
       <c r="S33" s="532">
-        <f>Q33+R33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T33" s="533" t="str">
-        <f>IF(P33&lt;&gt;0,S33/P33*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32129,11 +32129,11 @@
       </c>
       <c r="R34" s="516"/>
       <c r="S34" s="532">
-        <f>Q34+R34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T34" s="533" t="str">
-        <f>IF(P34&lt;&gt;0,S34/P34*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32165,11 +32165,11 @@
       </c>
       <c r="R35" s="516"/>
       <c r="S35" s="532">
-        <f>Q35+R35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T35" s="533" t="str">
-        <f>IF(P35&lt;&gt;0,S35/P35*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32201,11 +32201,11 @@
       </c>
       <c r="R36" s="516"/>
       <c r="S36" s="532">
-        <f>Q36+R36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T36" s="533" t="str">
-        <f>IF(P36&lt;&gt;0,S36/P36*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32237,11 +32237,11 @@
       </c>
       <c r="R37" s="525"/>
       <c r="S37" s="541">
-        <f>Q37+R37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T37" s="542" t="str">
-        <f>IF(P37&lt;&gt;0,S37/P37*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32279,11 +32279,11 @@
       </c>
       <c r="R38" s="513"/>
       <c r="S38" s="529">
-        <f>Q38+R38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T38" s="530" t="str">
-        <f>IF(P38&lt;&gt;0,S38/P38*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32315,11 +32315,11 @@
       </c>
       <c r="R39" s="516"/>
       <c r="S39" s="532">
-        <f>Q39+R39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T39" s="533" t="str">
-        <f>IF(P39&lt;&gt;0,S39/P39*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32351,11 +32351,11 @@
       </c>
       <c r="R40" s="516"/>
       <c r="S40" s="532">
-        <f>Q40+R40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T40" s="533" t="str">
-        <f>IF(P40&lt;&gt;0,S40/P40*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32387,11 +32387,11 @@
       </c>
       <c r="R41" s="516"/>
       <c r="S41" s="532">
-        <f>Q41+R41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T41" s="533" t="str">
-        <f>IF(P41&lt;&gt;0,S41/P41*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32423,11 +32423,11 @@
       </c>
       <c r="R42" s="516"/>
       <c r="S42" s="532">
-        <f>Q42+R42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T42" s="533" t="str">
-        <f>IF(P42&lt;&gt;0,S42/P42*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32459,11 +32459,11 @@
       </c>
       <c r="R43" s="516"/>
       <c r="S43" s="532">
-        <f>Q43+R43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T43" s="533" t="str">
-        <f>IF(P43&lt;&gt;0,S43/P43*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32495,11 +32495,11 @@
       </c>
       <c r="R44" s="519"/>
       <c r="S44" s="535">
-        <f>Q44+R44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T44" s="536" t="str">
-        <f>IF(P44&lt;&gt;0,S44/P44*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32535,11 +32535,11 @@
       </c>
       <c r="R45" s="522"/>
       <c r="S45" s="538">
-        <f>Q45+R45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T45" s="539" t="str">
-        <f>IF(P45&lt;&gt;0,S45/P45*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32571,11 +32571,11 @@
       </c>
       <c r="R46" s="516"/>
       <c r="S46" s="532">
-        <f>Q46+R46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T46" s="533" t="str">
-        <f>IF(P46&lt;&gt;0,S46/P46*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32607,11 +32607,11 @@
       </c>
       <c r="R47" s="516"/>
       <c r="S47" s="532">
-        <f>Q47+R47</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T47" s="533" t="str">
-        <f>IF(P47&lt;&gt;0,S47/P47*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32643,11 +32643,11 @@
       </c>
       <c r="R48" s="516"/>
       <c r="S48" s="532">
-        <f>Q48+R48</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T48" s="533" t="str">
-        <f>IF(P48&lt;&gt;0,S48/P48*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32679,11 +32679,11 @@
       </c>
       <c r="R49" s="516"/>
       <c r="S49" s="532">
-        <f>Q49+R49</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T49" s="533" t="str">
-        <f>IF(P49&lt;&gt;0,S49/P49*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32715,11 +32715,11 @@
       </c>
       <c r="R50" s="516"/>
       <c r="S50" s="532">
-        <f>Q50+R50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T50" s="533" t="str">
-        <f>IF(P50&lt;&gt;0,S50/P50*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32751,11 +32751,11 @@
       </c>
       <c r="R51" s="519"/>
       <c r="S51" s="535">
-        <f>Q51+R51</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T51" s="536" t="str">
-        <f>IF(P51&lt;&gt;0,S51/P51*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32791,11 +32791,11 @@
       </c>
       <c r="R52" s="513"/>
       <c r="S52" s="529">
-        <f>Q52+R52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T52" s="530" t="str">
-        <f>IF(P52&lt;&gt;0,S52/P52*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32827,11 +32827,11 @@
       </c>
       <c r="R53" s="516"/>
       <c r="S53" s="532">
-        <f>Q53+R53</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T53" s="533" t="str">
-        <f>IF(P53&lt;&gt;0,S53/P53*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32863,11 +32863,11 @@
       </c>
       <c r="R54" s="516"/>
       <c r="S54" s="532">
-        <f>Q54+R54</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T54" s="533" t="str">
-        <f>IF(P54&lt;&gt;0,S54/P54*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32899,11 +32899,11 @@
       </c>
       <c r="R55" s="516"/>
       <c r="S55" s="532">
-        <f>Q55+R55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T55" s="533" t="str">
-        <f>IF(P55&lt;&gt;0,S55/P55*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32935,11 +32935,11 @@
       </c>
       <c r="R56" s="516"/>
       <c r="S56" s="532">
-        <f>Q56+R56</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T56" s="533" t="str">
-        <f>IF(P56&lt;&gt;0,S56/P56*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -32971,11 +32971,11 @@
       </c>
       <c r="R57" s="516"/>
       <c r="S57" s="532">
-        <f t="shared" ref="S57:S58" si="0">Q57+R57</f>
+        <f t="shared" ref="S57:S86" si="2">Q57+R57</f>
         <v>0</v>
       </c>
       <c r="T57" s="533" t="str">
-        <f t="shared" ref="T57:T58" si="1">IF(P57&lt;&gt;0,S57/P57*7,"-")</f>
+        <f t="shared" ref="T57:T86" si="3">IF(P57&lt;&gt;0,S57/P57*7,"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -33007,11 +33007,11 @@
       </c>
       <c r="R58" s="525"/>
       <c r="S58" s="541">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T58" s="542" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33047,11 +33047,11 @@
       </c>
       <c r="R59" s="513"/>
       <c r="S59" s="529">
-        <f>Q59+R59</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T59" s="530" t="str">
-        <f>IF(P59&lt;&gt;0,S59/P59*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33083,11 +33083,11 @@
       </c>
       <c r="R60" s="516"/>
       <c r="S60" s="532">
-        <f>Q60+R60</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T60" s="533" t="str">
-        <f>IF(P60&lt;&gt;0,S60/P60*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33119,11 +33119,11 @@
       </c>
       <c r="R61" s="516"/>
       <c r="S61" s="532">
-        <f>Q61+R61</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T61" s="533" t="str">
-        <f>IF(P61&lt;&gt;0,S61/P61*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33155,11 +33155,11 @@
       </c>
       <c r="R62" s="516"/>
       <c r="S62" s="532">
-        <f>Q62+R62</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T62" s="533" t="str">
-        <f>IF(P62&lt;&gt;0,S62/P62*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33191,11 +33191,11 @@
       </c>
       <c r="R63" s="516"/>
       <c r="S63" s="532">
-        <f>Q63+R63</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T63" s="533" t="str">
-        <f>IF(P63&lt;&gt;0,S63/P63*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33227,11 +33227,11 @@
       </c>
       <c r="R64" s="516"/>
       <c r="S64" s="532">
-        <f>Q64+R64</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T64" s="533" t="str">
-        <f>IF(P64&lt;&gt;0,S64/P64*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33263,11 +33263,11 @@
       </c>
       <c r="R65" s="519"/>
       <c r="S65" s="535">
-        <f>Q65+R65</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T65" s="536" t="str">
-        <f>IF(P65&lt;&gt;0,S65/P65*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33301,11 +33301,11 @@
       </c>
       <c r="R66" s="522"/>
       <c r="S66" s="538">
-        <f>Q66+R66</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T66" s="539" t="str">
-        <f>IF(P66&lt;&gt;0,S66/P66*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33337,11 +33337,11 @@
       </c>
       <c r="R67" s="516"/>
       <c r="S67" s="532">
-        <f>Q67+R67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T67" s="533" t="str">
-        <f>IF(P67&lt;&gt;0,S67/P67*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33373,11 +33373,11 @@
       </c>
       <c r="R68" s="516"/>
       <c r="S68" s="532">
-        <f>Q68+R68</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T68" s="533" t="str">
-        <f>IF(P68&lt;&gt;0,S68/P68*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33409,11 +33409,11 @@
       </c>
       <c r="R69" s="516"/>
       <c r="S69" s="532">
-        <f>Q69+R69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T69" s="533" t="str">
-        <f>IF(P69&lt;&gt;0,S69/P69*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33445,11 +33445,11 @@
       </c>
       <c r="R70" s="516"/>
       <c r="S70" s="532">
-        <f>Q70+R70</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T70" s="533" t="str">
-        <f>IF(P70&lt;&gt;0,S70/P70*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33481,11 +33481,11 @@
       </c>
       <c r="R71" s="516"/>
       <c r="S71" s="532">
-        <f>Q71+R71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T71" s="533" t="str">
-        <f>IF(P71&lt;&gt;0,S71/P71*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33517,11 +33517,11 @@
       </c>
       <c r="R72" s="519"/>
       <c r="S72" s="535">
-        <f>Q72+R72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T72" s="536" t="str">
-        <f>IF(P72&lt;&gt;0,S72/P72*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33555,11 +33555,11 @@
       </c>
       <c r="R73" s="522"/>
       <c r="S73" s="538">
-        <f>Q73+R73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T73" s="539" t="str">
-        <f>IF(P73&lt;&gt;0,S73/P73*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33591,11 +33591,11 @@
       </c>
       <c r="R74" s="516"/>
       <c r="S74" s="532">
-        <f>Q74+R74</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T74" s="533" t="str">
-        <f>IF(P74&lt;&gt;0,S74/P74*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33627,11 +33627,11 @@
       </c>
       <c r="R75" s="516"/>
       <c r="S75" s="532">
-        <f>Q75+R75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T75" s="533" t="str">
-        <f>IF(P75&lt;&gt;0,S75/P75*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33663,11 +33663,11 @@
       </c>
       <c r="R76" s="516"/>
       <c r="S76" s="532">
-        <f>Q76+R76</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T76" s="533" t="str">
-        <f>IF(P76&lt;&gt;0,S76/P76*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33699,11 +33699,11 @@
       </c>
       <c r="R77" s="516"/>
       <c r="S77" s="532">
-        <f>Q77+R77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T77" s="533" t="str">
-        <f>IF(P77&lt;&gt;0,S77/P77*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33735,11 +33735,11 @@
       </c>
       <c r="R78" s="516"/>
       <c r="S78" s="532">
-        <f>Q78+R78</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T78" s="533" t="str">
-        <f>IF(P78&lt;&gt;0,S78/P78*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33771,11 +33771,11 @@
       </c>
       <c r="R79" s="519"/>
       <c r="S79" s="535">
-        <f>Q79+R79</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T79" s="536" t="str">
-        <f>IF(P79&lt;&gt;0,S79/P79*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33809,11 +33809,11 @@
       </c>
       <c r="R80" s="522"/>
       <c r="S80" s="538">
-        <f>Q80+R80</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T80" s="539" t="str">
-        <f>IF(P80&lt;&gt;0,S80/P80*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33845,11 +33845,11 @@
       </c>
       <c r="R81" s="516"/>
       <c r="S81" s="532">
-        <f>Q81+R81</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T81" s="533" t="str">
-        <f>IF(P81&lt;&gt;0,S81/P81*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33881,11 +33881,11 @@
       </c>
       <c r="R82" s="516"/>
       <c r="S82" s="532">
-        <f>Q82+R82</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T82" s="533" t="str">
-        <f>IF(P82&lt;&gt;0,S82/P82*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33917,11 +33917,11 @@
       </c>
       <c r="R83" s="516"/>
       <c r="S83" s="532">
-        <f>Q83+R83</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T83" s="533" t="str">
-        <f>IF(P83&lt;&gt;0,S83/P83*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33953,11 +33953,11 @@
       </c>
       <c r="R84" s="516"/>
       <c r="S84" s="532">
-        <f>Q84+R84</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T84" s="533" t="str">
-        <f>IF(P84&lt;&gt;0,S84/P84*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -33989,11 +33989,11 @@
       </c>
       <c r="R85" s="516"/>
       <c r="S85" s="532">
-        <f>Q85+R85</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T85" s="533" t="str">
-        <f>IF(P85&lt;&gt;0,S85/P85*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -34025,11 +34025,11 @@
       </c>
       <c r="R86" s="525"/>
       <c r="S86" s="541">
-        <f>Q86+R86</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T86" s="542" t="str">
-        <f>IF(P86&lt;&gt;0,S86/P86*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -34545,7 +34545,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="494">
-        <f>I3*J3</f>
+        <f t="shared" ref="K3:K57" si="0">I3*J3</f>
         <v>0</v>
       </c>
     </row>
@@ -34569,7 +34569,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="497">
-        <f>I4*J4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34593,7 +34593,7 @@
         <v>34</v>
       </c>
       <c r="K5" s="497">
-        <f>I5*J5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34617,7 +34617,7 @@
         <v>34</v>
       </c>
       <c r="K6" s="497">
-        <f>I6*J6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34641,7 +34641,7 @@
         <v>34</v>
       </c>
       <c r="K7" s="497">
-        <f>I7*J7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34665,7 +34665,7 @@
         <v>34</v>
       </c>
       <c r="K8" s="497">
-        <f>I8*J8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34689,7 +34689,7 @@
         <v>34</v>
       </c>
       <c r="K9" s="500">
-        <f>I9*J9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34715,7 +34715,7 @@
         <v>34</v>
       </c>
       <c r="K10" s="503">
-        <f>I10*J10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34739,7 +34739,7 @@
         <v>34</v>
       </c>
       <c r="K11" s="497">
-        <f>I11*J11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34763,7 +34763,7 @@
         <v>34</v>
       </c>
       <c r="K12" s="497">
-        <f>I12*J12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34787,7 +34787,7 @@
         <v>34</v>
       </c>
       <c r="K13" s="497">
-        <f>I13*J13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
         <v>34</v>
       </c>
       <c r="K14" s="497">
-        <f>I14*J14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34835,7 +34835,7 @@
         <v>34</v>
       </c>
       <c r="K15" s="497">
-        <f>I15*J15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34859,7 +34859,7 @@
         <v>34</v>
       </c>
       <c r="K16" s="500">
-        <f>I16*J16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34885,7 +34885,7 @@
         <v>34</v>
       </c>
       <c r="K17" s="503">
-        <f>I17*J17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34909,7 +34909,7 @@
         <v>34</v>
       </c>
       <c r="K18" s="497">
-        <f>I18*J18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34933,7 +34933,7 @@
         <v>34</v>
       </c>
       <c r="K19" s="497">
-        <f>I19*J19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34957,7 +34957,7 @@
         <v>34</v>
       </c>
       <c r="K20" s="497">
-        <f>I20*J20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -34981,7 +34981,7 @@
         <v>34</v>
       </c>
       <c r="K21" s="497">
-        <f>I21*J21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35005,7 +35005,7 @@
         <v>34</v>
       </c>
       <c r="K22" s="497">
-        <f>I22*J22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35029,7 +35029,7 @@
         <v>34</v>
       </c>
       <c r="K23" s="506">
-        <f>I23*J23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35061,7 +35061,7 @@
         <v>36</v>
       </c>
       <c r="K24" s="494">
-        <f>I24*J24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35087,7 +35087,7 @@
         <v>36</v>
       </c>
       <c r="K25" s="497">
-        <f>I25*J25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35113,7 +35113,7 @@
         <v>36</v>
       </c>
       <c r="K26" s="497">
-        <f>I26*J26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35139,7 +35139,7 @@
         <v>36</v>
       </c>
       <c r="K27" s="497">
-        <f>I27*J27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35165,7 +35165,7 @@
         <v>36</v>
       </c>
       <c r="K28" s="497">
-        <f>I28*J28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35191,7 +35191,7 @@
         <v>36</v>
       </c>
       <c r="K29" s="497">
-        <f>I29*J29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35217,7 +35217,7 @@
         <v>36</v>
       </c>
       <c r="K30" s="506">
-        <f>I30*J30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35247,7 +35247,7 @@
         <v>36</v>
       </c>
       <c r="K31" s="494">
-        <f>I31*J31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35273,7 +35273,7 @@
         <v>36</v>
       </c>
       <c r="K32" s="497">
-        <f>I32*J32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35299,7 +35299,7 @@
         <v>36</v>
       </c>
       <c r="K33" s="497">
-        <f>I33*J33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35325,7 +35325,7 @@
         <v>36</v>
       </c>
       <c r="K34" s="497">
-        <f>I34*J34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35351,7 +35351,7 @@
         <v>36</v>
       </c>
       <c r="K35" s="497">
-        <f>I35*J35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35377,7 +35377,7 @@
         <v>36</v>
       </c>
       <c r="K36" s="497">
-        <f>I36*J36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35403,7 +35403,7 @@
         <v>36</v>
       </c>
       <c r="K37" s="506">
-        <f>I37*J37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35435,7 +35435,7 @@
         <v>38</v>
       </c>
       <c r="K38" s="494">
-        <f>I38*J38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35461,7 +35461,7 @@
         <v>38</v>
       </c>
       <c r="K39" s="497">
-        <f>I39*J39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35487,7 +35487,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="497">
-        <f>I40*J40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35513,7 +35513,7 @@
         <v>38</v>
       </c>
       <c r="K41" s="497">
-        <f>I41*J41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35539,7 +35539,7 @@
         <v>38</v>
       </c>
       <c r="K42" s="497">
-        <f>I42*J42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35565,7 +35565,7 @@
         <v>38</v>
       </c>
       <c r="K43" s="497">
-        <f>I43*J43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35591,7 +35591,7 @@
         <v>38</v>
       </c>
       <c r="K44" s="500">
-        <f>I44*J44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35621,7 +35621,7 @@
         <v>38</v>
       </c>
       <c r="K45" s="503">
-        <f>I45*J45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35647,7 +35647,7 @@
         <v>38</v>
       </c>
       <c r="K46" s="497">
-        <f>I46*J46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35673,7 +35673,7 @@
         <v>38</v>
       </c>
       <c r="K47" s="497">
-        <f>I47*J47</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35699,7 +35699,7 @@
         <v>38</v>
       </c>
       <c r="K48" s="497">
-        <f>I48*J48</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35725,7 +35725,7 @@
         <v>38</v>
       </c>
       <c r="K49" s="497">
-        <f>I49*J49</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35751,7 +35751,7 @@
         <v>38</v>
       </c>
       <c r="K50" s="497">
-        <f>I50*J50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35777,7 +35777,7 @@
         <v>38</v>
       </c>
       <c r="K51" s="500">
-        <f>I51*J51</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35807,7 +35807,7 @@
         <v>36</v>
       </c>
       <c r="K52" s="494">
-        <f>I52*J52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35833,7 +35833,7 @@
         <v>36</v>
       </c>
       <c r="K53" s="497">
-        <f>I53*J53</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35859,7 +35859,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="497">
-        <f>I54*J54</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35885,7 +35885,7 @@
         <v>36</v>
       </c>
       <c r="K55" s="497">
-        <f>I55*J55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35911,7 +35911,7 @@
         <v>36</v>
       </c>
       <c r="K56" s="497">
-        <f>I56*J56</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35937,7 +35937,7 @@
         <v>36</v>
       </c>
       <c r="K57" s="497">
-        <f>I57*J57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35963,7 +35963,7 @@
         <v>36</v>
       </c>
       <c r="K58" s="506">
-        <f t="shared" ref="K58" si="0">I58*J58</f>
+        <f t="shared" ref="K58:K86" si="1">I58*J58</f>
         <v>0</v>
       </c>
     </row>
@@ -35993,7 +35993,7 @@
         <v>36</v>
       </c>
       <c r="K59" s="494">
-        <f>I59*J59</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36019,7 +36019,7 @@
         <v>36</v>
       </c>
       <c r="K60" s="497">
-        <f>I60*J60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36045,7 +36045,7 @@
         <v>36</v>
       </c>
       <c r="K61" s="497">
-        <f>I61*J61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36071,7 +36071,7 @@
         <v>36</v>
       </c>
       <c r="K62" s="497">
-        <f>I62*J62</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36097,7 +36097,7 @@
         <v>36</v>
       </c>
       <c r="K63" s="497">
-        <f>I63*J63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36123,7 +36123,7 @@
         <v>36</v>
       </c>
       <c r="K64" s="497">
-        <f>I64*J64</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36149,7 +36149,7 @@
         <v>36</v>
       </c>
       <c r="K65" s="500">
-        <f>I65*J65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36177,7 +36177,7 @@
         <v>36</v>
       </c>
       <c r="K66" s="503">
-        <f>I66*J66</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36203,7 +36203,7 @@
         <v>36</v>
       </c>
       <c r="K67" s="497">
-        <f>I67*J67</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36229,7 +36229,7 @@
         <v>36</v>
       </c>
       <c r="K68" s="497">
-        <f>I68*J68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36255,7 +36255,7 @@
         <v>36</v>
       </c>
       <c r="K69" s="497">
-        <f>I69*J69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36281,7 +36281,7 @@
         <v>36</v>
       </c>
       <c r="K70" s="497">
-        <f>I70*J70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36307,7 +36307,7 @@
         <v>36</v>
       </c>
       <c r="K71" s="497">
-        <f>I71*J71</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36333,7 +36333,7 @@
         <v>36</v>
       </c>
       <c r="K72" s="500">
-        <f>I72*J72</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36361,7 +36361,7 @@
         <v>36</v>
       </c>
       <c r="K73" s="503">
-        <f>I73*J73</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36387,7 +36387,7 @@
         <v>36</v>
       </c>
       <c r="K74" s="497">
-        <f>I74*J74</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36413,7 +36413,7 @@
         <v>36</v>
       </c>
       <c r="K75" s="497">
-        <f>I75*J75</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36439,7 +36439,7 @@
         <v>36</v>
       </c>
       <c r="K76" s="497">
-        <f>I76*J76</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36465,7 +36465,7 @@
         <v>36</v>
       </c>
       <c r="K77" s="497">
-        <f>I77*J77</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36491,7 +36491,7 @@
         <v>36</v>
       </c>
       <c r="K78" s="497">
-        <f>I78*J78</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36517,7 +36517,7 @@
         <v>36</v>
       </c>
       <c r="K79" s="500">
-        <f>I79*J79</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36545,7 +36545,7 @@
         <v>36</v>
       </c>
       <c r="K80" s="503">
-        <f>I80*J80</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36571,7 +36571,7 @@
         <v>36</v>
       </c>
       <c r="K81" s="497">
-        <f>I81*J81</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36597,7 +36597,7 @@
         <v>36</v>
       </c>
       <c r="K82" s="497">
-        <f>I82*J82</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36623,7 +36623,7 @@
         <v>36</v>
       </c>
       <c r="K83" s="497">
-        <f>I83*J83</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36649,7 +36649,7 @@
         <v>36</v>
       </c>
       <c r="K84" s="497">
-        <f>I84*J84</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36675,7 +36675,7 @@
         <v>36</v>
       </c>
       <c r="K85" s="497">
-        <f>I85*J85</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -36701,7 +36701,7 @@
         <v>36</v>
       </c>
       <c r="K86" s="506">
-        <f>I86*J86</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -10557,7 +10557,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
     <dxf>
       <font>
         <color theme="0"/>
@@ -10638,13 +10638,57 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9BFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF69FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="0066FF66"/>
-      <color rgb="0099FF99"/>
-      <color rgb="00CCFFCC"/>
       <color rgb="000000FF"/>
       <color rgb="00FF99FF"/>
       <color rgb="00FFCCFF"/>
@@ -10652,6 +10696,9 @@
       <color rgb="00FF66FF"/>
       <color rgb="00FF5050"/>
       <color rgb="00FFFFCC"/>
+      <color rgb="00FF9BFF"/>
+      <color rgb="00FFCDFF"/>
+      <color rgb="00FF69FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -24015,7 +24062,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="4:11">
+    <row r="37" ht="14.25" spans="4:11">
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -61364,9 +61411,9 @@
   <dimension ref="A1:V174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -61490,11 +61537,11 @@
       </c>
       <c r="S4" s="45"/>
       <c r="T4" s="45">
-        <f>R4+S4</f>
+        <f t="shared" ref="T4:T15" si="0">R4+S4</f>
         <v>0</v>
       </c>
       <c r="U4" s="33" t="str">
-        <f>IF(Q4&gt;0,T4/Q4*7,"-")</f>
+        <f t="shared" ref="U4:U15" si="1">IF(Q4&gt;0,T4/Q4*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V4" s="46"/>
@@ -61532,11 +61579,11 @@
       </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45">
-        <f>R5+S5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U5" s="33" t="str">
-        <f>IF(Q5&gt;0,T5/Q5*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V5" s="46"/>
@@ -61574,11 +61621,11 @@
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="45">
-        <f>R6+S6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U6" s="33" t="str">
-        <f>IF(Q6&gt;0,T6/Q6*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V6" s="46"/>
@@ -61616,11 +61663,11 @@
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="45">
-        <f>R7+S7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7" s="33" t="str">
-        <f>IF(Q7&gt;0,T7/Q7*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V7" s="46"/>
@@ -61658,11 +61705,11 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="45">
-        <f>R8+S8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U8" s="33" t="str">
-        <f>IF(Q8&gt;0,T8/Q8*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V8" s="46"/>
@@ -61700,11 +61747,11 @@
       </c>
       <c r="S9" s="334"/>
       <c r="T9" s="334">
-        <f>R9+S9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U9" s="36" t="str">
-        <f>IF(Q9&gt;0,T9/Q9*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V9" s="47"/>
@@ -61740,11 +61787,11 @@
       </c>
       <c r="S10" s="337"/>
       <c r="T10" s="337">
-        <f>R10+S10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10" s="323" t="str">
-        <f>IF(Q10&gt;0,T10/Q10*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V10" s="338"/>
@@ -61780,11 +61827,11 @@
       </c>
       <c r="S11" s="45"/>
       <c r="T11" s="45">
-        <f>R11+S11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U11" s="33" t="str">
-        <f>IF(Q11&gt;0,T11/Q11*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V11" s="46"/>
@@ -61820,11 +61867,11 @@
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="45">
-        <f>R12+S12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U12" s="33" t="str">
-        <f>IF(Q12&gt;0,T12/Q12*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V12" s="46"/>
@@ -61862,11 +61909,11 @@
       </c>
       <c r="S13" s="337"/>
       <c r="T13" s="337">
-        <f>R13+S13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U13" s="323" t="str">
-        <f>IF(Q13&gt;0,T13/Q13*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V13" s="338"/>
@@ -61904,11 +61951,11 @@
       </c>
       <c r="S14" s="45"/>
       <c r="T14" s="45">
-        <f>R14+S14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U14" s="33" t="str">
-        <f>IF(Q14&gt;0,T14/Q14*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V14" s="46"/>
@@ -61946,11 +61993,11 @@
       </c>
       <c r="S15" s="50"/>
       <c r="T15" s="50">
-        <f>R15+S15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U15" s="39" t="str">
-        <f>IF(Q15&gt;0,T15/Q15*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V15" s="51"/>
@@ -61986,11 +62033,11 @@
       </c>
       <c r="S16" s="342"/>
       <c r="T16" s="342">
-        <f t="shared" ref="T16:T34" si="0">R16+S16</f>
+        <f t="shared" ref="T16:T40" si="2">R16+S16</f>
         <v>0</v>
       </c>
       <c r="U16" s="326" t="str">
-        <f t="shared" ref="U16:U34" si="1">IF(Q16&gt;0,T16/Q16*7,"-")</f>
+        <f t="shared" ref="U16:U40" si="3">IF(Q16&gt;0,T16/Q16*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V16" s="343"/>
@@ -62026,11 +62073,11 @@
       </c>
       <c r="S17" s="45"/>
       <c r="T17" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U17" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V17" s="46"/>
@@ -62066,11 +62113,11 @@
       </c>
       <c r="S18" s="45"/>
       <c r="T18" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U18" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V18" s="46"/>
@@ -62106,11 +62153,11 @@
       </c>
       <c r="S19" s="45"/>
       <c r="T19" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U19" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V19" s="46"/>
@@ -62146,11 +62193,11 @@
       </c>
       <c r="S20" s="50"/>
       <c r="T20" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V20" s="51"/>
@@ -62186,11 +62233,11 @@
       </c>
       <c r="S21" s="45"/>
       <c r="T21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U21" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V21" s="46"/>
@@ -62226,11 +62273,11 @@
       </c>
       <c r="S22" s="45"/>
       <c r="T22" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V22" s="46"/>
@@ -62266,11 +62313,11 @@
       </c>
       <c r="S23" s="45"/>
       <c r="T23" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V23" s="46"/>
@@ -62306,11 +62353,11 @@
       </c>
       <c r="S24" s="45"/>
       <c r="T24" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V24" s="46"/>
@@ -62346,11 +62393,11 @@
       </c>
       <c r="S25" s="337"/>
       <c r="T25" s="337">
-        <f>R25+S25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25" s="323" t="str">
-        <f>IF(Q25&gt;0,T25/Q25*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V25" s="338"/>
@@ -62386,11 +62433,11 @@
       </c>
       <c r="S26" s="45"/>
       <c r="T26" s="45">
-        <f>R26+S26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="33" t="str">
-        <f>IF(Q26&gt;0,T26/Q26*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V26" s="46"/>
@@ -62426,11 +62473,11 @@
       </c>
       <c r="S27" s="45"/>
       <c r="T27" s="45">
-        <f>R27+S27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="33" t="str">
-        <f>IF(Q27&gt;0,T27/Q27*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V27" s="46"/>
@@ -62466,11 +62513,11 @@
       </c>
       <c r="S28" s="45"/>
       <c r="T28" s="45">
-        <f>R28+S28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="33" t="str">
-        <f>IF(Q28&gt;0,T28/Q28*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V28" s="46"/>
@@ -62506,11 +62553,11 @@
       </c>
       <c r="S29" s="45"/>
       <c r="T29" s="45">
-        <f>R29+S29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29" s="33" t="str">
-        <f>IF(Q29&gt;0,T29/Q29*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V29" s="46"/>
@@ -62546,11 +62593,11 @@
       </c>
       <c r="S30" s="45"/>
       <c r="T30" s="45">
-        <f>R30+S30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="33" t="str">
-        <f>IF(Q30&gt;0,T30/Q30*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V30" s="46"/>
@@ -62586,11 +62633,11 @@
       </c>
       <c r="S31" s="45"/>
       <c r="T31" s="45">
-        <f>R31+S31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U31" s="33" t="str">
-        <f>IF(Q31&gt;0,T31/Q31*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V31" s="46"/>
@@ -62626,11 +62673,11 @@
       </c>
       <c r="S32" s="45"/>
       <c r="T32" s="45">
-        <f>R32+S32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U32" s="33" t="str">
-        <f>IF(Q32&gt;0,T32/Q32*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V32" s="46"/>
@@ -62666,11 +62713,11 @@
       </c>
       <c r="S33" s="45"/>
       <c r="T33" s="45">
-        <f>R33+S33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U33" s="33" t="str">
-        <f>IF(Q33&gt;0,T33/Q33*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V33" s="46"/>
@@ -62706,11 +62753,11 @@
       </c>
       <c r="S34" s="45"/>
       <c r="T34" s="45">
-        <f>R34+S34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U34" s="33" t="str">
-        <f>IF(Q34&gt;0,T34/Q34*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V34" s="46"/>
@@ -62746,11 +62793,11 @@
       </c>
       <c r="S35" s="45"/>
       <c r="T35" s="45">
-        <f>R35+S35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U35" s="33" t="str">
-        <f>IF(Q35&gt;0,T35/Q35*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V35" s="46"/>
@@ -62786,11 +62833,11 @@
       </c>
       <c r="S36" s="45"/>
       <c r="T36" s="45">
-        <f>R36+S36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U36" s="33" t="str">
-        <f>IF(Q36&gt;0,T36/Q36*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V36" s="46"/>
@@ -62826,11 +62873,11 @@
       </c>
       <c r="S37" s="45"/>
       <c r="T37" s="45">
-        <f>R37+S37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U37" s="33" t="str">
-        <f>IF(Q37&gt;0,T37/Q37*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V37" s="46"/>
@@ -62866,11 +62913,11 @@
       </c>
       <c r="S38" s="45"/>
       <c r="T38" s="45">
-        <f>R38+S38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U38" s="33" t="str">
-        <f>IF(Q38&gt;0,T38/Q38*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V38" s="46"/>
@@ -62906,11 +62953,11 @@
       </c>
       <c r="S39" s="45"/>
       <c r="T39" s="45">
-        <f>R39+S39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U39" s="33" t="str">
-        <f>IF(Q39&gt;0,T39/Q39*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V39" s="46"/>
@@ -62946,11 +62993,11 @@
       </c>
       <c r="S40" s="50"/>
       <c r="T40" s="50">
-        <f>R40+S40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U40" s="39" t="str">
-        <f>IF(Q40&gt;0,T40/Q40*7,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="V40" s="51"/>
@@ -62986,11 +63033,11 @@
       </c>
       <c r="S41" s="346"/>
       <c r="T41" s="346">
-        <f t="shared" ref="T41:T56" si="2">R41+S41</f>
+        <f t="shared" ref="T41:T56" si="4">R41+S41</f>
         <v>0</v>
       </c>
       <c r="U41" s="329" t="str">
-        <f t="shared" ref="U41:U56" si="3">IF(Q41&gt;0,T41/Q41*7,"-")</f>
+        <f t="shared" ref="U41:U56" si="5">IF(Q41&gt;0,T41/Q41*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V41" s="347"/>
@@ -63026,11 +63073,11 @@
       </c>
       <c r="S42" s="337"/>
       <c r="T42" s="295">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U42" s="323" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V42" s="338"/>
@@ -63066,11 +63113,11 @@
       </c>
       <c r="S43" s="45"/>
       <c r="T43" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U43" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V43" s="46"/>
@@ -63106,11 +63153,11 @@
       </c>
       <c r="S44" s="45"/>
       <c r="T44" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U44" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V44" s="46"/>
@@ -63146,11 +63193,11 @@
       </c>
       <c r="S45" s="50"/>
       <c r="T45" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U45" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V45" s="51"/>
@@ -63186,11 +63233,11 @@
       </c>
       <c r="S46" s="337"/>
       <c r="T46" s="337">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U46" s="323" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V46" s="338"/>
@@ -63226,11 +63273,11 @@
       </c>
       <c r="S47" s="45"/>
       <c r="T47" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U47" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V47" s="46"/>
@@ -63266,11 +63313,11 @@
       </c>
       <c r="S48" s="45"/>
       <c r="T48" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U48" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V48" s="46"/>
@@ -63306,11 +63353,11 @@
       </c>
       <c r="S49" s="45"/>
       <c r="T49" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U49" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V49" s="46"/>
@@ -63346,11 +63393,11 @@
       </c>
       <c r="S50" s="45"/>
       <c r="T50" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U50" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V50" s="46"/>
@@ -63386,11 +63433,11 @@
       </c>
       <c r="S51" s="45"/>
       <c r="T51" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U51" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V51" s="46"/>
@@ -63426,11 +63473,11 @@
       </c>
       <c r="S52" s="50"/>
       <c r="T52" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U52" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V52" s="51"/>
@@ -63466,11 +63513,11 @@
       </c>
       <c r="S53" s="337"/>
       <c r="T53" s="337">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U53" s="323" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="V53" s="338"/>
@@ -63506,11 +63553,11 @@
       </c>
       <c r="S54" s="45"/>
       <c r="T54" s="45">
-        <f t="shared" ref="T54:T117" si="4">R54+S54</f>
+        <f t="shared" ref="T54:T117" si="6">R54+S54</f>
         <v>0</v>
       </c>
       <c r="U54" s="33" t="str">
-        <f t="shared" ref="U54:U117" si="5">IF(Q54&gt;0,T54/Q54*7,"-")</f>
+        <f t="shared" ref="U54:U117" si="7">IF(Q54&gt;0,T54/Q54*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V54" s="46"/>
@@ -63546,11 +63593,11 @@
       </c>
       <c r="S55" s="45"/>
       <c r="T55" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U55" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V55" s="46"/>
@@ -63586,11 +63633,11 @@
       </c>
       <c r="S56" s="50"/>
       <c r="T56" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U56" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V56" s="51"/>
@@ -63628,11 +63675,11 @@
       </c>
       <c r="S57" s="337"/>
       <c r="T57" s="337">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U57" s="323" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V57" s="338"/>
@@ -63670,11 +63717,11 @@
       </c>
       <c r="S58" s="45"/>
       <c r="T58" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U58" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V58" s="46"/>
@@ -63712,11 +63759,11 @@
       </c>
       <c r="S59" s="45"/>
       <c r="T59" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U59" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V59" s="46"/>
@@ -63754,11 +63801,11 @@
       </c>
       <c r="S60" s="45"/>
       <c r="T60" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U60" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V60" s="46"/>
@@ -63796,11 +63843,11 @@
       </c>
       <c r="S61" s="45"/>
       <c r="T61" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U61" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V61" s="46"/>
@@ -63838,11 +63885,11 @@
       </c>
       <c r="S62" s="45"/>
       <c r="T62" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U62" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V62" s="46"/>
@@ -63880,11 +63927,11 @@
       </c>
       <c r="S63" s="45"/>
       <c r="T63" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U63" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V63" s="46"/>
@@ -63922,11 +63969,11 @@
       </c>
       <c r="S64" s="50"/>
       <c r="T64" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U64" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V64" s="51"/>
@@ -63962,11 +64009,11 @@
       </c>
       <c r="S65" s="337"/>
       <c r="T65" s="337">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U65" s="323" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V65" s="338"/>
@@ -64002,11 +64049,11 @@
       </c>
       <c r="S66" s="45"/>
       <c r="T66" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U66" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V66" s="46"/>
@@ -64042,11 +64089,11 @@
       </c>
       <c r="S67" s="45"/>
       <c r="T67" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U67" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V67" s="46"/>
@@ -64082,11 +64129,11 @@
       </c>
       <c r="S68" s="45"/>
       <c r="T68" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U68" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V68" s="46"/>
@@ -64122,11 +64169,11 @@
       </c>
       <c r="S69" s="45"/>
       <c r="T69" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U69" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V69" s="46"/>
@@ -64162,11 +64209,11 @@
       </c>
       <c r="S70" s="45"/>
       <c r="T70" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U70" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V70" s="46"/>
@@ -64202,11 +64249,11 @@
       </c>
       <c r="S71" s="45"/>
       <c r="T71" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U71" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V71" s="46"/>
@@ -64242,11 +64289,11 @@
       </c>
       <c r="S72" s="50"/>
       <c r="T72" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U72" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V72" s="51"/>
@@ -64282,11 +64329,11 @@
       </c>
       <c r="S73" s="337"/>
       <c r="T73" s="337">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U73" s="323" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V73" s="338"/>
@@ -64322,11 +64369,11 @@
       </c>
       <c r="S74" s="373"/>
       <c r="T74" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U74" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V74" s="374"/>
@@ -64362,11 +64409,11 @@
       </c>
       <c r="S75" s="358"/>
       <c r="T75" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U75" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V75" s="376"/>
@@ -64402,11 +64449,11 @@
       </c>
       <c r="S76" s="50"/>
       <c r="T76" s="377">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U76" s="378" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V76" s="51"/>
@@ -64444,11 +64491,11 @@
       </c>
       <c r="S77" s="337"/>
       <c r="T77" s="342">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U77" s="326" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V77" s="338"/>
@@ -64486,11 +64533,11 @@
       </c>
       <c r="S78" s="45"/>
       <c r="T78" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U78" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V78" s="46"/>
@@ -64528,11 +64575,11 @@
       </c>
       <c r="S79" s="45"/>
       <c r="T79" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U79" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V79" s="46"/>
@@ -64570,11 +64617,11 @@
       </c>
       <c r="S80" s="45"/>
       <c r="T80" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U80" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V80" s="46"/>
@@ -64612,11 +64659,11 @@
       </c>
       <c r="S81" s="45"/>
       <c r="T81" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U81" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V81" s="46"/>
@@ -64654,11 +64701,11 @@
       </c>
       <c r="S82" s="45"/>
       <c r="T82" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U82" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V82" s="46"/>
@@ -64696,11 +64743,11 @@
       </c>
       <c r="S83" s="45"/>
       <c r="T83" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U83" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V83" s="46"/>
@@ -64738,11 +64785,11 @@
       </c>
       <c r="S84" s="50"/>
       <c r="T84" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U84" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V84" s="51"/>
@@ -64778,11 +64825,11 @@
       </c>
       <c r="S85" s="342"/>
       <c r="T85" s="342">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U85" s="326" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V85" s="343"/>
@@ -64818,11 +64865,11 @@
       </c>
       <c r="S86" s="334"/>
       <c r="T86" s="334">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U86" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V86" s="47"/>
@@ -64858,11 +64905,11 @@
       </c>
       <c r="S87" s="337"/>
       <c r="T87" s="337">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U87" s="323" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V87" s="338"/>
@@ -64898,11 +64945,11 @@
       </c>
       <c r="S88" s="50"/>
       <c r="T88" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U88" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V88" s="51"/>
@@ -64936,11 +64983,11 @@
       </c>
       <c r="S89" s="346"/>
       <c r="T89" s="346">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U89" s="329" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V89" s="347"/>
@@ -64976,11 +65023,11 @@
       </c>
       <c r="S90" s="337"/>
       <c r="T90" s="337">
-        <f>R90+S90</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U90" s="323" t="str">
-        <f>IF(Q90&gt;0,T90/Q90*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V90" s="338"/>
@@ -65016,11 +65063,11 @@
       </c>
       <c r="S91" s="50"/>
       <c r="T91" s="50">
-        <f>R91+S91</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U91" s="39" t="str">
-        <f>IF(Q91&gt;0,T91/Q91*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V91" s="51"/>
@@ -65056,11 +65103,11 @@
       </c>
       <c r="S92" s="337"/>
       <c r="T92" s="337">
-        <f>R92+S92</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U92" s="323" t="str">
-        <f>IF(Q92&gt;0,T92/Q92*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V92" s="338"/>
@@ -65096,11 +65143,11 @@
       </c>
       <c r="S93" s="45"/>
       <c r="T93" s="45">
-        <f>R93+S93</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U93" s="33" t="str">
-        <f>IF(Q93&gt;0,T93/Q93*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V93" s="46"/>
@@ -65136,11 +65183,11 @@
       </c>
       <c r="S94" s="50"/>
       <c r="T94" s="50">
-        <f>R94+S94</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U94" s="39" t="str">
-        <f>IF(Q94&gt;0,T94/Q94*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V94" s="51"/>
@@ -65176,11 +65223,11 @@
       </c>
       <c r="S95" s="342"/>
       <c r="T95" s="342">
-        <f>R95+S95</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U95" s="326" t="str">
-        <f>IF(Q95&gt;0,T95/Q95*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V95" s="343"/>
@@ -65216,11 +65263,11 @@
       </c>
       <c r="S96" s="334"/>
       <c r="T96" s="334">
-        <f>R96+S96</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U96" s="36" t="str">
-        <f>IF(Q96&gt;0,T96/Q96*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V96" s="47"/>
@@ -65256,11 +65303,11 @@
       </c>
       <c r="S97" s="337"/>
       <c r="T97" s="337">
-        <f>R97+S97</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U97" s="323" t="str">
-        <f>IF(Q97&gt;0,T97/Q97*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V97" s="338"/>
@@ -65296,11 +65343,11 @@
       </c>
       <c r="S98" s="45"/>
       <c r="T98" s="45">
-        <f>R98+S98</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U98" s="33" t="str">
-        <f>IF(Q98&gt;0,T98/Q98*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V98" s="46"/>
@@ -65336,11 +65383,11 @@
       </c>
       <c r="S99" s="45"/>
       <c r="T99" s="45">
-        <f>R99+S99</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U99" s="33" t="str">
-        <f>IF(Q99&gt;0,T99/Q99*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V99" s="46"/>
@@ -65376,11 +65423,11 @@
       </c>
       <c r="S100" s="50"/>
       <c r="T100" s="50">
-        <f>R100+S100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U100" s="39" t="str">
-        <f>IF(Q100&gt;0,T100/Q100*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V100" s="51"/>
@@ -65411,16 +65458,16 @@
       <c r="P101" s="323"/>
       <c r="Q101" s="335"/>
       <c r="R101" s="380">
-        <f t="shared" ref="R101:R110" si="6">IF($A$1="补货",IF(V101="FBA",I101,0)+K101+L101,IF(V101="FBA",I101,J101))</f>
+        <f t="shared" ref="R101:R110" si="8">IF($A$1="补货",IF(V101="FBA",I101,0)+K101+L101,IF(V101="FBA",I101,J101))</f>
         <v>0</v>
       </c>
       <c r="S101" s="381"/>
       <c r="T101" s="337">
-        <f>R101+S101</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U101" s="323" t="str">
-        <f>IF(Q101&gt;0,T101/Q101*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V101" s="338"/>
@@ -65451,16 +65498,16 @@
       <c r="P102" s="33"/>
       <c r="Q102" s="43"/>
       <c r="R102" s="382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S102" s="383"/>
       <c r="T102" s="45">
-        <f>R102+S102</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U102" s="33" t="str">
-        <f>IF(Q102&gt;0,T102/Q102*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V102" s="46"/>
@@ -65491,16 +65538,16 @@
       <c r="P103" s="39"/>
       <c r="Q103" s="48"/>
       <c r="R103" s="384">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S103" s="385"/>
       <c r="T103" s="50">
-        <f>R103+S103</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U103" s="39" t="str">
-        <f>IF(Q103&gt;0,T103/Q103*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V103" s="51"/>
@@ -65531,16 +65578,16 @@
       <c r="P104" s="323"/>
       <c r="Q104" s="335"/>
       <c r="R104" s="380">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S104" s="381"/>
       <c r="T104" s="337">
-        <f>R104+S104</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U104" s="323" t="str">
-        <f>IF(Q104&gt;0,T104/Q104*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V104" s="338"/>
@@ -65571,16 +65618,16 @@
       <c r="P105" s="33"/>
       <c r="Q105" s="43"/>
       <c r="R105" s="382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S105" s="383"/>
       <c r="T105" s="45">
-        <f>R105+S105</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U105" s="33" t="str">
-        <f>IF(Q105&gt;0,T105/Q105*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V105" s="46"/>
@@ -65611,16 +65658,16 @@
       <c r="P106" s="39"/>
       <c r="Q106" s="48"/>
       <c r="R106" s="384">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S106" s="385"/>
       <c r="T106" s="50">
-        <f>R106+S106</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U106" s="39" t="str">
-        <f>IF(Q106&gt;0,T106/Q106*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V106" s="51"/>
@@ -65651,16 +65698,16 @@
       <c r="P107" s="326"/>
       <c r="Q107" s="340"/>
       <c r="R107" s="380">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S107" s="373"/>
       <c r="T107" s="342">
-        <f>R107+S107</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U107" s="326" t="str">
-        <f>IF(Q107&gt;0,T107/Q107*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V107" s="343"/>
@@ -65691,16 +65738,16 @@
       <c r="P108" s="33"/>
       <c r="Q108" s="43"/>
       <c r="R108" s="382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S108" s="383"/>
       <c r="T108" s="45">
-        <f>R108+S108</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U108" s="33" t="str">
-        <f>IF(Q108&gt;0,T108/Q108*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V108" s="46"/>
@@ -65731,16 +65778,16 @@
       <c r="P109" s="33"/>
       <c r="Q109" s="43"/>
       <c r="R109" s="382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S109" s="383"/>
       <c r="T109" s="45">
-        <f>R109+S109</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U109" s="33" t="str">
-        <f>IF(Q109&gt;0,T109/Q109*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V109" s="46"/>
@@ -65773,16 +65820,16 @@
       <c r="P110" s="33"/>
       <c r="Q110" s="43"/>
       <c r="R110" s="384">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S110" s="386"/>
       <c r="T110" s="45">
-        <f>R110+S110</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U110" s="33" t="str">
-        <f>IF(Q110&gt;0,T110/Q110*7,"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="V110" s="46"/>
@@ -65818,11 +65865,11 @@
       </c>
       <c r="S111" s="337"/>
       <c r="T111" s="337">
-        <f t="shared" ref="T111:T137" si="7">R111+S111</f>
+        <f t="shared" ref="T111:T139" si="9">R111+S111</f>
         <v>0</v>
       </c>
       <c r="U111" s="323" t="str">
-        <f t="shared" ref="U111:U137" si="8">IF(Q111&gt;0,T111/Q111*7,"-")</f>
+        <f t="shared" ref="U111:U139" si="10">IF(Q111&gt;0,T111/Q111*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V111" s="338"/>
@@ -65858,11 +65905,11 @@
       </c>
       <c r="S112" s="45"/>
       <c r="T112" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U112" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V112" s="46"/>
@@ -65898,11 +65945,11 @@
       </c>
       <c r="S113" s="45"/>
       <c r="T113" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U113" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V113" s="46"/>
@@ -65938,11 +65985,11 @@
       </c>
       <c r="S114" s="45"/>
       <c r="T114" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U114" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V114" s="46"/>
@@ -65978,11 +66025,11 @@
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U115" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V115" s="46"/>
@@ -66018,11 +66065,11 @@
       </c>
       <c r="S116" s="334"/>
       <c r="T116" s="334">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U116" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V116" s="47"/>
@@ -66058,11 +66105,11 @@
       </c>
       <c r="S117" s="45"/>
       <c r="T117" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U117" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V117" s="46"/>
@@ -66098,11 +66145,11 @@
       </c>
       <c r="S118" s="334"/>
       <c r="T118" s="334">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U118" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V118" s="47"/>
@@ -66138,11 +66185,11 @@
       </c>
       <c r="S119" s="337"/>
       <c r="T119" s="337">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U119" s="323" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V119" s="338"/>
@@ -66178,11 +66225,11 @@
       </c>
       <c r="S120" s="45"/>
       <c r="T120" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U120" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V120" s="46"/>
@@ -66218,11 +66265,11 @@
       </c>
       <c r="S121" s="45"/>
       <c r="T121" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U121" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V121" s="46"/>
@@ -66258,11 +66305,11 @@
       </c>
       <c r="S122" s="45"/>
       <c r="T122" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U122" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V122" s="46"/>
@@ -66298,11 +66345,11 @@
       </c>
       <c r="S123" s="45"/>
       <c r="T123" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U123" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V123" s="46"/>
@@ -66338,11 +66385,11 @@
       </c>
       <c r="S124" s="50"/>
       <c r="T124" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U124" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V124" s="51"/>
@@ -66378,11 +66425,11 @@
       </c>
       <c r="S125" s="337"/>
       <c r="T125" s="337">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U125" s="323" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V125" s="338"/>
@@ -66418,11 +66465,11 @@
       </c>
       <c r="S126" s="45"/>
       <c r="T126" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U126" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V126" s="46"/>
@@ -66460,11 +66507,11 @@
       </c>
       <c r="S127" s="50"/>
       <c r="T127" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U127" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V127" s="51"/>
@@ -66504,11 +66551,11 @@
       </c>
       <c r="S128" s="342"/>
       <c r="T128" s="342">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U128" s="326" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V128" s="343"/>
@@ -66546,11 +66593,11 @@
       </c>
       <c r="S129" s="45"/>
       <c r="T129" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U129" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V129" s="47"/>
@@ -66588,11 +66635,11 @@
       </c>
       <c r="S130" s="45"/>
       <c r="T130" s="45">
-        <f>R130+S130</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U130" s="33" t="str">
-        <f>IF(Q130&gt;0,T130/Q130*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V130" s="47"/>
@@ -66630,11 +66677,11 @@
       </c>
       <c r="S131" s="45"/>
       <c r="T131" s="45">
-        <f>R131+S131</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U131" s="33" t="str">
-        <f>IF(Q131&gt;0,T131/Q131*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V131" s="47"/>
@@ -66672,11 +66719,11 @@
       </c>
       <c r="S132" s="45"/>
       <c r="T132" s="45">
-        <f>R132+S132</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U132" s="33" t="str">
-        <f>IF(Q132&gt;0,T132/Q132*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V132" s="47"/>
@@ -66714,11 +66761,11 @@
       </c>
       <c r="S133" s="45"/>
       <c r="T133" s="45">
-        <f>R133+S133</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U133" s="33" t="str">
-        <f>IF(Q133&gt;0,T133/Q133*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V133" s="47"/>
@@ -66756,11 +66803,11 @@
       </c>
       <c r="S134" s="45"/>
       <c r="T134" s="45">
-        <f>R134+S134</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U134" s="33" t="str">
-        <f>IF(Q134&gt;0,T134/Q134*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V134" s="47"/>
@@ -66798,11 +66845,11 @@
       </c>
       <c r="S135" s="45"/>
       <c r="T135" s="45">
-        <f>R135+S135</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U135" s="33" t="str">
-        <f>IF(Q135&gt;0,T135/Q135*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V135" s="47"/>
@@ -66840,11 +66887,11 @@
       </c>
       <c r="S136" s="45"/>
       <c r="T136" s="45">
-        <f>R136+S136</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U136" s="33" t="str">
-        <f>IF(Q136&gt;0,T136/Q136*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V136" s="47"/>
@@ -66882,11 +66929,11 @@
       </c>
       <c r="S137" s="45"/>
       <c r="T137" s="45">
-        <f>R137+S137</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U137" s="33" t="str">
-        <f>IF(Q137&gt;0,T137/Q137*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V137" s="47"/>
@@ -66924,11 +66971,11 @@
       </c>
       <c r="S138" s="45"/>
       <c r="T138" s="45">
-        <f>R138+S138</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U138" s="33" t="str">
-        <f>IF(Q138&gt;0,T138/Q138*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V138" s="47"/>
@@ -66966,11 +67013,11 @@
       </c>
       <c r="S139" s="45"/>
       <c r="T139" s="45">
-        <f>R139+S139</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U139" s="33" t="str">
-        <f>IF(Q139&gt;0,T139/Q139*7,"-")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="V139" s="47"/>
@@ -67008,11 +67055,11 @@
       </c>
       <c r="S140" s="45"/>
       <c r="T140" s="45">
-        <f t="shared" ref="T140:T152" si="9">R140+S140</f>
+        <f t="shared" ref="T140:T161" si="11">R140+S140</f>
         <v>0</v>
       </c>
       <c r="U140" s="33" t="str">
-        <f t="shared" ref="U140:U152" si="10">IF(Q140&gt;0,T140/Q140*7,"-")</f>
+        <f t="shared" ref="U140:U161" si="12">IF(Q140&gt;0,T140/Q140*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V140" s="47"/>
@@ -67050,11 +67097,11 @@
       </c>
       <c r="S141" s="334"/>
       <c r="T141" s="334">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U141" s="36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V141" s="47"/>
@@ -67090,11 +67137,11 @@
       </c>
       <c r="S142" s="337"/>
       <c r="T142" s="337">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U142" s="323" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V142" s="413"/>
@@ -67130,11 +67177,11 @@
       </c>
       <c r="S143" s="45"/>
       <c r="T143" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U143" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V143" s="47"/>
@@ -67170,11 +67217,11 @@
       </c>
       <c r="S144" s="45"/>
       <c r="T144" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U144" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V144" s="47"/>
@@ -67210,11 +67257,11 @@
       </c>
       <c r="S145" s="45"/>
       <c r="T145" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U145" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V145" s="47"/>
@@ -67250,11 +67297,11 @@
       </c>
       <c r="S146" s="45"/>
       <c r="T146" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U146" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V146" s="47"/>
@@ -67290,11 +67337,11 @@
       </c>
       <c r="S147" s="45"/>
       <c r="T147" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U147" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V147" s="47"/>
@@ -67330,11 +67377,11 @@
       </c>
       <c r="S148" s="50"/>
       <c r="T148" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U148" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V148" s="51"/>
@@ -67370,11 +67417,11 @@
       </c>
       <c r="S149" s="45"/>
       <c r="T149" s="45">
-        <f>R149+S149</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U149" s="33" t="str">
-        <f>IF(Q149&gt;0,T149/Q149*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V149" s="47"/>
@@ -67410,11 +67457,11 @@
       </c>
       <c r="S150" s="45"/>
       <c r="T150" s="45">
-        <f>R150+S150</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U150" s="33" t="str">
-        <f>IF(Q150&gt;0,T150/Q150*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V150" s="47"/>
@@ -67450,11 +67497,11 @@
       </c>
       <c r="S151" s="334"/>
       <c r="T151" s="334">
-        <f>R151+S151</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U151" s="36" t="str">
-        <f>IF(Q151&gt;0,T151/Q151*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V151" s="47"/>
@@ -67490,11 +67537,11 @@
       </c>
       <c r="S152" s="337"/>
       <c r="T152" s="337">
-        <f>R152+S152</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U152" s="323" t="str">
-        <f>IF(Q152&gt;0,T152/Q152*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V152" s="413"/>
@@ -67530,11 +67577,11 @@
       </c>
       <c r="S153" s="45"/>
       <c r="T153" s="45">
-        <f>R153+S153</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U153" s="33" t="str">
-        <f>IF(Q153&gt;0,T153/Q153*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V153" s="47"/>
@@ -67570,11 +67617,11 @@
       </c>
       <c r="S154" s="45"/>
       <c r="T154" s="45">
-        <f>R154+S154</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U154" s="33" t="str">
-        <f>IF(Q154&gt;0,T154/Q154*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V154" s="47"/>
@@ -67610,11 +67657,11 @@
       </c>
       <c r="S155" s="45"/>
       <c r="T155" s="45">
-        <f>R155+S155</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U155" s="33" t="str">
-        <f>IF(Q155&gt;0,T155/Q155*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V155" s="47"/>
@@ -67650,11 +67697,11 @@
       </c>
       <c r="S156" s="50"/>
       <c r="T156" s="50">
-        <f>R156+S156</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U156" s="39" t="str">
-        <f>IF(Q156&gt;0,T156/Q156*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V156" s="51"/>
@@ -67690,11 +67737,11 @@
       </c>
       <c r="S157" s="342"/>
       <c r="T157" s="342">
-        <f>R157+S157</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U157" s="326" t="str">
-        <f>IF(Q157&gt;0,T157/Q157*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V157" s="347"/>
@@ -67730,11 +67777,11 @@
       </c>
       <c r="S158" s="334"/>
       <c r="T158" s="334">
-        <f>R158+S158</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U158" s="36" t="str">
-        <f>IF(Q158&gt;0,T158/Q158*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V158" s="47"/>
@@ -67770,11 +67817,11 @@
       </c>
       <c r="S159" s="337"/>
       <c r="T159" s="337">
-        <f>R159+S159</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U159" s="323" t="str">
-        <f>IF(Q159&gt;0,T159/Q159*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V159" s="413"/>
@@ -67810,11 +67857,11 @@
       </c>
       <c r="S160" s="45"/>
       <c r="T160" s="45">
-        <f>R160+S160</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U160" s="33" t="str">
-        <f>IF(Q160&gt;0,T160/Q160*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V160" s="47"/>
@@ -67850,11 +67897,11 @@
       </c>
       <c r="S161" s="50"/>
       <c r="T161" s="50">
-        <f>R161+S161</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U161" s="39" t="str">
-        <f>IF(Q161&gt;0,T161/Q161*7,"-")</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="V161" s="51"/>
@@ -67890,11 +67937,11 @@
       </c>
       <c r="S162" s="403"/>
       <c r="T162" s="403">
-        <f t="shared" ref="T162:T170" si="11">R162+S162</f>
+        <f t="shared" ref="T162:T170" si="13">R162+S162</f>
         <v>0</v>
       </c>
       <c r="U162" s="411" t="str">
-        <f t="shared" ref="U162:U170" si="12">IF(Q162&gt;0,T162/Q162*7,"-")</f>
+        <f t="shared" ref="U162:U170" si="14">IF(Q162&gt;0,T162/Q162*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V162" s="416"/>
@@ -67930,11 +67977,11 @@
       </c>
       <c r="S163" s="50"/>
       <c r="T163" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U163" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-</v>
       </c>
       <c r="V163" s="51"/>
@@ -67962,11 +68009,11 @@
       </c>
       <c r="S164" s="342"/>
       <c r="T164" s="342">
-        <f t="shared" ref="T164:T174" si="13">R164+S164</f>
+        <f t="shared" ref="T164:T174" si="15">R164+S164</f>
         <v>0</v>
       </c>
       <c r="U164" s="326" t="str">
-        <f t="shared" ref="U164:U174" si="14">IF(Q164&gt;0,T164/Q164*7,"-")</f>
+        <f t="shared" ref="U164:U174" si="16">IF(Q164&gt;0,T164/Q164*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V164" s="347"/>
@@ -67994,11 +68041,11 @@
       </c>
       <c r="S165" s="45"/>
       <c r="T165" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U165" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V165" s="47"/>
@@ -68026,11 +68073,11 @@
       </c>
       <c r="S166" s="45"/>
       <c r="T166" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U166" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V166" s="47"/>
@@ -68058,11 +68105,11 @@
       </c>
       <c r="S167" s="45"/>
       <c r="T167" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U167" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V167" s="47"/>
@@ -68090,11 +68137,11 @@
       </c>
       <c r="S168" s="45"/>
       <c r="T168" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U168" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V168" s="47"/>
@@ -68122,11 +68169,11 @@
       </c>
       <c r="S169" s="45"/>
       <c r="T169" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U169" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V169" s="47"/>
@@ -68154,11 +68201,11 @@
       </c>
       <c r="S170" s="45"/>
       <c r="T170" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U170" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V170" s="47"/>
@@ -68186,11 +68233,11 @@
       </c>
       <c r="S171" s="45"/>
       <c r="T171" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U171" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V171" s="47"/>
@@ -68218,11 +68265,11 @@
       </c>
       <c r="S172" s="45"/>
       <c r="T172" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U172" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V172" s="47"/>
@@ -68250,11 +68297,11 @@
       </c>
       <c r="S173" s="45"/>
       <c r="T173" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U173" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V173" s="47"/>
@@ -68284,170 +68331,51 @@
       </c>
       <c r="S174" s="50"/>
       <c r="T174" s="50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U174" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="V174" s="51"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H42:Q42">
-    <cfRule type="expression" dxfId="0" priority="77">
-      <formula>H42=0</formula>
+  <conditionalFormatting sqref="I4:I174">
+    <cfRule type="expression" dxfId="11" priority="28">
+      <formula>AND(J4=0,V4="FBA")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:I42">
-    <cfRule type="expression" dxfId="6" priority="76">
-      <formula>AND(H42=0,U42="FBA")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="expression" dxfId="6" priority="85">
-      <formula>AND(#REF!=0,#REF!="FBM")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q42">
-    <cfRule type="expression" dxfId="1" priority="79">
-      <formula>Q42&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="80">
-      <formula>Q42&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="81">
-      <formula>Q42&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U42">
-    <cfRule type="expression" dxfId="9" priority="78">
-      <formula>U42&lt;100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R119">
-    <cfRule type="expression" dxfId="5" priority="14">
-      <formula>R119=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15">
-      <formula>AND(R119&lt;&gt;"",R119/Q119&lt;4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R124">
-    <cfRule type="expression" dxfId="5" priority="10">
-      <formula>R124=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
-      <formula>AND(R124&lt;&gt;"",R124/Q124&lt;4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101:J110">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>AND(J101=0,V101="FBM")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J119:J124">
-    <cfRule type="expression" dxfId="6" priority="16">
-      <formula>AND(J119=0,V119="FBM")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q101:Q110">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>Q101&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>Q101&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>Q101&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q119:Q124">
-    <cfRule type="expression" dxfId="1" priority="22">
-      <formula>Q119&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>Q119&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>Q119&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R120:R123">
-    <cfRule type="expression" dxfId="5" priority="12">
-      <formula>R120=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="13">
-      <formula>AND(R120&lt;&gt;"",R120/Q120&lt;4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U101:U110">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>U101&lt;100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U119:U124">
-    <cfRule type="expression" dxfId="9" priority="19">
-      <formula>U119&lt;100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:Q41 H43:Q100 H111:Q118 H125:Q174">
-    <cfRule type="expression" dxfId="0" priority="27">
-      <formula>H4=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I41 H43:I100 H111:I118 H125:I174">
-    <cfRule type="expression" dxfId="6" priority="26">
-      <formula>AND(H4=0,U4="FBA")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J41 J43:J100 J111:J118 J125:J174">
-    <cfRule type="expression" dxfId="6" priority="25">
+  <conditionalFormatting sqref="J4:J174">
+    <cfRule type="expression" dxfId="11" priority="27">
       <formula>AND(J4=0,V4="FBM")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q41 Q43:Q100 Q111:Q118 Q125:Q174">
-    <cfRule type="expression" dxfId="1" priority="31">
-      <formula>Q4&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
-      <formula>Q4&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="33">
-      <formula>Q4&gt;0</formula>
+  <conditionalFormatting sqref="R4:R174">
+    <cfRule type="expression" dxfId="12" priority="29">
+      <formula>R4=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R118 R125:R174">
-    <cfRule type="expression" dxfId="5" priority="29">
-      <formula>R4=0</formula>
+  <conditionalFormatting sqref="U4:U174">
+    <cfRule type="expression" dxfId="13" priority="31">
+      <formula>U4&lt;150</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="30">
-      <formula>AND(R4&lt;&gt;"",R4/Q4&lt;4)</formula>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>U4&lt;50</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>U4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U41 U43:U100 U111:U118 U125:U174">
-    <cfRule type="expression" dxfId="9" priority="28">
-      <formula>U4&lt;100</formula>
+  <conditionalFormatting sqref="M4:Q174">
+    <cfRule type="expression" dxfId="16" priority="33">
+      <formula>M4&gt;1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101:Q110">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>H101=0</formula>
+    <cfRule type="expression" dxfId="2" priority="34">
+      <formula>M4&gt;0.5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101:I110">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>AND(H101=0,U101="FBA")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119:Q124">
-    <cfRule type="expression" dxfId="0" priority="18">
-      <formula>H119=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119:I124">
-    <cfRule type="expression" dxfId="6" priority="17">
-      <formula>AND(H119=0,U119="FBA")</formula>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>M4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -10557,7 +10557,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <color theme="0"/>
@@ -10647,18 +10647,6 @@
     </dxf>
     <dxf>
       <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFCDFF"/>
         </patternFill>
@@ -10682,6 +10670,20 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -61413,7 +61415,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -68343,39 +68345,39 @@
   </sheetData>
   <conditionalFormatting sqref="I4:I174">
     <cfRule type="expression" dxfId="11" priority="28">
-      <formula>AND(J4=0,V4="FBA")</formula>
+      <formula>AND(I4=0,V4="FBA")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J174">
-    <cfRule type="expression" dxfId="11" priority="27">
+    <cfRule type="expression" dxfId="6" priority="27">
       <formula>AND(J4=0,V4="FBM")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R174">
-    <cfRule type="expression" dxfId="12" priority="29">
+    <cfRule type="expression" dxfId="5" priority="29">
       <formula>R4=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U174">
-    <cfRule type="expression" dxfId="13" priority="31">
+    <cfRule type="expression" dxfId="12" priority="31">
       <formula>U4&lt;150</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>U4&lt;50</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>U4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:Q174">
-    <cfRule type="expression" dxfId="16" priority="33">
-      <formula>M4&gt;1</formula>
+    <cfRule type="expression" dxfId="15" priority="33">
+      <formula>M$4&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
-      <formula>M4&gt;0.5</formula>
+    <cfRule type="expression" dxfId="16" priority="34">
+      <formula>M$4&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="35">
-      <formula>M4&gt;0</formula>
+    <cfRule type="expression" dxfId="17" priority="35">
+      <formula>M$4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -10557,7 +10557,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <font>
         <color theme="0"/>
@@ -10635,13 +10635,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -61413,9 +61406,9 @@
   <dimension ref="A1:V174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -68344,7 +68337,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I174">
-    <cfRule type="expression" dxfId="11" priority="28">
+    <cfRule type="expression" dxfId="6" priority="28">
       <formula>AND(I4=0,V4="FBA")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68359,25 +68352,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U174">
-    <cfRule type="expression" dxfId="12" priority="31">
+    <cfRule type="expression" dxfId="11" priority="31">
       <formula>U4&lt;150</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>U4&lt;50</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>U4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:Q174">
-    <cfRule type="expression" dxfId="15" priority="33">
-      <formula>M$4&gt;1</formula>
+    <cfRule type="expression" dxfId="14" priority="33">
+      <formula>Q$4&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="34">
-      <formula>M$4&gt;0.5</formula>
+    <cfRule type="expression" dxfId="15" priority="34">
+      <formula>Q$4&gt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="35">
-      <formula>M$4&gt;0</formula>
+    <cfRule type="expression" dxfId="16" priority="35">
+      <formula>Q$4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -61408,7 +61408,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -68364,13 +68364,13 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:Q174">
     <cfRule type="expression" dxfId="14" priority="33">
-      <formula>Q$4&gt;1</formula>
+      <formula>$Q4&gt;1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="34">
-      <formula>Q$4&gt;0.5</formula>
+      <formula>$Q4&gt;0.5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="35">
-      <formula>Q$4&gt;0</formula>
+      <formula>$Q4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="732" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="732" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="在庫（雨衣）" sheetId="41" r:id="rId1"/>
@@ -18972,7 +18972,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="BG23" sqref="BG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -33042,7 +33042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U49">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>U4&lt;100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35592,12 +35592,12 @@
   </sheetPr>
   <dimension ref="A1:CR18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="T11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="12" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -38699,13 +38699,13 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="CL4:CR18">
     <cfRule type="expression" dxfId="8" priority="167">
-      <formula>CL4&lt;10</formula>
+      <formula>OR(AND($A$1="补货",CL&lt;15),AND($A$1="入库",CL&lt;7))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="168">
-      <formula>CL4&lt;50</formula>
+      <formula>OR(AND($A$1="补货",CL&lt;30),AND($A$1="入库",CL&lt;15))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="169">
-      <formula>CL4&lt;150</formula>
+      <formula>OR(AND($A$1="补货",CL&lt;60),AND($A$1="入库",CL&lt;30))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -40132,7 +40132,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -43107,13 +43107,13 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T80">
     <cfRule type="expression" dxfId="10" priority="96">
-      <formula>T3&lt;150</formula>
+      <formula>OR(AND($A$1="补货",T3&lt;60),AND($A$1="入库",T3&lt;30))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="95">
-      <formula>T3&lt;50</formula>
+      <formula>OR(AND($A$1="补货",T3&lt;30),AND($A$1="入库",T3&lt;15))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="94">
-      <formula>T3&lt;10</formula>
+      <formula>OR(AND($A$1="补货",T3&lt;15),AND($A$1="入库",T3&lt;7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:P80">
@@ -45300,7 +45300,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -53949,13 +53949,13 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X189">
     <cfRule type="expression" dxfId="11" priority="47">
-      <formula>X4&lt;150</formula>
+      <formula>OR(AND($A$1="补货",X4&lt;60),AND($A$1="入库",X4&lt;30))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="46">
-      <formula>X4&lt;50</formula>
+      <formula>OR(AND($A$1="补货",X4&lt;30),AND($A$1="入库",X4&lt;15))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="45">
-      <formula>X4&lt;10</formula>
+      <formula>OR(AND($A$1="补货",X4&lt;15),AND($A$1="入库",X4&lt;7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:T189">
@@ -60592,8 +60592,8 @@
   </sheetPr>
   <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -67545,13 +67545,13 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U174">
     <cfRule type="expression" dxfId="11" priority="32">
-      <formula>U4&lt;150</formula>
+      <formula>OR(AND($A$1="补货",U4&lt;60),AND($A$1="入库",U4&lt;30))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="3">
-      <formula>U4&lt;50</formula>
+      <formula>OR(AND($A$1="补货",U4&lt;30),AND($A$1="入库",U4&lt;15))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="2">
-      <formula>U4&lt;10</formula>
+      <formula>OR(AND($A$1="补货",U4&lt;15),AND($A$1="入库",U4&lt;7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:Q174">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -45274,11 +45274,11 @@
   <dimension ref="A1:Z189"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
@@ -45425,7 +45425,7 @@
       <c r="S4" s="447"/>
       <c r="T4" s="447"/>
       <c r="U4" s="463">
-        <f>IF($A$1="补货",L4+M4+N4+O4,L4)</f>
+        <f>IF($A$1="补货",L4+M4+N4+O4,L4+M4)</f>
         <v>0</v>
       </c>
       <c r="V4" s="82"/>
@@ -45469,7 +45469,7 @@
       <c r="S5" s="447"/>
       <c r="T5" s="447"/>
       <c r="U5" s="463">
-        <f>IF($A$1="补货",L5+M5+N5+O5,L5)</f>
+        <f>IF($A$1="补货",L5+M5+N5+O5,L5+M5)</f>
         <v>0</v>
       </c>
       <c r="V5" s="82"/>
@@ -45513,7 +45513,7 @@
       <c r="S6" s="447"/>
       <c r="T6" s="447"/>
       <c r="U6" s="463">
-        <f>IF($A$1="补货",L6+M6+N6+O6,L6)</f>
+        <f>IF($A$1="补货",L6+M6+N6+O6,L6+M6)</f>
         <v>0</v>
       </c>
       <c r="V6" s="82"/>
@@ -45557,7 +45557,7 @@
       <c r="S7" s="449"/>
       <c r="T7" s="449"/>
       <c r="U7" s="465">
-        <f>IF($A$1="补货",L7+M7+N7+O7,L7)</f>
+        <f>IF($A$1="补货",L7+M7+N7+O7,L7+M7)</f>
         <v>0</v>
       </c>
       <c r="V7" s="84"/>
@@ -45607,7 +45607,7 @@
       <c r="S8" s="451"/>
       <c r="T8" s="451"/>
       <c r="U8" s="468">
-        <f>IF($A$1="补货",L8+M8+N8+O8,L8)</f>
+        <f>IF($A$1="补货",L8+M8+N8+O8,L8+M8)</f>
         <v>0</v>
       </c>
       <c r="V8" s="68"/>
@@ -45651,7 +45651,7 @@
       <c r="S9" s="447"/>
       <c r="T9" s="447"/>
       <c r="U9" s="463">
-        <f>IF($A$1="补货",L9+M9+N9+O9,L9)</f>
+        <f>IF($A$1="补货",L9+M9+N9+O9,L9+M9)</f>
         <v>0</v>
       </c>
       <c r="V9" s="82"/>
@@ -45695,7 +45695,7 @@
       <c r="S10" s="447"/>
       <c r="T10" s="447"/>
       <c r="U10" s="463">
-        <f>IF($A$1="补货",L10+M10+N10+O10,L10)</f>
+        <f>IF($A$1="补货",L10+M10+N10+O10,L10+M10)</f>
         <v>0</v>
       </c>
       <c r="V10" s="82"/>
@@ -45739,7 +45739,7 @@
       <c r="S11" s="449"/>
       <c r="T11" s="449"/>
       <c r="U11" s="465">
-        <f>IF($A$1="补货",L11+M11+N11+O11,L11)</f>
+        <f>IF($A$1="补货",L11+M11+N11+O11,L11+M11)</f>
         <v>0</v>
       </c>
       <c r="V11" s="84"/>
@@ -45785,7 +45785,7 @@
       <c r="S12" s="451"/>
       <c r="T12" s="451"/>
       <c r="U12" s="468">
-        <f>IF($A$1="补货",L12+M12+N12+O12,L12)</f>
+        <f>IF($A$1="补货",L12+M12+N12+O12,L12+M12)</f>
         <v>0</v>
       </c>
       <c r="V12" s="68"/>
@@ -45829,7 +45829,7 @@
       <c r="S13" s="447"/>
       <c r="T13" s="447"/>
       <c r="U13" s="463">
-        <f>IF($A$1="补货",L13+M13+N13+O13,L13)</f>
+        <f>IF($A$1="补货",L13+M13+N13+O13,L13+M13)</f>
         <v>0</v>
       </c>
       <c r="V13" s="82"/>
@@ -45873,7 +45873,7 @@
       <c r="S14" s="447"/>
       <c r="T14" s="447"/>
       <c r="U14" s="463">
-        <f>IF($A$1="补货",L14+M14+N14+O14,L14)</f>
+        <f>IF($A$1="补货",L14+M14+N14+O14,L14+M14)</f>
         <v>0</v>
       </c>
       <c r="V14" s="82"/>
@@ -45917,7 +45917,7 @@
       <c r="S15" s="449"/>
       <c r="T15" s="449"/>
       <c r="U15" s="465">
-        <f>IF($A$1="补货",L15+M15+N15+O15,L15)</f>
+        <f>IF($A$1="补货",L15+M15+N15+O15,L15+M15)</f>
         <v>0</v>
       </c>
       <c r="V15" s="84"/>
@@ -45967,7 +45967,7 @@
       <c r="S16" s="451"/>
       <c r="T16" s="451"/>
       <c r="U16" s="468">
-        <f>IF($A$1="补货",L16+M16+N16+O16,L16)</f>
+        <f>IF($A$1="补货",L16+M16+N16+O16,L16+M16)</f>
         <v>0</v>
       </c>
       <c r="V16" s="68"/>
@@ -46011,7 +46011,7 @@
       <c r="S17" s="447"/>
       <c r="T17" s="447"/>
       <c r="U17" s="463">
-        <f>IF($A$1="补货",L17+M17+N17+O17,L17)</f>
+        <f>IF($A$1="补货",L17+M17+N17+O17,L17+M17)</f>
         <v>0</v>
       </c>
       <c r="V17" s="82"/>
@@ -46055,7 +46055,7 @@
       <c r="S18" s="449"/>
       <c r="T18" s="449"/>
       <c r="U18" s="465">
-        <f>IF($A$1="补货",L18+M18+N18+O18,L18)</f>
+        <f>IF($A$1="补货",L18+M18+N18+O18,L18+M18)</f>
         <v>0</v>
       </c>
       <c r="V18" s="84"/>
@@ -46105,7 +46105,7 @@
       <c r="S19" s="451"/>
       <c r="T19" s="451"/>
       <c r="U19" s="471">
-        <f>IF($A$1="补货",L19+M19+N19+O19,L19)</f>
+        <f>IF($A$1="补货",L19+M19+N19+O19,L19+M19)</f>
         <v>0</v>
       </c>
       <c r="V19" s="68"/>
@@ -46149,7 +46149,7 @@
       <c r="S20" s="447"/>
       <c r="T20" s="447"/>
       <c r="U20" s="473">
-        <f>IF($A$1="补货",L20+M20+N20+O20,L20)</f>
+        <f>IF($A$1="补货",L20+M20+N20+O20,L20+M20)</f>
         <v>0</v>
       </c>
       <c r="V20" s="82"/>
@@ -46193,7 +46193,7 @@
       <c r="S21" s="453"/>
       <c r="T21" s="453"/>
       <c r="U21" s="475">
-        <f>IF($A$1="补货",L21+M21+N21+O21,L21)</f>
+        <f>IF($A$1="补货",L21+M21+N21+O21,L21+M21)</f>
         <v>0</v>
       </c>
       <c r="V21" s="159"/>
@@ -46238,7 +46238,7 @@
       <c r="S22" s="449"/>
       <c r="T22" s="449"/>
       <c r="U22" s="478">
-        <f>IF($A$1="补货",L22+M22+N22+O22,L22)</f>
+        <f>IF($A$1="补货",L22+M22+N22+O22,L22+M22)</f>
         <v>0</v>
       </c>
       <c r="V22" s="160"/>
@@ -46289,7 +46289,7 @@
       <c r="S23" s="451"/>
       <c r="T23" s="451"/>
       <c r="U23" s="468">
-        <f>IF($A$1="补货",L23+M23+N23+O23,L23)</f>
+        <f>IF($A$1="补货",L23+M23+N23+O23,L23+M23)</f>
         <v>0</v>
       </c>
       <c r="V23" s="68"/>
@@ -46333,7 +46333,7 @@
       <c r="S24" s="447"/>
       <c r="T24" s="447"/>
       <c r="U24" s="463">
-        <f>IF($A$1="补货",L24+M24+N24+O24,L24)</f>
+        <f>IF($A$1="补货",L24+M24+N24+O24,L24+M24)</f>
         <v>0</v>
       </c>
       <c r="V24" s="82"/>
@@ -46377,7 +46377,7 @@
       <c r="S25" s="449"/>
       <c r="T25" s="449"/>
       <c r="U25" s="465">
-        <f>IF($A$1="补货",L25+M25+N25+O25,L25)</f>
+        <f>IF($A$1="补货",L25+M25+N25+O25,L25+M25)</f>
         <v>0</v>
       </c>
       <c r="V25" s="84"/>
@@ -46427,7 +46427,7 @@
       <c r="S26" s="454"/>
       <c r="T26" s="451"/>
       <c r="U26" s="68">
-        <f>IF($A$1="补货",L26+M26+N26+O26,L26)</f>
+        <f>IF($A$1="补货",L26+M26+N26+O26,L26+M26)</f>
         <v>0</v>
       </c>
       <c r="V26" s="68"/>
@@ -46471,7 +46471,7 @@
       <c r="S27" s="455"/>
       <c r="T27" s="447"/>
       <c r="U27" s="82">
-        <f>IF($A$1="补货",L27+M27+N27+O27,L27)</f>
+        <f>IF($A$1="补货",L27+M27+N27+O27,L27+M27)</f>
         <v>0</v>
       </c>
       <c r="V27" s="82"/>
@@ -46515,7 +46515,7 @@
       <c r="S28" s="456"/>
       <c r="T28" s="453"/>
       <c r="U28" s="83">
-        <f>IF($A$1="补货",L28+M28+N28+O28,L28)</f>
+        <f>IF($A$1="补货",L28+M28+N28+O28,L28+M28)</f>
         <v>0</v>
       </c>
       <c r="V28" s="83"/>
@@ -46559,7 +46559,7 @@
       <c r="S29" s="457"/>
       <c r="T29" s="449"/>
       <c r="U29" s="84">
-        <f>IF($A$1="补货",L29+M29+N29+O29,L29)</f>
+        <f>IF($A$1="补货",L29+M29+N29+O29,L29+M29)</f>
         <v>0</v>
       </c>
       <c r="V29" s="84"/>
@@ -46609,7 +46609,7 @@
       <c r="S30" s="459"/>
       <c r="T30" s="460"/>
       <c r="U30" s="87">
-        <f>IF($A$1="补货",L30+M30+N30+O30,L30)</f>
+        <f>IF($A$1="补货",L30+M30+N30+O30,L30+M30)</f>
         <v>0</v>
       </c>
       <c r="V30" s="87"/>
@@ -46653,7 +46653,7 @@
       <c r="S31" s="455"/>
       <c r="T31" s="447"/>
       <c r="U31" s="82">
-        <f>IF($A$1="补货",L31+M31+N31+O31,L31)</f>
+        <f>IF($A$1="补货",L31+M31+N31+O31,L31+M31)</f>
         <v>0</v>
       </c>
       <c r="V31" s="82"/>
@@ -46697,7 +46697,7 @@
       <c r="S32" s="456"/>
       <c r="T32" s="453"/>
       <c r="U32" s="82">
-        <f>IF($A$1="补货",L32+M32+N32+O32,L32)</f>
+        <f>IF($A$1="补货",L32+M32+N32+O32,L32+M32)</f>
         <v>0</v>
       </c>
       <c r="V32" s="82"/>
@@ -46741,7 +46741,7 @@
       <c r="S33" s="457"/>
       <c r="T33" s="449"/>
       <c r="U33" s="84">
-        <f>IF($A$1="补货",L33+M33+N33+O33,L33)</f>
+        <f>IF($A$1="补货",L33+M33+N33+O33,L33+M33)</f>
         <v>0</v>
       </c>
       <c r="V33" s="84"/>
@@ -46787,7 +46787,7 @@
       <c r="S34" s="454"/>
       <c r="T34" s="451"/>
       <c r="U34" s="68">
-        <f>IF($A$1="补货",L34+M34+N34+O34,L34)</f>
+        <f>IF($A$1="补货",L34+M34+N34+O34,L34+M34)</f>
         <v>0</v>
       </c>
       <c r="V34" s="68"/>
@@ -46831,7 +46831,7 @@
       <c r="S35" s="455"/>
       <c r="T35" s="447"/>
       <c r="U35" s="82">
-        <f>IF($A$1="补货",L35+M35+N35+O35,L35)</f>
+        <f>IF($A$1="补货",L35+M35+N35+O35,L35+M35)</f>
         <v>0</v>
       </c>
       <c r="V35" s="82"/>
@@ -46875,7 +46875,7 @@
       <c r="S36" s="456"/>
       <c r="T36" s="453"/>
       <c r="U36" s="82">
-        <f>IF($A$1="补货",L36+M36+N36+O36,L36)</f>
+        <f>IF($A$1="补货",L36+M36+N36+O36,L36+M36)</f>
         <v>0</v>
       </c>
       <c r="V36" s="82"/>
@@ -46919,7 +46919,7 @@
       <c r="S37" s="457"/>
       <c r="T37" s="449"/>
       <c r="U37" s="84">
-        <f>IF($A$1="补货",L37+M37+N37+O37,L37)</f>
+        <f>IF($A$1="补货",L37+M37+N37+O37,L37+M37)</f>
         <v>0</v>
       </c>
       <c r="V37" s="84"/>
@@ -46969,7 +46969,7 @@
       <c r="S38" s="451"/>
       <c r="T38" s="451"/>
       <c r="U38" s="471">
-        <f>IF($A$1="补货",L38+M38+N38+O38,L38)</f>
+        <f>IF($A$1="补货",L38+M38+N38+O38,L38+M38)</f>
         <v>0</v>
       </c>
       <c r="V38" s="68"/>
@@ -47013,7 +47013,7 @@
       <c r="S39" s="447"/>
       <c r="T39" s="447"/>
       <c r="U39" s="473">
-        <f>IF($A$1="补货",L39+M39+N39+O39,L39)</f>
+        <f>IF($A$1="补货",L39+M39+N39+O39,L39+M39)</f>
         <v>0</v>
       </c>
       <c r="V39" s="82"/>
@@ -47057,7 +47057,7 @@
       <c r="S40" s="449"/>
       <c r="T40" s="449"/>
       <c r="U40" s="478">
-        <f>IF($A$1="补货",L40+M40+N40+O40,L40)</f>
+        <f>IF($A$1="补货",L40+M40+N40+O40,L40+M40)</f>
         <v>0</v>
       </c>
       <c r="V40" s="84"/>
@@ -47107,7 +47107,7 @@
       <c r="S41" s="454"/>
       <c r="T41" s="451"/>
       <c r="U41" s="68">
-        <f>IF($A$1="补货",L41+M41+N41+O41,L41)</f>
+        <f>IF($A$1="补货",L41+M41+N41+O41,L41+M41)</f>
         <v>0</v>
       </c>
       <c r="V41" s="68"/>
@@ -47151,7 +47151,7 @@
       <c r="S42" s="455"/>
       <c r="T42" s="447"/>
       <c r="U42" s="82">
-        <f>IF($A$1="补货",L42+M42+N42+O42,L42)</f>
+        <f>IF($A$1="补货",L42+M42+N42+O42,L42+M42)</f>
         <v>0</v>
       </c>
       <c r="V42" s="82"/>
@@ -47195,7 +47195,7 @@
       <c r="S43" s="456"/>
       <c r="T43" s="453"/>
       <c r="U43" s="82">
-        <f>IF($A$1="补货",L43+M43+N43+O43,L43)</f>
+        <f>IF($A$1="补货",L43+M43+N43+O43,L43+M43)</f>
         <v>0</v>
       </c>
       <c r="V43" s="82"/>
@@ -47239,7 +47239,7 @@
       <c r="S44" s="457"/>
       <c r="T44" s="449"/>
       <c r="U44" s="84">
-        <f>IF($A$1="补货",L44+M44+N44+O44,L44)</f>
+        <f>IF($A$1="补货",L44+M44+N44+O44,L44+M44)</f>
         <v>0</v>
       </c>
       <c r="V44" s="84"/>
@@ -47285,7 +47285,7 @@
       <c r="S45" s="454"/>
       <c r="T45" s="451"/>
       <c r="U45" s="68">
-        <f>IF($A$1="补货",L45+M45+N45+O45,L45)</f>
+        <f>IF($A$1="补货",L45+M45+N45+O45,L45+M45)</f>
         <v>0</v>
       </c>
       <c r="V45" s="68"/>
@@ -47329,7 +47329,7 @@
       <c r="S46" s="455"/>
       <c r="T46" s="447"/>
       <c r="U46" s="82">
-        <f>IF($A$1="补货",L46+M46+N46+O46,L46)</f>
+        <f>IF($A$1="补货",L46+M46+N46+O46,L46+M46)</f>
         <v>0</v>
       </c>
       <c r="V46" s="82"/>
@@ -47373,7 +47373,7 @@
       <c r="S47" s="456"/>
       <c r="T47" s="453"/>
       <c r="U47" s="82">
-        <f>IF($A$1="补货",L47+M47+N47+O47,L47)</f>
+        <f>IF($A$1="补货",L47+M47+N47+O47,L47+M47)</f>
         <v>0</v>
       </c>
       <c r="V47" s="82"/>
@@ -47417,7 +47417,7 @@
       <c r="S48" s="457"/>
       <c r="T48" s="449"/>
       <c r="U48" s="84">
-        <f>IF($A$1="补货",L48+M48+N48+O48,L48)</f>
+        <f>IF($A$1="补货",L48+M48+N48+O48,L48+M48)</f>
         <v>0</v>
       </c>
       <c r="V48" s="84"/>
@@ -47467,7 +47467,7 @@
       <c r="S49" s="454"/>
       <c r="T49" s="451"/>
       <c r="U49" s="68">
-        <f>IF($A$1="补货",L49+M49+N49+O49,L49)</f>
+        <f>IF($A$1="补货",L49+M49+N49+O49,L49+M49)</f>
         <v>0</v>
       </c>
       <c r="V49" s="68"/>
@@ -47511,7 +47511,7 @@
       <c r="S50" s="455"/>
       <c r="T50" s="447"/>
       <c r="U50" s="82">
-        <f>IF($A$1="补货",L50+M50+N50+O50,L50)</f>
+        <f>IF($A$1="补货",L50+M50+N50+O50,L50+M50)</f>
         <v>0</v>
       </c>
       <c r="V50" s="82"/>
@@ -47555,7 +47555,7 @@
       <c r="S51" s="456"/>
       <c r="T51" s="453"/>
       <c r="U51" s="82">
-        <f>IF($A$1="补货",L51+M51+N51+O51,L51)</f>
+        <f>IF($A$1="补货",L51+M51+N51+O51,L51+M51)</f>
         <v>0</v>
       </c>
       <c r="V51" s="82"/>
@@ -47599,7 +47599,7 @@
       <c r="S52" s="457"/>
       <c r="T52" s="449"/>
       <c r="U52" s="84">
-        <f>IF($A$1="补货",L52+M52+N52+O52,L52)</f>
+        <f>IF($A$1="补货",L52+M52+N52+O52,L52+M52)</f>
         <v>0</v>
       </c>
       <c r="V52" s="84"/>
@@ -47649,7 +47649,7 @@
       <c r="S53" s="451"/>
       <c r="T53" s="451"/>
       <c r="U53" s="471">
-        <f>IF($A$1="补货",L53+M53+N53+O53,L53)</f>
+        <f>IF($A$1="补货",L53+M53+N53+O53,L53+M53)</f>
         <v>0</v>
       </c>
       <c r="V53" s="68"/>
@@ -47693,7 +47693,7 @@
       <c r="S54" s="447"/>
       <c r="T54" s="447"/>
       <c r="U54" s="473">
-        <f>IF($A$1="补货",L54+M54+N54+O54,L54)</f>
+        <f>IF($A$1="补货",L54+M54+N54+O54,L54+M54)</f>
         <v>0</v>
       </c>
       <c r="V54" s="82"/>
@@ -47737,7 +47737,7 @@
       <c r="S55" s="453"/>
       <c r="T55" s="453"/>
       <c r="U55" s="475">
-        <f>IF($A$1="补货",L55+M55+N55+O55,L55)</f>
+        <f>IF($A$1="补货",L55+M55+N55+O55,L55+M55)</f>
         <v>0</v>
       </c>
       <c r="V55" s="83"/>
@@ -47781,7 +47781,7 @@
       <c r="S56" s="449"/>
       <c r="T56" s="449"/>
       <c r="U56" s="478">
-        <f>IF($A$1="补货",L56+M56+N56+O56,L56)</f>
+        <f>IF($A$1="补货",L56+M56+N56+O56,L56+M56)</f>
         <v>0</v>
       </c>
       <c r="V56" s="84"/>
@@ -47831,7 +47831,7 @@
       <c r="S57" s="451"/>
       <c r="T57" s="451"/>
       <c r="U57" s="471">
-        <f>IF($A$1="补货",L57+M57+N57+O57,L57)</f>
+        <f>IF($A$1="补货",L57+M57+N57+O57,L57+M57)</f>
         <v>0</v>
       </c>
       <c r="V57" s="68"/>
@@ -47875,7 +47875,7 @@
       <c r="S58" s="447"/>
       <c r="T58" s="447"/>
       <c r="U58" s="473">
-        <f>IF($A$1="补货",L58+M58+N58+O58,L58)</f>
+        <f>IF($A$1="补货",L58+M58+N58+O58,L58+M58)</f>
         <v>0</v>
       </c>
       <c r="V58" s="82"/>
@@ -47919,7 +47919,7 @@
       <c r="S59" s="453"/>
       <c r="T59" s="453"/>
       <c r="U59" s="475">
-        <f>IF($A$1="补货",L59+M59+N59+O59,L59)</f>
+        <f>IF($A$1="补货",L59+M59+N59+O59,L59+M59)</f>
         <v>0</v>
       </c>
       <c r="V59" s="83"/>
@@ -47963,7 +47963,7 @@
       <c r="S60" s="449"/>
       <c r="T60" s="449"/>
       <c r="U60" s="478">
-        <f>IF($A$1="补货",L60+M60+N60+O60,L60)</f>
+        <f>IF($A$1="补货",L60+M60+N60+O60,L60+M60)</f>
         <v>0</v>
       </c>
       <c r="V60" s="84"/>
@@ -48013,7 +48013,7 @@
       <c r="S61" s="460"/>
       <c r="T61" s="460"/>
       <c r="U61" s="482">
-        <f>IF($A$1="补货",L61+M61+N61+O61,L61)</f>
+        <f>IF($A$1="补货",L61+M61+N61+O61,L61+M61)</f>
         <v>0</v>
       </c>
       <c r="V61" s="87"/>
@@ -48057,7 +48057,7 @@
       <c r="S62" s="447"/>
       <c r="T62" s="447"/>
       <c r="U62" s="463">
-        <f>IF($A$1="补货",L62+M62+N62+O62,L62)</f>
+        <f>IF($A$1="补货",L62+M62+N62+O62,L62+M62)</f>
         <v>0</v>
       </c>
       <c r="V62" s="82"/>
@@ -48101,7 +48101,7 @@
       <c r="S63" s="449"/>
       <c r="T63" s="449"/>
       <c r="U63" s="465">
-        <f>IF($A$1="补货",L63+M63+N63+O63,L63)</f>
+        <f>IF($A$1="补货",L63+M63+N63+O63,L63+M63)</f>
         <v>0</v>
       </c>
       <c r="V63" s="84"/>
@@ -48151,7 +48151,7 @@
       <c r="S64" s="462"/>
       <c r="T64" s="462"/>
       <c r="U64" s="484">
-        <f>IF($A$1="补货",L64+M64+N64+O64,L64)</f>
+        <f>IF($A$1="补货",L64+M64+N64+O64,L64+M64)</f>
         <v>0</v>
       </c>
       <c r="V64" s="484"/>
@@ -48195,7 +48195,7 @@
       <c r="S65" s="518"/>
       <c r="T65" s="518"/>
       <c r="U65" s="542">
-        <f>IF($A$1="补货",L65+M65+N65+O65,L65)</f>
+        <f>IF($A$1="补货",L65+M65+N65+O65,L65+M65)</f>
         <v>0</v>
       </c>
       <c r="V65" s="542"/>
@@ -48239,7 +48239,7 @@
       <c r="S66" s="519"/>
       <c r="T66" s="519"/>
       <c r="U66" s="544">
-        <f>IF($A$1="补货",L66+M66+N66+O66,L66)</f>
+        <f>IF($A$1="补货",L66+M66+N66+O66,L66+M66)</f>
         <v>0</v>
       </c>
       <c r="V66" s="544"/>
@@ -48289,7 +48289,7 @@
       <c r="S67" s="462"/>
       <c r="T67" s="462"/>
       <c r="U67" s="484">
-        <f>IF($A$1="补货",L67+M67+N67+O67,L67)</f>
+        <f>IF($A$1="补货",L67+M67+N67+O67,L67+M67)</f>
         <v>0</v>
       </c>
       <c r="V67" s="484"/>
@@ -48333,7 +48333,7 @@
       <c r="S68" s="518"/>
       <c r="T68" s="518"/>
       <c r="U68" s="542">
-        <f>IF($A$1="补货",L68+M68+N68+O68,L68)</f>
+        <f>IF($A$1="补货",L68+M68+N68+O68,L68+M68)</f>
         <v>0</v>
       </c>
       <c r="V68" s="542"/>
@@ -48377,7 +48377,7 @@
       <c r="S69" s="519"/>
       <c r="T69" s="519"/>
       <c r="U69" s="544">
-        <f>IF($A$1="补货",L69+M69+N69+O69,L69)</f>
+        <f>IF($A$1="补货",L69+M69+N69+O69,L69+M69)</f>
         <v>0</v>
       </c>
       <c r="V69" s="544"/>
@@ -48427,7 +48427,7 @@
       <c r="S70" s="451"/>
       <c r="T70" s="451"/>
       <c r="U70" s="468">
-        <f>IF($A$1="补货",L70+M70+N70+O70,L70)</f>
+        <f>IF($A$1="补货",L70+M70+N70+O70,L70+M70)</f>
         <v>0</v>
       </c>
       <c r="V70" s="68"/>
@@ -48471,7 +48471,7 @@
       <c r="S71" s="447"/>
       <c r="T71" s="447"/>
       <c r="U71" s="463">
-        <f>IF($A$1="补货",L71+M71+N71+O71,L71)</f>
+        <f>IF($A$1="补货",L71+M71+N71+O71,L71+M71)</f>
         <v>0</v>
       </c>
       <c r="V71" s="82"/>
@@ -48515,7 +48515,7 @@
       <c r="S72" s="447"/>
       <c r="T72" s="447"/>
       <c r="U72" s="463">
-        <f>IF($A$1="补货",L72+M72+N72+O72,L72)</f>
+        <f>IF($A$1="补货",L72+M72+N72+O72,L72+M72)</f>
         <v>0</v>
       </c>
       <c r="V72" s="82"/>
@@ -48559,7 +48559,7 @@
       <c r="S73" s="447"/>
       <c r="T73" s="447"/>
       <c r="U73" s="463">
-        <f>IF($A$1="补货",L73+M73+N73+O73,L73)</f>
+        <f>IF($A$1="补货",L73+M73+N73+O73,L73+M73)</f>
         <v>0</v>
       </c>
       <c r="V73" s="82"/>
@@ -48603,7 +48603,7 @@
       <c r="S74" s="449"/>
       <c r="T74" s="449"/>
       <c r="U74" s="465">
-        <f>IF($A$1="补货",L74+M74+N74+O74,L74)</f>
+        <f>IF($A$1="补货",L74+M74+N74+O74,L74+M74)</f>
         <v>0</v>
       </c>
       <c r="V74" s="84"/>
@@ -48653,7 +48653,7 @@
       <c r="S75" s="521"/>
       <c r="T75" s="529"/>
       <c r="U75" s="68">
-        <f>IF($A$1="补货",L75+M75+N75+O75,L75)</f>
+        <f>IF($A$1="补货",L75+M75+N75+O75,L75+M75)</f>
         <v>0</v>
       </c>
       <c r="V75" s="157"/>
@@ -48698,7 +48698,7 @@
       <c r="S76" s="522"/>
       <c r="T76" s="530"/>
       <c r="U76" s="82">
-        <f>IF($A$1="补货",L76+M76+N76+O76,L76)</f>
+        <f>IF($A$1="补货",L76+M76+N76+O76,L76+M76)</f>
         <v>0</v>
       </c>
       <c r="V76" s="82"/>
@@ -48742,7 +48742,7 @@
       <c r="S77" s="523"/>
       <c r="T77" s="531"/>
       <c r="U77" s="82">
-        <f>IF($A$1="补货",L77+M77+N77+O77,L77)</f>
+        <f>IF($A$1="补货",L77+M77+N77+O77,L77+M77)</f>
         <v>0</v>
       </c>
       <c r="V77" s="82"/>
@@ -48786,7 +48786,7 @@
       <c r="S78" s="524"/>
       <c r="T78" s="533"/>
       <c r="U78" s="84">
-        <f>IF($A$1="补货",L78+M78+N78+O78,L78)</f>
+        <f>IF($A$1="补货",L78+M78+N78+O78,L78+M78)</f>
         <v>0</v>
       </c>
       <c r="V78" s="84"/>
@@ -48832,7 +48832,7 @@
       <c r="S79" s="525"/>
       <c r="T79" s="546"/>
       <c r="U79" s="87">
-        <f>IF($A$1="补货",L79+M79+N79+O79,L79)</f>
+        <f>IF($A$1="补货",L79+M79+N79+O79,L79+M79)</f>
         <v>0</v>
       </c>
       <c r="V79" s="87"/>
@@ -48876,7 +48876,7 @@
       <c r="S80" s="522"/>
       <c r="T80" s="530"/>
       <c r="U80" s="82">
-        <f>IF($A$1="补货",L80+M80+N80+O80,L80)</f>
+        <f>IF($A$1="补货",L80+M80+N80+O80,L80+M80)</f>
         <v>0</v>
       </c>
       <c r="V80" s="82"/>
@@ -48920,7 +48920,7 @@
       <c r="S81" s="523"/>
       <c r="T81" s="531"/>
       <c r="U81" s="82">
-        <f>IF($A$1="补货",L81+M81+N81+O81,L81)</f>
+        <f>IF($A$1="补货",L81+M81+N81+O81,L81+M81)</f>
         <v>0</v>
       </c>
       <c r="V81" s="82"/>
@@ -48964,7 +48964,7 @@
       <c r="S82" s="524"/>
       <c r="T82" s="533"/>
       <c r="U82" s="84">
-        <f>IF($A$1="补货",L82+M82+N82+O82,L82)</f>
+        <f>IF($A$1="补货",L82+M82+N82+O82,L82+M82)</f>
         <v>0</v>
       </c>
       <c r="V82" s="84"/>
@@ -49014,7 +49014,7 @@
       <c r="S83" s="529"/>
       <c r="T83" s="529"/>
       <c r="U83" s="471">
-        <f>IF($A$1="补货",L83+M83+N83+O83,L83)</f>
+        <f>IF($A$1="补货",L83+M83+N83+O83,L83+M83)</f>
         <v>0</v>
       </c>
       <c r="V83" s="68"/>
@@ -49058,7 +49058,7 @@
       <c r="S84" s="530"/>
       <c r="T84" s="530"/>
       <c r="U84" s="473">
-        <f>IF($A$1="补货",L84+M84+N84+O84,L84)</f>
+        <f>IF($A$1="补货",L84+M84+N84+O84,L84+M84)</f>
         <v>0</v>
       </c>
       <c r="V84" s="82"/>
@@ -49102,7 +49102,7 @@
       <c r="S85" s="531"/>
       <c r="T85" s="531"/>
       <c r="U85" s="475">
-        <f>IF($A$1="补货",L85+M85+N85+O85,L85)</f>
+        <f>IF($A$1="补货",L85+M85+N85+O85,L85+M85)</f>
         <v>0</v>
       </c>
       <c r="V85" s="83"/>
@@ -49146,7 +49146,7 @@
       <c r="S86" s="533"/>
       <c r="T86" s="533"/>
       <c r="U86" s="478">
-        <f>IF($A$1="补货",L86+M86+N86+O86,L86)</f>
+        <f>IF($A$1="补货",L86+M86+N86+O86,L86+M86)</f>
         <v>0</v>
       </c>
       <c r="V86" s="84"/>
@@ -49196,7 +49196,7 @@
       <c r="S87" s="529"/>
       <c r="T87" s="529"/>
       <c r="U87" s="468">
-        <f>IF($A$1="补货",L87+M87+N87+O87,L87)</f>
+        <f>IF($A$1="补货",L87+M87+N87+O87,L87+M87)</f>
         <v>0</v>
       </c>
       <c r="V87" s="68"/>
@@ -49240,7 +49240,7 @@
       <c r="S88" s="530"/>
       <c r="T88" s="530"/>
       <c r="U88" s="463">
-        <f>IF($A$1="补货",L88+M88+N88+O88,L88)</f>
+        <f>IF($A$1="补货",L88+M88+N88+O88,L88+M88)</f>
         <v>0</v>
       </c>
       <c r="V88" s="82"/>
@@ -49284,7 +49284,7 @@
       <c r="S89" s="533"/>
       <c r="T89" s="533"/>
       <c r="U89" s="465">
-        <f>IF($A$1="补货",L89+M89+N89+O89,L89)</f>
+        <f>IF($A$1="补货",L89+M89+N89+O89,L89+M89)</f>
         <v>0</v>
       </c>
       <c r="V89" s="84"/>
@@ -49334,7 +49334,7 @@
       <c r="S90" s="534"/>
       <c r="T90" s="534"/>
       <c r="U90" s="484">
-        <f>IF($A$1="补货",L90+M90+N90+O90,L90)</f>
+        <f>IF($A$1="补货",L90+M90+N90+O90,L90+M90)</f>
         <v>0</v>
       </c>
       <c r="V90" s="484"/>
@@ -49378,7 +49378,7 @@
       <c r="S91" s="535"/>
       <c r="T91" s="535"/>
       <c r="U91" s="542">
-        <f>IF($A$1="补货",L91+M91+N91+O91,L91)</f>
+        <f>IF($A$1="补货",L91+M91+N91+O91,L91+M91)</f>
         <v>0</v>
       </c>
       <c r="V91" s="542"/>
@@ -49422,7 +49422,7 @@
       <c r="S92" s="536"/>
       <c r="T92" s="536"/>
       <c r="U92" s="544">
-        <f>IF($A$1="补货",L92+M92+N92+O92,L92)</f>
+        <f>IF($A$1="补货",L92+M92+N92+O92,L92+M92)</f>
         <v>0</v>
       </c>
       <c r="V92" s="544"/>
@@ -49472,7 +49472,7 @@
       <c r="S93" s="462"/>
       <c r="T93" s="462"/>
       <c r="U93" s="484">
-        <f>IF($A$1="补货",L93+M93+N93+O93,L93)</f>
+        <f>IF($A$1="补货",L93+M93+N93+O93,L93+M93)</f>
         <v>0</v>
       </c>
       <c r="V93" s="547"/>
@@ -49517,7 +49517,7 @@
       <c r="S94" s="518"/>
       <c r="T94" s="518"/>
       <c r="U94" s="542">
-        <f>IF($A$1="补货",L94+M94+N94+O94,L94)</f>
+        <f>IF($A$1="补货",L94+M94+N94+O94,L94+M94)</f>
         <v>0</v>
       </c>
       <c r="V94" s="542"/>
@@ -49561,7 +49561,7 @@
       <c r="S95" s="538"/>
       <c r="T95" s="538"/>
       <c r="U95" s="542">
-        <f>IF($A$1="补货",L95+M95+N95+O95,L95)</f>
+        <f>IF($A$1="补货",L95+M95+N95+O95,L95+M95)</f>
         <v>0</v>
       </c>
       <c r="V95" s="542"/>
@@ -49605,7 +49605,7 @@
       <c r="S96" s="519"/>
       <c r="T96" s="519"/>
       <c r="U96" s="544">
-        <f>IF($A$1="补货",L96+M96+N96+O96,L96)</f>
+        <f>IF($A$1="补货",L96+M96+N96+O96,L96+M96)</f>
         <v>0</v>
       </c>
       <c r="V96" s="544"/>
@@ -49655,7 +49655,7 @@
       <c r="S97" s="462"/>
       <c r="T97" s="462"/>
       <c r="U97" s="484">
-        <f>IF($A$1="补货",L97+M97+N97+O97,L97)</f>
+        <f>IF($A$1="补货",L97+M97+N97+O97,L97+M97)</f>
         <v>0</v>
       </c>
       <c r="V97" s="484"/>
@@ -49699,7 +49699,7 @@
       <c r="S98" s="518"/>
       <c r="T98" s="518"/>
       <c r="U98" s="542">
-        <f>IF($A$1="补货",L98+M98+N98+O98,L98)</f>
+        <f>IF($A$1="补货",L98+M98+N98+O98,L98+M98)</f>
         <v>0</v>
       </c>
       <c r="V98" s="542"/>
@@ -49743,7 +49743,7 @@
       <c r="S99" s="519"/>
       <c r="T99" s="519"/>
       <c r="U99" s="544">
-        <f>IF($A$1="补货",L99+M99+N99+O99,L99)</f>
+        <f>IF($A$1="补货",L99+M99+N99+O99,L99+M99)</f>
         <v>0</v>
       </c>
       <c r="V99" s="544"/>
@@ -49793,7 +49793,7 @@
       <c r="S100" s="462"/>
       <c r="T100" s="462"/>
       <c r="U100" s="484">
-        <f>IF($A$1="补货",L100+M100+N100+O100,L100)</f>
+        <f>IF($A$1="补货",L100+M100+N100+O100,L100+M100)</f>
         <v>0</v>
       </c>
       <c r="V100" s="484"/>
@@ -49837,7 +49837,7 @@
       <c r="S101" s="518"/>
       <c r="T101" s="518"/>
       <c r="U101" s="542">
-        <f>IF($A$1="补货",L101+M101+N101+O101,L101)</f>
+        <f>IF($A$1="补货",L101+M101+N101+O101,L101+M101)</f>
         <v>0</v>
       </c>
       <c r="V101" s="542"/>
@@ -49881,7 +49881,7 @@
       <c r="S102" s="519"/>
       <c r="T102" s="519"/>
       <c r="U102" s="544">
-        <f>IF($A$1="补货",L102+M102+N102+O102,L102)</f>
+        <f>IF($A$1="补货",L102+M102+N102+O102,L102+M102)</f>
         <v>0</v>
       </c>
       <c r="V102" s="544"/>
@@ -49931,7 +49931,7 @@
       <c r="S103" s="462"/>
       <c r="T103" s="462"/>
       <c r="U103" s="484">
-        <f>IF($A$1="补货",L103+M103+N103+O103,L103)</f>
+        <f>IF($A$1="补货",L103+M103+N103+O103,L103+M103)</f>
         <v>0</v>
       </c>
       <c r="V103" s="484"/>
@@ -49975,7 +49975,7 @@
       <c r="S104" s="518"/>
       <c r="T104" s="518"/>
       <c r="U104" s="542">
-        <f>IF($A$1="补货",L104+M104+N104+O104,L104)</f>
+        <f>IF($A$1="补货",L104+M104+N104+O104,L104+M104)</f>
         <v>0</v>
       </c>
       <c r="V104" s="542"/>
@@ -50019,7 +50019,7 @@
       <c r="S105" s="519"/>
       <c r="T105" s="519"/>
       <c r="U105" s="544">
-        <f>IF($A$1="补货",L105+M105+N105+O105,L105)</f>
+        <f>IF($A$1="补货",L105+M105+N105+O105,L105+M105)</f>
         <v>0</v>
       </c>
       <c r="V105" s="544"/>
@@ -50069,7 +50069,7 @@
       <c r="S106" s="462"/>
       <c r="T106" s="462"/>
       <c r="U106" s="484">
-        <f>IF($A$1="补货",L106+M106+N106+O106,L106)</f>
+        <f>IF($A$1="补货",L106+M106+N106+O106,L106+M106)</f>
         <v>0</v>
       </c>
       <c r="V106" s="484"/>
@@ -50113,7 +50113,7 @@
       <c r="S107" s="518"/>
       <c r="T107" s="518"/>
       <c r="U107" s="542">
-        <f>IF($A$1="补货",L107+M107+N107+O107,L107)</f>
+        <f>IF($A$1="补货",L107+M107+N107+O107,L107+M107)</f>
         <v>0</v>
       </c>
       <c r="V107" s="542"/>
@@ -50157,7 +50157,7 @@
       <c r="S108" s="519"/>
       <c r="T108" s="519"/>
       <c r="U108" s="544">
-        <f>IF($A$1="补货",L108+M108+N108+O108,L108)</f>
+        <f>IF($A$1="补货",L108+M108+N108+O108,L108+M108)</f>
         <v>0</v>
       </c>
       <c r="V108" s="544"/>
@@ -50207,7 +50207,7 @@
       <c r="S109" s="462"/>
       <c r="T109" s="462"/>
       <c r="U109" s="484">
-        <f>IF($A$1="补货",L109+M109+N109+O109,L109)</f>
+        <f>IF($A$1="补货",L109+M109+N109+O109,L109+M109)</f>
         <v>0</v>
       </c>
       <c r="V109" s="484"/>
@@ -50251,7 +50251,7 @@
       <c r="S110" s="518"/>
       <c r="T110" s="518"/>
       <c r="U110" s="542">
-        <f>IF($A$1="补货",L110+M110+N110+O110,L110)</f>
+        <f>IF($A$1="补货",L110+M110+N110+O110,L110+M110)</f>
         <v>0</v>
       </c>
       <c r="V110" s="542"/>
@@ -50295,7 +50295,7 @@
       <c r="S111" s="519"/>
       <c r="T111" s="519"/>
       <c r="U111" s="544">
-        <f>IF($A$1="补货",L111+M111+N111+O111,L111)</f>
+        <f>IF($A$1="补货",L111+M111+N111+O111,L111+M111)</f>
         <v>0</v>
       </c>
       <c r="V111" s="544"/>
@@ -50343,7 +50343,7 @@
       <c r="S112" s="462"/>
       <c r="T112" s="462"/>
       <c r="U112" s="484">
-        <f>IF($A$1="补货",L112+M112+N112+O112,L112)</f>
+        <f>IF($A$1="补货",L112+M112+N112+O112,L112+M112)</f>
         <v>0</v>
       </c>
       <c r="V112" s="484"/>
@@ -50387,7 +50387,7 @@
       <c r="S113" s="518"/>
       <c r="T113" s="518"/>
       <c r="U113" s="542">
-        <f>IF($A$1="补货",L113+M113+N113+O113,L113)</f>
+        <f>IF($A$1="补货",L113+M113+N113+O113,L113+M113)</f>
         <v>0</v>
       </c>
       <c r="V113" s="542"/>
@@ -50431,7 +50431,7 @@
       <c r="S114" s="519"/>
       <c r="T114" s="519"/>
       <c r="U114" s="544">
-        <f>IF($A$1="补货",L114+M114+N114+O114,L114)</f>
+        <f>IF($A$1="补货",L114+M114+N114+O114,L114+M114)</f>
         <v>0</v>
       </c>
       <c r="V114" s="544"/>
@@ -50481,7 +50481,7 @@
       <c r="S115" s="462"/>
       <c r="T115" s="462"/>
       <c r="U115" s="484">
-        <f>IF($A$1="补货",L115+M115+N115+O115,L115)</f>
+        <f>IF($A$1="补货",L115+M115+N115+O115,L115+M115)</f>
         <v>0</v>
       </c>
       <c r="V115" s="484"/>
@@ -50525,7 +50525,7 @@
       <c r="S116" s="518"/>
       <c r="T116" s="518"/>
       <c r="U116" s="542">
-        <f>IF($A$1="补货",L116+M116+N116+O116,L116)</f>
+        <f>IF($A$1="补货",L116+M116+N116+O116,L116+M116)</f>
         <v>0</v>
       </c>
       <c r="V116" s="542"/>
@@ -50569,7 +50569,7 @@
       <c r="S117" s="519"/>
       <c r="T117" s="519"/>
       <c r="U117" s="544">
-        <f>IF($A$1="补货",L117+M117+N117+O117,L117)</f>
+        <f>IF($A$1="补货",L117+M117+N117+O117,L117+M117)</f>
         <v>0</v>
       </c>
       <c r="V117" s="544"/>
@@ -50619,7 +50619,7 @@
       <c r="S118" s="454"/>
       <c r="T118" s="451"/>
       <c r="U118" s="68">
-        <f>IF($A$1="补货",L118+M118+N118+O118,L118)</f>
+        <f>IF($A$1="补货",L118+M118+N118+O118,L118+M118)</f>
         <v>0</v>
       </c>
       <c r="V118" s="68"/>
@@ -50663,7 +50663,7 @@
       <c r="S119" s="455"/>
       <c r="T119" s="447"/>
       <c r="U119" s="82">
-        <f>IF($A$1="补货",L119+M119+N119+O119,L119)</f>
+        <f>IF($A$1="补货",L119+M119+N119+O119,L119+M119)</f>
         <v>0</v>
       </c>
       <c r="V119" s="82"/>
@@ -50707,7 +50707,7 @@
       <c r="S120" s="455"/>
       <c r="T120" s="447"/>
       <c r="U120" s="82">
-        <f>IF($A$1="补货",L120+M120+N120+O120,L120)</f>
+        <f>IF($A$1="补货",L120+M120+N120+O120,L120+M120)</f>
         <v>0</v>
       </c>
       <c r="V120" s="82"/>
@@ -50751,7 +50751,7 @@
       <c r="S121" s="457"/>
       <c r="T121" s="449"/>
       <c r="U121" s="84">
-        <f>IF($A$1="补货",L121+M121+N121+O121,L121)</f>
+        <f>IF($A$1="补货",L121+M121+N121+O121,L121+M121)</f>
         <v>0</v>
       </c>
       <c r="V121" s="84"/>
@@ -50799,7 +50799,7 @@
       <c r="S122" s="454"/>
       <c r="T122" s="451"/>
       <c r="U122" s="68">
-        <f>IF($A$1="补货",L122+M122+N122+O122,L122)</f>
+        <f>IF($A$1="补货",L122+M122+N122+O122,L122+M122)</f>
         <v>0</v>
       </c>
       <c r="V122" s="68"/>
@@ -50843,7 +50843,7 @@
       <c r="S123" s="455"/>
       <c r="T123" s="447"/>
       <c r="U123" s="82">
-        <f>IF($A$1="补货",L123+M123+N123+O123,L123)</f>
+        <f>IF($A$1="补货",L123+M123+N123+O123,L123+M123)</f>
         <v>0</v>
       </c>
       <c r="V123" s="82"/>
@@ -50887,7 +50887,7 @@
       <c r="S124" s="455"/>
       <c r="T124" s="447"/>
       <c r="U124" s="82">
-        <f>IF($A$1="补货",L124+M124+N124+O124,L124)</f>
+        <f>IF($A$1="补货",L124+M124+N124+O124,L124+M124)</f>
         <v>0</v>
       </c>
       <c r="V124" s="82"/>
@@ -50931,7 +50931,7 @@
       <c r="S125" s="457"/>
       <c r="T125" s="449"/>
       <c r="U125" s="84">
-        <f>IF($A$1="补货",L125+M125+N125+O125,L125)</f>
+        <f>IF($A$1="补货",L125+M125+N125+O125,L125+M125)</f>
         <v>0</v>
       </c>
       <c r="V125" s="84"/>
@@ -50981,7 +50981,7 @@
       <c r="S126" s="462"/>
       <c r="T126" s="462"/>
       <c r="U126" s="484">
-        <f>IF($A$1="补货",L126+M126+N126+O126,L126)</f>
+        <f>IF($A$1="补货",L126+M126+N126+O126,L126+M126)</f>
         <v>0</v>
       </c>
       <c r="V126" s="484"/>
@@ -51025,7 +51025,7 @@
       <c r="S127" s="518"/>
       <c r="T127" s="518"/>
       <c r="U127" s="542">
-        <f>IF($A$1="补货",L127+M127+N127+O127,L127)</f>
+        <f>IF($A$1="补货",L127+M127+N127+O127,L127+M127)</f>
         <v>0</v>
       </c>
       <c r="V127" s="542"/>
@@ -51069,7 +51069,7 @@
       <c r="S128" s="519"/>
       <c r="T128" s="519"/>
       <c r="U128" s="544">
-        <f>IF($A$1="补货",L128+M128+N128+O128,L128)</f>
+        <f>IF($A$1="补货",L128+M128+N128+O128,L128+M128)</f>
         <v>0</v>
       </c>
       <c r="V128" s="544"/>
@@ -51119,7 +51119,7 @@
       <c r="S129" s="451"/>
       <c r="T129" s="451"/>
       <c r="U129" s="468">
-        <f>IF($A$1="补货",L129+M129+N129+O129,L129)</f>
+        <f>IF($A$1="补货",L129+M129+N129+O129,L129+M129)</f>
         <v>0</v>
       </c>
       <c r="V129" s="68"/>
@@ -51164,7 +51164,7 @@
       <c r="S130" s="447"/>
       <c r="T130" s="447"/>
       <c r="U130" s="463">
-        <f>IF($A$1="补货",L130+M130+N130+O130,L130)</f>
+        <f>IF($A$1="补货",L130+M130+N130+O130,L130+M130)</f>
         <v>0</v>
       </c>
       <c r="V130" s="82"/>
@@ -51209,7 +51209,7 @@
       <c r="S131" s="447"/>
       <c r="T131" s="447"/>
       <c r="U131" s="463">
-        <f>IF($A$1="补货",L131+M131+N131+O131,L131)</f>
+        <f>IF($A$1="补货",L131+M131+N131+O131,L131+M131)</f>
         <v>0</v>
       </c>
       <c r="V131" s="82"/>
@@ -51254,7 +51254,7 @@
       <c r="S132" s="449"/>
       <c r="T132" s="449"/>
       <c r="U132" s="465">
-        <f>IF($A$1="补货",L132+M132+N132+O132,L132)</f>
+        <f>IF($A$1="补货",L132+M132+N132+O132,L132+M132)</f>
         <v>0</v>
       </c>
       <c r="V132" s="84"/>
@@ -51301,7 +51301,7 @@
       <c r="S133" s="451"/>
       <c r="T133" s="451"/>
       <c r="U133" s="468">
-        <f>IF($A$1="补货",L133+M133+N133+O133,L133)</f>
+        <f>IF($A$1="补货",L133+M133+N133+O133,L133+M133)</f>
         <v>0</v>
       </c>
       <c r="V133" s="68"/>
@@ -51346,7 +51346,7 @@
       <c r="S134" s="447"/>
       <c r="T134" s="447"/>
       <c r="U134" s="463">
-        <f>IF($A$1="补货",L134+M134+N134+O134,L134)</f>
+        <f>IF($A$1="补货",L134+M134+N134+O134,L134+M134)</f>
         <v>0</v>
       </c>
       <c r="V134" s="82"/>
@@ -51391,7 +51391,7 @@
       <c r="S135" s="447"/>
       <c r="T135" s="447"/>
       <c r="U135" s="463">
-        <f>IF($A$1="补货",L135+M135+N135+O135,L135)</f>
+        <f>IF($A$1="补货",L135+M135+N135+O135,L135+M135)</f>
         <v>0</v>
       </c>
       <c r="V135" s="82"/>
@@ -51436,7 +51436,7 @@
       <c r="S136" s="449"/>
       <c r="T136" s="449"/>
       <c r="U136" s="465">
-        <f>IF($A$1="补货",L136+M136+N136+O136,L136)</f>
+        <f>IF($A$1="补货",L136+M136+N136+O136,L136+M136)</f>
         <v>0</v>
       </c>
       <c r="V136" s="84"/>
@@ -51487,7 +51487,7 @@
       <c r="S137" s="451"/>
       <c r="T137" s="451"/>
       <c r="U137" s="468">
-        <f>IF($A$1="补货",L137+M137+N137+O137,L137)</f>
+        <f>IF($A$1="补货",L137+M137+N137+O137,L137+M137)</f>
         <v>0</v>
       </c>
       <c r="V137" s="68"/>
@@ -51534,7 +51534,7 @@
       <c r="S138" s="447"/>
       <c r="T138" s="447"/>
       <c r="U138" s="463">
-        <f>IF($A$1="补货",L138+M138+N138+O138,L138)</f>
+        <f>IF($A$1="补货",L138+M138+N138+O138,L138+M138)</f>
         <v>0</v>
       </c>
       <c r="V138" s="82"/>
@@ -51579,7 +51579,7 @@
       <c r="S139" s="447"/>
       <c r="T139" s="447"/>
       <c r="U139" s="463">
-        <f>IF($A$1="补货",L139+M139+N139+O139,L139)</f>
+        <f>IF($A$1="补货",L139+M139+N139+O139,L139+M139)</f>
         <v>0</v>
       </c>
       <c r="V139" s="82"/>
@@ -51624,7 +51624,7 @@
       <c r="S140" s="449"/>
       <c r="T140" s="449"/>
       <c r="U140" s="465">
-        <f>IF($A$1="补货",L140+M140+N140+O140,L140)</f>
+        <f>IF($A$1="补货",L140+M140+N140+O140,L140+M140)</f>
         <v>0</v>
       </c>
       <c r="V140" s="84"/>
@@ -51671,7 +51671,7 @@
       <c r="S141" s="451"/>
       <c r="T141" s="451"/>
       <c r="U141" s="468">
-        <f>IF($A$1="补货",L141+M141+N141+O141,L141)</f>
+        <f>IF($A$1="补货",L141+M141+N141+O141,L141+M141)</f>
         <v>0</v>
       </c>
       <c r="V141" s="68"/>
@@ -51716,7 +51716,7 @@
       <c r="S142" s="447"/>
       <c r="T142" s="447"/>
       <c r="U142" s="463">
-        <f>IF($A$1="补货",L142+M142+N142+O142,L142)</f>
+        <f>IF($A$1="补货",L142+M142+N142+O142,L142+M142)</f>
         <v>0</v>
       </c>
       <c r="V142" s="82"/>
@@ -51761,7 +51761,7 @@
       <c r="S143" s="447"/>
       <c r="T143" s="447"/>
       <c r="U143" s="463">
-        <f>IF($A$1="补货",L143+M143+N143+O143,L143)</f>
+        <f>IF($A$1="补货",L143+M143+N143+O143,L143+M143)</f>
         <v>0</v>
       </c>
       <c r="V143" s="82"/>
@@ -51806,7 +51806,7 @@
       <c r="S144" s="449"/>
       <c r="T144" s="449"/>
       <c r="U144" s="465">
-        <f>IF($A$1="补货",L144+M144+N144+O144,L144)</f>
+        <f>IF($A$1="补货",L144+M144+N144+O144,L144+M144)</f>
         <v>0</v>
       </c>
       <c r="V144" s="84"/>
@@ -51853,7 +51853,7 @@
       <c r="S145" s="451"/>
       <c r="T145" s="451"/>
       <c r="U145" s="468">
-        <f>IF($A$1="补货",L145+M145+N145+O145,L145)</f>
+        <f>IF($A$1="补货",L145+M145+N145+O145,L145+M145)</f>
         <v>0</v>
       </c>
       <c r="V145" s="68"/>
@@ -51898,7 +51898,7 @@
       <c r="S146" s="447"/>
       <c r="T146" s="447"/>
       <c r="U146" s="463">
-        <f>IF($A$1="补货",L146+M146+N146+O146,L146)</f>
+        <f>IF($A$1="补货",L146+M146+N146+O146,L146+M146)</f>
         <v>0</v>
       </c>
       <c r="V146" s="82"/>
@@ -51943,7 +51943,7 @@
       <c r="S147" s="447"/>
       <c r="T147" s="447"/>
       <c r="U147" s="463">
-        <f>IF($A$1="补货",L147+M147+N147+O147,L147)</f>
+        <f>IF($A$1="补货",L147+M147+N147+O147,L147+M147)</f>
         <v>0</v>
       </c>
       <c r="V147" s="82"/>
@@ -51988,7 +51988,7 @@
       <c r="S148" s="449"/>
       <c r="T148" s="449"/>
       <c r="U148" s="465">
-        <f>IF($A$1="补货",L148+M148+N148+O148,L148)</f>
+        <f>IF($A$1="补货",L148+M148+N148+O148,L148+M148)</f>
         <v>0</v>
       </c>
       <c r="V148" s="84"/>
@@ -52035,7 +52035,7 @@
       <c r="S149" s="451"/>
       <c r="T149" s="451"/>
       <c r="U149" s="468">
-        <f>IF($A$1="补货",L149+M149+N149+O149,L149)</f>
+        <f>IF($A$1="补货",L149+M149+N149+O149,L149+M149)</f>
         <v>0</v>
       </c>
       <c r="V149" s="68"/>
@@ -52080,7 +52080,7 @@
       <c r="S150" s="447"/>
       <c r="T150" s="447"/>
       <c r="U150" s="463">
-        <f>IF($A$1="补货",L150+M150+N150+O150,L150)</f>
+        <f>IF($A$1="补货",L150+M150+N150+O150,L150+M150)</f>
         <v>0</v>
       </c>
       <c r="V150" s="82"/>
@@ -52125,7 +52125,7 @@
       <c r="S151" s="447"/>
       <c r="T151" s="447"/>
       <c r="U151" s="463">
-        <f>IF($A$1="补货",L151+M151+N151+O151,L151)</f>
+        <f>IF($A$1="补货",L151+M151+N151+O151,L151+M151)</f>
         <v>0</v>
       </c>
       <c r="V151" s="82"/>
@@ -52170,7 +52170,7 @@
       <c r="S152" s="449"/>
       <c r="T152" s="449"/>
       <c r="U152" s="465">
-        <f>IF($A$1="补货",L152+M152+N152+O152,L152)</f>
+        <f>IF($A$1="补货",L152+M152+N152+O152,L152+M152)</f>
         <v>0</v>
       </c>
       <c r="V152" s="84"/>
@@ -52217,7 +52217,7 @@
       <c r="S153" s="451"/>
       <c r="T153" s="451"/>
       <c r="U153" s="468">
-        <f>IF($A$1="补货",L153+M153+N153+O153,L153)</f>
+        <f>IF($A$1="补货",L153+M153+N153+O153,L153+M153)</f>
         <v>0</v>
       </c>
       <c r="V153" s="68"/>
@@ -52262,7 +52262,7 @@
       <c r="S154" s="447"/>
       <c r="T154" s="447"/>
       <c r="U154" s="463">
-        <f>IF($A$1="补货",L154+M154+N154+O154,L154)</f>
+        <f>IF($A$1="补货",L154+M154+N154+O154,L154+M154)</f>
         <v>0</v>
       </c>
       <c r="V154" s="82"/>
@@ -52307,7 +52307,7 @@
       <c r="S155" s="447"/>
       <c r="T155" s="447"/>
       <c r="U155" s="463">
-        <f>IF($A$1="补货",L155+M155+N155+O155,L155)</f>
+        <f>IF($A$1="补货",L155+M155+N155+O155,L155+M155)</f>
         <v>0</v>
       </c>
       <c r="V155" s="82"/>
@@ -52352,7 +52352,7 @@
       <c r="S156" s="449"/>
       <c r="T156" s="449"/>
       <c r="U156" s="465">
-        <f>IF($A$1="补货",L156+M156+N156+O156,L156)</f>
+        <f>IF($A$1="补货",L156+M156+N156+O156,L156+M156)</f>
         <v>0</v>
       </c>
       <c r="V156" s="84"/>
@@ -52399,7 +52399,7 @@
       <c r="S157" s="451"/>
       <c r="T157" s="451"/>
       <c r="U157" s="468">
-        <f>IF($A$1="补货",L157+M157+N157+O157,L157)</f>
+        <f>IF($A$1="补货",L157+M157+N157+O157,L157+M157)</f>
         <v>0</v>
       </c>
       <c r="V157" s="68"/>
@@ -52444,7 +52444,7 @@
       <c r="S158" s="447"/>
       <c r="T158" s="447"/>
       <c r="U158" s="463">
-        <f>IF($A$1="补货",L158+M158+N158+O158,L158)</f>
+        <f>IF($A$1="补货",L158+M158+N158+O158,L158+M158)</f>
         <v>0</v>
       </c>
       <c r="V158" s="82"/>
@@ -52489,7 +52489,7 @@
       <c r="S159" s="447"/>
       <c r="T159" s="447"/>
       <c r="U159" s="463">
-        <f>IF($A$1="补货",L159+M159+N159+O159,L159)</f>
+        <f>IF($A$1="补货",L159+M159+N159+O159,L159+M159)</f>
         <v>0</v>
       </c>
       <c r="V159" s="82"/>
@@ -52534,7 +52534,7 @@
       <c r="S160" s="449"/>
       <c r="T160" s="449"/>
       <c r="U160" s="465">
-        <f>IF($A$1="补货",L160+M160+N160+O160,L160)</f>
+        <f>IF($A$1="补货",L160+M160+N160+O160,L160+M160)</f>
         <v>0</v>
       </c>
       <c r="V160" s="84"/>
@@ -52581,7 +52581,7 @@
       <c r="S161" s="451"/>
       <c r="T161" s="451"/>
       <c r="U161" s="468">
-        <f>IF($A$1="补货",L161+M161+N161+O161,L161)</f>
+        <f>IF($A$1="补货",L161+M161+N161+O161,L161+M161)</f>
         <v>0</v>
       </c>
       <c r="V161" s="68"/>
@@ -52626,7 +52626,7 @@
       <c r="S162" s="447"/>
       <c r="T162" s="447"/>
       <c r="U162" s="463">
-        <f>IF($A$1="补货",L162+M162+N162+O162,L162)</f>
+        <f>IF($A$1="补货",L162+M162+N162+O162,L162+M162)</f>
         <v>0</v>
       </c>
       <c r="V162" s="82"/>
@@ -52671,7 +52671,7 @@
       <c r="S163" s="447"/>
       <c r="T163" s="447"/>
       <c r="U163" s="463">
-        <f>IF($A$1="补货",L163+M163+N163+O163,L163)</f>
+        <f>IF($A$1="补货",L163+M163+N163+O163,L163+M163)</f>
         <v>0</v>
       </c>
       <c r="V163" s="82"/>
@@ -52716,7 +52716,7 @@
       <c r="S164" s="449"/>
       <c r="T164" s="449"/>
       <c r="U164" s="465">
-        <f>IF($A$1="补货",L164+M164+N164+O164,L164)</f>
+        <f>IF($A$1="补货",L164+M164+N164+O164,L164+M164)</f>
         <v>0</v>
       </c>
       <c r="V164" s="84"/>
@@ -52767,7 +52767,7 @@
       <c r="S165" s="451"/>
       <c r="T165" s="451"/>
       <c r="U165" s="468">
-        <f>IF($A$1="补货",L165+M165+N165+O165,L165)</f>
+        <f>IF($A$1="补货",L165+M165+N165+O165,L165+M165)</f>
         <v>0</v>
       </c>
       <c r="V165" s="68"/>
@@ -52814,7 +52814,7 @@
       <c r="S166" s="447"/>
       <c r="T166" s="447"/>
       <c r="U166" s="463">
-        <f>IF($A$1="补货",L166+M166+N166+O166,L166)</f>
+        <f>IF($A$1="补货",L166+M166+N166+O166,L166+M166)</f>
         <v>0</v>
       </c>
       <c r="V166" s="82"/>
@@ -52859,7 +52859,7 @@
       <c r="S167" s="449"/>
       <c r="T167" s="449"/>
       <c r="U167" s="465">
-        <f>IF($A$1="补货",L167+M167+N167+O167,L167)</f>
+        <f>IF($A$1="补货",L167+M167+N167+O167,L167+M167)</f>
         <v>0</v>
       </c>
       <c r="V167" s="84"/>
@@ -52906,7 +52906,7 @@
       <c r="S168" s="451"/>
       <c r="T168" s="451"/>
       <c r="U168" s="468">
-        <f>IF($A$1="补货",L168+M168+N168+O168,L168)</f>
+        <f>IF($A$1="补货",L168+M168+N168+O168,L168+M168)</f>
         <v>0</v>
       </c>
       <c r="V168" s="68"/>
@@ -52953,7 +52953,7 @@
       <c r="S169" s="447"/>
       <c r="T169" s="447"/>
       <c r="U169" s="463">
-        <f>IF($A$1="补货",L169+M169+N169+O169,L169)</f>
+        <f>IF($A$1="补货",L169+M169+N169+O169,L169+M169)</f>
         <v>0</v>
       </c>
       <c r="V169" s="82"/>
@@ -52998,7 +52998,7 @@
       <c r="S170" s="449"/>
       <c r="T170" s="449"/>
       <c r="U170" s="465">
-        <f>IF($A$1="补货",L170+M170+N170+O170,L170)</f>
+        <f>IF($A$1="补货",L170+M170+N170+O170,L170+M170)</f>
         <v>0</v>
       </c>
       <c r="V170" s="84"/>
@@ -53045,7 +53045,7 @@
       <c r="S171" s="451"/>
       <c r="T171" s="451"/>
       <c r="U171" s="468">
-        <f>IF($A$1="补货",L171+M171+N171+O171,L171)</f>
+        <f>IF($A$1="补货",L171+M171+N171+O171,L171+M171)</f>
         <v>0</v>
       </c>
       <c r="V171" s="68"/>
@@ -53092,7 +53092,7 @@
       <c r="S172" s="447"/>
       <c r="T172" s="447"/>
       <c r="U172" s="463">
-        <f>IF($A$1="补货",L172+M172+N172+O172,L172)</f>
+        <f>IF($A$1="补货",L172+M172+N172+O172,L172+M172)</f>
         <v>0</v>
       </c>
       <c r="V172" s="82"/>
@@ -53137,7 +53137,7 @@
       <c r="S173" s="449"/>
       <c r="T173" s="449"/>
       <c r="U173" s="465">
-        <f>IF($A$1="补货",L173+M173+N173+O173,L173)</f>
+        <f>IF($A$1="补货",L173+M173+N173+O173,L173+M173)</f>
         <v>0</v>
       </c>
       <c r="V173" s="84"/>
@@ -53184,7 +53184,7 @@
       <c r="S174" s="451"/>
       <c r="T174" s="451"/>
       <c r="U174" s="468">
-        <f>IF($A$1="补货",L174+M174+N174+O174,L174)</f>
+        <f>IF($A$1="补货",L174+M174+N174+O174,L174+M174)</f>
         <v>0</v>
       </c>
       <c r="V174" s="68"/>
@@ -53231,7 +53231,7 @@
       <c r="S175" s="447"/>
       <c r="T175" s="447"/>
       <c r="U175" s="463">
-        <f>IF($A$1="补货",L175+M175+N175+O175,L175)</f>
+        <f>IF($A$1="补货",L175+M175+N175+O175,L175+M175)</f>
         <v>0</v>
       </c>
       <c r="V175" s="82"/>
@@ -53276,7 +53276,7 @@
       <c r="S176" s="449"/>
       <c r="T176" s="449"/>
       <c r="U176" s="465">
-        <f>IF($A$1="补货",L176+M176+N176+O176,L176)</f>
+        <f>IF($A$1="补货",L176+M176+N176+O176,L176+M176)</f>
         <v>0</v>
       </c>
       <c r="V176" s="84"/>
@@ -53323,7 +53323,7 @@
       <c r="S177" s="451"/>
       <c r="T177" s="451"/>
       <c r="U177" s="468">
-        <f>IF($A$1="补货",L177+M177+N177+O177,L177)</f>
+        <f>IF($A$1="补货",L177+M177+N177+O177,L177+M177)</f>
         <v>0</v>
       </c>
       <c r="V177" s="68"/>
@@ -53370,7 +53370,7 @@
       <c r="S178" s="447"/>
       <c r="T178" s="447"/>
       <c r="U178" s="463">
-        <f>IF($A$1="补货",L178+M178+N178+O178,L178)</f>
+        <f>IF($A$1="补货",L178+M178+N178+O178,L178+M178)</f>
         <v>0</v>
       </c>
       <c r="V178" s="82"/>
@@ -53415,7 +53415,7 @@
       <c r="S179" s="449"/>
       <c r="T179" s="449"/>
       <c r="U179" s="465">
-        <f>IF($A$1="补货",L179+M179+N179+O179,L179)</f>
+        <f>IF($A$1="补货",L179+M179+N179+O179,L179+M179)</f>
         <v>0</v>
       </c>
       <c r="V179" s="84"/>
@@ -53464,7 +53464,7 @@
       <c r="S180" s="555"/>
       <c r="T180" s="555"/>
       <c r="U180" s="558">
-        <f>IF($A$1="补货",L180+M180+N180+O180,L180)</f>
+        <f>IF($A$1="补货",L180+M180+N180+O180,L180+M180)</f>
         <v>0</v>
       </c>
       <c r="V180" s="558"/>
@@ -53509,7 +53509,7 @@
       <c r="S181" s="555"/>
       <c r="T181" s="555"/>
       <c r="U181" s="558">
-        <f>IF($A$1="补货",L181+M181+N181+O181,L181)</f>
+        <f>IF($A$1="补货",L181+M181+N181+O181,L181+M181)</f>
         <v>0</v>
       </c>
       <c r="V181" s="558"/>
@@ -53554,7 +53554,7 @@
       <c r="S182" s="555"/>
       <c r="T182" s="555"/>
       <c r="U182" s="558">
-        <f>IF($A$1="补货",L182+M182+N182+O182,L182)</f>
+        <f>IF($A$1="补货",L182+M182+N182+O182,L182+M182)</f>
         <v>0</v>
       </c>
       <c r="V182" s="558"/>
@@ -53605,7 +53605,7 @@
       <c r="S183" s="451"/>
       <c r="T183" s="451"/>
       <c r="U183" s="468">
-        <f>IF($A$1="补货",L183+M183+N183+O183,L183)</f>
+        <f>IF($A$1="补货",L183+M183+N183+O183,L183+M183)</f>
         <v>0</v>
       </c>
       <c r="V183" s="68"/>
@@ -53650,7 +53650,7 @@
       <c r="S184" s="447"/>
       <c r="T184" s="447"/>
       <c r="U184" s="463">
-        <f>IF($A$1="补货",L184+M184+N184+O184,L184)</f>
+        <f>IF($A$1="补货",L184+M184+N184+O184,L184+M184)</f>
         <v>0</v>
       </c>
       <c r="V184" s="82"/>
@@ -53695,7 +53695,7 @@
       <c r="S185" s="447"/>
       <c r="T185" s="447"/>
       <c r="U185" s="463">
-        <f>IF($A$1="补货",L185+M185+N185+O185,L185)</f>
+        <f>IF($A$1="补货",L185+M185+N185+O185,L185+M185)</f>
         <v>0</v>
       </c>
       <c r="V185" s="82"/>
@@ -53740,7 +53740,7 @@
       <c r="S186" s="449"/>
       <c r="T186" s="449"/>
       <c r="U186" s="465">
-        <f>IF($A$1="补货",L186+M186+N186+O186,L186)</f>
+        <f>IF($A$1="补货",L186+M186+N186+O186,L186+M186)</f>
         <v>0</v>
       </c>
       <c r="V186" s="84"/>
@@ -53791,7 +53791,7 @@
       <c r="S187" s="557"/>
       <c r="T187" s="560"/>
       <c r="U187" s="561">
-        <f>IF($A$1="补货",L187+M187+N187+O187,L187)</f>
+        <f>IF($A$1="补货",L187+M187+N187+O187,L187+M187)</f>
         <v>0</v>
       </c>
       <c r="V187" s="561"/>
@@ -53838,7 +53838,7 @@
       <c r="S188" s="557"/>
       <c r="T188" s="560"/>
       <c r="U188" s="561">
-        <f>IF($A$1="补货",L188+M188+N188+O188,L188)</f>
+        <f>IF($A$1="补货",L188+M188+N188+O188,L188+M188)</f>
         <v>0</v>
       </c>
       <c r="V188" s="561"/>
@@ -53885,7 +53885,7 @@
       <c r="S189" s="557"/>
       <c r="T189" s="560"/>
       <c r="U189" s="561">
-        <f>IF($A$1="补货",L189+M189+N189+O189,L189)</f>
+        <f>IF($A$1="补货",L189+M189+N189+O189,L189+M189)</f>
         <v>0</v>
       </c>
       <c r="V189" s="561"/>
@@ -60571,7 +60571,7 @@
   <dimension ref="A1:V174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -60692,7 +60692,7 @@
       <c r="P4" s="33"/>
       <c r="Q4" s="43"/>
       <c r="R4" s="44">
-        <f>IF($A$1="补货",I4+J4+K4+L4,K4)</f>
+        <f>IF($A$1="补货",I4+J4+K4+L4,I4+J4)</f>
         <v>0</v>
       </c>
       <c r="S4" s="45"/>
@@ -60734,7 +60734,7 @@
       <c r="P5" s="33"/>
       <c r="Q5" s="43"/>
       <c r="R5" s="44">
-        <f>IF($A$1="补货",I5+J5+K5+L5,K5)</f>
+        <f>IF($A$1="补货",I5+J5+K5+L5,I5+J5)</f>
         <v>0</v>
       </c>
       <c r="S5" s="45"/>
@@ -60776,7 +60776,7 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="43"/>
       <c r="R6" s="44">
-        <f>IF($A$1="补货",I6+J6+K6+L6,K6)</f>
+        <f>IF($A$1="补货",I6+J6+K6+L6,I6+J6)</f>
         <v>0</v>
       </c>
       <c r="S6" s="45"/>
@@ -60818,7 +60818,7 @@
       <c r="P7" s="33"/>
       <c r="Q7" s="43"/>
       <c r="R7" s="44">
-        <f>IF($A$1="补货",I7+J7+K7+L7,K7)</f>
+        <f>IF($A$1="补货",I7+J7+K7+L7,I7+J7)</f>
         <v>0</v>
       </c>
       <c r="S7" s="45"/>
@@ -60860,7 +60860,7 @@
       <c r="P8" s="33"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="44">
-        <f>IF($A$1="补货",I8+J8+K8+L8,K8)</f>
+        <f>IF($A$1="补货",I8+J8+K8+L8,I8+J8)</f>
         <v>0</v>
       </c>
       <c r="S8" s="45"/>
@@ -60902,7 +60902,7 @@
       <c r="P9" s="36"/>
       <c r="Q9" s="332"/>
       <c r="R9" s="333">
-        <f>IF($A$1="补货",I9+J9+K9+L9,K9)</f>
+        <f>IF($A$1="补货",I9+J9+K9+L9,I9+J9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="334"/>
@@ -60942,7 +60942,7 @@
       <c r="P10" s="323"/>
       <c r="Q10" s="335"/>
       <c r="R10" s="336">
-        <f>IF($A$1="补货",I10+J10+K10+L10,K10)</f>
+        <f>IF($A$1="补货",I10+J10+K10+L10,I10+J10)</f>
         <v>0</v>
       </c>
       <c r="S10" s="337"/>
@@ -60982,7 +60982,7 @@
       <c r="P11" s="33"/>
       <c r="Q11" s="43"/>
       <c r="R11" s="44">
-        <f>IF($A$1="补货",I11+J11+K11+L11,K11)</f>
+        <f>IF($A$1="补货",I11+J11+K11+L11,I11+J11)</f>
         <v>0</v>
       </c>
       <c r="S11" s="45"/>
@@ -61022,7 +61022,7 @@
       <c r="P12" s="33"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="44">
-        <f>IF($A$1="补货",I12+J12+K12+L12,K12)</f>
+        <f>IF($A$1="补货",I12+J12+K12+L12,I12+J12)</f>
         <v>0</v>
       </c>
       <c r="S12" s="45"/>
@@ -61064,7 +61064,7 @@
       <c r="P13" s="323"/>
       <c r="Q13" s="335"/>
       <c r="R13" s="336">
-        <f>IF($A$1="补货",I13+J13+K13+L13,K13)</f>
+        <f>IF($A$1="补货",I13+J13+K13+L13,I13+J13)</f>
         <v>0</v>
       </c>
       <c r="S13" s="337"/>
@@ -61106,7 +61106,7 @@
       <c r="P14" s="33"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="44">
-        <f>IF($A$1="补货",I14+J14+K14+L14,K14)</f>
+        <f>IF($A$1="补货",I14+J14+K14+L14,I14+J14)</f>
         <v>0</v>
       </c>
       <c r="S14" s="45"/>
@@ -61148,7 +61148,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="48"/>
       <c r="R15" s="339">
-        <f>IF($A$1="补货",I15+J15+K15+L15,K15)</f>
+        <f>IF($A$1="补货",I15+J15+K15+L15,I15+J15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="50"/>
@@ -61188,7 +61188,7 @@
       <c r="P16" s="326"/>
       <c r="Q16" s="340"/>
       <c r="R16" s="341">
-        <f>IF($A$1="补货",I16+J16+K16+L16,K16)</f>
+        <f>IF($A$1="补货",I16+J16+K16+L16,I16+J16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="342"/>
@@ -61228,7 +61228,7 @@
       <c r="P17" s="33"/>
       <c r="Q17" s="43"/>
       <c r="R17" s="44">
-        <f>IF($A$1="补货",I17+J17+K17+L17,K17)</f>
+        <f>IF($A$1="补货",I17+J17+K17+L17,I17+J17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="45"/>
@@ -61268,7 +61268,7 @@
       <c r="P18" s="33"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="44">
-        <f>IF($A$1="补货",I18+J18+K18+L18,K18)</f>
+        <f>IF($A$1="补货",I18+J18+K18+L18,I18+J18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="45"/>
@@ -61308,7 +61308,7 @@
       <c r="P19" s="33"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="44">
-        <f>IF($A$1="补货",I19+J19+K19+L19,K19)</f>
+        <f>IF($A$1="补货",I19+J19+K19+L19,I19+J19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="45"/>
@@ -61348,7 +61348,7 @@
       <c r="P20" s="39"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="339">
-        <f>IF($A$1="补货",I20+J20+K20+L20,K20)</f>
+        <f>IF($A$1="补货",I20+J20+K20+L20,I20+J20)</f>
         <v>0</v>
       </c>
       <c r="S20" s="50"/>
@@ -61388,7 +61388,7 @@
       <c r="P21" s="33"/>
       <c r="Q21" s="43"/>
       <c r="R21" s="44">
-        <f>IF($A$1="补货",I21+J21+K21+L21,K21)</f>
+        <f>IF($A$1="补货",I21+J21+K21+L21,I21+J21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="45"/>
@@ -61428,7 +61428,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="44">
-        <f>IF($A$1="补货",I22+J22+K22+L22,K22)</f>
+        <f>IF($A$1="补货",I22+J22+K22+L22,I22+J22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="45"/>
@@ -61468,7 +61468,7 @@
       <c r="P23" s="33"/>
       <c r="Q23" s="43"/>
       <c r="R23" s="44">
-        <f>IF($A$1="补货",I23+J23+K23+L23,K23)</f>
+        <f>IF($A$1="补货",I23+J23+K23+L23,I23+J23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="45"/>
@@ -61508,7 +61508,7 @@
       <c r="P24" s="33"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="44">
-        <f>IF($A$1="补货",I24+J24+K24+L24,K24)</f>
+        <f>IF($A$1="补货",I24+J24+K24+L24,I24+J24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="45"/>
@@ -61548,7 +61548,7 @@
       <c r="P25" s="323"/>
       <c r="Q25" s="335"/>
       <c r="R25" s="336">
-        <f>IF($A$1="补货",I25+J25+K25+L25,K25)</f>
+        <f>IF($A$1="补货",I25+J25+K25+L25,I25+J25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="337"/>
@@ -61588,7 +61588,7 @@
       <c r="P26" s="33"/>
       <c r="Q26" s="43"/>
       <c r="R26" s="44">
-        <f>IF($A$1="补货",I26+J26+K26+L26,K26)</f>
+        <f>IF($A$1="补货",I26+J26+K26+L26,I26+J26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="45"/>
@@ -61628,7 +61628,7 @@
       <c r="P27" s="33"/>
       <c r="Q27" s="43"/>
       <c r="R27" s="44">
-        <f>IF($A$1="补货",I27+J27+K27+L27,K27)</f>
+        <f>IF($A$1="补货",I27+J27+K27+L27,I27+J27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="45"/>
@@ -61668,7 +61668,7 @@
       <c r="P28" s="33"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="44">
-        <f>IF($A$1="补货",I28+J28+K28+L28,K28)</f>
+        <f>IF($A$1="补货",I28+J28+K28+L28,I28+J28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="45"/>
@@ -61708,7 +61708,7 @@
       <c r="P29" s="33"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="44">
-        <f>IF($A$1="补货",I29+J29+K29+L29,K29)</f>
+        <f>IF($A$1="补货",I29+J29+K29+L29,I29+J29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="45"/>
@@ -61748,7 +61748,7 @@
       <c r="P30" s="33"/>
       <c r="Q30" s="43"/>
       <c r="R30" s="44">
-        <f>IF($A$1="补货",I30+J30+K30+L30,K30)</f>
+        <f>IF($A$1="补货",I30+J30+K30+L30,I30+J30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="45"/>
@@ -61788,7 +61788,7 @@
       <c r="P31" s="33"/>
       <c r="Q31" s="43"/>
       <c r="R31" s="44">
-        <f>IF($A$1="补货",I31+J31+K31+L31,K31)</f>
+        <f>IF($A$1="补货",I31+J31+K31+L31,I31+J31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="45"/>
@@ -61828,7 +61828,7 @@
       <c r="P32" s="33"/>
       <c r="Q32" s="43"/>
       <c r="R32" s="44">
-        <f>IF($A$1="补货",I32+J32+K32+L32,K32)</f>
+        <f>IF($A$1="补货",I32+J32+K32+L32,I32+J32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="45"/>
@@ -61868,7 +61868,7 @@
       <c r="P33" s="33"/>
       <c r="Q33" s="43"/>
       <c r="R33" s="44">
-        <f>IF($A$1="补货",I33+J33+K33+L33,K33)</f>
+        <f>IF($A$1="补货",I33+J33+K33+L33,I33+J33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="45"/>
@@ -61908,7 +61908,7 @@
       <c r="P34" s="33"/>
       <c r="Q34" s="43"/>
       <c r="R34" s="44">
-        <f>IF($A$1="补货",I34+J34+K34+L34,K34)</f>
+        <f>IF($A$1="补货",I34+J34+K34+L34,I34+J34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="45"/>
@@ -61948,7 +61948,7 @@
       <c r="P35" s="33"/>
       <c r="Q35" s="43"/>
       <c r="R35" s="44">
-        <f>IF($A$1="补货",I35+J35+K35+L35,K35)</f>
+        <f>IF($A$1="补货",I35+J35+K35+L35,I35+J35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="45"/>
@@ -61988,7 +61988,7 @@
       <c r="P36" s="33"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="44">
-        <f>IF($A$1="补货",I36+J36+K36+L36,K36)</f>
+        <f>IF($A$1="补货",I36+J36+K36+L36,I36+J36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="45"/>
@@ -62028,7 +62028,7 @@
       <c r="P37" s="33"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="44">
-        <f>IF($A$1="补货",I37+J37+K37+L37,K37)</f>
+        <f>IF($A$1="补货",I37+J37+K37+L37,I37+J37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="45"/>
@@ -62068,7 +62068,7 @@
       <c r="P38" s="33"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="44">
-        <f>IF($A$1="补货",I38+J38+K38+L38,K38)</f>
+        <f>IF($A$1="补货",I38+J38+K38+L38,I38+J38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="45"/>
@@ -62108,7 +62108,7 @@
       <c r="P39" s="33"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="44">
-        <f>IF($A$1="补货",I39+J39+K39+L39,K39)</f>
+        <f>IF($A$1="补货",I39+J39+K39+L39,I39+J39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="45"/>
@@ -62148,7 +62148,7 @@
       <c r="P40" s="39"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="339">
-        <f>IF($A$1="补货",I40+J40+K40+L40,K40)</f>
+        <f>IF($A$1="补货",I40+J40+K40+L40,I40+J40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="50"/>
@@ -62188,7 +62188,7 @@
       <c r="P41" s="329"/>
       <c r="Q41" s="344"/>
       <c r="R41" s="345">
-        <f>IF($A$1="补货",I41+J41+K41+L41,K41)</f>
+        <f>IF($A$1="补货",I41+J41+K41+L41,I41+J41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="346"/>
@@ -62228,7 +62228,7 @@
       <c r="P42" s="331"/>
       <c r="Q42" s="348"/>
       <c r="R42" s="336">
-        <f>IF($A$1="补货",I42+J42+K42+L42,K42)</f>
+        <f>IF($A$1="补货",I42+J42+K42+L42,I42+J42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="337"/>
@@ -62268,7 +62268,7 @@
       <c r="P43" s="33"/>
       <c r="Q43" s="43"/>
       <c r="R43" s="44">
-        <f>IF($A$1="补货",I43+J43+K43+L43,K43)</f>
+        <f>IF($A$1="补货",I43+J43+K43+L43,I43+J43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="45"/>
@@ -62308,7 +62308,7 @@
       <c r="P44" s="33"/>
       <c r="Q44" s="43"/>
       <c r="R44" s="44">
-        <f>IF($A$1="补货",I44+J44+K44+L44,K44)</f>
+        <f>IF($A$1="补货",I44+J44+K44+L44,I44+J44)</f>
         <v>0</v>
       </c>
       <c r="S44" s="45"/>
@@ -62348,7 +62348,7 @@
       <c r="P45" s="39"/>
       <c r="Q45" s="48"/>
       <c r="R45" s="339">
-        <f>IF($A$1="补货",I45+J45+K45+L45,K45)</f>
+        <f>IF($A$1="补货",I45+J45+K45+L45,I45+J45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="50"/>
@@ -62388,7 +62388,7 @@
       <c r="P46" s="323"/>
       <c r="Q46" s="335"/>
       <c r="R46" s="336">
-        <f>IF($A$1="补货",I46+J46+K46+L46,K46)</f>
+        <f>IF($A$1="补货",I46+J46+K46+L46,I46+J46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="337"/>
@@ -62428,7 +62428,7 @@
       <c r="P47" s="33"/>
       <c r="Q47" s="43"/>
       <c r="R47" s="44">
-        <f>IF($A$1="补货",I47+J47+K47+L47,K47)</f>
+        <f>IF($A$1="补货",I47+J47+K47+L47,I47+J47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="45"/>
@@ -62468,7 +62468,7 @@
       <c r="P48" s="33"/>
       <c r="Q48" s="43"/>
       <c r="R48" s="44">
-        <f>IF($A$1="补货",I48+J48+K48+L48,K48)</f>
+        <f>IF($A$1="补货",I48+J48+K48+L48,I48+J48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="45"/>
@@ -62508,7 +62508,7 @@
       <c r="P49" s="33"/>
       <c r="Q49" s="43"/>
       <c r="R49" s="44">
-        <f>IF($A$1="补货",I49+J49+K49+L49,K49)</f>
+        <f>IF($A$1="补货",I49+J49+K49+L49,I49+J49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="45"/>
@@ -62548,7 +62548,7 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="43"/>
       <c r="R50" s="44">
-        <f>IF($A$1="补货",I50+J50+K50+L50,K50)</f>
+        <f>IF($A$1="补货",I50+J50+K50+L50,I50+J50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="45"/>
@@ -62588,7 +62588,7 @@
       <c r="P51" s="33"/>
       <c r="Q51" s="43"/>
       <c r="R51" s="44">
-        <f>IF($A$1="补货",I51+J51+K51+L51,K51)</f>
+        <f>IF($A$1="补货",I51+J51+K51+L51,I51+J51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="45"/>
@@ -62628,7 +62628,7 @@
       <c r="P52" s="39"/>
       <c r="Q52" s="48"/>
       <c r="R52" s="339">
-        <f>IF($A$1="补货",I52+J52+K52+L52,K52)</f>
+        <f>IF($A$1="补货",I52+J52+K52+L52,I52+J52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="50"/>
@@ -62668,7 +62668,7 @@
       <c r="P53" s="323"/>
       <c r="Q53" s="335"/>
       <c r="R53" s="336">
-        <f>IF($A$1="补货",I53+J53+K53+L53,K53)</f>
+        <f>IF($A$1="补货",I53+J53+K53+L53,I53+J53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="337"/>
@@ -62708,7 +62708,7 @@
       <c r="P54" s="33"/>
       <c r="Q54" s="43"/>
       <c r="R54" s="44">
-        <f>IF($A$1="补货",I54+J54+K54+L54,K54)</f>
+        <f>IF($A$1="补货",I54+J54+K54+L54,I54+J54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="45"/>
@@ -62748,7 +62748,7 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="43"/>
       <c r="R55" s="44">
-        <f>IF($A$1="补货",I55+J55+K55+L55,K55)</f>
+        <f>IF($A$1="补货",I55+J55+K55+L55,I55+J55)</f>
         <v>0</v>
       </c>
       <c r="S55" s="45"/>
@@ -62788,7 +62788,7 @@
       <c r="P56" s="39"/>
       <c r="Q56" s="48"/>
       <c r="R56" s="339">
-        <f>IF($A$1="补货",I56+J56+K56+L56,K56)</f>
+        <f>IF($A$1="补货",I56+J56+K56+L56,I56+J56)</f>
         <v>0</v>
       </c>
       <c r="S56" s="50"/>
@@ -62830,7 +62830,7 @@
       <c r="P57" s="323"/>
       <c r="Q57" s="335"/>
       <c r="R57" s="336">
-        <f>IF($A$1="补货",I57+J57+K57+L57,K57)</f>
+        <f>IF($A$1="补货",I57+J57+K57+L57,I57+J57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="337"/>
@@ -62872,7 +62872,7 @@
       <c r="P58" s="33"/>
       <c r="Q58" s="43"/>
       <c r="R58" s="44">
-        <f>IF($A$1="补货",I58+J58+K58+L58,K58)</f>
+        <f>IF($A$1="补货",I58+J58+K58+L58,I58+J58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="45"/>
@@ -62914,7 +62914,7 @@
       <c r="P59" s="33"/>
       <c r="Q59" s="43"/>
       <c r="R59" s="44">
-        <f>IF($A$1="补货",I59+J59+K59+L59,K59)</f>
+        <f>IF($A$1="补货",I59+J59+K59+L59,I59+J59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="45"/>
@@ -62956,7 +62956,7 @@
       <c r="P60" s="33"/>
       <c r="Q60" s="43"/>
       <c r="R60" s="44">
-        <f>IF($A$1="补货",I60+J60+K60+L60,K60)</f>
+        <f>IF($A$1="补货",I60+J60+K60+L60,I60+J60)</f>
         <v>0</v>
       </c>
       <c r="S60" s="45"/>
@@ -62998,7 +62998,7 @@
       <c r="P61" s="33"/>
       <c r="Q61" s="43"/>
       <c r="R61" s="44">
-        <f>IF($A$1="补货",I61+J61+K61+L61,K61)</f>
+        <f>IF($A$1="补货",I61+J61+K61+L61,I61+J61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="45"/>
@@ -63040,7 +63040,7 @@
       <c r="P62" s="33"/>
       <c r="Q62" s="43"/>
       <c r="R62" s="44">
-        <f>IF($A$1="补货",I62+J62+K62+L62,K62)</f>
+        <f>IF($A$1="补货",I62+J62+K62+L62,I62+J62)</f>
         <v>0</v>
       </c>
       <c r="S62" s="45"/>
@@ -63082,7 +63082,7 @@
       <c r="P63" s="33"/>
       <c r="Q63" s="43"/>
       <c r="R63" s="44">
-        <f>IF($A$1="补货",I63+J63+K63+L63,K63)</f>
+        <f>IF($A$1="补货",I63+J63+K63+L63,I63+J63)</f>
         <v>0</v>
       </c>
       <c r="S63" s="45"/>
@@ -63124,7 +63124,7 @@
       <c r="P64" s="39"/>
       <c r="Q64" s="48"/>
       <c r="R64" s="339">
-        <f>IF($A$1="补货",I64+J64+K64+L64,K64)</f>
+        <f>IF($A$1="补货",I64+J64+K64+L64,I64+J64)</f>
         <v>0</v>
       </c>
       <c r="S64" s="50"/>
@@ -63164,7 +63164,7 @@
       <c r="P65" s="323"/>
       <c r="Q65" s="335"/>
       <c r="R65" s="336">
-        <f>IF($A$1="补货",I65+J65+K65+L65,K65)</f>
+        <f>IF($A$1="补货",I65+J65+K65+L65,I65+J65)</f>
         <v>0</v>
       </c>
       <c r="S65" s="337"/>
@@ -63204,7 +63204,7 @@
       <c r="P66" s="33"/>
       <c r="Q66" s="43"/>
       <c r="R66" s="44">
-        <f>IF($A$1="补货",I66+J66+K66+L66,K66)</f>
+        <f>IF($A$1="补货",I66+J66+K66+L66,I66+J66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="45"/>
@@ -63244,7 +63244,7 @@
       <c r="P67" s="33"/>
       <c r="Q67" s="43"/>
       <c r="R67" s="44">
-        <f>IF($A$1="补货",I67+J67+K67+L67,K67)</f>
+        <f>IF($A$1="补货",I67+J67+K67+L67,I67+J67)</f>
         <v>0</v>
       </c>
       <c r="S67" s="45"/>
@@ -63284,7 +63284,7 @@
       <c r="P68" s="33"/>
       <c r="Q68" s="43"/>
       <c r="R68" s="44">
-        <f>IF($A$1="补货",I68+J68+K68+L68,K68)</f>
+        <f>IF($A$1="补货",I68+J68+K68+L68,I68+J68)</f>
         <v>0</v>
       </c>
       <c r="S68" s="45"/>
@@ -63324,7 +63324,7 @@
       <c r="P69" s="33"/>
       <c r="Q69" s="43"/>
       <c r="R69" s="44">
-        <f>IF($A$1="补货",I69+J69+K69+L69,K69)</f>
+        <f>IF($A$1="补货",I69+J69+K69+L69,I69+J69)</f>
         <v>0</v>
       </c>
       <c r="S69" s="45"/>
@@ -63364,7 +63364,7 @@
       <c r="P70" s="33"/>
       <c r="Q70" s="43"/>
       <c r="R70" s="44">
-        <f>IF($A$1="补货",I70+J70+K70+L70,K70)</f>
+        <f>IF($A$1="补货",I70+J70+K70+L70,I70+J70)</f>
         <v>0</v>
       </c>
       <c r="S70" s="45"/>
@@ -63404,7 +63404,7 @@
       <c r="P71" s="33"/>
       <c r="Q71" s="43"/>
       <c r="R71" s="44">
-        <f>IF($A$1="补货",I71+J71+K71+L71,K71)</f>
+        <f>IF($A$1="补货",I71+J71+K71+L71,I71+J71)</f>
         <v>0</v>
       </c>
       <c r="S71" s="45"/>
@@ -63444,7 +63444,7 @@
       <c r="P72" s="39"/>
       <c r="Q72" s="48"/>
       <c r="R72" s="339">
-        <f>IF($A$1="补货",I72+J72+K72+L72,K72)</f>
+        <f>IF($A$1="补货",I72+J72+K72+L72,I72+J72)</f>
         <v>0</v>
       </c>
       <c r="S72" s="50"/>
@@ -63484,7 +63484,7 @@
       <c r="P73" s="323"/>
       <c r="Q73" s="335"/>
       <c r="R73" s="336">
-        <f>IF($A$1="补货",I73+J73+K73+L73,K73)</f>
+        <f>IF($A$1="补货",I73+J73+K73+L73,I73+J73)</f>
         <v>0</v>
       </c>
       <c r="S73" s="337"/>
@@ -63524,7 +63524,7 @@
       <c r="P74" s="368"/>
       <c r="Q74" s="340"/>
       <c r="R74" s="372">
-        <f>IF($A$1="补货",I74+J74+K74+L74,K74)</f>
+        <f>IF($A$1="补货",I74+J74+K74+L74,I74+J74)</f>
         <v>0</v>
       </c>
       <c r="S74" s="373"/>
@@ -63564,7 +63564,7 @@
       <c r="P75" s="371"/>
       <c r="Q75" s="332"/>
       <c r="R75" s="375">
-        <f>IF($A$1="补货",I75+J75+K75+L75,K75)</f>
+        <f>IF($A$1="补货",I75+J75+K75+L75,I75+J75)</f>
         <v>0</v>
       </c>
       <c r="S75" s="358"/>
@@ -63604,7 +63604,7 @@
       <c r="P76" s="39"/>
       <c r="Q76" s="48"/>
       <c r="R76" s="339">
-        <f>IF($A$1="补货",I76+J76+K76+L76,K76)</f>
+        <f>IF($A$1="补货",I76+J76+K76+L76,I76+J76)</f>
         <v>0</v>
       </c>
       <c r="S76" s="50"/>
@@ -63646,7 +63646,7 @@
       <c r="P77" s="323"/>
       <c r="Q77" s="335"/>
       <c r="R77" s="336">
-        <f>IF($A$1="补货",I77+J77+K77+L77,K77)</f>
+        <f>IF($A$1="补货",I77+J77+K77+L77,I77+J77)</f>
         <v>0</v>
       </c>
       <c r="S77" s="337"/>
@@ -63688,7 +63688,7 @@
       <c r="P78" s="33"/>
       <c r="Q78" s="43"/>
       <c r="R78" s="44">
-        <f>IF($A$1="补货",I78+J78+K78+L78,K78)</f>
+        <f>IF($A$1="补货",I78+J78+K78+L78,I78+J78)</f>
         <v>0</v>
       </c>
       <c r="S78" s="45"/>
@@ -63730,7 +63730,7 @@
       <c r="P79" s="33"/>
       <c r="Q79" s="43"/>
       <c r="R79" s="44">
-        <f>IF($A$1="补货",I79+J79+K79+L79,K79)</f>
+        <f>IF($A$1="补货",I79+J79+K79+L79,I79+J79)</f>
         <v>0</v>
       </c>
       <c r="S79" s="45"/>
@@ -63772,7 +63772,7 @@
       <c r="P80" s="33"/>
       <c r="Q80" s="43"/>
       <c r="R80" s="44">
-        <f>IF($A$1="补货",I80+J80+K80+L80,K80)</f>
+        <f>IF($A$1="补货",I80+J80+K80+L80,I80+J80)</f>
         <v>0</v>
       </c>
       <c r="S80" s="45"/>
@@ -63814,7 +63814,7 @@
       <c r="P81" s="33"/>
       <c r="Q81" s="43"/>
       <c r="R81" s="44">
-        <f>IF($A$1="补货",I81+J81+K81+L81,K81)</f>
+        <f>IF($A$1="补货",I81+J81+K81+L81,I81+J81)</f>
         <v>0</v>
       </c>
       <c r="S81" s="45"/>
@@ -63856,7 +63856,7 @@
       <c r="P82" s="33"/>
       <c r="Q82" s="43"/>
       <c r="R82" s="44">
-        <f>IF($A$1="补货",I82+J82+K82+L82,K82)</f>
+        <f>IF($A$1="补货",I82+J82+K82+L82,I82+J82)</f>
         <v>0</v>
       </c>
       <c r="S82" s="45"/>
@@ -63898,7 +63898,7 @@
       <c r="P83" s="33"/>
       <c r="Q83" s="43"/>
       <c r="R83" s="44">
-        <f>IF($A$1="补货",I83+J83+K83+L83,K83)</f>
+        <f>IF($A$1="补货",I83+J83+K83+L83,I83+J83)</f>
         <v>0</v>
       </c>
       <c r="S83" s="45"/>
@@ -63940,7 +63940,7 @@
       <c r="P84" s="39"/>
       <c r="Q84" s="48"/>
       <c r="R84" s="339">
-        <f>IF($A$1="补货",I84+J84+K84+L84,K84)</f>
+        <f>IF($A$1="补货",I84+J84+K84+L84,I84+J84)</f>
         <v>0</v>
       </c>
       <c r="S84" s="50"/>
@@ -63980,7 +63980,7 @@
       <c r="P85" s="326"/>
       <c r="Q85" s="340"/>
       <c r="R85" s="341">
-        <f>IF($A$1="补货",I85+J85+K85+L85,K85)</f>
+        <f>IF($A$1="补货",I85+J85+K85+L85,I85+J85)</f>
         <v>0</v>
       </c>
       <c r="S85" s="342"/>
@@ -64020,7 +64020,7 @@
       <c r="P86" s="36"/>
       <c r="Q86" s="332"/>
       <c r="R86" s="333">
-        <f>IF($A$1="补货",I86+J86+K86+L86,K86)</f>
+        <f>IF($A$1="补货",I86+J86+K86+L86,I86+J86)</f>
         <v>0</v>
       </c>
       <c r="S86" s="334"/>
@@ -64060,7 +64060,7 @@
       <c r="P87" s="323"/>
       <c r="Q87" s="335"/>
       <c r="R87" s="336">
-        <f>IF($A$1="补货",I87+J87+K87+L87,K87)</f>
+        <f>IF($A$1="补货",I87+J87+K87+L87,I87+J87)</f>
         <v>0</v>
       </c>
       <c r="S87" s="337"/>
@@ -64100,7 +64100,7 @@
       <c r="P88" s="39"/>
       <c r="Q88" s="48"/>
       <c r="R88" s="339">
-        <f>IF($A$1="补货",I88+J88+K88+L88,K88)</f>
+        <f>IF($A$1="补货",I88+J88+K88+L88,I88+J88)</f>
         <v>0</v>
       </c>
       <c r="S88" s="50"/>
@@ -64138,7 +64138,7 @@
       <c r="P89" s="329"/>
       <c r="Q89" s="344"/>
       <c r="R89" s="345">
-        <f>IF($A$1="补货",I89+J89+K89+L89,K89)</f>
+        <f>IF($A$1="补货",I89+J89+K89+L89,I89+J89)</f>
         <v>0</v>
       </c>
       <c r="S89" s="346"/>
@@ -64178,7 +64178,7 @@
       <c r="P90" s="323"/>
       <c r="Q90" s="335"/>
       <c r="R90" s="336">
-        <f>IF($A$1="补货",I90+J90+K90+L90,K90)</f>
+        <f>IF($A$1="补货",I90+J90+K90+L90,I90+J90)</f>
         <v>0</v>
       </c>
       <c r="S90" s="337"/>
@@ -64218,7 +64218,7 @@
       <c r="P91" s="39"/>
       <c r="Q91" s="48"/>
       <c r="R91" s="339">
-        <f>IF($A$1="补货",I91+J91+K91+L91,K91)</f>
+        <f>IF($A$1="补货",I91+J91+K91+L91,I91+J91)</f>
         <v>0</v>
       </c>
       <c r="S91" s="50"/>
@@ -64258,7 +64258,7 @@
       <c r="P92" s="323"/>
       <c r="Q92" s="335"/>
       <c r="R92" s="336">
-        <f>IF($A$1="补货",I92+J92+K92+L92,K92)</f>
+        <f>IF($A$1="补货",I92+J92+K92+L92,I92+J92)</f>
         <v>0</v>
       </c>
       <c r="S92" s="337"/>
@@ -64298,7 +64298,7 @@
       <c r="P93" s="33"/>
       <c r="Q93" s="43"/>
       <c r="R93" s="44">
-        <f>IF($A$1="补货",I93+J93+K93+L93,K93)</f>
+        <f>IF($A$1="补货",I93+J93+K93+L93,I93+J93)</f>
         <v>0</v>
       </c>
       <c r="S93" s="45"/>
@@ -64338,7 +64338,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="48"/>
       <c r="R94" s="339">
-        <f>IF($A$1="补货",I94+J94+K94+L94,K94)</f>
+        <f>IF($A$1="补货",I94+J94+K94+L94,I94+J94)</f>
         <v>0</v>
       </c>
       <c r="S94" s="50"/>
@@ -64378,7 +64378,7 @@
       <c r="P95" s="326"/>
       <c r="Q95" s="340"/>
       <c r="R95" s="341">
-        <f>IF($A$1="补货",I95+J95+K95+L95,K95)</f>
+        <f>IF($A$1="补货",I95+J95+K95+L95,I95+J95)</f>
         <v>0</v>
       </c>
       <c r="S95" s="342"/>
@@ -64418,7 +64418,7 @@
       <c r="P96" s="36"/>
       <c r="Q96" s="332"/>
       <c r="R96" s="333">
-        <f>IF($A$1="补货",I96+J96+K96+L96,K96)</f>
+        <f>IF($A$1="补货",I96+J96+K96+L96,I96+J96)</f>
         <v>0</v>
       </c>
       <c r="S96" s="334"/>
@@ -64458,7 +64458,7 @@
       <c r="P97" s="323"/>
       <c r="Q97" s="335"/>
       <c r="R97" s="336">
-        <f>IF($A$1="补货",I97+J97+K97+L97,K97)</f>
+        <f>IF($A$1="补货",I97+J97+K97+L97,I97+J97)</f>
         <v>0</v>
       </c>
       <c r="S97" s="337"/>
@@ -64498,7 +64498,7 @@
       <c r="P98" s="33"/>
       <c r="Q98" s="43"/>
       <c r="R98" s="44">
-        <f>IF($A$1="补货",I98+J98+K98+L98,K98)</f>
+        <f>IF($A$1="补货",I98+J98+K98+L98,I98+J98)</f>
         <v>0</v>
       </c>
       <c r="S98" s="45"/>
@@ -64538,7 +64538,7 @@
       <c r="P99" s="33"/>
       <c r="Q99" s="43"/>
       <c r="R99" s="44">
-        <f>IF($A$1="补货",I99+J99+K99+L99,K99)</f>
+        <f>IF($A$1="补货",I99+J99+K99+L99,I99+J99)</f>
         <v>0</v>
       </c>
       <c r="S99" s="45"/>
@@ -64578,7 +64578,7 @@
       <c r="P100" s="39"/>
       <c r="Q100" s="48"/>
       <c r="R100" s="339">
-        <f>IF($A$1="补货",I100+J100+K100+L100,K100)</f>
+        <f>IF($A$1="补货",I100+J100+K100+L100,I100+J100)</f>
         <v>0</v>
       </c>
       <c r="S100" s="50"/>
@@ -64618,7 +64618,7 @@
       <c r="P101" s="323"/>
       <c r="Q101" s="335"/>
       <c r="R101" s="379">
-        <f>IF($A$1="补货",I101+J101+K101+L101,K101)</f>
+        <f>IF($A$1="补货",I101+J101+K101+L101,I101+J101)</f>
         <v>0</v>
       </c>
       <c r="S101" s="380"/>
@@ -64658,7 +64658,7 @@
       <c r="P102" s="33"/>
       <c r="Q102" s="43"/>
       <c r="R102" s="381">
-        <f>IF($A$1="补货",I102+J102+K102+L102,K102)</f>
+        <f>IF($A$1="补货",I102+J102+K102+L102,I102+J102)</f>
         <v>0</v>
       </c>
       <c r="S102" s="382"/>
@@ -64698,7 +64698,7 @@
       <c r="P103" s="39"/>
       <c r="Q103" s="48"/>
       <c r="R103" s="383">
-        <f>IF($A$1="补货",I103+J103+K103+L103,K103)</f>
+        <f>IF($A$1="补货",I103+J103+K103+L103,I103+J103)</f>
         <v>0</v>
       </c>
       <c r="S103" s="384"/>
@@ -64738,7 +64738,7 @@
       <c r="P104" s="323"/>
       <c r="Q104" s="335"/>
       <c r="R104" s="379">
-        <f>IF($A$1="补货",I104+J104+K104+L104,K104)</f>
+        <f>IF($A$1="补货",I104+J104+K104+L104,I104+J104)</f>
         <v>0</v>
       </c>
       <c r="S104" s="380"/>
@@ -64778,7 +64778,7 @@
       <c r="P105" s="33"/>
       <c r="Q105" s="43"/>
       <c r="R105" s="381">
-        <f>IF($A$1="补货",I105+J105+K105+L105,K105)</f>
+        <f>IF($A$1="补货",I105+J105+K105+L105,I105+J105)</f>
         <v>0</v>
       </c>
       <c r="S105" s="382"/>
@@ -64818,7 +64818,7 @@
       <c r="P106" s="39"/>
       <c r="Q106" s="48"/>
       <c r="R106" s="383">
-        <f>IF($A$1="补货",I106+J106+K106+L106,K106)</f>
+        <f>IF($A$1="补货",I106+J106+K106+L106,I106+J106)</f>
         <v>0</v>
       </c>
       <c r="S106" s="384"/>
@@ -64858,7 +64858,7 @@
       <c r="P107" s="326"/>
       <c r="Q107" s="340"/>
       <c r="R107" s="379">
-        <f>IF($A$1="补货",I107+J107+K107+L107,K107)</f>
+        <f>IF($A$1="补货",I107+J107+K107+L107,I107+J107)</f>
         <v>0</v>
       </c>
       <c r="S107" s="373"/>
@@ -64898,7 +64898,7 @@
       <c r="P108" s="33"/>
       <c r="Q108" s="43"/>
       <c r="R108" s="381">
-        <f>IF($A$1="补货",I108+J108+K108+L108,K108)</f>
+        <f>IF($A$1="补货",I108+J108+K108+L108,I108+J108)</f>
         <v>0</v>
       </c>
       <c r="S108" s="382"/>
@@ -64938,7 +64938,7 @@
       <c r="P109" s="33"/>
       <c r="Q109" s="43"/>
       <c r="R109" s="381">
-        <f>IF($A$1="补货",I109+J109+K109+L109,K109)</f>
+        <f>IF($A$1="补货",I109+J109+K109+L109,I109+J109)</f>
         <v>0</v>
       </c>
       <c r="S109" s="382"/>
@@ -64980,7 +64980,7 @@
       <c r="P110" s="33"/>
       <c r="Q110" s="43"/>
       <c r="R110" s="383">
-        <f>IF($A$1="补货",I110+J110+K110+L110,K110)</f>
+        <f>IF($A$1="补货",I110+J110+K110+L110,I110+J110)</f>
         <v>0</v>
       </c>
       <c r="S110" s="385"/>
@@ -65020,7 +65020,7 @@
       <c r="P111" s="323"/>
       <c r="Q111" s="335"/>
       <c r="R111" s="336">
-        <f>IF($A$1="补货",I111+J111+K111+L111,K111)</f>
+        <f>IF($A$1="补货",I111+J111+K111+L111,I111+J111)</f>
         <v>0</v>
       </c>
       <c r="S111" s="337"/>
@@ -65060,7 +65060,7 @@
       <c r="P112" s="33"/>
       <c r="Q112" s="43"/>
       <c r="R112" s="44">
-        <f>IF($A$1="补货",I112+J112+K112+L112,K112)</f>
+        <f>IF($A$1="补货",I112+J112+K112+L112,I112+J112)</f>
         <v>0</v>
       </c>
       <c r="S112" s="45"/>
@@ -65100,7 +65100,7 @@
       <c r="P113" s="33"/>
       <c r="Q113" s="43"/>
       <c r="R113" s="44">
-        <f>IF($A$1="补货",I113+J113+K113+L113,K113)</f>
+        <f>IF($A$1="补货",I113+J113+K113+L113,I113+J113)</f>
         <v>0</v>
       </c>
       <c r="S113" s="45"/>
@@ -65140,7 +65140,7 @@
       <c r="P114" s="33"/>
       <c r="Q114" s="43"/>
       <c r="R114" s="44">
-        <f>IF($A$1="补货",I114+J114+K114+L114,K114)</f>
+        <f>IF($A$1="补货",I114+J114+K114+L114,I114+J114)</f>
         <v>0</v>
       </c>
       <c r="S114" s="45"/>
@@ -65180,7 +65180,7 @@
       <c r="P115" s="33"/>
       <c r="Q115" s="43"/>
       <c r="R115" s="44">
-        <f>IF($A$1="补货",I115+J115+K115+L115,K115)</f>
+        <f>IF($A$1="补货",I115+J115+K115+L115,I115+J115)</f>
         <v>0</v>
       </c>
       <c r="S115" s="45"/>
@@ -65220,7 +65220,7 @@
       <c r="P116" s="36"/>
       <c r="Q116" s="332"/>
       <c r="R116" s="333">
-        <f>IF($A$1="补货",I116+J116+K116+L116,K116)</f>
+        <f>IF($A$1="补货",I116+J116+K116+L116,I116+J116)</f>
         <v>0</v>
       </c>
       <c r="S116" s="334"/>
@@ -65260,7 +65260,7 @@
       <c r="P117" s="33"/>
       <c r="Q117" s="386"/>
       <c r="R117" s="44">
-        <f>IF($A$1="补货",I117+J117+K117+L117,K117)</f>
+        <f>IF($A$1="补货",I117+J117+K117+L117,I117+J117)</f>
         <v>0</v>
       </c>
       <c r="S117" s="45"/>
@@ -65300,7 +65300,7 @@
       <c r="P118" s="36"/>
       <c r="Q118" s="332"/>
       <c r="R118" s="333">
-        <f>IF($A$1="补货",I118+J118+K118+L118,K118)</f>
+        <f>IF($A$1="补货",I118+J118+K118+L118,I118+J118)</f>
         <v>0</v>
       </c>
       <c r="S118" s="334"/>
@@ -65340,7 +65340,7 @@
       <c r="P119" s="323"/>
       <c r="Q119" s="335"/>
       <c r="R119" s="336">
-        <f>IF($A$1="补货",I119+J119+K119+L119,K119)</f>
+        <f>IF($A$1="补货",I119+J119+K119+L119,I119+J119)</f>
         <v>0</v>
       </c>
       <c r="S119" s="337"/>
@@ -65380,7 +65380,7 @@
       <c r="P120" s="33"/>
       <c r="Q120" s="43"/>
       <c r="R120" s="44">
-        <f>IF($A$1="补货",I120+J120+K120+L120,K120)</f>
+        <f>IF($A$1="补货",I120+J120+K120+L120,I120+J120)</f>
         <v>0</v>
       </c>
       <c r="S120" s="45"/>
@@ -65420,7 +65420,7 @@
       <c r="P121" s="33"/>
       <c r="Q121" s="43"/>
       <c r="R121" s="44">
-        <f>IF($A$1="补货",I121+J121+K121+L121,K121)</f>
+        <f>IF($A$1="补货",I121+J121+K121+L121,I121+J121)</f>
         <v>0</v>
       </c>
       <c r="S121" s="45"/>
@@ -65460,7 +65460,7 @@
       <c r="P122" s="33"/>
       <c r="Q122" s="43"/>
       <c r="R122" s="44">
-        <f>IF($A$1="补货",I122+J122+K122+L122,K122)</f>
+        <f>IF($A$1="补货",I122+J122+K122+L122,I122+J122)</f>
         <v>0</v>
       </c>
       <c r="S122" s="45"/>
@@ -65500,7 +65500,7 @@
       <c r="P123" s="33"/>
       <c r="Q123" s="43"/>
       <c r="R123" s="44">
-        <f>IF($A$1="补货",I123+J123+K123+L123,K123)</f>
+        <f>IF($A$1="补货",I123+J123+K123+L123,I123+J123)</f>
         <v>0</v>
       </c>
       <c r="S123" s="45"/>
@@ -65540,7 +65540,7 @@
       <c r="P124" s="39"/>
       <c r="Q124" s="48"/>
       <c r="R124" s="333">
-        <f>IF($A$1="补货",I124+J124+K124+L124,K124)</f>
+        <f>IF($A$1="补货",I124+J124+K124+L124,I124+J124)</f>
         <v>0</v>
       </c>
       <c r="S124" s="50"/>
@@ -65580,7 +65580,7 @@
       <c r="P125" s="323"/>
       <c r="Q125" s="335"/>
       <c r="R125" s="336">
-        <f>IF($A$1="补货",I125+J125+K125+L125,K125)</f>
+        <f>IF($A$1="补货",I125+J125+K125+L125,I125+J125)</f>
         <v>0</v>
       </c>
       <c r="S125" s="337"/>
@@ -65620,7 +65620,7 @@
       <c r="P126" s="33"/>
       <c r="Q126" s="43"/>
       <c r="R126" s="44">
-        <f>IF($A$1="补货",I126+J126+K126+L126,K126)</f>
+        <f>IF($A$1="补货",I126+J126+K126+L126,I126+J126)</f>
         <v>0</v>
       </c>
       <c r="S126" s="45"/>
@@ -65662,7 +65662,7 @@
       <c r="P127" s="39"/>
       <c r="Q127" s="48"/>
       <c r="R127" s="339">
-        <f>IF($A$1="补货",I127+J127+K127+L127,K127)</f>
+        <f>IF($A$1="补货",I127+J127+K127+L127,I127+J127)</f>
         <v>0</v>
       </c>
       <c r="S127" s="50"/>
@@ -65706,7 +65706,7 @@
       <c r="P128" s="326"/>
       <c r="Q128" s="340"/>
       <c r="R128" s="341">
-        <f>IF($A$1="补货",I128+J128+K128+L128,K128)</f>
+        <f>IF($A$1="补货",I128+J128+K128+L128,I128+J128)</f>
         <v>0</v>
       </c>
       <c r="S128" s="342"/>
@@ -65748,7 +65748,7 @@
       <c r="P129" s="36"/>
       <c r="Q129" s="332"/>
       <c r="R129" s="44">
-        <f>IF($A$1="补货",I129+J129+K129+L129,K129)</f>
+        <f>IF($A$1="补货",I129+J129+K129+L129,I129+J129)</f>
         <v>0</v>
       </c>
       <c r="S129" s="45"/>
@@ -65790,7 +65790,7 @@
       <c r="P130" s="36"/>
       <c r="Q130" s="332"/>
       <c r="R130" s="44">
-        <f>IF($A$1="补货",I130+J130+K130+L130,K130)</f>
+        <f>IF($A$1="补货",I130+J130+K130+L130,I130+J130)</f>
         <v>0</v>
       </c>
       <c r="S130" s="45"/>
@@ -65832,7 +65832,7 @@
       <c r="P131" s="36"/>
       <c r="Q131" s="332"/>
       <c r="R131" s="44">
-        <f>IF($A$1="补货",I131+J131+K131+L131,K131)</f>
+        <f>IF($A$1="补货",I131+J131+K131+L131,I131+J131)</f>
         <v>0</v>
       </c>
       <c r="S131" s="45"/>
@@ -65874,7 +65874,7 @@
       <c r="P132" s="36"/>
       <c r="Q132" s="332"/>
       <c r="R132" s="44">
-        <f>IF($A$1="补货",I132+J132+K132+L132,K132)</f>
+        <f>IF($A$1="补货",I132+J132+K132+L132,I132+J132)</f>
         <v>0</v>
       </c>
       <c r="S132" s="45"/>
@@ -65916,7 +65916,7 @@
       <c r="P133" s="36"/>
       <c r="Q133" s="332"/>
       <c r="R133" s="44">
-        <f>IF($A$1="补货",I133+J133+K133+L133,K133)</f>
+        <f>IF($A$1="补货",I133+J133+K133+L133,I133+J133)</f>
         <v>0</v>
       </c>
       <c r="S133" s="45"/>
@@ -65958,7 +65958,7 @@
       <c r="P134" s="36"/>
       <c r="Q134" s="332"/>
       <c r="R134" s="44">
-        <f>IF($A$1="补货",I134+J134+K134+L134,K134)</f>
+        <f>IF($A$1="补货",I134+J134+K134+L134,I134+J134)</f>
         <v>0</v>
       </c>
       <c r="S134" s="45"/>
@@ -66000,7 +66000,7 @@
       <c r="P135" s="36"/>
       <c r="Q135" s="332"/>
       <c r="R135" s="44">
-        <f>IF($A$1="补货",I135+J135+K135+L135,K135)</f>
+        <f>IF($A$1="补货",I135+J135+K135+L135,I135+J135)</f>
         <v>0</v>
       </c>
       <c r="S135" s="45"/>
@@ -66042,7 +66042,7 @@
       <c r="P136" s="36"/>
       <c r="Q136" s="332"/>
       <c r="R136" s="44">
-        <f>IF($A$1="补货",I136+J136+K136+L136,K136)</f>
+        <f>IF($A$1="补货",I136+J136+K136+L136,I136+J136)</f>
         <v>0</v>
       </c>
       <c r="S136" s="45"/>
@@ -66084,7 +66084,7 @@
       <c r="P137" s="36"/>
       <c r="Q137" s="332"/>
       <c r="R137" s="44">
-        <f>IF($A$1="补货",I137+J137+K137+L137,K137)</f>
+        <f>IF($A$1="补货",I137+J137+K137+L137,I137+J137)</f>
         <v>0</v>
       </c>
       <c r="S137" s="45"/>
@@ -66126,7 +66126,7 @@
       <c r="P138" s="36"/>
       <c r="Q138" s="332"/>
       <c r="R138" s="44">
-        <f>IF($A$1="补货",I138+J138+K138+L138,K138)</f>
+        <f>IF($A$1="补货",I138+J138+K138+L138,I138+J138)</f>
         <v>0</v>
       </c>
       <c r="S138" s="45"/>
@@ -66168,7 +66168,7 @@
       <c r="P139" s="36"/>
       <c r="Q139" s="332"/>
       <c r="R139" s="44">
-        <f>IF($A$1="补货",I139+J139+K139+L139,K139)</f>
+        <f>IF($A$1="补货",I139+J139+K139+L139,I139+J139)</f>
         <v>0</v>
       </c>
       <c r="S139" s="45"/>
@@ -66210,7 +66210,7 @@
       <c r="P140" s="36"/>
       <c r="Q140" s="332"/>
       <c r="R140" s="44">
-        <f>IF($A$1="补货",I140+J140+K140+L140,K140)</f>
+        <f>IF($A$1="补货",I140+J140+K140+L140,I140+J140)</f>
         <v>0</v>
       </c>
       <c r="S140" s="45"/>
@@ -66252,7 +66252,7 @@
       <c r="P141" s="36"/>
       <c r="Q141" s="332"/>
       <c r="R141" s="333">
-        <f>IF($A$1="补货",I141+J141+K141+L141,K141)</f>
+        <f>IF($A$1="补货",I141+J141+K141+L141,I141+J141)</f>
         <v>0</v>
       </c>
       <c r="S141" s="334"/>
@@ -66292,7 +66292,7 @@
       <c r="P142" s="407"/>
       <c r="Q142" s="411"/>
       <c r="R142" s="336">
-        <f>IF($A$1="补货",I142+J142+K142+L142,K142)</f>
+        <f>IF($A$1="补货",I142+J142+K142+L142,I142+J142)</f>
         <v>0</v>
       </c>
       <c r="S142" s="337"/>
@@ -66332,7 +66332,7 @@
       <c r="P143" s="36"/>
       <c r="Q143" s="332"/>
       <c r="R143" s="44">
-        <f>IF($A$1="补货",I143+J143+K143+L143,K143)</f>
+        <f>IF($A$1="补货",I143+J143+K143+L143,I143+J143)</f>
         <v>0</v>
       </c>
       <c r="S143" s="45"/>
@@ -66372,7 +66372,7 @@
       <c r="P144" s="36"/>
       <c r="Q144" s="332"/>
       <c r="R144" s="44">
-        <f>IF($A$1="补货",I144+J144+K144+L144,K144)</f>
+        <f>IF($A$1="补货",I144+J144+K144+L144,I144+J144)</f>
         <v>0</v>
       </c>
       <c r="S144" s="45"/>
@@ -66412,7 +66412,7 @@
       <c r="P145" s="36"/>
       <c r="Q145" s="332"/>
       <c r="R145" s="44">
-        <f>IF($A$1="补货",I145+J145+K145+L145,K145)</f>
+        <f>IF($A$1="补货",I145+J145+K145+L145,I145+J145)</f>
         <v>0</v>
       </c>
       <c r="S145" s="45"/>
@@ -66452,7 +66452,7 @@
       <c r="P146" s="36"/>
       <c r="Q146" s="332"/>
       <c r="R146" s="44">
-        <f>IF($A$1="补货",I146+J146+K146+L146,K146)</f>
+        <f>IF($A$1="补货",I146+J146+K146+L146,I146+J146)</f>
         <v>0</v>
       </c>
       <c r="S146" s="45"/>
@@ -66492,7 +66492,7 @@
       <c r="P147" s="36"/>
       <c r="Q147" s="332"/>
       <c r="R147" s="44">
-        <f>IF($A$1="补货",I147+J147+K147+L147,K147)</f>
+        <f>IF($A$1="补货",I147+J147+K147+L147,I147+J147)</f>
         <v>0</v>
       </c>
       <c r="S147" s="45"/>
@@ -66532,7 +66532,7 @@
       <c r="P148" s="39"/>
       <c r="Q148" s="48"/>
       <c r="R148" s="339">
-        <f>IF($A$1="补货",I148+J148+K148+L148,K148)</f>
+        <f>IF($A$1="补货",I148+J148+K148+L148,I148+J148)</f>
         <v>0</v>
       </c>
       <c r="S148" s="50"/>
@@ -66572,7 +66572,7 @@
       <c r="P149" s="36"/>
       <c r="Q149" s="332"/>
       <c r="R149" s="44">
-        <f>IF($A$1="补货",I149+J149+K149+L149,K149)</f>
+        <f>IF($A$1="补货",I149+J149+K149+L149,I149+J149)</f>
         <v>0</v>
       </c>
       <c r="S149" s="45"/>
@@ -66612,7 +66612,7 @@
       <c r="P150" s="36"/>
       <c r="Q150" s="332"/>
       <c r="R150" s="44">
-        <f>IF($A$1="补货",I150+J150+K150+L150,K150)</f>
+        <f>IF($A$1="补货",I150+J150+K150+L150,I150+J150)</f>
         <v>0</v>
       </c>
       <c r="S150" s="45"/>
@@ -66652,7 +66652,7 @@
       <c r="P151" s="36"/>
       <c r="Q151" s="332"/>
       <c r="R151" s="333">
-        <f>IF($A$1="补货",I151+J151+K151+L151,K151)</f>
+        <f>IF($A$1="补货",I151+J151+K151+L151,I151+J151)</f>
         <v>0</v>
       </c>
       <c r="S151" s="334"/>
@@ -66692,7 +66692,7 @@
       <c r="P152" s="407"/>
       <c r="Q152" s="411"/>
       <c r="R152" s="336">
-        <f>IF($A$1="补货",I152+J152+K152+L152,K152)</f>
+        <f>IF($A$1="补货",I152+J152+K152+L152,I152+J152)</f>
         <v>0</v>
       </c>
       <c r="S152" s="337"/>
@@ -66732,7 +66732,7 @@
       <c r="P153" s="36"/>
       <c r="Q153" s="332"/>
       <c r="R153" s="44">
-        <f>IF($A$1="补货",I153+J153+K153+L153,K153)</f>
+        <f>IF($A$1="补货",I153+J153+K153+L153,I153+J153)</f>
         <v>0</v>
       </c>
       <c r="S153" s="45"/>
@@ -66772,7 +66772,7 @@
       <c r="P154" s="36"/>
       <c r="Q154" s="332"/>
       <c r="R154" s="44">
-        <f>IF($A$1="补货",I154+J154+K154+L154,K154)</f>
+        <f>IF($A$1="补货",I154+J154+K154+L154,I154+J154)</f>
         <v>0</v>
       </c>
       <c r="S154" s="45"/>
@@ -66812,7 +66812,7 @@
       <c r="P155" s="36"/>
       <c r="Q155" s="332"/>
       <c r="R155" s="44">
-        <f>IF($A$1="补货",I155+J155+K155+L155,K155)</f>
+        <f>IF($A$1="补货",I155+J155+K155+L155,I155+J155)</f>
         <v>0</v>
       </c>
       <c r="S155" s="45"/>
@@ -66852,7 +66852,7 @@
       <c r="P156" s="39"/>
       <c r="Q156" s="48"/>
       <c r="R156" s="339">
-        <f>IF($A$1="补货",I156+J156+K156+L156,K156)</f>
+        <f>IF($A$1="补货",I156+J156+K156+L156,I156+J156)</f>
         <v>0</v>
       </c>
       <c r="S156" s="50"/>
@@ -66892,7 +66892,7 @@
       <c r="P157" s="329"/>
       <c r="Q157" s="344"/>
       <c r="R157" s="341">
-        <f>IF($A$1="补货",I157+J157+K157+L157,K157)</f>
+        <f>IF($A$1="补货",I157+J157+K157+L157,I157+J157)</f>
         <v>0</v>
       </c>
       <c r="S157" s="342"/>
@@ -66932,7 +66932,7 @@
       <c r="P158" s="36"/>
       <c r="Q158" s="332"/>
       <c r="R158" s="333">
-        <f>IF($A$1="补货",I158+J158+K158+L158,K158)</f>
+        <f>IF($A$1="补货",I158+J158+K158+L158,I158+J158)</f>
         <v>0</v>
       </c>
       <c r="S158" s="334"/>
@@ -66972,7 +66972,7 @@
       <c r="P159" s="407"/>
       <c r="Q159" s="411"/>
       <c r="R159" s="336">
-        <f>IF($A$1="补货",I159+J159+K159+L159,K159)</f>
+        <f>IF($A$1="补货",I159+J159+K159+L159,I159+J159)</f>
         <v>0</v>
       </c>
       <c r="S159" s="337"/>
@@ -67012,7 +67012,7 @@
       <c r="P160" s="36"/>
       <c r="Q160" s="332"/>
       <c r="R160" s="44">
-        <f>IF($A$1="补货",I160+J160+K160+L160,K160)</f>
+        <f>IF($A$1="补货",I160+J160+K160+L160,I160+J160)</f>
         <v>0</v>
       </c>
       <c r="S160" s="45"/>
@@ -67052,7 +67052,7 @@
       <c r="P161" s="39"/>
       <c r="Q161" s="48"/>
       <c r="R161" s="339">
-        <f>IF($A$1="补货",I161+J161+K161+L161,K161)</f>
+        <f>IF($A$1="补货",I161+J161+K161+L161,I161+J161)</f>
         <v>0</v>
       </c>
       <c r="S161" s="50"/>
@@ -67092,7 +67092,7 @@
       <c r="P162" s="410"/>
       <c r="Q162" s="413"/>
       <c r="R162" s="414">
-        <f>IF($A$1="补货",I162+J162+K162+L162,K162)</f>
+        <f>IF($A$1="补货",I162+J162+K162+L162,I162+J162)</f>
         <v>0</v>
       </c>
       <c r="S162" s="402"/>
@@ -67132,7 +67132,7 @@
       <c r="P163" s="39"/>
       <c r="Q163" s="48"/>
       <c r="R163" s="339">
-        <f>IF($A$1="补货",I163+J163+K163+L163,K163)</f>
+        <f>IF($A$1="补货",I163+J163+K163+L163,I163+J163)</f>
         <v>0</v>
       </c>
       <c r="S163" s="50"/>
@@ -67164,7 +67164,7 @@
       <c r="P164" s="329"/>
       <c r="Q164" s="344"/>
       <c r="R164" s="341">
-        <f>IF($A$1="补货",I164+J164+K164+L164,K164)</f>
+        <f>IF($A$1="补货",I164+J164+K164+L164,I164+J164)</f>
         <v>0</v>
       </c>
       <c r="S164" s="342"/>
@@ -67196,7 +67196,7 @@
       <c r="P165" s="36"/>
       <c r="Q165" s="332"/>
       <c r="R165" s="44">
-        <f>IF($A$1="补货",I165+J165+K165+L165,K165)</f>
+        <f>IF($A$1="补货",I165+J165+K165+L165,I165+J165)</f>
         <v>0</v>
       </c>
       <c r="S165" s="45"/>
@@ -67228,7 +67228,7 @@
       <c r="P166" s="36"/>
       <c r="Q166" s="332"/>
       <c r="R166" s="44">
-        <f>IF($A$1="补货",I166+J166+K166+L166,K166)</f>
+        <f>IF($A$1="补货",I166+J166+K166+L166,I166+J166)</f>
         <v>0</v>
       </c>
       <c r="S166" s="45"/>
@@ -67260,7 +67260,7 @@
       <c r="P167" s="36"/>
       <c r="Q167" s="332"/>
       <c r="R167" s="44">
-        <f>IF($A$1="补货",I167+J167+K167+L167,K167)</f>
+        <f>IF($A$1="补货",I167+J167+K167+L167,I167+J167)</f>
         <v>0</v>
       </c>
       <c r="S167" s="45"/>
@@ -67292,7 +67292,7 @@
       <c r="P168" s="36"/>
       <c r="Q168" s="332"/>
       <c r="R168" s="44">
-        <f>IF($A$1="补货",I168+J168+K168+L168,K168)</f>
+        <f>IF($A$1="补货",I168+J168+K168+L168,I168+J168)</f>
         <v>0</v>
       </c>
       <c r="S168" s="45"/>
@@ -67324,7 +67324,7 @@
       <c r="P169" s="36"/>
       <c r="Q169" s="332"/>
       <c r="R169" s="44">
-        <f>IF($A$1="补货",I169+J169+K169+L169,K169)</f>
+        <f>IF($A$1="补货",I169+J169+K169+L169,I169+J169)</f>
         <v>0</v>
       </c>
       <c r="S169" s="45"/>
@@ -67356,7 +67356,7 @@
       <c r="P170" s="36"/>
       <c r="Q170" s="332"/>
       <c r="R170" s="44">
-        <f>IF($A$1="补货",I170+J170+K170+L170,K170)</f>
+        <f>IF($A$1="补货",I170+J170+K170+L170,I170+J170)</f>
         <v>0</v>
       </c>
       <c r="S170" s="45"/>
@@ -67388,7 +67388,7 @@
       <c r="P171" s="36"/>
       <c r="Q171" s="332"/>
       <c r="R171" s="44">
-        <f>IF($A$1="补货",I171+J171+K171+L171,K171)</f>
+        <f>IF($A$1="补货",I171+J171+K171+L171,I171+J171)</f>
         <v>0</v>
       </c>
       <c r="S171" s="45"/>
@@ -67420,7 +67420,7 @@
       <c r="P172" s="36"/>
       <c r="Q172" s="332"/>
       <c r="R172" s="44">
-        <f>IF($A$1="补货",I172+J172+K172+L172,K172)</f>
+        <f>IF($A$1="补货",I172+J172+K172+L172,I172+J172)</f>
         <v>0</v>
       </c>
       <c r="S172" s="45"/>
@@ -67452,7 +67452,7 @@
       <c r="P173" s="36"/>
       <c r="Q173" s="332"/>
       <c r="R173" s="44">
-        <f>IF($A$1="补货",I173+J173+K173+L173,K173)</f>
+        <f>IF($A$1="补货",I173+J173+K173+L173,I173+J173)</f>
         <v>0</v>
       </c>
       <c r="S173" s="45"/>
@@ -67486,7 +67486,7 @@
       <c r="P174" s="39"/>
       <c r="Q174" s="48"/>
       <c r="R174" s="49">
-        <f>IF($A$1="补货",I174+J174+K174+L174,K174)</f>
+        <f>IF($A$1="补货",I174+J174+K174+L174,I174+J174)</f>
         <v>0</v>
       </c>
       <c r="S174" s="50"/>

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4942" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="1373">
   <si>
     <t>补货</t>
   </si>
@@ -3067,43 +3067,61 @@
     <t>【Smart-KM】E012 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 ネコ型 猫型 全11色 (ロースゴールド)</t>
   </si>
   <si>
-    <t>MQ-U33U-ON4G</t>
-  </si>
-  <si>
-    <t>B075GZ73NQ</t>
+    <t>KC-8ZTI-64WH</t>
+  </si>
+  <si>
+    <t>B0BDGFTPYW</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 2点セット (ゴールド)</t>
+  </si>
+  <si>
+    <t>R7-7LQK-MVQ3</t>
+  </si>
+  <si>
+    <t>B0BDGFS6LP</t>
   </si>
   <si>
     <t>シャンペン</t>
   </si>
   <si>
-    <t>【Smart-KM】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 (シャンペン)</t>
-  </si>
-  <si>
-    <t>UK-GFTG-6HXT</t>
-  </si>
-  <si>
-    <t>B075H1LRQX</t>
-  </si>
-  <si>
-    <t>【Smart-KM】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 (シルバー)</t>
-  </si>
-  <si>
-    <t>8X-S1ZH-ZUWR</t>
-  </si>
-  <si>
-    <t>B075GYGJ77</t>
-  </si>
-  <si>
-    <t>【Smart-KM】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 (ブルー)</t>
-  </si>
-  <si>
-    <t>PB-J7RL-ILGB</t>
-  </si>
-  <si>
-    <t>B075H15HJ8</t>
-  </si>
-  <si>
-    <t>【Smart-KM】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 (レッド)</t>
+    <t>【Smart-Bear】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 2点セット (シャンペン)</t>
+  </si>
+  <si>
+    <t>ME-ETAE-GQNM</t>
+  </si>
+  <si>
+    <t>B0BDGHRHQY</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 2点セット (シルバー)</t>
+  </si>
+  <si>
+    <t>E3-Y1I9-YMMX</t>
+  </si>
+  <si>
+    <t>B0BDGJ8YGC</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 2点セット (ブラック)</t>
+  </si>
+  <si>
+    <t>IL-NDTM-ERFJ</t>
+  </si>
+  <si>
+    <t>B0BDGJBF4F</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 2点セット (ブルー)</t>
+  </si>
+  <si>
+    <t>7V-FKV2-EZBZ</t>
+  </si>
+  <si>
+    <t>B0BDGL6LLY</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】E013 スマートフォン用 スマホリング 持ちやすい リングスタンド ホールドリング 落下防止 〇型 丸型 全6色 2点セット (レッド)</t>
   </si>
   <si>
     <t>YI-TX1G-QCY3</t>
@@ -4207,8 +4225,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yy/mm/dd"/>
   </numFmts>
   <fonts count="42">
@@ -7689,62 +7707,62 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
@@ -7754,7 +7772,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7861,23 +7879,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7897,7 +7915,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7956,7 +7974,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8109,16 +8127,16 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="12" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="12" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="12" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8130,19 +8148,19 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8150,18 +8168,18 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="12" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="12" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="12" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="12" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="12" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="12" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8324,10 +8342,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="12" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
@@ -8436,70 +8454,70 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="72" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="72" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="73" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="73" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="75" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="75" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="77" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="77" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8553,39 +8571,39 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="81" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="86" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="96" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8603,7 +8621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="103" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="103" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8658,31 +8676,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="116" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="116" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="117" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="117" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="110" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8754,64 +8772,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="17" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="17" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="17" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="17" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="17" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="17" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="17" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="17" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="17" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="17" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="15" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8820,7 +8838,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8829,7 +8847,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8850,7 +8868,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8862,7 +8880,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8874,7 +8892,7 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="15" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="15" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8973,28 +8991,28 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="46" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="15" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="15" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9006,34 +9024,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="17" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="17" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="17" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="17" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="15" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="15" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="15" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="15" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="15" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="15" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="40" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="15" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="119" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9048,16 +9066,16 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="15" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="15" borderId="36" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="15" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="15" borderId="37" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="17" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="38" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9084,22 +9102,22 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="15" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="33" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="15" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="15" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="17" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="17" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9108,7 +9126,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="33" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9309,7 +9327,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9318,7 +9336,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9327,7 +9345,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9339,13 +9357,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9354,7 +9372,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9363,7 +9381,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -9915,64 +9933,64 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="179" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="179" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -10600,10 +10618,10 @@
     <xf numFmtId="0" fontId="9" fillId="25" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10612,10 +10630,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10627,16 +10645,16 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10645,49 +10663,49 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="12" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="25" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="25" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="25" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="25" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="25" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="25" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -28276,14 +28294,14 @@
         <v>519</v>
       </c>
       <c r="D118" s="162" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="E118" s="167"/>
       <c r="F118" s="95" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="67" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="H118" s="67" t="s">
         <v>673</v>
@@ -28655,7 +28673,7 @@
         <v>519</v>
       </c>
       <c r="D129" s="146" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="E129" s="147"/>
       <c r="F129" s="148" t="s">
@@ -28857,13 +28875,13 @@
     </row>
     <row r="135" ht="50.1" customHeight="1" spans="2:13">
       <c r="B135" s="59" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="C135" s="59" t="s">
         <v>483</v>
       </c>
       <c r="D135" s="60" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="E135" s="232"/>
       <c r="F135" s="67" t="s">
@@ -28961,7 +28979,7 @@
       <c r="B138" s="63"/>
       <c r="C138" s="63"/>
       <c r="D138" s="60" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="E138" s="238"/>
       <c r="F138" s="86" t="s">
@@ -29059,7 +29077,7 @@
       <c r="B141" s="63"/>
       <c r="C141" s="63"/>
       <c r="D141" s="60" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="E141" s="232"/>
       <c r="F141" s="67" t="s">
@@ -29157,7 +29175,7 @@
       <c r="B144" s="63"/>
       <c r="C144" s="63"/>
       <c r="D144" s="60" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="E144" s="232"/>
       <c r="F144" s="67" t="s">
@@ -31806,7 +31824,7 @@
     </row>
     <row r="13" customHeight="1" spans="2:22">
       <c r="B13" s="6" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -31840,7 +31858,7 @@
     </row>
     <row r="14" customHeight="1" spans="2:22">
       <c r="B14" s="6" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -32962,7 +32980,7 @@
     </row>
     <row r="49" customHeight="1" spans="2:22">
       <c r="B49" s="21" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
@@ -60568,12 +60586,12 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V174"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -62651,11 +62669,11 @@
         <v>991</v>
       </c>
       <c r="E53" s="295" t="s">
-        <v>992</v>
+        <v>953</v>
       </c>
       <c r="F53" s="296"/>
       <c r="G53" s="297" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H53" s="298"/>
       <c r="I53" s="321"/>
@@ -62685,13 +62703,13 @@
     <row r="54" customHeight="1" spans="2:22">
       <c r="B54" s="299"/>
       <c r="C54" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>995</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>957</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10" t="s">
@@ -62713,11 +62731,11 @@
       </c>
       <c r="S54" s="45"/>
       <c r="T54" s="45">
-        <f t="shared" ref="T54:T117" si="6">R54+S54</f>
+        <f t="shared" ref="T54:T57" si="6">R54+S54</f>
         <v>0</v>
       </c>
       <c r="U54" s="33" t="str">
-        <f t="shared" ref="U54:U117" si="7">IF(Q54&gt;0,T54/Q54*7,"-")</f>
+        <f t="shared" ref="U54:U57" si="7">IF(Q54&gt;0,T54/Q54*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V54" s="46"/>
@@ -62731,7 +62749,7 @@
         <v>998</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>31</v>
+        <v>957</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10" t="s">
@@ -62763,170 +62781,166 @@
       <c r="V55" s="46"/>
     </row>
     <row r="56" customHeight="1" spans="2:22">
-      <c r="B56" s="301"/>
-      <c r="C56" s="302" t="s">
+      <c r="B56" s="299"/>
+      <c r="C56" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="D56" s="303" t="s">
+      <c r="D56" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="E56" s="303" t="s">
+      <c r="E56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="44">
+        <f>IF($A$1="补货",I56+J56+K56+L56,I56+J56)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="V56" s="46"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:22">
+      <c r="B57" s="299"/>
+      <c r="C57" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="44">
+        <f>IF($A$1="补货",I57+J57+K57+L57,I57+J57)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="V57" s="46"/>
+    </row>
+    <row r="58" customHeight="1" spans="2:22">
+      <c r="B58" s="301"/>
+      <c r="C58" s="302" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D58" s="303" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E58" s="303" t="s">
         <v>913</v>
       </c>
-      <c r="F56" s="311"/>
-      <c r="G56" s="305" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H56" s="26"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="339">
-        <f>IF($A$1="补货",I56+J56+K56+L56,I56+J56)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V56" s="51"/>
-    </row>
-    <row r="57" customHeight="1" spans="2:22">
-      <c r="B57" s="293"/>
-      <c r="C57" s="294" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D57" s="295" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E57" s="295" t="s">
+      <c r="F58" s="311"/>
+      <c r="G58" s="305" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H58" s="26"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="339">
+        <f>IF($A$1="补货",I58+J58+K58+L58,I58+J58)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50">
+        <f t="shared" ref="T58:T119" si="8">R58+S58</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="39" t="str">
+        <f t="shared" ref="U58:U119" si="9">IF(Q58&gt;0,T58/Q58*7,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="V58" s="51"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:22">
+      <c r="B59" s="293"/>
+      <c r="C59" s="294" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D59" s="295" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E59" s="295" t="s">
         <v>953</v>
       </c>
-      <c r="F57" s="296" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G57" s="297" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H57" s="298"/>
-      <c r="I57" s="321"/>
-      <c r="J57" s="322"/>
-      <c r="K57" s="323"/>
-      <c r="L57" s="323"/>
-      <c r="M57" s="323"/>
-      <c r="N57" s="323"/>
-      <c r="O57" s="323"/>
-      <c r="P57" s="323"/>
-      <c r="Q57" s="335"/>
-      <c r="R57" s="336">
-        <f>IF($A$1="补货",I57+J57+K57+L57,I57+J57)</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="337"/>
-      <c r="T57" s="337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="323" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V57" s="338"/>
-    </row>
-    <row r="58" customHeight="1" spans="2:22">
-      <c r="B58" s="299"/>
-      <c r="C58" s="7" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="44">
-        <f>IF($A$1="补货",I58+J58+K58+L58,I58+J58)</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V58" s="46"/>
-    </row>
-    <row r="59" customHeight="1" spans="2:22">
-      <c r="B59" s="299"/>
-      <c r="C59" s="7" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="F59" s="296" t="s">
         <v>1011</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="297" t="s">
         <v>1012</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="44">
+      <c r="H59" s="298"/>
+      <c r="I59" s="321"/>
+      <c r="J59" s="322"/>
+      <c r="K59" s="323"/>
+      <c r="L59" s="323"/>
+      <c r="M59" s="323"/>
+      <c r="N59" s="323"/>
+      <c r="O59" s="323"/>
+      <c r="P59" s="323"/>
+      <c r="Q59" s="335"/>
+      <c r="R59" s="336">
         <f>IF($A$1="补货",I59+J59+K59+L59,I59+J59)</f>
         <v>0</v>
       </c>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V59" s="46"/>
+      <c r="S59" s="337"/>
+      <c r="T59" s="337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="323" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V59" s="338"/>
     </row>
     <row r="60" customHeight="1" spans="2:22">
       <c r="B60" s="299"/>
@@ -62937,10 +62951,10 @@
         <v>1014</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>988</v>
+        <v>957</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>1015</v>
@@ -62961,11 +62975,11 @@
       </c>
       <c r="S60" s="45"/>
       <c r="T60" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U60" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V60" s="46"/>
@@ -62979,13 +62993,13 @@
         <v>1017</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>953</v>
+        <v>145</v>
       </c>
       <c r="F61" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>1018</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>1019</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="31"/>
@@ -63003,11 +63017,11 @@
       </c>
       <c r="S61" s="45"/>
       <c r="T61" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U61" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V61" s="46"/>
@@ -63015,19 +63029,19 @@
     <row r="62" customHeight="1" spans="2:22">
       <c r="B62" s="299"/>
       <c r="C62" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>1021</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>1022</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="31"/>
@@ -63045,11 +63059,11 @@
       </c>
       <c r="S62" s="45"/>
       <c r="T62" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U62" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V62" s="46"/>
@@ -63057,16 +63071,16 @@
     <row r="63" customHeight="1" spans="2:22">
       <c r="B63" s="299"/>
       <c r="C63" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="E63" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>1024</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>1018</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>1025</v>
@@ -63087,191 +63101,195 @@
       </c>
       <c r="S63" s="45"/>
       <c r="T63" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U63" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V63" s="46"/>
     </row>
     <row r="64" customHeight="1" spans="2:22">
-      <c r="B64" s="301"/>
-      <c r="C64" s="302" t="s">
+      <c r="B64" s="299"/>
+      <c r="C64" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="D64" s="303" t="s">
+      <c r="D64" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="E64" s="303" t="s">
+      <c r="E64" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="44">
+        <f>IF($A$1="补货",I64+J64+K64+L64,I64+J64)</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V64" s="46"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:22">
+      <c r="B65" s="299"/>
+      <c r="C65" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="44">
+        <f>IF($A$1="补货",I65+J65+K65+L65,I65+J65)</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V65" s="46"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:22">
+      <c r="B66" s="301"/>
+      <c r="C66" s="302" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D66" s="303" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E66" s="303" t="s">
         <v>988</v>
       </c>
-      <c r="F64" s="311" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G64" s="305" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H64" s="26"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="339">
-        <f>IF($A$1="补货",I64+J64+K64+L64,I64+J64)</f>
-        <v>0</v>
-      </c>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V64" s="51"/>
-    </row>
-    <row r="65" customHeight="1" spans="2:22">
-      <c r="B65" s="293"/>
-      <c r="C65" s="294" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D65" s="295" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E65" s="295" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F65" s="296"/>
-      <c r="G65" s="297" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H65" s="298"/>
-      <c r="I65" s="321"/>
-      <c r="J65" s="322"/>
-      <c r="K65" s="323"/>
-      <c r="L65" s="323"/>
-      <c r="M65" s="323"/>
-      <c r="N65" s="323"/>
-      <c r="O65" s="323"/>
-      <c r="P65" s="323"/>
-      <c r="Q65" s="335"/>
-      <c r="R65" s="336">
-        <f>IF($A$1="补货",I65+J65+K65+L65,I65+J65)</f>
-        <v>0</v>
-      </c>
-      <c r="S65" s="337"/>
-      <c r="T65" s="337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="323" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V65" s="338"/>
-    </row>
-    <row r="66" customHeight="1" spans="2:22">
-      <c r="B66" s="299"/>
-      <c r="C66" s="7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="F66" s="311" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G66" s="305" t="s">
         <v>1034</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10" t="s">
+      <c r="H66" s="26"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="339">
+        <f>IF($A$1="补货",I66+J66+K66+L66,I66+J66)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V66" s="51"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:22">
+      <c r="B67" s="293"/>
+      <c r="C67" s="294" t="s">
         <v>1035</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="44">
-        <f>IF($A$1="补货",I66+J66+K66+L66,I66+J66)</f>
-        <v>0</v>
-      </c>
-      <c r="S66" s="45"/>
-      <c r="T66" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V66" s="46"/>
-    </row>
-    <row r="67" customHeight="1" spans="2:22">
-      <c r="B67" s="299"/>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="295" t="s">
         <v>1036</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="295" t="s">
         <v>1037</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="F67" s="296"/>
+      <c r="G67" s="297" t="s">
         <v>1038</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="44">
+      <c r="H67" s="298"/>
+      <c r="I67" s="321"/>
+      <c r="J67" s="322"/>
+      <c r="K67" s="323"/>
+      <c r="L67" s="323"/>
+      <c r="M67" s="323"/>
+      <c r="N67" s="323"/>
+      <c r="O67" s="323"/>
+      <c r="P67" s="323"/>
+      <c r="Q67" s="335"/>
+      <c r="R67" s="336">
         <f>IF($A$1="补货",I67+J67+K67+L67,I67+J67)</f>
         <v>0</v>
       </c>
-      <c r="S67" s="45"/>
-      <c r="T67" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V67" s="46"/>
+      <c r="S67" s="337"/>
+      <c r="T67" s="337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="323" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V67" s="338"/>
     </row>
     <row r="68" customHeight="1" spans="2:22">
       <c r="B68" s="299"/>
       <c r="C68" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>1041</v>
-      </c>
       <c r="E68" s="8" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="31"/>
@@ -63289,11 +63307,11 @@
       </c>
       <c r="S68" s="45"/>
       <c r="T68" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U68" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V68" s="46"/>
@@ -63301,17 +63319,17 @@
     <row r="69" customHeight="1" spans="2:22">
       <c r="B69" s="299"/>
       <c r="C69" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>1044</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>1045</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="31"/>
@@ -63329,11 +63347,11 @@
       </c>
       <c r="S69" s="45"/>
       <c r="T69" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U69" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V69" s="46"/>
@@ -63341,17 +63359,17 @@
     <row r="70" customHeight="1" spans="2:22">
       <c r="B70" s="299"/>
       <c r="C70" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>1048</v>
-      </c>
       <c r="E70" s="8" t="s">
-        <v>145</v>
+        <v>957</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="31"/>
@@ -63369,11 +63387,11 @@
       </c>
       <c r="S70" s="45"/>
       <c r="T70" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U70" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V70" s="46"/>
@@ -63381,17 +63399,17 @@
     <row r="71" customHeight="1" spans="2:22">
       <c r="B71" s="299"/>
       <c r="C71" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>1051</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>1052</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="31"/>
@@ -63409,354 +63427,350 @@
       </c>
       <c r="S71" s="45"/>
       <c r="T71" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U71" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V71" s="46"/>
     </row>
     <row r="72" customHeight="1" spans="2:22">
-      <c r="B72" s="301"/>
-      <c r="C72" s="302" t="s">
+      <c r="B72" s="299"/>
+      <c r="C72" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="D72" s="303" t="s">
+      <c r="E72" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="E72" s="303" t="s">
+      <c r="H72" s="11"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="44">
+        <f>IF($A$1="补货",I72+J72+K72+L72,I72+J72)</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V72" s="46"/>
+    </row>
+    <row r="73" customHeight="1" spans="2:22">
+      <c r="B73" s="299"/>
+      <c r="C73" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="44">
+        <f>IF($A$1="补货",I73+J73+K73+L73,I73+J73)</f>
+        <v>0</v>
+      </c>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V73" s="46"/>
+    </row>
+    <row r="74" customHeight="1" spans="2:22">
+      <c r="B74" s="301"/>
+      <c r="C74" s="302" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D74" s="303" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E74" s="303" t="s">
         <v>988</v>
       </c>
-      <c r="F72" s="311"/>
-      <c r="G72" s="305" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H72" s="26"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="48"/>
-      <c r="R72" s="339">
-        <f>IF($A$1="补货",I72+J72+K72+L72,I72+J72)</f>
-        <v>0</v>
-      </c>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V72" s="51"/>
-    </row>
-    <row r="73" customHeight="1" spans="2:22">
-      <c r="B73" s="293"/>
-      <c r="C73" s="294" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D73" s="295" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E73" s="295" t="s">
+      <c r="F74" s="311"/>
+      <c r="G74" s="305" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H74" s="26"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="48"/>
+      <c r="R74" s="339">
+        <f>IF($A$1="补货",I74+J74+K74+L74,I74+J74)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="50"/>
+      <c r="T74" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V74" s="51"/>
+    </row>
+    <row r="75" customHeight="1" spans="2:22">
+      <c r="B75" s="293"/>
+      <c r="C75" s="294" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D75" s="295" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E75" s="295" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="296"/>
-      <c r="G73" s="297" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H73" s="298"/>
-      <c r="I73" s="321"/>
-      <c r="J73" s="322"/>
-      <c r="K73" s="323"/>
-      <c r="L73" s="323"/>
-      <c r="M73" s="323"/>
-      <c r="N73" s="323"/>
-      <c r="O73" s="323"/>
-      <c r="P73" s="323"/>
-      <c r="Q73" s="335"/>
-      <c r="R73" s="336">
-        <f>IF($A$1="补货",I73+J73+K73+L73,I73+J73)</f>
-        <v>0</v>
-      </c>
-      <c r="S73" s="337"/>
-      <c r="T73" s="337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="323" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V73" s="338"/>
-    </row>
-    <row r="74" customHeight="1" spans="2:22">
-      <c r="B74" s="349"/>
-      <c r="C74" s="350" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D74" s="351" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E74" s="351" t="s">
+      <c r="F75" s="296"/>
+      <c r="G75" s="297" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H75" s="298"/>
+      <c r="I75" s="321"/>
+      <c r="J75" s="322"/>
+      <c r="K75" s="323"/>
+      <c r="L75" s="323"/>
+      <c r="M75" s="323"/>
+      <c r="N75" s="323"/>
+      <c r="O75" s="323"/>
+      <c r="P75" s="323"/>
+      <c r="Q75" s="335"/>
+      <c r="R75" s="336">
+        <f>IF($A$1="补货",I75+J75+K75+L75,I75+J75)</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="337"/>
+      <c r="T75" s="337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="323" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V75" s="338"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:22">
+      <c r="B76" s="349"/>
+      <c r="C76" s="350" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D76" s="351" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E76" s="351" t="s">
         <v>988</v>
       </c>
-      <c r="F74" s="352"/>
-      <c r="G74" s="353" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H74" s="354"/>
-      <c r="I74" s="366"/>
-      <c r="J74" s="367"/>
-      <c r="K74" s="368"/>
-      <c r="L74" s="368"/>
-      <c r="M74" s="368"/>
-      <c r="N74" s="368"/>
-      <c r="O74" s="368"/>
-      <c r="P74" s="368"/>
-      <c r="Q74" s="340"/>
-      <c r="R74" s="372">
-        <f>IF($A$1="补货",I74+J74+K74+L74,I74+J74)</f>
-        <v>0</v>
-      </c>
-      <c r="S74" s="373"/>
-      <c r="T74" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V74" s="374"/>
-    </row>
-    <row r="75" customHeight="1" spans="2:22">
-      <c r="B75" s="355"/>
-      <c r="C75" s="356" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D75" s="357" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E75" s="357" t="s">
+      <c r="F76" s="352"/>
+      <c r="G76" s="353" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H76" s="354"/>
+      <c r="I76" s="366"/>
+      <c r="J76" s="367"/>
+      <c r="K76" s="368"/>
+      <c r="L76" s="368"/>
+      <c r="M76" s="368"/>
+      <c r="N76" s="368"/>
+      <c r="O76" s="368"/>
+      <c r="P76" s="368"/>
+      <c r="Q76" s="340"/>
+      <c r="R76" s="372">
+        <f>IF($A$1="补货",I76+J76+K76+L76,I76+J76)</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="373"/>
+      <c r="T76" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V76" s="374"/>
+    </row>
+    <row r="77" customHeight="1" spans="2:22">
+      <c r="B77" s="355"/>
+      <c r="C77" s="356" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D77" s="357" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E77" s="357" t="s">
         <v>953</v>
       </c>
-      <c r="F75" s="358"/>
-      <c r="G75" s="359" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H75" s="360"/>
-      <c r="I75" s="369"/>
-      <c r="J75" s="370"/>
-      <c r="K75" s="371"/>
-      <c r="L75" s="371"/>
-      <c r="M75" s="371"/>
-      <c r="N75" s="371"/>
-      <c r="O75" s="371"/>
-      <c r="P75" s="371"/>
-      <c r="Q75" s="332"/>
-      <c r="R75" s="375">
-        <f>IF($A$1="补货",I75+J75+K75+L75,I75+J75)</f>
-        <v>0</v>
-      </c>
-      <c r="S75" s="358"/>
-      <c r="T75" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V75" s="376"/>
-    </row>
-    <row r="76" customHeight="1" spans="2:22">
-      <c r="B76" s="301"/>
-      <c r="C76" s="302" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D76" s="303" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E76" s="303" t="s">
+      <c r="F77" s="358"/>
+      <c r="G77" s="359" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H77" s="360"/>
+      <c r="I77" s="369"/>
+      <c r="J77" s="370"/>
+      <c r="K77" s="371"/>
+      <c r="L77" s="371"/>
+      <c r="M77" s="371"/>
+      <c r="N77" s="371"/>
+      <c r="O77" s="371"/>
+      <c r="P77" s="371"/>
+      <c r="Q77" s="332"/>
+      <c r="R77" s="375">
+        <f>IF($A$1="补货",I77+J77+K77+L77,I77+J77)</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="358"/>
+      <c r="T77" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V77" s="376"/>
+    </row>
+    <row r="78" customHeight="1" spans="2:22">
+      <c r="B78" s="301"/>
+      <c r="C78" s="302" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D78" s="303" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E78" s="303" t="s">
         <v>957</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="305" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H76" s="26"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="48"/>
-      <c r="R76" s="339">
-        <f>IF($A$1="补货",I76+J76+K76+L76,I76+J76)</f>
-        <v>0</v>
-      </c>
-      <c r="S76" s="50"/>
-      <c r="T76" s="377">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U76" s="378" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V76" s="51"/>
-    </row>
-    <row r="77" customHeight="1" spans="2:22">
-      <c r="B77" s="293"/>
-      <c r="C77" s="294" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D77" s="295" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E77" s="295" t="s">
+      <c r="F78" s="50"/>
+      <c r="G78" s="305" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H78" s="26"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="48"/>
+      <c r="R78" s="339">
+        <f>IF($A$1="补货",I78+J78+K78+L78,I78+J78)</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="50"/>
+      <c r="T78" s="377">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="378" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V78" s="51"/>
+    </row>
+    <row r="79" customHeight="1" spans="2:22">
+      <c r="B79" s="293"/>
+      <c r="C79" s="294" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D79" s="295" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E79" s="295" t="s">
         <v>953</v>
       </c>
-      <c r="F77" s="296" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G77" s="297" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H77" s="298"/>
-      <c r="I77" s="321"/>
-      <c r="J77" s="322"/>
-      <c r="K77" s="323"/>
-      <c r="L77" s="323"/>
-      <c r="M77" s="323"/>
-      <c r="N77" s="323"/>
-      <c r="O77" s="323"/>
-      <c r="P77" s="323"/>
-      <c r="Q77" s="335"/>
-      <c r="R77" s="336">
-        <f>IF($A$1="补货",I77+J77+K77+L77,I77+J77)</f>
-        <v>0</v>
-      </c>
-      <c r="S77" s="337"/>
-      <c r="T77" s="342">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="326" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V77" s="338"/>
-    </row>
-    <row r="78" customHeight="1" spans="2:22">
-      <c r="B78" s="299"/>
-      <c r="C78" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="44">
-        <f>IF($A$1="补货",I78+J78+K78+L78,I78+J78)</f>
-        <v>0</v>
-      </c>
-      <c r="S78" s="45"/>
-      <c r="T78" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V78" s="46"/>
-    </row>
-    <row r="79" customHeight="1" spans="2:22">
-      <c r="B79" s="299"/>
-      <c r="C79" s="7" t="s">
+      <c r="F79" s="296" t="s">
         <v>1077</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="G79" s="297" t="s">
         <v>1078</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="44">
+      <c r="H79" s="298"/>
+      <c r="I79" s="321"/>
+      <c r="J79" s="322"/>
+      <c r="K79" s="323"/>
+      <c r="L79" s="323"/>
+      <c r="M79" s="323"/>
+      <c r="N79" s="323"/>
+      <c r="O79" s="323"/>
+      <c r="P79" s="323"/>
+      <c r="Q79" s="335"/>
+      <c r="R79" s="336">
         <f>IF($A$1="补货",I79+J79+K79+L79,I79+J79)</f>
         <v>0</v>
       </c>
-      <c r="S79" s="45"/>
-      <c r="T79" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V79" s="46"/>
+      <c r="S79" s="337"/>
+      <c r="T79" s="342">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="326" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V79" s="338"/>
     </row>
     <row r="80" customHeight="1" spans="2:22">
       <c r="B80" s="299"/>
       <c r="C80" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="E80" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>1081</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>1075</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>1082</v>
@@ -63777,11 +63791,11 @@
       </c>
       <c r="S80" s="45"/>
       <c r="T80" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U80" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V80" s="46"/>
@@ -63795,10 +63809,10 @@
         <v>1084</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>145</v>
+        <v>957</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>1085</v>
@@ -63819,11 +63833,11 @@
       </c>
       <c r="S81" s="45"/>
       <c r="T81" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U81" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V81" s="46"/>
@@ -63837,10 +63851,10 @@
         <v>1087</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>145</v>
+        <v>957</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>1088</v>
@@ -63861,11 +63875,11 @@
       </c>
       <c r="S82" s="45"/>
       <c r="T82" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U82" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V82" s="46"/>
@@ -63879,10 +63893,10 @@
         <v>1090</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>988</v>
+        <v>145</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>1091</v>
@@ -63903,334 +63917,338 @@
       </c>
       <c r="S83" s="45"/>
       <c r="T83" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U83" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V83" s="46"/>
     </row>
     <row r="84" customHeight="1" spans="2:22">
-      <c r="B84" s="301"/>
-      <c r="C84" s="302" t="s">
+      <c r="B84" s="299"/>
+      <c r="C84" s="7" t="s">
         <v>1092</v>
       </c>
-      <c r="D84" s="303" t="s">
+      <c r="D84" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="E84" s="303" t="s">
+      <c r="E84" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="44">
+        <f>IF($A$1="补货",I84+J84+K84+L84,I84+J84)</f>
+        <v>0</v>
+      </c>
+      <c r="S84" s="45"/>
+      <c r="T84" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V84" s="46"/>
+    </row>
+    <row r="85" customHeight="1" spans="2:22">
+      <c r="B85" s="299"/>
+      <c r="C85" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="F84" s="311" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G84" s="305" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H84" s="26"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="48"/>
-      <c r="R84" s="339">
-        <f>IF($A$1="补货",I84+J84+K84+L84,I84+J84)</f>
-        <v>0</v>
-      </c>
-      <c r="S84" s="50"/>
-      <c r="T84" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U84" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V84" s="51"/>
-    </row>
-    <row r="85" customHeight="1" spans="2:22">
-      <c r="B85" s="361"/>
-      <c r="C85" s="307" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D85" s="308" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E85" s="308" t="s">
+      <c r="F85" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="44">
+        <f>IF($A$1="补货",I85+J85+K85+L85,I85+J85)</f>
+        <v>0</v>
+      </c>
+      <c r="S85" s="45"/>
+      <c r="T85" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V85" s="46"/>
+    </row>
+    <row r="86" customHeight="1" spans="2:22">
+      <c r="B86" s="301"/>
+      <c r="C86" s="302" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D86" s="303" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E86" s="303" t="s">
+        <v>988</v>
+      </c>
+      <c r="F86" s="311" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G86" s="305" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H86" s="26"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="339">
+        <f>IF($A$1="补货",I86+J86+K86+L86,I86+J86)</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V86" s="51"/>
+    </row>
+    <row r="87" customHeight="1" spans="2:22">
+      <c r="B87" s="361"/>
+      <c r="C87" s="307" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D87" s="308" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E87" s="308" t="s">
         <v>957</v>
       </c>
-      <c r="F85" s="300"/>
-      <c r="G85" s="309" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H85" s="310"/>
-      <c r="I85" s="324"/>
-      <c r="J85" s="325"/>
-      <c r="K85" s="326"/>
-      <c r="L85" s="326"/>
-      <c r="M85" s="326"/>
-      <c r="N85" s="326"/>
-      <c r="O85" s="326"/>
-      <c r="P85" s="326"/>
-      <c r="Q85" s="340"/>
-      <c r="R85" s="341">
-        <f>IF($A$1="补货",I85+J85+K85+L85,I85+J85)</f>
-        <v>0</v>
-      </c>
-      <c r="S85" s="342"/>
-      <c r="T85" s="342">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U85" s="326" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V85" s="343"/>
-    </row>
-    <row r="86" customHeight="1" spans="2:22">
-      <c r="B86" s="15"/>
-      <c r="C86" s="290" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D86" s="291" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E86" s="291" t="s">
+      <c r="F87" s="300"/>
+      <c r="G87" s="309" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H87" s="310"/>
+      <c r="I87" s="324"/>
+      <c r="J87" s="325"/>
+      <c r="K87" s="326"/>
+      <c r="L87" s="326"/>
+      <c r="M87" s="326"/>
+      <c r="N87" s="326"/>
+      <c r="O87" s="326"/>
+      <c r="P87" s="326"/>
+      <c r="Q87" s="340"/>
+      <c r="R87" s="341">
+        <f>IF($A$1="补货",I87+J87+K87+L87,I87+J87)</f>
+        <v>0</v>
+      </c>
+      <c r="S87" s="342"/>
+      <c r="T87" s="342">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="326" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V87" s="343"/>
+    </row>
+    <row r="88" customHeight="1" spans="2:22">
+      <c r="B88" s="15"/>
+      <c r="C88" s="290" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D88" s="291" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E88" s="291" t="s">
         <v>145</v>
       </c>
-      <c r="F86" s="18"/>
-      <c r="G86" s="292" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H86" s="20"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="332"/>
-      <c r="R86" s="333">
-        <f>IF($A$1="补货",I86+J86+K86+L86,I86+J86)</f>
-        <v>0</v>
-      </c>
-      <c r="S86" s="334"/>
-      <c r="T86" s="334">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U86" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V86" s="47"/>
-    </row>
-    <row r="87" customHeight="1" spans="2:22">
-      <c r="B87" s="293"/>
-      <c r="C87" s="294" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D87" s="295" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E87" s="295" t="s">
+      <c r="F88" s="18"/>
+      <c r="G88" s="292" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="332"/>
+      <c r="R88" s="333">
+        <f>IF($A$1="补货",I88+J88+K88+L88,I88+J88)</f>
+        <v>0</v>
+      </c>
+      <c r="S88" s="334"/>
+      <c r="T88" s="334">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V88" s="47"/>
+    </row>
+    <row r="89" customHeight="1" spans="2:22">
+      <c r="B89" s="293"/>
+      <c r="C89" s="294" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D89" s="295" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E89" s="295" t="s">
         <v>957</v>
       </c>
-      <c r="F87" s="296"/>
-      <c r="G87" s="297" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H87" s="298"/>
-      <c r="I87" s="321"/>
-      <c r="J87" s="322"/>
-      <c r="K87" s="323"/>
-      <c r="L87" s="323"/>
-      <c r="M87" s="323"/>
-      <c r="N87" s="323"/>
-      <c r="O87" s="323"/>
-      <c r="P87" s="323"/>
-      <c r="Q87" s="335"/>
-      <c r="R87" s="336">
-        <f>IF($A$1="补货",I87+J87+K87+L87,I87+J87)</f>
-        <v>0</v>
-      </c>
-      <c r="S87" s="337"/>
-      <c r="T87" s="337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U87" s="323" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V87" s="338"/>
-    </row>
-    <row r="88" customHeight="1" spans="2:22">
-      <c r="B88" s="301"/>
-      <c r="C88" s="302" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D88" s="303" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E88" s="303" t="s">
+      <c r="F89" s="296"/>
+      <c r="G89" s="297" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H89" s="298"/>
+      <c r="I89" s="321"/>
+      <c r="J89" s="322"/>
+      <c r="K89" s="323"/>
+      <c r="L89" s="323"/>
+      <c r="M89" s="323"/>
+      <c r="N89" s="323"/>
+      <c r="O89" s="323"/>
+      <c r="P89" s="323"/>
+      <c r="Q89" s="335"/>
+      <c r="R89" s="336">
+        <f>IF($A$1="补货",I89+J89+K89+L89,I89+J89)</f>
+        <v>0</v>
+      </c>
+      <c r="S89" s="337"/>
+      <c r="T89" s="337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="323" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V89" s="338"/>
+    </row>
+    <row r="90" customHeight="1" spans="2:22">
+      <c r="B90" s="301"/>
+      <c r="C90" s="302" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D90" s="303" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E90" s="303" t="s">
         <v>145</v>
       </c>
-      <c r="F88" s="311"/>
-      <c r="G88" s="305" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H88" s="26"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="339">
-        <f>IF($A$1="补货",I88+J88+K88+L88,I88+J88)</f>
-        <v>0</v>
-      </c>
-      <c r="S88" s="50"/>
-      <c r="T88" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V88" s="51"/>
-    </row>
-    <row r="89" customHeight="1" spans="2:22">
-      <c r="B89" s="312"/>
-      <c r="C89" s="313" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D89" s="314" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E89" s="314"/>
-      <c r="F89" s="315"/>
-      <c r="G89" s="316" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H89" s="317"/>
-      <c r="I89" s="327"/>
-      <c r="J89" s="328"/>
-      <c r="K89" s="329"/>
-      <c r="L89" s="329"/>
-      <c r="M89" s="329"/>
-      <c r="N89" s="329"/>
-      <c r="O89" s="329"/>
-      <c r="P89" s="329"/>
-      <c r="Q89" s="344"/>
-      <c r="R89" s="345">
-        <f>IF($A$1="补货",I89+J89+K89+L89,I89+J89)</f>
-        <v>0</v>
-      </c>
-      <c r="S89" s="346"/>
-      <c r="T89" s="346">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="329" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V89" s="347"/>
-    </row>
-    <row r="90" customHeight="1" spans="2:22">
-      <c r="B90" s="293"/>
-      <c r="C90" s="294" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D90" s="295" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E90" s="295" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="296"/>
-      <c r="G90" s="297" t="s">
+      <c r="F90" s="311"/>
+      <c r="G90" s="305" t="s">
         <v>1112</v>
       </c>
-      <c r="H90" s="298"/>
-      <c r="I90" s="321"/>
-      <c r="J90" s="322"/>
-      <c r="K90" s="323"/>
-      <c r="L90" s="323"/>
-      <c r="M90" s="323"/>
-      <c r="N90" s="323"/>
-      <c r="O90" s="323"/>
-      <c r="P90" s="323"/>
-      <c r="Q90" s="335"/>
-      <c r="R90" s="336">
+      <c r="H90" s="26"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="48"/>
+      <c r="R90" s="339">
         <f>IF($A$1="补货",I90+J90+K90+L90,I90+J90)</f>
         <v>0</v>
       </c>
-      <c r="S90" s="337"/>
-      <c r="T90" s="337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="323" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V90" s="338"/>
+      <c r="S90" s="50"/>
+      <c r="T90" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V90" s="51"/>
     </row>
     <row r="91" customHeight="1" spans="2:22">
-      <c r="B91" s="301"/>
-      <c r="C91" s="302" t="s">
+      <c r="B91" s="312"/>
+      <c r="C91" s="313" t="s">
         <v>1113</v>
       </c>
-      <c r="D91" s="303" t="s">
+      <c r="D91" s="314" t="s">
         <v>1114</v>
       </c>
-      <c r="E91" s="303" t="s">
-        <v>138</v>
-      </c>
-      <c r="F91" s="311"/>
-      <c r="G91" s="305" t="s">
+      <c r="E91" s="314"/>
+      <c r="F91" s="315"/>
+      <c r="G91" s="316" t="s">
         <v>1115</v>
       </c>
-      <c r="H91" s="26"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="48"/>
-      <c r="R91" s="339">
+      <c r="H91" s="317"/>
+      <c r="I91" s="327"/>
+      <c r="J91" s="328"/>
+      <c r="K91" s="329"/>
+      <c r="L91" s="329"/>
+      <c r="M91" s="329"/>
+      <c r="N91" s="329"/>
+      <c r="O91" s="329"/>
+      <c r="P91" s="329"/>
+      <c r="Q91" s="344"/>
+      <c r="R91" s="345">
         <f>IF($A$1="补货",I91+J91+K91+L91,I91+J91)</f>
         <v>0</v>
       </c>
-      <c r="S91" s="50"/>
-      <c r="T91" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V91" s="51"/>
+      <c r="S91" s="346"/>
+      <c r="T91" s="346">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="329" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V91" s="347"/>
     </row>
     <row r="92" customHeight="1" spans="2:22">
       <c r="B92" s="293"/>
@@ -64241,11 +64259,11 @@
         <v>1117</v>
       </c>
       <c r="E92" s="295" t="s">
-        <v>1118</v>
+        <v>145</v>
       </c>
       <c r="F92" s="296"/>
       <c r="G92" s="297" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H92" s="298"/>
       <c r="I92" s="321"/>
@@ -64263,711 +64281,709 @@
       </c>
       <c r="S92" s="337"/>
       <c r="T92" s="337">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U92" s="323" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V92" s="338"/>
     </row>
     <row r="93" customHeight="1" spans="2:22">
-      <c r="B93" s="299"/>
-      <c r="C93" s="7" t="s">
+      <c r="B93" s="301"/>
+      <c r="C93" s="302" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D93" s="303" t="s">
         <v>1120</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="E93" s="303" t="s">
+        <v>138</v>
+      </c>
+      <c r="F93" s="311"/>
+      <c r="G93" s="305" t="s">
         <v>1121</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="H93" s="26"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="339">
+        <f>IF($A$1="补货",I93+J93+K93+L93,I93+J93)</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="50"/>
+      <c r="T93" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U93" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V93" s="51"/>
+    </row>
+    <row r="94" customHeight="1" spans="2:22">
+      <c r="B94" s="293"/>
+      <c r="C94" s="294" t="s">
         <v>1122</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="10" t="s">
+      <c r="D94" s="295" t="s">
         <v>1123</v>
       </c>
-      <c r="H93" s="11"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="33"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="33"/>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="43"/>
-      <c r="R93" s="44">
-        <f>IF($A$1="补货",I93+J93+K93+L93,I93+J93)</f>
-        <v>0</v>
-      </c>
-      <c r="S93" s="45"/>
-      <c r="T93" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V93" s="46"/>
-    </row>
-    <row r="94" customHeight="1" spans="2:22">
-      <c r="B94" s="301"/>
-      <c r="C94" s="302" t="s">
+      <c r="E94" s="295" t="s">
         <v>1124</v>
       </c>
-      <c r="D94" s="303" t="s">
+      <c r="F94" s="296"/>
+      <c r="G94" s="297" t="s">
         <v>1125</v>
       </c>
-      <c r="E94" s="303" t="s">
+      <c r="H94" s="298"/>
+      <c r="I94" s="321"/>
+      <c r="J94" s="322"/>
+      <c r="K94" s="323"/>
+      <c r="L94" s="323"/>
+      <c r="M94" s="323"/>
+      <c r="N94" s="323"/>
+      <c r="O94" s="323"/>
+      <c r="P94" s="323"/>
+      <c r="Q94" s="335"/>
+      <c r="R94" s="336">
+        <f>IF($A$1="补货",I94+J94+K94+L94,I94+J94)</f>
+        <v>0</v>
+      </c>
+      <c r="S94" s="337"/>
+      <c r="T94" s="337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="323" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V94" s="338"/>
+    </row>
+    <row r="95" customHeight="1" spans="2:22">
+      <c r="B95" s="299"/>
+      <c r="C95" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="F94" s="311"/>
-      <c r="G94" s="305" t="s">
+      <c r="D95" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="H94" s="26"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="48"/>
-      <c r="R94" s="339">
-        <f>IF($A$1="补货",I94+J94+K94+L94,I94+J94)</f>
-        <v>0</v>
-      </c>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V94" s="51"/>
-    </row>
-    <row r="95" customHeight="1" spans="2:22">
-      <c r="B95" s="361"/>
-      <c r="C95" s="307" t="s">
+      <c r="E95" s="8" t="s">
         <v>1128</v>
       </c>
-      <c r="D95" s="308" t="s">
+      <c r="F95" s="9"/>
+      <c r="G95" s="10" t="s">
         <v>1129</v>
       </c>
-      <c r="E95" s="308" t="s">
+      <c r="H95" s="11"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="44">
+        <f>IF($A$1="补货",I95+J95+K95+L95,I95+J95)</f>
+        <v>0</v>
+      </c>
+      <c r="S95" s="45"/>
+      <c r="T95" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V95" s="46"/>
+    </row>
+    <row r="96" customHeight="1" spans="2:22">
+      <c r="B96" s="301"/>
+      <c r="C96" s="302" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D96" s="303" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E96" s="303" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F96" s="311"/>
+      <c r="G96" s="305" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H96" s="26"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="339">
+        <f>IF($A$1="补货",I96+J96+K96+L96,I96+J96)</f>
+        <v>0</v>
+      </c>
+      <c r="S96" s="50"/>
+      <c r="T96" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V96" s="51"/>
+    </row>
+    <row r="97" customHeight="1" spans="2:22">
+      <c r="B97" s="361"/>
+      <c r="C97" s="307" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D97" s="308" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E97" s="308" t="s">
         <v>145</v>
       </c>
-      <c r="F95" s="300"/>
-      <c r="G95" s="309" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H95" s="310"/>
-      <c r="I95" s="324"/>
-      <c r="J95" s="325"/>
-      <c r="K95" s="326"/>
-      <c r="L95" s="326"/>
-      <c r="M95" s="326"/>
-      <c r="N95" s="326"/>
-      <c r="O95" s="326"/>
-      <c r="P95" s="326"/>
-      <c r="Q95" s="340"/>
-      <c r="R95" s="341">
-        <f>IF($A$1="补货",I95+J95+K95+L95,I95+J95)</f>
-        <v>0</v>
-      </c>
-      <c r="S95" s="342"/>
-      <c r="T95" s="342">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="326" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V95" s="343"/>
-    </row>
-    <row r="96" customHeight="1" spans="2:22">
-      <c r="B96" s="15"/>
-      <c r="C96" s="290" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D96" s="291" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E96" s="291" t="s">
+      <c r="F97" s="300"/>
+      <c r="G97" s="309" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H97" s="310"/>
+      <c r="I97" s="324"/>
+      <c r="J97" s="325"/>
+      <c r="K97" s="326"/>
+      <c r="L97" s="326"/>
+      <c r="M97" s="326"/>
+      <c r="N97" s="326"/>
+      <c r="O97" s="326"/>
+      <c r="P97" s="326"/>
+      <c r="Q97" s="340"/>
+      <c r="R97" s="341">
+        <f>IF($A$1="补货",I97+J97+K97+L97,I97+J97)</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="342"/>
+      <c r="T97" s="342">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="326" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V97" s="343"/>
+    </row>
+    <row r="98" customHeight="1" spans="2:22">
+      <c r="B98" s="15"/>
+      <c r="C98" s="290" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D98" s="291" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E98" s="291" t="s">
         <v>138</v>
       </c>
-      <c r="F96" s="18"/>
-      <c r="G96" s="292" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H96" s="20"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="332"/>
-      <c r="R96" s="333">
-        <f>IF($A$1="补货",I96+J96+K96+L96,I96+J96)</f>
-        <v>0</v>
-      </c>
-      <c r="S96" s="334"/>
-      <c r="T96" s="334">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V96" s="47"/>
-    </row>
-    <row r="97" customHeight="1" spans="2:22">
-      <c r="B97" s="293"/>
-      <c r="C97" s="294" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D97" s="295" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E97" s="295" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F97" s="296"/>
-      <c r="G97" s="297" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H97" s="298"/>
-      <c r="I97" s="321"/>
-      <c r="J97" s="322"/>
-      <c r="K97" s="323"/>
-      <c r="L97" s="323"/>
-      <c r="M97" s="323"/>
-      <c r="N97" s="323"/>
-      <c r="O97" s="323"/>
-      <c r="P97" s="323"/>
-      <c r="Q97" s="335"/>
-      <c r="R97" s="336">
-        <f>IF($A$1="补货",I97+J97+K97+L97,I97+J97)</f>
-        <v>0</v>
-      </c>
-      <c r="S97" s="337"/>
-      <c r="T97" s="337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="323" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V97" s="338"/>
-    </row>
-    <row r="98" customHeight="1" spans="2:22">
-      <c r="B98" s="299"/>
-      <c r="C98" s="7" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D98" s="8" t="s">
+      <c r="F98" s="18"/>
+      <c r="G98" s="292" t="s">
         <v>1139</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="H98" s="20"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="332"/>
+      <c r="R98" s="333">
+        <f>IF($A$1="补货",I98+J98+K98+L98,I98+J98)</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="334"/>
+      <c r="T98" s="334">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V98" s="47"/>
+    </row>
+    <row r="99" customHeight="1" spans="2:22">
+      <c r="B99" s="293"/>
+      <c r="C99" s="294" t="s">
         <v>1140</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="10" t="s">
+      <c r="D99" s="295" t="s">
         <v>1141</v>
       </c>
-      <c r="H98" s="11"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="33"/>
-      <c r="L98" s="33"/>
-      <c r="M98" s="33"/>
-      <c r="N98" s="33"/>
-      <c r="O98" s="33"/>
-      <c r="P98" s="33"/>
-      <c r="Q98" s="43"/>
-      <c r="R98" s="44">
-        <f>IF($A$1="补货",I98+J98+K98+L98,I98+J98)</f>
-        <v>0</v>
-      </c>
-      <c r="S98" s="45"/>
-      <c r="T98" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V98" s="46"/>
-    </row>
-    <row r="99" customHeight="1" spans="2:22">
-      <c r="B99" s="299"/>
-      <c r="C99" s="7" t="s">
+      <c r="E99" s="295" t="s">
         <v>1142</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="F99" s="296"/>
+      <c r="G99" s="297" t="s">
         <v>1143</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="H99" s="298"/>
+      <c r="I99" s="321"/>
+      <c r="J99" s="322"/>
+      <c r="K99" s="323"/>
+      <c r="L99" s="323"/>
+      <c r="M99" s="323"/>
+      <c r="N99" s="323"/>
+      <c r="O99" s="323"/>
+      <c r="P99" s="323"/>
+      <c r="Q99" s="335"/>
+      <c r="R99" s="336">
+        <f>IF($A$1="补货",I99+J99+K99+L99,I99+J99)</f>
+        <v>0</v>
+      </c>
+      <c r="S99" s="337"/>
+      <c r="T99" s="337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="323" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V99" s="338"/>
+    </row>
+    <row r="100" customHeight="1" spans="2:22">
+      <c r="B100" s="299"/>
+      <c r="C100" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F100" s="9"/>
+      <c r="G100" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="44">
+        <f>IF($A$1="补货",I100+J100+K100+L100,I100+J100)</f>
+        <v>0</v>
+      </c>
+      <c r="S100" s="45"/>
+      <c r="T100" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V100" s="46"/>
+    </row>
+    <row r="101" customHeight="1" spans="2:22">
+      <c r="B101" s="299"/>
+      <c r="C101" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H99" s="11"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="33"/>
-      <c r="N99" s="33"/>
-      <c r="O99" s="33"/>
-      <c r="P99" s="33"/>
-      <c r="Q99" s="43"/>
-      <c r="R99" s="44">
-        <f>IF($A$1="补货",I99+J99+K99+L99,I99+J99)</f>
-        <v>0</v>
-      </c>
-      <c r="S99" s="45"/>
-      <c r="T99" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U99" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V99" s="46"/>
-    </row>
-    <row r="100" customHeight="1" spans="2:22">
-      <c r="B100" s="301"/>
-      <c r="C100" s="302" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D100" s="303" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E100" s="303" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F100" s="311"/>
-      <c r="G100" s="305" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H100" s="26"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="48"/>
-      <c r="R100" s="339">
-        <f>IF($A$1="补货",I100+J100+K100+L100,I100+J100)</f>
-        <v>0</v>
-      </c>
-      <c r="S100" s="50"/>
-      <c r="T100" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U100" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V100" s="51"/>
-    </row>
-    <row r="101" customHeight="1" spans="2:22">
-      <c r="B101" s="293"/>
-      <c r="C101" s="294" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D101" s="295" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="10" t="s">
         <v>1150</v>
       </c>
-      <c r="E101" s="295" t="s">
+      <c r="H101" s="11"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33"/>
+      <c r="P101" s="33"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="44">
+        <f>IF($A$1="补货",I101+J101+K101+L101,I101+J101)</f>
+        <v>0</v>
+      </c>
+      <c r="S101" s="45"/>
+      <c r="T101" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V101" s="46"/>
+    </row>
+    <row r="102" customHeight="1" spans="2:22">
+      <c r="B102" s="301"/>
+      <c r="C102" s="302" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D102" s="303" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E102" s="303" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F102" s="311"/>
+      <c r="G102" s="305" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H102" s="26"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="39"/>
+      <c r="M102" s="39"/>
+      <c r="N102" s="39"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="48"/>
+      <c r="R102" s="339">
+        <f>IF($A$1="补货",I102+J102+K102+L102,I102+J102)</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="50"/>
+      <c r="T102" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V102" s="51"/>
+    </row>
+    <row r="103" customHeight="1" spans="2:22">
+      <c r="B103" s="293"/>
+      <c r="C103" s="294" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D103" s="295" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E103" s="295" t="s">
         <v>130</v>
       </c>
-      <c r="F101" s="296"/>
-      <c r="G101" s="297" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H101" s="298"/>
-      <c r="I101" s="321"/>
-      <c r="J101" s="322"/>
-      <c r="K101" s="323"/>
-      <c r="L101" s="323"/>
-      <c r="M101" s="323"/>
-      <c r="N101" s="323"/>
-      <c r="O101" s="323"/>
-      <c r="P101" s="323"/>
-      <c r="Q101" s="335"/>
-      <c r="R101" s="379">
-        <f>IF($A$1="补货",I101+J101+K101+L101,I101+J101)</f>
-        <v>0</v>
-      </c>
-      <c r="S101" s="380"/>
-      <c r="T101" s="337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U101" s="323" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V101" s="338"/>
-    </row>
-    <row r="102" customHeight="1" spans="2:22">
-      <c r="B102" s="299"/>
-      <c r="C102" s="7" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="F103" s="296"/>
+      <c r="G103" s="297" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H103" s="298"/>
+      <c r="I103" s="321"/>
+      <c r="J103" s="322"/>
+      <c r="K103" s="323"/>
+      <c r="L103" s="323"/>
+      <c r="M103" s="323"/>
+      <c r="N103" s="323"/>
+      <c r="O103" s="323"/>
+      <c r="P103" s="323"/>
+      <c r="Q103" s="335"/>
+      <c r="R103" s="379">
+        <f>IF($A$1="补货",I103+J103+K103+L103,I103+J103)</f>
+        <v>0</v>
+      </c>
+      <c r="S103" s="380"/>
+      <c r="T103" s="337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="323" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V103" s="338"/>
+    </row>
+    <row r="104" customHeight="1" spans="2:22">
+      <c r="B104" s="299"/>
+      <c r="C104" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F104" s="9"/>
+      <c r="G104" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="33"/>
+      <c r="Q104" s="43"/>
+      <c r="R104" s="381">
+        <f>IF($A$1="补货",I104+J104+K104+L104,I104+J104)</f>
+        <v>0</v>
+      </c>
+      <c r="S104" s="382"/>
+      <c r="T104" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V104" s="46"/>
+    </row>
+    <row r="105" customHeight="1" spans="2:22">
+      <c r="B105" s="301"/>
+      <c r="C105" s="302" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D105" s="303" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E105" s="303" t="s">
         <v>1153</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="F105" s="311"/>
+      <c r="G105" s="305" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H105" s="26"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="48"/>
+      <c r="R105" s="383">
+        <f>IF($A$1="补货",I105+J105+K105+L105,I105+J105)</f>
+        <v>0</v>
+      </c>
+      <c r="S105" s="384"/>
+      <c r="T105" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V105" s="51"/>
+    </row>
+    <row r="106" customHeight="1" spans="2:22">
+      <c r="B106" s="293"/>
+      <c r="C106" s="294" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D106" s="295" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E106" s="295" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F106" s="296"/>
+      <c r="G106" s="297" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H106" s="298"/>
+      <c r="I106" s="321"/>
+      <c r="J106" s="322"/>
+      <c r="K106" s="323"/>
+      <c r="L106" s="323"/>
+      <c r="M106" s="323"/>
+      <c r="N106" s="323"/>
+      <c r="O106" s="323"/>
+      <c r="P106" s="323"/>
+      <c r="Q106" s="335"/>
+      <c r="R106" s="379">
+        <f>IF($A$1="补货",I106+J106+K106+L106,I106+J106)</f>
+        <v>0</v>
+      </c>
+      <c r="S106" s="380"/>
+      <c r="T106" s="337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="323" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V106" s="338"/>
+    </row>
+    <row r="107" customHeight="1" spans="2:22">
+      <c r="B107" s="299"/>
+      <c r="C107" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="10" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="33"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="33"/>
-      <c r="O102" s="33"/>
-      <c r="P102" s="33"/>
-      <c r="Q102" s="43"/>
-      <c r="R102" s="381">
-        <f>IF($A$1="补货",I102+J102+K102+L102,I102+J102)</f>
-        <v>0</v>
-      </c>
-      <c r="S102" s="382"/>
-      <c r="T102" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U102" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V102" s="46"/>
-    </row>
-    <row r="103" customHeight="1" spans="2:22">
-      <c r="B103" s="301"/>
-      <c r="C103" s="302" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D103" s="303" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E103" s="303" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F103" s="311"/>
-      <c r="G103" s="305" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H103" s="26"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="39"/>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="48"/>
-      <c r="R103" s="383">
-        <f>IF($A$1="补货",I103+J103+K103+L103,I103+J103)</f>
-        <v>0</v>
-      </c>
-      <c r="S103" s="384"/>
-      <c r="T103" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U103" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V103" s="51"/>
-    </row>
-    <row r="104" customHeight="1" spans="2:22">
-      <c r="B104" s="293"/>
-      <c r="C104" s="294" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D104" s="295" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E104" s="295" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F104" s="296"/>
-      <c r="G104" s="297" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H104" s="298"/>
-      <c r="I104" s="321"/>
-      <c r="J104" s="322"/>
-      <c r="K104" s="323"/>
-      <c r="L104" s="323"/>
-      <c r="M104" s="323"/>
-      <c r="N104" s="323"/>
-      <c r="O104" s="323"/>
-      <c r="P104" s="323"/>
-      <c r="Q104" s="335"/>
-      <c r="R104" s="379">
-        <f>IF($A$1="补货",I104+J104+K104+L104,I104+J104)</f>
-        <v>0</v>
-      </c>
-      <c r="S104" s="380"/>
-      <c r="T104" s="337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U104" s="323" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V104" s="338"/>
-    </row>
-    <row r="105" customHeight="1" spans="2:22">
-      <c r="B105" s="299"/>
-      <c r="C105" s="7" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E105" s="8" t="s">
+      <c r="F107" s="9"/>
+      <c r="G107" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="33"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="33"/>
+      <c r="O107" s="33"/>
+      <c r="P107" s="33"/>
+      <c r="Q107" s="43"/>
+      <c r="R107" s="381">
+        <f>IF($A$1="补货",I107+J107+K107+L107,I107+J107)</f>
+        <v>0</v>
+      </c>
+      <c r="S107" s="382"/>
+      <c r="T107" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V107" s="46"/>
+    </row>
+    <row r="108" customHeight="1" spans="2:22">
+      <c r="B108" s="301"/>
+      <c r="C108" s="302" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D108" s="303" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E108" s="303" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F108" s="311"/>
+      <c r="G108" s="305" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H108" s="26"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="39"/>
+      <c r="M108" s="39"/>
+      <c r="N108" s="39"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="39"/>
+      <c r="Q108" s="48"/>
+      <c r="R108" s="383">
+        <f>IF($A$1="补货",I108+J108+K108+L108,I108+J108)</f>
+        <v>0</v>
+      </c>
+      <c r="S108" s="384"/>
+      <c r="T108" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V108" s="51"/>
+    </row>
+    <row r="109" customHeight="1" spans="2:22">
+      <c r="B109" s="361"/>
+      <c r="C109" s="362" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D109" s="363" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E109" s="363" t="s">
+        <v>130</v>
+      </c>
+      <c r="F109" s="300"/>
+      <c r="G109" s="364" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H109" s="310"/>
+      <c r="I109" s="324"/>
+      <c r="J109" s="325"/>
+      <c r="K109" s="326"/>
+      <c r="L109" s="326"/>
+      <c r="M109" s="326"/>
+      <c r="N109" s="326"/>
+      <c r="O109" s="326"/>
+      <c r="P109" s="326"/>
+      <c r="Q109" s="340"/>
+      <c r="R109" s="379">
+        <f>IF($A$1="补货",I109+J109+K109+L109,I109+J109)</f>
+        <v>0</v>
+      </c>
+      <c r="S109" s="373"/>
+      <c r="T109" s="342">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="326" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V109" s="343"/>
+    </row>
+    <row r="110" customHeight="1" spans="2:22">
+      <c r="B110" s="6"/>
+      <c r="C110" s="12" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H105" s="11"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33"/>
-      <c r="O105" s="33"/>
-      <c r="P105" s="33"/>
-      <c r="Q105" s="43"/>
-      <c r="R105" s="381">
-        <f>IF($A$1="补货",I105+J105+K105+L105,I105+J105)</f>
-        <v>0</v>
-      </c>
-      <c r="S105" s="382"/>
-      <c r="T105" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U105" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V105" s="46"/>
-    </row>
-    <row r="106" customHeight="1" spans="2:22">
-      <c r="B106" s="301"/>
-      <c r="C106" s="302" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D106" s="303" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E106" s="303" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F106" s="311"/>
-      <c r="G106" s="305" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H106" s="26"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
-      <c r="P106" s="39"/>
-      <c r="Q106" s="48"/>
-      <c r="R106" s="383">
-        <f>IF($A$1="补货",I106+J106+K106+L106,I106+J106)</f>
-        <v>0</v>
-      </c>
-      <c r="S106" s="384"/>
-      <c r="T106" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="39" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V106" s="51"/>
-    </row>
-    <row r="107" customHeight="1" spans="2:22">
-      <c r="B107" s="361"/>
-      <c r="C107" s="362" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D107" s="363" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E107" s="363" t="s">
-        <v>130</v>
-      </c>
-      <c r="F107" s="300"/>
-      <c r="G107" s="364" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H107" s="310"/>
-      <c r="I107" s="324"/>
-      <c r="J107" s="325"/>
-      <c r="K107" s="326"/>
-      <c r="L107" s="326"/>
-      <c r="M107" s="326"/>
-      <c r="N107" s="326"/>
-      <c r="O107" s="326"/>
-      <c r="P107" s="326"/>
-      <c r="Q107" s="340"/>
-      <c r="R107" s="379">
-        <f>IF($A$1="补货",I107+J107+K107+L107,I107+J107)</f>
-        <v>0</v>
-      </c>
-      <c r="S107" s="373"/>
-      <c r="T107" s="342">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U107" s="326" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V107" s="343"/>
-    </row>
-    <row r="108" customHeight="1" spans="2:22">
-      <c r="B108" s="6"/>
-      <c r="C108" s="12" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="14" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H108" s="11"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33"/>
-      <c r="O108" s="33"/>
-      <c r="P108" s="33"/>
-      <c r="Q108" s="43"/>
-      <c r="R108" s="381">
-        <f>IF($A$1="补货",I108+J108+K108+L108,I108+J108)</f>
-        <v>0</v>
-      </c>
-      <c r="S108" s="382"/>
-      <c r="T108" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U108" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V108" s="46"/>
-    </row>
-    <row r="109" customHeight="1" spans="2:22">
-      <c r="B109" s="6"/>
-      <c r="C109" s="12" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>913</v>
-      </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="14" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H109" s="11"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="33"/>
-      <c r="N109" s="33"/>
-      <c r="O109" s="33"/>
-      <c r="P109" s="33"/>
-      <c r="Q109" s="43"/>
-      <c r="R109" s="381">
-        <f>IF($A$1="补货",I109+J109+K109+L109,I109+J109)</f>
-        <v>0</v>
-      </c>
-      <c r="S109" s="382"/>
-      <c r="T109" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V109" s="46"/>
-    </row>
-    <row r="110" customHeight="1" spans="2:22">
-      <c r="B110" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>1147</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="31"/>
@@ -64979,74 +64995,76 @@
       <c r="O110" s="33"/>
       <c r="P110" s="33"/>
       <c r="Q110" s="43"/>
-      <c r="R110" s="383">
+      <c r="R110" s="381">
         <f>IF($A$1="补货",I110+J110+K110+L110,I110+J110)</f>
         <v>0</v>
       </c>
-      <c r="S110" s="385"/>
+      <c r="S110" s="382"/>
       <c r="T110" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U110" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="V110" s="46"/>
     </row>
     <row r="111" customHeight="1" spans="2:22">
-      <c r="B111" s="293"/>
-      <c r="C111" s="294" t="s">
+      <c r="B111" s="6"/>
+      <c r="C111" s="12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D111" s="13" t="s">
         <v>1180</v>
       </c>
-      <c r="D111" s="295" t="s">
+      <c r="E111" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="E111" s="295" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F111" s="296"/>
-      <c r="G111" s="297" t="s">
+      <c r="H111" s="11"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="33"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="43"/>
+      <c r="R111" s="381">
+        <f>IF($A$1="补货",I111+J111+K111+L111,I111+J111)</f>
+        <v>0</v>
+      </c>
+      <c r="S111" s="382"/>
+      <c r="T111" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U111" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="V111" s="46"/>
+    </row>
+    <row r="112" customHeight="1" spans="2:22">
+      <c r="B112" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="H111" s="298"/>
-      <c r="I111" s="321"/>
-      <c r="J111" s="322"/>
-      <c r="K111" s="323"/>
-      <c r="L111" s="323"/>
-      <c r="M111" s="323"/>
-      <c r="N111" s="323"/>
-      <c r="O111" s="323"/>
-      <c r="P111" s="323"/>
-      <c r="Q111" s="335"/>
-      <c r="R111" s="336">
-        <f>IF($A$1="补货",I111+J111+K111+L111,I111+J111)</f>
-        <v>0</v>
-      </c>
-      <c r="S111" s="337"/>
-      <c r="T111" s="337">
-        <f t="shared" ref="T111:T139" si="8">R111+S111</f>
-        <v>0</v>
-      </c>
-      <c r="U111" s="323" t="str">
-        <f t="shared" ref="U111:U139" si="9">IF(Q111&gt;0,T111/Q111*7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="V111" s="338"/>
-    </row>
-    <row r="112" customHeight="1" spans="2:22">
-      <c r="B112" s="299"/>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="12" t="s">
         <v>1183</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>24</v>
+      <c r="E112" s="13" t="s">
+        <v>1153</v>
       </c>
       <c r="F112" s="9"/>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="14" t="s">
         <v>1185</v>
       </c>
       <c r="H112" s="11"/>
@@ -65059,11 +65077,11 @@
       <c r="O112" s="33"/>
       <c r="P112" s="33"/>
       <c r="Q112" s="43"/>
-      <c r="R112" s="44">
+      <c r="R112" s="383">
         <f>IF($A$1="补货",I112+J112+K112+L112,I112+J112)</f>
         <v>0</v>
       </c>
-      <c r="S112" s="45"/>
+      <c r="S112" s="385"/>
       <c r="T112" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -65075,44 +65093,44 @@
       <c r="V112" s="46"/>
     </row>
     <row r="113" customHeight="1" spans="2:22">
-      <c r="B113" s="299"/>
-      <c r="C113" s="7" t="s">
+      <c r="B113" s="293"/>
+      <c r="C113" s="294" t="s">
         <v>1186</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="295" t="s">
         <v>1187</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="10" t="s">
+      <c r="E113" s="295" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F113" s="296"/>
+      <c r="G113" s="297" t="s">
         <v>1188</v>
       </c>
-      <c r="H113" s="11"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
-      <c r="M113" s="33"/>
-      <c r="N113" s="33"/>
-      <c r="O113" s="33"/>
-      <c r="P113" s="33"/>
-      <c r="Q113" s="43"/>
-      <c r="R113" s="44">
+      <c r="H113" s="298"/>
+      <c r="I113" s="321"/>
+      <c r="J113" s="322"/>
+      <c r="K113" s="323"/>
+      <c r="L113" s="323"/>
+      <c r="M113" s="323"/>
+      <c r="N113" s="323"/>
+      <c r="O113" s="323"/>
+      <c r="P113" s="323"/>
+      <c r="Q113" s="335"/>
+      <c r="R113" s="336">
         <f>IF($A$1="补货",I113+J113+K113+L113,I113+J113)</f>
         <v>0</v>
       </c>
-      <c r="S113" s="45"/>
-      <c r="T113" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U113" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V113" s="46"/>
+      <c r="S113" s="337"/>
+      <c r="T113" s="337">
+        <f t="shared" ref="T113:T141" si="10">R113+S113</f>
+        <v>0</v>
+      </c>
+      <c r="U113" s="323" t="str">
+        <f t="shared" ref="U113:U141" si="11">IF(Q113&gt;0,T113/Q113*7,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="V113" s="338"/>
     </row>
     <row r="114" customHeight="1" spans="2:22">
       <c r="B114" s="299"/>
@@ -65123,7 +65141,7 @@
         <v>1190</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="10" t="s">
@@ -65145,11 +65163,11 @@
       </c>
       <c r="S114" s="45"/>
       <c r="T114" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U114" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V114" s="46"/>
@@ -65163,7 +65181,7 @@
         <v>1193</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>913</v>
+        <v>145</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="10" t="s">
@@ -65185,57 +65203,57 @@
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U115" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V115" s="46"/>
     </row>
     <row r="116" customHeight="1" spans="2:22">
-      <c r="B116" s="365"/>
-      <c r="C116" s="290" t="s">
+      <c r="B116" s="299"/>
+      <c r="C116" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="D116" s="291" t="s">
+      <c r="D116" s="8" t="s">
         <v>1196</v>
       </c>
-      <c r="E116" s="291" t="s">
-        <v>826</v>
-      </c>
-      <c r="F116" s="18"/>
-      <c r="G116" s="292" t="s">
+      <c r="E116" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10" t="s">
         <v>1197</v>
       </c>
-      <c r="H116" s="20"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="36"/>
-      <c r="Q116" s="332"/>
-      <c r="R116" s="333">
+      <c r="H116" s="11"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="43"/>
+      <c r="R116" s="44">
         <f>IF($A$1="补货",I116+J116+K116+L116,I116+J116)</f>
         <v>0</v>
       </c>
-      <c r="S116" s="334"/>
-      <c r="T116" s="334">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V116" s="47"/>
+      <c r="S116" s="45"/>
+      <c r="T116" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V116" s="46"/>
     </row>
     <row r="117" customHeight="1" spans="2:22">
-      <c r="B117" s="6"/>
+      <c r="B117" s="299"/>
       <c r="C117" s="7" t="s">
         <v>1198</v>
       </c>
@@ -65243,11 +65261,11 @@
         <v>1199</v>
       </c>
       <c r="E117" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="F117" s="9"/>
+      <c r="G117" s="10" t="s">
         <v>1200</v>
-      </c>
-      <c r="F117" s="45"/>
-      <c r="G117" s="10" t="s">
-        <v>1201</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" s="31"/>
@@ -65258,36 +65276,36 @@
       <c r="N117" s="33"/>
       <c r="O117" s="33"/>
       <c r="P117" s="33"/>
-      <c r="Q117" s="386"/>
+      <c r="Q117" s="43"/>
       <c r="R117" s="44">
         <f>IF($A$1="补货",I117+J117+K117+L117,I117+J117)</f>
         <v>0</v>
       </c>
       <c r="S117" s="45"/>
       <c r="T117" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U117" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V117" s="46"/>
     </row>
     <row r="118" customHeight="1" spans="2:22">
-      <c r="B118" s="15"/>
+      <c r="B118" s="365"/>
       <c r="C118" s="290" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D118" s="291" t="s">
         <v>1202</v>
       </c>
-      <c r="D118" s="291" t="s">
+      <c r="E118" s="291" t="s">
+        <v>826</v>
+      </c>
+      <c r="F118" s="18"/>
+      <c r="G118" s="292" t="s">
         <v>1203</v>
-      </c>
-      <c r="E118" s="291" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F118" s="334"/>
-      <c r="G118" s="292" t="s">
-        <v>1205</v>
       </c>
       <c r="H118" s="20"/>
       <c r="I118" s="34"/>
@@ -65305,134 +65323,134 @@
       </c>
       <c r="S118" s="334"/>
       <c r="T118" s="334">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U118" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V118" s="47"/>
     </row>
     <row r="119" customHeight="1" spans="2:22">
-      <c r="B119" s="293"/>
-      <c r="C119" s="294" t="s">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>1206</v>
       </c>
-      <c r="D119" s="295" t="s">
+      <c r="F119" s="45"/>
+      <c r="G119" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="E119" s="295" t="s">
+      <c r="H119" s="11"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="33"/>
+      <c r="P119" s="33"/>
+      <c r="Q119" s="386"/>
+      <c r="R119" s="44">
+        <f>IF($A$1="补货",I119+J119+K119+L119,I119+J119)</f>
+        <v>0</v>
+      </c>
+      <c r="S119" s="45"/>
+      <c r="T119" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U119" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V119" s="46"/>
+    </row>
+    <row r="120" customHeight="1" spans="2:22">
+      <c r="B120" s="15"/>
+      <c r="C120" s="290" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D120" s="291" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E120" s="291" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F120" s="334"/>
+      <c r="G120" s="292" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="36"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+      <c r="P120" s="36"/>
+      <c r="Q120" s="332"/>
+      <c r="R120" s="333">
+        <f>IF($A$1="补货",I120+J120+K120+L120,I120+J120)</f>
+        <v>0</v>
+      </c>
+      <c r="S120" s="334"/>
+      <c r="T120" s="334">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V120" s="47"/>
+    </row>
+    <row r="121" customHeight="1" spans="2:22">
+      <c r="B121" s="293"/>
+      <c r="C121" s="294" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D121" s="295" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E121" s="295" t="s">
         <v>913</v>
       </c>
-      <c r="F119" s="296"/>
-      <c r="G119" s="297" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H119" s="298"/>
-      <c r="I119" s="321"/>
-      <c r="J119" s="322"/>
-      <c r="K119" s="323"/>
-      <c r="L119" s="323"/>
-      <c r="M119" s="323"/>
-      <c r="N119" s="323"/>
-      <c r="O119" s="323"/>
-      <c r="P119" s="323"/>
-      <c r="Q119" s="335"/>
-      <c r="R119" s="336">
-        <f>IF($A$1="补货",I119+J119+K119+L119,I119+J119)</f>
-        <v>0</v>
-      </c>
-      <c r="S119" s="337"/>
-      <c r="T119" s="337">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U119" s="323" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V119" s="338"/>
-    </row>
-    <row r="120" customHeight="1" spans="2:22">
-      <c r="B120" s="299"/>
-      <c r="C120" s="7" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="10" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H120" s="11"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="33"/>
-      <c r="L120" s="33"/>
-      <c r="M120" s="33"/>
-      <c r="N120" s="33"/>
-      <c r="O120" s="33"/>
-      <c r="P120" s="33"/>
-      <c r="Q120" s="43"/>
-      <c r="R120" s="44">
-        <f>IF($A$1="补货",I120+J120+K120+L120,I120+J120)</f>
-        <v>0</v>
-      </c>
-      <c r="S120" s="45"/>
-      <c r="T120" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U120" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V120" s="46"/>
-    </row>
-    <row r="121" customHeight="1" spans="2:22">
-      <c r="B121" s="299"/>
-      <c r="C121" s="7" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="10" t="s">
+      <c r="F121" s="296"/>
+      <c r="G121" s="297" t="s">
         <v>1214</v>
       </c>
-      <c r="H121" s="11"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="33"/>
-      <c r="L121" s="33"/>
-      <c r="M121" s="33"/>
-      <c r="N121" s="33"/>
-      <c r="O121" s="33"/>
-      <c r="P121" s="33"/>
-      <c r="Q121" s="43"/>
-      <c r="R121" s="44">
+      <c r="H121" s="298"/>
+      <c r="I121" s="321"/>
+      <c r="J121" s="322"/>
+      <c r="K121" s="323"/>
+      <c r="L121" s="323"/>
+      <c r="M121" s="323"/>
+      <c r="N121" s="323"/>
+      <c r="O121" s="323"/>
+      <c r="P121" s="323"/>
+      <c r="Q121" s="335"/>
+      <c r="R121" s="336">
         <f>IF($A$1="补货",I121+J121+K121+L121,I121+J121)</f>
         <v>0</v>
       </c>
-      <c r="S121" s="45"/>
-      <c r="T121" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U121" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V121" s="46"/>
+      <c r="S121" s="337"/>
+      <c r="T121" s="337">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="323" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V121" s="338"/>
     </row>
     <row r="122" customHeight="1" spans="2:22">
       <c r="B122" s="299"/>
@@ -65443,7 +65461,7 @@
         <v>1216</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="10" t="s">
@@ -65465,11 +65483,11 @@
       </c>
       <c r="S122" s="45"/>
       <c r="T122" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U122" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V122" s="46"/>
@@ -65483,7 +65501,7 @@
         <v>1219</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>24</v>
+        <v>1142</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="10" t="s">
@@ -65505,320 +65523,316 @@
       </c>
       <c r="S123" s="45"/>
       <c r="T123" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U123" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V123" s="46"/>
     </row>
     <row r="124" customHeight="1" spans="2:22">
-      <c r="B124" s="301"/>
-      <c r="C124" s="302" t="s">
+      <c r="B124" s="299"/>
+      <c r="C124" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="D124" s="303" t="s">
+      <c r="D124" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="E124" s="303" t="s">
+      <c r="E124" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="9"/>
+      <c r="G124" s="10" t="s">
         <v>1223</v>
       </c>
-      <c r="F124" s="311"/>
-      <c r="G124" s="305" t="s">
+      <c r="H124" s="11"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="32"/>
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="44">
+        <f>IF($A$1="补货",I124+J124+K124+L124,I124+J124)</f>
+        <v>0</v>
+      </c>
+      <c r="S124" s="45"/>
+      <c r="T124" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U124" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V124" s="46"/>
+    </row>
+    <row r="125" customHeight="1" spans="2:22">
+      <c r="B125" s="299"/>
+      <c r="C125" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="H124" s="26"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="39"/>
-      <c r="N124" s="39"/>
-      <c r="O124" s="39"/>
-      <c r="P124" s="39"/>
-      <c r="Q124" s="48"/>
-      <c r="R124" s="333">
-        <f>IF($A$1="补货",I124+J124+K124+L124,I124+J124)</f>
-        <v>0</v>
-      </c>
-      <c r="S124" s="50"/>
-      <c r="T124" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U124" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V124" s="51"/>
-    </row>
-    <row r="125" customHeight="1" spans="2:22">
-      <c r="B125" s="293"/>
-      <c r="C125" s="294" t="s">
+      <c r="D125" s="8" t="s">
         <v>1225</v>
       </c>
-      <c r="D125" s="295" t="s">
+      <c r="E125" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="9"/>
+      <c r="G125" s="10" t="s">
         <v>1226</v>
       </c>
-      <c r="E125" s="295"/>
-      <c r="F125" s="296" t="s">
+      <c r="H125" s="11"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="33"/>
+      <c r="L125" s="33"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="33"/>
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="43"/>
+      <c r="R125" s="44">
+        <f>IF($A$1="补货",I125+J125+K125+L125,I125+J125)</f>
+        <v>0</v>
+      </c>
+      <c r="S125" s="45"/>
+      <c r="T125" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U125" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V125" s="46"/>
+    </row>
+    <row r="126" customHeight="1" spans="2:22">
+      <c r="B126" s="301"/>
+      <c r="C126" s="302" t="s">
         <v>1227</v>
       </c>
-      <c r="G125" s="297" t="s">
+      <c r="D126" s="303" t="s">
         <v>1228</v>
       </c>
-      <c r="H125" s="298"/>
-      <c r="I125" s="321"/>
-      <c r="J125" s="322"/>
-      <c r="K125" s="323"/>
-      <c r="L125" s="323"/>
-      <c r="M125" s="323"/>
-      <c r="N125" s="323"/>
-      <c r="O125" s="323"/>
-      <c r="P125" s="323"/>
-      <c r="Q125" s="335"/>
-      <c r="R125" s="336">
-        <f>IF($A$1="补货",I125+J125+K125+L125,I125+J125)</f>
-        <v>0</v>
-      </c>
-      <c r="S125" s="337"/>
-      <c r="T125" s="337">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U125" s="323" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V125" s="338"/>
-    </row>
-    <row r="126" customHeight="1" spans="2:22">
-      <c r="B126" s="299"/>
-      <c r="C126" s="7" t="s">
+      <c r="E126" s="303" t="s">
         <v>1229</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="F126" s="311"/>
+      <c r="G126" s="305" t="s">
         <v>1230</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="9" t="s">
+      <c r="H126" s="26"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="38"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="39"/>
+      <c r="M126" s="39"/>
+      <c r="N126" s="39"/>
+      <c r="O126" s="39"/>
+      <c r="P126" s="39"/>
+      <c r="Q126" s="48"/>
+      <c r="R126" s="333">
+        <f>IF($A$1="补货",I126+J126+K126+L126,I126+J126)</f>
+        <v>0</v>
+      </c>
+      <c r="S126" s="50"/>
+      <c r="T126" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="39" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V126" s="51"/>
+    </row>
+    <row r="127" customHeight="1" spans="2:22">
+      <c r="B127" s="293"/>
+      <c r="C127" s="294" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D127" s="295" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E127" s="295"/>
+      <c r="F127" s="296" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G127" s="297" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H127" s="298"/>
+      <c r="I127" s="321"/>
+      <c r="J127" s="322"/>
+      <c r="K127" s="323"/>
+      <c r="L127" s="323"/>
+      <c r="M127" s="323"/>
+      <c r="N127" s="323"/>
+      <c r="O127" s="323"/>
+      <c r="P127" s="323"/>
+      <c r="Q127" s="335"/>
+      <c r="R127" s="336">
+        <f>IF($A$1="补货",I127+J127+K127+L127,I127+J127)</f>
+        <v>0</v>
+      </c>
+      <c r="S127" s="337"/>
+      <c r="T127" s="337">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="323" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V127" s="338"/>
+    </row>
+    <row r="128" customHeight="1" spans="2:22">
+      <c r="B128" s="299"/>
+      <c r="C128" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="G126" s="10" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H126" s="11"/>
-      <c r="I126" s="31"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="33"/>
-      <c r="L126" s="33"/>
-      <c r="M126" s="33"/>
-      <c r="N126" s="33"/>
-      <c r="O126" s="33"/>
-      <c r="P126" s="33"/>
-      <c r="Q126" s="43"/>
-      <c r="R126" s="44">
-        <f>IF($A$1="补货",I126+J126+K126+L126,I126+J126)</f>
-        <v>0</v>
-      </c>
-      <c r="S126" s="45"/>
-      <c r="T126" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U126" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V126" s="46"/>
-    </row>
-    <row r="127" customHeight="1" spans="2:22">
-      <c r="B127" s="301" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C127" s="302" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D127" s="303" t="s">
+      <c r="G128" s="10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="32"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="33"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33"/>
+      <c r="O128" s="33"/>
+      <c r="P128" s="33"/>
+      <c r="Q128" s="43"/>
+      <c r="R128" s="44">
+        <f>IF($A$1="补货",I128+J128+K128+L128,I128+J128)</f>
+        <v>0</v>
+      </c>
+      <c r="S128" s="45"/>
+      <c r="T128" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V128" s="46"/>
+    </row>
+    <row r="129" customHeight="1" spans="2:22">
+      <c r="B129" s="301" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C129" s="302" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D129" s="303" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E129" s="303"/>
+      <c r="F129" s="311" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G129" s="305" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H129" s="26"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="39"/>
+      <c r="M129" s="39"/>
+      <c r="N129" s="39"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="39"/>
+      <c r="Q129" s="48"/>
+      <c r="R129" s="339">
+        <f>IF($A$1="补货",I129+J129+K129+L129,I129+J129)</f>
+        <v>0</v>
+      </c>
+      <c r="S129" s="50"/>
+      <c r="T129" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="39" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V129" s="51"/>
+    </row>
+    <row r="130" customHeight="1" spans="2:22">
+      <c r="B130" s="361" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C130" s="307" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D130" s="308" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E130" s="308" t="s">
+        <v>953</v>
+      </c>
+      <c r="F130" s="300" t="s">
         <v>1233</v>
       </c>
-      <c r="E127" s="303"/>
-      <c r="F127" s="311" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G127" s="305" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H127" s="26"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="39"/>
-      <c r="M127" s="39"/>
-      <c r="N127" s="39"/>
-      <c r="O127" s="39"/>
-      <c r="P127" s="39"/>
-      <c r="Q127" s="48"/>
-      <c r="R127" s="339">
-        <f>IF($A$1="补货",I127+J127+K127+L127,I127+J127)</f>
-        <v>0</v>
-      </c>
-      <c r="S127" s="50"/>
-      <c r="T127" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U127" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V127" s="51"/>
-    </row>
-    <row r="128" customHeight="1" spans="2:22">
-      <c r="B128" s="361" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C128" s="307" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D128" s="308" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E128" s="308" t="s">
-        <v>953</v>
-      </c>
-      <c r="F128" s="300" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G128" s="309" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H128" s="310"/>
-      <c r="I128" s="324"/>
-      <c r="J128" s="325"/>
-      <c r="K128" s="326"/>
-      <c r="L128" s="326"/>
-      <c r="M128" s="326"/>
-      <c r="N128" s="326"/>
-      <c r="O128" s="326"/>
-      <c r="P128" s="326"/>
-      <c r="Q128" s="340"/>
-      <c r="R128" s="341">
-        <f>IF($A$1="补货",I128+J128+K128+L128,I128+J128)</f>
-        <v>0</v>
-      </c>
-      <c r="S128" s="342"/>
-      <c r="T128" s="342">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U128" s="326" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V128" s="343"/>
-    </row>
-    <row r="129" customHeight="1" spans="2:22">
-      <c r="B129" s="15"/>
-      <c r="C129" s="290" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D129" s="291" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E129" s="291" t="s">
-        <v>953</v>
-      </c>
-      <c r="F129" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="G129" s="292" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H129" s="20"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="36"/>
-      <c r="L129" s="36"/>
-      <c r="M129" s="36"/>
-      <c r="N129" s="36"/>
-      <c r="O129" s="36"/>
-      <c r="P129" s="36"/>
-      <c r="Q129" s="332"/>
-      <c r="R129" s="44">
-        <f>IF($A$1="补货",I129+J129+K129+L129,I129+J129)</f>
-        <v>0</v>
-      </c>
-      <c r="S129" s="45"/>
-      <c r="T129" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U129" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V129" s="47"/>
-    </row>
-    <row r="130" customHeight="1" spans="2:22">
-      <c r="B130" s="15"/>
-      <c r="C130" s="16" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>953</v>
-      </c>
-      <c r="F130" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G130" s="19" t="s">
+      <c r="G130" s="309" t="s">
         <v>1244</v>
       </c>
-      <c r="H130" s="20"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="35"/>
-      <c r="K130" s="36"/>
-      <c r="L130" s="36"/>
-      <c r="M130" s="36"/>
-      <c r="N130" s="36"/>
-      <c r="O130" s="36"/>
-      <c r="P130" s="36"/>
-      <c r="Q130" s="332"/>
-      <c r="R130" s="44">
+      <c r="H130" s="310"/>
+      <c r="I130" s="324"/>
+      <c r="J130" s="325"/>
+      <c r="K130" s="326"/>
+      <c r="L130" s="326"/>
+      <c r="M130" s="326"/>
+      <c r="N130" s="326"/>
+      <c r="O130" s="326"/>
+      <c r="P130" s="326"/>
+      <c r="Q130" s="340"/>
+      <c r="R130" s="341">
         <f>IF($A$1="补货",I130+J130+K130+L130,I130+J130)</f>
         <v>0</v>
       </c>
-      <c r="S130" s="45"/>
-      <c r="T130" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U130" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="V130" s="47"/>
+      <c r="S130" s="342"/>
+      <c r="T130" s="342">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="326" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="V130" s="343"/>
     </row>
     <row r="131" customHeight="1" spans="2:22">
       <c r="B131" s="15"/>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="290" t="s">
         <v>1245</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="291" t="s">
         <v>1246</v>
       </c>
-      <c r="E131" s="17" t="s">
-        <v>957</v>
+      <c r="E131" s="291" t="s">
+        <v>953</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G131" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="G131" s="292" t="s">
         <v>1247</v>
       </c>
       <c r="H131" s="20"/>
@@ -65837,11 +65851,11 @@
       </c>
       <c r="S131" s="45"/>
       <c r="T131" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U131" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V131" s="47"/>
@@ -65855,10 +65869,10 @@
         <v>1249</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>852</v>
+        <v>1240</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>1250</v>
@@ -65879,11 +65893,11 @@
       </c>
       <c r="S132" s="45"/>
       <c r="T132" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U132" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V132" s="47"/>
@@ -65900,7 +65914,7 @@
         <v>957</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G133" s="19" t="s">
         <v>1253</v>
@@ -65921,11 +65935,11 @@
       </c>
       <c r="S133" s="45"/>
       <c r="T133" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U133" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V133" s="47"/>
@@ -65942,10 +65956,10 @@
         <v>957</v>
       </c>
       <c r="F134" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="G134" s="19" t="s">
         <v>1256</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>1257</v>
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="34"/>
@@ -65963,11 +65977,11 @@
       </c>
       <c r="S134" s="45"/>
       <c r="T134" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U134" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V134" s="47"/>
@@ -65975,19 +65989,19 @@
     <row r="135" customHeight="1" spans="2:22">
       <c r="B135" s="15"/>
       <c r="C135" s="16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D135" s="17" t="s">
         <v>1258</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="E135" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G135" s="19" t="s">
         <v>1259</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F135" s="18" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G135" s="19" t="s">
-        <v>1260</v>
       </c>
       <c r="H135" s="20"/>
       <c r="I135" s="34"/>
@@ -66005,11 +66019,11 @@
       </c>
       <c r="S135" s="45"/>
       <c r="T135" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U135" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V135" s="47"/>
@@ -66017,16 +66031,16 @@
     <row r="136" customHeight="1" spans="2:22">
       <c r="B136" s="15"/>
       <c r="C136" s="16" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>1261</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="E136" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="F136" s="18" t="s">
         <v>1262</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F136" s="18" t="s">
-        <v>852</v>
       </c>
       <c r="G136" s="19" t="s">
         <v>1263</v>
@@ -66047,11 +66061,11 @@
       </c>
       <c r="S136" s="45"/>
       <c r="T136" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U136" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V136" s="47"/>
@@ -66068,7 +66082,7 @@
         <v>145</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G137" s="19" t="s">
         <v>1266</v>
@@ -66089,11 +66103,11 @@
       </c>
       <c r="S137" s="45"/>
       <c r="T137" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U137" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V137" s="47"/>
@@ -66107,10 +66121,10 @@
         <v>1268</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1234</v>
+        <v>852</v>
       </c>
       <c r="G138" s="19" t="s">
         <v>1269</v>
@@ -66131,11 +66145,11 @@
       </c>
       <c r="S138" s="45"/>
       <c r="T138" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U138" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V138" s="47"/>
@@ -66149,10 +66163,10 @@
         <v>1271</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>913</v>
+        <v>145</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="G139" s="19" t="s">
         <v>1272</v>
@@ -66173,11 +66187,11 @@
       </c>
       <c r="S139" s="45"/>
       <c r="T139" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U139" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V139" s="47"/>
@@ -66191,10 +66205,10 @@
         <v>1274</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>988</v>
+        <v>31</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>1275</v>
@@ -66215,11 +66229,11 @@
       </c>
       <c r="S140" s="45"/>
       <c r="T140" s="45">
-        <f t="shared" ref="T140:T161" si="10">R140+S140</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U140" s="33" t="str">
-        <f t="shared" ref="U140:U161" si="11">IF(Q140&gt;0,T140/Q140*7,"-")</f>
+        <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V140" s="47"/>
@@ -66233,10 +66247,10 @@
         <v>1277</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>988</v>
+        <v>913</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>1278</v>
@@ -66251,75 +66265,79 @@
       <c r="O141" s="36"/>
       <c r="P141" s="36"/>
       <c r="Q141" s="332"/>
-      <c r="R141" s="333">
+      <c r="R141" s="44">
         <f>IF($A$1="补货",I141+J141+K141+L141,I141+J141)</f>
         <v>0</v>
       </c>
-      <c r="S141" s="334"/>
-      <c r="T141" s="334">
+      <c r="S141" s="45"/>
+      <c r="T141" s="45">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U141" s="36" t="str">
+      <c r="U141" s="33" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="V141" s="47"/>
     </row>
     <row r="142" customHeight="1" spans="2:22">
-      <c r="B142" s="387"/>
-      <c r="C142" s="388" t="s">
+      <c r="B142" s="15"/>
+      <c r="C142" s="16" t="s">
         <v>1279</v>
       </c>
-      <c r="D142" s="389" t="s">
+      <c r="D142" s="17" t="s">
         <v>1280</v>
       </c>
-      <c r="E142" s="389"/>
-      <c r="F142" s="390" t="s">
+      <c r="E142" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G142" s="19" t="s">
         <v>1281</v>
       </c>
-      <c r="G142" s="391" t="s">
+      <c r="H142" s="20"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="36"/>
+      <c r="N142" s="36"/>
+      <c r="O142" s="36"/>
+      <c r="P142" s="36"/>
+      <c r="Q142" s="332"/>
+      <c r="R142" s="44">
+        <f>IF($A$1="补货",I142+J142+K142+L142,I142+J142)</f>
+        <v>0</v>
+      </c>
+      <c r="S142" s="45"/>
+      <c r="T142" s="45">
+        <f t="shared" ref="T142:T163" si="12">R142+S142</f>
+        <v>0</v>
+      </c>
+      <c r="U142" s="33" t="str">
+        <f t="shared" ref="U142:U163" si="13">IF(Q142&gt;0,T142/Q142*7,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="V142" s="47"/>
+    </row>
+    <row r="143" customHeight="1" spans="2:22">
+      <c r="B143" s="15"/>
+      <c r="C143" s="16" t="s">
         <v>1282</v>
       </c>
-      <c r="H142" s="392"/>
-      <c r="I142" s="405"/>
-      <c r="J142" s="406"/>
-      <c r="K142" s="407"/>
-      <c r="L142" s="407"/>
-      <c r="M142" s="407"/>
-      <c r="N142" s="407"/>
-      <c r="O142" s="407"/>
-      <c r="P142" s="407"/>
-      <c r="Q142" s="411"/>
-      <c r="R142" s="336">
-        <f>IF($A$1="补货",I142+J142+K142+L142,I142+J142)</f>
-        <v>0</v>
-      </c>
-      <c r="S142" s="337"/>
-      <c r="T142" s="337">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U142" s="323" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V142" s="412"/>
-    </row>
-    <row r="143" customHeight="1" spans="2:22">
-      <c r="B143" s="365"/>
-      <c r="C143" s="16" t="s">
+      <c r="D143" s="17" t="s">
         <v>1283</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="E143" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G143" s="19" t="s">
         <v>1284</v>
-      </c>
-      <c r="E143" s="17"/>
-      <c r="F143" s="18" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G143" s="19" t="s">
-        <v>1285</v>
       </c>
       <c r="H143" s="20"/>
       <c r="I143" s="34"/>
@@ -66331,60 +66349,60 @@
       <c r="O143" s="36"/>
       <c r="P143" s="36"/>
       <c r="Q143" s="332"/>
-      <c r="R143" s="44">
+      <c r="R143" s="333">
         <f>IF($A$1="补货",I143+J143+K143+L143,I143+J143)</f>
         <v>0</v>
       </c>
-      <c r="S143" s="45"/>
-      <c r="T143" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U143" s="33" t="str">
-        <f t="shared" si="11"/>
+      <c r="S143" s="334"/>
+      <c r="T143" s="334">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V143" s="47"/>
     </row>
     <row r="144" customHeight="1" spans="2:22">
-      <c r="B144" s="365"/>
-      <c r="C144" s="16" t="s">
+      <c r="B144" s="387"/>
+      <c r="C144" s="388" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D144" s="389" t="s">
         <v>1286</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="E144" s="389"/>
+      <c r="F144" s="390" t="s">
         <v>1287</v>
       </c>
-      <c r="E144" s="17"/>
-      <c r="F144" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G144" s="19" t="s">
+      <c r="G144" s="391" t="s">
         <v>1288</v>
       </c>
-      <c r="H144" s="20"/>
-      <c r="I144" s="34"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="36"/>
-      <c r="L144" s="36"/>
-      <c r="M144" s="36"/>
-      <c r="N144" s="36"/>
-      <c r="O144" s="36"/>
-      <c r="P144" s="36"/>
-      <c r="Q144" s="332"/>
-      <c r="R144" s="44">
+      <c r="H144" s="392"/>
+      <c r="I144" s="405"/>
+      <c r="J144" s="406"/>
+      <c r="K144" s="407"/>
+      <c r="L144" s="407"/>
+      <c r="M144" s="407"/>
+      <c r="N144" s="407"/>
+      <c r="O144" s="407"/>
+      <c r="P144" s="407"/>
+      <c r="Q144" s="411"/>
+      <c r="R144" s="336">
         <f>IF($A$1="补货",I144+J144+K144+L144,I144+J144)</f>
         <v>0</v>
       </c>
-      <c r="S144" s="45"/>
-      <c r="T144" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U144" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V144" s="47"/>
+      <c r="S144" s="337"/>
+      <c r="T144" s="337">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U144" s="323" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V144" s="412"/>
     </row>
     <row r="145" customHeight="1" spans="2:22">
       <c r="B145" s="365"/>
@@ -66396,7 +66414,7 @@
       </c>
       <c r="E145" s="17"/>
       <c r="F145" s="18" t="s">
-        <v>1234</v>
+        <v>1287</v>
       </c>
       <c r="G145" s="19" t="s">
         <v>1291</v>
@@ -66417,11 +66435,11 @@
       </c>
       <c r="S145" s="45"/>
       <c r="T145" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U145" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V145" s="47"/>
@@ -66436,7 +66454,7 @@
       </c>
       <c r="E146" s="17"/>
       <c r="F146" s="18" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="G146" s="19" t="s">
         <v>1294</v>
@@ -66457,11 +66475,11 @@
       </c>
       <c r="S146" s="45"/>
       <c r="T146" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U146" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V146" s="47"/>
@@ -66476,7 +66494,7 @@
       </c>
       <c r="E147" s="17"/>
       <c r="F147" s="18" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="G147" s="19" t="s">
         <v>1297</v>
@@ -66497,57 +66515,57 @@
       </c>
       <c r="S147" s="45"/>
       <c r="T147" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U147" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V147" s="47"/>
     </row>
     <row r="148" customHeight="1" spans="2:22">
-      <c r="B148" s="301"/>
-      <c r="C148" s="393" t="s">
+      <c r="B148" s="365"/>
+      <c r="C148" s="16" t="s">
         <v>1298</v>
       </c>
-      <c r="D148" s="394" t="s">
+      <c r="D148" s="17" t="s">
         <v>1299</v>
       </c>
-      <c r="E148" s="394"/>
-      <c r="F148" s="311" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G148" s="395" t="s">
+      <c r="E148" s="17"/>
+      <c r="F148" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G148" s="19" t="s">
         <v>1300</v>
       </c>
-      <c r="H148" s="26"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="38"/>
-      <c r="K148" s="39"/>
-      <c r="L148" s="39"/>
-      <c r="M148" s="39"/>
-      <c r="N148" s="39"/>
-      <c r="O148" s="39"/>
-      <c r="P148" s="39"/>
-      <c r="Q148" s="48"/>
-      <c r="R148" s="339">
+      <c r="H148" s="20"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="35"/>
+      <c r="K148" s="36"/>
+      <c r="L148" s="36"/>
+      <c r="M148" s="36"/>
+      <c r="N148" s="36"/>
+      <c r="O148" s="36"/>
+      <c r="P148" s="36"/>
+      <c r="Q148" s="332"/>
+      <c r="R148" s="44">
         <f>IF($A$1="补货",I148+J148+K148+L148,I148+J148)</f>
         <v>0</v>
       </c>
-      <c r="S148" s="50"/>
-      <c r="T148" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U148" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V148" s="51"/>
+      <c r="S148" s="45"/>
+      <c r="T148" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U148" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V148" s="47"/>
     </row>
     <row r="149" customHeight="1" spans="2:22">
-      <c r="B149" s="15"/>
+      <c r="B149" s="365"/>
       <c r="C149" s="16" t="s">
         <v>1301</v>
       </c>
@@ -66556,10 +66574,10 @@
       </c>
       <c r="E149" s="17"/>
       <c r="F149" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G149" s="19" t="s">
         <v>1303</v>
-      </c>
-      <c r="G149" s="19" t="s">
-        <v>1304</v>
       </c>
       <c r="H149" s="20"/>
       <c r="I149" s="34"/>
@@ -66577,69 +66595,69 @@
       </c>
       <c r="S149" s="45"/>
       <c r="T149" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U149" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V149" s="47"/>
     </row>
     <row r="150" customHeight="1" spans="2:22">
-      <c r="B150" s="15"/>
-      <c r="C150" s="16" t="s">
+      <c r="B150" s="301"/>
+      <c r="C150" s="393" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D150" s="394" t="s">
         <v>1305</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="E150" s="394"/>
+      <c r="F150" s="311" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G150" s="395" t="s">
         <v>1306</v>
       </c>
-      <c r="E150" s="17"/>
-      <c r="F150" s="18" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G150" s="19" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H150" s="20"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="35"/>
-      <c r="K150" s="36"/>
-      <c r="L150" s="36"/>
-      <c r="M150" s="36"/>
-      <c r="N150" s="36"/>
-      <c r="O150" s="36"/>
-      <c r="P150" s="36"/>
-      <c r="Q150" s="332"/>
-      <c r="R150" s="44">
+      <c r="H150" s="26"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="38"/>
+      <c r="K150" s="39"/>
+      <c r="L150" s="39"/>
+      <c r="M150" s="39"/>
+      <c r="N150" s="39"/>
+      <c r="O150" s="39"/>
+      <c r="P150" s="39"/>
+      <c r="Q150" s="48"/>
+      <c r="R150" s="339">
         <f>IF($A$1="补货",I150+J150+K150+L150,I150+J150)</f>
         <v>0</v>
       </c>
-      <c r="S150" s="45"/>
-      <c r="T150" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U150" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V150" s="47"/>
+      <c r="S150" s="50"/>
+      <c r="T150" s="50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U150" s="39" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V150" s="51"/>
     </row>
     <row r="151" customHeight="1" spans="2:22">
       <c r="B151" s="15"/>
       <c r="C151" s="16" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E151" s="17"/>
       <c r="F151" s="18" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="H151" s="20"/>
       <c r="I151" s="34"/>
@@ -66651,75 +66669,75 @@
       <c r="O151" s="36"/>
       <c r="P151" s="36"/>
       <c r="Q151" s="332"/>
-      <c r="R151" s="333">
+      <c r="R151" s="44">
         <f>IF($A$1="补货",I151+J151+K151+L151,I151+J151)</f>
         <v>0</v>
       </c>
-      <c r="S151" s="334"/>
-      <c r="T151" s="334">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U151" s="36" t="str">
-        <f t="shared" si="11"/>
+      <c r="S151" s="45"/>
+      <c r="T151" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U151" s="33" t="str">
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V151" s="47"/>
     </row>
     <row r="152" customHeight="1" spans="2:22">
-      <c r="B152" s="387"/>
-      <c r="C152" s="388" t="s">
+      <c r="B152" s="15"/>
+      <c r="C152" s="16" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E152" s="17"/>
+      <c r="F152" s="18" t="s">
         <v>1313</v>
       </c>
-      <c r="D152" s="389" t="s">
+      <c r="G152" s="19" t="s">
         <v>1314</v>
       </c>
-      <c r="E152" s="389"/>
-      <c r="F152" s="390" t="s">
+      <c r="H152" s="20"/>
+      <c r="I152" s="34"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="36"/>
+      <c r="L152" s="36"/>
+      <c r="M152" s="36"/>
+      <c r="N152" s="36"/>
+      <c r="O152" s="36"/>
+      <c r="P152" s="36"/>
+      <c r="Q152" s="332"/>
+      <c r="R152" s="44">
+        <f>IF($A$1="补货",I152+J152+K152+L152,I152+J152)</f>
+        <v>0</v>
+      </c>
+      <c r="S152" s="45"/>
+      <c r="T152" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U152" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V152" s="47"/>
+    </row>
+    <row r="153" customHeight="1" spans="2:22">
+      <c r="B153" s="15"/>
+      <c r="C153" s="16" t="s">
         <v>1315</v>
       </c>
-      <c r="G152" s="391" t="s">
+      <c r="D153" s="17" t="s">
         <v>1316</v>
-      </c>
-      <c r="H152" s="392"/>
-      <c r="I152" s="405"/>
-      <c r="J152" s="406"/>
-      <c r="K152" s="407"/>
-      <c r="L152" s="407"/>
-      <c r="M152" s="407"/>
-      <c r="N152" s="407"/>
-      <c r="O152" s="407"/>
-      <c r="P152" s="407"/>
-      <c r="Q152" s="411"/>
-      <c r="R152" s="336">
-        <f>IF($A$1="补货",I152+J152+K152+L152,I152+J152)</f>
-        <v>0</v>
-      </c>
-      <c r="S152" s="337"/>
-      <c r="T152" s="337">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U152" s="323" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V152" s="412"/>
-    </row>
-    <row r="153" customHeight="1" spans="2:22">
-      <c r="B153" s="365"/>
-      <c r="C153" s="16" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>1318</v>
       </c>
       <c r="E153" s="17"/>
       <c r="F153" s="18" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H153" s="20"/>
       <c r="I153" s="34"/>
@@ -66731,75 +66749,75 @@
       <c r="O153" s="36"/>
       <c r="P153" s="36"/>
       <c r="Q153" s="332"/>
-      <c r="R153" s="44">
+      <c r="R153" s="333">
         <f>IF($A$1="补货",I153+J153+K153+L153,I153+J153)</f>
         <v>0</v>
       </c>
-      <c r="S153" s="45"/>
-      <c r="T153" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U153" s="33" t="str">
-        <f t="shared" si="11"/>
+      <c r="S153" s="334"/>
+      <c r="T153" s="334">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U153" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V153" s="47"/>
     </row>
     <row r="154" customHeight="1" spans="2:22">
-      <c r="B154" s="365"/>
-      <c r="C154" s="16" t="s">
+      <c r="B154" s="387"/>
+      <c r="C154" s="388" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D154" s="389" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E154" s="389"/>
+      <c r="F154" s="390" t="s">
         <v>1321</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="G154" s="391" t="s">
         <v>1322</v>
       </c>
-      <c r="E154" s="17"/>
-      <c r="F154" s="18" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G154" s="19" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H154" s="20"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="36"/>
-      <c r="L154" s="36"/>
-      <c r="M154" s="36"/>
-      <c r="N154" s="36"/>
-      <c r="O154" s="36"/>
-      <c r="P154" s="36"/>
-      <c r="Q154" s="332"/>
-      <c r="R154" s="44">
+      <c r="H154" s="392"/>
+      <c r="I154" s="405"/>
+      <c r="J154" s="406"/>
+      <c r="K154" s="407"/>
+      <c r="L154" s="407"/>
+      <c r="M154" s="407"/>
+      <c r="N154" s="407"/>
+      <c r="O154" s="407"/>
+      <c r="P154" s="407"/>
+      <c r="Q154" s="411"/>
+      <c r="R154" s="336">
         <f>IF($A$1="补货",I154+J154+K154+L154,I154+J154)</f>
         <v>0</v>
       </c>
-      <c r="S154" s="45"/>
-      <c r="T154" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U154" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V154" s="47"/>
+      <c r="S154" s="337"/>
+      <c r="T154" s="337">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U154" s="323" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V154" s="412"/>
     </row>
     <row r="155" customHeight="1" spans="2:22">
       <c r="B155" s="365"/>
       <c r="C155" s="16" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E155" s="17"/>
       <c r="F155" s="18" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H155" s="20"/>
       <c r="I155" s="34"/>
@@ -66817,189 +66835,189 @@
       </c>
       <c r="S155" s="45"/>
       <c r="T155" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U155" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V155" s="47"/>
     </row>
     <row r="156" customHeight="1" spans="2:22">
-      <c r="B156" s="301"/>
-      <c r="C156" s="393" t="s">
+      <c r="B156" s="365"/>
+      <c r="C156" s="16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E156" s="17"/>
+      <c r="F156" s="18" t="s">
         <v>1329</v>
       </c>
-      <c r="D156" s="394" t="s">
+      <c r="G156" s="19" t="s">
         <v>1330</v>
       </c>
-      <c r="E156" s="394"/>
-      <c r="F156" s="311" t="s">
+      <c r="H156" s="20"/>
+      <c r="I156" s="34"/>
+      <c r="J156" s="35"/>
+      <c r="K156" s="36"/>
+      <c r="L156" s="36"/>
+      <c r="M156" s="36"/>
+      <c r="N156" s="36"/>
+      <c r="O156" s="36"/>
+      <c r="P156" s="36"/>
+      <c r="Q156" s="332"/>
+      <c r="R156" s="44">
+        <f>IF($A$1="补货",I156+J156+K156+L156,I156+J156)</f>
+        <v>0</v>
+      </c>
+      <c r="S156" s="45"/>
+      <c r="T156" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U156" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V156" s="47"/>
+    </row>
+    <row r="157" customHeight="1" spans="2:22">
+      <c r="B157" s="365"/>
+      <c r="C157" s="16" t="s">
         <v>1331</v>
       </c>
-      <c r="G156" s="395" t="s">
+      <c r="D157" s="17" t="s">
         <v>1332</v>
       </c>
-      <c r="H156" s="26"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="38"/>
-      <c r="K156" s="39"/>
-      <c r="L156" s="39"/>
-      <c r="M156" s="39"/>
-      <c r="N156" s="39"/>
-      <c r="O156" s="39"/>
-      <c r="P156" s="39"/>
-      <c r="Q156" s="48"/>
-      <c r="R156" s="339">
-        <f>IF($A$1="补货",I156+J156+K156+L156,I156+J156)</f>
-        <v>0</v>
-      </c>
-      <c r="S156" s="50"/>
-      <c r="T156" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U156" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V156" s="51"/>
-    </row>
-    <row r="157" customHeight="1" spans="2:22">
-      <c r="B157" s="312"/>
-      <c r="C157" s="396" t="s">
+      <c r="E157" s="17"/>
+      <c r="F157" s="18" t="s">
         <v>1333</v>
       </c>
-      <c r="D157" s="397" t="s">
+      <c r="G157" s="19" t="s">
         <v>1334</v>
       </c>
-      <c r="E157" s="397"/>
-      <c r="F157" s="315" t="s">
+      <c r="H157" s="20"/>
+      <c r="I157" s="34"/>
+      <c r="J157" s="35"/>
+      <c r="K157" s="36"/>
+      <c r="L157" s="36"/>
+      <c r="M157" s="36"/>
+      <c r="N157" s="36"/>
+      <c r="O157" s="36"/>
+      <c r="P157" s="36"/>
+      <c r="Q157" s="332"/>
+      <c r="R157" s="44">
+        <f>IF($A$1="补货",I157+J157+K157+L157,I157+J157)</f>
+        <v>0</v>
+      </c>
+      <c r="S157" s="45"/>
+      <c r="T157" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U157" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V157" s="47"/>
+    </row>
+    <row r="158" customHeight="1" spans="2:22">
+      <c r="B158" s="301"/>
+      <c r="C158" s="393" t="s">
         <v>1335</v>
       </c>
-      <c r="G157" s="398" t="s">
+      <c r="D158" s="394" t="s">
         <v>1336</v>
       </c>
-      <c r="H157" s="317"/>
-      <c r="I157" s="327"/>
-      <c r="J157" s="328"/>
-      <c r="K157" s="329"/>
-      <c r="L157" s="329"/>
-      <c r="M157" s="329"/>
-      <c r="N157" s="329"/>
-      <c r="O157" s="329"/>
-      <c r="P157" s="329"/>
-      <c r="Q157" s="344"/>
-      <c r="R157" s="341">
-        <f>IF($A$1="补货",I157+J157+K157+L157,I157+J157)</f>
-        <v>0</v>
-      </c>
-      <c r="S157" s="342"/>
-      <c r="T157" s="342">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U157" s="326" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V157" s="347"/>
-    </row>
-    <row r="158" customHeight="1" spans="2:22">
-      <c r="B158" s="15"/>
-      <c r="C158" s="16" t="s">
+      <c r="E158" s="394"/>
+      <c r="F158" s="311" t="s">
         <v>1337</v>
       </c>
-      <c r="D158" s="17" t="s">
+      <c r="G158" s="395" t="s">
         <v>1338</v>
       </c>
-      <c r="E158" s="17"/>
-      <c r="F158" s="18" t="s">
+      <c r="H158" s="26"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="38"/>
+      <c r="K158" s="39"/>
+      <c r="L158" s="39"/>
+      <c r="M158" s="39"/>
+      <c r="N158" s="39"/>
+      <c r="O158" s="39"/>
+      <c r="P158" s="39"/>
+      <c r="Q158" s="48"/>
+      <c r="R158" s="339">
+        <f>IF($A$1="补货",I158+J158+K158+L158,I158+J158)</f>
+        <v>0</v>
+      </c>
+      <c r="S158" s="50"/>
+      <c r="T158" s="50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U158" s="39" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V158" s="51"/>
+    </row>
+    <row r="159" customHeight="1" spans="2:22">
+      <c r="B159" s="312"/>
+      <c r="C159" s="396" t="s">
         <v>1339</v>
       </c>
-      <c r="G158" s="19" t="s">
+      <c r="D159" s="397" t="s">
         <v>1340</v>
       </c>
-      <c r="H158" s="20"/>
-      <c r="I158" s="34"/>
-      <c r="J158" s="35"/>
-      <c r="K158" s="36"/>
-      <c r="L158" s="36"/>
-      <c r="M158" s="36"/>
-      <c r="N158" s="36"/>
-      <c r="O158" s="36"/>
-      <c r="P158" s="36"/>
-      <c r="Q158" s="332"/>
-      <c r="R158" s="333">
-        <f>IF($A$1="补货",I158+J158+K158+L158,I158+J158)</f>
-        <v>0</v>
-      </c>
-      <c r="S158" s="334"/>
-      <c r="T158" s="334">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U158" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V158" s="47"/>
-    </row>
-    <row r="159" customHeight="1" spans="2:22">
-      <c r="B159" s="387"/>
-      <c r="C159" s="388" t="s">
+      <c r="E159" s="397"/>
+      <c r="F159" s="315" t="s">
         <v>1341</v>
       </c>
-      <c r="D159" s="389" t="s">
+      <c r="G159" s="398" t="s">
         <v>1342</v>
       </c>
-      <c r="E159" s="389"/>
-      <c r="F159" s="390" t="s">
+      <c r="H159" s="317"/>
+      <c r="I159" s="327"/>
+      <c r="J159" s="328"/>
+      <c r="K159" s="329"/>
+      <c r="L159" s="329"/>
+      <c r="M159" s="329"/>
+      <c r="N159" s="329"/>
+      <c r="O159" s="329"/>
+      <c r="P159" s="329"/>
+      <c r="Q159" s="344"/>
+      <c r="R159" s="341">
+        <f>IF($A$1="补货",I159+J159+K159+L159,I159+J159)</f>
+        <v>0</v>
+      </c>
+      <c r="S159" s="342"/>
+      <c r="T159" s="342">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="326" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V159" s="347"/>
+    </row>
+    <row r="160" customHeight="1" spans="2:22">
+      <c r="B160" s="15"/>
+      <c r="C160" s="16" t="s">
         <v>1343</v>
       </c>
-      <c r="G159" s="391" t="s">
+      <c r="D160" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="H159" s="392"/>
-      <c r="I159" s="405"/>
-      <c r="J159" s="406"/>
-      <c r="K159" s="407"/>
-      <c r="L159" s="407"/>
-      <c r="M159" s="407"/>
-      <c r="N159" s="407"/>
-      <c r="O159" s="407"/>
-      <c r="P159" s="407"/>
-      <c r="Q159" s="411"/>
-      <c r="R159" s="336">
-        <f>IF($A$1="补货",I159+J159+K159+L159,I159+J159)</f>
-        <v>0</v>
-      </c>
-      <c r="S159" s="337"/>
-      <c r="T159" s="337">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U159" s="323" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V159" s="412"/>
-    </row>
-    <row r="160" customHeight="1" spans="2:22">
-      <c r="B160" s="365"/>
-      <c r="C160" s="290" t="s">
+      <c r="E160" s="17"/>
+      <c r="F160" s="18" t="s">
         <v>1345</v>
       </c>
-      <c r="D160" s="291" t="s">
+      <c r="G160" s="19" t="s">
         <v>1346</v>
-      </c>
-      <c r="E160" s="291"/>
-      <c r="F160" s="334" t="s">
-        <v>873</v>
-      </c>
-      <c r="G160" s="292" t="s">
-        <v>1347</v>
       </c>
       <c r="H160" s="20"/>
       <c r="I160" s="34"/>
@@ -67011,115 +67029,115 @@
       <c r="O160" s="36"/>
       <c r="P160" s="36"/>
       <c r="Q160" s="332"/>
-      <c r="R160" s="44">
+      <c r="R160" s="333">
         <f>IF($A$1="补货",I160+J160+K160+L160,I160+J160)</f>
         <v>0</v>
       </c>
-      <c r="S160" s="45"/>
-      <c r="T160" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U160" s="33" t="str">
-        <f t="shared" si="11"/>
+      <c r="S160" s="334"/>
+      <c r="T160" s="334">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="V160" s="47"/>
     </row>
     <row r="161" customHeight="1" spans="2:22">
-      <c r="B161" s="301"/>
-      <c r="C161" s="302" t="s">
+      <c r="B161" s="387"/>
+      <c r="C161" s="388" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D161" s="389" t="s">
         <v>1348</v>
       </c>
-      <c r="D161" s="303" t="s">
+      <c r="E161" s="389"/>
+      <c r="F161" s="390" t="s">
         <v>1349</v>
       </c>
-      <c r="E161" s="303"/>
-      <c r="F161" s="50" t="s">
+      <c r="G161" s="391" t="s">
         <v>1350</v>
       </c>
-      <c r="G161" s="305" t="s">
+      <c r="H161" s="392"/>
+      <c r="I161" s="405"/>
+      <c r="J161" s="406"/>
+      <c r="K161" s="407"/>
+      <c r="L161" s="407"/>
+      <c r="M161" s="407"/>
+      <c r="N161" s="407"/>
+      <c r="O161" s="407"/>
+      <c r="P161" s="407"/>
+      <c r="Q161" s="411"/>
+      <c r="R161" s="336">
+        <f>IF($A$1="补货",I161+J161+K161+L161,I161+J161)</f>
+        <v>0</v>
+      </c>
+      <c r="S161" s="337"/>
+      <c r="T161" s="337">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U161" s="323" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V161" s="412"/>
+    </row>
+    <row r="162" customHeight="1" spans="2:22">
+      <c r="B162" s="365"/>
+      <c r="C162" s="290" t="s">
         <v>1351</v>
       </c>
-      <c r="H161" s="26"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="38"/>
-      <c r="K161" s="39"/>
-      <c r="L161" s="39"/>
-      <c r="M161" s="39"/>
-      <c r="N161" s="39"/>
-      <c r="O161" s="39"/>
-      <c r="P161" s="39"/>
-      <c r="Q161" s="48"/>
-      <c r="R161" s="339">
-        <f>IF($A$1="补货",I161+J161+K161+L161,I161+J161)</f>
-        <v>0</v>
-      </c>
-      <c r="S161" s="50"/>
-      <c r="T161" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U161" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="V161" s="51"/>
-    </row>
-    <row r="162" customHeight="1" spans="2:22">
-      <c r="B162" s="399"/>
-      <c r="C162" s="400" t="s">
+      <c r="D162" s="291" t="s">
         <v>1352</v>
       </c>
-      <c r="D162" s="401" t="s">
+      <c r="E162" s="291"/>
+      <c r="F162" s="334" t="s">
+        <v>873</v>
+      </c>
+      <c r="G162" s="292" t="s">
         <v>1353</v>
       </c>
-      <c r="E162" s="401"/>
-      <c r="F162" s="402" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G162" s="403" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H162" s="404"/>
-      <c r="I162" s="408"/>
-      <c r="J162" s="409"/>
-      <c r="K162" s="410"/>
-      <c r="L162" s="410"/>
-      <c r="M162" s="410"/>
-      <c r="N162" s="410"/>
-      <c r="O162" s="410"/>
-      <c r="P162" s="410"/>
-      <c r="Q162" s="413"/>
-      <c r="R162" s="414">
+      <c r="H162" s="20"/>
+      <c r="I162" s="34"/>
+      <c r="J162" s="35"/>
+      <c r="K162" s="36"/>
+      <c r="L162" s="36"/>
+      <c r="M162" s="36"/>
+      <c r="N162" s="36"/>
+      <c r="O162" s="36"/>
+      <c r="P162" s="36"/>
+      <c r="Q162" s="332"/>
+      <c r="R162" s="44">
         <f>IF($A$1="补货",I162+J162+K162+L162,I162+J162)</f>
         <v>0</v>
       </c>
-      <c r="S162" s="402"/>
-      <c r="T162" s="402">
-        <f t="shared" ref="T162:T170" si="12">R162+S162</f>
-        <v>0</v>
-      </c>
-      <c r="U162" s="410" t="str">
-        <f t="shared" ref="U162:U170" si="13">IF(Q162&gt;0,T162/Q162*7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="V162" s="415"/>
+      <c r="S162" s="45"/>
+      <c r="T162" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U162" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="V162" s="47"/>
     </row>
     <row r="163" customHeight="1" spans="2:22">
       <c r="B163" s="301"/>
       <c r="C163" s="302" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D163" s="303" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E163" s="303"/>
       <c r="F163" s="50" t="s">
-        <v>145</v>
+        <v>1356</v>
       </c>
       <c r="G163" s="305" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H163" s="26"/>
       <c r="I163" s="37"/>
@@ -67147,100 +67165,116 @@
       <c r="V163" s="51"/>
     </row>
     <row r="164" customHeight="1" spans="2:22">
-      <c r="B164" s="312"/>
-      <c r="C164" s="396"/>
-      <c r="D164" s="397"/>
-      <c r="E164" s="397"/>
-      <c r="F164" s="315"/>
-      <c r="G164" s="398"/>
-      <c r="H164" s="317"/>
-      <c r="I164" s="327"/>
-      <c r="J164" s="328"/>
-      <c r="K164" s="329"/>
-      <c r="L164" s="329"/>
-      <c r="M164" s="329"/>
-      <c r="N164" s="329"/>
-      <c r="O164" s="329"/>
-      <c r="P164" s="329"/>
-      <c r="Q164" s="344"/>
-      <c r="R164" s="341">
+      <c r="B164" s="399"/>
+      <c r="C164" s="400" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D164" s="401" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E164" s="401"/>
+      <c r="F164" s="402" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G164" s="403" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H164" s="404"/>
+      <c r="I164" s="408"/>
+      <c r="J164" s="409"/>
+      <c r="K164" s="410"/>
+      <c r="L164" s="410"/>
+      <c r="M164" s="410"/>
+      <c r="N164" s="410"/>
+      <c r="O164" s="410"/>
+      <c r="P164" s="410"/>
+      <c r="Q164" s="413"/>
+      <c r="R164" s="414">
         <f>IF($A$1="补货",I164+J164+K164+L164,I164+J164)</f>
         <v>0</v>
       </c>
-      <c r="S164" s="342"/>
-      <c r="T164" s="342">
-        <f t="shared" ref="T164:T174" si="14">R164+S164</f>
-        <v>0</v>
-      </c>
-      <c r="U164" s="326" t="str">
-        <f t="shared" ref="U164:U174" si="15">IF(Q164&gt;0,T164/Q164*7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="V164" s="347"/>
+      <c r="S164" s="402"/>
+      <c r="T164" s="402">
+        <f t="shared" ref="T164:T172" si="14">R164+S164</f>
+        <v>0</v>
+      </c>
+      <c r="U164" s="410" t="str">
+        <f t="shared" ref="U164:U172" si="15">IF(Q164&gt;0,T164/Q164*7,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="V164" s="415"/>
     </row>
     <row r="165" customHeight="1" spans="2:22">
-      <c r="B165" s="15"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="35"/>
-      <c r="K165" s="36"/>
-      <c r="L165" s="36"/>
-      <c r="M165" s="36"/>
-      <c r="N165" s="36"/>
-      <c r="O165" s="36"/>
-      <c r="P165" s="36"/>
-      <c r="Q165" s="332"/>
-      <c r="R165" s="44">
+      <c r="B165" s="301"/>
+      <c r="C165" s="302" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D165" s="303" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E165" s="303"/>
+      <c r="F165" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="G165" s="305" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H165" s="26"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="38"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="39"/>
+      <c r="M165" s="39"/>
+      <c r="N165" s="39"/>
+      <c r="O165" s="39"/>
+      <c r="P165" s="39"/>
+      <c r="Q165" s="48"/>
+      <c r="R165" s="339">
         <f>IF($A$1="补货",I165+J165+K165+L165,I165+J165)</f>
         <v>0</v>
       </c>
-      <c r="S165" s="45"/>
-      <c r="T165" s="45">
+      <c r="S165" s="50"/>
+      <c r="T165" s="50">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U165" s="33" t="str">
+      <c r="U165" s="39" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="V165" s="47"/>
+      <c r="V165" s="51"/>
     </row>
     <row r="166" customHeight="1" spans="2:22">
-      <c r="B166" s="15"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="35"/>
-      <c r="K166" s="36"/>
-      <c r="L166" s="36"/>
-      <c r="M166" s="36"/>
-      <c r="N166" s="36"/>
-      <c r="O166" s="36"/>
-      <c r="P166" s="36"/>
-      <c r="Q166" s="332"/>
-      <c r="R166" s="44">
+      <c r="B166" s="312"/>
+      <c r="C166" s="396"/>
+      <c r="D166" s="397"/>
+      <c r="E166" s="397"/>
+      <c r="F166" s="315"/>
+      <c r="G166" s="398"/>
+      <c r="H166" s="317"/>
+      <c r="I166" s="327"/>
+      <c r="J166" s="328"/>
+      <c r="K166" s="329"/>
+      <c r="L166" s="329"/>
+      <c r="M166" s="329"/>
+      <c r="N166" s="329"/>
+      <c r="O166" s="329"/>
+      <c r="P166" s="329"/>
+      <c r="Q166" s="344"/>
+      <c r="R166" s="341">
         <f>IF($A$1="补货",I166+J166+K166+L166,I166+J166)</f>
         <v>0</v>
       </c>
-      <c r="S166" s="45"/>
-      <c r="T166" s="45">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U166" s="33" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="V166" s="47"/>
+      <c r="S166" s="342"/>
+      <c r="T166" s="342">
+        <f t="shared" ref="T166:T176" si="16">R166+S166</f>
+        <v>0</v>
+      </c>
+      <c r="U166" s="326" t="str">
+        <f t="shared" ref="U166:U176" si="17">IF(Q166&gt;0,T166/Q166*7,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="V166" s="347"/>
     </row>
     <row r="167" customHeight="1" spans="2:22">
       <c r="B167" s="15"/>
@@ -67265,11 +67299,11 @@
       </c>
       <c r="S167" s="45"/>
       <c r="T167" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U167" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="V167" s="47"/>
@@ -67297,11 +67331,11 @@
       </c>
       <c r="S168" s="45"/>
       <c r="T168" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U168" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="V168" s="47"/>
@@ -67329,11 +67363,11 @@
       </c>
       <c r="S169" s="45"/>
       <c r="T169" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U169" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="V169" s="47"/>
@@ -67361,11 +67395,11 @@
       </c>
       <c r="S170" s="45"/>
       <c r="T170" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U170" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="V170" s="47"/>
@@ -67393,11 +67427,11 @@
       </c>
       <c r="S171" s="45"/>
       <c r="T171" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U171" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="V171" s="47"/>
@@ -67425,11 +67459,11 @@
       </c>
       <c r="S172" s="45"/>
       <c r="T172" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U172" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="V172" s="47"/>
@@ -67457,90 +67491,201 @@
       </c>
       <c r="S173" s="45"/>
       <c r="T173" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U173" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="V173" s="47"/>
     </row>
     <row r="174" customHeight="1" spans="2:22">
-      <c r="B174" s="21" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C174" s="22"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="37"/>
-      <c r="J174" s="38"/>
-      <c r="K174" s="39"/>
-      <c r="L174" s="39"/>
-      <c r="M174" s="39"/>
-      <c r="N174" s="39"/>
-      <c r="O174" s="39"/>
-      <c r="P174" s="39"/>
-      <c r="Q174" s="48"/>
-      <c r="R174" s="49">
+      <c r="B174" s="15"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="34"/>
+      <c r="J174" s="35"/>
+      <c r="K174" s="36"/>
+      <c r="L174" s="36"/>
+      <c r="M174" s="36"/>
+      <c r="N174" s="36"/>
+      <c r="O174" s="36"/>
+      <c r="P174" s="36"/>
+      <c r="Q174" s="332"/>
+      <c r="R174" s="44">
         <f>IF($A$1="补货",I174+J174+K174+L174,I174+J174)</f>
         <v>0</v>
       </c>
-      <c r="S174" s="50"/>
-      <c r="T174" s="50">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U174" s="39" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="V174" s="51"/>
+      <c r="S174" s="45"/>
+      <c r="T174" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U174" s="33" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
+      </c>
+      <c r="V174" s="47"/>
+    </row>
+    <row r="175" customHeight="1" spans="2:22">
+      <c r="B175" s="15"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="34"/>
+      <c r="J175" s="35"/>
+      <c r="K175" s="36"/>
+      <c r="L175" s="36"/>
+      <c r="M175" s="36"/>
+      <c r="N175" s="36"/>
+      <c r="O175" s="36"/>
+      <c r="P175" s="36"/>
+      <c r="Q175" s="332"/>
+      <c r="R175" s="44">
+        <f>IF($A$1="补货",I175+J175+K175+L175,I175+J175)</f>
+        <v>0</v>
+      </c>
+      <c r="S175" s="45"/>
+      <c r="T175" s="45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U175" s="33" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
+      </c>
+      <c r="V175" s="47"/>
+    </row>
+    <row r="176" customHeight="1" spans="2:22">
+      <c r="B176" s="21" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C176" s="22"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="37"/>
+      <c r="J176" s="38"/>
+      <c r="K176" s="39"/>
+      <c r="L176" s="39"/>
+      <c r="M176" s="39"/>
+      <c r="N176" s="39"/>
+      <c r="O176" s="39"/>
+      <c r="P176" s="39"/>
+      <c r="Q176" s="48"/>
+      <c r="R176" s="49">
+        <f>IF($A$1="补货",I176+J176+K176+L176,I176+J176)</f>
+        <v>0</v>
+      </c>
+      <c r="S176" s="50"/>
+      <c r="T176" s="50">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U176" s="39" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
+      </c>
+      <c r="V176" s="51"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I174">
-    <cfRule type="expression" dxfId="7" priority="29">
+  <conditionalFormatting sqref="I56:I57">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>AND(I56=0,V56="FBA")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56:J57">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(J56=0,V56="FBM")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R56:R57">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>R56=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T56:T57">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AF53=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58:T60">
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>AF53=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U56:U57">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>OR(AND($A$1="补货",U56&lt;60),AND($A$1="入库",U56&lt;30))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>OR(AND($A$1="补货",U56&lt;30),AND($A$1="入库",U56&lt;15))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>OR(AND($A$1="补货",U56&lt;15),AND($A$1="入库",U56&lt;7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I55 I58:I176">
+    <cfRule type="expression" dxfId="7" priority="39">
       <formula>AND(I4=0,V4="FBA")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J174">
-    <cfRule type="expression" dxfId="7" priority="28">
+  <conditionalFormatting sqref="J4:J55 J58:J176">
+    <cfRule type="expression" dxfId="7" priority="38">
       <formula>AND(J4=0,V4="FBM")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R174">
-    <cfRule type="expression" dxfId="3" priority="30">
+  <conditionalFormatting sqref="M4:Q55 M58:Q176">
+    <cfRule type="expression" dxfId="2" priority="44">
+      <formula>$Q4&gt;1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="45">
+      <formula>$Q4&gt;0.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="46">
+      <formula>$Q4&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R55 R58:R176">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>R4=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T174">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="T4:T55 T61:T176">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>AF1=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U174">
-    <cfRule type="expression" dxfId="8" priority="32">
+  <conditionalFormatting sqref="U4:U55 U58:U176">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>OR(AND($A$1="补货",U4&lt;15),AND($A$1="入库",U4&lt;7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>OR(AND($A$1="补货",U4&lt;30),AND($A$1="入库",U4&lt;15))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="42">
       <formula>OR(AND($A$1="补货",U4&lt;60),AND($A$1="入库",U4&lt;30))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>OR(AND($A$1="补货",U4&lt;30),AND($A$1="入库",U4&lt;15))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56:Q57">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>$Q56&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>OR(AND($A$1="补货",U4&lt;15),AND($A$1="入库",U4&lt;7))</formula>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>$Q56&gt;0.5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:Q174">
-    <cfRule type="expression" dxfId="2" priority="34">
-      <formula>$Q4&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="35">
-      <formula>$Q4&gt;0.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="36">
-      <formula>$Q4&gt;0</formula>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>$Q56&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/WEB-INF/efw/storage/templates/output_stock.xlsx
+++ b/WEB-INF/efw/storage/templates/output_stock.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4924" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4964" uniqueCount="1420">
   <si>
     <t>补货</t>
   </si>
@@ -4250,6 +4250,78 @@
   </si>
   <si>
     <t>【Smart-Bear】W503 スポーツソックス プロ用スキーソックス 子供用 厚手のニット 冬用 登山 遠足 スポーツソックス 男の子 女の子 2足入り (XS( 4 - 7歳), ピンク)</t>
+  </si>
+  <si>
+    <t>JF-8TCP-BT89</t>
+  </si>
+  <si>
+    <t>B0BNGCXRN7</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】W601 スノーボード スキー ソックス スキー 靴下 段階着圧設計 防寒 抗菌防臭 吸汗速乾 保温 厚手 ウィンタースポーツ バイク レジャー 登山用 冬用靴下 男性 メンズ 2足セット (L：24.5~29cm, A)</t>
+  </si>
+  <si>
+    <t>TO-UX17-OIAP</t>
+  </si>
+  <si>
+    <t>B0BNGCLJTJ</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】W601 スノーボード スキー ソックス スキー 靴下 段階着圧設計 防寒 抗菌防臭 吸汗速乾 保温 厚手 ウィンタースポーツ バイク レジャー 登山用 冬用靴下 男性 メンズ 2足セット (L：24.5~29cm, B)</t>
+  </si>
+  <si>
+    <t>V5-G7YT-42OQ</t>
+  </si>
+  <si>
+    <t>B0BNGB51Y3</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】W601 スノーボード スキー ソックス スキー 靴下 段階着圧設計 防寒 抗菌防臭 吸汗速乾 保温 厚手 ウィンタースポーツ バイク レジャー 登山用 冬用靴下 男性 メンズ 2足セット (L：24.5~29cm, C)</t>
+  </si>
+  <si>
+    <t>RC-VY99-TAQC</t>
+  </si>
+  <si>
+    <t>B0BNGC9ZTH</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】W601 スノーボード スキー ソックス スキー 靴下 段階着圧設計 防寒 抗菌防臭 吸汗速乾 保温 厚手 ウィンタースポーツ バイク レジャー 登山用 冬用靴下 男性 メンズ 2足セット (L：24.5~29cm, D)</t>
+  </si>
+  <si>
+    <t>D5-1VCC-BVAW</t>
+  </si>
+  <si>
+    <t>B0BNGCVS2B</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】W602 スノーボード スキー ソックス スキー 靴下 段階着圧設計 防寒 抗菌防臭 吸汗速乾 保温 厚手 ウィンタースポーツ バイク レジャー 登山用 冬用靴下 女性 レディース 2足セット (M：22~25cm, A)</t>
+  </si>
+  <si>
+    <t>LP-LIFZ-F44N</t>
+  </si>
+  <si>
+    <t>B0BNGF1FXH</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】W602 スノーボード スキー ソックス スキー 靴下 段階着圧設計 防寒 抗菌防臭 吸汗速乾 保温 厚手 ウィンタースポーツ バイク レジャー 登山用 冬用靴下 女性 レディース 2足セット (M：22~25cm, B)</t>
+  </si>
+  <si>
+    <t>Q9-5CG2-RZUN</t>
+  </si>
+  <si>
+    <t>B0BNGF6Y4D</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】W602 スノーボード スキー ソックス スキー 靴下 段階着圧設計 防寒 抗菌防臭 吸汗速乾 保温 厚手 ウィンタースポーツ バイク レジャー 登山用 冬用靴下 女性 レディース 2足セット (M：22~25cm, C)</t>
+  </si>
+  <si>
+    <t>R2-YCF8-Z5J4</t>
+  </si>
+  <si>
+    <t>B0BNGDD8RW</t>
+  </si>
+  <si>
+    <t>【Smart-Bear】W602 スノーボード スキー ソックス スキー 靴下 段階着圧設計 防寒 抗菌防臭 吸汗速乾 保温 厚手 ウィンタースポーツ バイク レジャー 登山用 冬用靴下 女性 レディース 2足セット (M：22~25cm, D)</t>
   </si>
   <si>
     <t>W105</t>
@@ -24207,7 +24279,7 @@
   </sheetPr>
   <dimension ref="B1:R222"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -27564,13 +27636,13 @@
     </row>
     <row r="100" ht="50.1" customHeight="1" spans="2:13">
       <c r="B100" s="145" t="s">
-        <v>1385</v>
+        <v>1409</v>
       </c>
       <c r="C100" s="169" t="s">
         <v>519</v>
       </c>
       <c r="D100" s="170" t="s">
-        <v>1386</v>
+        <v>1410</v>
       </c>
       <c r="E100" s="147"/>
       <c r="F100" s="148" t="s">
@@ -27982,7 +28054,7 @@
         <v>519</v>
       </c>
       <c r="D112" s="179" t="s">
-        <v>1387</v>
+        <v>1411</v>
       </c>
       <c r="E112" s="180"/>
       <c r="F112" s="148" t="s">
@@ -28190,14 +28262,14 @@
         <v>519</v>
       </c>
       <c r="D118" s="162" t="s">
-        <v>1388</v>
+        <v>1412</v>
       </c>
       <c r="E118" s="167"/>
       <c r="F118" s="95" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="67" t="s">
-        <v>1389</v>
+        <v>1413</v>
       </c>
       <c r="H118" s="67" t="s">
         <v>662</v>
@@ -28569,7 +28641,7 @@
         <v>519</v>
       </c>
       <c r="D129" s="146" t="s">
-        <v>1390</v>
+        <v>1414</v>
       </c>
       <c r="E129" s="147"/>
       <c r="F129" s="148" t="s">
@@ -28771,13 +28843,13 @@
     </row>
     <row r="135" ht="50.1" customHeight="1" spans="2:13">
       <c r="B135" s="59" t="s">
-        <v>1391</v>
+        <v>1415</v>
       </c>
       <c r="C135" s="59" t="s">
         <v>483</v>
       </c>
       <c r="D135" s="60" t="s">
-        <v>1392</v>
+        <v>1416</v>
       </c>
       <c r="E135" s="232"/>
       <c r="F135" s="67" t="s">
@@ -28875,7 +28947,7 @@
       <c r="B138" s="63"/>
       <c r="C138" s="63"/>
       <c r="D138" s="60" t="s">
-        <v>1393</v>
+        <v>1417</v>
       </c>
       <c r="E138" s="238"/>
       <c r="F138" s="86" t="s">
@@ -28973,7 +29045,7 @@
       <c r="B141" s="63"/>
       <c r="C141" s="63"/>
       <c r="D141" s="60" t="s">
-        <v>1394</v>
+        <v>1418</v>
       </c>
       <c r="E141" s="232"/>
       <c r="F141" s="67" t="s">
@@ -29071,7 +29143,7 @@
       <c r="B144" s="63"/>
       <c r="C144" s="63"/>
       <c r="D144" s="60" t="s">
-        <v>1395</v>
+        <v>1419</v>
       </c>
       <c r="E144" s="232"/>
       <c r="F144" s="67" t="s">
@@ -31338,7 +31410,7 @@
   </sheetPr>
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -59850,9 +59922,9 @@
   <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59976,11 +60048,11 @@
       </c>
       <c r="S4" s="45"/>
       <c r="T4" s="45">
-        <f t="shared" ref="T4:T15" si="0">R4+S4</f>
+        <f t="shared" ref="T4:T18" si="0">R4+S4</f>
         <v>0</v>
       </c>
       <c r="U4" s="33" t="str">
-        <f t="shared" ref="U4:U15" si="1">IF(Q4&gt;0,T4/Q4*7,"-")</f>
+        <f t="shared" ref="U4:U18" si="1">IF(Q4&gt;0,T4/Q4*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V4" s="46"/>
@@ -60432,11 +60504,11 @@
       </c>
       <c r="S15" s="337"/>
       <c r="T15" s="337">
-        <f>R15+S15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U15" s="323" t="str">
-        <f>IF(Q15&gt;0,T15/Q15*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V15" s="338"/>
@@ -60472,11 +60544,11 @@
       </c>
       <c r="S16" s="45"/>
       <c r="T16" s="45">
-        <f>R16+S16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U16" s="33" t="str">
-        <f>IF(Q16&gt;0,T16/Q16*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V16" s="46"/>
@@ -60512,11 +60584,11 @@
       </c>
       <c r="S17" s="45"/>
       <c r="T17" s="45">
-        <f>R17+S17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U17" s="33" t="str">
-        <f>IF(Q17&gt;0,T17/Q17*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V17" s="46"/>
@@ -60552,11 +60624,11 @@
       </c>
       <c r="S18" s="50"/>
       <c r="T18" s="50">
-        <f>R18+S18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U18" s="39" t="str">
-        <f>IF(Q18&gt;0,T18/Q18*7,"-")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="V18" s="51"/>
@@ -66446,11 +66518,11 @@
       </c>
       <c r="S164" s="45"/>
       <c r="T164" s="45">
-        <f t="shared" ref="T164:T191" si="22">R164+S164</f>
+        <f t="shared" ref="T164:T195" si="22">R164+S164</f>
         <v>0</v>
       </c>
       <c r="U164" s="33" t="str">
-        <f t="shared" ref="U164:U191" si="23">IF(Q164&gt;0,T164/Q164*7,"-")</f>
+        <f t="shared" ref="U164:U195" si="23">IF(Q164&gt;0,T164/Q164*7,"-")</f>
         <v>-</v>
       </c>
       <c r="V164" s="47"/>
@@ -67002,44 +67074,64 @@
       <c r="V177" s="51"/>
     </row>
     <row r="178" customHeight="1" spans="2:22">
-      <c r="B178" s="312"/>
-      <c r="C178" s="313"/>
-      <c r="D178" s="314"/>
-      <c r="E178" s="314"/>
-      <c r="F178" s="347"/>
-      <c r="G178" s="408"/>
-      <c r="H178" s="317"/>
-      <c r="I178" s="327"/>
-      <c r="J178" s="328"/>
-      <c r="K178" s="329"/>
-      <c r="L178" s="329"/>
-      <c r="M178" s="329"/>
-      <c r="N178" s="329"/>
-      <c r="O178" s="329"/>
-      <c r="P178" s="329"/>
-      <c r="Q178" s="345"/>
-      <c r="R178" s="342">
+      <c r="B178" s="393"/>
+      <c r="C178" s="405" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D178" s="406" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E178" s="406" t="s">
+        <v>499</v>
+      </c>
+      <c r="F178" s="396" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="407" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H178" s="398"/>
+      <c r="I178" s="409"/>
+      <c r="J178" s="410"/>
+      <c r="K178" s="411"/>
+      <c r="L178" s="411"/>
+      <c r="M178" s="411"/>
+      <c r="N178" s="411"/>
+      <c r="O178" s="411"/>
+      <c r="P178" s="411"/>
+      <c r="Q178" s="415"/>
+      <c r="R178" s="416">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S178" s="343"/>
-      <c r="T178" s="343">
+      <c r="S178" s="337"/>
+      <c r="T178" s="337">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U178" s="326" t="str">
+      <c r="U178" s="323" t="str">
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="V178" s="348"/>
+      <c r="V178" s="417"/>
     </row>
     <row r="179" customHeight="1" spans="2:22">
-      <c r="B179" s="15"/>
-      <c r="C179" s="290"/>
-      <c r="D179" s="291"/>
-      <c r="E179" s="291"/>
-      <c r="F179" s="334"/>
-      <c r="G179" s="19"/>
+      <c r="B179" s="362"/>
+      <c r="C179" s="290" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D179" s="291" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E179" s="291" t="s">
+        <v>505</v>
+      </c>
+      <c r="F179" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" s="292" t="s">
+        <v>1390</v>
+      </c>
       <c r="H179" s="20"/>
       <c r="I179" s="34"/>
       <c r="J179" s="35"/>
@@ -67066,12 +67158,22 @@
       <c r="V179" s="47"/>
     </row>
     <row r="180" customHeight="1" spans="2:22">
-      <c r="B180" s="15"/>
-      <c r="C180" s="290"/>
-      <c r="D180" s="291"/>
-      <c r="E180" s="291"/>
-      <c r="F180" s="334"/>
-      <c r="G180" s="19"/>
+      <c r="B180" s="362"/>
+      <c r="C180" s="290" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D180" s="291" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E180" s="291" t="s">
+        <v>747</v>
+      </c>
+      <c r="F180" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" s="292" t="s">
+        <v>1393</v>
+      </c>
       <c r="H180" s="20"/>
       <c r="I180" s="34"/>
       <c r="J180" s="35"/>
@@ -67098,76 +67200,106 @@
       <c r="V180" s="47"/>
     </row>
     <row r="181" customHeight="1" spans="2:22">
-      <c r="B181" s="15"/>
-      <c r="C181" s="290"/>
-      <c r="D181" s="291"/>
-      <c r="E181" s="291"/>
-      <c r="F181" s="334"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="34"/>
-      <c r="J181" s="35"/>
-      <c r="K181" s="36"/>
-      <c r="L181" s="36"/>
-      <c r="M181" s="36"/>
-      <c r="N181" s="36"/>
-      <c r="O181" s="36"/>
-      <c r="P181" s="36"/>
-      <c r="Q181" s="332"/>
-      <c r="R181" s="44">
+      <c r="B181" s="301"/>
+      <c r="C181" s="302" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D181" s="303" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E181" s="303" t="s">
+        <v>751</v>
+      </c>
+      <c r="F181" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" s="305" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H181" s="26"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="38"/>
+      <c r="K181" s="39"/>
+      <c r="L181" s="39"/>
+      <c r="M181" s="39"/>
+      <c r="N181" s="39"/>
+      <c r="O181" s="39"/>
+      <c r="P181" s="39"/>
+      <c r="Q181" s="48"/>
+      <c r="R181" s="340">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S181" s="45"/>
-      <c r="T181" s="45">
+      <c r="S181" s="50"/>
+      <c r="T181" s="50">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U181" s="33" t="str">
+      <c r="U181" s="39" t="str">
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="V181" s="47"/>
+      <c r="V181" s="51"/>
     </row>
     <row r="182" customHeight="1" spans="2:22">
-      <c r="B182" s="15"/>
-      <c r="C182" s="290"/>
-      <c r="D182" s="291"/>
-      <c r="E182" s="291"/>
-      <c r="F182" s="334"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="34"/>
-      <c r="J182" s="35"/>
-      <c r="K182" s="36"/>
-      <c r="L182" s="36"/>
-      <c r="M182" s="36"/>
-      <c r="N182" s="36"/>
-      <c r="O182" s="36"/>
-      <c r="P182" s="36"/>
-      <c r="Q182" s="332"/>
-      <c r="R182" s="44">
+      <c r="B182" s="393"/>
+      <c r="C182" s="405" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D182" s="406" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E182" s="406" t="s">
+        <v>499</v>
+      </c>
+      <c r="F182" s="396" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182" s="407" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H182" s="398"/>
+      <c r="I182" s="409"/>
+      <c r="J182" s="410"/>
+      <c r="K182" s="411"/>
+      <c r="L182" s="411"/>
+      <c r="M182" s="411"/>
+      <c r="N182" s="411"/>
+      <c r="O182" s="411"/>
+      <c r="P182" s="411"/>
+      <c r="Q182" s="415"/>
+      <c r="R182" s="416">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S182" s="45"/>
-      <c r="T182" s="45">
+      <c r="S182" s="337"/>
+      <c r="T182" s="337">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U182" s="33" t="str">
+      <c r="U182" s="323" t="str">
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="V182" s="47"/>
+      <c r="V182" s="417"/>
     </row>
     <row r="183" customHeight="1" spans="2:22">
-      <c r="B183" s="15"/>
-      <c r="C183" s="290"/>
-      <c r="D183" s="291"/>
-      <c r="E183" s="291"/>
-      <c r="F183" s="334"/>
-      <c r="G183" s="19"/>
+      <c r="B183" s="362"/>
+      <c r="C183" s="290" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D183" s="291" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E183" s="291" t="s">
+        <v>505</v>
+      </c>
+      <c r="F183" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" s="292" t="s">
+        <v>1402</v>
+      </c>
       <c r="H183" s="20"/>
       <c r="I183" s="34"/>
       <c r="J183" s="35"/>
@@ -67194,12 +67326,22 @@
       <c r="V183" s="47"/>
     </row>
     <row r="184" customHeight="1" spans="2:22">
-      <c r="B184" s="15"/>
-      <c r="C184" s="290"/>
-      <c r="D184" s="291"/>
-      <c r="E184" s="291"/>
-      <c r="F184" s="334"/>
-      <c r="G184" s="19"/>
+      <c r="B184" s="362"/>
+      <c r="C184" s="16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="F184" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" s="19" t="s">
+        <v>1405</v>
+      </c>
       <c r="H184" s="20"/>
       <c r="I184" s="34"/>
       <c r="J184" s="35"/>
@@ -67226,68 +67368,78 @@
       <c r="V184" s="47"/>
     </row>
     <row r="185" customHeight="1" spans="2:22">
-      <c r="B185" s="15"/>
-      <c r="C185" s="290"/>
-      <c r="D185" s="291"/>
-      <c r="E185" s="291"/>
-      <c r="F185" s="334"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="34"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="36"/>
-      <c r="L185" s="36"/>
-      <c r="M185" s="36"/>
-      <c r="N185" s="36"/>
-      <c r="O185" s="36"/>
-      <c r="P185" s="36"/>
-      <c r="Q185" s="332"/>
-      <c r="R185" s="44">
+      <c r="B185" s="301"/>
+      <c r="C185" s="363" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D185" s="364" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E185" s="364" t="s">
+        <v>751</v>
+      </c>
+      <c r="F185" s="306" t="s">
+        <v>17</v>
+      </c>
+      <c r="G185" s="365" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H185" s="26"/>
+      <c r="I185" s="37"/>
+      <c r="J185" s="38"/>
+      <c r="K185" s="39"/>
+      <c r="L185" s="39"/>
+      <c r="M185" s="39"/>
+      <c r="N185" s="39"/>
+      <c r="O185" s="39"/>
+      <c r="P185" s="39"/>
+      <c r="Q185" s="48"/>
+      <c r="R185" s="340">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S185" s="45"/>
-      <c r="T185" s="45">
+      <c r="S185" s="50"/>
+      <c r="T185" s="50">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U185" s="33" t="str">
+      <c r="U185" s="39" t="str">
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="V185" s="47"/>
+      <c r="V185" s="51"/>
     </row>
     <row r="186" customHeight="1" spans="2:22">
-      <c r="B186" s="15"/>
-      <c r="C186" s="290"/>
-      <c r="D186" s="291"/>
-      <c r="E186" s="291"/>
-      <c r="F186" s="334"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="34"/>
-      <c r="J186" s="35"/>
-      <c r="K186" s="36"/>
-      <c r="L186" s="36"/>
-      <c r="M186" s="36"/>
-      <c r="N186" s="36"/>
-      <c r="O186" s="36"/>
-      <c r="P186" s="36"/>
-      <c r="Q186" s="332"/>
-      <c r="R186" s="44">
+      <c r="B186" s="312"/>
+      <c r="C186" s="313"/>
+      <c r="D186" s="314"/>
+      <c r="E186" s="314"/>
+      <c r="F186" s="347"/>
+      <c r="G186" s="408"/>
+      <c r="H186" s="317"/>
+      <c r="I186" s="327"/>
+      <c r="J186" s="328"/>
+      <c r="K186" s="329"/>
+      <c r="L186" s="329"/>
+      <c r="M186" s="329"/>
+      <c r="N186" s="329"/>
+      <c r="O186" s="329"/>
+      <c r="P186" s="329"/>
+      <c r="Q186" s="345"/>
+      <c r="R186" s="342">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S186" s="45"/>
-      <c r="T186" s="45">
+      <c r="S186" s="343"/>
+      <c r="T186" s="343">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U186" s="33" t="str">
+      <c r="U186" s="326" t="str">
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="V186" s="47"/>
+      <c r="V186" s="348"/>
     </row>
     <row r="187" customHeight="1" spans="2:22">
       <c r="B187" s="15"/>
@@ -67472,11 +67624,11 @@
       </c>
       <c r="S192" s="45"/>
       <c r="T192" s="45">
-        <f>R192+S192</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U192" s="33" t="str">
-        <f>IF(Q192&gt;0,T192/Q192*7,"-")</f>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
       <c r="V192" s="47"/>
@@ -67504,11 +67656,11 @@
       </c>
       <c r="S193" s="45"/>
       <c r="T193" s="45">
-        <f>R193+S193</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U193" s="33" t="str">
-        <f>IF(Q193&gt;0,T193/Q193*7,"-")</f>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
       <c r="V193" s="47"/>
@@ -67536,11 +67688,11 @@
       </c>
       <c r="S194" s="45"/>
       <c r="T194" s="45">
-        <f>R194+S194</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U194" s="33" t="str">
-        <f>IF(Q194&gt;0,T194/Q194*7,"-")</f>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
       <c r="V194" s="47"/>
@@ -67570,11 +67722,11 @@
       </c>
       <c r="S195" s="50"/>
       <c r="T195" s="50">
-        <f>R195+S195</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U195" s="39" t="str">
-        <f>IF(Q195&gt;0,T195/Q195*7,"-")</f>
+        <f t="shared" si="23"/>
         <v>-</v>
       </c>
       <c r="V195" s="51"/>
